--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3AC22-D5A4-484C-A166-181D9BDC9731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EE1CCB-DF82-1B42-BB2F-9F9CB7E906F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -318,7 +318,34 @@
     <t>Col5</t>
   </si>
   <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>tensile yield stress</t>
+  </si>
+  <si>
+    <t>tensile ductility</t>
+  </si>
+  <si>
+    <t>UTS</t>
+  </si>
+  <si>
     <t>hardness HV</t>
+  </si>
+  <si>
+    <t>Co31.5 Fe18.5 Ni31.5 Al18.5</t>
+  </si>
+  <si>
+    <t>BCC+L12</t>
+  </si>
+  <si>
+    <t>1e-3 strain rate</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2025.148524</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2820,7 @@
   <dimension ref="A1:T962"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3045,7 +3072,7 @@
       </c>
       <c r="O7" s="105"/>
       <c r="P7" s="70" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="70" t="s">
         <v>36</v>
@@ -3150,19 +3177,41 @@
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="73"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="75"/>
+      <c r="F10" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="77">
+        <v>298</v>
+      </c>
+      <c r="J10" s="78">
+        <v>571000000</v>
+      </c>
+      <c r="K10" s="78">
+        <v>15000000</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>33</v>
+      </c>
       <c r="M10" s="75"/>
-      <c r="N10" s="79"/>
+      <c r="N10" s="79" t="s">
+        <v>71</v>
+      </c>
       <c r="O10" s="80"/>
       <c r="P10" s="81"/>
       <c r="Q10" s="81"/>
@@ -3172,19 +3221,41 @@
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="75"/>
+      <c r="B11" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="77">
+        <v>298</v>
+      </c>
+      <c r="J11" s="35">
+        <v>975000000</v>
+      </c>
+      <c r="K11" s="35">
+        <v>5000000</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>33</v>
+      </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="79"/>
+      <c r="N11" s="79" t="s">
+        <v>71</v>
+      </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -3194,19 +3265,41 @@
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="75"/>
+      <c r="B12" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="77">
+        <v>298</v>
+      </c>
+      <c r="J12" s="35">
+        <v>6.9</v>
+      </c>
+      <c r="K12" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="79"/>
+      <c r="N12" s="79" t="s">
+        <v>71</v>
+      </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EE1CCB-DF82-1B42-BB2F-9F9CB7E906F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A609F9-9773-2C43-AE8B-2682D7D9BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -321,7 +321,16 @@
     <t>AAM</t>
   </si>
   <si>
+    <t>compressive yield stress</t>
+  </si>
+  <si>
+    <t>compressive ductility</t>
+  </si>
+  <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>UCS</t>
   </si>
   <si>
     <t>tensile yield stress</t>
@@ -346,6 +355,39 @@
   </si>
   <si>
     <t>10.1016/j.msea.2025.148524</t>
+  </si>
+  <si>
+    <t>Nb0.72 Fe1.98 Co1.22 Ni1.00</t>
+  </si>
+  <si>
+    <t>Nb0.62 Fe1.98 Co1.22 Ni1.00</t>
+  </si>
+  <si>
+    <t>Nb0.55 Fe1.98 Co1.22 Ni1.00</t>
+  </si>
+  <si>
+    <t>Nb0.40 Fe1.98 Co1.22 Ni1.00</t>
+  </si>
+  <si>
+    <t>hypereutectic; (Co,Nb)2Nb-type C14 Laves phase majority</t>
+  </si>
+  <si>
+    <t>FCC+C14</t>
+  </si>
+  <si>
+    <t>eutectic; FCC and (Co,Nb)2Nb-type C14 Laves phase in lamellar structure</t>
+  </si>
+  <si>
+    <t>hypoeutectic; (Co,Nb)2Nb-type C14 Laves phase minority</t>
+  </si>
+  <si>
+    <t>F2b</t>
+  </si>
+  <si>
+    <t>2e-4 strain rate</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmst.2021.06.038</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2862,7 @@
   <dimension ref="A1:T962"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3072,7 +3114,7 @@
       </c>
       <c r="O7" s="105"/>
       <c r="P7" s="70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="70" t="s">
         <v>36</v>
@@ -3178,23 +3220,23 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="75" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" s="75" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" s="77">
         <v>298</v>
@@ -3210,7 +3252,7 @@
       </c>
       <c r="M10" s="75"/>
       <c r="N10" s="79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O10" s="80"/>
       <c r="P10" s="81"/>
@@ -3222,23 +3264,23 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G11" s="75" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" s="77">
         <v>298</v>
@@ -3254,7 +3296,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3266,23 +3308,23 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G12" s="75" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" s="77">
         <v>298</v>
@@ -3294,11 +3336,11 @@
         <v>0.3</v>
       </c>
       <c r="L12" s="75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3309,19 +3351,43 @@
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="35"/>
+      <c r="B13" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="77">
+        <v>298</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1678000000</v>
+      </c>
       <c r="K13" s="35"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="79"/>
+      <c r="L13" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -3331,19 +3397,43 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="35"/>
+      <c r="B14" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="77">
+        <v>298</v>
+      </c>
+      <c r="J14" s="35">
+        <v>1397000000</v>
+      </c>
       <c r="K14" s="35"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -3353,19 +3443,43 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="63"/>
+      <c r="B15" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="77">
+        <v>298</v>
+      </c>
+      <c r="J15" s="63">
+        <v>1248000000</v>
+      </c>
       <c r="K15" s="35"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="79"/>
+      <c r="L15" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
@@ -3375,19 +3489,43 @@
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="77">
+        <v>298</v>
+      </c>
+      <c r="J16" s="63">
+        <v>1168000000</v>
+      </c>
       <c r="K16" s="38"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="79"/>
+      <c r="L16" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
@@ -3397,19 +3535,43 @@
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="63"/>
+      <c r="B17" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="77">
+        <v>298</v>
+      </c>
+      <c r="J17" s="63">
+        <v>2963000000</v>
+      </c>
       <c r="K17" s="38"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="79"/>
+      <c r="L17" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="39"/>
@@ -3419,19 +3581,43 @@
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="63"/>
+      <c r="B18" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="77">
+        <v>298</v>
+      </c>
+      <c r="J18" s="63">
+        <v>3281000000</v>
+      </c>
       <c r="K18" s="38"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="79"/>
+      <c r="L18" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="39"/>
@@ -3441,19 +3627,43 @@
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="77">
+        <v>298</v>
+      </c>
+      <c r="J19" s="63">
+        <v>3000000000</v>
+      </c>
       <c r="K19" s="38"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="79"/>
+      <c r="L19" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="39"/>
@@ -3463,19 +3673,43 @@
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="63"/>
+      <c r="B20" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="77">
+        <v>298</v>
+      </c>
+      <c r="J20" s="63">
+        <v>2846000000</v>
+      </c>
       <c r="K20" s="38"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="79"/>
+      <c r="L20" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="39"/>
@@ -3485,19 +3719,43 @@
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="63"/>
+      <c r="B21" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="77">
+        <v>298</v>
+      </c>
+      <c r="J21" s="63">
+        <v>23.5</v>
+      </c>
       <c r="K21" s="38"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="79"/>
+      <c r="L21" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="39"/>
@@ -3507,19 +3765,43 @@
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="37"/>
+      <c r="B22" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="77">
+        <v>298</v>
+      </c>
+      <c r="J22" s="37">
+        <v>31</v>
+      </c>
       <c r="K22" s="35"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="79"/>
+      <c r="L22" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="39"/>
@@ -3529,19 +3811,43 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="63"/>
+      <c r="B23" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="77">
+        <v>298</v>
+      </c>
+      <c r="J23" s="63">
+        <v>32</v>
+      </c>
       <c r="K23" s="63"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="36"/>
+      <c r="L23" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="39"/>
@@ -3551,19 +3857,43 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="63"/>
+      <c r="B24" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="77">
+        <v>298</v>
+      </c>
+      <c r="J24" s="63">
+        <v>34.5</v>
+      </c>
       <c r="K24" s="63"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="36"/>
+      <c r="L24" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="39"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A609F9-9773-2C43-AE8B-2682D7D9BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11838EA-D91B-EF48-82E3-D0007F2740F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="108">
   <si>
     <r>
       <rPr>
@@ -345,6 +345,15 @@
     <t>hardness HV</t>
   </si>
   <si>
+    <t>amorphous</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>peak magnetic entropy change</t>
+  </si>
+  <si>
     <t>Co31.5 Fe18.5 Ni31.5 Al18.5</t>
   </si>
   <si>
@@ -388,6 +397,63 @@
   </si>
   <si>
     <t>10.1016/j.jmst.2021.06.038</t>
+  </si>
+  <si>
+    <t>Gd36</t>
+  </si>
+  <si>
+    <t>Dy36</t>
+  </si>
+  <si>
+    <t>Ho36</t>
+  </si>
+  <si>
+    <t>Gd36Tb20Co20Al24</t>
+  </si>
+  <si>
+    <t>Dy36Tb20Co20Al24</t>
+  </si>
+  <si>
+    <t>Ho36Tb20Co20Al24</t>
+  </si>
+  <si>
+    <t>AAM+DC+MS</t>
+  </si>
+  <si>
+    <t>meltspun on Mo wheel at 30m/s for melt-feeding rate of 30μm/s; microwires</t>
+  </si>
+  <si>
+    <t>GdTbCoAl</t>
+  </si>
+  <si>
+    <t>equiatomic GdTbCoAl</t>
+  </si>
+  <si>
+    <t>liquidus temperature</t>
+  </si>
+  <si>
+    <t>glass transition temperature</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>curie temperature</t>
+  </si>
+  <si>
+    <t>J/kgK</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmst.2022.12.008</t>
+  </si>
+  <si>
+    <t>5T</t>
   </si>
 </sst>
 </file>
@@ -555,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1344,6 +1410,17 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFA7A7A7"/>
       </left>
       <right style="thin">
@@ -1398,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1582,12 +1659,12 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1699,6 +1776,8 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2862,7 +2941,7 @@
   <dimension ref="A1:T962"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3220,10 +3299,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>62</v>
@@ -3236,7 +3315,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" s="77">
         <v>298</v>
@@ -3252,7 +3331,7 @@
       </c>
       <c r="M10" s="75"/>
       <c r="N10" s="79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O10" s="80"/>
       <c r="P10" s="81"/>
@@ -3264,10 +3343,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>62</v>
@@ -3280,7 +3359,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="77">
         <v>298</v>
@@ -3296,7 +3375,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3308,10 +3387,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>62</v>
@@ -3324,7 +3403,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" s="77">
         <v>298</v>
@@ -3340,7 +3419,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3352,16 +3431,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>63</v>
@@ -3370,7 +3449,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" s="77">
         <v>298</v>
@@ -3383,10 +3462,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3398,16 +3477,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>63</v>
@@ -3416,7 +3495,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I14" s="77">
         <v>298</v>
@@ -3429,10 +3508,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3444,16 +3523,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>63</v>
@@ -3462,7 +3541,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I15" s="77">
         <v>298</v>
@@ -3475,10 +3554,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3490,16 +3569,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D16" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>63</v>
@@ -3508,7 +3587,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I16" s="77">
         <v>298</v>
@@ -3521,10 +3600,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N16" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3536,16 +3615,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>66</v>
@@ -3554,7 +3633,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I17" s="77">
         <v>298</v>
@@ -3567,10 +3646,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N17" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3582,16 +3661,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D18" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>66</v>
@@ -3600,7 +3679,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I18" s="77">
         <v>298</v>
@@ -3613,10 +3692,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N18" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3628,16 +3707,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>66</v>
@@ -3646,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I19" s="77">
         <v>298</v>
@@ -3659,10 +3738,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N19" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3674,16 +3753,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>66</v>
@@ -3692,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I20" s="77">
         <v>298</v>
@@ -3705,10 +3784,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -3720,16 +3799,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D21" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>64</v>
@@ -3738,7 +3817,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I21" s="77">
         <v>298</v>
@@ -3751,10 +3830,10 @@
         <v>65</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N21" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -3766,16 +3845,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D22" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>64</v>
@@ -3784,7 +3863,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I22" s="77">
         <v>298</v>
@@ -3797,10 +3876,10 @@
         <v>65</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -3812,16 +3891,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>64</v>
@@ -3830,7 +3909,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I23" s="77">
         <v>298</v>
@@ -3843,10 +3922,10 @@
         <v>65</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N23" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -3858,16 +3937,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D24" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>64</v>
@@ -3876,7 +3955,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I24" s="77">
         <v>298</v>
@@ -3889,10 +3968,10 @@
         <v>65</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N24" s="79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -3902,20 +3981,42 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="A25" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="63"/>
+      <c r="J25" s="63">
+        <v>1253</v>
+      </c>
       <c r="K25" s="63"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="36"/>
+      <c r="L25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="39"/>
@@ -3924,20 +4025,42 @@
       <c r="T25" s="37"/>
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="A26" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="63">
+        <v>1061</v>
+      </c>
       <c r="K26" s="63"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="36"/>
+      <c r="L26" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="39"/>
@@ -3946,20 +4069,42 @@
       <c r="T26" s="37"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="A27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="63"/>
+      <c r="J27" s="63">
+        <v>1075</v>
+      </c>
       <c r="K27" s="63"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="36"/>
+      <c r="L27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
       <c r="Q27" s="39"/>
@@ -3968,20 +4113,42 @@
       <c r="T27" s="37"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="A28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="63"/>
+      <c r="J28" s="63">
+        <v>1075</v>
+      </c>
       <c r="K28" s="63"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="36"/>
+      <c r="L28" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
       <c r="Q28" s="39"/>
@@ -3990,20 +4157,42 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="A29" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="63">
+        <v>596</v>
+      </c>
       <c r="K29" s="63"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="36"/>
+      <c r="L29" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="39"/>
@@ -4012,20 +4201,42 @@
       <c r="T29" s="37"/>
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="A30" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="34"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="63">
+        <v>585</v>
+      </c>
       <c r="K30" s="63"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="36"/>
+      <c r="L30" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
       <c r="Q30" s="39"/>
@@ -4034,20 +4245,42 @@
       <c r="T30" s="37"/>
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="A31" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="63"/>
+      <c r="J31" s="63">
+        <v>628</v>
+      </c>
       <c r="K31" s="63"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="36"/>
+      <c r="L31" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="39"/>
@@ -4056,20 +4289,42 @@
       <c r="T31" s="37"/>
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="A32" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="J32" s="63"/>
+      <c r="J32" s="63">
+        <v>628</v>
+      </c>
       <c r="K32" s="63"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="36"/>
+      <c r="L32" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
       <c r="Q32" s="39"/>
@@ -4078,20 +4333,42 @@
       <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="A33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="63"/>
+      <c r="J33" s="63">
+        <v>81</v>
+      </c>
       <c r="K33" s="63"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="36"/>
+      <c r="L33" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="39"/>
@@ -4100,20 +4377,42 @@
       <c r="T33" s="37"/>
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="A34" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="63"/>
+      <c r="J34" s="63">
+        <v>40</v>
+      </c>
       <c r="K34" s="63"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="36"/>
+      <c r="L34" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
@@ -4122,20 +4421,42 @@
       <c r="T34" s="37"/>
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="A35" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="38"/>
+      <c r="J35" s="38">
+        <v>34</v>
+      </c>
       <c r="K35" s="38"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="36"/>
+      <c r="L35" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="39"/>
@@ -4144,20 +4465,44 @@
       <c r="T35" s="37"/>
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="A36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="38"/>
+      <c r="I36" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="38">
+        <v>9</v>
+      </c>
       <c r="K36" s="38"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="36"/>
+      <c r="L36" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="39"/>
@@ -4166,20 +4511,44 @@
       <c r="T36" s="37"/>
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="A37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="38"/>
+      <c r="I37" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="38">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="K37" s="35"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="36"/>
+      <c r="L37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
       <c r="Q37" s="39"/>
@@ -4188,20 +4557,44 @@
       <c r="T37" s="37"/>
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="A38" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="38"/>
+      <c r="I38" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="38">
+        <v>10.3</v>
+      </c>
       <c r="K38" s="35"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="36"/>
+      <c r="L38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="39"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11838EA-D91B-EF48-82E3-D0007F2740F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58F7E86-837B-0048-B37F-365F9719C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="124">
   <si>
     <r>
       <rPr>
@@ -454,6 +454,55 @@
   </si>
   <si>
     <t>5T</t>
+  </si>
+  <si>
+    <t>10.1007/s12598-023-02501-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmGdDyCoAl </t>
+  </si>
+  <si>
+    <t>GdTbHoErLa</t>
+  </si>
+  <si>
+    <t>GdTbHoErLaY</t>
+  </si>
+  <si>
+    <t>ErDyCoAlTm</t>
+  </si>
+  <si>
+    <t>HoTmGdCuAl</t>
+  </si>
+  <si>
+    <t>GdHoErFeAl</t>
+  </si>
+  <si>
+    <t>GdTbDyFeAl</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2021.159918</t>
+  </si>
+  <si>
+    <t>10.1557/s43578-022-00712-0</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2018.03.002</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmmm.2020.167270</t>
+  </si>
+  <si>
+    <t>10.
+1016/j.intermet.2018.02.015</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2014.11.004</t>
+  </si>
+  <si>
+    <t>meltspun at 30m/s; microwires</t>
+  </si>
+  <si>
+    <t>data from T1 in 10.1007/s12598-023-02501-y</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1778,6 +1827,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2940,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -4355,7 +4407,9 @@
         <v>29</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
+      <c r="I33" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="J33" s="63">
         <v>81</v>
       </c>
@@ -4399,7 +4453,9 @@
         <v>29</v>
       </c>
       <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
+      <c r="I34" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="J34" s="63">
         <v>40</v>
       </c>
@@ -4443,7 +4499,9 @@
         <v>29</v>
       </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="I35" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="J35" s="38">
         <v>34</v>
       </c>
@@ -4604,19 +4662,41 @@
     </row>
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="38"/>
+      <c r="I39" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="38">
+        <v>52</v>
+      </c>
       <c r="K39" s="35"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="36"/>
+      <c r="L39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
@@ -4626,19 +4706,37 @@
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="E40" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="46"/>
+      <c r="I40" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="46">
+        <v>127</v>
+      </c>
       <c r="K40" s="47"/>
-      <c r="L40" s="32"/>
+      <c r="L40" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="M40" s="40"/>
-      <c r="N40" s="36"/>
+      <c r="N40" s="36" t="s">
+        <v>116</v>
+      </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="46"/>
@@ -4648,19 +4746,37 @@
     </row>
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="E41" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="95"/>
+      <c r="I41" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="95">
+        <v>120</v>
+      </c>
       <c r="K41" s="47"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="36"/>
+      <c r="L41" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="40"/>
+      <c r="N41" s="36" t="s">
+        <v>117</v>
+      </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="46"/>
@@ -4670,19 +4786,37 @@
     </row>
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="E42" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="95"/>
+      <c r="I42" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="95">
+        <v>12</v>
+      </c>
       <c r="K42" s="47"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="36"/>
+      <c r="L42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="40"/>
+      <c r="N42" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
       <c r="Q42" s="46"/>
@@ -4692,19 +4826,37 @@
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="E43" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="95"/>
+      <c r="I43" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="95">
+        <v>33.6</v>
+      </c>
       <c r="K43" s="47"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="36"/>
+      <c r="L43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" s="40"/>
+      <c r="N43" s="36" t="s">
+        <v>119</v>
+      </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
       <c r="Q43" s="46"/>
@@ -4714,19 +4866,37 @@
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="E44" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="95"/>
+      <c r="I44" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="95">
+        <v>55</v>
+      </c>
       <c r="K44" s="49"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="36"/>
+      <c r="L44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" s="40"/>
+      <c r="N44" s="142" t="s">
+        <v>120</v>
+      </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="39"/>
@@ -4736,19 +4906,37 @@
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="E45" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="46"/>
+      <c r="I45" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="46">
+        <v>112</v>
+      </c>
       <c r="K45" s="49"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="36"/>
+      <c r="L45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="40"/>
+      <c r="N45" s="142" t="s">
+        <v>121</v>
+      </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="39"/>
@@ -4758,19 +4946,41 @@
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" s="33"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="36"/>
+      <c r="I46" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="38">
+        <v>6.34</v>
+      </c>
+      <c r="K46" s="35"/>
+      <c r="L46" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
       <c r="Q46" s="39"/>
@@ -4780,19 +4990,37 @@
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="32"/>
+      <c r="E47" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="30"/>
+      <c r="I47" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="46">
+        <v>5.92</v>
+      </c>
+      <c r="K47" s="47"/>
+      <c r="L47" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M47" s="40"/>
+      <c r="N47" s="36" t="s">
+        <v>116</v>
+      </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
       <c r="Q47" s="39"/>
@@ -4802,19 +5030,37 @@
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="32"/>
+      <c r="E48" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="30"/>
+      <c r="I48" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="95">
+        <v>5.9</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48" s="40"/>
+      <c r="N48" s="36" t="s">
+        <v>117</v>
+      </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="39"/>
@@ -4824,19 +5070,37 @@
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="32"/>
+      <c r="E49" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H49" s="33"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="30"/>
+      <c r="I49" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="95">
+        <v>11.9</v>
+      </c>
+      <c r="K49" s="47"/>
+      <c r="L49" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="40"/>
+      <c r="N49" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="39"/>
@@ -4846,19 +5110,37 @@
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="32"/>
+      <c r="E50" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H50" s="33"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="30"/>
+      <c r="I50" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="95">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K50" s="47"/>
+      <c r="L50" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" s="40"/>
+      <c r="N50" s="36" t="s">
+        <v>119</v>
+      </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
       <c r="Q50" s="39"/>
@@ -4868,19 +5150,37 @@
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="32"/>
+      <c r="E51" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="95"/>
+      <c r="I51" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" s="95">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="K51" s="49"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="30"/>
+      <c r="L51" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M51" s="40"/>
+      <c r="N51" s="142" t="s">
+        <v>120</v>
+      </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="39"/>
@@ -4890,19 +5190,37 @@
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="30"/>
+      <c r="B52" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="32"/>
+      <c r="E52" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="49"/>
+      <c r="I52" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="46">
+        <v>5.96</v>
+      </c>
       <c r="K52" s="49"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="30"/>
+      <c r="L52" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" s="40"/>
+      <c r="N52" s="142" t="s">
+        <v>121</v>
+      </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
       <c r="Q52" s="39"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E494EFA6-A242-EB44-BF71-C8AAF70FDD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A5B34-F55F-974C-AEC6-1D2DC52485E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="152">
   <si>
     <r>
       <rPr>
@@ -345,6 +345,9 @@
     <t>UTS</t>
   </si>
   <si>
+    <t>FCC</t>
+  </si>
+  <si>
     <t>F7</t>
   </si>
   <si>
@@ -560,6 +563,30 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2023.171483</t>
+  </si>
+  <si>
+    <t>AAM+DC</t>
+  </si>
+  <si>
+    <t>B2+L12</t>
+  </si>
+  <si>
+    <t>Co17.33 Cr17.33 Ni47.33 Al18</t>
+  </si>
+  <si>
+    <t>Co17 Cr17 Ni47 Al19</t>
+  </si>
+  <si>
+    <t>eutectic; lamellar structure in as-cast state</t>
+  </si>
+  <si>
+    <t>Co20 Cr20 Ni50 Al10</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>10.20517/microstructures.2022.40</t>
   </si>
 </sst>
 </file>
@@ -3047,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3300,7 +3327,7 @@
       </c>
       <c r="O7" s="104"/>
       <c r="P7" s="69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="69" t="s">
         <v>36</v>
@@ -3406,10 +3433,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
@@ -3422,7 +3449,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3438,7 +3465,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3450,10 +3477,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
@@ -3466,7 +3493,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3482,7 +3509,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3494,10 +3521,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
@@ -3510,7 +3537,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3526,7 +3553,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3538,16 +3565,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>64</v>
@@ -3556,7 +3583,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3569,10 +3596,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3584,16 +3611,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>64</v>
@@ -3602,7 +3629,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3615,10 +3642,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3630,16 +3657,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>64</v>
@@ -3648,7 +3675,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3661,10 +3688,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3676,16 +3703,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>64</v>
@@ -3694,7 +3721,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3707,10 +3734,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3722,16 +3749,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>67</v>
@@ -3740,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -3753,10 +3780,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3768,16 +3795,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>67</v>
@@ -3786,7 +3813,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -3799,10 +3826,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3814,16 +3841,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>67</v>
@@ -3832,7 +3859,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -3845,10 +3872,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3860,16 +3887,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>67</v>
@@ -3878,7 +3905,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -3891,10 +3918,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -3906,16 +3933,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>65</v>
@@ -3924,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -3937,10 +3964,10 @@
         <v>66</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -3952,16 +3979,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>65</v>
@@ -3970,7 +3997,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -3983,10 +4010,10 @@
         <v>66</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -3998,16 +4025,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>65</v>
@@ -4016,7 +4043,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4029,10 +4056,10 @@
         <v>66</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4044,16 +4071,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>65</v>
@@ -4062,7 +4089,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4075,10 +4102,10 @@
         <v>66</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4089,22 +4116,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="C25" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>98</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4116,13 +4143,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4133,22 +4160,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4160,13 +4187,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4177,22 +4204,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4204,13 +4231,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4221,22 +4248,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4248,13 +4275,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4265,22 +4292,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="140" t="s">
+      <c r="C29" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>98</v>
-      </c>
       <c r="F29" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4292,13 +4319,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4309,22 +4336,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4336,13 +4363,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4353,22 +4380,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4380,13 +4407,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4397,22 +4424,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4424,13 +4451,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4441,28 +4468,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4470,13 +4497,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4487,28 +4514,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4516,13 +4543,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4533,28 +4560,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4562,13 +4589,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4579,28 +4606,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4608,13 +4635,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4625,28 +4652,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4654,13 +4681,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4671,28 +4698,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4700,13 +4727,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4718,25 +4745,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4744,13 +4771,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -4762,23 +4789,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -4786,11 +4813,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -4802,23 +4829,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -4826,11 +4853,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -4842,23 +4869,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -4866,11 +4893,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -4882,23 +4909,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -4906,11 +4933,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -4922,23 +4949,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -4946,11 +4973,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M44" s="40"/>
       <c r="N44" s="141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -4962,23 +4989,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -4986,11 +5013,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="141" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5002,25 +5029,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5028,13 +5055,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5046,23 +5073,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5070,11 +5097,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5086,23 +5113,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5110,11 +5137,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5126,23 +5153,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5150,11 +5177,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5166,23 +5193,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5190,11 +5217,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5206,23 +5233,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5230,11 +5257,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5246,23 +5273,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5270,11 +5297,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="141" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5286,25 +5313,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F53" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5312,13 +5339,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5330,25 +5357,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F54" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5356,13 +5383,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5374,25 +5401,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F55" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5400,13 +5427,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5418,25 +5445,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F56" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5444,13 +5471,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5462,25 +5489,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5488,13 +5515,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5506,25 +5533,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5532,13 +5559,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5550,25 +5577,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F59" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5576,13 +5603,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5594,25 +5621,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F60" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5620,13 +5647,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5638,25 +5665,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F61" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5664,13 +5691,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5682,25 +5709,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F62" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5708,13 +5735,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5726,25 +5753,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F63" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -5752,13 +5779,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -5770,25 +5797,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F64" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -5796,13 +5823,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -5814,25 +5841,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -5840,13 +5867,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -5858,25 +5885,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -5884,13 +5911,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -5902,25 +5929,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F67" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -5928,13 +5955,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -5946,25 +5973,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="F68" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -5972,13 +5999,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -5990,16 +6017,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6023,10 +6050,10 @@
         <v>33</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6042,16 +6069,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6075,10 +6102,10 @@
         <v>33</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6094,16 +6121,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6127,10 +6154,10 @@
         <v>33</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6146,16 +6173,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6179,10 +6206,10 @@
         <v>33</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6198,16 +6225,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6231,10 +6258,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6250,16 +6277,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6283,10 +6310,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6302,16 +6329,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6335,10 +6362,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6354,16 +6381,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6387,10 +6414,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6406,16 +6433,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>67</v>
@@ -6435,10 +6462,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6450,16 +6477,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>67</v>
@@ -6479,10 +6506,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6494,16 +6521,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>67</v>
@@ -6523,10 +6550,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6538,16 +6565,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>65</v>
@@ -6567,10 +6594,10 @@
         <v>66</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6582,16 +6609,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>65</v>
@@ -6611,10 +6638,10 @@
         <v>66</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6626,16 +6653,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>65</v>
@@ -6655,10 +6682,10 @@
         <v>66</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6669,19 +6696,39 @@
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="32"/>
+      <c r="B83" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H83" s="33"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="I83" s="34">
+        <v>298</v>
+      </c>
+      <c r="J83" s="35">
+        <v>708000000</v>
+      </c>
       <c r="K83" s="35"/>
-      <c r="L83" s="50"/>
+      <c r="L83" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="M83" s="50"/>
-      <c r="N83" s="30"/>
+      <c r="N83" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
@@ -6691,19 +6738,39 @@
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="32"/>
+      <c r="B84" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H84" s="33"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
+      <c r="I84" s="34">
+        <v>298</v>
+      </c>
+      <c r="J84" s="35">
+        <v>734000000</v>
+      </c>
       <c r="K84" s="35"/>
-      <c r="L84" s="50"/>
+      <c r="L84" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="M84" s="50"/>
-      <c r="N84" s="30"/>
+      <c r="N84" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
       <c r="Q84" s="39"/>
@@ -6713,19 +6780,39 @@
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="32"/>
+      <c r="B85" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H85" s="33"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="35"/>
+      <c r="I85" s="34">
+        <v>298</v>
+      </c>
+      <c r="J85" s="35">
+        <v>1179000000</v>
+      </c>
       <c r="K85" s="35"/>
-      <c r="L85" s="50"/>
+      <c r="L85" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="M85" s="50"/>
-      <c r="N85" s="30"/>
+      <c r="N85" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
@@ -6735,19 +6822,39 @@
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="32"/>
+      <c r="B86" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H86" s="33"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="I86" s="34">
+        <v>298</v>
+      </c>
+      <c r="J86" s="35">
+        <v>1219000000</v>
+      </c>
       <c r="K86" s="49"/>
-      <c r="L86" s="50"/>
+      <c r="L86" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="M86" s="50"/>
-      <c r="N86" s="30"/>
+      <c r="N86" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
       <c r="Q86" s="39"/>
@@ -6757,19 +6864,39 @@
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="32"/>
+      <c r="B87" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H87" s="33"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="I87" s="34">
+        <v>298</v>
+      </c>
+      <c r="J87" s="35">
+        <v>10</v>
+      </c>
       <c r="K87" s="49"/>
-      <c r="L87" s="50"/>
+      <c r="L87" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="M87" s="50"/>
-      <c r="N87" s="30"/>
+      <c r="N87" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
       <c r="Q87" s="39"/>
@@ -6779,19 +6906,39 @@
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="32"/>
+      <c r="B88" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H88" s="33"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="46"/>
+      <c r="I88" s="34">
+        <v>298</v>
+      </c>
+      <c r="J88" s="46">
+        <v>9</v>
+      </c>
       <c r="K88" s="49"/>
-      <c r="L88" s="50"/>
+      <c r="L88" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="M88" s="50"/>
-      <c r="N88" s="30"/>
+      <c r="N88" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
       <c r="Q88" s="39"/>
@@ -6801,19 +6948,37 @@
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="E89" s="31"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="32"/>
+      <c r="F89" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H89" s="33"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="46"/>
+      <c r="I89" s="34">
+        <v>298</v>
+      </c>
+      <c r="J89" s="94">
+        <v>356000000</v>
+      </c>
       <c r="K89" s="49"/>
-      <c r="L89" s="50"/>
+      <c r="L89" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="M89" s="50"/>
-      <c r="N89" s="30"/>
+      <c r="N89" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
       <c r="Q89" s="39"/>
@@ -6823,19 +6988,37 @@
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="B90" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="E90" s="31"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
+      <c r="F90" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H90" s="33"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="94"/>
+      <c r="I90" s="34">
+        <v>298</v>
+      </c>
+      <c r="J90" s="94">
+        <v>536000000</v>
+      </c>
       <c r="K90" s="49"/>
-      <c r="L90" s="50"/>
+      <c r="L90" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="M90" s="50"/>
-      <c r="N90" s="30"/>
+      <c r="N90" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
       <c r="Q90" s="39"/>
@@ -6845,19 +7028,37 @@
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="E91" s="31"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
+      <c r="F91" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H91" s="33"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="94"/>
+      <c r="I91" s="34">
+        <v>298</v>
+      </c>
+      <c r="J91" s="94">
+        <v>29.1</v>
+      </c>
       <c r="K91" s="49"/>
-      <c r="L91" s="32"/>
+      <c r="L91" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="M91" s="50"/>
-      <c r="N91" s="30"/>
+      <c r="N91" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
       <c r="Q91" s="39"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A5B34-F55F-974C-AEC6-1D2DC52485E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5261E-4E81-3441-985E-DF6AD9CC4DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="165">
   <si>
     <r>
       <rPr>
@@ -336,6 +336,12 @@
     <t>UCS</t>
   </si>
   <si>
+    <t>VAM</t>
+  </si>
+  <si>
+    <t>minimum compressive ductility</t>
+  </si>
+  <si>
     <t>tensile yield stress</t>
   </si>
   <si>
@@ -361,6 +367,12 @@
   </si>
   <si>
     <t>peak magnetic entropy change</t>
+  </si>
+  <si>
+    <t>minimum UCS</t>
+  </si>
+  <si>
+    <t>F6</t>
   </si>
   <si>
     <t>Co31.5 Fe18.5 Ni31.5 Al18.5</t>
@@ -587,6 +599,33 @@
   </si>
   <si>
     <t>10.20517/microstructures.2022.40</t>
+  </si>
+  <si>
+    <t>10.1016/j.matchemphys.2017.05.056</t>
+  </si>
+  <si>
+    <t>CoCrFeNiTa0.1</t>
+  </si>
+  <si>
+    <t>CoCrFeNiTa0.2</t>
+  </si>
+  <si>
+    <t>CoCrFeNiTa0.3</t>
+  </si>
+  <si>
+    <t>CoCrFeNi</t>
+  </si>
+  <si>
+    <t>minimum plastic strain</t>
+  </si>
+  <si>
+    <t>CoCrFeNiTa0.4</t>
+  </si>
+  <si>
+    <t>CoCrFeNiTa0.5</t>
+  </si>
+  <si>
+    <t>CoCrFeNiTa0.75</t>
   </si>
 </sst>
 </file>
@@ -3074,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N97" sqref="N97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3327,7 +3366,7 @@
       </c>
       <c r="O7" s="104"/>
       <c r="P7" s="69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="69" t="s">
         <v>36</v>
@@ -3433,23 +3472,23 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3465,7 +3504,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3477,23 +3516,23 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3509,7 +3548,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3521,23 +3560,23 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3553,7 +3592,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3565,16 +3604,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>64</v>
@@ -3583,7 +3622,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3596,10 +3635,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3611,16 +3650,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>64</v>
@@ -3629,7 +3668,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3642,10 +3681,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3657,16 +3696,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>64</v>
@@ -3675,7 +3714,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3688,10 +3727,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3703,16 +3742,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>64</v>
@@ -3721,7 +3760,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3734,10 +3773,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3749,16 +3788,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>67</v>
@@ -3767,7 +3806,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -3780,10 +3819,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3795,16 +3834,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>67</v>
@@ -3813,7 +3852,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -3826,10 +3865,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3841,16 +3880,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>67</v>
@@ -3859,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -3872,10 +3911,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3887,16 +3926,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>67</v>
@@ -3905,7 +3944,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -3918,10 +3957,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -3933,16 +3972,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>65</v>
@@ -3951,7 +3990,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -3964,10 +4003,10 @@
         <v>66</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -3979,16 +4018,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>65</v>
@@ -3997,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4010,10 +4049,10 @@
         <v>66</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4025,16 +4064,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>65</v>
@@ -4043,7 +4082,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4056,10 +4095,10 @@
         <v>66</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4071,16 +4110,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>65</v>
@@ -4089,7 +4128,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4102,10 +4141,10 @@
         <v>66</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4116,22 +4155,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="139" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B25" s="140" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4143,13 +4182,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4160,22 +4199,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4187,13 +4226,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4204,22 +4243,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4231,13 +4270,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4248,22 +4287,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4275,13 +4314,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4292,22 +4331,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="139" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4319,13 +4358,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4336,22 +4375,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4363,13 +4402,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4380,22 +4419,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4407,13 +4446,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4424,22 +4463,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4451,13 +4490,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4468,28 +4507,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4497,13 +4536,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4514,28 +4553,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4543,13 +4582,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4560,28 +4599,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4589,13 +4628,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4606,28 +4645,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4635,13 +4674,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4652,28 +4691,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4681,13 +4720,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4698,28 +4737,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4727,13 +4766,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4745,25 +4784,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4771,13 +4810,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -4789,23 +4828,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -4813,11 +4852,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -4829,23 +4868,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -4853,11 +4892,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -4869,23 +4908,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -4893,11 +4932,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -4909,23 +4948,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -4933,11 +4972,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -4949,23 +4988,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -4973,11 +5012,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M44" s="40"/>
       <c r="N44" s="141" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -4989,23 +5028,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5013,11 +5052,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="141" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5029,25 +5068,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5055,13 +5094,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5073,23 +5112,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5097,11 +5136,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5113,23 +5152,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5137,11 +5176,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5153,23 +5192,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5177,11 +5216,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5193,23 +5232,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5217,11 +5256,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5233,23 +5272,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5257,11 +5296,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="141" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5273,23 +5312,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5297,11 +5336,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="141" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5313,25 +5352,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5339,13 +5378,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5357,25 +5396,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5383,13 +5422,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5401,25 +5440,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5427,13 +5466,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5445,25 +5484,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5471,13 +5510,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5489,25 +5528,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5515,13 +5554,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5533,25 +5572,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5559,13 +5598,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5577,25 +5616,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5603,13 +5642,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5621,25 +5660,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5647,13 +5686,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5665,25 +5704,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5691,13 +5730,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5709,25 +5748,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5735,13 +5774,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5753,25 +5792,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -5779,13 +5818,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -5797,25 +5836,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -5823,13 +5862,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -5841,25 +5880,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -5867,13 +5906,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -5885,25 +5924,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -5911,13 +5950,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -5929,25 +5968,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -5955,13 +5994,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -5973,25 +6012,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -5999,13 +6038,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6017,16 +6056,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6050,10 +6089,10 @@
         <v>33</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6069,16 +6108,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6102,10 +6141,10 @@
         <v>33</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6121,16 +6160,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6154,10 +6193,10 @@
         <v>33</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6173,16 +6212,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6206,10 +6245,10 @@
         <v>33</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6225,16 +6264,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6258,10 +6297,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6277,16 +6316,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6310,10 +6349,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6329,16 +6368,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6362,10 +6401,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6381,16 +6420,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6414,10 +6453,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6433,16 +6472,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>67</v>
@@ -6462,10 +6501,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6477,16 +6516,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>67</v>
@@ -6506,10 +6545,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6521,16 +6560,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>67</v>
@@ -6550,10 +6589,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6565,16 +6604,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>65</v>
@@ -6594,10 +6633,10 @@
         <v>66</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6609,16 +6648,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>65</v>
@@ -6638,10 +6677,10 @@
         <v>66</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6653,16 +6692,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>65</v>
@@ -6682,10 +6721,10 @@
         <v>66</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6697,19 +6736,19 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>29</v>
@@ -6727,7 +6766,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6739,19 +6778,19 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F84" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>29</v>
@@ -6769,7 +6808,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -6781,19 +6820,19 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F85" s="48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>29</v>
@@ -6811,7 +6850,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -6823,19 +6862,19 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>29</v>
@@ -6853,7 +6892,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -6865,19 +6904,19 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F87" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>29</v>
@@ -6895,7 +6934,7 @@
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -6907,19 +6946,19 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F88" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>29</v>
@@ -6937,7 +6976,7 @@
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -6949,17 +6988,17 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>29</v>
@@ -6977,7 +7016,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -6989,17 +7028,17 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>29</v>
@@ -7017,7 +7056,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7029,17 +7068,17 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>29</v>
@@ -7057,7 +7096,7 @@
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7068,21 +7107,44 @@
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="B92" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
+      <c r="F92" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H92" s="33"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="39"/>
+      <c r="I92" s="34">
+        <v>298</v>
+      </c>
+      <c r="J92" s="142">
+        <f t="shared" ref="J92" si="2">P92*9807000</f>
+        <v>1765260000</v>
+      </c>
       <c r="K92" s="49"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="30"/>
+      <c r="L92" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="N92" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O92" s="46"/>
-      <c r="P92" s="47"/>
+      <c r="P92" s="47">
+        <v>180</v>
+      </c>
       <c r="Q92" s="39"/>
       <c r="R92" s="46"/>
       <c r="S92" s="37"/>
@@ -7090,19 +7152,39 @@
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
+      <c r="B93" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E93" s="31"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
+      <c r="F93" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H93" s="33"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="39"/>
+      <c r="I93" s="34">
+        <v>298</v>
+      </c>
+      <c r="J93" s="39">
+        <v>50</v>
+      </c>
       <c r="K93" s="49"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="30"/>
+      <c r="L93" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N93" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
       <c r="Q93" s="39"/>
@@ -7112,19 +7194,39 @@
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
+      <c r="B94" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E94" s="31"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
+      <c r="F94" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H94" s="33"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="39"/>
+      <c r="I94" s="34">
+        <v>298</v>
+      </c>
+      <c r="J94" s="39">
+        <v>50</v>
+      </c>
       <c r="K94" s="49"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="30"/>
+      <c r="L94" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M94" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N94" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
       <c r="Q94" s="39"/>
@@ -7134,19 +7236,39 @@
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="B95" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E95" s="31"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
+      <c r="F95" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H95" s="33"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="39"/>
+      <c r="I95" s="34">
+        <v>298</v>
+      </c>
+      <c r="J95" s="39">
+        <v>50</v>
+      </c>
       <c r="K95" s="49"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="30"/>
+      <c r="L95" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M95" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N95" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
       <c r="Q95" s="39"/>
@@ -7156,173 +7278,368 @@
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="B96" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
+      <c r="F96" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H96" s="33"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="39"/>
+      <c r="I96" s="34">
+        <v>298</v>
+      </c>
+      <c r="J96" s="39">
+        <f>P96-Q96</f>
+        <v>47.934322033898297</v>
+      </c>
       <c r="K96" s="49"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="30"/>
+      <c r="L96" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M96" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O96" s="46"/>
-      <c r="P96" s="47"/>
-      <c r="Q96" s="39"/>
+      <c r="P96" s="46">
+        <v>60.010593220338897</v>
+      </c>
+      <c r="Q96" s="46">
+        <v>12.0762711864406</v>
+      </c>
       <c r="R96" s="46"/>
       <c r="S96" s="37"/>
       <c r="T96" s="37"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="B97" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E97" s="31"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
+      <c r="F97" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H97" s="33"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="39"/>
+      <c r="I97" s="34">
+        <v>298</v>
+      </c>
+      <c r="J97" s="39">
+        <f t="shared" ref="J97:J102" si="3">P97-Q97</f>
+        <v>48.6758474576271</v>
+      </c>
       <c r="K97" s="49"/>
-      <c r="L97" s="32"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="30"/>
+      <c r="L97" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M97" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N97" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O97" s="46"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
+      <c r="P97" s="46">
+        <v>60.010593220338897</v>
+      </c>
+      <c r="Q97" s="46">
+        <v>11.334745762711799</v>
+      </c>
       <c r="R97" s="46"/>
       <c r="S97" s="37"/>
       <c r="T97" s="37"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E98" s="31"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
+      <c r="F98" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H98" s="33"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="39"/>
+      <c r="I98" s="34">
+        <v>298</v>
+      </c>
+      <c r="J98" s="39">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="K98" s="49"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="30"/>
+      <c r="L98" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M98" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N98" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O98" s="46"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="46">
+        <v>60.010593220338897</v>
+      </c>
+      <c r="Q98" s="46">
+        <v>10.010593220338899</v>
+      </c>
       <c r="R98" s="46"/>
       <c r="S98" s="37"/>
       <c r="T98" s="37"/>
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="B99" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E99" s="31"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
+      <c r="F99" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H99" s="33"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="49"/>
+      <c r="I99" s="34">
+        <v>298</v>
+      </c>
+      <c r="J99" s="39">
+        <f t="shared" si="3"/>
+        <v>36.493644067796552</v>
+      </c>
       <c r="K99" s="49"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="30"/>
+      <c r="L99" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M99" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N99" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O99" s="46"/>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="38"/>
+      <c r="P99" s="46">
+        <v>44.332627118643998</v>
+      </c>
+      <c r="Q99" s="46">
+        <v>7.8389830508474496</v>
+      </c>
       <c r="R99" s="46"/>
       <c r="S99" s="37"/>
       <c r="T99" s="37"/>
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
+      <c r="F100" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H100" s="33"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="49"/>
+      <c r="I100" s="34">
+        <v>298</v>
+      </c>
+      <c r="J100" s="39">
+        <f t="shared" si="3"/>
+        <v>28.601694915254239</v>
+      </c>
       <c r="K100" s="49"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="30"/>
+      <c r="L100" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M100" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N100" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O100" s="46"/>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="39"/>
+      <c r="P100" s="46">
+        <v>34.375</v>
+      </c>
+      <c r="Q100" s="46">
+        <v>5.7733050847457603</v>
+      </c>
       <c r="R100" s="46"/>
       <c r="S100" s="37"/>
       <c r="T100" s="37"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
+      <c r="B101" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E101" s="31"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
+      <c r="F101" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H101" s="33"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="49"/>
+      <c r="I101" s="34">
+        <v>298</v>
+      </c>
+      <c r="J101" s="39">
+        <f t="shared" si="3"/>
+        <v>26.324152542372861</v>
+      </c>
       <c r="K101" s="49"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="30"/>
+      <c r="L101" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M101" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N101" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O101" s="46"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
+      <c r="P101" s="46">
+        <v>29.608050847457601</v>
+      </c>
+      <c r="Q101" s="46">
+        <v>3.2838983050847399</v>
+      </c>
       <c r="R101" s="46"/>
       <c r="S101" s="37"/>
       <c r="T101" s="37"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
+      <c r="B102" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
+      <c r="F102" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H102" s="33"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="49"/>
+      <c r="I102" s="34">
+        <v>298</v>
+      </c>
+      <c r="J102" s="39">
+        <f t="shared" si="3"/>
+        <v>11.864406779660985</v>
+      </c>
       <c r="K102" s="49"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="30"/>
+      <c r="L102" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M102" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N102" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O102" s="46"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
+      <c r="P102" s="46">
+        <v>11.917372881355901</v>
+      </c>
+      <c r="Q102" s="37">
+        <v>5.2966101694916001E-2</v>
+      </c>
       <c r="R102" s="46"/>
       <c r="S102" s="37"/>
       <c r="T102" s="37"/>
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
+      <c r="B103" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E103" s="31"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
+      <c r="F103" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H103" s="33"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="49"/>
+      <c r="I103" s="38">
+        <v>298</v>
+      </c>
+      <c r="J103" s="49">
+        <v>1500000000</v>
+      </c>
       <c r="K103" s="49"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="30"/>
+      <c r="L103" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M103" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N103" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
       <c r="Q103" s="39"/>
@@ -7332,19 +7649,39 @@
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
+      <c r="B104" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E104" s="31"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
+      <c r="F104" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H104" s="33"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="39"/>
+      <c r="I104" s="38">
+        <v>298</v>
+      </c>
+      <c r="J104" s="39">
+        <v>2012000000</v>
+      </c>
       <c r="K104" s="49"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="30"/>
+      <c r="L104" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M104" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N104" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
       <c r="Q104" s="39"/>
@@ -7354,19 +7691,39 @@
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
+      <c r="B105" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
+      <c r="F105" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H105" s="33"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="52"/>
+      <c r="I105" s="38">
+        <v>298</v>
+      </c>
+      <c r="J105" s="52">
+        <v>2453000000</v>
+      </c>
       <c r="K105" s="49"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="30"/>
+      <c r="L105" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M105" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N105" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
       <c r="Q105" s="39"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5261E-4E81-3441-985E-DF6AD9CC4DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7C70-911C-7142-8FFA-F0B389259F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="176">
   <si>
     <r>
       <rPr>
@@ -324,6 +324,9 @@
     <t>AAM</t>
   </si>
   <si>
+    <t>BCC</t>
+  </si>
+  <si>
     <t>compressive yield stress</t>
   </si>
   <si>
@@ -358,6 +361,9 @@
   </si>
   <si>
     <t>hardness HV</t>
+  </si>
+  <si>
+    <t>F3</t>
   </si>
   <si>
     <t>amorphous</t>
@@ -626,6 +632,33 @@
   </si>
   <si>
     <t>CoCrFeNiTa0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/e21050483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiNbTaZr </t>
+  </si>
+  <si>
+    <t>TiNbTaZrV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiNbTaZrMo </t>
+  </si>
+  <si>
+    <t>TiNbTaZrW</t>
+  </si>
+  <si>
+    <t>high quality AAM with 10 times 180s melting events</t>
+  </si>
+  <si>
+    <t>BCC+BCC</t>
+  </si>
+  <si>
+    <t>AAM+CCLM(LM)</t>
+  </si>
+  <si>
+    <t>high quality AAM with 10 times 180s melting events; cold crucible levitation melted (CCLM) ingots with superior homogenity</t>
   </si>
 </sst>
 </file>
@@ -3113,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3366,7 +3399,7 @@
       </c>
       <c r="O7" s="104"/>
       <c r="P7" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="69" t="s">
         <v>36</v>
@@ -3472,23 +3505,23 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3504,7 +3537,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3516,23 +3549,23 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3548,7 +3581,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3560,23 +3593,23 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3588,11 +3621,11 @@
         <v>0.3</v>
       </c>
       <c r="L12" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3604,25 +3637,25 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3635,10 +3668,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3650,25 +3683,25 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3681,10 +3714,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3696,25 +3729,25 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3727,10 +3760,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3742,25 +3775,25 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3773,10 +3806,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3788,25 +3821,25 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -3819,10 +3852,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3834,25 +3867,25 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -3865,10 +3898,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3880,25 +3913,25 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -3911,10 +3944,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3926,25 +3959,25 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -3957,10 +3990,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -3972,25 +4005,25 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -4000,13 +4033,13 @@
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -4018,25 +4051,25 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4046,13 +4079,13 @@
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4064,25 +4097,25 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4092,13 +4125,13 @@
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4110,25 +4143,25 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="74" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4138,13 +4171,13 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4155,22 +4188,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>103</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4182,13 +4215,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4199,22 +4232,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4226,13 +4259,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4243,22 +4276,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4270,13 +4303,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4287,22 +4320,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4314,13 +4347,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4331,22 +4364,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>103</v>
-      </c>
       <c r="F29" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4358,13 +4391,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4375,22 +4408,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4402,13 +4435,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4419,22 +4452,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4446,13 +4479,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4463,22 +4496,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4490,13 +4523,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4507,28 +4540,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4536,13 +4569,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4553,28 +4586,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4582,13 +4615,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4599,28 +4632,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4628,13 +4661,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4645,28 +4678,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4674,13 +4707,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4691,28 +4724,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4720,13 +4753,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4737,28 +4770,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4766,13 +4799,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4784,25 +4817,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4810,13 +4843,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -4828,23 +4861,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -4852,11 +4885,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -4868,23 +4901,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -4892,11 +4925,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -4908,23 +4941,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -4932,11 +4965,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -4948,23 +4981,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -4972,11 +5005,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -4988,23 +5021,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -5012,11 +5045,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M44" s="40"/>
       <c r="N44" s="141" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -5028,23 +5061,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5052,11 +5085,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="141" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5068,25 +5101,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5094,13 +5127,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5112,23 +5145,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5136,11 +5169,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5152,23 +5185,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5176,11 +5209,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5192,23 +5225,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5216,11 +5249,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5232,23 +5265,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5256,11 +5289,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5272,23 +5305,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5296,11 +5329,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="141" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5312,23 +5345,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5336,11 +5369,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="141" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5352,25 +5385,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E53" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5378,13 +5411,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5396,25 +5429,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E54" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5422,13 +5455,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5440,25 +5473,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E55" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5466,13 +5499,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5484,25 +5517,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E56" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5510,13 +5543,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5528,25 +5561,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5554,13 +5587,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5572,25 +5605,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5598,13 +5631,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5616,25 +5649,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E59" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5642,13 +5675,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5660,25 +5693,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5686,13 +5719,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5704,25 +5737,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E61" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5730,13 +5763,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5748,25 +5781,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E62" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5774,13 +5807,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5792,25 +5825,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E63" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -5818,13 +5851,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -5836,25 +5869,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E64" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -5862,13 +5895,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -5880,25 +5913,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -5906,13 +5939,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -5924,25 +5957,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -5950,13 +5983,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -5968,25 +6001,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E67" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -5994,13 +6027,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -6012,25 +6045,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E68" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -6038,13 +6071,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6056,16 +6089,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E69" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6089,10 +6122,10 @@
         <v>33</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6108,16 +6141,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E70" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6141,10 +6174,10 @@
         <v>33</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6160,16 +6193,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E71" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6193,10 +6226,10 @@
         <v>33</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6212,16 +6245,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E72" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6245,10 +6278,10 @@
         <v>33</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6264,16 +6297,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6297,10 +6330,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6316,16 +6349,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6349,10 +6382,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6368,16 +6401,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E75" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6401,10 +6434,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6420,16 +6453,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E76" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6453,10 +6486,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6472,19 +6505,19 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E77" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>29</v>
@@ -6501,10 +6534,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6516,19 +6549,19 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E78" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>29</v>
@@ -6545,10 +6578,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6560,19 +6593,19 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>29</v>
@@ -6589,10 +6622,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6604,19 +6637,19 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E80" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>29</v>
@@ -6630,13 +6663,13 @@
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6648,19 +6681,19 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="E81" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>29</v>
@@ -6674,13 +6707,13 @@
       </c>
       <c r="K81" s="35"/>
       <c r="L81" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6692,19 +6725,19 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>29</v>
@@ -6718,13 +6751,13 @@
       </c>
       <c r="K82" s="35"/>
       <c r="L82" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6736,19 +6769,19 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>148</v>
-      </c>
       <c r="E83" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>29</v>
@@ -6766,7 +6799,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6778,19 +6811,19 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="D84" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F84" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>29</v>
@@ -6808,7 +6841,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -6820,19 +6853,19 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>148</v>
-      </c>
       <c r="E85" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F85" s="48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>29</v>
@@ -6850,7 +6883,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -6862,19 +6895,19 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="D86" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>29</v>
@@ -6892,7 +6925,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -6904,19 +6937,19 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>148</v>
-      </c>
       <c r="E87" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F87" s="48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>29</v>
@@ -6930,11 +6963,11 @@
       </c>
       <c r="K87" s="49"/>
       <c r="L87" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -6946,19 +6979,19 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="D88" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F88" s="48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>29</v>
@@ -6972,11 +7005,11 @@
       </c>
       <c r="K88" s="49"/>
       <c r="L88" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -6988,17 +7021,17 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>29</v>
@@ -7016,7 +7049,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -7028,17 +7061,17 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>29</v>
@@ -7056,7 +7089,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7068,17 +7101,17 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>29</v>
@@ -7092,11 +7125,11 @@
       </c>
       <c r="K91" s="49"/>
       <c r="L91" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7108,13 +7141,13 @@
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E92" s="31"/>
       <c r="F92" s="32" t="s">
@@ -7136,10 +7169,10 @@
         <v>33</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O92" s="46"/>
       <c r="P92" s="47">
@@ -7153,17 +7186,17 @@
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7177,13 +7210,13 @@
       </c>
       <c r="K93" s="49"/>
       <c r="L93" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
@@ -7195,17 +7228,17 @@
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7219,13 +7252,13 @@
       </c>
       <c r="K94" s="49"/>
       <c r="L94" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
@@ -7237,17 +7270,17 @@
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -7261,13 +7294,13 @@
       </c>
       <c r="K95" s="49"/>
       <c r="L95" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
@@ -7279,17 +7312,17 @@
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>29</v>
@@ -7304,13 +7337,13 @@
       </c>
       <c r="K96" s="49"/>
       <c r="L96" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O96" s="46"/>
       <c r="P96" s="46">
@@ -7326,17 +7359,17 @@
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E97" s="31"/>
       <c r="F97" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>29</v>
@@ -7351,13 +7384,13 @@
       </c>
       <c r="K97" s="49"/>
       <c r="L97" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N97" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O97" s="46"/>
       <c r="P97" s="46">
@@ -7373,17 +7406,17 @@
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E98" s="31"/>
       <c r="F98" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>29</v>
@@ -7398,13 +7431,13 @@
       </c>
       <c r="K98" s="49"/>
       <c r="L98" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O98" s="46"/>
       <c r="P98" s="46">
@@ -7420,17 +7453,17 @@
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E99" s="31"/>
       <c r="F99" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>29</v>
@@ -7445,13 +7478,13 @@
       </c>
       <c r="K99" s="49"/>
       <c r="L99" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O99" s="46"/>
       <c r="P99" s="46">
@@ -7467,17 +7500,17 @@
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>29</v>
@@ -7492,13 +7525,13 @@
       </c>
       <c r="K100" s="49"/>
       <c r="L100" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N100" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O100" s="46"/>
       <c r="P100" s="46">
@@ -7514,17 +7547,17 @@
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E101" s="31"/>
       <c r="F101" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>29</v>
@@ -7539,13 +7572,13 @@
       </c>
       <c r="K101" s="49"/>
       <c r="L101" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N101" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O101" s="46"/>
       <c r="P101" s="46">
@@ -7561,17 +7594,17 @@
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E102" s="31"/>
       <c r="F102" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>29</v>
@@ -7586,13 +7619,13 @@
       </c>
       <c r="K102" s="49"/>
       <c r="L102" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O102" s="46"/>
       <c r="P102" s="46">
@@ -7608,17 +7641,17 @@
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>29</v>
@@ -7635,10 +7668,10 @@
         <v>33</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
@@ -7650,17 +7683,17 @@
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>29</v>
@@ -7677,10 +7710,10 @@
         <v>33</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
@@ -7692,17 +7725,17 @@
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>29</v>
@@ -7719,10 +7752,10 @@
         <v>33</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
@@ -7733,10 +7766,18 @@
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="51"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
+      <c r="B106" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
       <c r="H106" s="33"/>
@@ -7744,8 +7785,12 @@
       <c r="J106" s="52"/>
       <c r="K106" s="53"/>
       <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="30"/>
+      <c r="M106" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N106" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O106" s="46"/>
       <c r="P106" s="39"/>
       <c r="Q106" s="39"/>
@@ -7755,10 +7800,18 @@
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="51"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="31"/>
+      <c r="B107" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
       <c r="H107" s="33"/>
@@ -7766,8 +7819,12 @@
       <c r="J107" s="53"/>
       <c r="K107" s="53"/>
       <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="30"/>
+      <c r="M107" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N107" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O107" s="46"/>
       <c r="P107" s="39"/>
       <c r="Q107" s="39"/>
@@ -7777,10 +7834,18 @@
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="51"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="31"/>
+      <c r="B108" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
       <c r="H108" s="33"/>
@@ -7788,8 +7853,12 @@
       <c r="J108" s="53"/>
       <c r="K108" s="49"/>
       <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="30"/>
+      <c r="M108" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N108" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O108" s="46"/>
       <c r="P108" s="39"/>
       <c r="Q108" s="39"/>
@@ -7799,10 +7868,18 @@
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="51"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="31"/>
+      <c r="B109" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
       <c r="H109" s="33"/>
@@ -7810,8 +7887,12 @@
       <c r="J109" s="52"/>
       <c r="K109" s="49"/>
       <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="30"/>
+      <c r="M109" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N109" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O109" s="37"/>
       <c r="P109" s="39"/>
       <c r="Q109" s="39"/>
@@ -7821,10 +7902,18 @@
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="51"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="31"/>
+      <c r="B110" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
       <c r="H110" s="33"/>
@@ -7832,8 +7921,12 @@
       <c r="J110" s="52"/>
       <c r="K110" s="49"/>
       <c r="L110" s="50"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="30"/>
+      <c r="M110" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N110" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O110" s="37"/>
       <c r="P110" s="39"/>
       <c r="Q110" s="39"/>
@@ -7843,10 +7936,18 @@
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="31"/>
+      <c r="B111" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
       <c r="H111" s="33"/>
@@ -7854,8 +7955,12 @@
       <c r="J111" s="35"/>
       <c r="K111" s="49"/>
       <c r="L111" s="50"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="30"/>
+      <c r="M111" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N111" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O111" s="46"/>
       <c r="P111" s="47"/>
       <c r="Q111" s="39"/>
@@ -7865,10 +7970,18 @@
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="B112" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
       <c r="H112" s="33"/>
@@ -7876,8 +7989,12 @@
       <c r="J112" s="35"/>
       <c r="K112" s="49"/>
       <c r="L112" s="50"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="30"/>
+      <c r="M112" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N112" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O112" s="46"/>
       <c r="P112" s="47"/>
       <c r="Q112" s="39"/>
@@ -7887,10 +8004,18 @@
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="51"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="31"/>
+      <c r="B113" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
       <c r="H113" s="33"/>
@@ -7898,8 +8023,12 @@
       <c r="J113" s="52"/>
       <c r="K113" s="49"/>
       <c r="L113" s="50"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="30"/>
+      <c r="M113" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N113" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="O113" s="46"/>
       <c r="P113" s="47"/>
       <c r="Q113" s="38"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7C70-911C-7142-8FFA-F0B389259F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4BF79-0F1D-3241-8A29-951ABA65D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="189">
   <si>
     <r>
       <rPr>
@@ -366,6 +366,9 @@
     <t>F3</t>
   </si>
   <si>
+    <t>P4</t>
+  </si>
+  <si>
     <t>amorphous</t>
   </si>
   <si>
@@ -659,6 +662,42 @@
   </si>
   <si>
     <t>high quality AAM with 10 times 180s melting events; cold crucible levitation melted (CCLM) ingots with superior homogenity</t>
+  </si>
+  <si>
+    <t>Co26.6 Fe18.7 Ni23.3 Cr19.8 Ta9.3 Al2.3</t>
+  </si>
+  <si>
+    <t>Co26.1 Fe18.3 Ni22.9 Cr19.4 Ta9.1 Al4.2</t>
+  </si>
+  <si>
+    <t>Co25.6 Fe17.9 Ni22.4 Cr19.1 Ta8.9 Al6.1</t>
+  </si>
+  <si>
+    <t>Hypo-HEA</t>
+  </si>
+  <si>
+    <t>E-HEA</t>
+  </si>
+  <si>
+    <t>Hyper-HEA</t>
+  </si>
+  <si>
+    <t>hypoeutectic; 10um grain size</t>
+  </si>
+  <si>
+    <t>eutectic; 15um grain size</t>
+  </si>
+  <si>
+    <t>hypereutectic; 18um grain size</t>
+  </si>
+  <si>
+    <t>FCC+laves</t>
+  </si>
+  <si>
+    <t>LPBF</t>
+  </si>
+  <si>
+    <t>10.1002/advs.202401559</t>
   </si>
 </sst>
 </file>
@@ -3146,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3505,10 +3544,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
@@ -3521,7 +3560,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3537,7 +3576,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3549,10 +3588,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
@@ -3565,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3581,7 +3620,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3593,10 +3632,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
@@ -3609,7 +3648,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3625,7 +3664,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3637,16 +3676,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>65</v>
@@ -3655,7 +3694,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3668,10 +3707,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3683,16 +3722,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>65</v>
@@ -3701,7 +3740,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3714,10 +3753,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3729,16 +3768,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>65</v>
@@ -3747,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3760,10 +3799,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3775,16 +3814,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -3793,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3806,10 +3845,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3821,16 +3860,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>68</v>
@@ -3839,7 +3878,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -3852,10 +3891,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3867,16 +3906,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>68</v>
@@ -3885,7 +3924,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -3898,10 +3937,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3913,16 +3952,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>68</v>
@@ -3931,7 +3970,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -3944,10 +3983,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3959,16 +3998,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>68</v>
@@ -3977,7 +4016,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -3990,10 +4029,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -4005,16 +4044,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>66</v>
@@ -4023,7 +4062,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -4036,10 +4075,10 @@
         <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -4051,16 +4090,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>66</v>
@@ -4069,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4082,10 +4121,10 @@
         <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4097,16 +4136,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>66</v>
@@ -4115,7 +4154,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4128,10 +4167,10 @@
         <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4143,16 +4182,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>66</v>
@@ -4161,7 +4200,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4174,10 +4213,10 @@
         <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4188,22 +4227,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="C25" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4215,13 +4254,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4232,22 +4271,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4259,13 +4298,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4276,22 +4315,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4303,13 +4342,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4320,22 +4359,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4347,13 +4386,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4364,22 +4403,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="140" t="s">
+      <c r="C29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="F29" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4391,13 +4430,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4408,22 +4447,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4435,13 +4474,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4452,22 +4491,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4479,13 +4518,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4496,22 +4535,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4523,13 +4562,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4540,28 +4579,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4569,13 +4608,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4586,28 +4625,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4615,13 +4654,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4632,28 +4671,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4661,13 +4700,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4678,28 +4717,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4707,13 +4746,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4724,28 +4763,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4753,13 +4792,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4770,28 +4809,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4799,13 +4838,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4817,25 +4856,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4843,13 +4882,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -4861,23 +4900,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -4885,11 +4924,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -4901,23 +4940,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -4925,11 +4964,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -4941,23 +4980,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -4965,11 +5004,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -4981,23 +5020,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -5005,11 +5044,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -5021,23 +5060,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -5045,11 +5084,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M44" s="40"/>
       <c r="N44" s="141" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -5061,23 +5100,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5085,11 +5124,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="141" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5101,25 +5140,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5127,13 +5166,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5145,23 +5184,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5169,11 +5208,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5185,23 +5224,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5209,11 +5248,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5225,23 +5264,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5249,11 +5288,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5265,23 +5304,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5289,11 +5328,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5305,23 +5344,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5329,11 +5368,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="141" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5345,23 +5384,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5369,11 +5408,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="141" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5385,25 +5424,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F53" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5411,13 +5450,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5429,25 +5468,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F54" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5455,13 +5494,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5473,25 +5512,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F55" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5499,13 +5538,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5517,25 +5556,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F56" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5543,13 +5582,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5561,25 +5600,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5587,13 +5626,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5605,25 +5644,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5631,13 +5670,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5649,25 +5688,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F59" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5675,13 +5714,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5693,25 +5732,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F60" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5719,13 +5758,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5737,25 +5776,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F61" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5763,13 +5802,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5781,25 +5820,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F62" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5807,13 +5846,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5825,25 +5864,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F63" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -5851,13 +5890,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -5869,25 +5908,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F64" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -5895,13 +5934,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -5913,25 +5952,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -5939,13 +5978,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -5957,25 +5996,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -5983,13 +6022,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -6001,25 +6040,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F67" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -6027,13 +6066,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -6045,25 +6084,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F68" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -6071,13 +6110,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6089,16 +6128,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6125,7 +6164,7 @@
         <v>75</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6141,16 +6180,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6177,7 +6216,7 @@
         <v>75</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6193,16 +6232,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6229,7 +6268,7 @@
         <v>75</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6245,16 +6284,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6281,7 +6320,7 @@
         <v>75</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6297,16 +6336,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6330,10 +6369,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6349,16 +6388,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6382,10 +6421,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6401,16 +6440,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6434,10 +6473,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6453,16 +6492,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6486,10 +6525,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6505,16 +6544,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>68</v>
@@ -6534,10 +6573,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6549,16 +6588,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>68</v>
@@ -6578,10 +6617,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6593,16 +6632,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>68</v>
@@ -6622,10 +6661,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6637,16 +6676,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>66</v>
@@ -6666,10 +6705,10 @@
         <v>67</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6681,16 +6720,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>142</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>66</v>
@@ -6710,10 +6749,10 @@
         <v>67</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6725,16 +6764,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>66</v>
@@ -6754,10 +6793,10 @@
         <v>67</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6769,16 +6808,16 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="D83" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="E83" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>71</v>
@@ -6799,7 +6838,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6811,16 +6850,16 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="E84" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>71</v>
@@ -6841,7 +6880,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -6853,16 +6892,16 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="D85" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="E85" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>73</v>
@@ -6883,7 +6922,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -6895,16 +6934,16 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="E86" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>73</v>
@@ -6925,7 +6964,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -6937,16 +6976,16 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="D87" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="E87" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>72</v>
@@ -6967,7 +7006,7 @@
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -6979,16 +7018,16 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C88" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="E88" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>72</v>
@@ -7009,7 +7048,7 @@
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -7021,13 +7060,13 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
@@ -7049,7 +7088,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -7061,13 +7100,13 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
@@ -7089,7 +7128,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7101,13 +7140,13 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
@@ -7129,7 +7168,7 @@
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7141,10 +7180,10 @@
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>69</v>
@@ -7169,10 +7208,10 @@
         <v>33</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O92" s="46"/>
       <c r="P92" s="47">
@@ -7186,7 +7225,7 @@
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>74</v>
@@ -7196,7 +7235,7 @@
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7213,10 +7252,10 @@
         <v>67</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
@@ -7228,17 +7267,17 @@
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7255,10 +7294,10 @@
         <v>67</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
@@ -7270,17 +7309,17 @@
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -7297,10 +7336,10 @@
         <v>67</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
@@ -7312,7 +7351,7 @@
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>74</v>
@@ -7340,10 +7379,10 @@
         <v>67</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O96" s="46"/>
       <c r="P96" s="46">
@@ -7359,10 +7398,10 @@
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>69</v>
@@ -7387,10 +7426,10 @@
         <v>67</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N97" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O97" s="46"/>
       <c r="P97" s="46">
@@ -7406,10 +7445,10 @@
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>69</v>
@@ -7434,10 +7473,10 @@
         <v>67</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O98" s="46"/>
       <c r="P98" s="46">
@@ -7453,10 +7492,10 @@
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>69</v>
@@ -7481,10 +7520,10 @@
         <v>67</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O99" s="46"/>
       <c r="P99" s="46">
@@ -7500,10 +7539,10 @@
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>69</v>
@@ -7528,10 +7567,10 @@
         <v>67</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N100" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O100" s="46"/>
       <c r="P100" s="46">
@@ -7547,10 +7586,10 @@
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>69</v>
@@ -7575,10 +7614,10 @@
         <v>67</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N101" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O101" s="46"/>
       <c r="P101" s="46">
@@ -7594,10 +7633,10 @@
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>69</v>
@@ -7622,10 +7661,10 @@
         <v>67</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O102" s="46"/>
       <c r="P102" s="46">
@@ -7641,7 +7680,7 @@
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>74</v>
@@ -7651,7 +7690,7 @@
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>29</v>
@@ -7668,10 +7707,10 @@
         <v>33</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
@@ -7683,17 +7722,17 @@
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>29</v>
@@ -7710,10 +7749,10 @@
         <v>33</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
@@ -7725,17 +7764,17 @@
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>29</v>
@@ -7752,10 +7791,10 @@
         <v>33</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
@@ -7767,7 +7806,7 @@
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="51"/>
       <c r="B106" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>64</v>
@@ -7776,7 +7815,7 @@
         <v>63</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -7789,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="N106" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O106" s="46"/>
       <c r="P106" s="39"/>
@@ -7801,7 +7840,7 @@
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>64</v>
@@ -7810,7 +7849,7 @@
         <v>63</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -7823,7 +7862,7 @@
         <v>77</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O107" s="46"/>
       <c r="P107" s="39"/>
@@ -7835,16 +7874,16 @@
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -7857,7 +7896,7 @@
         <v>77</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O108" s="46"/>
       <c r="P108" s="39"/>
@@ -7869,16 +7908,16 @@
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="51"/>
       <c r="B109" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -7891,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="N109" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O109" s="37"/>
       <c r="P109" s="39"/>
@@ -7903,16 +7942,16 @@
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -7925,7 +7964,7 @@
         <v>75</v>
       </c>
       <c r="N110" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O110" s="37"/>
       <c r="P110" s="39"/>
@@ -7937,16 +7976,16 @@
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -7959,7 +7998,7 @@
         <v>75</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O111" s="46"/>
       <c r="P111" s="47"/>
@@ -7971,16 +8010,16 @@
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
       <c r="B112" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -7993,7 +8032,7 @@
         <v>75</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O112" s="46"/>
       <c r="P112" s="47"/>
@@ -8005,16 +8044,16 @@
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -8027,7 +8066,7 @@
         <v>75</v>
       </c>
       <c r="N113" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O113" s="46"/>
       <c r="P113" s="47"/>
@@ -8037,67 +8076,163 @@
       <c r="T113" s="37"/>
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
-      <c r="A114" s="51"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
+      <c r="A114" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H114" s="33"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="49"/>
-      <c r="L114" s="50"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="30"/>
+      <c r="I114" s="38">
+        <v>298</v>
+      </c>
+      <c r="J114" s="142">
+        <f t="shared" ref="J114:K116" si="4">P114*9807000</f>
+        <v>4776009000</v>
+      </c>
+      <c r="K114" s="142">
+        <f t="shared" si="4"/>
+        <v>176526000</v>
+      </c>
+      <c r="L114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M114" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N114" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="O114" s="46"/>
-      <c r="P114" s="47"/>
-      <c r="Q114" s="38"/>
+      <c r="P114" s="47">
+        <v>487</v>
+      </c>
+      <c r="Q114" s="38">
+        <v>18</v>
+      </c>
       <c r="R114" s="46"/>
       <c r="S114" s="37"/>
       <c r="T114" s="37"/>
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
-      <c r="A115" s="51"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
+      <c r="A115" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H115" s="33"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="49"/>
-      <c r="L115" s="50"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="30"/>
+      <c r="I115" s="38">
+        <v>298</v>
+      </c>
+      <c r="J115" s="142">
+        <f t="shared" si="4"/>
+        <v>5511534000</v>
+      </c>
+      <c r="K115" s="142">
+        <f t="shared" si="4"/>
+        <v>196140000</v>
+      </c>
+      <c r="L115" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M115" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N115" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="O115" s="46"/>
-      <c r="P115" s="47"/>
-      <c r="Q115" s="38"/>
+      <c r="P115" s="47">
+        <v>562</v>
+      </c>
+      <c r="Q115" s="38">
+        <v>20</v>
+      </c>
       <c r="R115" s="46"/>
       <c r="S115" s="37"/>
       <c r="T115" s="37"/>
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
-      <c r="A116" s="38"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
+      <c r="A116" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H116" s="33"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
-      <c r="L116" s="50"/>
-      <c r="M116" s="32"/>
-      <c r="N116" s="30"/>
+      <c r="I116" s="38">
+        <v>298</v>
+      </c>
+      <c r="J116" s="142">
+        <f t="shared" si="4"/>
+        <v>6619725000</v>
+      </c>
+      <c r="K116" s="142">
+        <f t="shared" si="4"/>
+        <v>460929000</v>
+      </c>
+      <c r="L116" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M116" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N116" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="O116" s="46"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="38"/>
+      <c r="P116" s="39">
+        <v>675</v>
+      </c>
+      <c r="Q116" s="38">
+        <v>47</v>
+      </c>
       <c r="R116" s="46"/>
       <c r="S116" s="37"/>
       <c r="T116" s="37"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4BF79-0F1D-3241-8A29-951ABA65D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13EA7D-7FE2-AD46-B27B-345B6B8DDD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="212">
   <si>
     <r>
       <rPr>
@@ -357,6 +357,9 @@
     <t>FCC</t>
   </si>
   <si>
+    <t>FCC+BCC</t>
+  </si>
+  <si>
     <t>F7</t>
   </si>
   <si>
@@ -372,7 +375,22 @@
     <t>amorphous</t>
   </si>
   <si>
+    <t>saturation magnetization</t>
+  </si>
+  <si>
+    <t>Am^2/kg</t>
+  </si>
+  <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>A/m</t>
+  </si>
+  <si>
+    <t>electrical resistivity</t>
+  </si>
+  <si>
+    <t>coercivity</t>
   </si>
   <si>
     <t>peak magnetic entropy change</t>
@@ -382,6 +400,9 @@
   </si>
   <si>
     <t>F6</t>
+  </si>
+  <si>
+    <t>F10</t>
   </si>
   <si>
     <t>Co31.5 Fe18.5 Ni31.5 Al18.5</t>
@@ -698,6 +719,54 @@
   </si>
   <si>
     <t>10.1002/advs.202401559</t>
+  </si>
+  <si>
+    <t>(Fe0.3Co0.5Ni0.2)100</t>
+  </si>
+  <si>
+    <t>(Fe0.3Co0.5Ni0.2)95 (Al0.333 Si0.666)5</t>
+  </si>
+  <si>
+    <t>(Fe0.3Co0.5Ni0.2)90 (Al0.333 Si0.666)10</t>
+  </si>
+  <si>
+    <t>(Fe0.3Co0.5Ni0.2)85 (Al0.333 Si0.666)15</t>
+  </si>
+  <si>
+    <t>(Fe0.3Co0.5Ni0.2)75 (Al0.333 Si0.666)25</t>
+  </si>
+  <si>
+    <t>VAM+LM+CR+A+WQ</t>
+  </si>
+  <si>
+    <t>compressive plastic strain</t>
+  </si>
+  <si>
+    <t>VAM+LM</t>
+  </si>
+  <si>
+    <t>VAM and leviatition melting followed by CR with thickness reduction of 83%</t>
+  </si>
+  <si>
+    <t>Ohm/m</t>
+  </si>
+  <si>
+    <t>VAM and leviatition melting</t>
+  </si>
+  <si>
+    <t>VAM+LM+CR</t>
+  </si>
+  <si>
+    <t>VAM+LM+CR+A</t>
+  </si>
+  <si>
+    <t>VAM and leviatition melting followed by CR with thickness reduction of 83% annealed at 1273K for 2h and water quenched</t>
+  </si>
+  <si>
+    <t>VAM and leviatition melting followed by CR with thickness reduction of 83% annealed at 1273K for 2h</t>
+  </si>
+  <si>
+    <t>_Pa</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2023,6 +2092,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3185,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N126" sqref="N126"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3438,7 +3509,7 @@
       </c>
       <c r="O7" s="104"/>
       <c r="P7" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="69" t="s">
         <v>36</v>
@@ -3544,10 +3615,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
@@ -3560,7 +3631,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3576,7 +3647,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3588,10 +3659,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
@@ -3604,7 +3675,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3620,7 +3691,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3632,10 +3703,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
@@ -3648,7 +3719,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3664,7 +3735,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3676,16 +3747,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>65</v>
@@ -3694,7 +3765,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3707,10 +3778,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3722,16 +3793,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>65</v>
@@ -3740,7 +3811,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3753,10 +3824,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3768,16 +3839,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>65</v>
@@ -3786,7 +3857,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3799,10 +3870,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3814,16 +3885,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -3832,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3845,10 +3916,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3860,16 +3931,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>68</v>
@@ -3878,7 +3949,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -3891,10 +3962,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3906,16 +3977,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>68</v>
@@ -3924,7 +3995,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -3937,10 +4008,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3952,16 +4023,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>68</v>
@@ -3970,7 +4041,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -3983,10 +4054,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3998,16 +4069,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>68</v>
@@ -4016,7 +4087,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -4029,10 +4100,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -4044,16 +4115,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>66</v>
@@ -4062,7 +4133,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -4075,10 +4146,10 @@
         <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -4090,16 +4161,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>66</v>
@@ -4108,7 +4179,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4121,10 +4192,10 @@
         <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4136,16 +4207,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>66</v>
@@ -4154,7 +4225,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4167,10 +4238,10 @@
         <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4182,16 +4253,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>66</v>
@@ -4200,7 +4271,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4213,10 +4284,10 @@
         <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4227,22 +4298,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="139" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B25" s="140" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4254,13 +4325,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4271,22 +4342,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4298,13 +4369,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4315,22 +4386,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4342,13 +4413,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4359,22 +4430,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4386,13 +4457,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4403,22 +4474,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="139" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4430,13 +4501,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4447,22 +4518,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4474,13 +4545,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4491,22 +4562,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4518,13 +4589,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4535,22 +4606,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4562,13 +4633,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4579,28 +4650,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4608,13 +4679,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4625,28 +4696,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4654,13 +4725,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4671,28 +4742,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4700,13 +4771,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4717,28 +4788,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4746,13 +4817,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4763,28 +4834,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4792,13 +4863,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4809,28 +4880,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4838,13 +4909,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4856,25 +4927,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4882,13 +4953,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -4900,23 +4971,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -4924,11 +4995,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -4940,23 +5011,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -4964,11 +5035,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -4980,23 +5051,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -5004,11 +5075,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -5020,23 +5091,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -5044,11 +5115,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -5060,23 +5131,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -5084,11 +5155,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M44" s="40"/>
       <c r="N44" s="141" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -5100,23 +5171,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5124,11 +5195,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="141" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5140,25 +5211,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5166,13 +5237,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5184,23 +5255,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5208,11 +5279,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5224,23 +5295,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5248,11 +5319,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5264,23 +5335,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5288,11 +5359,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5304,23 +5375,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5328,11 +5399,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5344,23 +5415,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5368,11 +5439,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="141" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5384,23 +5455,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5408,11 +5479,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="141" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5424,25 +5495,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5450,13 +5521,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5468,25 +5539,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5494,13 +5565,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5512,25 +5583,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5538,13 +5609,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5556,25 +5627,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5582,13 +5653,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5600,25 +5671,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5626,13 +5697,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5644,25 +5715,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5670,13 +5741,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5688,25 +5759,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5714,13 +5785,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5732,25 +5803,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5758,13 +5829,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5776,25 +5847,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5802,13 +5873,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5820,25 +5891,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5846,13 +5917,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5864,25 +5935,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -5890,13 +5961,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -5908,25 +5979,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -5934,13 +6005,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -5952,25 +6023,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -5978,13 +6049,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -5996,25 +6067,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -6022,13 +6093,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -6040,25 +6111,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -6066,13 +6137,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -6084,25 +6155,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -6110,13 +6181,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6128,16 +6199,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6161,10 +6232,10 @@
         <v>33</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6180,16 +6251,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6213,10 +6284,10 @@
         <v>33</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6232,16 +6303,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6265,10 +6336,10 @@
         <v>33</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6284,16 +6355,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6317,10 +6388,10 @@
         <v>33</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6336,16 +6407,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6369,10 +6440,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6388,16 +6459,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6421,10 +6492,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6440,16 +6511,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6473,10 +6544,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6492,16 +6563,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6525,10 +6596,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6544,16 +6615,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>68</v>
@@ -6573,10 +6644,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6588,16 +6659,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>68</v>
@@ -6617,10 +6688,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6632,16 +6703,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>68</v>
@@ -6661,10 +6732,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6676,16 +6747,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>66</v>
@@ -6705,10 +6776,10 @@
         <v>67</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6720,16 +6791,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>66</v>
@@ -6749,10 +6820,10 @@
         <v>67</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6764,16 +6835,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>66</v>
@@ -6793,10 +6864,10 @@
         <v>67</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6808,16 +6879,16 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>71</v>
@@ -6838,7 +6909,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6850,16 +6921,16 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>71</v>
@@ -6880,7 +6951,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -6892,16 +6963,16 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>73</v>
@@ -6922,7 +6993,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -6934,16 +7005,16 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>73</v>
@@ -6964,7 +7035,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -6976,16 +7047,16 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>72</v>
@@ -7006,7 +7077,7 @@
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -7018,16 +7089,16 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>72</v>
@@ -7048,7 +7119,7 @@
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -7060,13 +7131,13 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
@@ -7088,7 +7159,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -7100,13 +7171,13 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
@@ -7128,7 +7199,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7140,13 +7211,13 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
@@ -7168,7 +7239,7 @@
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7180,10 +7251,10 @@
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>69</v>
@@ -7208,10 +7279,10 @@
         <v>33</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O92" s="46"/>
       <c r="P92" s="47">
@@ -7225,7 +7296,7 @@
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>74</v>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7252,10 +7323,10 @@
         <v>67</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
@@ -7267,17 +7338,17 @@
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7294,10 +7365,10 @@
         <v>67</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
@@ -7309,17 +7380,17 @@
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -7336,10 +7407,10 @@
         <v>67</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
@@ -7351,7 +7422,7 @@
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>74</v>
@@ -7379,10 +7450,10 @@
         <v>67</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O96" s="46"/>
       <c r="P96" s="46">
@@ -7398,10 +7469,10 @@
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>69</v>
@@ -7426,10 +7497,10 @@
         <v>67</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N97" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O97" s="46"/>
       <c r="P97" s="46">
@@ -7445,10 +7516,10 @@
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>69</v>
@@ -7473,10 +7544,10 @@
         <v>67</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O98" s="46"/>
       <c r="P98" s="46">
@@ -7492,10 +7563,10 @@
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>69</v>
@@ -7520,10 +7591,10 @@
         <v>67</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O99" s="46"/>
       <c r="P99" s="46">
@@ -7539,10 +7610,10 @@
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>69</v>
@@ -7567,10 +7638,10 @@
         <v>67</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N100" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O100" s="46"/>
       <c r="P100" s="46">
@@ -7586,10 +7657,10 @@
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>69</v>
@@ -7614,10 +7685,10 @@
         <v>67</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N101" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O101" s="46"/>
       <c r="P101" s="46">
@@ -7633,10 +7704,10 @@
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>69</v>
@@ -7661,10 +7732,10 @@
         <v>67</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O102" s="46"/>
       <c r="P102" s="46">
@@ -7680,7 +7751,7 @@
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="31" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>74</v>
@@ -7690,7 +7761,7 @@
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>29</v>
@@ -7707,10 +7778,10 @@
         <v>33</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
@@ -7722,17 +7793,17 @@
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>29</v>
@@ -7749,10 +7820,10 @@
         <v>33</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
@@ -7764,17 +7835,17 @@
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="31" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>29</v>
@@ -7791,10 +7862,10 @@
         <v>33</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
@@ -7806,7 +7877,7 @@
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="51"/>
       <c r="B106" s="31" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>64</v>
@@ -7815,7 +7886,7 @@
         <v>63</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -7825,10 +7896,10 @@
       <c r="K106" s="53"/>
       <c r="L106" s="32"/>
       <c r="M106" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N106" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O106" s="46"/>
       <c r="P106" s="39"/>
@@ -7840,7 +7911,7 @@
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="31" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>64</v>
@@ -7849,7 +7920,7 @@
         <v>63</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -7859,10 +7930,10 @@
       <c r="K107" s="53"/>
       <c r="L107" s="32"/>
       <c r="M107" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O107" s="46"/>
       <c r="P107" s="39"/>
@@ -7874,16 +7945,16 @@
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="31" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -7893,10 +7964,10 @@
       <c r="K108" s="49"/>
       <c r="L108" s="32"/>
       <c r="M108" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O108" s="46"/>
       <c r="P108" s="39"/>
@@ -7908,16 +7979,16 @@
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="51"/>
       <c r="B109" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -7927,10 +7998,10 @@
       <c r="K109" s="49"/>
       <c r="L109" s="32"/>
       <c r="M109" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N109" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O109" s="37"/>
       <c r="P109" s="39"/>
@@ -7942,16 +8013,16 @@
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="31" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -7961,10 +8032,10 @@
       <c r="K110" s="49"/>
       <c r="L110" s="50"/>
       <c r="M110" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N110" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O110" s="37"/>
       <c r="P110" s="39"/>
@@ -7976,16 +8047,16 @@
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="31" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -7995,10 +8066,10 @@
       <c r="K111" s="49"/>
       <c r="L111" s="50"/>
       <c r="M111" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O111" s="46"/>
       <c r="P111" s="47"/>
@@ -8010,16 +8081,16 @@
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
       <c r="B112" s="31" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -8029,10 +8100,10 @@
       <c r="K112" s="49"/>
       <c r="L112" s="50"/>
       <c r="M112" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O112" s="46"/>
       <c r="P112" s="47"/>
@@ -8044,16 +8115,16 @@
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -8063,10 +8134,10 @@
       <c r="K113" s="49"/>
       <c r="L113" s="50"/>
       <c r="M113" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N113" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O113" s="46"/>
       <c r="P113" s="47"/>
@@ -8077,19 +8148,19 @@
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
       <c r="A114" s="51" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>62</v>
@@ -8113,10 +8184,10 @@
         <v>33</v>
       </c>
       <c r="M114" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N114" s="30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O114" s="46"/>
       <c r="P114" s="47">
@@ -8131,19 +8202,19 @@
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
       <c r="A115" s="51" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>62</v>
@@ -8167,10 +8238,10 @@
         <v>33</v>
       </c>
       <c r="M115" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O115" s="46"/>
       <c r="P115" s="47">
@@ -8185,19 +8256,19 @@
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
       <c r="A116" s="40" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>62</v>
@@ -8221,10 +8292,10 @@
         <v>33</v>
       </c>
       <c r="M116" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N116" s="30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O116" s="46"/>
       <c r="P116" s="39">
@@ -8239,18 +8310,36 @@
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
       <c r="A117" s="38"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="B117" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E117" s="31"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
+      <c r="F117" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H117" s="33"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="49"/>
+      <c r="I117" s="38">
+        <v>298</v>
+      </c>
+      <c r="J117" s="49">
+        <v>887.9</v>
+      </c>
       <c r="K117" s="49"/>
-      <c r="L117" s="50"/>
-      <c r="M117" s="32"/>
+      <c r="L117" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M117" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N117" s="30"/>
       <c r="O117" s="46"/>
       <c r="P117" s="39"/>
@@ -8261,18 +8350,36 @@
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
       <c r="A118" s="30"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
+      <c r="B118" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E118" s="31"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
+      <c r="F118" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H118" s="33"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="49"/>
+      <c r="I118" s="38">
+        <v>298</v>
+      </c>
+      <c r="J118" s="49">
+        <v>1158.4000000000001</v>
+      </c>
       <c r="K118" s="49"/>
-      <c r="L118" s="50"/>
-      <c r="M118" s="50"/>
+      <c r="L118" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M118" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N118" s="30"/>
       <c r="O118" s="46"/>
       <c r="P118" s="39"/>
@@ -8283,18 +8390,36 @@
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
       <c r="A119" s="30"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="B119" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E119" s="31"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
+      <c r="F119" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H119" s="33"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="49"/>
+      <c r="I119" s="38">
+        <v>298</v>
+      </c>
+      <c r="J119" s="49">
+        <v>1194.3</v>
+      </c>
       <c r="K119" s="49"/>
-      <c r="L119" s="50"/>
-      <c r="M119" s="50"/>
+      <c r="L119" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M119" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N119" s="30"/>
       <c r="O119" s="46"/>
       <c r="P119" s="38"/>
@@ -8305,18 +8430,36 @@
     </row>
     <row r="120" spans="1:20" ht="18" customHeight="1">
       <c r="A120" s="51"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="B120" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E120" s="31"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
+      <c r="F120" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H120" s="33"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="49"/>
+      <c r="I120" s="38">
+        <v>298</v>
+      </c>
+      <c r="J120" s="49">
+        <v>921.3</v>
+      </c>
       <c r="K120" s="49"/>
-      <c r="L120" s="50"/>
-      <c r="M120" s="50"/>
+      <c r="L120" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M120" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N120" s="30"/>
       <c r="O120" s="46"/>
       <c r="P120" s="38"/>
@@ -8327,18 +8470,36 @@
     </row>
     <row r="121" spans="1:20" ht="18" customHeight="1">
       <c r="A121" s="51"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
+      <c r="B121" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E121" s="31"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
+      <c r="F121" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H121" s="33"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="49"/>
+      <c r="I121" s="38">
+        <v>298</v>
+      </c>
+      <c r="J121" s="49">
+        <v>990.5</v>
+      </c>
       <c r="K121" s="49"/>
-      <c r="L121" s="50"/>
-      <c r="M121" s="50"/>
+      <c r="L121" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M121" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N121" s="30"/>
       <c r="O121" s="46"/>
       <c r="P121" s="39"/>
@@ -8349,18 +8510,36 @@
     </row>
     <row r="122" spans="1:20" ht="18" customHeight="1">
       <c r="A122" s="51"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
+      <c r="B122" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E122" s="31"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
+      <c r="F122" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H122" s="33"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="49"/>
+      <c r="I122" s="38">
+        <v>298</v>
+      </c>
+      <c r="J122" s="49">
+        <v>168.1</v>
+      </c>
       <c r="K122" s="49"/>
-      <c r="L122" s="50"/>
-      <c r="M122" s="50"/>
+      <c r="L122" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M122" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N122" s="30"/>
       <c r="O122" s="46"/>
       <c r="P122" s="39"/>
@@ -8371,18 +8550,36 @@
     </row>
     <row r="123" spans="1:20" ht="18" customHeight="1">
       <c r="A123" s="51"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
+      <c r="B123" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E123" s="31"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
+      <c r="F123" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H123" s="33"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="49"/>
+      <c r="I123" s="38">
+        <v>298</v>
+      </c>
+      <c r="J123" s="49">
+        <v>153.5</v>
+      </c>
       <c r="K123" s="49"/>
-      <c r="L123" s="50"/>
-      <c r="M123" s="50"/>
+      <c r="L123" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M123" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N123" s="30"/>
       <c r="O123" s="46"/>
       <c r="P123" s="39"/>
@@ -8393,18 +8590,36 @@
     </row>
     <row r="124" spans="1:20" ht="18" customHeight="1">
       <c r="A124" s="51"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="B124" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E124" s="31"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
+      <c r="F124" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H124" s="33"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="49"/>
+      <c r="I124" s="38">
+        <v>298</v>
+      </c>
+      <c r="J124" s="49">
+        <v>131</v>
+      </c>
       <c r="K124" s="49"/>
-      <c r="L124" s="50"/>
-      <c r="M124" s="50"/>
+      <c r="L124" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M124" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N124" s="30"/>
       <c r="O124" s="37"/>
       <c r="P124" s="39"/>
@@ -8415,18 +8630,36 @@
     </row>
     <row r="125" spans="1:20" ht="18" customHeight="1">
       <c r="A125" s="51"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
+      <c r="B125" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E125" s="31"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
+      <c r="F125" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H125" s="33"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="49"/>
+      <c r="I125" s="38">
+        <v>298</v>
+      </c>
+      <c r="J125" s="49">
+        <v>117.1</v>
+      </c>
       <c r="K125" s="49"/>
-      <c r="L125" s="50"/>
-      <c r="M125" s="50"/>
+      <c r="L125" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M125" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N125" s="30"/>
       <c r="O125" s="37"/>
       <c r="P125" s="39"/>
@@ -8437,18 +8670,36 @@
     </row>
     <row r="126" spans="1:20" ht="18" customHeight="1">
       <c r="A126" s="51"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
+      <c r="B126" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="E126" s="31"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
+      <c r="F126" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H126" s="33"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="49"/>
+      <c r="I126" s="38">
+        <v>298</v>
+      </c>
+      <c r="J126" s="49">
+        <v>116.5</v>
+      </c>
       <c r="K126" s="49"/>
-      <c r="L126" s="50"/>
-      <c r="M126" s="50"/>
+      <c r="L126" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M126" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N126" s="30"/>
       <c r="O126" s="37"/>
       <c r="P126" s="39"/>
@@ -8459,18 +8710,38 @@
     </row>
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="51"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
+      <c r="B127" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E127" s="31"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="49"/>
+      <c r="F127" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I127" s="38">
+        <v>298</v>
+      </c>
+      <c r="J127" s="49">
+        <v>96000000</v>
+      </c>
       <c r="K127" s="49"/>
-      <c r="L127" s="50"/>
-      <c r="M127" s="50"/>
+      <c r="L127" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M127" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N127" s="30"/>
       <c r="O127" s="37"/>
       <c r="P127" s="39"/>
@@ -8481,18 +8752,38 @@
     </row>
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="30"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
+      <c r="B128" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E128" s="31"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="49"/>
+      <c r="F128" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I128" s="38">
+        <v>298</v>
+      </c>
+      <c r="J128" s="49">
+        <v>122000000</v>
+      </c>
       <c r="K128" s="49"/>
-      <c r="L128" s="50"/>
-      <c r="M128" s="50"/>
+      <c r="L128" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M128" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N128" s="30"/>
       <c r="O128" s="37"/>
       <c r="P128" s="39"/>
@@ -8503,18 +8794,38 @@
     </row>
     <row r="129" spans="1:20" ht="18" customHeight="1">
       <c r="A129" s="30"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
+      <c r="B129" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E129" s="31"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="49"/>
+      <c r="F129" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G129" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I129" s="38">
+        <v>298</v>
+      </c>
+      <c r="J129" s="49">
+        <v>116000000</v>
+      </c>
       <c r="K129" s="49"/>
-      <c r="L129" s="50"/>
-      <c r="M129" s="50"/>
+      <c r="L129" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M129" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N129" s="30"/>
       <c r="O129" s="37"/>
       <c r="P129" s="39"/>
@@ -8525,18 +8836,38 @@
     </row>
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="30"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
+      <c r="B130" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C130" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E130" s="31"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="49"/>
+      <c r="F130" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I130" s="38">
+        <v>298</v>
+      </c>
+      <c r="J130" s="49">
+        <v>243000000</v>
+      </c>
       <c r="K130" s="49"/>
-      <c r="L130" s="50"/>
-      <c r="M130" s="50"/>
+      <c r="L130" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M130" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N130" s="30"/>
       <c r="O130" s="37"/>
       <c r="P130" s="39"/>
@@ -8547,18 +8878,38 @@
     </row>
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
+      <c r="B131" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E131" s="31"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="49"/>
+      <c r="F131" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I131" s="38">
+        <v>298</v>
+      </c>
+      <c r="J131" s="49">
+        <v>1445000000</v>
+      </c>
       <c r="K131" s="49"/>
-      <c r="L131" s="50"/>
-      <c r="M131" s="50"/>
+      <c r="L131" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M131" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N131" s="30"/>
       <c r="O131" s="37"/>
       <c r="P131" s="39"/>
@@ -8569,18 +8920,38 @@
     </row>
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="51"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
+      <c r="B132" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C132" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E132" s="31"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="49"/>
+      <c r="F132" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I132" s="38">
+        <v>298</v>
+      </c>
+      <c r="J132" s="49">
+        <v>506000000</v>
+      </c>
       <c r="K132" s="49"/>
-      <c r="L132" s="50"/>
-      <c r="M132" s="50"/>
+      <c r="L132" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M132" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N132" s="30"/>
       <c r="O132" s="37"/>
       <c r="P132" s="39"/>
@@ -8591,18 +8962,38 @@
     </row>
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="30"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
+      <c r="B133" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E133" s="31"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="49"/>
+      <c r="F133" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I133" s="38">
+        <v>298</v>
+      </c>
+      <c r="J133" s="49">
+        <v>423000000</v>
+      </c>
       <c r="K133" s="49"/>
-      <c r="L133" s="50"/>
-      <c r="M133" s="50"/>
+      <c r="L133" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M133" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N133" s="30"/>
       <c r="O133" s="37"/>
       <c r="P133" s="39"/>
@@ -8613,18 +9004,38 @@
     </row>
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="30"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
+      <c r="B134" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C134" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E134" s="31"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="49"/>
+      <c r="F134" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I134" s="38">
+        <v>298</v>
+      </c>
+      <c r="J134" s="49">
+        <v>650000000</v>
+      </c>
       <c r="K134" s="49"/>
-      <c r="L134" s="50"/>
-      <c r="M134" s="50"/>
+      <c r="L134" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M134" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N134" s="30"/>
       <c r="O134" s="37"/>
       <c r="P134" s="38"/>
@@ -8635,18 +9046,38 @@
     </row>
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="30"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
+      <c r="B135" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E135" s="31"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="49"/>
+      <c r="F135" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G135" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I135" s="38">
+        <v>298</v>
+      </c>
+      <c r="J135" s="49">
+        <v>1248000000</v>
+      </c>
       <c r="K135" s="49"/>
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
+      <c r="L135" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M135" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N135" s="30"/>
       <c r="O135" s="37"/>
       <c r="P135" s="38"/>
@@ -8657,18 +9088,38 @@
     </row>
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="30"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
+      <c r="B136" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E136" s="31"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="49"/>
+      <c r="F136" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G136" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I136" s="38">
+        <v>298</v>
+      </c>
+      <c r="J136" s="49">
+        <v>2052000000</v>
+      </c>
       <c r="K136" s="49"/>
-      <c r="L136" s="50"/>
-      <c r="M136" s="50"/>
+      <c r="L136" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M136" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N136" s="30"/>
       <c r="O136" s="37"/>
       <c r="P136" s="38"/>
@@ -8679,18 +9130,38 @@
     </row>
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="55"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
+      <c r="B137" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E137" s="31"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="49"/>
+      <c r="F137" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I137" s="38">
+        <v>298</v>
+      </c>
+      <c r="J137" s="49">
+        <v>28.5</v>
+      </c>
       <c r="K137" s="49"/>
-      <c r="L137" s="50"/>
-      <c r="M137" s="50"/>
+      <c r="L137" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M137" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N137" s="30"/>
       <c r="O137" s="37"/>
       <c r="P137" s="38"/>
@@ -8701,18 +9172,38 @@
     </row>
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="42"/>
-      <c r="B138" s="41"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
+      <c r="B138" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E138" s="31"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="49"/>
+      <c r="F138" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G138" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I138" s="38">
+        <v>298</v>
+      </c>
+      <c r="J138" s="49">
+        <v>20</v>
+      </c>
       <c r="K138" s="49"/>
-      <c r="L138" s="50"/>
-      <c r="M138" s="50"/>
+      <c r="L138" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M138" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N138" s="30"/>
       <c r="O138" s="37"/>
       <c r="P138" s="38"/>
@@ -8723,18 +9214,38 @@
     </row>
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="42"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
+      <c r="B139" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E139" s="31"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="49"/>
+      <c r="F139" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I139" s="38">
+        <v>298</v>
+      </c>
+      <c r="J139" s="49">
+        <v>23.2</v>
+      </c>
       <c r="K139" s="49"/>
-      <c r="L139" s="50"/>
-      <c r="M139" s="50"/>
+      <c r="L139" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M139" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N139" s="30"/>
       <c r="O139" s="37"/>
       <c r="P139" s="38"/>
@@ -8745,18 +9256,38 @@
     </row>
     <row r="140" spans="1:20" ht="18" customHeight="1">
       <c r="A140" s="42"/>
-      <c r="B140" s="41"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
+      <c r="B140" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E140" s="31"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="49"/>
+      <c r="F140" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I140" s="38">
+        <v>298</v>
+      </c>
+      <c r="J140" s="49">
+        <v>20</v>
+      </c>
       <c r="K140" s="49"/>
-      <c r="L140" s="50"/>
-      <c r="M140" s="50"/>
+      <c r="L140" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M140" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N140" s="30"/>
       <c r="O140" s="37"/>
       <c r="P140" s="38"/>
@@ -8767,18 +9298,38 @@
     </row>
     <row r="141" spans="1:20" ht="18" customHeight="1">
       <c r="A141" s="42"/>
-      <c r="B141" s="41"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
+      <c r="B141" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E141" s="31"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="49"/>
+      <c r="F141" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I141" s="38">
+        <v>298</v>
+      </c>
+      <c r="J141" s="49">
+        <v>3.9</v>
+      </c>
       <c r="K141" s="49"/>
-      <c r="L141" s="50"/>
-      <c r="M141" s="50"/>
+      <c r="L141" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M141" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N141" s="30"/>
       <c r="O141" s="37"/>
       <c r="P141" s="38"/>
@@ -8789,18 +9340,38 @@
     </row>
     <row r="142" spans="1:20" ht="18" customHeight="1">
       <c r="A142" s="55"/>
-      <c r="B142" s="41"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
+      <c r="B142" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C142" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E142" s="31"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="49"/>
+      <c r="F142" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G142" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I142" s="34">
+        <v>298</v>
+      </c>
+      <c r="J142" s="49">
+        <v>2.71</v>
+      </c>
       <c r="K142" s="49"/>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
+      <c r="L142" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M142" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="N142" s="30"/>
       <c r="O142" s="37"/>
       <c r="P142" s="38"/>
@@ -8811,17 +9382,33 @@
     </row>
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="42"/>
-      <c r="B143" s="41"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
+      <c r="B143" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E143" s="31"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
+      <c r="F143" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G143" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H143" s="33"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="49"/>
+      <c r="I143" s="34">
+        <v>298</v>
+      </c>
+      <c r="J143" s="49">
+        <v>6.0299999999999999E-7</v>
+      </c>
       <c r="K143" s="49"/>
-      <c r="L143" s="50"/>
+      <c r="L143" s="50" t="s">
+        <v>205</v>
+      </c>
       <c r="M143" s="50"/>
       <c r="N143" s="30"/>
       <c r="O143" s="37"/>
@@ -8833,18 +9420,38 @@
     </row>
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="42"/>
-      <c r="B144" s="41"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
+      <c r="B144" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H144" s="33"/>
-      <c r="I144" s="34"/>
-      <c r="J144" s="49"/>
+      <c r="I144" s="34">
+        <v>298</v>
+      </c>
+      <c r="J144" s="49">
+        <v>96</v>
+      </c>
       <c r="K144" s="49"/>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
+      <c r="L144" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M144" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N144" s="30"/>
       <c r="O144" s="37"/>
       <c r="P144" s="38"/>
@@ -8855,18 +9462,38 @@
     </row>
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="42"/>
-      <c r="B145" s="41"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
+      <c r="B145" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G145" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H145" s="33"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="49"/>
+      <c r="I145" s="34">
+        <v>298</v>
+      </c>
+      <c r="J145" s="49">
+        <v>510</v>
+      </c>
       <c r="K145" s="49"/>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
+      <c r="L145" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M145" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N145" s="30"/>
       <c r="O145" s="37"/>
       <c r="P145" s="38"/>
@@ -8877,18 +9504,38 @@
     </row>
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="42"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="32"/>
+      <c r="B146" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D146" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G146" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H146" s="33"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="49"/>
+      <c r="I146" s="34">
+        <v>298</v>
+      </c>
+      <c r="J146" s="49">
+        <v>130</v>
+      </c>
       <c r="K146" s="53"/>
-      <c r="L146" s="50"/>
-      <c r="M146" s="50"/>
+      <c r="L146" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M146" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N146" s="30"/>
       <c r="O146" s="37"/>
       <c r="P146" s="38"/>
@@ -8899,18 +9546,38 @@
     </row>
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="55"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="32"/>
+      <c r="B147" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E147" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G147" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H147" s="33"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="49"/>
+      <c r="I147" s="34">
+        <v>298</v>
+      </c>
+      <c r="J147" s="49">
+        <v>165</v>
+      </c>
       <c r="K147" s="53"/>
-      <c r="L147" s="50"/>
-      <c r="M147" s="50"/>
+      <c r="L147" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M147" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N147" s="30"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38"/>
@@ -8921,18 +9588,38 @@
     </row>
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="42"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="32"/>
+      <c r="B148" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F148" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G148" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H148" s="33"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="49"/>
+      <c r="I148" s="34">
+        <v>298</v>
+      </c>
+      <c r="J148" s="37">
+        <v>146.769851951547</v>
+      </c>
       <c r="K148" s="53"/>
-      <c r="L148" s="50"/>
-      <c r="M148" s="50"/>
+      <c r="L148" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M148" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="N148" s="30"/>
       <c r="O148" s="37"/>
       <c r="P148" s="38"/>
@@ -8943,18 +9630,38 @@
     </row>
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="42"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="32"/>
+      <c r="B149" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F149" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G149" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H149" s="33"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="49"/>
+      <c r="I149" s="34">
+        <v>298</v>
+      </c>
+      <c r="J149" s="37">
+        <v>147.57738896366001</v>
+      </c>
       <c r="K149" s="53"/>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
+      <c r="L149" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M149" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="N149" s="30"/>
       <c r="O149" s="37"/>
       <c r="P149" s="38"/>
@@ -8965,18 +9672,38 @@
     </row>
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="42"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="32"/>
+      <c r="B150" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F150" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G150" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H150" s="33"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="49"/>
+      <c r="I150" s="34">
+        <v>298</v>
+      </c>
+      <c r="J150" s="37">
+        <v>136.67563930013401</v>
+      </c>
       <c r="K150" s="49"/>
-      <c r="L150" s="50"/>
-      <c r="M150" s="50"/>
+      <c r="L150" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M150" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="N150" s="30"/>
       <c r="O150" s="37"/>
       <c r="P150" s="38"/>
@@ -8987,18 +9714,38 @@
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="42"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="32"/>
+      <c r="B151" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F151" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G151" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H151" s="33"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="49"/>
+      <c r="I151" s="34">
+        <v>298</v>
+      </c>
+      <c r="J151" s="37">
+        <v>144.751009421265</v>
+      </c>
       <c r="K151" s="49"/>
-      <c r="L151" s="50"/>
-      <c r="M151" s="50"/>
+      <c r="L151" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M151" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="N151" s="30"/>
       <c r="O151" s="37"/>
       <c r="P151" s="38"/>
@@ -9009,18 +9756,40 @@
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="55"/>
-      <c r="B152" s="41"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="49"/>
+      <c r="B152" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F152" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G152" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I152" s="34">
+        <v>298</v>
+      </c>
+      <c r="J152" s="49">
+        <v>176100000</v>
+      </c>
       <c r="K152" s="49"/>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50"/>
+      <c r="L152" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M152" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N152" s="30"/>
       <c r="O152" s="37"/>
       <c r="P152" s="38"/>
@@ -9031,18 +9800,40 @@
     </row>
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="42"/>
-      <c r="B153" s="41"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="49"/>
+      <c r="B153" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E153" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F153" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I153" s="34">
+        <v>298</v>
+      </c>
+      <c r="J153" s="49">
+        <v>779600000</v>
+      </c>
       <c r="K153" s="49"/>
-      <c r="L153" s="50"/>
-      <c r="M153" s="50"/>
+      <c r="L153" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M153" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N153" s="30"/>
       <c r="O153" s="37"/>
       <c r="P153" s="38"/>
@@ -9053,18 +9844,40 @@
     </row>
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="42"/>
-      <c r="B154" s="41"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="49"/>
+      <c r="B154" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E154" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F154" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G154" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I154" s="34">
+        <v>298</v>
+      </c>
+      <c r="J154" s="49">
+        <v>261500000</v>
+      </c>
       <c r="K154" s="49"/>
-      <c r="L154" s="50"/>
-      <c r="M154" s="50"/>
+      <c r="L154" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M154" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N154" s="30"/>
       <c r="O154" s="37"/>
       <c r="P154" s="38"/>
@@ -9075,18 +9888,40 @@
     </row>
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="42"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="49"/>
+      <c r="B155" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F155" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G155" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I155" s="34">
+        <v>298</v>
+      </c>
+      <c r="J155" s="49">
+        <v>235500000</v>
+      </c>
       <c r="K155" s="49"/>
-      <c r="L155" s="50"/>
-      <c r="M155" s="50"/>
+      <c r="L155" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M155" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N155" s="30"/>
       <c r="O155" s="37"/>
       <c r="P155" s="38"/>
@@ -9097,18 +9932,40 @@
     </row>
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="42"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="49"/>
+      <c r="B156" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F156" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G156" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I156" s="34">
+        <v>298</v>
+      </c>
+      <c r="J156" s="49">
+        <v>402400000</v>
+      </c>
       <c r="K156" s="38"/>
-      <c r="L156" s="50"/>
-      <c r="M156" s="50"/>
+      <c r="L156" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M156" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N156" s="30"/>
       <c r="O156" s="37"/>
       <c r="P156" s="38"/>
@@ -9119,18 +9976,40 @@
     </row>
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="30"/>
-      <c r="B157" s="31"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="31"/>
-      <c r="F157" s="54"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="49"/>
+      <c r="B157" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F157" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G157" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I157" s="34">
+        <v>298</v>
+      </c>
+      <c r="J157" s="49">
+        <v>917700000</v>
+      </c>
       <c r="K157" s="38"/>
-      <c r="L157" s="50"/>
-      <c r="M157" s="50"/>
+      <c r="L157" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M157" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N157" s="30"/>
       <c r="O157" s="37"/>
       <c r="P157" s="38"/>
@@ -9141,18 +10020,40 @@
     </row>
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="38"/>
-      <c r="B158" s="31"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="49"/>
+      <c r="B158" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E158" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F158" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G158" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I158" s="34">
+        <v>298</v>
+      </c>
+      <c r="J158" s="49">
+        <v>558300000</v>
+      </c>
       <c r="K158" s="38"/>
-      <c r="L158" s="50"/>
-      <c r="M158" s="50"/>
+      <c r="L158" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M158" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N158" s="30"/>
       <c r="O158" s="37"/>
       <c r="P158" s="38"/>
@@ -9163,18 +10064,40 @@
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="38"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="49"/>
+      <c r="B159" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E159" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F159" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G159" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I159" s="34">
+        <v>298</v>
+      </c>
+      <c r="J159" s="49">
+        <v>572400000</v>
+      </c>
       <c r="K159" s="38"/>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
+      <c r="L159" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M159" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N159" s="30"/>
       <c r="O159" s="37"/>
       <c r="P159" s="39"/>
@@ -9185,18 +10108,40 @@
     </row>
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="38"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="49"/>
+      <c r="B160" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F160" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G160" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I160" s="34">
+        <v>298</v>
+      </c>
+      <c r="J160" s="49">
+        <v>26.8</v>
+      </c>
       <c r="K160" s="38"/>
-      <c r="L160" s="50"/>
-      <c r="M160" s="50"/>
+      <c r="L160" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M160" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N160" s="30"/>
       <c r="O160" s="37"/>
       <c r="P160" s="47"/>
@@ -9207,18 +10152,40 @@
     </row>
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="38"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="49"/>
+      <c r="B161" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F161" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I161" s="34">
+        <v>298</v>
+      </c>
+      <c r="J161" s="49">
+        <v>1.3</v>
+      </c>
       <c r="K161" s="38"/>
-      <c r="L161" s="50"/>
-      <c r="M161" s="50"/>
+      <c r="L161" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M161" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N161" s="30"/>
       <c r="O161" s="37"/>
       <c r="P161" s="47"/>
@@ -9229,18 +10196,40 @@
     </row>
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="38"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="34"/>
-      <c r="J162" s="49"/>
+      <c r="B162" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F162" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G162" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I162" s="34">
+        <v>298</v>
+      </c>
+      <c r="J162" s="49">
+        <v>38.299999999999997</v>
+      </c>
       <c r="K162" s="38"/>
-      <c r="L162" s="50"/>
-      <c r="M162" s="50"/>
+      <c r="L162" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M162" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N162" s="30"/>
       <c r="O162" s="37"/>
       <c r="P162" s="47"/>
@@ -9251,18 +10240,40 @@
     </row>
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="38"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="49"/>
+      <c r="B163" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E163" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F163" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G163" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I163" s="34">
+        <v>298</v>
+      </c>
+      <c r="J163" s="49">
+        <v>33.200000000000003</v>
+      </c>
       <c r="K163" s="38"/>
-      <c r="L163" s="50"/>
-      <c r="M163" s="50"/>
+      <c r="L163" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M163" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="N163" s="30"/>
       <c r="O163" s="37"/>
       <c r="P163" s="47"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13EA7D-7FE2-AD46-B27B-345B6B8DDD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3090AA-1427-4B4B-BA36-581C293AF99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -366,10 +366,16 @@
     <t>hardness HV</t>
   </si>
   <si>
+    <t>F4</t>
+  </si>
+  <si>
     <t>F3</t>
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>thermal conductivity</t>
   </si>
   <si>
     <t>amorphous</t>
@@ -767,6 +773,45 @@
   </si>
   <si>
     <t>_Pa</t>
+  </si>
+  <si>
+    <t>10.3390/met9030382</t>
+  </si>
+  <si>
+    <t>CoCrFeNiNb0.25</t>
+  </si>
+  <si>
+    <t>CoCrFeNiNb0.45</t>
+  </si>
+  <si>
+    <t>Nb0</t>
+  </si>
+  <si>
+    <t>Nb0.25</t>
+  </si>
+  <si>
+    <t>Nb0.45</t>
+  </si>
+  <si>
+    <t>FCC+C15</t>
+  </si>
+  <si>
+    <t>C15 is Co2Nb-type Laves phase; hypoeutectic</t>
+  </si>
+  <si>
+    <t>C15 is Co2Nb-type Laves phase; eutectic</t>
+  </si>
+  <si>
+    <t>seebeck coefficient</t>
+  </si>
+  <si>
+    <t>V/K</t>
+  </si>
+  <si>
+    <t>W/(m K)</t>
+  </si>
+  <si>
+    <t>10.3390/cryst10090762</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,10 +2013,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3256,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L166" sqref="L166"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A170" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O207" sqref="O207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3314,19 +3356,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="127"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3342,17 +3384,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="131"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="128"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3393,43 +3435,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="134" t="s">
+      <c r="I5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="134" t="s">
+      <c r="K5" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="134" t="s">
+      <c r="L5" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="134" t="s">
+      <c r="M5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="134" t="s">
+      <c r="N5" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="102" t="s">
+      <c r="O5" s="99" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3445,19 +3487,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="103"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3507,7 +3549,7 @@
       <c r="N7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="104"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="69" t="s">
         <v>77</v>
       </c>
@@ -3522,35 +3564,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="113" t="s">
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="114"/>
+      <c r="N8" s="111"/>
       <c r="O8" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="118"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="115"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="65" t="s">
@@ -3615,10 +3657,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
@@ -3631,7 +3673,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3647,7 +3689,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3659,10 +3701,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
@@ -3675,7 +3717,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3691,7 +3733,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3703,10 +3745,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
@@ -3719,7 +3761,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3735,7 +3777,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3747,16 +3789,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>65</v>
@@ -3765,7 +3807,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3778,10 +3820,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3793,16 +3835,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>65</v>
@@ -3811,7 +3853,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3824,10 +3866,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3839,16 +3881,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>65</v>
@@ -3857,7 +3899,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3870,10 +3912,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3885,16 +3927,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -3903,7 +3945,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3916,10 +3958,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3931,16 +3973,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>68</v>
@@ -3949,7 +3991,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -3962,10 +4004,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -3977,16 +4019,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>68</v>
@@ -3995,7 +4037,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -4008,10 +4050,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -4023,16 +4065,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>68</v>
@@ -4041,7 +4083,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -4054,10 +4096,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -4069,16 +4111,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>68</v>
@@ -4087,7 +4129,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -4100,10 +4142,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -4115,16 +4157,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>66</v>
@@ -4133,7 +4175,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -4146,10 +4188,10 @@
         <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -4161,16 +4203,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>66</v>
@@ -4179,7 +4221,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4192,10 +4234,10 @@
         <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4207,16 +4249,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>66</v>
@@ -4225,7 +4267,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4238,10 +4280,10 @@
         <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4253,16 +4295,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>66</v>
@@ -4271,7 +4313,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4284,10 +4326,10 @@
         <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4297,23 +4339,23 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>113</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4325,13 +4367,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4342,22 +4384,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4369,13 +4411,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4386,22 +4428,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4413,13 +4455,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4430,22 +4472,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4457,13 +4499,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4473,23 +4515,23 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>113</v>
-      </c>
       <c r="F29" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4501,13 +4543,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4518,22 +4560,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4545,13 +4587,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4562,22 +4604,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4589,13 +4631,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4606,22 +4648,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4633,13 +4675,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4650,28 +4692,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4679,13 +4721,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4696,28 +4738,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4725,13 +4767,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4742,28 +4784,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4771,13 +4813,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4788,28 +4830,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4817,13 +4859,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4834,28 +4876,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4863,13 +4905,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4880,28 +4922,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4909,13 +4951,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4927,25 +4969,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4953,13 +4995,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -4971,23 +5013,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -4995,11 +5037,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -5011,23 +5053,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -5035,11 +5077,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -5051,23 +5093,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -5075,11 +5117,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -5091,23 +5133,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -5115,11 +5157,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -5131,23 +5173,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -5155,11 +5197,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M44" s="40"/>
-      <c r="N44" s="141" t="s">
-        <v>137</v>
+      <c r="N44" s="138" t="s">
+        <v>139</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -5171,23 +5213,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5195,11 +5237,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M45" s="40"/>
-      <c r="N45" s="141" t="s">
-        <v>138</v>
+      <c r="N45" s="138" t="s">
+        <v>140</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5211,25 +5253,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5237,13 +5279,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5255,23 +5297,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5279,11 +5321,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5295,23 +5337,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5319,11 +5361,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5335,23 +5377,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5359,11 +5401,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5375,23 +5417,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5399,11 +5441,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5415,23 +5457,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5439,11 +5481,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M51" s="40"/>
-      <c r="N51" s="141" t="s">
-        <v>137</v>
+      <c r="N51" s="138" t="s">
+        <v>139</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5455,23 +5497,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5479,11 +5521,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M52" s="40"/>
-      <c r="N52" s="141" t="s">
-        <v>138</v>
+      <c r="N52" s="138" t="s">
+        <v>140</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5495,25 +5537,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E53" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5521,13 +5563,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5539,25 +5581,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E54" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5565,13 +5607,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5583,25 +5625,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E55" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5609,13 +5651,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5627,25 +5669,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E56" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5653,13 +5695,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5671,25 +5713,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5697,13 +5739,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5715,25 +5757,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5741,13 +5783,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5759,25 +5801,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E59" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5785,13 +5827,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5803,25 +5845,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5829,13 +5871,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5847,25 +5889,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E61" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5873,13 +5915,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5891,25 +5933,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E62" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5917,13 +5959,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5935,25 +5977,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E63" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -5961,13 +6003,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -5979,25 +6021,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E64" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -6005,13 +6047,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -6023,25 +6065,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -6049,13 +6091,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -6067,25 +6109,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -6093,13 +6135,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -6111,25 +6153,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E67" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -6137,13 +6179,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -6155,25 +6197,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E68" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -6181,13 +6223,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6199,16 +6241,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D69" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E69" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6220,11 +6262,11 @@
       <c r="I69" s="34">
         <v>298</v>
       </c>
-      <c r="J69" s="142">
+      <c r="J69" s="139">
         <f t="shared" ref="J69:J76" si="0">P69*9807000</f>
         <v>5122230164.5338182</v>
       </c>
-      <c r="K69" s="142">
+      <c r="K69" s="139">
         <f>(Q69-P69)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6235,7 +6277,7 @@
         <v>76</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6251,16 +6293,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E70" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6272,11 +6314,11 @@
       <c r="I70" s="34">
         <v>298</v>
       </c>
-      <c r="J70" s="142">
+      <c r="J70" s="139">
         <f t="shared" si="0"/>
         <v>6038386837.2943306</v>
       </c>
-      <c r="K70" s="142">
+      <c r="K70" s="139">
         <f t="shared" ref="K70:K76" si="1">(Q70-P70)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6287,7 +6329,7 @@
         <v>76</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6303,16 +6345,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E71" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6324,11 +6366,11 @@
       <c r="I71" s="34">
         <v>298</v>
       </c>
-      <c r="J71" s="142">
+      <c r="J71" s="139">
         <f t="shared" si="0"/>
         <v>6690991590.4935989</v>
       </c>
-      <c r="K71" s="142">
+      <c r="K71" s="139">
         <f t="shared" si="1"/>
         <v>288652102.37659782</v>
       </c>
@@ -6339,7 +6381,7 @@
         <v>76</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6355,16 +6397,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E72" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6376,11 +6418,11 @@
       <c r="I72" s="34">
         <v>298</v>
       </c>
-      <c r="J72" s="142">
+      <c r="J72" s="139">
         <f t="shared" si="0"/>
         <v>6929443327.2394876</v>
       </c>
-      <c r="K72" s="142">
+      <c r="K72" s="139">
         <f t="shared" si="1"/>
         <v>376502742.23034215</v>
       </c>
@@ -6391,7 +6433,7 @@
         <v>76</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6407,16 +6449,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6428,11 +6470,11 @@
       <c r="I73" s="34">
         <v>298</v>
       </c>
-      <c r="J73" s="142">
+      <c r="J73" s="139">
         <f t="shared" si="0"/>
         <v>4370646088.794919</v>
       </c>
-      <c r="K73" s="142">
+      <c r="K73" s="139">
         <f t="shared" si="1"/>
         <v>362838266.38477683</v>
       </c>
@@ -6440,10 +6482,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6459,16 +6501,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6480,11 +6522,11 @@
       <c r="I74" s="34">
         <v>298</v>
       </c>
-      <c r="J74" s="142">
+      <c r="J74" s="139">
         <f t="shared" si="0"/>
         <v>5417693657.5052862</v>
       </c>
-      <c r="K74" s="142">
+      <c r="K74" s="139">
         <f t="shared" si="1"/>
         <v>269536997.88582945</v>
       </c>
@@ -6492,10 +6534,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6511,16 +6553,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E75" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6532,11 +6574,11 @@
       <c r="I75" s="34">
         <v>298</v>
       </c>
-      <c r="J75" s="142">
+      <c r="J75" s="139">
         <f t="shared" si="0"/>
         <v>5127423044.3974543</v>
       </c>
-      <c r="K75" s="142">
+      <c r="K75" s="139">
         <f t="shared" si="1"/>
         <v>342104651.16279542</v>
       </c>
@@ -6544,10 +6586,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6563,16 +6605,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E76" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6584,11 +6626,11 @@
       <c r="I76" s="34">
         <v>298</v>
       </c>
-      <c r="J76" s="142">
+      <c r="J76" s="139">
         <f t="shared" si="0"/>
         <v>5013388160.6765261</v>
       </c>
-      <c r="K76" s="142">
+      <c r="K76" s="139">
         <f t="shared" si="1"/>
         <v>238436575.05285701</v>
       </c>
@@ -6596,10 +6638,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6615,16 +6657,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E77" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>68</v>
@@ -6644,10 +6686,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6659,16 +6701,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E78" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>68</v>
@@ -6688,10 +6730,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6703,16 +6745,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>68</v>
@@ -6732,10 +6774,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6747,16 +6789,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E80" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>66</v>
@@ -6776,10 +6818,10 @@
         <v>67</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6791,16 +6833,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="E81" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>66</v>
@@ -6820,10 +6862,10 @@
         <v>67</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6835,16 +6877,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>66</v>
@@ -6864,10 +6906,10 @@
         <v>67</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6879,16 +6921,16 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>158</v>
-      </c>
       <c r="E83" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>71</v>
@@ -6909,7 +6951,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6921,16 +6963,16 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="D84" s="30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>71</v>
@@ -6951,7 +6993,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -6963,16 +7005,16 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>158</v>
-      </c>
       <c r="E85" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>73</v>
@@ -6993,7 +7035,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -7005,16 +7047,16 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="D86" s="30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>73</v>
@@ -7035,7 +7077,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -7047,16 +7089,16 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>158</v>
-      </c>
       <c r="E87" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>72</v>
@@ -7077,7 +7119,7 @@
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -7089,16 +7131,16 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="D88" s="30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>72</v>
@@ -7119,7 +7161,7 @@
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -7131,13 +7173,13 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
@@ -7159,7 +7201,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -7171,13 +7213,13 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
@@ -7199,7 +7241,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7211,13 +7253,13 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
@@ -7239,7 +7281,7 @@
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7251,10 +7293,10 @@
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>69</v>
@@ -7270,7 +7312,7 @@
       <c r="I92" s="34">
         <v>298</v>
       </c>
-      <c r="J92" s="142">
+      <c r="J92" s="139">
         <f t="shared" ref="J92" si="2">P92*9807000</f>
         <v>1765260000</v>
       </c>
@@ -7279,10 +7321,10 @@
         <v>33</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O92" s="46"/>
       <c r="P92" s="47">
@@ -7296,7 +7338,7 @@
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>74</v>
@@ -7306,7 +7348,7 @@
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7323,10 +7365,10 @@
         <v>67</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
@@ -7338,17 +7380,17 @@
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7365,10 +7407,10 @@
         <v>67</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
@@ -7380,17 +7422,17 @@
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -7407,10 +7449,10 @@
         <v>67</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
@@ -7422,7 +7464,7 @@
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>74</v>
@@ -7450,10 +7492,10 @@
         <v>67</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O96" s="46"/>
       <c r="P96" s="46">
@@ -7469,10 +7511,10 @@
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>69</v>
@@ -7497,10 +7539,10 @@
         <v>67</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N97" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O97" s="46"/>
       <c r="P97" s="46">
@@ -7516,10 +7558,10 @@
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>69</v>
@@ -7544,10 +7586,10 @@
         <v>67</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O98" s="46"/>
       <c r="P98" s="46">
@@ -7563,10 +7605,10 @@
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>69</v>
@@ -7591,10 +7633,10 @@
         <v>67</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O99" s="46"/>
       <c r="P99" s="46">
@@ -7610,10 +7652,10 @@
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>69</v>
@@ -7638,10 +7680,10 @@
         <v>67</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N100" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O100" s="46"/>
       <c r="P100" s="46">
@@ -7657,10 +7699,10 @@
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>69</v>
@@ -7685,10 +7727,10 @@
         <v>67</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N101" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O101" s="46"/>
       <c r="P101" s="46">
@@ -7704,10 +7746,10 @@
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>69</v>
@@ -7732,10 +7774,10 @@
         <v>67</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O102" s="46"/>
       <c r="P102" s="46">
@@ -7751,7 +7793,7 @@
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>74</v>
@@ -7761,7 +7803,7 @@
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>29</v>
@@ -7778,10 +7820,10 @@
         <v>33</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
@@ -7793,17 +7835,17 @@
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>29</v>
@@ -7820,10 +7862,10 @@
         <v>33</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
@@ -7835,17 +7877,17 @@
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>29</v>
@@ -7862,10 +7904,10 @@
         <v>33</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
@@ -7877,7 +7919,7 @@
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="51"/>
       <c r="B106" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>64</v>
@@ -7886,7 +7928,7 @@
         <v>63</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -7896,10 +7938,10 @@
       <c r="K106" s="53"/>
       <c r="L106" s="32"/>
       <c r="M106" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N106" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O106" s="46"/>
       <c r="P106" s="39"/>
@@ -7911,7 +7953,7 @@
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>64</v>
@@ -7920,7 +7962,7 @@
         <v>63</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -7930,10 +7972,10 @@
       <c r="K107" s="53"/>
       <c r="L107" s="32"/>
       <c r="M107" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O107" s="46"/>
       <c r="P107" s="39"/>
@@ -7945,16 +7987,16 @@
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -7964,10 +8006,10 @@
       <c r="K108" s="49"/>
       <c r="L108" s="32"/>
       <c r="M108" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O108" s="46"/>
       <c r="P108" s="39"/>
@@ -7979,16 +8021,16 @@
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="51"/>
       <c r="B109" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -7998,10 +8040,10 @@
       <c r="K109" s="49"/>
       <c r="L109" s="32"/>
       <c r="M109" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N109" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O109" s="37"/>
       <c r="P109" s="39"/>
@@ -8013,16 +8055,16 @@
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -8035,7 +8077,7 @@
         <v>76</v>
       </c>
       <c r="N110" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O110" s="37"/>
       <c r="P110" s="39"/>
@@ -8047,16 +8089,16 @@
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -8069,7 +8111,7 @@
         <v>76</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O111" s="46"/>
       <c r="P111" s="47"/>
@@ -8081,16 +8123,16 @@
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
       <c r="B112" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -8103,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O112" s="46"/>
       <c r="P112" s="47"/>
@@ -8115,16 +8157,16 @@
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -8137,7 +8179,7 @@
         <v>76</v>
       </c>
       <c r="N113" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O113" s="46"/>
       <c r="P113" s="47"/>
@@ -8148,19 +8190,19 @@
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
       <c r="A114" s="51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>62</v>
@@ -8172,11 +8214,11 @@
       <c r="I114" s="38">
         <v>298</v>
       </c>
-      <c r="J114" s="142">
+      <c r="J114" s="139">
         <f t="shared" ref="J114:K116" si="4">P114*9807000</f>
         <v>4776009000</v>
       </c>
-      <c r="K114" s="142">
+      <c r="K114" s="139">
         <f t="shared" si="4"/>
         <v>176526000</v>
       </c>
@@ -8184,10 +8226,10 @@
         <v>33</v>
       </c>
       <c r="M114" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N114" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O114" s="46"/>
       <c r="P114" s="47">
@@ -8202,19 +8244,19 @@
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
       <c r="A115" s="51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C115" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>191</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>62</v>
@@ -8226,11 +8268,11 @@
       <c r="I115" s="38">
         <v>298</v>
       </c>
-      <c r="J115" s="142">
+      <c r="J115" s="139">
         <f t="shared" si="4"/>
         <v>5511534000</v>
       </c>
-      <c r="K115" s="142">
+      <c r="K115" s="139">
         <f t="shared" si="4"/>
         <v>196140000</v>
       </c>
@@ -8238,10 +8280,10 @@
         <v>33</v>
       </c>
       <c r="M115" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O115" s="46"/>
       <c r="P115" s="47">
@@ -8256,19 +8298,19 @@
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
       <c r="A116" s="40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D116" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>62</v>
@@ -8280,11 +8322,11 @@
       <c r="I116" s="38">
         <v>298</v>
       </c>
-      <c r="J116" s="142">
+      <c r="J116" s="139">
         <f t="shared" si="4"/>
         <v>6619725000</v>
       </c>
-      <c r="K116" s="142">
+      <c r="K116" s="139">
         <f t="shared" si="4"/>
         <v>460929000</v>
       </c>
@@ -8292,10 +8334,10 @@
         <v>33</v>
       </c>
       <c r="M116" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N116" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O116" s="46"/>
       <c r="P116" s="39">
@@ -8311,7 +8353,7 @@
     <row r="117" spans="1:20" ht="18" customHeight="1">
       <c r="A117" s="38"/>
       <c r="B117" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>74</v>
@@ -8321,7 +8363,7 @@
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>29</v>
@@ -8335,12 +8377,14 @@
       </c>
       <c r="K117" s="49"/>
       <c r="L117" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M117" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N117" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N117" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O117" s="46"/>
       <c r="P117" s="39"/>
       <c r="Q117" s="38"/>
@@ -8351,7 +8395,7 @@
     <row r="118" spans="1:20" ht="18" customHeight="1">
       <c r="A118" s="30"/>
       <c r="B118" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C118" s="30" t="s">
         <v>74</v>
@@ -8361,7 +8405,7 @@
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>29</v>
@@ -8375,12 +8419,14 @@
       </c>
       <c r="K118" s="49"/>
       <c r="L118" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M118" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N118" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N118" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O118" s="46"/>
       <c r="P118" s="39"/>
       <c r="Q118" s="38"/>
@@ -8391,7 +8437,7 @@
     <row r="119" spans="1:20" ht="18" customHeight="1">
       <c r="A119" s="30"/>
       <c r="B119" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C119" s="30" t="s">
         <v>74</v>
@@ -8401,7 +8447,7 @@
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>29</v>
@@ -8415,12 +8461,14 @@
       </c>
       <c r="K119" s="49"/>
       <c r="L119" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M119" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N119" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N119" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O119" s="46"/>
       <c r="P119" s="38"/>
       <c r="Q119" s="38"/>
@@ -8431,7 +8479,7 @@
     <row r="120" spans="1:20" ht="18" customHeight="1">
       <c r="A120" s="51"/>
       <c r="B120" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C120" s="30" t="s">
         <v>75</v>
@@ -8441,7 +8489,7 @@
       </c>
       <c r="E120" s="31"/>
       <c r="F120" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>29</v>
@@ -8455,12 +8503,14 @@
       </c>
       <c r="K120" s="49"/>
       <c r="L120" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M120" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N120" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N120" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O120" s="46"/>
       <c r="P120" s="38"/>
       <c r="Q120" s="38"/>
@@ -8471,7 +8521,7 @@
     <row r="121" spans="1:20" ht="18" customHeight="1">
       <c r="A121" s="51"/>
       <c r="B121" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>64</v>
@@ -8481,7 +8531,7 @@
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>29</v>
@@ -8495,12 +8545,14 @@
       </c>
       <c r="K121" s="49"/>
       <c r="L121" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M121" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N121" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N121" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O121" s="46"/>
       <c r="P121" s="39"/>
       <c r="Q121" s="38"/>
@@ -8511,7 +8563,7 @@
     <row r="122" spans="1:20" ht="18" customHeight="1">
       <c r="A122" s="51"/>
       <c r="B122" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>74</v>
@@ -8521,7 +8573,7 @@
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>29</v>
@@ -8535,12 +8587,14 @@
       </c>
       <c r="K122" s="49"/>
       <c r="L122" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M122" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N122" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N122" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O122" s="46"/>
       <c r="P122" s="39"/>
       <c r="Q122" s="38"/>
@@ -8551,7 +8605,7 @@
     <row r="123" spans="1:20" ht="18" customHeight="1">
       <c r="A123" s="51"/>
       <c r="B123" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>74</v>
@@ -8561,7 +8615,7 @@
       </c>
       <c r="E123" s="31"/>
       <c r="F123" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>29</v>
@@ -8575,12 +8629,14 @@
       </c>
       <c r="K123" s="49"/>
       <c r="L123" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M123" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N123" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N123" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O123" s="46"/>
       <c r="P123" s="39"/>
       <c r="Q123" s="38"/>
@@ -8591,7 +8647,7 @@
     <row r="124" spans="1:20" ht="18" customHeight="1">
       <c r="A124" s="51"/>
       <c r="B124" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>74</v>
@@ -8601,7 +8657,7 @@
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>29</v>
@@ -8615,12 +8671,14 @@
       </c>
       <c r="K124" s="49"/>
       <c r="L124" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M124" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N124" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N124" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O124" s="37"/>
       <c r="P124" s="39"/>
       <c r="Q124" s="38"/>
@@ -8631,7 +8689,7 @@
     <row r="125" spans="1:20" ht="18" customHeight="1">
       <c r="A125" s="51"/>
       <c r="B125" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C125" s="30" t="s">
         <v>75</v>
@@ -8641,7 +8699,7 @@
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>29</v>
@@ -8655,12 +8713,14 @@
       </c>
       <c r="K125" s="49"/>
       <c r="L125" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M125" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N125" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N125" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O125" s="37"/>
       <c r="P125" s="39"/>
       <c r="Q125" s="38"/>
@@ -8671,7 +8731,7 @@
     <row r="126" spans="1:20" ht="18" customHeight="1">
       <c r="A126" s="51"/>
       <c r="B126" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C126" s="30" t="s">
         <v>64</v>
@@ -8681,7 +8741,7 @@
       </c>
       <c r="E126" s="31"/>
       <c r="F126" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>29</v>
@@ -8695,12 +8755,14 @@
       </c>
       <c r="K126" s="49"/>
       <c r="L126" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M126" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N126" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N126" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O126" s="37"/>
       <c r="P126" s="39"/>
       <c r="Q126" s="38"/>
@@ -8710,14 +8772,14 @@
     </row>
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="51"/>
-      <c r="B127" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C127" s="143" t="s">
+      <c r="B127" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" s="140" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E127" s="31"/>
       <c r="F127" s="32" t="s">
@@ -8727,7 +8789,7 @@
         <v>29</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I127" s="38">
         <v>298</v>
@@ -8740,9 +8802,11 @@
         <v>33</v>
       </c>
       <c r="M127" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N127" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N127" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O127" s="37"/>
       <c r="P127" s="39"/>
       <c r="Q127" s="38"/>
@@ -8752,14 +8816,14 @@
     </row>
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="30"/>
-      <c r="B128" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="144" t="s">
+      <c r="B128" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" s="141" t="s">
         <v>74</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E128" s="31"/>
       <c r="F128" s="32" t="s">
@@ -8769,7 +8833,7 @@
         <v>29</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I128" s="38">
         <v>298</v>
@@ -8782,9 +8846,11 @@
         <v>33</v>
       </c>
       <c r="M128" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N128" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N128" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O128" s="37"/>
       <c r="P128" s="39"/>
       <c r="Q128" s="38"/>
@@ -8794,14 +8860,14 @@
     </row>
     <row r="129" spans="1:20" ht="18" customHeight="1">
       <c r="A129" s="30"/>
-      <c r="B129" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C129" s="144" t="s">
+      <c r="B129" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="141" t="s">
         <v>74</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E129" s="31"/>
       <c r="F129" s="32" t="s">
@@ -8811,7 +8877,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I129" s="38">
         <v>298</v>
@@ -8824,9 +8890,11 @@
         <v>33</v>
       </c>
       <c r="M129" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N129" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N129" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O129" s="37"/>
       <c r="P129" s="39"/>
       <c r="Q129" s="38"/>
@@ -8836,14 +8904,14 @@
     </row>
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="30"/>
-      <c r="B130" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="144" t="s">
+      <c r="B130" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="141" t="s">
         <v>75</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E130" s="31"/>
       <c r="F130" s="32" t="s">
@@ -8853,7 +8921,7 @@
         <v>29</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I130" s="38">
         <v>298</v>
@@ -8866,9 +8934,11 @@
         <v>33</v>
       </c>
       <c r="M130" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N130" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N130" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O130" s="37"/>
       <c r="P130" s="39"/>
       <c r="Q130" s="38"/>
@@ -8878,14 +8948,14 @@
     </row>
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30"/>
-      <c r="B131" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C131" s="144" t="s">
+      <c r="B131" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="141" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E131" s="31"/>
       <c r="F131" s="32" t="s">
@@ -8895,7 +8965,7 @@
         <v>29</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I131" s="38">
         <v>298</v>
@@ -8908,9 +8978,11 @@
         <v>33</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N131" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N131" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O131" s="37"/>
       <c r="P131" s="39"/>
       <c r="Q131" s="38"/>
@@ -8920,24 +8992,24 @@
     </row>
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="51"/>
-      <c r="B132" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C132" s="143" t="s">
+      <c r="B132" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C132" s="140" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E132" s="31"/>
       <c r="F132" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G132" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I132" s="38">
         <v>298</v>
@@ -8950,9 +9022,11 @@
         <v>33</v>
       </c>
       <c r="M132" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N132" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N132" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O132" s="37"/>
       <c r="P132" s="39"/>
       <c r="Q132" s="38"/>
@@ -8962,24 +9036,24 @@
     </row>
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="30"/>
-      <c r="B133" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C133" s="144" t="s">
+      <c r="B133" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C133" s="141" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E133" s="31"/>
       <c r="F133" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G133" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H133" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I133" s="38">
         <v>298</v>
@@ -8992,9 +9066,11 @@
         <v>33</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N133" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N133" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O133" s="37"/>
       <c r="P133" s="39"/>
       <c r="Q133" s="38"/>
@@ -9004,24 +9080,24 @@
     </row>
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="30"/>
-      <c r="B134" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C134" s="144" t="s">
+      <c r="B134" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" s="141" t="s">
         <v>74</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E134" s="31"/>
       <c r="F134" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G134" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H134" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I134" s="38">
         <v>298</v>
@@ -9034,9 +9110,11 @@
         <v>33</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N134" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N134" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O134" s="37"/>
       <c r="P134" s="38"/>
       <c r="Q134" s="38"/>
@@ -9046,24 +9124,24 @@
     </row>
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="30"/>
-      <c r="B135" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C135" s="144" t="s">
+      <c r="B135" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C135" s="141" t="s">
         <v>75</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E135" s="31"/>
       <c r="F135" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G135" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H135" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I135" s="38">
         <v>298</v>
@@ -9076,9 +9154,11 @@
         <v>33</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N135" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N135" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O135" s="37"/>
       <c r="P135" s="38"/>
       <c r="Q135" s="38"/>
@@ -9088,14 +9168,14 @@
     </row>
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="30"/>
-      <c r="B136" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C136" s="144" t="s">
+      <c r="B136" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" s="141" t="s">
         <v>64</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E136" s="31"/>
       <c r="F136" s="32" t="s">
@@ -9105,7 +9185,7 @@
         <v>29</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I136" s="38">
         <v>298</v>
@@ -9118,9 +9198,11 @@
         <v>33</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N136" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N136" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O136" s="37"/>
       <c r="P136" s="38"/>
       <c r="Q136" s="38"/>
@@ -9130,14 +9212,14 @@
     </row>
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="55"/>
-      <c r="B137" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C137" s="143" t="s">
+      <c r="B137" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" s="140" t="s">
         <v>74</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E137" s="31"/>
       <c r="F137" s="32" t="s">
@@ -9147,7 +9229,7 @@
         <v>29</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I137" s="38">
         <v>298</v>
@@ -9160,9 +9242,11 @@
         <v>67</v>
       </c>
       <c r="M137" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N137" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N137" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O137" s="37"/>
       <c r="P137" s="38"/>
       <c r="Q137" s="38"/>
@@ -9172,14 +9256,14 @@
     </row>
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="42"/>
-      <c r="B138" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C138" s="144" t="s">
+      <c r="B138" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" s="141" t="s">
         <v>74</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E138" s="31"/>
       <c r="F138" s="32" t="s">
@@ -9189,7 +9273,7 @@
         <v>29</v>
       </c>
       <c r="H138" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I138" s="38">
         <v>298</v>
@@ -9202,9 +9286,11 @@
         <v>67</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N138" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N138" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O138" s="37"/>
       <c r="P138" s="38"/>
       <c r="Q138" s="38"/>
@@ -9214,14 +9300,14 @@
     </row>
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="42"/>
-      <c r="B139" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C139" s="144" t="s">
+      <c r="B139" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" s="141" t="s">
         <v>74</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E139" s="31"/>
       <c r="F139" s="32" t="s">
@@ -9231,7 +9317,7 @@
         <v>29</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I139" s="38">
         <v>298</v>
@@ -9244,9 +9330,11 @@
         <v>67</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N139" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N139" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O139" s="37"/>
       <c r="P139" s="38"/>
       <c r="Q139" s="38"/>
@@ -9256,14 +9344,14 @@
     </row>
     <row r="140" spans="1:20" ht="18" customHeight="1">
       <c r="A140" s="42"/>
-      <c r="B140" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C140" s="144" t="s">
+      <c r="B140" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" s="141" t="s">
         <v>75</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E140" s="31"/>
       <c r="F140" s="32" t="s">
@@ -9273,7 +9361,7 @@
         <v>29</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I140" s="38">
         <v>298</v>
@@ -9286,9 +9374,11 @@
         <v>67</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N140" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N140" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O140" s="37"/>
       <c r="P140" s="38"/>
       <c r="Q140" s="38"/>
@@ -9298,14 +9388,14 @@
     </row>
     <row r="141" spans="1:20" ht="18" customHeight="1">
       <c r="A141" s="42"/>
-      <c r="B141" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C141" s="144" t="s">
+      <c r="B141" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="141" t="s">
         <v>64</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E141" s="31"/>
       <c r="F141" s="32" t="s">
@@ -9315,7 +9405,7 @@
         <v>29</v>
       </c>
       <c r="H141" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I141" s="38">
         <v>298</v>
@@ -9328,9 +9418,11 @@
         <v>67</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N141" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N141" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O141" s="37"/>
       <c r="P141" s="38"/>
       <c r="Q141" s="38"/>
@@ -9340,24 +9432,24 @@
     </row>
     <row r="142" spans="1:20" ht="18" customHeight="1">
       <c r="A142" s="55"/>
-      <c r="B142" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C142" s="144" t="s">
+      <c r="B142" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C142" s="141" t="s">
         <v>64</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E142" s="31"/>
       <c r="F142" s="32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G142" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H142" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I142" s="34">
         <v>298</v>
@@ -9370,9 +9462,11 @@
         <v>67</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N142" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="N142" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O142" s="37"/>
       <c r="P142" s="38"/>
       <c r="Q142" s="38"/>
@@ -9382,18 +9476,18 @@
     </row>
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="42"/>
-      <c r="B143" s="99" t="s">
-        <v>197</v>
+      <c r="B143" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C143" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E143" s="31"/>
       <c r="F143" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G143" s="32" t="s">
         <v>29</v>
@@ -9407,10 +9501,12 @@
       </c>
       <c r="K143" s="49"/>
       <c r="L143" s="50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M143" s="50"/>
-      <c r="N143" s="30"/>
+      <c r="N143" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O143" s="37"/>
       <c r="P143" s="38"/>
       <c r="Q143" s="38"/>
@@ -9420,20 +9516,20 @@
     </row>
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="42"/>
-      <c r="B144" s="99" t="s">
-        <v>197</v>
+      <c r="B144" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C144" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G144" s="32" t="s">
         <v>29</v>
@@ -9447,12 +9543,14 @@
       </c>
       <c r="K144" s="49"/>
       <c r="L144" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M144" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N144" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N144" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O144" s="37"/>
       <c r="P144" s="38"/>
       <c r="Q144" s="38"/>
@@ -9462,20 +9560,20 @@
     </row>
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="42"/>
-      <c r="B145" s="99" t="s">
-        <v>197</v>
+      <c r="B145" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C145" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G145" s="32" t="s">
         <v>29</v>
@@ -9489,12 +9587,14 @@
       </c>
       <c r="K145" s="49"/>
       <c r="L145" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N145" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N145" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O145" s="37"/>
       <c r="P145" s="38"/>
       <c r="Q145" s="38"/>
@@ -9504,20 +9604,20 @@
     </row>
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="42"/>
-      <c r="B146" s="99" t="s">
-        <v>197</v>
+      <c r="B146" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C146" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G146" s="32" t="s">
         <v>29</v>
@@ -9531,12 +9631,14 @@
       </c>
       <c r="K146" s="53"/>
       <c r="L146" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M146" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N146" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N146" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O146" s="37"/>
       <c r="P146" s="38"/>
       <c r="Q146" s="38"/>
@@ -9546,20 +9648,20 @@
     </row>
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="55"/>
-      <c r="B147" s="99" t="s">
-        <v>197</v>
+      <c r="B147" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C147" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G147" s="32" t="s">
         <v>29</v>
@@ -9573,12 +9675,14 @@
       </c>
       <c r="K147" s="53"/>
       <c r="L147" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M147" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N147" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N147" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O147" s="37"/>
       <c r="P147" s="38"/>
       <c r="Q147" s="38"/>
@@ -9588,20 +9692,20 @@
     </row>
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="42"/>
-      <c r="B148" s="99" t="s">
-        <v>197</v>
+      <c r="B148" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C148" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F148" s="54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G148" s="32" t="s">
         <v>29</v>
@@ -9615,12 +9719,14 @@
       </c>
       <c r="K148" s="53"/>
       <c r="L148" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M148" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="N148" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="N148" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O148" s="37"/>
       <c r="P148" s="38"/>
       <c r="Q148" s="38"/>
@@ -9630,20 +9736,20 @@
     </row>
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="42"/>
-      <c r="B149" s="99" t="s">
-        <v>197</v>
+      <c r="B149" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C149" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F149" s="54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G149" s="32" t="s">
         <v>29</v>
@@ -9657,12 +9763,14 @@
       </c>
       <c r="K149" s="53"/>
       <c r="L149" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M149" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="N149" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="N149" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O149" s="37"/>
       <c r="P149" s="38"/>
       <c r="Q149" s="38"/>
@@ -9672,20 +9780,20 @@
     </row>
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="42"/>
-      <c r="B150" s="99" t="s">
-        <v>197</v>
+      <c r="B150" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C150" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F150" s="54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G150" s="32" t="s">
         <v>29</v>
@@ -9699,12 +9807,14 @@
       </c>
       <c r="K150" s="49"/>
       <c r="L150" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M150" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="N150" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="N150" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O150" s="37"/>
       <c r="P150" s="38"/>
       <c r="Q150" s="38"/>
@@ -9714,20 +9824,20 @@
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="42"/>
-      <c r="B151" s="99" t="s">
-        <v>197</v>
+      <c r="B151" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C151" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F151" s="54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G151" s="32" t="s">
         <v>29</v>
@@ -9741,12 +9851,14 @@
       </c>
       <c r="K151" s="49"/>
       <c r="L151" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M151" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="N151" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="N151" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O151" s="37"/>
       <c r="P151" s="38"/>
       <c r="Q151" s="38"/>
@@ -9756,17 +9868,17 @@
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="55"/>
-      <c r="B152" s="99" t="s">
-        <v>197</v>
+      <c r="B152" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C152" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F152" s="54" t="s">
         <v>71</v>
@@ -9775,7 +9887,7 @@
         <v>29</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I152" s="34">
         <v>298</v>
@@ -9785,12 +9897,14 @@
       </c>
       <c r="K152" s="49"/>
       <c r="L152" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M152" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N152" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N152" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O152" s="37"/>
       <c r="P152" s="38"/>
       <c r="Q152" s="38"/>
@@ -9800,17 +9914,17 @@
     </row>
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="42"/>
-      <c r="B153" s="99" t="s">
-        <v>197</v>
+      <c r="B153" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C153" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F153" s="54" t="s">
         <v>71</v>
@@ -9819,7 +9933,7 @@
         <v>29</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I153" s="34">
         <v>298</v>
@@ -9829,12 +9943,14 @@
       </c>
       <c r="K153" s="49"/>
       <c r="L153" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M153" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N153" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N153" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O153" s="37"/>
       <c r="P153" s="38"/>
       <c r="Q153" s="38"/>
@@ -9844,17 +9960,17 @@
     </row>
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="42"/>
-      <c r="B154" s="99" t="s">
-        <v>197</v>
+      <c r="B154" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C154" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F154" s="54" t="s">
         <v>71</v>
@@ -9863,7 +9979,7 @@
         <v>29</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I154" s="34">
         <v>298</v>
@@ -9873,12 +9989,14 @@
       </c>
       <c r="K154" s="49"/>
       <c r="L154" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M154" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N154" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N154" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O154" s="37"/>
       <c r="P154" s="38"/>
       <c r="Q154" s="38"/>
@@ -9888,17 +10006,17 @@
     </row>
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="42"/>
-      <c r="B155" s="99" t="s">
-        <v>197</v>
+      <c r="B155" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C155" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F155" s="54" t="s">
         <v>71</v>
@@ -9907,7 +10025,7 @@
         <v>29</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I155" s="34">
         <v>298</v>
@@ -9917,12 +10035,14 @@
       </c>
       <c r="K155" s="49"/>
       <c r="L155" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M155" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N155" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N155" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O155" s="37"/>
       <c r="P155" s="38"/>
       <c r="Q155" s="38"/>
@@ -9932,17 +10052,17 @@
     </row>
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="42"/>
-      <c r="B156" s="99" t="s">
-        <v>197</v>
+      <c r="B156" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C156" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F156" s="54" t="s">
         <v>73</v>
@@ -9951,7 +10071,7 @@
         <v>29</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I156" s="34">
         <v>298</v>
@@ -9961,12 +10081,14 @@
       </c>
       <c r="K156" s="38"/>
       <c r="L156" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M156" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N156" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N156" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O156" s="37"/>
       <c r="P156" s="38"/>
       <c r="Q156" s="38"/>
@@ -9976,17 +10098,17 @@
     </row>
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="30"/>
-      <c r="B157" s="99" t="s">
-        <v>197</v>
+      <c r="B157" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C157" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F157" s="54" t="s">
         <v>73</v>
@@ -9995,7 +10117,7 @@
         <v>29</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I157" s="34">
         <v>298</v>
@@ -10005,12 +10127,14 @@
       </c>
       <c r="K157" s="38"/>
       <c r="L157" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M157" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N157" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N157" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O157" s="37"/>
       <c r="P157" s="38"/>
       <c r="Q157" s="38"/>
@@ -10020,17 +10144,17 @@
     </row>
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="38"/>
-      <c r="B158" s="99" t="s">
-        <v>197</v>
+      <c r="B158" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C158" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F158" s="54" t="s">
         <v>73</v>
@@ -10039,7 +10163,7 @@
         <v>29</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I158" s="34">
         <v>298</v>
@@ -10049,12 +10173,14 @@
       </c>
       <c r="K158" s="38"/>
       <c r="L158" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M158" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N158" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N158" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O158" s="37"/>
       <c r="P158" s="38"/>
       <c r="Q158" s="38"/>
@@ -10064,17 +10190,17 @@
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="38"/>
-      <c r="B159" s="99" t="s">
-        <v>197</v>
+      <c r="B159" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C159" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F159" s="54" t="s">
         <v>73</v>
@@ -10083,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I159" s="34">
         <v>298</v>
@@ -10093,12 +10219,14 @@
       </c>
       <c r="K159" s="38"/>
       <c r="L159" s="50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M159" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N159" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N159" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O159" s="37"/>
       <c r="P159" s="39"/>
       <c r="Q159" s="38"/>
@@ -10108,17 +10236,17 @@
     </row>
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="38"/>
-      <c r="B160" s="99" t="s">
-        <v>197</v>
+      <c r="B160" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C160" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F160" s="54" t="s">
         <v>72</v>
@@ -10127,7 +10255,7 @@
         <v>29</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I160" s="34">
         <v>298</v>
@@ -10140,9 +10268,11 @@
         <v>67</v>
       </c>
       <c r="M160" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N160" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N160" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O160" s="37"/>
       <c r="P160" s="47"/>
       <c r="Q160" s="38"/>
@@ -10152,17 +10282,17 @@
     </row>
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="38"/>
-      <c r="B161" s="99" t="s">
-        <v>197</v>
+      <c r="B161" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C161" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F161" s="54" t="s">
         <v>72</v>
@@ -10171,7 +10301,7 @@
         <v>29</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I161" s="34">
         <v>298</v>
@@ -10184,9 +10314,11 @@
         <v>67</v>
       </c>
       <c r="M161" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N161" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N161" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O161" s="37"/>
       <c r="P161" s="47"/>
       <c r="Q161" s="38"/>
@@ -10196,17 +10328,17 @@
     </row>
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="38"/>
-      <c r="B162" s="99" t="s">
-        <v>197</v>
+      <c r="B162" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C162" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F162" s="54" t="s">
         <v>72</v>
@@ -10215,7 +10347,7 @@
         <v>29</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I162" s="34">
         <v>298</v>
@@ -10228,9 +10360,11 @@
         <v>67</v>
       </c>
       <c r="M162" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N162" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N162" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O162" s="37"/>
       <c r="P162" s="47"/>
       <c r="Q162" s="38"/>
@@ -10240,17 +10374,17 @@
     </row>
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="38"/>
-      <c r="B163" s="99" t="s">
-        <v>197</v>
+      <c r="B163" s="96" t="s">
+        <v>199</v>
       </c>
       <c r="C163" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F163" s="54" t="s">
         <v>72</v>
@@ -10259,7 +10393,7 @@
         <v>29</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I163" s="34">
         <v>298</v>
@@ -10272,9 +10406,11 @@
         <v>67</v>
       </c>
       <c r="M163" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="N163" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="N163" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="O163" s="37"/>
       <c r="P163" s="47"/>
       <c r="Q163" s="38"/>
@@ -10283,812 +10419,1788 @@
       <c r="T163" s="37"/>
     </row>
     <row r="164" spans="1:20" ht="18" customHeight="1">
-      <c r="A164" s="38"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+      <c r="A164" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="E164" s="31"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="32"/>
+      <c r="F164" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G164" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H164" s="33"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="49"/>
+      <c r="I164" s="34">
+        <f>273+28</f>
+        <v>301</v>
+      </c>
+      <c r="J164" s="49">
+        <f>P164*0.00000001</f>
+        <v>7.7700000000000011E-9</v>
+      </c>
       <c r="K164" s="38"/>
-      <c r="L164" s="50"/>
-      <c r="M164" s="50"/>
-      <c r="N164" s="30"/>
+      <c r="L164" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M164" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N164" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O164" s="37"/>
-      <c r="P164" s="47"/>
+      <c r="P164" s="47">
+        <v>0.77700000000000002</v>
+      </c>
       <c r="Q164" s="38"/>
       <c r="R164" s="37"/>
       <c r="S164" s="37"/>
       <c r="T164" s="37"/>
     </row>
     <row r="165" spans="1:20" ht="18" customHeight="1">
-      <c r="A165" s="38"/>
-      <c r="B165" s="41"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="32"/>
+      <c r="A165" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E165" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F165" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G165" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H165" s="33"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="49"/>
+      <c r="I165" s="34">
+        <f t="shared" ref="I165:I166" si="5">273+28</f>
+        <v>301</v>
+      </c>
+      <c r="J165" s="49">
+        <f t="shared" ref="J165:J181" si="6">P165*0.00000001</f>
+        <v>1.0900000000000002E-8</v>
+      </c>
       <c r="K165" s="38"/>
-      <c r="L165" s="50"/>
-      <c r="M165" s="50"/>
-      <c r="N165" s="30"/>
+      <c r="L165" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M165" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N165" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O165" s="37"/>
-      <c r="P165" s="47"/>
+      <c r="P165" s="47">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="Q165" s="38"/>
       <c r="R165" s="37"/>
       <c r="S165" s="37"/>
       <c r="T165" s="37"/>
     </row>
     <row r="166" spans="1:20" ht="18" customHeight="1">
-      <c r="A166" s="38"/>
-      <c r="B166" s="41"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="32"/>
+      <c r="A166" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F166" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H166" s="33"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="49"/>
+      <c r="I166" s="34">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="J166" s="49">
+        <f t="shared" si="6"/>
+        <v>1.14E-8</v>
+      </c>
       <c r="K166" s="38"/>
-      <c r="L166" s="40"/>
-      <c r="M166" s="50"/>
-      <c r="N166" s="30"/>
+      <c r="L166" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M166" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N166" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O166" s="37"/>
-      <c r="P166" s="47"/>
+      <c r="P166" s="47">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="Q166" s="38"/>
       <c r="R166" s="37"/>
       <c r="S166" s="37"/>
       <c r="T166" s="37"/>
     </row>
     <row r="167" spans="1:20" ht="18" customHeight="1">
-      <c r="A167" s="38"/>
-      <c r="B167" s="41"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+      <c r="A167" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="E167" s="31"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="32"/>
+      <c r="F167" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H167" s="33"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="49"/>
+      <c r="I167" s="34">
+        <v>373</v>
+      </c>
+      <c r="J167" s="49">
+        <f t="shared" si="6"/>
+        <v>8.3299999999999992E-9</v>
+      </c>
       <c r="K167" s="38"/>
-      <c r="L167" s="40"/>
-      <c r="M167" s="50"/>
-      <c r="N167" s="30"/>
+      <c r="L167" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M167" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N167" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O167" s="37"/>
-      <c r="P167" s="47"/>
+      <c r="P167" s="47">
+        <v>0.83299999999999996</v>
+      </c>
       <c r="Q167" s="38"/>
       <c r="R167" s="37"/>
       <c r="S167" s="37"/>
       <c r="T167" s="37"/>
     </row>
     <row r="168" spans="1:20" ht="18" customHeight="1">
-      <c r="A168" s="38"/>
-      <c r="B168" s="41"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="32"/>
+      <c r="A168" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B168" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F168" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H168" s="33"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="49"/>
+      <c r="I168" s="34">
+        <v>373</v>
+      </c>
+      <c r="J168" s="49">
+        <f t="shared" si="6"/>
+        <v>1.16E-8</v>
+      </c>
       <c r="K168" s="38"/>
-      <c r="L168" s="40"/>
-      <c r="M168" s="50"/>
-      <c r="N168" s="30"/>
+      <c r="L168" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M168" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N168" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O168" s="37"/>
-      <c r="P168" s="47"/>
+      <c r="P168" s="47">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="Q168" s="38"/>
       <c r="R168" s="37"/>
       <c r="S168" s="37"/>
       <c r="T168" s="37"/>
     </row>
     <row r="169" spans="1:20" ht="18" customHeight="1">
-      <c r="A169" s="38"/>
-      <c r="B169" s="41"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="32"/>
+      <c r="A169" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F169" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H169" s="33"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="49"/>
+      <c r="I169" s="34">
+        <v>373</v>
+      </c>
+      <c r="J169" s="49">
+        <f t="shared" si="6"/>
+        <v>1.18E-8</v>
+      </c>
       <c r="K169" s="38"/>
-      <c r="L169" s="40"/>
-      <c r="M169" s="50"/>
-      <c r="N169" s="30"/>
+      <c r="L169" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M169" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N169" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O169" s="37"/>
-      <c r="P169" s="38"/>
+      <c r="P169" s="38">
+        <v>1.18</v>
+      </c>
       <c r="Q169" s="38"/>
       <c r="R169" s="37"/>
       <c r="S169" s="37"/>
       <c r="T169" s="37"/>
     </row>
     <row r="170" spans="1:20" ht="18" customHeight="1">
-      <c r="A170" s="38"/>
-      <c r="B170" s="41"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
+      <c r="A170" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="E170" s="31"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="32"/>
+      <c r="F170" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H170" s="33"/>
-      <c r="I170" s="34"/>
-      <c r="J170" s="49"/>
+      <c r="I170" s="34">
+        <v>473</v>
+      </c>
+      <c r="J170" s="49">
+        <f t="shared" si="6"/>
+        <v>8.6700000000000009E-9</v>
+      </c>
       <c r="K170" s="38"/>
-      <c r="L170" s="40"/>
-      <c r="M170" s="50"/>
-      <c r="N170" s="30"/>
+      <c r="L170" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M170" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N170" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O170" s="37"/>
-      <c r="P170" s="38"/>
+      <c r="P170" s="38">
+        <v>0.86699999999999999</v>
+      </c>
       <c r="Q170" s="38"/>
       <c r="R170" s="37"/>
       <c r="S170" s="37"/>
       <c r="T170" s="37"/>
     </row>
     <row r="171" spans="1:20" ht="18" customHeight="1">
-      <c r="A171" s="38"/>
-      <c r="B171" s="41"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="32"/>
+      <c r="A171" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F171" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G171" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H171" s="33"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="49"/>
+      <c r="I171" s="34">
+        <v>473</v>
+      </c>
+      <c r="J171" s="49">
+        <f t="shared" si="6"/>
+        <v>1.2099999999999999E-8</v>
+      </c>
       <c r="K171" s="38"/>
-      <c r="L171" s="40"/>
-      <c r="M171" s="50"/>
-      <c r="N171" s="30"/>
+      <c r="L171" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M171" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N171" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O171" s="37"/>
-      <c r="P171" s="38"/>
+      <c r="P171" s="38">
+        <v>1.21</v>
+      </c>
       <c r="Q171" s="38"/>
       <c r="R171" s="37"/>
       <c r="S171" s="37"/>
       <c r="T171" s="37"/>
     </row>
     <row r="172" spans="1:20" ht="18" customHeight="1">
-      <c r="A172" s="38"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="32"/>
+      <c r="A172" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F172" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G172" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H172" s="33"/>
-      <c r="I172" s="34"/>
-      <c r="J172" s="49"/>
+      <c r="I172" s="34">
+        <v>473</v>
+      </c>
+      <c r="J172" s="49">
+        <f t="shared" si="6"/>
+        <v>1.22E-8</v>
+      </c>
       <c r="K172" s="38"/>
-      <c r="L172" s="40"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="30"/>
+      <c r="L172" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M172" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N172" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O172" s="37"/>
-      <c r="P172" s="38"/>
+      <c r="P172" s="38">
+        <v>1.22</v>
+      </c>
       <c r="Q172" s="38"/>
       <c r="R172" s="37"/>
       <c r="S172" s="37"/>
       <c r="T172" s="37"/>
     </row>
     <row r="173" spans="1:20" ht="18" customHeight="1">
-      <c r="A173" s="38"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="A173" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="E173" s="31"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="32"/>
+      <c r="F173" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H173" s="33"/>
-      <c r="I173" s="34"/>
-      <c r="J173" s="49"/>
+      <c r="I173" s="34">
+        <v>673</v>
+      </c>
+      <c r="J173" s="49">
+        <f t="shared" si="6"/>
+        <v>9.2900000000000008E-9</v>
+      </c>
       <c r="K173" s="38"/>
-      <c r="L173" s="40"/>
-      <c r="M173" s="50"/>
-      <c r="N173" s="30"/>
+      <c r="L173" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M173" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N173" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O173" s="37"/>
-      <c r="P173" s="38"/>
+      <c r="P173" s="38">
+        <v>0.92900000000000005</v>
+      </c>
       <c r="Q173" s="38"/>
       <c r="R173" s="37"/>
       <c r="S173" s="37"/>
       <c r="T173" s="37"/>
     </row>
     <row r="174" spans="1:20" ht="18" customHeight="1">
-      <c r="A174" s="38"/>
-      <c r="B174" s="31"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="32"/>
+      <c r="A174" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F174" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G174" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H174" s="48"/>
-      <c r="I174" s="38"/>
-      <c r="J174" s="38"/>
+      <c r="I174" s="34">
+        <v>673</v>
+      </c>
+      <c r="J174" s="49">
+        <f t="shared" si="6"/>
+        <v>1.2700000000000001E-8</v>
+      </c>
       <c r="K174" s="38"/>
-      <c r="L174" s="40"/>
-      <c r="M174" s="40"/>
-      <c r="N174" s="30"/>
+      <c r="L174" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M174" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N174" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O174" s="37"/>
-      <c r="P174" s="38"/>
+      <c r="P174" s="38">
+        <v>1.27</v>
+      </c>
       <c r="Q174" s="38"/>
       <c r="R174" s="37"/>
       <c r="S174" s="37"/>
       <c r="T174" s="37"/>
     </row>
     <row r="175" spans="1:20" ht="18" customHeight="1">
-      <c r="A175" s="38"/>
-      <c r="B175" s="41"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="56"/>
-      <c r="G175" s="54"/>
+      <c r="A175" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F175" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G175" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H175" s="59"/>
-      <c r="I175" s="38"/>
-      <c r="J175" s="38"/>
+      <c r="I175" s="34">
+        <v>673</v>
+      </c>
+      <c r="J175" s="49">
+        <f t="shared" si="6"/>
+        <v>1.28E-8</v>
+      </c>
       <c r="K175" s="38"/>
-      <c r="L175" s="40"/>
-      <c r="M175" s="40"/>
-      <c r="N175" s="30"/>
+      <c r="L175" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M175" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N175" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O175" s="37"/>
-      <c r="P175" s="38"/>
+      <c r="P175" s="38">
+        <v>1.28</v>
+      </c>
       <c r="Q175" s="38"/>
       <c r="R175" s="37"/>
       <c r="S175" s="37"/>
       <c r="T175" s="37"/>
     </row>
     <row r="176" spans="1:20" ht="18" customHeight="1">
-      <c r="A176" s="38"/>
-      <c r="B176" s="41"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="58"/>
-      <c r="F176" s="56"/>
-      <c r="G176" s="54"/>
+      <c r="A176" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" s="31"/>
+      <c r="F176" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G176" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H176" s="59"/>
-      <c r="I176" s="57"/>
-      <c r="J176" s="38"/>
+      <c r="I176" s="57">
+        <v>873</v>
+      </c>
+      <c r="J176" s="49">
+        <f t="shared" si="6"/>
+        <v>9.8400000000000008E-9</v>
+      </c>
       <c r="K176" s="38"/>
-      <c r="L176" s="40"/>
-      <c r="M176" s="40"/>
-      <c r="N176" s="30"/>
+      <c r="L176" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M176" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N176" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O176" s="37"/>
-      <c r="P176" s="38"/>
+      <c r="P176" s="38">
+        <v>0.98399999999999999</v>
+      </c>
       <c r="Q176" s="38"/>
       <c r="R176" s="37"/>
       <c r="S176" s="37"/>
       <c r="T176" s="37"/>
     </row>
     <row r="177" spans="1:20" ht="18" customHeight="1">
-      <c r="A177" s="38"/>
-      <c r="B177" s="41"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="56"/>
-      <c r="G177" s="54"/>
+      <c r="A177" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B177" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F177" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G177" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H177" s="59"/>
-      <c r="I177" s="57"/>
-      <c r="J177" s="38"/>
+      <c r="I177" s="57">
+        <v>873</v>
+      </c>
+      <c r="J177" s="49">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000001E-8</v>
+      </c>
       <c r="K177" s="38"/>
-      <c r="L177" s="40"/>
-      <c r="M177" s="40"/>
-      <c r="N177" s="30"/>
+      <c r="L177" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M177" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N177" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O177" s="37"/>
-      <c r="P177" s="38"/>
+      <c r="P177" s="38">
+        <v>1.3</v>
+      </c>
       <c r="Q177" s="38"/>
       <c r="R177" s="37"/>
       <c r="S177" s="37"/>
       <c r="T177" s="37"/>
     </row>
     <row r="178" spans="1:20" ht="18" customHeight="1">
-      <c r="A178" s="38"/>
-      <c r="B178" s="41"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="56"/>
-      <c r="G178" s="54"/>
+      <c r="A178" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F178" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G178" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H178" s="59"/>
-      <c r="I178" s="57"/>
-      <c r="J178" s="38"/>
+      <c r="I178" s="57">
+        <v>873</v>
+      </c>
+      <c r="J178" s="49">
+        <f t="shared" si="6"/>
+        <v>1.3100000000000001E-8</v>
+      </c>
       <c r="K178" s="38"/>
-      <c r="L178" s="40"/>
-      <c r="M178" s="40"/>
-      <c r="N178" s="30"/>
+      <c r="L178" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M178" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N178" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O178" s="37"/>
-      <c r="P178" s="38"/>
+      <c r="P178" s="38">
+        <v>1.31</v>
+      </c>
       <c r="Q178" s="38"/>
       <c r="R178" s="37"/>
       <c r="S178" s="37"/>
       <c r="T178" s="37"/>
     </row>
     <row r="179" spans="1:20" ht="18" customHeight="1">
-      <c r="A179" s="38"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="46"/>
-      <c r="F179" s="56"/>
-      <c r="G179" s="32"/>
+      <c r="A179" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" s="31"/>
+      <c r="F179" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H179" s="48"/>
-      <c r="I179" s="57"/>
-      <c r="J179" s="38"/>
+      <c r="I179" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J179" s="49">
+        <f t="shared" si="6"/>
+        <v>1.02E-8</v>
+      </c>
       <c r="K179" s="38"/>
-      <c r="L179" s="40"/>
-      <c r="M179" s="40"/>
-      <c r="N179" s="40"/>
+      <c r="L179" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M179" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N179" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O179" s="37"/>
-      <c r="P179" s="38"/>
+      <c r="P179" s="38">
+        <v>1.02</v>
+      </c>
       <c r="Q179" s="38"/>
       <c r="R179" s="37"/>
       <c r="S179" s="37"/>
       <c r="T179" s="37"/>
     </row>
     <row r="180" spans="1:20" ht="18" customHeight="1">
-      <c r="A180" s="38"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="46"/>
-      <c r="F180" s="56"/>
-      <c r="G180" s="32"/>
+      <c r="A180" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B180" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D180" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F180" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H180" s="48"/>
-      <c r="I180" s="57"/>
-      <c r="J180" s="38"/>
+      <c r="I180" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J180" s="49">
+        <f t="shared" si="6"/>
+        <v>1.3400000000000001E-8</v>
+      </c>
       <c r="K180" s="38"/>
-      <c r="L180" s="40"/>
-      <c r="M180" s="40"/>
-      <c r="N180" s="40"/>
+      <c r="L180" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M180" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N180" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O180" s="37"/>
-      <c r="P180" s="38"/>
+      <c r="P180" s="38">
+        <v>1.34</v>
+      </c>
       <c r="Q180" s="38"/>
       <c r="R180" s="37"/>
       <c r="S180" s="37"/>
       <c r="T180" s="37"/>
     </row>
     <row r="181" spans="1:20" ht="18" customHeight="1">
-      <c r="A181" s="38"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="40"/>
-      <c r="E181" s="46"/>
-      <c r="F181" s="56"/>
-      <c r="G181" s="32"/>
+      <c r="A181" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B181" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F181" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G181" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H181" s="48"/>
-      <c r="I181" s="57"/>
-      <c r="J181" s="38"/>
+      <c r="I181" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J181" s="49">
+        <f t="shared" si="6"/>
+        <v>1.3500000000000002E-8</v>
+      </c>
       <c r="K181" s="38"/>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
+      <c r="L181" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M181" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N181" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O181" s="37"/>
-      <c r="P181" s="38"/>
+      <c r="P181" s="38">
+        <v>1.35</v>
+      </c>
       <c r="Q181" s="38"/>
       <c r="R181" s="37"/>
       <c r="S181" s="37"/>
       <c r="T181" s="37"/>
     </row>
     <row r="182" spans="1:20" ht="18" customHeight="1">
-      <c r="A182" s="38"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="46"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="57"/>
-      <c r="J182" s="38"/>
+      <c r="A182" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D182" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="33"/>
+      <c r="I182" s="34">
+        <f>273+28</f>
+        <v>301</v>
+      </c>
+      <c r="J182" s="38">
+        <f>P182*0.000001</f>
+        <v>-7.0930232558139505E-7</v>
+      </c>
       <c r="K182" s="38"/>
-      <c r="L182" s="40"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="40"/>
+      <c r="L182" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M182" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N182" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O182" s="37"/>
-      <c r="P182" s="38"/>
+      <c r="P182" s="37">
+        <v>-0.70930232558139505</v>
+      </c>
       <c r="Q182" s="38"/>
       <c r="R182" s="37"/>
       <c r="S182" s="37"/>
       <c r="T182" s="37"/>
     </row>
     <row r="183" spans="1:20" ht="18" customHeight="1">
-      <c r="A183" s="38"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="57"/>
-      <c r="D183" s="40"/>
-      <c r="E183" s="46"/>
-      <c r="F183" s="56"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="57"/>
-      <c r="J183" s="53"/>
+      <c r="A183" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F183" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" s="33"/>
+      <c r="I183" s="34">
+        <f t="shared" ref="I183:I184" si="7">273+28</f>
+        <v>301</v>
+      </c>
+      <c r="J183" s="38">
+        <f t="shared" ref="J183:J199" si="8">P183*0.000001</f>
+        <v>2.3837209302325498E-7</v>
+      </c>
       <c r="K183" s="38"/>
-      <c r="L183" s="40"/>
-      <c r="M183" s="40"/>
-      <c r="N183" s="40"/>
+      <c r="L183" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M183" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N183" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O183" s="37"/>
-      <c r="P183" s="38"/>
+      <c r="P183" s="37">
+        <v>0.23837209302325499</v>
+      </c>
       <c r="Q183" s="38"/>
       <c r="R183" s="37"/>
       <c r="S183" s="37"/>
       <c r="T183" s="37"/>
     </row>
     <row r="184" spans="1:20" ht="18" customHeight="1">
-      <c r="A184" s="38"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="57"/>
-      <c r="D184" s="40"/>
-      <c r="E184" s="46"/>
-      <c r="F184" s="56"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="57"/>
-      <c r="J184" s="53"/>
+      <c r="A184" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D184" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F184" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G184" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="33"/>
+      <c r="I184" s="34">
+        <f t="shared" si="7"/>
+        <v>301</v>
+      </c>
+      <c r="J184" s="38">
+        <f t="shared" si="8"/>
+        <v>-7.0930232558139505E-7</v>
+      </c>
       <c r="K184" s="38"/>
-      <c r="L184" s="40"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="40"/>
+      <c r="L184" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M184" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N184" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O184" s="37"/>
-      <c r="P184" s="38"/>
+      <c r="P184" s="37">
+        <v>-0.70930232558139505</v>
+      </c>
       <c r="Q184" s="38"/>
       <c r="R184" s="37"/>
       <c r="S184" s="37"/>
       <c r="T184" s="37"/>
     </row>
     <row r="185" spans="1:20" ht="18" customHeight="1">
-      <c r="A185" s="38"/>
-      <c r="B185" s="31"/>
-      <c r="C185" s="57"/>
-      <c r="D185" s="40"/>
-      <c r="E185" s="46"/>
-      <c r="F185" s="56"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="57"/>
-      <c r="J185" s="53"/>
+      <c r="A185" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E185" s="31"/>
+      <c r="F185" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G185" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" s="33"/>
+      <c r="I185" s="34">
+        <v>373</v>
+      </c>
+      <c r="J185" s="38">
+        <f t="shared" si="8"/>
+        <v>6.1046511627906899E-7</v>
+      </c>
       <c r="K185" s="38"/>
-      <c r="L185" s="40"/>
-      <c r="M185" s="40"/>
-      <c r="N185" s="40"/>
+      <c r="L185" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M185" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N185" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O185" s="37"/>
-      <c r="P185" s="38"/>
+      <c r="P185" s="37">
+        <v>0.61046511627906896</v>
+      </c>
       <c r="Q185" s="38"/>
       <c r="R185" s="37"/>
       <c r="S185" s="37"/>
       <c r="T185" s="37"/>
     </row>
     <row r="186" spans="1:20" ht="18" customHeight="1">
-      <c r="A186" s="38"/>
-      <c r="B186" s="31"/>
-      <c r="C186" s="57"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="46"/>
-      <c r="F186" s="56"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="57"/>
-      <c r="J186" s="53"/>
+      <c r="A186" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B186" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F186" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="33"/>
+      <c r="I186" s="34">
+        <v>373</v>
+      </c>
+      <c r="J186" s="38">
+        <f t="shared" si="8"/>
+        <v>8.95348837209302E-7</v>
+      </c>
       <c r="K186" s="38"/>
-      <c r="L186" s="40"/>
-      <c r="M186" s="40"/>
-      <c r="N186" s="40"/>
+      <c r="L186" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M186" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N186" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O186" s="37"/>
-      <c r="P186" s="38"/>
+      <c r="P186" s="37">
+        <v>0.89534883720930203</v>
+      </c>
       <c r="Q186" s="38"/>
       <c r="R186" s="37"/>
       <c r="S186" s="37"/>
       <c r="T186" s="37"/>
     </row>
     <row r="187" spans="1:20" ht="18" customHeight="1">
-      <c r="A187" s="38"/>
-      <c r="B187" s="31"/>
-      <c r="C187" s="57"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="58"/>
-      <c r="F187" s="56"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="57"/>
-      <c r="J187" s="53"/>
+      <c r="A187" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B187" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D187" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F187" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G187" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="33"/>
+      <c r="I187" s="34">
+        <v>373</v>
+      </c>
+      <c r="J187" s="38">
+        <f t="shared" si="8"/>
+        <v>-3.0232558139534796E-7</v>
+      </c>
       <c r="K187" s="38"/>
-      <c r="L187" s="40"/>
-      <c r="M187" s="40"/>
-      <c r="N187" s="40"/>
+      <c r="L187" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M187" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N187" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O187" s="37"/>
-      <c r="P187" s="38"/>
+      <c r="P187" s="37">
+        <v>-0.30232558139534799</v>
+      </c>
       <c r="Q187" s="38"/>
       <c r="R187" s="37"/>
       <c r="S187" s="37"/>
       <c r="T187" s="37"/>
     </row>
     <row r="188" spans="1:20" ht="18" customHeight="1">
-      <c r="A188" s="38"/>
-      <c r="B188" s="31"/>
-      <c r="C188" s="57"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="46"/>
-      <c r="F188" s="56"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="57"/>
-      <c r="J188" s="95"/>
+      <c r="A188" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D188" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188" s="31"/>
+      <c r="F188" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G188" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="33"/>
+      <c r="I188" s="34">
+        <v>473</v>
+      </c>
+      <c r="J188" s="38">
+        <f t="shared" si="8"/>
+        <v>-3.60465116279069E-7</v>
+      </c>
       <c r="K188" s="38"/>
-      <c r="L188" s="40"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="40"/>
+      <c r="L188" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M188" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N188" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O188" s="37"/>
-      <c r="P188" s="38"/>
+      <c r="P188" s="37">
+        <v>-0.36046511627906902</v>
+      </c>
       <c r="Q188" s="38"/>
       <c r="R188" s="37"/>
       <c r="S188" s="37"/>
       <c r="T188" s="37"/>
     </row>
     <row r="189" spans="1:20" ht="18" customHeight="1">
-      <c r="A189" s="38"/>
-      <c r="B189" s="31"/>
-      <c r="C189" s="57"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="58"/>
-      <c r="F189" s="56"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="59"/>
-      <c r="I189" s="57"/>
-      <c r="J189" s="53"/>
+      <c r="A189" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B189" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D189" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F189" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G189" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="33"/>
+      <c r="I189" s="34">
+        <v>473</v>
+      </c>
+      <c r="J189" s="38">
+        <f t="shared" si="8"/>
+        <v>3.3720930232558098E-7</v>
+      </c>
       <c r="K189" s="38"/>
-      <c r="L189" s="40"/>
-      <c r="M189" s="40"/>
-      <c r="N189" s="40"/>
+      <c r="L189" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M189" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N189" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O189" s="37"/>
-      <c r="P189" s="38"/>
+      <c r="P189" s="37">
+        <v>0.337209302325581</v>
+      </c>
       <c r="Q189" s="38"/>
       <c r="R189" s="37"/>
       <c r="S189" s="37"/>
       <c r="T189" s="37"/>
     </row>
     <row r="190" spans="1:20" ht="18" customHeight="1">
-      <c r="A190" s="38"/>
-      <c r="B190" s="31"/>
-      <c r="C190" s="57"/>
-      <c r="D190" s="40"/>
-      <c r="E190" s="46"/>
-      <c r="F190" s="56"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="59"/>
-      <c r="I190" s="57"/>
-      <c r="J190" s="53"/>
+      <c r="A190" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B190" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D190" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F190" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G190" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" s="33"/>
+      <c r="I190" s="34">
+        <v>473</v>
+      </c>
+      <c r="J190" s="38">
+        <f t="shared" si="8"/>
+        <v>-9.2441860465116191E-7</v>
+      </c>
       <c r="K190" s="38"/>
-      <c r="L190" s="40"/>
-      <c r="M190" s="40"/>
-      <c r="N190" s="40"/>
+      <c r="L190" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M190" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N190" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O190" s="37"/>
-      <c r="P190" s="38"/>
+      <c r="P190" s="37">
+        <v>-0.92441860465116199</v>
+      </c>
       <c r="Q190" s="38"/>
       <c r="R190" s="37"/>
       <c r="S190" s="37"/>
       <c r="T190" s="37"/>
     </row>
     <row r="191" spans="1:20" ht="18" customHeight="1">
-      <c r="A191" s="38"/>
-      <c r="B191" s="41"/>
-      <c r="C191" s="57"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="57"/>
-      <c r="J191" s="38"/>
+      <c r="A191" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191" s="31"/>
+      <c r="F191" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G191" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" s="33"/>
+      <c r="I191" s="34">
+        <v>673</v>
+      </c>
+      <c r="J191" s="38">
+        <f t="shared" si="8"/>
+        <v>-4.3023255813953398E-7</v>
+      </c>
       <c r="K191" s="38"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="40"/>
+      <c r="L191" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M191" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N191" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O191" s="37"/>
-      <c r="P191" s="38"/>
+      <c r="P191" s="37">
+        <v>-0.43023255813953398</v>
+      </c>
       <c r="Q191" s="38"/>
       <c r="R191" s="37"/>
       <c r="S191" s="37"/>
       <c r="T191" s="37"/>
     </row>
     <row r="192" spans="1:20" ht="18" customHeight="1">
-      <c r="A192" s="38"/>
-      <c r="B192" s="41"/>
-      <c r="C192" s="57"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="59"/>
-      <c r="I192" s="57"/>
-      <c r="J192" s="38"/>
+      <c r="A192" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B192" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C192" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F192" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G192" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H192" s="48"/>
+      <c r="I192" s="34">
+        <v>673</v>
+      </c>
+      <c r="J192" s="38">
+        <f t="shared" si="8"/>
+        <v>7.0930232558139505E-7</v>
+      </c>
       <c r="K192" s="38"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="40"/>
-      <c r="N192" s="40"/>
+      <c r="L192" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M192" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N192" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O192" s="37"/>
-      <c r="P192" s="38"/>
+      <c r="P192" s="37">
+        <v>0.70930232558139505</v>
+      </c>
       <c r="Q192" s="38"/>
       <c r="R192" s="37"/>
       <c r="S192" s="37"/>
       <c r="T192" s="37"/>
     </row>
     <row r="193" spans="1:20" ht="18" customHeight="1">
-      <c r="A193" s="38"/>
-      <c r="B193" s="41"/>
-      <c r="C193" s="57"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="32"/>
+      <c r="A193" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D193" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F193" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G193" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H193" s="59"/>
-      <c r="I193" s="57"/>
-      <c r="J193" s="38"/>
+      <c r="I193" s="34">
+        <v>673</v>
+      </c>
+      <c r="J193" s="38">
+        <f t="shared" si="8"/>
+        <v>-6.2209302325581289E-7</v>
+      </c>
       <c r="K193" s="38"/>
-      <c r="L193" s="40"/>
-      <c r="M193" s="40"/>
-      <c r="N193" s="40"/>
+      <c r="L193" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M193" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N193" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O193" s="37"/>
-      <c r="P193" s="38"/>
+      <c r="P193" s="37">
+        <v>-0.62209302325581295</v>
+      </c>
       <c r="Q193" s="38"/>
       <c r="R193" s="37"/>
       <c r="S193" s="37"/>
       <c r="T193" s="37"/>
     </row>
     <row r="194" spans="1:20" ht="18" customHeight="1">
-      <c r="A194" s="38"/>
-      <c r="B194" s="41"/>
-      <c r="C194" s="57"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="32"/>
+      <c r="A194" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D194" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E194" s="31"/>
+      <c r="F194" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G194" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H194" s="59"/>
-      <c r="I194" s="57"/>
-      <c r="J194" s="38"/>
+      <c r="I194" s="57">
+        <v>873</v>
+      </c>
+      <c r="J194" s="38">
+        <f t="shared" si="8"/>
+        <v>2.0930232558139499E-7</v>
+      </c>
       <c r="K194" s="38"/>
-      <c r="L194" s="40"/>
-      <c r="M194" s="40"/>
-      <c r="N194" s="40"/>
+      <c r="L194" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M194" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N194" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O194" s="37"/>
-      <c r="P194" s="38"/>
+      <c r="P194" s="37">
+        <v>0.209302325581395</v>
+      </c>
       <c r="Q194" s="38"/>
       <c r="R194" s="37"/>
       <c r="S194" s="37"/>
       <c r="T194" s="37"/>
     </row>
     <row r="195" spans="1:20" ht="18" customHeight="1">
-      <c r="A195" s="38"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="57"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="32"/>
+      <c r="A195" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B195" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D195" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F195" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G195" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H195" s="59"/>
-      <c r="I195" s="38"/>
-      <c r="J195" s="38"/>
+      <c r="I195" s="57">
+        <v>873</v>
+      </c>
+      <c r="J195" s="38">
+        <f t="shared" si="8"/>
+        <v>5.3488372093023189E-7</v>
+      </c>
       <c r="K195" s="38"/>
-      <c r="L195" s="40"/>
-      <c r="M195" s="40"/>
-      <c r="N195" s="40"/>
+      <c r="L195" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M195" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N195" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O195" s="37"/>
-      <c r="P195" s="38"/>
+      <c r="P195" s="37">
+        <v>0.53488372093023195</v>
+      </c>
       <c r="Q195" s="38"/>
       <c r="R195" s="37"/>
       <c r="S195" s="37"/>
       <c r="T195" s="37"/>
     </row>
     <row r="196" spans="1:20" ht="18" customHeight="1">
-      <c r="A196" s="38"/>
-      <c r="B196" s="41"/>
-      <c r="C196" s="97"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="32"/>
+      <c r="A196" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D196" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F196" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G196" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H196" s="59"/>
-      <c r="I196" s="38"/>
-      <c r="J196" s="38"/>
+      <c r="I196" s="57">
+        <v>873</v>
+      </c>
+      <c r="J196" s="38">
+        <f t="shared" si="8"/>
+        <v>-5.46511627906976E-7</v>
+      </c>
       <c r="K196" s="38"/>
-      <c r="L196" s="40"/>
-      <c r="M196" s="40"/>
-      <c r="N196" s="40"/>
+      <c r="L196" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M196" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N196" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O196" s="37"/>
-      <c r="P196" s="38"/>
+      <c r="P196" s="37">
+        <v>-0.54651162790697605</v>
+      </c>
       <c r="Q196" s="38"/>
       <c r="R196" s="37"/>
       <c r="S196" s="37"/>
       <c r="T196" s="37"/>
     </row>
     <row r="197" spans="1:20" ht="18" customHeight="1">
-      <c r="A197" s="38"/>
-      <c r="B197" s="41"/>
-      <c r="C197" s="100"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="38"/>
-      <c r="J197" s="38"/>
+      <c r="A197" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E197" s="31"/>
+      <c r="F197" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G197" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H197" s="48"/>
+      <c r="I197" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J197" s="38">
+        <f t="shared" si="8"/>
+        <v>6.2790697674418605E-7</v>
+      </c>
       <c r="K197" s="38"/>
-      <c r="L197" s="40"/>
-      <c r="M197" s="40"/>
-      <c r="N197" s="40"/>
+      <c r="L197" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M197" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N197" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O197" s="37"/>
-      <c r="P197" s="38"/>
+      <c r="P197" s="37">
+        <v>0.62790697674418605</v>
+      </c>
       <c r="Q197" s="38"/>
       <c r="R197" s="37"/>
       <c r="S197" s="37"/>
       <c r="T197" s="37"/>
     </row>
     <row r="198" spans="1:20" ht="18" customHeight="1">
-      <c r="A198" s="38"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="100"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="58"/>
-      <c r="F198" s="60"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="38"/>
-      <c r="J198" s="38"/>
+      <c r="A198" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F198" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G198" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="48"/>
+      <c r="I198" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J198" s="38">
+        <f t="shared" si="8"/>
+        <v>1.1918604651162701E-6</v>
+      </c>
       <c r="K198" s="38"/>
-      <c r="L198" s="40"/>
-      <c r="M198" s="40"/>
-      <c r="N198" s="40"/>
+      <c r="L198" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M198" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N198" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O198" s="37"/>
-      <c r="P198" s="38"/>
+      <c r="P198" s="37">
+        <v>1.1918604651162701</v>
+      </c>
       <c r="Q198" s="38"/>
       <c r="R198" s="37"/>
       <c r="S198" s="37"/>
       <c r="T198" s="37"/>
     </row>
     <row r="199" spans="1:20" ht="18" customHeight="1">
-      <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
-      <c r="C199" s="100"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="38"/>
-      <c r="J199" s="38"/>
+      <c r="A199" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D199" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F199" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G199" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H199" s="48"/>
+      <c r="I199" s="57">
+        <v>1073</v>
+      </c>
+      <c r="J199" s="38">
+        <f t="shared" si="8"/>
+        <v>-5.2325581395348799E-7</v>
+      </c>
       <c r="K199" s="38"/>
-      <c r="L199" s="40"/>
-      <c r="M199" s="40"/>
-      <c r="N199" s="40"/>
+      <c r="L199" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M199" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N199" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O199" s="37"/>
-      <c r="P199" s="38"/>
+      <c r="P199" s="37">
+        <v>-0.52325581395348797</v>
+      </c>
       <c r="Q199" s="38"/>
       <c r="R199" s="37"/>
       <c r="S199" s="37"/>
       <c r="T199" s="37"/>
     </row>
     <row r="200" spans="1:20" ht="18" customHeight="1">
-      <c r="A200" s="38"/>
-      <c r="B200" s="41"/>
-      <c r="C200" s="100"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="32"/>
+      <c r="A200" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D200" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200" s="31"/>
+      <c r="F200" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G200" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H200" s="59"/>
-      <c r="I200" s="38"/>
-      <c r="J200" s="38"/>
+      <c r="I200" s="38">
+        <v>373</v>
+      </c>
+      <c r="J200" s="37">
+        <v>21.71875</v>
+      </c>
       <c r="K200" s="38"/>
-      <c r="L200" s="40"/>
-      <c r="M200" s="40"/>
-      <c r="N200" s="40"/>
+      <c r="L200" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M200" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N200" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O200" s="37"/>
       <c r="P200" s="38"/>
       <c r="Q200" s="38"/>
@@ -11097,20 +12209,44 @@
       <c r="T200" s="37"/>
     </row>
     <row r="201" spans="1:20" ht="18" customHeight="1">
-      <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
-      <c r="C201" s="97"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="32"/>
+      <c r="A201" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D201" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F201" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G201" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H201" s="59"/>
-      <c r="I201" s="38"/>
-      <c r="J201" s="53"/>
+      <c r="I201" s="38">
+        <v>373</v>
+      </c>
+      <c r="J201" s="37">
+        <v>26.71875</v>
+      </c>
       <c r="K201" s="53"/>
-      <c r="L201" s="40"/>
-      <c r="M201" s="40"/>
-      <c r="N201" s="40"/>
+      <c r="L201" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M201" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N201" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O201" s="37"/>
       <c r="P201" s="38"/>
       <c r="Q201" s="38"/>
@@ -11119,20 +12255,44 @@
       <c r="T201" s="37"/>
     </row>
     <row r="202" spans="1:20" ht="18" customHeight="1">
-      <c r="A202" s="38"/>
-      <c r="B202" s="41"/>
-      <c r="C202" s="100"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="60"/>
-      <c r="G202" s="32"/>
+      <c r="A202" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D202" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F202" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G202" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H202" s="59"/>
-      <c r="I202" s="38"/>
-      <c r="J202" s="53"/>
+      <c r="I202" s="38">
+        <v>373</v>
+      </c>
+      <c r="J202" s="37">
+        <v>33.4375</v>
+      </c>
       <c r="K202" s="53"/>
-      <c r="L202" s="40"/>
-      <c r="M202" s="40"/>
-      <c r="N202" s="40"/>
+      <c r="L202" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M202" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N202" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O202" s="37"/>
       <c r="P202" s="38"/>
       <c r="Q202" s="38"/>
@@ -11141,20 +12301,42 @@
       <c r="T202" s="37"/>
     </row>
     <row r="203" spans="1:20" ht="18" customHeight="1">
-      <c r="A203" s="38"/>
-      <c r="B203" s="41"/>
-      <c r="C203" s="100"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="58"/>
-      <c r="F203" s="56"/>
-      <c r="G203" s="32"/>
+      <c r="A203" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D203" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E203" s="31"/>
+      <c r="F203" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G203" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H203" s="48"/>
-      <c r="I203" s="38"/>
-      <c r="J203" s="53"/>
+      <c r="I203" s="38">
+        <v>473</v>
+      </c>
+      <c r="J203" s="37">
+        <v>35</v>
+      </c>
       <c r="K203" s="38"/>
-      <c r="L203" s="40"/>
-      <c r="M203" s="40"/>
-      <c r="N203" s="40"/>
+      <c r="L203" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M203" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N203" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O203" s="37"/>
       <c r="P203" s="38"/>
       <c r="Q203" s="38"/>
@@ -11163,20 +12345,44 @@
       <c r="T203" s="37"/>
     </row>
     <row r="204" spans="1:20" ht="18" customHeight="1">
-      <c r="A204" s="38"/>
-      <c r="B204" s="41"/>
-      <c r="C204" s="100"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="56"/>
-      <c r="G204" s="32"/>
+      <c r="A204" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F204" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G204" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H204" s="48"/>
-      <c r="I204" s="38"/>
-      <c r="J204" s="53"/>
+      <c r="I204" s="38">
+        <v>473</v>
+      </c>
+      <c r="J204" s="37">
+        <v>37.8125</v>
+      </c>
       <c r="K204" s="38"/>
-      <c r="L204" s="40"/>
-      <c r="M204" s="40"/>
-      <c r="N204" s="40"/>
+      <c r="L204" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M204" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N204" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O204" s="37"/>
       <c r="P204" s="38"/>
       <c r="Q204" s="38"/>
@@ -11185,20 +12391,44 @@
       <c r="T204" s="37"/>
     </row>
     <row r="205" spans="1:20" ht="18" customHeight="1">
-      <c r="A205" s="38"/>
-      <c r="B205" s="41"/>
-      <c r="C205" s="100"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="58"/>
-      <c r="F205" s="56"/>
-      <c r="G205" s="32"/>
+      <c r="A205" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D205" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F205" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G205" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H205" s="48"/>
-      <c r="I205" s="38"/>
-      <c r="J205" s="53"/>
+      <c r="I205" s="38">
+        <v>473</v>
+      </c>
+      <c r="J205" s="37">
+        <v>39.0625</v>
+      </c>
       <c r="K205" s="38"/>
-      <c r="L205" s="40"/>
-      <c r="M205" s="40"/>
-      <c r="N205" s="40"/>
+      <c r="L205" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M205" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N205" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O205" s="37"/>
       <c r="P205" s="38"/>
       <c r="Q205" s="38"/>
@@ -11207,20 +12437,42 @@
       <c r="T205" s="37"/>
     </row>
     <row r="206" spans="1:20" ht="18" customHeight="1">
-      <c r="A206" s="38"/>
-      <c r="B206" s="41"/>
-      <c r="C206" s="57"/>
-      <c r="D206" s="57"/>
-      <c r="E206" s="58"/>
-      <c r="F206" s="56"/>
-      <c r="G206" s="32"/>
+      <c r="A206" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D206" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E206" s="31"/>
+      <c r="F206" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G206" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H206" s="48"/>
-      <c r="I206" s="38"/>
-      <c r="J206" s="53"/>
+      <c r="I206" s="38">
+        <v>573</v>
+      </c>
+      <c r="J206" s="37">
+        <v>58.4375</v>
+      </c>
       <c r="K206" s="38"/>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
+      <c r="L206" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M206" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N206" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O206" s="37"/>
       <c r="P206" s="38"/>
       <c r="Q206" s="38"/>
@@ -11229,20 +12481,44 @@
       <c r="T206" s="37"/>
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
-      <c r="A207" s="38"/>
-      <c r="B207" s="41"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="56"/>
-      <c r="G207" s="32"/>
+      <c r="A207" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C207" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D207" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F207" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G207" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H207" s="48"/>
-      <c r="I207" s="38"/>
-      <c r="J207" s="53"/>
+      <c r="I207" s="38">
+        <v>573</v>
+      </c>
+      <c r="J207" s="37">
+        <v>60.3125</v>
+      </c>
       <c r="K207" s="38"/>
-      <c r="L207" s="40"/>
-      <c r="M207" s="40"/>
-      <c r="N207" s="40"/>
+      <c r="L207" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M207" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N207" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O207" s="37"/>
       <c r="P207" s="38"/>
       <c r="Q207" s="38"/>
@@ -11251,20 +12527,44 @@
       <c r="T207" s="37"/>
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
-      <c r="A208" s="38"/>
-      <c r="B208" s="96"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="97"/>
-      <c r="E208" s="98"/>
-      <c r="F208" s="56"/>
-      <c r="G208" s="32"/>
+      <c r="A208" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B208" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D208" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F208" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G208" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H208" s="48"/>
-      <c r="I208" s="38"/>
-      <c r="J208" s="53"/>
+      <c r="I208" s="38">
+        <v>573</v>
+      </c>
+      <c r="J208" s="37">
+        <v>49.6875</v>
+      </c>
       <c r="K208" s="38"/>
-      <c r="L208" s="40"/>
-      <c r="M208" s="40"/>
-      <c r="N208" s="40"/>
+      <c r="L208" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M208" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N208" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O208" s="37"/>
       <c r="P208" s="38"/>
       <c r="Q208" s="38"/>
@@ -11273,20 +12573,42 @@
       <c r="T208" s="37"/>
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
-      <c r="A209" s="38"/>
-      <c r="B209" s="99"/>
-      <c r="C209" s="57"/>
-      <c r="D209" s="100"/>
-      <c r="E209" s="101"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="32"/>
+      <c r="A209" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C209" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D209" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E209" s="31"/>
+      <c r="F209" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G209" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H209" s="48"/>
-      <c r="I209" s="38"/>
-      <c r="J209" s="53"/>
+      <c r="I209" s="38">
+        <v>673</v>
+      </c>
+      <c r="J209" s="37">
+        <v>82.34375</v>
+      </c>
       <c r="K209" s="38"/>
-      <c r="L209" s="40"/>
-      <c r="M209" s="40"/>
-      <c r="N209" s="40"/>
+      <c r="L209" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M209" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N209" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O209" s="37"/>
       <c r="P209" s="38"/>
       <c r="Q209" s="38"/>
@@ -11295,20 +12617,44 @@
       <c r="T209" s="37"/>
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
-      <c r="A210" s="38"/>
-      <c r="B210" s="99"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="100"/>
-      <c r="E210" s="101"/>
-      <c r="F210" s="56"/>
-      <c r="G210" s="32"/>
+      <c r="A210" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D210" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F210" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G210" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H210" s="48"/>
-      <c r="I210" s="38"/>
-      <c r="J210" s="53"/>
+      <c r="I210" s="38">
+        <v>673</v>
+      </c>
+      <c r="J210" s="37">
+        <v>74.375</v>
+      </c>
       <c r="K210" s="38"/>
-      <c r="L210" s="40"/>
-      <c r="M210" s="40"/>
-      <c r="N210" s="40"/>
+      <c r="L210" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M210" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N210" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O210" s="37"/>
       <c r="P210" s="38"/>
       <c r="Q210" s="38"/>
@@ -11317,20 +12663,44 @@
       <c r="T210" s="37"/>
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
-      <c r="A211" s="38"/>
-      <c r="B211" s="99"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="100"/>
-      <c r="E211" s="101"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="32"/>
+      <c r="A211" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B211" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D211" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F211" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G211" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H211" s="59"/>
-      <c r="I211" s="38"/>
-      <c r="J211" s="53"/>
+      <c r="I211" s="38">
+        <v>673</v>
+      </c>
+      <c r="J211" s="37">
+        <v>56.09375</v>
+      </c>
       <c r="K211" s="38"/>
-      <c r="L211" s="40"/>
-      <c r="M211" s="40"/>
-      <c r="N211" s="40"/>
+      <c r="L211" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M211" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N211" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O211" s="37"/>
       <c r="P211" s="38"/>
       <c r="Q211" s="38"/>
@@ -11339,20 +12709,42 @@
       <c r="T211" s="37"/>
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
-      <c r="A212" s="38"/>
-      <c r="B212" s="99"/>
-      <c r="C212" s="57"/>
-      <c r="D212" s="100"/>
-      <c r="E212" s="101"/>
-      <c r="F212" s="56"/>
-      <c r="G212" s="32"/>
+      <c r="A212" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D212" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E212" s="31"/>
+      <c r="F212" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G212" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H212" s="59"/>
-      <c r="I212" s="38"/>
-      <c r="J212" s="53"/>
+      <c r="I212" s="38">
+        <v>773</v>
+      </c>
+      <c r="J212" s="37">
+        <v>103.59375</v>
+      </c>
       <c r="K212" s="38"/>
-      <c r="L212" s="40"/>
-      <c r="M212" s="40"/>
-      <c r="N212" s="40"/>
+      <c r="L212" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M212" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N212" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O212" s="37"/>
       <c r="P212" s="38"/>
       <c r="Q212" s="38"/>
@@ -11361,20 +12753,44 @@
       <c r="T212" s="37"/>
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
-      <c r="A213" s="38"/>
-      <c r="B213" s="96"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="97"/>
-      <c r="E213" s="98"/>
-      <c r="F213" s="56"/>
-      <c r="G213" s="32"/>
+      <c r="A213" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D213" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F213" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G213" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H213" s="59"/>
-      <c r="I213" s="38"/>
-      <c r="J213" s="38"/>
+      <c r="I213" s="38">
+        <v>773</v>
+      </c>
+      <c r="J213" s="37">
+        <v>92.1875</v>
+      </c>
       <c r="K213" s="38"/>
-      <c r="L213" s="40"/>
-      <c r="M213" s="40"/>
-      <c r="N213" s="40"/>
+      <c r="L213" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M213" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N213" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O213" s="37"/>
       <c r="P213" s="38"/>
       <c r="Q213" s="38"/>
@@ -11383,20 +12799,44 @@
       <c r="T213" s="37"/>
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
-      <c r="A214" s="38"/>
-      <c r="B214" s="99"/>
-      <c r="C214" s="40"/>
-      <c r="D214" s="100"/>
-      <c r="E214" s="101"/>
-      <c r="F214" s="56"/>
-      <c r="G214" s="32"/>
+      <c r="A214" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D214" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F214" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G214" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H214" s="59"/>
-      <c r="I214" s="38"/>
-      <c r="J214" s="38"/>
+      <c r="I214" s="38">
+        <v>773</v>
+      </c>
+      <c r="J214" s="37">
+        <v>66.09375</v>
+      </c>
       <c r="K214" s="38"/>
-      <c r="L214" s="40"/>
-      <c r="M214" s="40"/>
-      <c r="N214" s="40"/>
+      <c r="L214" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M214" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N214" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="O214" s="37"/>
       <c r="P214" s="38"/>
       <c r="Q214" s="38"/>
@@ -11406,10 +12846,10 @@
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
       <c r="A215" s="38"/>
-      <c r="B215" s="99"/>
+      <c r="B215" s="96"/>
       <c r="C215" s="57"/>
-      <c r="D215" s="100"/>
-      <c r="E215" s="101"/>
+      <c r="D215" s="97"/>
+      <c r="E215" s="98"/>
       <c r="F215" s="56"/>
       <c r="G215" s="32"/>
       <c r="H215" s="59"/>
@@ -11428,10 +12868,10 @@
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
       <c r="A216" s="38"/>
-      <c r="B216" s="99"/>
+      <c r="B216" s="96"/>
       <c r="C216" s="40"/>
-      <c r="D216" s="100"/>
-      <c r="E216" s="101"/>
+      <c r="D216" s="97"/>
+      <c r="E216" s="98"/>
       <c r="F216" s="56"/>
       <c r="G216" s="32"/>
       <c r="H216" s="59"/>
@@ -11450,10 +12890,10 @@
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
       <c r="A217" s="38"/>
-      <c r="B217" s="99"/>
+      <c r="B217" s="96"/>
       <c r="C217" s="40"/>
-      <c r="D217" s="100"/>
-      <c r="E217" s="101"/>
+      <c r="D217" s="97"/>
+      <c r="E217" s="98"/>
       <c r="F217" s="56"/>
       <c r="G217" s="32"/>
       <c r="H217" s="59"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3090AA-1427-4B4B-BA36-581C293AF99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3204F9-FD07-B74C-A39B-1FA6CC5833F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -390,6 +390,9 @@
     <t>T1</t>
   </si>
   <si>
+    <t>F5</t>
+  </si>
+  <si>
     <t>A/m</t>
   </si>
   <si>
@@ -556,6 +559,9 @@
     <t>10.1016/j.intermet.2014.11.004</t>
   </si>
   <si>
+    <t>T3</t>
+  </si>
+  <si>
     <t>meltspun at 30m/s; microwires</t>
   </si>
   <si>
@@ -650,9 +656,6 @@
   </si>
   <si>
     <t>CoCrFeNi</t>
-  </si>
-  <si>
-    <t>minimum plastic strain</t>
   </si>
   <si>
     <t>CoCrFeNiTa0.4</t>
@@ -772,9 +775,6 @@
     <t>VAM and leviatition melting followed by CR with thickness reduction of 83% annealed at 1273K for 2h</t>
   </si>
   <si>
-    <t>_Pa</t>
-  </si>
-  <si>
     <t>10.3390/met9030382</t>
   </si>
   <si>
@@ -812,6 +812,36 @@
   </si>
   <si>
     <t>10.3390/cryst10090762</t>
+  </si>
+  <si>
+    <t>CoCrFeNiNb0.5</t>
+  </si>
+  <si>
+    <t>CoCrFeNiNb0.75</t>
+  </si>
+  <si>
+    <t>CoCrFeNiNb1</t>
+  </si>
+  <si>
+    <t>CoCrFeNiNb1.2</t>
+  </si>
+  <si>
+    <t>Nb0.5</t>
+  </si>
+  <si>
+    <t>Nb0.75</t>
+  </si>
+  <si>
+    <t>Nb1.0</t>
+  </si>
+  <si>
+    <t>Nb1.2</t>
+  </si>
+  <si>
+    <t>minimum compressive plastic strain</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmst.2016.09.016</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2015,8 +2045,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3298,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A170" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O207" sqref="O207"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A200" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I236" sqref="I236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3356,19 +3384,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="124"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="122"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3384,17 +3412,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="128"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="126"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3435,43 +3463,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="131" t="s">
+      <c r="I5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="131" t="s">
+      <c r="J5" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="131" t="s">
+      <c r="K5" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="131" t="s">
+      <c r="L5" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="131" t="s">
+      <c r="M5" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="131" t="s">
+      <c r="N5" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="97" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3487,19 +3515,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="100"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3549,7 +3577,7 @@
       <c r="N7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="101"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="69" t="s">
         <v>77</v>
       </c>
@@ -3564,35 +3592,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="111"/>
+      <c r="N8" s="109"/>
       <c r="O8" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="112" t="s">
+      <c r="P8" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="115"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="65" t="s">
@@ -3657,10 +3685,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
@@ -3673,7 +3701,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3689,7 +3717,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3701,10 +3729,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
@@ -3717,7 +3745,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3733,7 +3761,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3745,10 +3773,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
@@ -3761,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3777,7 +3805,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3789,16 +3817,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>65</v>
@@ -3807,7 +3835,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3820,10 +3848,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3835,16 +3863,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>65</v>
@@ -3853,7 +3881,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3866,10 +3894,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3881,16 +3909,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>65</v>
@@ -3899,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3912,10 +3940,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3927,16 +3955,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -3945,7 +3973,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3958,10 +3986,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -3973,16 +4001,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>68</v>
@@ -3991,7 +4019,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -4004,10 +4032,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -4019,16 +4047,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>68</v>
@@ -4037,7 +4065,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -4050,10 +4078,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -4065,16 +4093,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>68</v>
@@ -4083,7 +4111,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -4096,10 +4124,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -4111,16 +4139,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>68</v>
@@ -4129,7 +4157,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -4142,10 +4170,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -4157,16 +4185,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>66</v>
@@ -4175,7 +4203,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -4188,10 +4216,10 @@
         <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -4203,16 +4231,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>66</v>
@@ -4221,7 +4249,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4234,10 +4262,10 @@
         <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4249,16 +4277,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>66</v>
@@ -4267,7 +4295,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4280,10 +4308,10 @@
         <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4295,16 +4323,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>66</v>
@@ -4313,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4326,10 +4354,10 @@
         <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4339,23 +4367,23 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="135" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="137" t="s">
-        <v>116</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4367,13 +4395,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4384,22 +4412,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4411,13 +4439,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4428,22 +4456,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4455,13 +4483,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4472,22 +4500,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4499,13 +4527,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4515,23 +4543,23 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="135" t="s">
         <v>117</v>
-      </c>
-      <c r="B29" s="137" t="s">
-        <v>116</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4543,13 +4571,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4560,22 +4588,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4587,13 +4615,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4604,22 +4632,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4631,13 +4659,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4648,22 +4676,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4675,13 +4703,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4692,28 +4720,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4721,13 +4749,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M33" s="40" t="s">
         <v>85</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4738,28 +4766,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4767,13 +4795,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M34" s="40" t="s">
         <v>85</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4784,28 +4812,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4813,13 +4841,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M35" s="40" t="s">
         <v>85</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4830,28 +4858,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4859,13 +4887,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4876,28 +4904,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4905,13 +4933,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4922,28 +4950,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4951,13 +4979,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4969,25 +4997,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -4995,13 +5023,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M39" s="40" t="s">
         <v>85</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -5013,23 +5041,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -5037,11 +5065,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -5053,23 +5081,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -5077,11 +5105,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -5093,23 +5121,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -5117,11 +5145,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -5133,23 +5161,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -5157,11 +5185,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -5173,23 +5201,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -5197,11 +5225,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M44" s="40"/>
-      <c r="N44" s="138" t="s">
-        <v>139</v>
+      <c r="N44" s="136" t="s">
+        <v>140</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -5213,23 +5241,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5237,11 +5265,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M45" s="40"/>
-      <c r="N45" s="138" t="s">
-        <v>140</v>
+      <c r="N45" s="136" t="s">
+        <v>141</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5253,25 +5281,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5279,13 +5307,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M46" s="40" t="s">
         <v>85</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5297,23 +5325,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5321,11 +5349,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5337,23 +5365,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5361,11 +5389,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5377,23 +5405,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5401,11 +5429,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5417,23 +5445,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5441,11 +5469,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5457,23 +5485,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5481,11 +5509,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M51" s="40"/>
-      <c r="N51" s="138" t="s">
-        <v>139</v>
+      <c r="N51" s="136" t="s">
+        <v>140</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5497,23 +5525,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5521,11 +5549,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M52" s="40"/>
-      <c r="N52" s="138" t="s">
-        <v>140</v>
+      <c r="N52" s="136" t="s">
+        <v>141</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5537,25 +5565,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E53" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5563,13 +5591,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5581,25 +5609,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E54" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5607,13 +5635,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5625,25 +5653,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E55" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5651,13 +5679,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5669,25 +5697,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E56" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5695,13 +5723,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5713,25 +5741,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5739,13 +5767,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5757,25 +5785,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5783,13 +5811,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5801,25 +5829,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E59" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5827,13 +5855,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5845,25 +5873,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5871,13 +5899,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5889,25 +5917,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E61" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5915,13 +5943,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5933,25 +5961,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E62" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5959,13 +5987,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -5977,25 +6005,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E63" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -6003,13 +6031,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -6021,25 +6049,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E64" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -6047,13 +6075,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -6065,25 +6093,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -6091,13 +6119,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -6109,25 +6137,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -6135,13 +6163,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -6153,25 +6181,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E67" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -6179,13 +6207,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -6197,25 +6225,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E68" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -6223,13 +6251,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6241,16 +6269,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E69" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6262,11 +6290,11 @@
       <c r="I69" s="34">
         <v>298</v>
       </c>
-      <c r="J69" s="139">
+      <c r="J69" s="137">
         <f t="shared" ref="J69:J76" si="0">P69*9807000</f>
         <v>5122230164.5338182</v>
       </c>
-      <c r="K69" s="139">
+      <c r="K69" s="137">
         <f>(Q69-P69)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6277,7 +6305,7 @@
         <v>76</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6293,16 +6321,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E70" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6314,11 +6342,11 @@
       <c r="I70" s="34">
         <v>298</v>
       </c>
-      <c r="J70" s="139">
+      <c r="J70" s="137">
         <f t="shared" si="0"/>
         <v>6038386837.2943306</v>
       </c>
-      <c r="K70" s="139">
+      <c r="K70" s="137">
         <f t="shared" ref="K70:K76" si="1">(Q70-P70)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6329,7 +6357,7 @@
         <v>76</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6345,16 +6373,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E71" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6366,11 +6394,11 @@
       <c r="I71" s="34">
         <v>298</v>
       </c>
-      <c r="J71" s="139">
+      <c r="J71" s="137">
         <f t="shared" si="0"/>
         <v>6690991590.4935989</v>
       </c>
-      <c r="K71" s="139">
+      <c r="K71" s="137">
         <f t="shared" si="1"/>
         <v>288652102.37659782</v>
       </c>
@@ -6381,7 +6409,7 @@
         <v>76</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6397,16 +6425,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E72" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6418,11 +6446,11 @@
       <c r="I72" s="34">
         <v>298</v>
       </c>
-      <c r="J72" s="139">
+      <c r="J72" s="137">
         <f t="shared" si="0"/>
         <v>6929443327.2394876</v>
       </c>
-      <c r="K72" s="139">
+      <c r="K72" s="137">
         <f t="shared" si="1"/>
         <v>376502742.23034215</v>
       </c>
@@ -6433,7 +6461,7 @@
         <v>76</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6449,16 +6477,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6470,11 +6498,11 @@
       <c r="I73" s="34">
         <v>298</v>
       </c>
-      <c r="J73" s="139">
+      <c r="J73" s="137">
         <f t="shared" si="0"/>
         <v>4370646088.794919</v>
       </c>
-      <c r="K73" s="139">
+      <c r="K73" s="137">
         <f t="shared" si="1"/>
         <v>362838266.38477683</v>
       </c>
@@ -6482,10 +6510,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6501,16 +6529,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6522,11 +6550,11 @@
       <c r="I74" s="34">
         <v>298</v>
       </c>
-      <c r="J74" s="139">
+      <c r="J74" s="137">
         <f t="shared" si="0"/>
         <v>5417693657.5052862</v>
       </c>
-      <c r="K74" s="139">
+      <c r="K74" s="137">
         <f t="shared" si="1"/>
         <v>269536997.88582945</v>
       </c>
@@ -6534,10 +6562,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6553,16 +6581,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E75" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6574,11 +6602,11 @@
       <c r="I75" s="34">
         <v>298</v>
       </c>
-      <c r="J75" s="139">
+      <c r="J75" s="137">
         <f t="shared" si="0"/>
         <v>5127423044.3974543</v>
       </c>
-      <c r="K75" s="139">
+      <c r="K75" s="137">
         <f t="shared" si="1"/>
         <v>342104651.16279542</v>
       </c>
@@ -6586,10 +6614,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6605,16 +6633,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E76" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6626,11 +6654,11 @@
       <c r="I76" s="34">
         <v>298</v>
       </c>
-      <c r="J76" s="139">
+      <c r="J76" s="137">
         <f t="shared" si="0"/>
         <v>5013388160.6765261</v>
       </c>
-      <c r="K76" s="139">
+      <c r="K76" s="137">
         <f t="shared" si="1"/>
         <v>238436575.05285701</v>
       </c>
@@ -6638,10 +6666,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6657,16 +6685,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E77" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>68</v>
@@ -6686,10 +6714,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6701,16 +6729,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E78" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>68</v>
@@ -6730,10 +6758,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6745,16 +6773,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>68</v>
@@ -6774,10 +6802,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6789,16 +6817,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E80" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>66</v>
@@ -6818,10 +6846,10 @@
         <v>67</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6833,16 +6861,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>151</v>
-      </c>
       <c r="E81" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>66</v>
@@ -6862,10 +6890,10 @@
         <v>67</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6877,16 +6905,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>66</v>
@@ -6906,10 +6934,10 @@
         <v>67</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6921,16 +6949,16 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="E83" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>71</v>
@@ -6951,7 +6979,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6963,16 +6991,16 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="D84" s="30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>71</v>
@@ -6993,7 +7021,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -7005,16 +7033,16 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="E85" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>73</v>
@@ -7035,7 +7063,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -7047,16 +7075,16 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="D86" s="30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>73</v>
@@ -7077,7 +7105,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -7089,16 +7117,16 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="E87" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>72</v>
@@ -7119,7 +7147,7 @@
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -7131,16 +7159,16 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="D88" s="30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>72</v>
@@ -7161,7 +7189,7 @@
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -7173,13 +7201,13 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
@@ -7201,7 +7229,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -7213,13 +7241,13 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
@@ -7241,7 +7269,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7253,13 +7281,13 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
@@ -7281,7 +7309,7 @@
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7293,10 +7321,10 @@
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>69</v>
@@ -7312,7 +7340,7 @@
       <c r="I92" s="34">
         <v>298</v>
       </c>
-      <c r="J92" s="139">
+      <c r="J92" s="137">
         <f t="shared" ref="J92" si="2">P92*9807000</f>
         <v>1765260000</v>
       </c>
@@ -7321,10 +7349,10 @@
         <v>33</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O92" s="46"/>
       <c r="P92" s="47">
@@ -7338,7 +7366,7 @@
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>74</v>
@@ -7348,7 +7376,7 @@
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7365,10 +7393,10 @@
         <v>67</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
@@ -7380,17 +7408,17 @@
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7407,10 +7435,10 @@
         <v>67</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
@@ -7422,17 +7450,17 @@
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -7449,10 +7477,10 @@
         <v>67</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
@@ -7464,7 +7492,7 @@
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>74</v>
@@ -7492,10 +7520,10 @@
         <v>67</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O96" s="46"/>
       <c r="P96" s="46">
@@ -7511,10 +7539,10 @@
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>69</v>
@@ -7539,10 +7567,10 @@
         <v>67</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N97" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O97" s="46"/>
       <c r="P97" s="46">
@@ -7558,10 +7586,10 @@
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>69</v>
@@ -7586,10 +7614,10 @@
         <v>67</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O98" s="46"/>
       <c r="P98" s="46">
@@ -7605,10 +7633,10 @@
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>69</v>
@@ -7633,10 +7661,10 @@
         <v>67</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O99" s="46"/>
       <c r="P99" s="46">
@@ -7652,10 +7680,10 @@
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>69</v>
@@ -7680,10 +7708,10 @@
         <v>67</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N100" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O100" s="46"/>
       <c r="P100" s="46">
@@ -7699,10 +7727,10 @@
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>69</v>
@@ -7727,10 +7755,10 @@
         <v>67</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N101" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O101" s="46"/>
       <c r="P101" s="46">
@@ -7746,10 +7774,10 @@
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>69</v>
@@ -7774,10 +7802,10 @@
         <v>67</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O102" s="46"/>
       <c r="P102" s="46">
@@ -7793,7 +7821,7 @@
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>74</v>
@@ -7803,7 +7831,7 @@
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>29</v>
@@ -7820,10 +7848,10 @@
         <v>33</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
@@ -7835,17 +7863,17 @@
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>29</v>
@@ -7862,10 +7890,10 @@
         <v>33</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
@@ -7877,17 +7905,17 @@
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>29</v>
@@ -7904,10 +7932,10 @@
         <v>33</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
@@ -7919,7 +7947,7 @@
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="51"/>
       <c r="B106" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>64</v>
@@ -7928,7 +7956,7 @@
         <v>63</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -7941,7 +7969,7 @@
         <v>79</v>
       </c>
       <c r="N106" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O106" s="46"/>
       <c r="P106" s="39"/>
@@ -7953,7 +7981,7 @@
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>64</v>
@@ -7962,7 +7990,7 @@
         <v>63</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -7975,7 +8003,7 @@
         <v>79</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O107" s="46"/>
       <c r="P107" s="39"/>
@@ -7987,16 +8015,16 @@
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -8009,7 +8037,7 @@
         <v>79</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O108" s="46"/>
       <c r="P108" s="39"/>
@@ -8021,16 +8049,16 @@
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="51"/>
       <c r="B109" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -8043,7 +8071,7 @@
         <v>79</v>
       </c>
       <c r="N109" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O109" s="37"/>
       <c r="P109" s="39"/>
@@ -8055,16 +8083,16 @@
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -8077,7 +8105,7 @@
         <v>76</v>
       </c>
       <c r="N110" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O110" s="37"/>
       <c r="P110" s="39"/>
@@ -8089,16 +8117,16 @@
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -8111,7 +8139,7 @@
         <v>76</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O111" s="46"/>
       <c r="P111" s="47"/>
@@ -8123,16 +8151,16 @@
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
       <c r="B112" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -8145,7 +8173,7 @@
         <v>76</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O112" s="46"/>
       <c r="P112" s="47"/>
@@ -8157,16 +8185,16 @@
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -8179,7 +8207,7 @@
         <v>76</v>
       </c>
       <c r="N113" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O113" s="46"/>
       <c r="P113" s="47"/>
@@ -8190,19 +8218,19 @@
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
       <c r="A114" s="51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>62</v>
@@ -8214,11 +8242,11 @@
       <c r="I114" s="38">
         <v>298</v>
       </c>
-      <c r="J114" s="139">
+      <c r="J114" s="137">
         <f t="shared" ref="J114:K116" si="4">P114*9807000</f>
         <v>4776009000</v>
       </c>
-      <c r="K114" s="139">
+      <c r="K114" s="137">
         <f t="shared" si="4"/>
         <v>176526000</v>
       </c>
@@ -8229,7 +8257,7 @@
         <v>80</v>
       </c>
       <c r="N114" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O114" s="46"/>
       <c r="P114" s="47">
@@ -8244,19 +8272,19 @@
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
       <c r="A115" s="51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>62</v>
@@ -8268,11 +8296,11 @@
       <c r="I115" s="38">
         <v>298</v>
       </c>
-      <c r="J115" s="139">
+      <c r="J115" s="137">
         <f t="shared" si="4"/>
         <v>5511534000</v>
       </c>
-      <c r="K115" s="139">
+      <c r="K115" s="137">
         <f t="shared" si="4"/>
         <v>196140000</v>
       </c>
@@ -8283,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O115" s="46"/>
       <c r="P115" s="47">
@@ -8298,19 +8326,19 @@
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
       <c r="A116" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C116" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>194</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>62</v>
@@ -8322,11 +8350,11 @@
       <c r="I116" s="38">
         <v>298</v>
       </c>
-      <c r="J116" s="139">
+      <c r="J116" s="137">
         <f t="shared" si="4"/>
         <v>6619725000</v>
       </c>
-      <c r="K116" s="139">
+      <c r="K116" s="137">
         <f t="shared" si="4"/>
         <v>460929000</v>
       </c>
@@ -8337,7 +8365,7 @@
         <v>80</v>
       </c>
       <c r="N116" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O116" s="46"/>
       <c r="P116" s="39">
@@ -8353,7 +8381,7 @@
     <row r="117" spans="1:20" ht="18" customHeight="1">
       <c r="A117" s="38"/>
       <c r="B117" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>74</v>
@@ -8363,7 +8391,7 @@
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>29</v>
@@ -8377,7 +8405,7 @@
       </c>
       <c r="K117" s="49"/>
       <c r="L117" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M117" s="32" t="s">
         <v>85</v>
@@ -8395,7 +8423,7 @@
     <row r="118" spans="1:20" ht="18" customHeight="1">
       <c r="A118" s="30"/>
       <c r="B118" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C118" s="30" t="s">
         <v>74</v>
@@ -8405,7 +8433,7 @@
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>29</v>
@@ -8419,7 +8447,7 @@
       </c>
       <c r="K118" s="49"/>
       <c r="L118" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M118" s="32" t="s">
         <v>85</v>
@@ -8437,7 +8465,7 @@
     <row r="119" spans="1:20" ht="18" customHeight="1">
       <c r="A119" s="30"/>
       <c r="B119" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C119" s="30" t="s">
         <v>74</v>
@@ -8447,7 +8475,7 @@
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>29</v>
@@ -8461,7 +8489,7 @@
       </c>
       <c r="K119" s="49"/>
       <c r="L119" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M119" s="32" t="s">
         <v>85</v>
@@ -8479,7 +8507,7 @@
     <row r="120" spans="1:20" ht="18" customHeight="1">
       <c r="A120" s="51"/>
       <c r="B120" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C120" s="30" t="s">
         <v>75</v>
@@ -8489,7 +8517,7 @@
       </c>
       <c r="E120" s="31"/>
       <c r="F120" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>29</v>
@@ -8503,7 +8531,7 @@
       </c>
       <c r="K120" s="49"/>
       <c r="L120" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M120" s="32" t="s">
         <v>85</v>
@@ -8521,7 +8549,7 @@
     <row r="121" spans="1:20" ht="18" customHeight="1">
       <c r="A121" s="51"/>
       <c r="B121" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>64</v>
@@ -8531,7 +8559,7 @@
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>29</v>
@@ -8545,7 +8573,7 @@
       </c>
       <c r="K121" s="49"/>
       <c r="L121" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M121" s="32" t="s">
         <v>85</v>
@@ -8563,7 +8591,7 @@
     <row r="122" spans="1:20" ht="18" customHeight="1">
       <c r="A122" s="51"/>
       <c r="B122" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>74</v>
@@ -8605,7 +8633,7 @@
     <row r="123" spans="1:20" ht="18" customHeight="1">
       <c r="A123" s="51"/>
       <c r="B123" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>74</v>
@@ -8647,7 +8675,7 @@
     <row r="124" spans="1:20" ht="18" customHeight="1">
       <c r="A124" s="51"/>
       <c r="B124" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>74</v>
@@ -8689,7 +8717,7 @@
     <row r="125" spans="1:20" ht="18" customHeight="1">
       <c r="A125" s="51"/>
       <c r="B125" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C125" s="30" t="s">
         <v>75</v>
@@ -8731,7 +8759,7 @@
     <row r="126" spans="1:20" ht="18" customHeight="1">
       <c r="A126" s="51"/>
       <c r="B126" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C126" s="30" t="s">
         <v>64</v>
@@ -8773,13 +8801,13 @@
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="51"/>
       <c r="B127" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127" s="138" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E127" s="31"/>
       <c r="F127" s="32" t="s">
@@ -8789,7 +8817,7 @@
         <v>29</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I127" s="38">
         <v>298</v>
@@ -8817,13 +8845,13 @@
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="30"/>
       <c r="B128" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E128" s="31"/>
       <c r="F128" s="32" t="s">
@@ -8833,7 +8861,7 @@
         <v>29</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I128" s="38">
         <v>298</v>
@@ -8861,13 +8889,13 @@
     <row r="129" spans="1:20" ht="18" customHeight="1">
       <c r="A129" s="30"/>
       <c r="B129" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="C129" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E129" s="31"/>
       <c r="F129" s="32" t="s">
@@ -8877,7 +8905,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I129" s="38">
         <v>298</v>
@@ -8905,13 +8933,13 @@
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="30"/>
       <c r="B130" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="C130" s="139" t="s">
         <v>75</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E130" s="31"/>
       <c r="F130" s="32" t="s">
@@ -8921,7 +8949,7 @@
         <v>29</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I130" s="38">
         <v>298</v>
@@ -8949,13 +8977,13 @@
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30"/>
       <c r="B131" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C131" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E131" s="31"/>
       <c r="F131" s="32" t="s">
@@ -8965,7 +8993,7 @@
         <v>29</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I131" s="38">
         <v>298</v>
@@ -8993,23 +9021,23 @@
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="51"/>
       <c r="B132" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="C132" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C132" s="138" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E132" s="31"/>
       <c r="F132" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G132" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I132" s="38">
         <v>298</v>
@@ -9037,23 +9065,23 @@
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="30"/>
       <c r="B133" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="C133" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E133" s="31"/>
       <c r="F133" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G133" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H133" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I133" s="38">
         <v>298</v>
@@ -9081,23 +9109,23 @@
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="30"/>
       <c r="B134" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="C134" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="C134" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E134" s="31"/>
       <c r="F134" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G134" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H134" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I134" s="38">
         <v>298</v>
@@ -9125,23 +9153,23 @@
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="30"/>
       <c r="B135" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C135" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="C135" s="139" t="s">
         <v>75</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E135" s="31"/>
       <c r="F135" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G135" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H135" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I135" s="38">
         <v>298</v>
@@ -9169,13 +9197,13 @@
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="30"/>
       <c r="B136" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C136" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E136" s="31"/>
       <c r="F136" s="32" t="s">
@@ -9185,7 +9213,7 @@
         <v>29</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I136" s="38">
         <v>298</v>
@@ -9213,13 +9241,13 @@
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="55"/>
       <c r="B137" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" s="138" t="s">
         <v>74</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E137" s="31"/>
       <c r="F137" s="32" t="s">
@@ -9229,7 +9257,7 @@
         <v>29</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I137" s="38">
         <v>298</v>
@@ -9257,13 +9285,13 @@
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="42"/>
       <c r="B138" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="C138" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="C138" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E138" s="31"/>
       <c r="F138" s="32" t="s">
@@ -9273,7 +9301,7 @@
         <v>29</v>
       </c>
       <c r="H138" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I138" s="38">
         <v>298</v>
@@ -9301,13 +9329,13 @@
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="42"/>
       <c r="B139" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="C139" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="C139" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E139" s="31"/>
       <c r="F139" s="32" t="s">
@@ -9317,7 +9345,7 @@
         <v>29</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I139" s="38">
         <v>298</v>
@@ -9345,13 +9373,13 @@
     <row r="140" spans="1:20" ht="18" customHeight="1">
       <c r="A140" s="42"/>
       <c r="B140" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C140" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="C140" s="139" t="s">
         <v>75</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E140" s="31"/>
       <c r="F140" s="32" t="s">
@@ -9361,7 +9389,7 @@
         <v>29</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I140" s="38">
         <v>298</v>
@@ -9389,13 +9417,13 @@
     <row r="141" spans="1:20" ht="18" customHeight="1">
       <c r="A141" s="42"/>
       <c r="B141" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C141" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E141" s="31"/>
       <c r="F141" s="32" t="s">
@@ -9405,7 +9433,7 @@
         <v>29</v>
       </c>
       <c r="H141" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I141" s="38">
         <v>298</v>
@@ -9433,23 +9461,23 @@
     <row r="142" spans="1:20" ht="18" customHeight="1">
       <c r="A142" s="55"/>
       <c r="B142" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C142" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E142" s="31"/>
       <c r="F142" s="32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G142" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H142" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I142" s="34">
         <v>298</v>
@@ -9477,17 +9505,17 @@
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="42"/>
       <c r="B143" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C143" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E143" s="31"/>
       <c r="F143" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G143" s="32" t="s">
         <v>29</v>
@@ -9501,7 +9529,7 @@
       </c>
       <c r="K143" s="49"/>
       <c r="L143" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M143" s="50"/>
       <c r="N143" s="30" t="s">
@@ -9517,19 +9545,19 @@
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="42"/>
       <c r="B144" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C144" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G144" s="32" t="s">
         <v>29</v>
@@ -9543,10 +9571,10 @@
       </c>
       <c r="K144" s="49"/>
       <c r="L144" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M144" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N144" s="30" t="s">
         <v>214</v>
@@ -9561,19 +9589,19 @@
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="42"/>
       <c r="B145" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C145" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G145" s="32" t="s">
         <v>29</v>
@@ -9587,10 +9615,10 @@
       </c>
       <c r="K145" s="49"/>
       <c r="L145" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N145" s="30" t="s">
         <v>214</v>
@@ -9605,19 +9633,19 @@
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="42"/>
       <c r="B146" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C146" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G146" s="32" t="s">
         <v>29</v>
@@ -9631,10 +9659,10 @@
       </c>
       <c r="K146" s="53"/>
       <c r="L146" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M146" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N146" s="30" t="s">
         <v>214</v>
@@ -9649,19 +9677,19 @@
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="55"/>
       <c r="B147" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C147" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G147" s="32" t="s">
         <v>29</v>
@@ -9675,10 +9703,10 @@
       </c>
       <c r="K147" s="53"/>
       <c r="L147" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M147" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N147" s="30" t="s">
         <v>214</v>
@@ -9693,16 +9721,16 @@
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="42"/>
       <c r="B148" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C148" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F148" s="54" t="s">
         <v>83</v>
@@ -9722,7 +9750,7 @@
         <v>84</v>
       </c>
       <c r="M148" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N148" s="30" t="s">
         <v>214</v>
@@ -9737,16 +9765,16 @@
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="42"/>
       <c r="B149" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C149" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F149" s="54" t="s">
         <v>83</v>
@@ -9766,7 +9794,7 @@
         <v>84</v>
       </c>
       <c r="M149" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N149" s="30" t="s">
         <v>214</v>
@@ -9781,16 +9809,16 @@
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="42"/>
       <c r="B150" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C150" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F150" s="54" t="s">
         <v>83</v>
@@ -9810,7 +9838,7 @@
         <v>84</v>
       </c>
       <c r="M150" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N150" s="30" t="s">
         <v>214</v>
@@ -9825,16 +9853,16 @@
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="42"/>
       <c r="B151" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C151" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F151" s="54" t="s">
         <v>83</v>
@@ -9854,7 +9882,7 @@
         <v>84</v>
       </c>
       <c r="M151" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N151" s="30" t="s">
         <v>214</v>
@@ -9869,16 +9897,16 @@
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="55"/>
       <c r="B152" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C152" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F152" s="54" t="s">
         <v>71</v>
@@ -9887,7 +9915,7 @@
         <v>29</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I152" s="34">
         <v>298</v>
@@ -9897,10 +9925,10 @@
       </c>
       <c r="K152" s="49"/>
       <c r="L152" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M152" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N152" s="30" t="s">
         <v>214</v>
@@ -9915,16 +9943,16 @@
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="42"/>
       <c r="B153" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C153" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F153" s="54" t="s">
         <v>71</v>
@@ -9933,7 +9961,7 @@
         <v>29</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I153" s="34">
         <v>298</v>
@@ -9943,10 +9971,10 @@
       </c>
       <c r="K153" s="49"/>
       <c r="L153" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M153" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N153" s="30" t="s">
         <v>214</v>
@@ -9961,16 +9989,16 @@
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="42"/>
       <c r="B154" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C154" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F154" s="54" t="s">
         <v>71</v>
@@ -9979,7 +10007,7 @@
         <v>29</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I154" s="34">
         <v>298</v>
@@ -9989,10 +10017,10 @@
       </c>
       <c r="K154" s="49"/>
       <c r="L154" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M154" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N154" s="30" t="s">
         <v>214</v>
@@ -10007,16 +10035,16 @@
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="42"/>
       <c r="B155" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C155" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F155" s="54" t="s">
         <v>71</v>
@@ -10025,7 +10053,7 @@
         <v>29</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I155" s="34">
         <v>298</v>
@@ -10035,10 +10063,10 @@
       </c>
       <c r="K155" s="49"/>
       <c r="L155" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M155" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N155" s="30" t="s">
         <v>214</v>
@@ -10053,16 +10081,16 @@
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="42"/>
       <c r="B156" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C156" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F156" s="54" t="s">
         <v>73</v>
@@ -10071,7 +10099,7 @@
         <v>29</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I156" s="34">
         <v>298</v>
@@ -10081,10 +10109,10 @@
       </c>
       <c r="K156" s="38"/>
       <c r="L156" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M156" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N156" s="30" t="s">
         <v>214</v>
@@ -10099,16 +10127,16 @@
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="30"/>
       <c r="B157" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C157" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F157" s="54" t="s">
         <v>73</v>
@@ -10117,7 +10145,7 @@
         <v>29</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I157" s="34">
         <v>298</v>
@@ -10127,10 +10155,10 @@
       </c>
       <c r="K157" s="38"/>
       <c r="L157" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M157" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N157" s="30" t="s">
         <v>214</v>
@@ -10145,16 +10173,16 @@
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="38"/>
       <c r="B158" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C158" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F158" s="54" t="s">
         <v>73</v>
@@ -10163,7 +10191,7 @@
         <v>29</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I158" s="34">
         <v>298</v>
@@ -10173,10 +10201,10 @@
       </c>
       <c r="K158" s="38"/>
       <c r="L158" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M158" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N158" s="30" t="s">
         <v>214</v>
@@ -10191,16 +10219,16 @@
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="38"/>
       <c r="B159" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C159" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F159" s="54" t="s">
         <v>73</v>
@@ -10209,7 +10237,7 @@
         <v>29</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I159" s="34">
         <v>298</v>
@@ -10219,10 +10247,10 @@
       </c>
       <c r="K159" s="38"/>
       <c r="L159" s="50" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M159" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N159" s="30" t="s">
         <v>214</v>
@@ -10237,16 +10265,16 @@
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="38"/>
       <c r="B160" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C160" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F160" s="54" t="s">
         <v>72</v>
@@ -10255,7 +10283,7 @@
         <v>29</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I160" s="34">
         <v>298</v>
@@ -10268,7 +10296,7 @@
         <v>67</v>
       </c>
       <c r="M160" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N160" s="30" t="s">
         <v>214</v>
@@ -10283,16 +10311,16 @@
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="38"/>
       <c r="B161" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C161" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F161" s="54" t="s">
         <v>72</v>
@@ -10301,7 +10329,7 @@
         <v>29</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I161" s="34">
         <v>298</v>
@@ -10314,7 +10342,7 @@
         <v>67</v>
       </c>
       <c r="M161" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N161" s="30" t="s">
         <v>214</v>
@@ -10329,16 +10357,16 @@
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="38"/>
       <c r="B162" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C162" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F162" s="54" t="s">
         <v>72</v>
@@ -10347,7 +10375,7 @@
         <v>29</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I162" s="34">
         <v>298</v>
@@ -10360,7 +10388,7 @@
         <v>67</v>
       </c>
       <c r="M162" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N162" s="30" t="s">
         <v>214</v>
@@ -10375,16 +10403,16 @@
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="38"/>
       <c r="B163" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C163" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F163" s="54" t="s">
         <v>72</v>
@@ -10393,7 +10421,7 @@
         <v>29</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I163" s="34">
         <v>298</v>
@@ -10406,7 +10434,7 @@
         <v>67</v>
       </c>
       <c r="M163" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N163" s="30" t="s">
         <v>214</v>
@@ -10423,7 +10451,7 @@
         <v>217</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C164" s="30" t="s">
         <v>74</v>
@@ -10433,7 +10461,7 @@
       </c>
       <c r="E164" s="31"/>
       <c r="F164" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G164" s="32" t="s">
         <v>29</v>
@@ -10449,7 +10477,7 @@
       </c>
       <c r="K164" s="38"/>
       <c r="L164" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M164" s="50" t="s">
         <v>85</v>
@@ -10483,7 +10511,7 @@
         <v>221</v>
       </c>
       <c r="F165" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G165" s="32" t="s">
         <v>29</v>
@@ -10499,7 +10527,7 @@
       </c>
       <c r="K165" s="38"/>
       <c r="L165" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M165" s="50" t="s">
         <v>85</v>
@@ -10533,7 +10561,7 @@
         <v>222</v>
       </c>
       <c r="F166" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G166" s="32" t="s">
         <v>29</v>
@@ -10549,7 +10577,7 @@
       </c>
       <c r="K166" s="38"/>
       <c r="L166" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M166" s="50" t="s">
         <v>85</v>
@@ -10571,7 +10599,7 @@
         <v>217</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C167" s="30" t="s">
         <v>74</v>
@@ -10581,7 +10609,7 @@
       </c>
       <c r="E167" s="31"/>
       <c r="F167" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G167" s="32" t="s">
         <v>29</v>
@@ -10596,7 +10624,7 @@
       </c>
       <c r="K167" s="38"/>
       <c r="L167" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M167" s="50" t="s">
         <v>85</v>
@@ -10630,7 +10658,7 @@
         <v>221</v>
       </c>
       <c r="F168" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G168" s="32" t="s">
         <v>29</v>
@@ -10645,7 +10673,7 @@
       </c>
       <c r="K168" s="38"/>
       <c r="L168" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M168" s="50" t="s">
         <v>85</v>
@@ -10679,7 +10707,7 @@
         <v>222</v>
       </c>
       <c r="F169" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G169" s="32" t="s">
         <v>29</v>
@@ -10694,7 +10722,7 @@
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M169" s="50" t="s">
         <v>85</v>
@@ -10716,7 +10744,7 @@
         <v>217</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C170" s="30" t="s">
         <v>74</v>
@@ -10726,7 +10754,7 @@
       </c>
       <c r="E170" s="31"/>
       <c r="F170" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G170" s="32" t="s">
         <v>29</v>
@@ -10741,7 +10769,7 @@
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M170" s="50" t="s">
         <v>85</v>
@@ -10775,7 +10803,7 @@
         <v>221</v>
       </c>
       <c r="F171" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G171" s="32" t="s">
         <v>29</v>
@@ -10790,7 +10818,7 @@
       </c>
       <c r="K171" s="38"/>
       <c r="L171" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M171" s="50" t="s">
         <v>85</v>
@@ -10824,7 +10852,7 @@
         <v>222</v>
       </c>
       <c r="F172" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G172" s="32" t="s">
         <v>29</v>
@@ -10839,7 +10867,7 @@
       </c>
       <c r="K172" s="38"/>
       <c r="L172" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M172" s="50" t="s">
         <v>85</v>
@@ -10861,7 +10889,7 @@
         <v>217</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C173" s="30" t="s">
         <v>74</v>
@@ -10871,7 +10899,7 @@
       </c>
       <c r="E173" s="31"/>
       <c r="F173" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G173" s="32" t="s">
         <v>29</v>
@@ -10886,7 +10914,7 @@
       </c>
       <c r="K173" s="38"/>
       <c r="L173" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M173" s="50" t="s">
         <v>85</v>
@@ -10920,7 +10948,7 @@
         <v>221</v>
       </c>
       <c r="F174" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G174" s="32" t="s">
         <v>29</v>
@@ -10935,7 +10963,7 @@
       </c>
       <c r="K174" s="38"/>
       <c r="L174" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M174" s="50" t="s">
         <v>85</v>
@@ -10969,7 +10997,7 @@
         <v>222</v>
       </c>
       <c r="F175" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G175" s="32" t="s">
         <v>29</v>
@@ -10984,7 +11012,7 @@
       </c>
       <c r="K175" s="38"/>
       <c r="L175" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M175" s="50" t="s">
         <v>85</v>
@@ -11006,7 +11034,7 @@
         <v>217</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C176" s="30" t="s">
         <v>74</v>
@@ -11016,7 +11044,7 @@
       </c>
       <c r="E176" s="31"/>
       <c r="F176" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G176" s="32" t="s">
         <v>29</v>
@@ -11031,7 +11059,7 @@
       </c>
       <c r="K176" s="38"/>
       <c r="L176" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M176" s="50" t="s">
         <v>85</v>
@@ -11065,7 +11093,7 @@
         <v>221</v>
       </c>
       <c r="F177" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G177" s="32" t="s">
         <v>29</v>
@@ -11080,7 +11108,7 @@
       </c>
       <c r="K177" s="38"/>
       <c r="L177" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M177" s="50" t="s">
         <v>85</v>
@@ -11114,7 +11142,7 @@
         <v>222</v>
       </c>
       <c r="F178" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G178" s="32" t="s">
         <v>29</v>
@@ -11129,7 +11157,7 @@
       </c>
       <c r="K178" s="38"/>
       <c r="L178" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M178" s="50" t="s">
         <v>85</v>
@@ -11151,7 +11179,7 @@
         <v>217</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C179" s="30" t="s">
         <v>74</v>
@@ -11161,7 +11189,7 @@
       </c>
       <c r="E179" s="31"/>
       <c r="F179" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G179" s="32" t="s">
         <v>29</v>
@@ -11176,7 +11204,7 @@
       </c>
       <c r="K179" s="38"/>
       <c r="L179" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M179" s="50" t="s">
         <v>85</v>
@@ -11210,7 +11238,7 @@
         <v>221</v>
       </c>
       <c r="F180" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G180" s="32" t="s">
         <v>29</v>
@@ -11225,7 +11253,7 @@
       </c>
       <c r="K180" s="38"/>
       <c r="L180" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M180" s="50" t="s">
         <v>85</v>
@@ -11259,7 +11287,7 @@
         <v>222</v>
       </c>
       <c r="F181" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G181" s="32" t="s">
         <v>29</v>
@@ -11274,7 +11302,7 @@
       </c>
       <c r="K181" s="38"/>
       <c r="L181" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M181" s="50" t="s">
         <v>85</v>
@@ -11296,7 +11324,7 @@
         <v>217</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C182" s="30" t="s">
         <v>74</v>
@@ -11444,7 +11472,7 @@
         <v>217</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C185" s="30" t="s">
         <v>74</v>
@@ -11589,7 +11617,7 @@
         <v>217</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C188" s="30" t="s">
         <v>74</v>
@@ -11734,7 +11762,7 @@
         <v>217</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C191" s="30" t="s">
         <v>74</v>
@@ -11879,7 +11907,7 @@
         <v>217</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C194" s="30" t="s">
         <v>74</v>
@@ -12024,7 +12052,7 @@
         <v>217</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C197" s="30" t="s">
         <v>74</v>
@@ -12169,7 +12197,7 @@
         <v>217</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C200" s="30" t="s">
         <v>74</v>
@@ -12305,7 +12333,7 @@
         <v>217</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C203" s="30" t="s">
         <v>74</v>
@@ -12441,7 +12469,7 @@
         <v>217</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C206" s="30" t="s">
         <v>74</v>
@@ -12577,7 +12605,7 @@
         <v>217</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C209" s="30" t="s">
         <v>74</v>
@@ -12713,7 +12741,7 @@
         <v>217</v>
       </c>
       <c r="B212" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C212" s="30" t="s">
         <v>74</v>
@@ -12845,174 +12873,385 @@
       <c r="T214" s="37"/>
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
-      <c r="A215" s="38"/>
-      <c r="B215" s="96"/>
-      <c r="C215" s="57"/>
-      <c r="D215" s="97"/>
-      <c r="E215" s="98"/>
-      <c r="F215" s="56"/>
-      <c r="G215" s="32"/>
+      <c r="A215" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D215" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E215" s="31"/>
+      <c r="F215" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G215" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H215" s="59"/>
-      <c r="I215" s="38"/>
-      <c r="J215" s="38"/>
+      <c r="I215" s="38">
+        <v>298</v>
+      </c>
+      <c r="J215" s="137">
+        <f t="shared" ref="J215:J221" si="9">P215*9807000</f>
+        <v>1372652006.6889586</v>
+      </c>
       <c r="K215" s="38"/>
-      <c r="L215" s="40"/>
-      <c r="M215" s="40"/>
-      <c r="N215" s="40"/>
+      <c r="L215" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M215" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N215" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O215" s="37"/>
-      <c r="P215" s="38"/>
+      <c r="P215" s="37">
+        <v>139.96655518394601</v>
+      </c>
       <c r="Q215" s="38"/>
       <c r="R215" s="37"/>
       <c r="S215" s="37"/>
       <c r="T215" s="37"/>
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
-      <c r="A216" s="38"/>
-      <c r="B216" s="96"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="97"/>
-      <c r="E216" s="98"/>
-      <c r="F216" s="56"/>
-      <c r="G216" s="32"/>
+      <c r="A216" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D216" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F216" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G216" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H216" s="59"/>
-      <c r="I216" s="38"/>
-      <c r="J216" s="53"/>
+      <c r="I216" s="38">
+        <v>298</v>
+      </c>
+      <c r="J216" s="137">
+        <f t="shared" si="9"/>
+        <v>2986379096.9899654</v>
+      </c>
       <c r="K216" s="38"/>
-      <c r="L216" s="40"/>
-      <c r="M216" s="40"/>
-      <c r="N216" s="40"/>
+      <c r="L216" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M216" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N216" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O216" s="45"/>
-      <c r="P216" s="38"/>
+      <c r="P216" s="45">
+        <v>304.51505016722399</v>
+      </c>
       <c r="Q216" s="45"/>
       <c r="R216" s="37"/>
       <c r="S216" s="37"/>
       <c r="T216" s="37"/>
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
-      <c r="A217" s="38"/>
-      <c r="B217" s="96"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="97"/>
-      <c r="E217" s="98"/>
-      <c r="F217" s="56"/>
-      <c r="G217" s="32"/>
+      <c r="A217" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F217" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G217" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H217" s="59"/>
-      <c r="I217" s="38"/>
-      <c r="J217" s="53"/>
+      <c r="I217" s="38">
+        <v>298</v>
+      </c>
+      <c r="J217" s="137">
+        <f t="shared" si="9"/>
+        <v>5033057357.8595304</v>
+      </c>
       <c r="K217" s="38"/>
-      <c r="L217" s="40"/>
-      <c r="M217" s="40"/>
-      <c r="N217" s="40"/>
+      <c r="L217" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M217" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N217" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O217" s="45"/>
-      <c r="P217" s="38"/>
+      <c r="P217" s="45">
+        <v>513.21070234113699</v>
+      </c>
       <c r="Q217" s="45"/>
       <c r="R217" s="37"/>
       <c r="S217" s="37"/>
       <c r="T217" s="37"/>
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
-      <c r="A218" s="40"/>
-      <c r="B218" s="41"/>
-      <c r="C218" s="57"/>
-      <c r="D218" s="57"/>
-      <c r="E218" s="58"/>
-      <c r="F218" s="56"/>
-      <c r="G218" s="32"/>
+      <c r="A218" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B218" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D218" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F218" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G218" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H218" s="59"/>
-      <c r="I218" s="38"/>
-      <c r="J218" s="53"/>
+      <c r="I218" s="38">
+        <v>298</v>
+      </c>
+      <c r="J218" s="137">
+        <f t="shared" si="9"/>
+        <v>4993698160.5351105</v>
+      </c>
       <c r="K218" s="38"/>
-      <c r="L218" s="40"/>
-      <c r="M218" s="40"/>
-      <c r="N218" s="40"/>
+      <c r="L218" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M218" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N218" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O218" s="45"/>
-      <c r="P218" s="38"/>
+      <c r="P218" s="45">
+        <v>509.19732441471501</v>
+      </c>
       <c r="Q218" s="45"/>
       <c r="R218" s="37"/>
       <c r="S218" s="37"/>
       <c r="T218" s="37"/>
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
-      <c r="A219" s="40"/>
-      <c r="B219" s="31"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="57"/>
-      <c r="E219" s="58"/>
-      <c r="F219" s="56"/>
-      <c r="G219" s="32"/>
+      <c r="A219" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B219" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D219" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F219" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G219" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H219" s="59"/>
-      <c r="I219" s="38"/>
-      <c r="J219" s="53"/>
+      <c r="I219" s="38">
+        <v>298</v>
+      </c>
+      <c r="J219" s="137">
+        <f t="shared" si="9"/>
+        <v>5859600501.6722345</v>
+      </c>
       <c r="K219" s="38"/>
-      <c r="L219" s="40"/>
-      <c r="M219" s="40"/>
-      <c r="N219" s="40"/>
+      <c r="L219" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M219" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N219" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O219" s="45"/>
-      <c r="P219" s="38"/>
+      <c r="P219" s="45">
+        <v>597.49163879598598</v>
+      </c>
       <c r="Q219" s="45"/>
       <c r="R219" s="37"/>
       <c r="S219" s="37"/>
       <c r="T219" s="37"/>
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
-      <c r="A220" s="40"/>
-      <c r="B220" s="31"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="58"/>
-      <c r="F220" s="56"/>
-      <c r="G220" s="32"/>
+      <c r="A220" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B220" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D220" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E220" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F220" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G220" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H220" s="59"/>
-      <c r="I220" s="38"/>
-      <c r="J220" s="53"/>
+      <c r="I220" s="38">
+        <v>298</v>
+      </c>
+      <c r="J220" s="137">
+        <f t="shared" si="9"/>
+        <v>5879280100.334445</v>
+      </c>
       <c r="K220" s="38"/>
-      <c r="L220" s="40"/>
-      <c r="M220" s="40"/>
-      <c r="N220" s="40"/>
+      <c r="L220" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M220" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N220" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O220" s="45"/>
-      <c r="P220" s="38"/>
+      <c r="P220" s="45">
+        <v>599.49832775919697</v>
+      </c>
       <c r="Q220" s="45"/>
       <c r="R220" s="37"/>
       <c r="S220" s="37"/>
       <c r="T220" s="37"/>
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
-      <c r="A221" s="40"/>
-      <c r="B221" s="41"/>
-      <c r="C221" s="57"/>
-      <c r="D221" s="57"/>
-      <c r="E221" s="58"/>
-      <c r="F221" s="56"/>
-      <c r="G221" s="32"/>
+      <c r="A221" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D221" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E221" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F221" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G221" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H221" s="59"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="53"/>
+      <c r="I221" s="38">
+        <v>298</v>
+      </c>
+      <c r="J221" s="137">
+        <f t="shared" si="9"/>
+        <v>8024356354.5150414</v>
+      </c>
       <c r="K221" s="38"/>
-      <c r="L221" s="40"/>
-      <c r="M221" s="40"/>
-      <c r="N221" s="40"/>
+      <c r="L221" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M221" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N221" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O221" s="45"/>
-      <c r="P221" s="38"/>
+      <c r="P221" s="45">
+        <v>818.22742474916299</v>
+      </c>
       <c r="Q221" s="45"/>
       <c r="R221" s="37"/>
       <c r="S221" s="37"/>
       <c r="T221" s="37"/>
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
-      <c r="A222" s="40"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="57"/>
-      <c r="E222" s="58"/>
-      <c r="F222" s="56"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="59"/>
-      <c r="I222" s="38"/>
-      <c r="J222" s="53"/>
+      <c r="A222" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C222" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D222" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E222" s="31"/>
+      <c r="F222" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G222" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H222" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I222" s="38">
+        <v>298</v>
+      </c>
+      <c r="J222" s="53">
+        <v>145000000</v>
+      </c>
       <c r="K222" s="38"/>
-      <c r="L222" s="40"/>
-      <c r="M222" s="40"/>
-      <c r="N222" s="40"/>
+      <c r="L222" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M222" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N222" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O222" s="45"/>
       <c r="P222" s="45"/>
       <c r="Q222" s="45"/>
@@ -13021,20 +13260,46 @@
       <c r="T222" s="37"/>
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
-      <c r="A223" s="40"/>
-      <c r="B223" s="31"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="57"/>
-      <c r="E223" s="58"/>
-      <c r="F223" s="56"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="59"/>
-      <c r="I223" s="38"/>
-      <c r="J223" s="53"/>
+      <c r="A223" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C223" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D223" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E223" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F223" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I223" s="38">
+        <v>298</v>
+      </c>
+      <c r="J223" s="53">
+        <v>423000000</v>
+      </c>
       <c r="K223" s="38"/>
-      <c r="L223" s="40"/>
-      <c r="M223" s="40"/>
-      <c r="N223" s="40"/>
+      <c r="L223" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M223" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N223" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O223" s="45"/>
       <c r="P223" s="45"/>
       <c r="Q223" s="45"/>
@@ -13043,20 +13308,46 @@
       <c r="T223" s="37"/>
     </row>
     <row r="224" spans="1:20" ht="18" customHeight="1">
-      <c r="A224" s="40"/>
-      <c r="B224" s="41"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="57"/>
-      <c r="E224" s="58"/>
-      <c r="F224" s="56"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="59"/>
-      <c r="I224" s="38"/>
-      <c r="J224" s="53"/>
+      <c r="A224" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C224" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D224" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F224" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I224" s="38">
+        <v>298</v>
+      </c>
+      <c r="J224" s="53">
+        <v>1475000000</v>
+      </c>
       <c r="K224" s="38"/>
-      <c r="L224" s="40"/>
-      <c r="M224" s="40"/>
-      <c r="N224" s="40"/>
+      <c r="L224" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M224" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N224" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O224" s="45"/>
       <c r="P224" s="45"/>
       <c r="Q224" s="45"/>
@@ -13065,20 +13356,46 @@
       <c r="T224" s="37"/>
     </row>
     <row r="225" spans="1:20" ht="18" customHeight="1">
-      <c r="A225" s="40"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="58"/>
-      <c r="F225" s="56"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="59"/>
-      <c r="I225" s="38"/>
-      <c r="J225" s="53"/>
+      <c r="A225" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D225" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E225" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F225" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I225" s="38">
+        <v>298</v>
+      </c>
+      <c r="J225" s="53">
+        <v>1414000000</v>
+      </c>
       <c r="K225" s="38"/>
-      <c r="L225" s="40"/>
-      <c r="M225" s="40"/>
-      <c r="N225" s="40"/>
+      <c r="L225" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M225" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N225" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O225" s="45"/>
       <c r="P225" s="45"/>
       <c r="Q225" s="45"/>
@@ -13087,20 +13404,44 @@
       <c r="T225" s="37"/>
     </row>
     <row r="226" spans="1:20" ht="18" customHeight="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="57"/>
-      <c r="E226" s="58"/>
-      <c r="F226" s="56"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="59"/>
-      <c r="I226" s="38"/>
-      <c r="J226" s="53"/>
+      <c r="A226" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D226" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E226" s="31"/>
+      <c r="F226" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I226" s="38">
+        <v>298</v>
+      </c>
+      <c r="J226" s="53">
+        <v>1600000000</v>
+      </c>
       <c r="K226" s="38"/>
-      <c r="L226" s="40"/>
-      <c r="M226" s="40"/>
-      <c r="N226" s="40"/>
+      <c r="L226" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M226" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N226" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O226" s="45"/>
       <c r="P226" s="45"/>
       <c r="Q226" s="45"/>
@@ -13109,20 +13450,46 @@
       <c r="T226" s="37"/>
     </row>
     <row r="227" spans="1:20" ht="18" customHeight="1">
-      <c r="A227" s="40"/>
-      <c r="B227" s="41"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="57"/>
-      <c r="E227" s="58"/>
-      <c r="F227" s="56"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="59"/>
-      <c r="I227" s="38"/>
-      <c r="J227" s="53"/>
+      <c r="A227" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B227" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D227" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E227" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F227" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H227" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I227" s="38">
+        <v>298</v>
+      </c>
+      <c r="J227" s="53">
+        <v>2016000000</v>
+      </c>
       <c r="K227" s="38"/>
-      <c r="L227" s="40"/>
-      <c r="M227" s="40"/>
-      <c r="N227" s="40"/>
+      <c r="L227" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M227" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N227" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O227" s="45"/>
       <c r="P227" s="45"/>
       <c r="Q227" s="45"/>
@@ -13131,20 +13498,46 @@
       <c r="T227" s="37"/>
     </row>
     <row r="228" spans="1:20" ht="18" customHeight="1">
-      <c r="A228" s="40"/>
-      <c r="B228" s="31"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="57"/>
-      <c r="E228" s="58"/>
-      <c r="F228" s="56"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="59"/>
-      <c r="I228" s="38"/>
-      <c r="J228" s="53"/>
+      <c r="A228" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D228" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E228" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F228" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G228" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H228" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I228" s="38">
+        <v>298</v>
+      </c>
+      <c r="J228" s="53">
+        <v>2558000000</v>
+      </c>
       <c r="K228" s="38"/>
-      <c r="L228" s="40"/>
-      <c r="M228" s="40"/>
-      <c r="N228" s="40"/>
+      <c r="L228" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M228" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N228" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O228" s="45"/>
       <c r="P228" s="45"/>
       <c r="Q228" s="45"/>
@@ -13153,20 +13546,46 @@
       <c r="T228" s="37"/>
     </row>
     <row r="229" spans="1:20" ht="18" customHeight="1">
-      <c r="A229" s="40"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="57"/>
-      <c r="E229" s="58"/>
-      <c r="F229" s="56"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="59"/>
-      <c r="I229" s="38"/>
-      <c r="J229" s="53"/>
+      <c r="A229" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D229" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E229" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F229" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G229" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H229" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I229" s="38">
+        <v>298</v>
+      </c>
+      <c r="J229" s="53">
+        <v>2276000000</v>
+      </c>
       <c r="K229" s="38"/>
-      <c r="L229" s="40"/>
-      <c r="M229" s="40"/>
-      <c r="N229" s="40"/>
+      <c r="L229" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M229" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N229" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O229" s="45"/>
       <c r="P229" s="45"/>
       <c r="Q229" s="45"/>
@@ -13175,20 +13594,46 @@
       <c r="T229" s="37"/>
     </row>
     <row r="230" spans="1:20" ht="18" customHeight="1">
-      <c r="A230" s="40"/>
-      <c r="B230" s="41"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="57"/>
-      <c r="E230" s="58"/>
-      <c r="F230" s="56"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="59"/>
-      <c r="I230" s="38"/>
-      <c r="J230" s="53"/>
+      <c r="A230" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D230" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E230" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F230" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G230" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I230" s="38">
+        <v>298</v>
+      </c>
+      <c r="J230" s="53">
+        <v>2078000000</v>
+      </c>
       <c r="K230" s="38"/>
-      <c r="L230" s="40"/>
-      <c r="M230" s="40"/>
-      <c r="N230" s="40"/>
+      <c r="L230" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M230" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N230" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O230" s="45"/>
       <c r="P230" s="45"/>
       <c r="Q230" s="45"/>
@@ -13197,20 +13642,46 @@
       <c r="T230" s="37"/>
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
-      <c r="A231" s="40"/>
-      <c r="B231" s="31"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="58"/>
-      <c r="F231" s="56"/>
-      <c r="G231" s="32"/>
-      <c r="H231" s="59"/>
-      <c r="I231" s="38"/>
-      <c r="J231" s="53"/>
+      <c r="A231" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D231" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E231" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F231" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H231" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I231" s="38">
+        <v>298</v>
+      </c>
+      <c r="J231" s="53">
+        <v>1198000000</v>
+      </c>
       <c r="K231" s="38"/>
-      <c r="L231" s="40"/>
-      <c r="M231" s="40"/>
-      <c r="N231" s="40"/>
+      <c r="L231" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M231" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N231" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O231" s="45"/>
       <c r="P231" s="45"/>
       <c r="Q231" s="45"/>
@@ -13219,20 +13690,46 @@
       <c r="T231" s="37"/>
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
-      <c r="A232" s="40"/>
-      <c r="B232" s="31"/>
-      <c r="C232" s="40"/>
-      <c r="D232" s="57"/>
-      <c r="E232" s="58"/>
-      <c r="F232" s="56"/>
-      <c r="G232" s="32"/>
-      <c r="H232" s="59"/>
-      <c r="I232" s="38"/>
-      <c r="J232" s="53"/>
+      <c r="A232" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D232" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E232" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F232" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H232" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I232" s="38">
+        <v>298</v>
+      </c>
+      <c r="J232" s="53">
+        <v>940000000</v>
+      </c>
       <c r="K232" s="38"/>
-      <c r="L232" s="40"/>
-      <c r="M232" s="40"/>
-      <c r="N232" s="40"/>
+      <c r="L232" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M232" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N232" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O232" s="45"/>
       <c r="P232" s="45"/>
       <c r="Q232" s="45"/>
@@ -13241,20 +13738,44 @@
       <c r="T232" s="37"/>
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
-      <c r="A233" s="40"/>
-      <c r="B233" s="41"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="57"/>
-      <c r="E233" s="58"/>
-      <c r="F233" s="56"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="59"/>
-      <c r="I233" s="38"/>
-      <c r="J233" s="53"/>
+      <c r="A233" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D233" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E233" s="31"/>
+      <c r="F233" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H233" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I233" s="38">
+        <v>298</v>
+      </c>
+      <c r="J233" s="53">
+        <v>50</v>
+      </c>
       <c r="K233" s="38"/>
-      <c r="L233" s="40"/>
-      <c r="M233" s="40"/>
-      <c r="N233" s="40"/>
+      <c r="L233" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M233" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N233" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O233" s="45"/>
       <c r="P233" s="45"/>
       <c r="Q233" s="45"/>
@@ -13263,20 +13784,46 @@
       <c r="T233" s="37"/>
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
-      <c r="A234" s="40"/>
-      <c r="B234" s="31"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="58"/>
-      <c r="F234" s="56"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="59"/>
-      <c r="I234" s="38"/>
-      <c r="J234" s="53"/>
+      <c r="A234" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D234" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E234" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F234" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I234" s="38">
+        <v>298</v>
+      </c>
+      <c r="J234" s="53">
+        <v>34.799999999999997</v>
+      </c>
       <c r="K234" s="38"/>
-      <c r="L234" s="40"/>
-      <c r="M234" s="40"/>
-      <c r="N234" s="40"/>
+      <c r="L234" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M234" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N234" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O234" s="45"/>
       <c r="P234" s="45"/>
       <c r="Q234" s="45"/>
@@ -13285,20 +13832,46 @@
       <c r="T234" s="37"/>
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
-      <c r="A235" s="40"/>
-      <c r="B235" s="31"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="57"/>
-      <c r="E235" s="58"/>
-      <c r="F235" s="56"/>
-      <c r="G235" s="32"/>
-      <c r="H235" s="59"/>
-      <c r="I235" s="38"/>
-      <c r="J235" s="53"/>
+      <c r="A235" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B235" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D235" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E235" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F235" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I235" s="38">
+        <v>298</v>
+      </c>
+      <c r="J235" s="53">
+        <v>21.3</v>
+      </c>
       <c r="K235" s="38"/>
-      <c r="L235" s="40"/>
-      <c r="M235" s="40"/>
-      <c r="N235" s="40"/>
+      <c r="L235" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M235" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N235" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O235" s="45"/>
       <c r="P235" s="45"/>
       <c r="Q235" s="45"/>
@@ -13307,20 +13880,46 @@
       <c r="T235" s="37"/>
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
-      <c r="A236" s="40"/>
-      <c r="B236" s="31"/>
-      <c r="C236" s="61"/>
-      <c r="D236" s="40"/>
-      <c r="E236" s="58"/>
-      <c r="F236" s="56"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="45"/>
-      <c r="I236" s="38"/>
-      <c r="J236" s="53"/>
+      <c r="A236" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B236" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C236" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D236" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E236" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F236" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G236" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H236" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I236" s="38">
+        <v>298</v>
+      </c>
+      <c r="J236" s="53">
+        <v>17.7</v>
+      </c>
       <c r="K236" s="38"/>
-      <c r="L236" s="40"/>
-      <c r="M236" s="40"/>
-      <c r="N236" s="40"/>
+      <c r="L236" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M236" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N236" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O236" s="45"/>
       <c r="P236" s="45"/>
       <c r="Q236" s="45"/>
@@ -13329,20 +13928,44 @@
       <c r="T236" s="37"/>
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
-      <c r="A237" s="40"/>
-      <c r="B237" s="31"/>
-      <c r="C237" s="61"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="58"/>
-      <c r="F237" s="56"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="45"/>
-      <c r="I237" s="38"/>
-      <c r="J237" s="53"/>
+      <c r="A237" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C237" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D237" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E237" s="31"/>
+      <c r="F237" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G237" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H237" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I237" s="38">
+        <v>298</v>
+      </c>
+      <c r="J237" s="53">
+        <v>50</v>
+      </c>
       <c r="K237" s="38"/>
-      <c r="L237" s="40"/>
-      <c r="M237" s="40"/>
-      <c r="N237" s="40"/>
+      <c r="L237" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M237" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N237" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O237" s="45"/>
       <c r="P237" s="45"/>
       <c r="Q237" s="45"/>
@@ -13351,20 +13974,46 @@
       <c r="T237" s="37"/>
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
-      <c r="A238" s="40"/>
-      <c r="B238" s="31"/>
-      <c r="C238" s="61"/>
-      <c r="D238" s="40"/>
-      <c r="E238" s="58"/>
-      <c r="F238" s="56"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="45"/>
-      <c r="I238" s="38"/>
-      <c r="J238" s="53"/>
+      <c r="A238" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B238" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C238" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D238" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E238" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F238" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G238" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H238" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I238" s="38">
+        <v>298</v>
+      </c>
+      <c r="J238" s="53">
+        <v>39.799999999999997</v>
+      </c>
       <c r="K238" s="38"/>
-      <c r="L238" s="40"/>
-      <c r="M238" s="40"/>
-      <c r="N238" s="40"/>
+      <c r="L238" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M238" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N238" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O238" s="45"/>
       <c r="P238" s="45"/>
       <c r="Q238" s="45"/>
@@ -13373,20 +14022,46 @@
       <c r="T238" s="37"/>
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
-      <c r="A239" s="40"/>
-      <c r="B239" s="31"/>
-      <c r="C239" s="61"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="58"/>
-      <c r="F239" s="56"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="45"/>
-      <c r="I239" s="38"/>
-      <c r="J239" s="53"/>
+      <c r="A239" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B239" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C239" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D239" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F239" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G239" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H239" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I239" s="38">
+        <v>298</v>
+      </c>
+      <c r="J239" s="53">
+        <v>27.9</v>
+      </c>
       <c r="K239" s="38"/>
-      <c r="L239" s="40"/>
-      <c r="M239" s="40"/>
-      <c r="N239" s="40"/>
+      <c r="L239" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M239" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N239" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O239" s="45"/>
       <c r="P239" s="45"/>
       <c r="Q239" s="45"/>
@@ -13395,20 +14070,46 @@
       <c r="T239" s="37"/>
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
-      <c r="A240" s="40"/>
-      <c r="B240" s="31"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="57"/>
-      <c r="E240" s="58"/>
-      <c r="F240" s="56"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="45"/>
-      <c r="I240" s="38"/>
-      <c r="J240" s="53"/>
+      <c r="A240" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C240" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D240" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E240" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F240" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G240" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I240" s="38">
+        <v>298</v>
+      </c>
+      <c r="J240" s="53">
+        <v>24.6</v>
+      </c>
       <c r="K240" s="38"/>
-      <c r="L240" s="61"/>
-      <c r="M240" s="40"/>
-      <c r="N240" s="40"/>
+      <c r="L240" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M240" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N240" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O240" s="45"/>
       <c r="P240" s="45"/>
       <c r="Q240" s="45"/>
@@ -13417,20 +14118,46 @@
       <c r="T240" s="37"/>
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
-      <c r="A241" s="40"/>
-      <c r="B241" s="31"/>
-      <c r="C241" s="61"/>
-      <c r="D241" s="57"/>
-      <c r="E241" s="58"/>
-      <c r="F241" s="56"/>
-      <c r="G241" s="32"/>
-      <c r="H241" s="45"/>
-      <c r="I241" s="38"/>
-      <c r="J241" s="53"/>
+      <c r="A241" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B241" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C241" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D241" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E241" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F241" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G241" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I241" s="38">
+        <v>298</v>
+      </c>
+      <c r="J241" s="53">
+        <v>13.5</v>
+      </c>
       <c r="K241" s="38"/>
-      <c r="L241" s="61"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
+      <c r="L241" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M241" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N241" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O241" s="45"/>
       <c r="P241" s="45"/>
       <c r="Q241" s="45"/>
@@ -13439,20 +14166,46 @@
       <c r="T241" s="37"/>
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
-      <c r="A242" s="40"/>
-      <c r="B242" s="31"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="58"/>
-      <c r="F242" s="56"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="45"/>
-      <c r="I242" s="38"/>
-      <c r="J242" s="53"/>
+      <c r="A242" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C242" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D242" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E242" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F242" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G242" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H242" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I242" s="38">
+        <v>298</v>
+      </c>
+      <c r="J242" s="53">
+        <v>6.8</v>
+      </c>
       <c r="K242" s="38"/>
-      <c r="L242" s="61"/>
-      <c r="M242" s="40"/>
-      <c r="N242" s="40"/>
+      <c r="L242" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M242" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N242" s="40" t="s">
+        <v>236</v>
+      </c>
       <c r="O242" s="45"/>
       <c r="P242" s="45"/>
       <c r="Q242" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3204F9-FD07-B74C-A39B-1FA6CC5833F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93616AD-153E-0947-90D9-6DDBB64FADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="248">
   <si>
     <r>
       <rPr>
@@ -378,6 +378,9 @@
     <t>thermal conductivity</t>
   </si>
   <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>amorphous</t>
   </si>
   <si>
@@ -403,6 +406,9 @@
   </si>
   <si>
     <t>peak magnetic entropy change</t>
+  </si>
+  <si>
+    <t>FCC+FCC</t>
   </si>
   <si>
     <t>minimum UCS</t>
@@ -842,6 +848,33 @@
   </si>
   <si>
     <t>10.1016/j.jmst.2016.09.016</t>
+  </si>
+  <si>
+    <t>CoCrFeNiCu</t>
+  </si>
+  <si>
+    <t>HEA</t>
+  </si>
+  <si>
+    <t>CoCrFeNiCuNb</t>
+  </si>
+  <si>
+    <t>EHEA</t>
+  </si>
+  <si>
+    <t>VIM+H</t>
+  </si>
+  <si>
+    <t>homogenized at 1373K for 12h</t>
+  </si>
+  <si>
+    <t>homogenized at 1373K for 12h; C15 is Co2Nb-type Laves phase; eutectic</t>
+  </si>
+  <si>
+    <t>FCC+FCC+C15</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2023.146002</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,6 +2197,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3326,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A200" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I236" sqref="I236"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A204" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N252" sqref="N252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3685,10 +3719,10 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>63</v>
@@ -3701,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I10" s="76">
         <v>298</v>
@@ -3717,7 +3751,7 @@
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="80"/>
@@ -3729,10 +3763,10 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>63</v>
@@ -3745,7 +3779,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I11" s="76">
         <v>298</v>
@@ -3761,7 +3795,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38"/>
@@ -3773,10 +3807,10 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>63</v>
@@ -3789,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I12" s="76">
         <v>298</v>
@@ -3805,7 +3839,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="38"/>
@@ -3817,16 +3851,16 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>65</v>
@@ -3835,7 +3869,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" s="76">
         <v>298</v>
@@ -3848,10 +3882,10 @@
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="38"/>
@@ -3863,16 +3897,16 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>65</v>
@@ -3881,7 +3915,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I14" s="76">
         <v>298</v>
@@ -3894,10 +3928,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="38"/>
@@ -3909,16 +3943,16 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>65</v>
@@ -3927,7 +3961,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15" s="76">
         <v>298</v>
@@ -3940,10 +3974,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -3955,16 +3989,16 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -3973,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I16" s="76">
         <v>298</v>
@@ -3986,10 +4020,10 @@
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -4001,16 +4035,16 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>68</v>
@@ -4019,7 +4053,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" s="76">
         <v>298</v>
@@ -4032,10 +4066,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -4047,16 +4081,16 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>68</v>
@@ -4065,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I18" s="76">
         <v>298</v>
@@ -4078,10 +4112,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -4093,16 +4127,16 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>68</v>
@@ -4111,7 +4145,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" s="76">
         <v>298</v>
@@ -4124,10 +4158,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -4139,16 +4173,16 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>68</v>
@@ -4157,7 +4191,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I20" s="76">
         <v>298</v>
@@ -4170,10 +4204,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -4185,16 +4219,16 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>66</v>
@@ -4203,7 +4237,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I21" s="76">
         <v>298</v>
@@ -4216,10 +4250,10 @@
         <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -4231,16 +4265,16 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>66</v>
@@ -4249,7 +4283,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I22" s="76">
         <v>298</v>
@@ -4262,10 +4296,10 @@
         <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -4277,16 +4311,16 @@
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>66</v>
@@ -4295,7 +4329,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I23" s="76">
         <v>298</v>
@@ -4308,10 +4342,10 @@
         <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -4323,16 +4357,16 @@
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>66</v>
@@ -4341,7 +4375,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I24" s="76">
         <v>298</v>
@@ -4354,10 +4388,10 @@
         <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -4368,22 +4402,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="135" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>116</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>29</v>
@@ -4395,13 +4429,13 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O25" s="37"/>
       <c r="P25" s="38"/>
@@ -4412,22 +4446,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>29</v>
@@ -4439,13 +4473,13 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="43"/>
@@ -4456,22 +4490,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>29</v>
@@ -4483,13 +4517,13 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O27" s="37"/>
       <c r="P27" s="43"/>
@@ -4500,22 +4534,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>29</v>
@@ -4527,13 +4561,13 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O28" s="37"/>
       <c r="P28" s="43"/>
@@ -4544,22 +4578,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="135" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>116</v>
-      </c>
       <c r="F29" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>29</v>
@@ -4571,13 +4605,13 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="43"/>
@@ -4588,22 +4622,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>29</v>
@@ -4615,13 +4649,13 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O30" s="37"/>
       <c r="P30" s="43"/>
@@ -4632,22 +4666,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>29</v>
@@ -4659,13 +4693,13 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="43"/>
@@ -4676,22 +4710,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>29</v>
@@ -4703,13 +4737,13 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O32" s="37"/>
       <c r="P32" s="43"/>
@@ -4720,28 +4754,28 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="62">
@@ -4749,13 +4783,13 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O33" s="37"/>
       <c r="P33" s="43"/>
@@ -4766,28 +4800,28 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="62">
@@ -4795,13 +4829,13 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
@@ -4812,28 +4846,28 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="38">
@@ -4841,13 +4875,13 @@
       </c>
       <c r="K35" s="38"/>
       <c r="L35" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
@@ -4858,28 +4892,28 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="38">
@@ -4887,13 +4921,13 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O36" s="37"/>
       <c r="P36" s="38"/>
@@ -4904,28 +4938,28 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="38">
@@ -4933,13 +4967,13 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="38"/>
@@ -4950,28 +4984,28 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="38">
@@ -4979,13 +5013,13 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O38" s="46"/>
       <c r="P38" s="39"/>
@@ -4997,25 +5031,25 @@
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="38">
@@ -5023,13 +5057,13 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O39" s="46"/>
       <c r="P39" s="39"/>
@@ -5041,23 +5075,23 @@
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="46">
@@ -5065,11 +5099,11 @@
       </c>
       <c r="K40" s="47"/>
       <c r="L40" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O40" s="46"/>
       <c r="P40" s="39"/>
@@ -5081,23 +5115,23 @@
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="94">
@@ -5105,11 +5139,11 @@
       </c>
       <c r="K41" s="47"/>
       <c r="L41" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O41" s="46"/>
       <c r="P41" s="39"/>
@@ -5121,23 +5155,23 @@
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="94">
@@ -5145,11 +5179,11 @@
       </c>
       <c r="K42" s="47"/>
       <c r="L42" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M42" s="40"/>
       <c r="N42" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O42" s="46"/>
       <c r="P42" s="47"/>
@@ -5161,23 +5195,23 @@
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="94">
@@ -5185,11 +5219,11 @@
       </c>
       <c r="K43" s="47"/>
       <c r="L43" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M43" s="40"/>
       <c r="N43" s="36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O43" s="46"/>
       <c r="P43" s="47"/>
@@ -5201,23 +5235,23 @@
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="94">
@@ -5225,11 +5259,11 @@
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M44" s="40"/>
       <c r="N44" s="136" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
@@ -5241,23 +5275,23 @@
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="46">
@@ -5265,11 +5299,11 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M45" s="40"/>
       <c r="N45" s="136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
@@ -5281,25 +5315,25 @@
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="38">
@@ -5307,13 +5341,13 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
@@ -5325,23 +5359,23 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="46">
@@ -5349,11 +5383,11 @@
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
@@ -5365,23 +5399,23 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="94">
@@ -5389,11 +5423,11 @@
       </c>
       <c r="K48" s="47"/>
       <c r="L48" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
@@ -5405,23 +5439,23 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="94">
@@ -5429,11 +5463,11 @@
       </c>
       <c r="K49" s="47"/>
       <c r="L49" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
@@ -5445,23 +5479,23 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="30"/>
       <c r="B50" s="41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="94">
@@ -5469,11 +5503,11 @@
       </c>
       <c r="K50" s="47"/>
       <c r="L50" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
@@ -5485,23 +5519,23 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="30"/>
       <c r="B51" s="41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="94">
@@ -5509,11 +5543,11 @@
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="136" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -5525,23 +5559,23 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="46">
@@ -5549,11 +5583,11 @@
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O52" s="46"/>
       <c r="P52" s="47"/>
@@ -5565,25 +5599,25 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E53" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="49">
@@ -5591,13 +5625,13 @@
       </c>
       <c r="K53" s="49"/>
       <c r="L53" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="46"/>
       <c r="P53" s="47"/>
@@ -5609,25 +5643,25 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E54" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="49">
@@ -5635,13 +5669,13 @@
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="46"/>
       <c r="P54" s="47"/>
@@ -5653,25 +5687,25 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E55" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="49">
@@ -5679,13 +5713,13 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O55" s="46"/>
       <c r="P55" s="47"/>
@@ -5697,25 +5731,25 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E56" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="49">
@@ -5723,13 +5757,13 @@
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
@@ -5741,25 +5775,25 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="49">
@@ -5767,13 +5801,13 @@
       </c>
       <c r="K57" s="49"/>
       <c r="L57" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
@@ -5785,25 +5819,25 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="49">
@@ -5811,13 +5845,13 @@
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
@@ -5829,25 +5863,25 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E59" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="49">
@@ -5855,13 +5889,13 @@
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
@@ -5873,25 +5907,25 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="49">
@@ -5899,13 +5933,13 @@
       </c>
       <c r="K60" s="49"/>
       <c r="L60" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
@@ -5917,25 +5951,25 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E61" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="49">
@@ -5943,13 +5977,13 @@
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
@@ -5961,25 +5995,25 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E62" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="49">
@@ -5987,13 +6021,13 @@
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
@@ -6005,25 +6039,25 @@
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E63" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="49">
@@ -6031,13 +6065,13 @@
       </c>
       <c r="K63" s="49"/>
       <c r="L63" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N63" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
@@ -6049,25 +6083,25 @@
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E64" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="49">
@@ -6075,13 +6109,13 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
@@ -6093,25 +6127,25 @@
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="49">
@@ -6119,13 +6153,13 @@
       </c>
       <c r="K65" s="49"/>
       <c r="L65" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -6137,25 +6171,25 @@
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="94">
@@ -6163,13 +6197,13 @@
       </c>
       <c r="K66" s="47"/>
       <c r="L66" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O66" s="46"/>
       <c r="P66" s="46"/>
@@ -6181,25 +6215,25 @@
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E67" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="46">
@@ -6207,13 +6241,13 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O67" s="46"/>
       <c r="P67" s="46"/>
@@ -6225,25 +6259,25 @@
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E68" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="46">
@@ -6251,13 +6285,13 @@
       </c>
       <c r="K68" s="47"/>
       <c r="L68" s="50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O68" s="46"/>
       <c r="P68" s="46"/>
@@ -6269,16 +6303,16 @@
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D69" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E69" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F69" s="48" t="s">
         <v>62</v>
@@ -6305,7 +6339,7 @@
         <v>76</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O69" s="46"/>
       <c r="P69" s="46">
@@ -6321,16 +6355,16 @@
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E70" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>62</v>
@@ -6357,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O70" s="46"/>
       <c r="P70" s="46">
@@ -6373,16 +6407,16 @@
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E71" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>62</v>
@@ -6409,7 +6443,7 @@
         <v>76</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O71" s="46"/>
       <c r="P71" s="1">
@@ -6425,16 +6459,16 @@
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E72" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>62</v>
@@ -6461,7 +6495,7 @@
         <v>76</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O72" s="46"/>
       <c r="P72" s="47">
@@ -6477,16 +6511,16 @@
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F73" s="48" t="s">
         <v>62</v>
@@ -6510,10 +6544,10 @@
         <v>33</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O73" s="46"/>
       <c r="P73" s="46">
@@ -6529,16 +6563,16 @@
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F74" s="48" t="s">
         <v>62</v>
@@ -6562,10 +6596,10 @@
         <v>33</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N74" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O74" s="46"/>
       <c r="P74" s="46">
@@ -6581,16 +6615,16 @@
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E75" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>62</v>
@@ -6614,10 +6648,10 @@
         <v>33</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O75" s="46"/>
       <c r="P75" s="46">
@@ -6633,16 +6667,16 @@
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E76" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F76" s="48" t="s">
         <v>62</v>
@@ -6666,10 +6700,10 @@
         <v>33</v>
       </c>
       <c r="M76" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O76" s="46"/>
       <c r="P76" s="46">
@@ -6685,16 +6719,16 @@
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E77" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F77" s="48" t="s">
         <v>68</v>
@@ -6714,10 +6748,10 @@
         <v>33</v>
       </c>
       <c r="M77" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O77" s="46"/>
       <c r="P77" s="49"/>
@@ -6729,16 +6763,16 @@
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E78" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F78" s="48" t="s">
         <v>68</v>
@@ -6758,10 +6792,10 @@
         <v>33</v>
       </c>
       <c r="M78" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O78" s="46"/>
       <c r="P78" s="49"/>
@@ -6773,16 +6807,16 @@
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F79" s="48" t="s">
         <v>68</v>
@@ -6802,10 +6836,10 @@
         <v>33</v>
       </c>
       <c r="M79" s="50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O79" s="46"/>
       <c r="P79" s="46"/>
@@ -6817,16 +6851,16 @@
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E80" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F80" s="48" t="s">
         <v>66</v>
@@ -6846,10 +6880,10 @@
         <v>67</v>
       </c>
       <c r="M80" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O80" s="46"/>
       <c r="P80" s="39"/>
@@ -6861,16 +6895,16 @@
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="E81" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F81" s="48" t="s">
         <v>66</v>
@@ -6890,10 +6924,10 @@
         <v>67</v>
       </c>
       <c r="M81" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N81" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O81" s="46"/>
       <c r="P81" s="39"/>
@@ -6905,16 +6939,16 @@
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>66</v>
@@ -6934,10 +6968,10 @@
         <v>67</v>
       </c>
       <c r="M82" s="50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N82" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O82" s="46"/>
       <c r="P82" s="39"/>
@@ -6949,16 +6983,16 @@
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>162</v>
-      </c>
       <c r="E83" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F83" s="48" t="s">
         <v>71</v>
@@ -6979,7 +7013,7 @@
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O83" s="46"/>
       <c r="P83" s="39"/>
@@ -6991,16 +7025,16 @@
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>163</v>
-      </c>
       <c r="D84" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F84" s="48" t="s">
         <v>71</v>
@@ -7021,7 +7055,7 @@
       </c>
       <c r="M84" s="50"/>
       <c r="N84" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O84" s="46"/>
       <c r="P84" s="39"/>
@@ -7033,16 +7067,16 @@
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>162</v>
-      </c>
       <c r="E85" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F85" s="48" t="s">
         <v>73</v>
@@ -7063,7 +7097,7 @@
       </c>
       <c r="M85" s="50"/>
       <c r="N85" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O85" s="46"/>
       <c r="P85" s="39"/>
@@ -7075,16 +7109,16 @@
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>163</v>
-      </c>
       <c r="D86" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F86" s="48" t="s">
         <v>73</v>
@@ -7105,7 +7139,7 @@
       </c>
       <c r="M86" s="50"/>
       <c r="N86" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O86" s="46"/>
       <c r="P86" s="39"/>
@@ -7117,16 +7151,16 @@
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>162</v>
-      </c>
       <c r="E87" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F87" s="48" t="s">
         <v>72</v>
@@ -7147,7 +7181,7 @@
       </c>
       <c r="M87" s="50"/>
       <c r="N87" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O87" s="46"/>
       <c r="P87" s="39"/>
@@ -7159,16 +7193,16 @@
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>163</v>
-      </c>
       <c r="D88" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F88" s="48" t="s">
         <v>72</v>
@@ -7189,7 +7223,7 @@
       </c>
       <c r="M88" s="50"/>
       <c r="N88" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O88" s="46"/>
       <c r="P88" s="39"/>
@@ -7201,13 +7235,13 @@
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="48" t="s">
@@ -7229,7 +7263,7 @@
       </c>
       <c r="M89" s="50"/>
       <c r="N89" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O89" s="46"/>
       <c r="P89" s="39"/>
@@ -7241,13 +7275,13 @@
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="32" t="s">
@@ -7269,7 +7303,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O90" s="46"/>
       <c r="P90" s="39"/>
@@ -7281,13 +7315,13 @@
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="32" t="s">
@@ -7309,7 +7343,7 @@
       </c>
       <c r="M91" s="50"/>
       <c r="N91" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O91" s="46"/>
       <c r="P91" s="47"/>
@@ -7321,10 +7355,10 @@
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>69</v>
@@ -7349,10 +7383,10 @@
         <v>33</v>
       </c>
       <c r="M92" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O92" s="46"/>
       <c r="P92" s="47">
@@ -7366,7 +7400,7 @@
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>74</v>
@@ -7376,7 +7410,7 @@
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7393,10 +7427,10 @@
         <v>67</v>
       </c>
       <c r="M93" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O93" s="46"/>
       <c r="P93" s="47"/>
@@ -7408,17 +7442,17 @@
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7435,10 +7469,10 @@
         <v>67</v>
       </c>
       <c r="M94" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O94" s="46"/>
       <c r="P94" s="47"/>
@@ -7450,17 +7484,17 @@
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -7477,10 +7511,10 @@
         <v>67</v>
       </c>
       <c r="M95" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O95" s="46"/>
       <c r="P95" s="47"/>
@@ -7492,7 +7526,7 @@
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>74</v>
@@ -7520,10 +7554,10 @@
         <v>67</v>
       </c>
       <c r="M96" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O96" s="46"/>
       <c r="P96" s="46">
@@ -7539,10 +7573,10 @@
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>69</v>
@@ -7567,10 +7601,10 @@
         <v>67</v>
       </c>
       <c r="M97" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N97" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O97" s="46"/>
       <c r="P97" s="46">
@@ -7586,10 +7620,10 @@
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>69</v>
@@ -7614,10 +7648,10 @@
         <v>67</v>
       </c>
       <c r="M98" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O98" s="46"/>
       <c r="P98" s="46">
@@ -7633,10 +7667,10 @@
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>69</v>
@@ -7661,10 +7695,10 @@
         <v>67</v>
       </c>
       <c r="M99" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O99" s="46"/>
       <c r="P99" s="46">
@@ -7680,10 +7714,10 @@
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>69</v>
@@ -7708,10 +7742,10 @@
         <v>67</v>
       </c>
       <c r="M100" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N100" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O100" s="46"/>
       <c r="P100" s="46">
@@ -7727,10 +7761,10 @@
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>69</v>
@@ -7755,10 +7789,10 @@
         <v>67</v>
       </c>
       <c r="M101" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N101" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O101" s="46"/>
       <c r="P101" s="46">
@@ -7774,10 +7808,10 @@
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>69</v>
@@ -7802,10 +7836,10 @@
         <v>67</v>
       </c>
       <c r="M102" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O102" s="46"/>
       <c r="P102" s="46">
@@ -7821,7 +7855,7 @@
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>74</v>
@@ -7831,7 +7865,7 @@
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>29</v>
@@ -7848,10 +7882,10 @@
         <v>33</v>
       </c>
       <c r="M103" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O103" s="46"/>
       <c r="P103" s="39"/>
@@ -7863,17 +7897,17 @@
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>29</v>
@@ -7890,10 +7924,10 @@
         <v>33</v>
       </c>
       <c r="M104" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O104" s="46"/>
       <c r="P104" s="39"/>
@@ -7905,17 +7939,17 @@
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>29</v>
@@ -7932,10 +7966,10 @@
         <v>33</v>
       </c>
       <c r="M105" s="50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O105" s="46"/>
       <c r="P105" s="39"/>
@@ -7947,7 +7981,7 @@
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="51"/>
       <c r="B106" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>64</v>
@@ -7956,7 +7990,7 @@
         <v>63</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -7969,7 +8003,7 @@
         <v>79</v>
       </c>
       <c r="N106" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O106" s="46"/>
       <c r="P106" s="39"/>
@@ -7981,7 +8015,7 @@
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>64</v>
@@ -7990,7 +8024,7 @@
         <v>63</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -8003,7 +8037,7 @@
         <v>79</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O107" s="46"/>
       <c r="P107" s="39"/>
@@ -8015,16 +8049,16 @@
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -8037,7 +8071,7 @@
         <v>79</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O108" s="46"/>
       <c r="P108" s="39"/>
@@ -8049,16 +8083,16 @@
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="51"/>
       <c r="B109" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -8071,7 +8105,7 @@
         <v>79</v>
       </c>
       <c r="N109" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O109" s="37"/>
       <c r="P109" s="39"/>
@@ -8083,16 +8117,16 @@
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -8105,7 +8139,7 @@
         <v>76</v>
       </c>
       <c r="N110" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O110" s="37"/>
       <c r="P110" s="39"/>
@@ -8117,16 +8151,16 @@
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -8139,7 +8173,7 @@
         <v>76</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O111" s="46"/>
       <c r="P111" s="47"/>
@@ -8151,16 +8185,16 @@
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="51"/>
       <c r="B112" s="31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -8173,7 +8207,7 @@
         <v>76</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O112" s="46"/>
       <c r="P112" s="47"/>
@@ -8185,16 +8219,16 @@
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -8207,7 +8241,7 @@
         <v>76</v>
       </c>
       <c r="N113" s="30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O113" s="46"/>
       <c r="P113" s="47"/>
@@ -8218,19 +8252,19 @@
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
       <c r="A114" s="51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>62</v>
@@ -8257,7 +8291,7 @@
         <v>80</v>
       </c>
       <c r="N114" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O114" s="46"/>
       <c r="P114" s="47">
@@ -8272,19 +8306,19 @@
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
       <c r="A115" s="51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C115" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E115" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>194</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>62</v>
@@ -8311,7 +8345,7 @@
         <v>80</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O115" s="46"/>
       <c r="P115" s="47">
@@ -8326,19 +8360,19 @@
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
       <c r="A116" s="40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D116" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116" s="31" t="s">
         <v>197</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>62</v>
@@ -8365,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="N116" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O116" s="46"/>
       <c r="P116" s="39">
@@ -8381,7 +8415,7 @@
     <row r="117" spans="1:20" ht="18" customHeight="1">
       <c r="A117" s="38"/>
       <c r="B117" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>74</v>
@@ -8391,7 +8425,7 @@
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>29</v>
@@ -8405,13 +8439,13 @@
       </c>
       <c r="K117" s="49"/>
       <c r="L117" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M117" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N117" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O117" s="46"/>
       <c r="P117" s="39"/>
@@ -8423,7 +8457,7 @@
     <row r="118" spans="1:20" ht="18" customHeight="1">
       <c r="A118" s="30"/>
       <c r="B118" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C118" s="30" t="s">
         <v>74</v>
@@ -8433,7 +8467,7 @@
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>29</v>
@@ -8447,13 +8481,13 @@
       </c>
       <c r="K118" s="49"/>
       <c r="L118" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M118" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N118" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O118" s="46"/>
       <c r="P118" s="39"/>
@@ -8465,7 +8499,7 @@
     <row r="119" spans="1:20" ht="18" customHeight="1">
       <c r="A119" s="30"/>
       <c r="B119" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C119" s="30" t="s">
         <v>74</v>
@@ -8475,7 +8509,7 @@
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>29</v>
@@ -8489,13 +8523,13 @@
       </c>
       <c r="K119" s="49"/>
       <c r="L119" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M119" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N119" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O119" s="46"/>
       <c r="P119" s="38"/>
@@ -8507,7 +8541,7 @@
     <row r="120" spans="1:20" ht="18" customHeight="1">
       <c r="A120" s="51"/>
       <c r="B120" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C120" s="30" t="s">
         <v>75</v>
@@ -8517,7 +8551,7 @@
       </c>
       <c r="E120" s="31"/>
       <c r="F120" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>29</v>
@@ -8531,13 +8565,13 @@
       </c>
       <c r="K120" s="49"/>
       <c r="L120" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M120" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N120" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O120" s="46"/>
       <c r="P120" s="38"/>
@@ -8549,7 +8583,7 @@
     <row r="121" spans="1:20" ht="18" customHeight="1">
       <c r="A121" s="51"/>
       <c r="B121" s="31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>64</v>
@@ -8559,7 +8593,7 @@
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>29</v>
@@ -8573,13 +8607,13 @@
       </c>
       <c r="K121" s="49"/>
       <c r="L121" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M121" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N121" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O121" s="46"/>
       <c r="P121" s="39"/>
@@ -8591,7 +8625,7 @@
     <row r="122" spans="1:20" ht="18" customHeight="1">
       <c r="A122" s="51"/>
       <c r="B122" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>74</v>
@@ -8601,7 +8635,7 @@
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>29</v>
@@ -8615,13 +8649,13 @@
       </c>
       <c r="K122" s="49"/>
       <c r="L122" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M122" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N122" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O122" s="46"/>
       <c r="P122" s="39"/>
@@ -8633,7 +8667,7 @@
     <row r="123" spans="1:20" ht="18" customHeight="1">
       <c r="A123" s="51"/>
       <c r="B123" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>74</v>
@@ -8643,7 +8677,7 @@
       </c>
       <c r="E123" s="31"/>
       <c r="F123" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>29</v>
@@ -8657,13 +8691,13 @@
       </c>
       <c r="K123" s="49"/>
       <c r="L123" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M123" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N123" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O123" s="46"/>
       <c r="P123" s="39"/>
@@ -8675,7 +8709,7 @@
     <row r="124" spans="1:20" ht="18" customHeight="1">
       <c r="A124" s="51"/>
       <c r="B124" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>74</v>
@@ -8685,7 +8719,7 @@
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>29</v>
@@ -8699,13 +8733,13 @@
       </c>
       <c r="K124" s="49"/>
       <c r="L124" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M124" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N124" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O124" s="37"/>
       <c r="P124" s="39"/>
@@ -8717,7 +8751,7 @@
     <row r="125" spans="1:20" ht="18" customHeight="1">
       <c r="A125" s="51"/>
       <c r="B125" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C125" s="30" t="s">
         <v>75</v>
@@ -8727,7 +8761,7 @@
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>29</v>
@@ -8741,13 +8775,13 @@
       </c>
       <c r="K125" s="49"/>
       <c r="L125" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M125" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N125" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O125" s="37"/>
       <c r="P125" s="39"/>
@@ -8759,7 +8793,7 @@
     <row r="126" spans="1:20" ht="18" customHeight="1">
       <c r="A126" s="51"/>
       <c r="B126" s="31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C126" s="30" t="s">
         <v>64</v>
@@ -8769,7 +8803,7 @@
       </c>
       <c r="E126" s="31"/>
       <c r="F126" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>29</v>
@@ -8783,13 +8817,13 @@
       </c>
       <c r="K126" s="49"/>
       <c r="L126" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M126" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N126" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O126" s="37"/>
       <c r="P126" s="39"/>
@@ -8801,13 +8835,13 @@
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="51"/>
       <c r="B127" s="95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C127" s="138" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E127" s="31"/>
       <c r="F127" s="32" t="s">
@@ -8817,7 +8851,7 @@
         <v>29</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I127" s="38">
         <v>298</v>
@@ -8830,10 +8864,10 @@
         <v>33</v>
       </c>
       <c r="M127" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N127" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O127" s="37"/>
       <c r="P127" s="39"/>
@@ -8845,13 +8879,13 @@
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="30"/>
       <c r="B128" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C128" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E128" s="31"/>
       <c r="F128" s="32" t="s">
@@ -8861,7 +8895,7 @@
         <v>29</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I128" s="38">
         <v>298</v>
@@ -8874,10 +8908,10 @@
         <v>33</v>
       </c>
       <c r="M128" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N128" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O128" s="37"/>
       <c r="P128" s="39"/>
@@ -8889,13 +8923,13 @@
     <row r="129" spans="1:20" ht="18" customHeight="1">
       <c r="A129" s="30"/>
       <c r="B129" s="96" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C129" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E129" s="31"/>
       <c r="F129" s="32" t="s">
@@ -8905,7 +8939,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I129" s="38">
         <v>298</v>
@@ -8918,10 +8952,10 @@
         <v>33</v>
       </c>
       <c r="M129" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N129" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O129" s="37"/>
       <c r="P129" s="39"/>
@@ -8933,13 +8967,13 @@
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="30"/>
       <c r="B130" s="96" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C130" s="139" t="s">
         <v>75</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E130" s="31"/>
       <c r="F130" s="32" t="s">
@@ -8949,7 +8983,7 @@
         <v>29</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I130" s="38">
         <v>298</v>
@@ -8962,10 +8996,10 @@
         <v>33</v>
       </c>
       <c r="M130" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N130" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O130" s="37"/>
       <c r="P130" s="39"/>
@@ -8977,13 +9011,13 @@
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30"/>
       <c r="B131" s="96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C131" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E131" s="31"/>
       <c r="F131" s="32" t="s">
@@ -8993,7 +9027,7 @@
         <v>29</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I131" s="38">
         <v>298</v>
@@ -9006,10 +9040,10 @@
         <v>33</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N131" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O131" s="37"/>
       <c r="P131" s="39"/>
@@ -9021,23 +9055,23 @@
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="51"/>
       <c r="B132" s="95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C132" s="138" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E132" s="31"/>
       <c r="F132" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G132" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I132" s="38">
         <v>298</v>
@@ -9050,10 +9084,10 @@
         <v>33</v>
       </c>
       <c r="M132" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N132" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O132" s="37"/>
       <c r="P132" s="39"/>
@@ -9065,23 +9099,23 @@
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="30"/>
       <c r="B133" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C133" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E133" s="31"/>
       <c r="F133" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G133" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H133" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I133" s="38">
         <v>298</v>
@@ -9094,10 +9128,10 @@
         <v>33</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N133" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O133" s="37"/>
       <c r="P133" s="39"/>
@@ -9109,23 +9143,23 @@
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="30"/>
       <c r="B134" s="96" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C134" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E134" s="31"/>
       <c r="F134" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G134" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H134" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I134" s="38">
         <v>298</v>
@@ -9138,10 +9172,10 @@
         <v>33</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N134" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O134" s="37"/>
       <c r="P134" s="38"/>
@@ -9153,23 +9187,23 @@
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="30"/>
       <c r="B135" s="96" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C135" s="139" t="s">
         <v>75</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E135" s="31"/>
       <c r="F135" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G135" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H135" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I135" s="38">
         <v>298</v>
@@ -9182,10 +9216,10 @@
         <v>33</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N135" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O135" s="37"/>
       <c r="P135" s="38"/>
@@ -9197,13 +9231,13 @@
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="30"/>
       <c r="B136" s="96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C136" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E136" s="31"/>
       <c r="F136" s="32" t="s">
@@ -9213,7 +9247,7 @@
         <v>29</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I136" s="38">
         <v>298</v>
@@ -9226,10 +9260,10 @@
         <v>33</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N136" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O136" s="37"/>
       <c r="P136" s="38"/>
@@ -9241,13 +9275,13 @@
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="55"/>
       <c r="B137" s="95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C137" s="138" t="s">
         <v>74</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E137" s="31"/>
       <c r="F137" s="32" t="s">
@@ -9257,7 +9291,7 @@
         <v>29</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I137" s="38">
         <v>298</v>
@@ -9270,10 +9304,10 @@
         <v>67</v>
       </c>
       <c r="M137" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N137" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O137" s="37"/>
       <c r="P137" s="38"/>
@@ -9285,13 +9319,13 @@
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="42"/>
       <c r="B138" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C138" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E138" s="31"/>
       <c r="F138" s="32" t="s">
@@ -9301,7 +9335,7 @@
         <v>29</v>
       </c>
       <c r="H138" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I138" s="38">
         <v>298</v>
@@ -9314,10 +9348,10 @@
         <v>67</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N138" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O138" s="37"/>
       <c r="P138" s="38"/>
@@ -9329,13 +9363,13 @@
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="42"/>
       <c r="B139" s="96" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C139" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E139" s="31"/>
       <c r="F139" s="32" t="s">
@@ -9345,7 +9379,7 @@
         <v>29</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I139" s="38">
         <v>298</v>
@@ -9358,10 +9392,10 @@
         <v>67</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N139" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O139" s="37"/>
       <c r="P139" s="38"/>
@@ -9373,13 +9407,13 @@
     <row r="140" spans="1:20" ht="18" customHeight="1">
       <c r="A140" s="42"/>
       <c r="B140" s="96" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C140" s="139" t="s">
         <v>75</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E140" s="31"/>
       <c r="F140" s="32" t="s">
@@ -9389,7 +9423,7 @@
         <v>29</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I140" s="38">
         <v>298</v>
@@ -9402,10 +9436,10 @@
         <v>67</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N140" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O140" s="37"/>
       <c r="P140" s="38"/>
@@ -9417,13 +9451,13 @@
     <row r="141" spans="1:20" ht="18" customHeight="1">
       <c r="A141" s="42"/>
       <c r="B141" s="96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C141" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E141" s="31"/>
       <c r="F141" s="32" t="s">
@@ -9433,7 +9467,7 @@
         <v>29</v>
       </c>
       <c r="H141" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I141" s="38">
         <v>298</v>
@@ -9446,10 +9480,10 @@
         <v>67</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N141" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O141" s="37"/>
       <c r="P141" s="38"/>
@@ -9461,23 +9495,23 @@
     <row r="142" spans="1:20" ht="18" customHeight="1">
       <c r="A142" s="55"/>
       <c r="B142" s="96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C142" s="139" t="s">
         <v>64</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E142" s="31"/>
       <c r="F142" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G142" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H142" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I142" s="34">
         <v>298</v>
@@ -9490,10 +9524,10 @@
         <v>67</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N142" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O142" s="37"/>
       <c r="P142" s="38"/>
@@ -9505,17 +9539,17 @@
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="42"/>
       <c r="B143" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C143" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E143" s="31"/>
       <c r="F143" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G143" s="32" t="s">
         <v>29</v>
@@ -9529,11 +9563,11 @@
       </c>
       <c r="K143" s="49"/>
       <c r="L143" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M143" s="50"/>
       <c r="N143" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O143" s="37"/>
       <c r="P143" s="38"/>
@@ -9545,19 +9579,19 @@
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="42"/>
       <c r="B144" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C144" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G144" s="32" t="s">
         <v>29</v>
@@ -9571,13 +9605,13 @@
       </c>
       <c r="K144" s="49"/>
       <c r="L144" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M144" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N144" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O144" s="37"/>
       <c r="P144" s="38"/>
@@ -9589,19 +9623,19 @@
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="42"/>
       <c r="B145" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C145" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G145" s="32" t="s">
         <v>29</v>
@@ -9615,13 +9649,13 @@
       </c>
       <c r="K145" s="49"/>
       <c r="L145" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N145" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O145" s="37"/>
       <c r="P145" s="38"/>
@@ -9633,19 +9667,19 @@
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="42"/>
       <c r="B146" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C146" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G146" s="32" t="s">
         <v>29</v>
@@ -9659,13 +9693,13 @@
       </c>
       <c r="K146" s="53"/>
       <c r="L146" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M146" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N146" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O146" s="37"/>
       <c r="P146" s="38"/>
@@ -9677,19 +9711,19 @@
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="55"/>
       <c r="B147" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C147" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G147" s="32" t="s">
         <v>29</v>
@@ -9703,13 +9737,13 @@
       </c>
       <c r="K147" s="53"/>
       <c r="L147" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M147" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O147" s="37"/>
       <c r="P147" s="38"/>
@@ -9721,19 +9755,19 @@
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="42"/>
       <c r="B148" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C148" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F148" s="54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G148" s="32" t="s">
         <v>29</v>
@@ -9747,13 +9781,13 @@
       </c>
       <c r="K148" s="53"/>
       <c r="L148" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M148" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O148" s="37"/>
       <c r="P148" s="38"/>
@@ -9765,19 +9799,19 @@
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="42"/>
       <c r="B149" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C149" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F149" s="54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G149" s="32" t="s">
         <v>29</v>
@@ -9791,13 +9825,13 @@
       </c>
       <c r="K149" s="53"/>
       <c r="L149" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M149" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N149" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O149" s="37"/>
       <c r="P149" s="38"/>
@@ -9809,19 +9843,19 @@
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="42"/>
       <c r="B150" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C150" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F150" s="54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G150" s="32" t="s">
         <v>29</v>
@@ -9835,13 +9869,13 @@
       </c>
       <c r="K150" s="49"/>
       <c r="L150" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M150" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N150" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O150" s="37"/>
       <c r="P150" s="38"/>
@@ -9853,19 +9887,19 @@
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="42"/>
       <c r="B151" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C151" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F151" s="54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G151" s="32" t="s">
         <v>29</v>
@@ -9879,13 +9913,13 @@
       </c>
       <c r="K151" s="49"/>
       <c r="L151" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M151" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O151" s="37"/>
       <c r="P151" s="38"/>
@@ -9897,16 +9931,16 @@
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="55"/>
       <c r="B152" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C152" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F152" s="54" t="s">
         <v>71</v>
@@ -9915,7 +9949,7 @@
         <v>29</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I152" s="34">
         <v>298</v>
@@ -9928,10 +9962,10 @@
         <v>33</v>
       </c>
       <c r="M152" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O152" s="37"/>
       <c r="P152" s="38"/>
@@ -9943,16 +9977,16 @@
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="42"/>
       <c r="B153" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C153" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F153" s="54" t="s">
         <v>71</v>
@@ -9961,7 +9995,7 @@
         <v>29</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I153" s="34">
         <v>298</v>
@@ -9974,10 +10008,10 @@
         <v>33</v>
       </c>
       <c r="M153" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O153" s="37"/>
       <c r="P153" s="38"/>
@@ -9989,16 +10023,16 @@
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="42"/>
       <c r="B154" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C154" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F154" s="54" t="s">
         <v>71</v>
@@ -10007,7 +10041,7 @@
         <v>29</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I154" s="34">
         <v>298</v>
@@ -10020,10 +10054,10 @@
         <v>33</v>
       </c>
       <c r="M154" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O154" s="37"/>
       <c r="P154" s="38"/>
@@ -10035,16 +10069,16 @@
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="42"/>
       <c r="B155" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C155" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F155" s="54" t="s">
         <v>71</v>
@@ -10053,7 +10087,7 @@
         <v>29</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I155" s="34">
         <v>298</v>
@@ -10066,10 +10100,10 @@
         <v>33</v>
       </c>
       <c r="M155" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O155" s="37"/>
       <c r="P155" s="38"/>
@@ -10081,16 +10115,16 @@
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="42"/>
       <c r="B156" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C156" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F156" s="54" t="s">
         <v>73</v>
@@ -10099,7 +10133,7 @@
         <v>29</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I156" s="34">
         <v>298</v>
@@ -10112,10 +10146,10 @@
         <v>33</v>
       </c>
       <c r="M156" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O156" s="37"/>
       <c r="P156" s="38"/>
@@ -10127,16 +10161,16 @@
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="30"/>
       <c r="B157" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C157" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F157" s="54" t="s">
         <v>73</v>
@@ -10145,7 +10179,7 @@
         <v>29</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I157" s="34">
         <v>298</v>
@@ -10158,10 +10192,10 @@
         <v>33</v>
       </c>
       <c r="M157" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O157" s="37"/>
       <c r="P157" s="38"/>
@@ -10173,16 +10207,16 @@
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="38"/>
       <c r="B158" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C158" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F158" s="54" t="s">
         <v>73</v>
@@ -10191,7 +10225,7 @@
         <v>29</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I158" s="34">
         <v>298</v>
@@ -10204,10 +10238,10 @@
         <v>33</v>
       </c>
       <c r="M158" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N158" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O158" s="37"/>
       <c r="P158" s="38"/>
@@ -10219,16 +10253,16 @@
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="38"/>
       <c r="B159" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C159" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F159" s="54" t="s">
         <v>73</v>
@@ -10237,7 +10271,7 @@
         <v>29</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I159" s="34">
         <v>298</v>
@@ -10250,10 +10284,10 @@
         <v>33</v>
       </c>
       <c r="M159" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O159" s="37"/>
       <c r="P159" s="39"/>
@@ -10265,16 +10299,16 @@
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="38"/>
       <c r="B160" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C160" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F160" s="54" t="s">
         <v>72</v>
@@ -10283,7 +10317,7 @@
         <v>29</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I160" s="34">
         <v>298</v>
@@ -10296,10 +10330,10 @@
         <v>67</v>
       </c>
       <c r="M160" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O160" s="37"/>
       <c r="P160" s="47"/>
@@ -10311,16 +10345,16 @@
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="38"/>
       <c r="B161" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C161" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F161" s="54" t="s">
         <v>72</v>
@@ -10329,7 +10363,7 @@
         <v>29</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I161" s="34">
         <v>298</v>
@@ -10342,10 +10376,10 @@
         <v>67</v>
       </c>
       <c r="M161" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O161" s="37"/>
       <c r="P161" s="47"/>
@@ -10357,16 +10391,16 @@
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="38"/>
       <c r="B162" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C162" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F162" s="54" t="s">
         <v>72</v>
@@ -10375,7 +10409,7 @@
         <v>29</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I162" s="34">
         <v>298</v>
@@ -10388,10 +10422,10 @@
         <v>67</v>
       </c>
       <c r="M162" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O162" s="37"/>
       <c r="P162" s="47"/>
@@ -10403,16 +10437,16 @@
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="38"/>
       <c r="B163" s="96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C163" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F163" s="54" t="s">
         <v>72</v>
@@ -10421,7 +10455,7 @@
         <v>29</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I163" s="34">
         <v>298</v>
@@ -10434,10 +10468,10 @@
         <v>67</v>
       </c>
       <c r="M163" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O163" s="37"/>
       <c r="P163" s="47"/>
@@ -10448,10 +10482,10 @@
     </row>
     <row r="164" spans="1:20" ht="18" customHeight="1">
       <c r="A164" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C164" s="30" t="s">
         <v>74</v>
@@ -10461,7 +10495,7 @@
       </c>
       <c r="E164" s="31"/>
       <c r="F164" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G164" s="32" t="s">
         <v>29</v>
@@ -10477,13 +10511,13 @@
       </c>
       <c r="K164" s="38"/>
       <c r="L164" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M164" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N164" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O164" s="37"/>
       <c r="P164" s="47">
@@ -10496,22 +10530,22 @@
     </row>
     <row r="165" spans="1:20" ht="18" customHeight="1">
       <c r="A165" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D165" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F165" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G165" s="32" t="s">
         <v>29</v>
@@ -10527,13 +10561,13 @@
       </c>
       <c r="K165" s="38"/>
       <c r="L165" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M165" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N165" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O165" s="37"/>
       <c r="P165" s="47">
@@ -10546,22 +10580,22 @@
     </row>
     <row r="166" spans="1:20" ht="18" customHeight="1">
       <c r="A166" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B166" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D166" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F166" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G166" s="32" t="s">
         <v>29</v>
@@ -10577,13 +10611,13 @@
       </c>
       <c r="K166" s="38"/>
       <c r="L166" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M166" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N166" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O166" s="37"/>
       <c r="P166" s="47">
@@ -10596,10 +10630,10 @@
     </row>
     <row r="167" spans="1:20" ht="18" customHeight="1">
       <c r="A167" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C167" s="30" t="s">
         <v>74</v>
@@ -10609,7 +10643,7 @@
       </c>
       <c r="E167" s="31"/>
       <c r="F167" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G167" s="32" t="s">
         <v>29</v>
@@ -10624,13 +10658,13 @@
       </c>
       <c r="K167" s="38"/>
       <c r="L167" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M167" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N167" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O167" s="37"/>
       <c r="P167" s="47">
@@ -10643,22 +10677,22 @@
     </row>
     <row r="168" spans="1:20" ht="18" customHeight="1">
       <c r="A168" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B168" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D168" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F168" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G168" s="32" t="s">
         <v>29</v>
@@ -10673,13 +10707,13 @@
       </c>
       <c r="K168" s="38"/>
       <c r="L168" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M168" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N168" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O168" s="37"/>
       <c r="P168" s="47">
@@ -10692,22 +10726,22 @@
     </row>
     <row r="169" spans="1:20" ht="18" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B169" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D169" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F169" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G169" s="32" t="s">
         <v>29</v>
@@ -10722,13 +10756,13 @@
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M169" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N169" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O169" s="37"/>
       <c r="P169" s="38">
@@ -10741,10 +10775,10 @@
     </row>
     <row r="170" spans="1:20" ht="18" customHeight="1">
       <c r="A170" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C170" s="30" t="s">
         <v>74</v>
@@ -10754,7 +10788,7 @@
       </c>
       <c r="E170" s="31"/>
       <c r="F170" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G170" s="32" t="s">
         <v>29</v>
@@ -10769,13 +10803,13 @@
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M170" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N170" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O170" s="37"/>
       <c r="P170" s="38">
@@ -10788,22 +10822,22 @@
     </row>
     <row r="171" spans="1:20" ht="18" customHeight="1">
       <c r="A171" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B171" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D171" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F171" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G171" s="32" t="s">
         <v>29</v>
@@ -10818,13 +10852,13 @@
       </c>
       <c r="K171" s="38"/>
       <c r="L171" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M171" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N171" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O171" s="37"/>
       <c r="P171" s="38">
@@ -10837,22 +10871,22 @@
     </row>
     <row r="172" spans="1:20" ht="18" customHeight="1">
       <c r="A172" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B172" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D172" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F172" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G172" s="32" t="s">
         <v>29</v>
@@ -10867,13 +10901,13 @@
       </c>
       <c r="K172" s="38"/>
       <c r="L172" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M172" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N172" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O172" s="37"/>
       <c r="P172" s="38">
@@ -10886,10 +10920,10 @@
     </row>
     <row r="173" spans="1:20" ht="18" customHeight="1">
       <c r="A173" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C173" s="30" t="s">
         <v>74</v>
@@ -10899,7 +10933,7 @@
       </c>
       <c r="E173" s="31"/>
       <c r="F173" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G173" s="32" t="s">
         <v>29</v>
@@ -10914,13 +10948,13 @@
       </c>
       <c r="K173" s="38"/>
       <c r="L173" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M173" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N173" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O173" s="37"/>
       <c r="P173" s="38">
@@ -10933,22 +10967,22 @@
     </row>
     <row r="174" spans="1:20" ht="18" customHeight="1">
       <c r="A174" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B174" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D174" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F174" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G174" s="32" t="s">
         <v>29</v>
@@ -10963,13 +10997,13 @@
       </c>
       <c r="K174" s="38"/>
       <c r="L174" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M174" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N174" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O174" s="37"/>
       <c r="P174" s="38">
@@ -10982,22 +11016,22 @@
     </row>
     <row r="175" spans="1:20" ht="18" customHeight="1">
       <c r="A175" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B175" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D175" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F175" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G175" s="32" t="s">
         <v>29</v>
@@ -11012,13 +11046,13 @@
       </c>
       <c r="K175" s="38"/>
       <c r="L175" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M175" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N175" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O175" s="37"/>
       <c r="P175" s="38">
@@ -11031,10 +11065,10 @@
     </row>
     <row r="176" spans="1:20" ht="18" customHeight="1">
       <c r="A176" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C176" s="30" t="s">
         <v>74</v>
@@ -11044,7 +11078,7 @@
       </c>
       <c r="E176" s="31"/>
       <c r="F176" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G176" s="32" t="s">
         <v>29</v>
@@ -11059,13 +11093,13 @@
       </c>
       <c r="K176" s="38"/>
       <c r="L176" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M176" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N176" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O176" s="37"/>
       <c r="P176" s="38">
@@ -11078,22 +11112,22 @@
     </row>
     <row r="177" spans="1:20" ht="18" customHeight="1">
       <c r="A177" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B177" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D177" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F177" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G177" s="32" t="s">
         <v>29</v>
@@ -11108,13 +11142,13 @@
       </c>
       <c r="K177" s="38"/>
       <c r="L177" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M177" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N177" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O177" s="37"/>
       <c r="P177" s="38">
@@ -11127,22 +11161,22 @@
     </row>
     <row r="178" spans="1:20" ht="18" customHeight="1">
       <c r="A178" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B178" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D178" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F178" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G178" s="32" t="s">
         <v>29</v>
@@ -11157,13 +11191,13 @@
       </c>
       <c r="K178" s="38"/>
       <c r="L178" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M178" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N178" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O178" s="37"/>
       <c r="P178" s="38">
@@ -11176,10 +11210,10 @@
     </row>
     <row r="179" spans="1:20" ht="18" customHeight="1">
       <c r="A179" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C179" s="30" t="s">
         <v>74</v>
@@ -11189,7 +11223,7 @@
       </c>
       <c r="E179" s="31"/>
       <c r="F179" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G179" s="32" t="s">
         <v>29</v>
@@ -11204,13 +11238,13 @@
       </c>
       <c r="K179" s="38"/>
       <c r="L179" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M179" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N179" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O179" s="37"/>
       <c r="P179" s="38">
@@ -11223,22 +11257,22 @@
     </row>
     <row r="180" spans="1:20" ht="18" customHeight="1">
       <c r="A180" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B180" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D180" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F180" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G180" s="32" t="s">
         <v>29</v>
@@ -11253,13 +11287,13 @@
       </c>
       <c r="K180" s="38"/>
       <c r="L180" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M180" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N180" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O180" s="37"/>
       <c r="P180" s="38">
@@ -11272,22 +11306,22 @@
     </row>
     <row r="181" spans="1:20" ht="18" customHeight="1">
       <c r="A181" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B181" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D181" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F181" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G181" s="32" t="s">
         <v>29</v>
@@ -11302,13 +11336,13 @@
       </c>
       <c r="K181" s="38"/>
       <c r="L181" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M181" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N181" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O181" s="37"/>
       <c r="P181" s="38">
@@ -11321,10 +11355,10 @@
     </row>
     <row r="182" spans="1:20" ht="18" customHeight="1">
       <c r="A182" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C182" s="30" t="s">
         <v>74</v>
@@ -11334,7 +11368,7 @@
       </c>
       <c r="E182" s="31"/>
       <c r="F182" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G182" s="32" t="s">
         <v>29</v>
@@ -11350,13 +11384,13 @@
       </c>
       <c r="K182" s="38"/>
       <c r="L182" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M182" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N182" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O182" s="37"/>
       <c r="P182" s="37">
@@ -11369,22 +11403,22 @@
     </row>
     <row r="183" spans="1:20" ht="18" customHeight="1">
       <c r="A183" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B183" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D183" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F183" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G183" s="32" t="s">
         <v>29</v>
@@ -11400,13 +11434,13 @@
       </c>
       <c r="K183" s="38"/>
       <c r="L183" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M183" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N183" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O183" s="37"/>
       <c r="P183" s="37">
@@ -11419,22 +11453,22 @@
     </row>
     <row r="184" spans="1:20" ht="18" customHeight="1">
       <c r="A184" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B184" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D184" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F184" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G184" s="32" t="s">
         <v>29</v>
@@ -11450,13 +11484,13 @@
       </c>
       <c r="K184" s="38"/>
       <c r="L184" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M184" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N184" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O184" s="37"/>
       <c r="P184" s="37">
@@ -11469,10 +11503,10 @@
     </row>
     <row r="185" spans="1:20" ht="18" customHeight="1">
       <c r="A185" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C185" s="30" t="s">
         <v>74</v>
@@ -11482,7 +11516,7 @@
       </c>
       <c r="E185" s="31"/>
       <c r="F185" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G185" s="32" t="s">
         <v>29</v>
@@ -11497,13 +11531,13 @@
       </c>
       <c r="K185" s="38"/>
       <c r="L185" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M185" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N185" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O185" s="37"/>
       <c r="P185" s="37">
@@ -11516,22 +11550,22 @@
     </row>
     <row r="186" spans="1:20" ht="18" customHeight="1">
       <c r="A186" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B186" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D186" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F186" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G186" s="32" t="s">
         <v>29</v>
@@ -11546,13 +11580,13 @@
       </c>
       <c r="K186" s="38"/>
       <c r="L186" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M186" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N186" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O186" s="37"/>
       <c r="P186" s="37">
@@ -11565,22 +11599,22 @@
     </row>
     <row r="187" spans="1:20" ht="18" customHeight="1">
       <c r="A187" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B187" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D187" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F187" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G187" s="32" t="s">
         <v>29</v>
@@ -11595,13 +11629,13 @@
       </c>
       <c r="K187" s="38"/>
       <c r="L187" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M187" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N187" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O187" s="37"/>
       <c r="P187" s="37">
@@ -11614,10 +11648,10 @@
     </row>
     <row r="188" spans="1:20" ht="18" customHeight="1">
       <c r="A188" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C188" s="30" t="s">
         <v>74</v>
@@ -11627,7 +11661,7 @@
       </c>
       <c r="E188" s="31"/>
       <c r="F188" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G188" s="32" t="s">
         <v>29</v>
@@ -11642,13 +11676,13 @@
       </c>
       <c r="K188" s="38"/>
       <c r="L188" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M188" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N188" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O188" s="37"/>
       <c r="P188" s="37">
@@ -11661,22 +11695,22 @@
     </row>
     <row r="189" spans="1:20" ht="18" customHeight="1">
       <c r="A189" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B189" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D189" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F189" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G189" s="32" t="s">
         <v>29</v>
@@ -11691,13 +11725,13 @@
       </c>
       <c r="K189" s="38"/>
       <c r="L189" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M189" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N189" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O189" s="37"/>
       <c r="P189" s="37">
@@ -11710,22 +11744,22 @@
     </row>
     <row r="190" spans="1:20" ht="18" customHeight="1">
       <c r="A190" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B190" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D190" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F190" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G190" s="32" t="s">
         <v>29</v>
@@ -11740,13 +11774,13 @@
       </c>
       <c r="K190" s="38"/>
       <c r="L190" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M190" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N190" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O190" s="37"/>
       <c r="P190" s="37">
@@ -11759,10 +11793,10 @@
     </row>
     <row r="191" spans="1:20" ht="18" customHeight="1">
       <c r="A191" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C191" s="30" t="s">
         <v>74</v>
@@ -11772,7 +11806,7 @@
       </c>
       <c r="E191" s="31"/>
       <c r="F191" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G191" s="32" t="s">
         <v>29</v>
@@ -11787,13 +11821,13 @@
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M191" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N191" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O191" s="37"/>
       <c r="P191" s="37">
@@ -11806,22 +11840,22 @@
     </row>
     <row r="192" spans="1:20" ht="18" customHeight="1">
       <c r="A192" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B192" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D192" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F192" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G192" s="32" t="s">
         <v>29</v>
@@ -11836,13 +11870,13 @@
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M192" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N192" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O192" s="37"/>
       <c r="P192" s="37">
@@ -11855,22 +11889,22 @@
     </row>
     <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B193" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D193" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F193" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G193" s="32" t="s">
         <v>29</v>
@@ -11885,13 +11919,13 @@
       </c>
       <c r="K193" s="38"/>
       <c r="L193" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M193" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N193" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O193" s="37"/>
       <c r="P193" s="37">
@@ -11904,10 +11938,10 @@
     </row>
     <row r="194" spans="1:20" ht="18" customHeight="1">
       <c r="A194" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C194" s="30" t="s">
         <v>74</v>
@@ -11917,7 +11951,7 @@
       </c>
       <c r="E194" s="31"/>
       <c r="F194" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G194" s="32" t="s">
         <v>29</v>
@@ -11932,13 +11966,13 @@
       </c>
       <c r="K194" s="38"/>
       <c r="L194" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M194" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N194" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O194" s="37"/>
       <c r="P194" s="37">
@@ -11951,22 +11985,22 @@
     </row>
     <row r="195" spans="1:20" ht="18" customHeight="1">
       <c r="A195" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B195" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D195" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F195" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G195" s="32" t="s">
         <v>29</v>
@@ -11981,13 +12015,13 @@
       </c>
       <c r="K195" s="38"/>
       <c r="L195" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M195" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N195" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O195" s="37"/>
       <c r="P195" s="37">
@@ -12000,22 +12034,22 @@
     </row>
     <row r="196" spans="1:20" ht="18" customHeight="1">
       <c r="A196" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B196" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F196" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G196" s="32" t="s">
         <v>29</v>
@@ -12030,13 +12064,13 @@
       </c>
       <c r="K196" s="38"/>
       <c r="L196" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M196" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N196" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O196" s="37"/>
       <c r="P196" s="37">
@@ -12049,10 +12083,10 @@
     </row>
     <row r="197" spans="1:20" ht="18" customHeight="1">
       <c r="A197" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C197" s="30" t="s">
         <v>74</v>
@@ -12062,7 +12096,7 @@
       </c>
       <c r="E197" s="31"/>
       <c r="F197" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G197" s="32" t="s">
         <v>29</v>
@@ -12077,13 +12111,13 @@
       </c>
       <c r="K197" s="38"/>
       <c r="L197" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M197" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N197" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O197" s="37"/>
       <c r="P197" s="37">
@@ -12096,22 +12130,22 @@
     </row>
     <row r="198" spans="1:20" ht="18" customHeight="1">
       <c r="A198" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B198" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D198" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F198" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G198" s="32" t="s">
         <v>29</v>
@@ -12126,13 +12160,13 @@
       </c>
       <c r="K198" s="38"/>
       <c r="L198" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M198" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N198" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O198" s="37"/>
       <c r="P198" s="37">
@@ -12145,22 +12179,22 @@
     </row>
     <row r="199" spans="1:20" ht="18" customHeight="1">
       <c r="A199" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B199" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D199" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F199" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G199" s="32" t="s">
         <v>29</v>
@@ -12175,13 +12209,13 @@
       </c>
       <c r="K199" s="38"/>
       <c r="L199" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M199" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N199" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O199" s="37"/>
       <c r="P199" s="37">
@@ -12194,10 +12228,10 @@
     </row>
     <row r="200" spans="1:20" ht="18" customHeight="1">
       <c r="A200" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C200" s="30" t="s">
         <v>74</v>
@@ -12221,13 +12255,13 @@
       </c>
       <c r="K200" s="38"/>
       <c r="L200" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M200" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N200" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O200" s="37"/>
       <c r="P200" s="38"/>
@@ -12238,19 +12272,19 @@
     </row>
     <row r="201" spans="1:20" ht="18" customHeight="1">
       <c r="A201" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D201" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F201" s="60" t="s">
         <v>81</v>
@@ -12267,13 +12301,13 @@
       </c>
       <c r="K201" s="53"/>
       <c r="L201" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M201" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N201" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O201" s="37"/>
       <c r="P201" s="38"/>
@@ -12284,19 +12318,19 @@
     </row>
     <row r="202" spans="1:20" ht="18" customHeight="1">
       <c r="A202" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B202" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D202" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F202" s="60" t="s">
         <v>81</v>
@@ -12313,13 +12347,13 @@
       </c>
       <c r="K202" s="53"/>
       <c r="L202" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M202" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N202" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O202" s="37"/>
       <c r="P202" s="38"/>
@@ -12330,10 +12364,10 @@
     </row>
     <row r="203" spans="1:20" ht="18" customHeight="1">
       <c r="A203" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C203" s="30" t="s">
         <v>74</v>
@@ -12357,13 +12391,13 @@
       </c>
       <c r="K203" s="38"/>
       <c r="L203" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M203" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N203" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O203" s="37"/>
       <c r="P203" s="38"/>
@@ -12374,19 +12408,19 @@
     </row>
     <row r="204" spans="1:20" ht="18" customHeight="1">
       <c r="A204" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B204" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D204" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F204" s="60" t="s">
         <v>81</v>
@@ -12403,13 +12437,13 @@
       </c>
       <c r="K204" s="38"/>
       <c r="L204" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M204" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N204" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O204" s="37"/>
       <c r="P204" s="38"/>
@@ -12420,19 +12454,19 @@
     </row>
     <row r="205" spans="1:20" ht="18" customHeight="1">
       <c r="A205" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B205" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D205" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F205" s="60" t="s">
         <v>81</v>
@@ -12449,13 +12483,13 @@
       </c>
       <c r="K205" s="38"/>
       <c r="L205" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M205" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N205" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O205" s="37"/>
       <c r="P205" s="38"/>
@@ -12466,10 +12500,10 @@
     </row>
     <row r="206" spans="1:20" ht="18" customHeight="1">
       <c r="A206" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C206" s="30" t="s">
         <v>74</v>
@@ -12493,13 +12527,13 @@
       </c>
       <c r="K206" s="38"/>
       <c r="L206" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M206" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N206" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O206" s="37"/>
       <c r="P206" s="38"/>
@@ -12510,19 +12544,19 @@
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
       <c r="A207" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D207" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F207" s="60" t="s">
         <v>81</v>
@@ -12539,13 +12573,13 @@
       </c>
       <c r="K207" s="38"/>
       <c r="L207" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M207" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N207" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O207" s="37"/>
       <c r="P207" s="38"/>
@@ -12556,19 +12590,19 @@
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
       <c r="A208" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B208" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C208" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F208" s="60" t="s">
         <v>81</v>
@@ -12585,13 +12619,13 @@
       </c>
       <c r="K208" s="38"/>
       <c r="L208" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M208" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N208" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O208" s="37"/>
       <c r="P208" s="38"/>
@@ -12602,10 +12636,10 @@
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
       <c r="A209" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C209" s="30" t="s">
         <v>74</v>
@@ -12629,13 +12663,13 @@
       </c>
       <c r="K209" s="38"/>
       <c r="L209" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M209" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N209" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O209" s="37"/>
       <c r="P209" s="38"/>
@@ -12646,19 +12680,19 @@
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
       <c r="A210" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B210" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D210" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F210" s="60" t="s">
         <v>81</v>
@@ -12675,13 +12709,13 @@
       </c>
       <c r="K210" s="38"/>
       <c r="L210" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M210" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N210" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O210" s="37"/>
       <c r="P210" s="38"/>
@@ -12692,19 +12726,19 @@
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B211" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C211" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D211" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F211" s="60" t="s">
         <v>81</v>
@@ -12721,13 +12755,13 @@
       </c>
       <c r="K211" s="38"/>
       <c r="L211" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M211" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N211" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O211" s="37"/>
       <c r="P211" s="38"/>
@@ -12738,10 +12772,10 @@
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B212" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C212" s="30" t="s">
         <v>74</v>
@@ -12765,13 +12799,13 @@
       </c>
       <c r="K212" s="38"/>
       <c r="L212" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M212" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N212" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O212" s="37"/>
       <c r="P212" s="38"/>
@@ -12782,19 +12816,19 @@
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B213" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D213" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F213" s="60" t="s">
         <v>81</v>
@@ -12811,13 +12845,13 @@
       </c>
       <c r="K213" s="38"/>
       <c r="L213" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M213" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N213" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O213" s="37"/>
       <c r="P213" s="38"/>
@@ -12828,19 +12862,19 @@
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B214" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D214" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F214" s="60" t="s">
         <v>81</v>
@@ -12857,13 +12891,13 @@
       </c>
       <c r="K214" s="38"/>
       <c r="L214" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M214" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N214" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O214" s="37"/>
       <c r="P214" s="38"/>
@@ -12874,10 +12908,10 @@
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
       <c r="A215" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C215" s="30" t="s">
         <v>74</v>
@@ -12905,10 +12939,10 @@
         <v>33</v>
       </c>
       <c r="M215" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N215" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O215" s="37"/>
       <c r="P215" s="37">
@@ -12921,19 +12955,19 @@
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
       <c r="A216" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B216" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D216" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F216" s="56" t="s">
         <v>62</v>
@@ -12954,10 +12988,10 @@
         <v>33</v>
       </c>
       <c r="M216" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N216" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O216" s="45"/>
       <c r="P216" s="45">
@@ -12970,19 +13004,19 @@
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
       <c r="A217" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B217" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D217" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F217" s="56" t="s">
         <v>62</v>
@@ -13003,10 +13037,10 @@
         <v>33</v>
       </c>
       <c r="M217" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N217" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O217" s="45"/>
       <c r="P217" s="45">
@@ -13019,19 +13053,19 @@
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
       <c r="A218" s="40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C218" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D218" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F218" s="56" t="s">
         <v>62</v>
@@ -13052,10 +13086,10 @@
         <v>33</v>
       </c>
       <c r="M218" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N218" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O218" s="45"/>
       <c r="P218" s="45">
@@ -13068,19 +13102,19 @@
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
       <c r="A219" s="40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D219" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F219" s="56" t="s">
         <v>62</v>
@@ -13101,10 +13135,10 @@
         <v>33</v>
       </c>
       <c r="M219" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N219" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O219" s="45"/>
       <c r="P219" s="45">
@@ -13117,19 +13151,19 @@
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
       <c r="A220" s="40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B220" s="41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C220" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D220" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F220" s="56" t="s">
         <v>62</v>
@@ -13150,10 +13184,10 @@
         <v>33</v>
       </c>
       <c r="M220" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N220" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O220" s="45"/>
       <c r="P220" s="45">
@@ -13166,19 +13200,19 @@
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
       <c r="A221" s="40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B221" s="41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D221" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F221" s="56" t="s">
         <v>62</v>
@@ -13199,10 +13233,10 @@
         <v>33</v>
       </c>
       <c r="M221" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N221" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O221" s="45"/>
       <c r="P221" s="45">
@@ -13215,10 +13249,10 @@
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
       <c r="A222" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C222" s="30" t="s">
         <v>74</v>
@@ -13234,7 +13268,7 @@
         <v>29</v>
       </c>
       <c r="H222" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I222" s="38">
         <v>298</v>
@@ -13247,10 +13281,10 @@
         <v>33</v>
       </c>
       <c r="M222" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N222" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O222" s="45"/>
       <c r="P222" s="45"/>
@@ -13261,19 +13295,19 @@
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
       <c r="A223" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B223" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D223" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F223" s="56" t="s">
         <v>65</v>
@@ -13282,7 +13316,7 @@
         <v>29</v>
       </c>
       <c r="H223" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I223" s="38">
         <v>298</v>
@@ -13295,10 +13329,10 @@
         <v>33</v>
       </c>
       <c r="M223" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N223" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O223" s="45"/>
       <c r="P223" s="45"/>
@@ -13309,19 +13343,19 @@
     </row>
     <row r="224" spans="1:20" ht="18" customHeight="1">
       <c r="A224" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D224" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E224" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F224" s="56" t="s">
         <v>65</v>
@@ -13330,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="H224" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I224" s="38">
         <v>298</v>
@@ -13343,10 +13377,10 @@
         <v>33</v>
       </c>
       <c r="M224" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N224" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O224" s="45"/>
       <c r="P224" s="45"/>
@@ -13357,19 +13391,19 @@
     </row>
     <row r="225" spans="1:20" ht="18" customHeight="1">
       <c r="A225" s="40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D225" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F225" s="56" t="s">
         <v>65</v>
@@ -13378,7 +13412,7 @@
         <v>29</v>
       </c>
       <c r="H225" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I225" s="38">
         <v>298</v>
@@ -13391,10 +13425,10 @@
         <v>33</v>
       </c>
       <c r="M225" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N225" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O225" s="45"/>
       <c r="P225" s="45"/>
@@ -13405,10 +13439,10 @@
     </row>
     <row r="226" spans="1:20" ht="18" customHeight="1">
       <c r="A226" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C226" s="30" t="s">
         <v>74</v>
@@ -13418,13 +13452,13 @@
       </c>
       <c r="E226" s="31"/>
       <c r="F226" s="56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G226" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H226" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I226" s="38">
         <v>298</v>
@@ -13437,10 +13471,10 @@
         <v>33</v>
       </c>
       <c r="M226" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N226" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O226" s="45"/>
       <c r="P226" s="45"/>
@@ -13451,19 +13485,19 @@
     </row>
     <row r="227" spans="1:20" ht="18" customHeight="1">
       <c r="A227" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B227" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D227" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F227" s="56" t="s">
         <v>68</v>
@@ -13472,7 +13506,7 @@
         <v>29</v>
       </c>
       <c r="H227" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I227" s="38">
         <v>298</v>
@@ -13485,10 +13519,10 @@
         <v>33</v>
       </c>
       <c r="M227" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N227" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O227" s="45"/>
       <c r="P227" s="45"/>
@@ -13499,19 +13533,19 @@
     </row>
     <row r="228" spans="1:20" ht="18" customHeight="1">
       <c r="A228" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B228" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D228" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F228" s="56" t="s">
         <v>68</v>
@@ -13520,7 +13554,7 @@
         <v>29</v>
       </c>
       <c r="H228" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I228" s="38">
         <v>298</v>
@@ -13533,10 +13567,10 @@
         <v>33</v>
       </c>
       <c r="M228" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N228" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O228" s="45"/>
       <c r="P228" s="45"/>
@@ -13547,19 +13581,19 @@
     </row>
     <row r="229" spans="1:20" ht="18" customHeight="1">
       <c r="A229" s="40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D229" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F229" s="56" t="s">
         <v>68</v>
@@ -13568,7 +13602,7 @@
         <v>29</v>
       </c>
       <c r="H229" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I229" s="38">
         <v>298</v>
@@ -13581,10 +13615,10 @@
         <v>33</v>
       </c>
       <c r="M229" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N229" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O229" s="45"/>
       <c r="P229" s="45"/>
@@ -13595,19 +13629,19 @@
     </row>
     <row r="230" spans="1:20" ht="18" customHeight="1">
       <c r="A230" s="40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D230" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F230" s="56" t="s">
         <v>68</v>
@@ -13616,7 +13650,7 @@
         <v>29</v>
       </c>
       <c r="H230" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I230" s="38">
         <v>298</v>
@@ -13629,10 +13663,10 @@
         <v>33</v>
       </c>
       <c r="M230" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N230" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O230" s="45"/>
       <c r="P230" s="45"/>
@@ -13643,19 +13677,19 @@
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
       <c r="A231" s="40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D231" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F231" s="56" t="s">
         <v>68</v>
@@ -13664,7 +13698,7 @@
         <v>29</v>
       </c>
       <c r="H231" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I231" s="38">
         <v>298</v>
@@ -13677,10 +13711,10 @@
         <v>33</v>
       </c>
       <c r="M231" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N231" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O231" s="45"/>
       <c r="P231" s="45"/>
@@ -13691,19 +13725,19 @@
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
       <c r="A232" s="40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D232" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F232" s="56" t="s">
         <v>68</v>
@@ -13712,7 +13746,7 @@
         <v>29</v>
       </c>
       <c r="H232" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I232" s="38">
         <v>298</v>
@@ -13725,10 +13759,10 @@
         <v>33</v>
       </c>
       <c r="M232" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N232" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O232" s="45"/>
       <c r="P232" s="45"/>
@@ -13739,10 +13773,10 @@
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
       <c r="A233" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C233" s="30" t="s">
         <v>74</v>
@@ -13752,13 +13786,13 @@
       </c>
       <c r="E233" s="31"/>
       <c r="F233" s="56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G233" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H233" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I233" s="38">
         <v>298</v>
@@ -13771,10 +13805,10 @@
         <v>67</v>
       </c>
       <c r="M233" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N233" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O233" s="45"/>
       <c r="P233" s="45"/>
@@ -13785,28 +13819,28 @@
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
       <c r="A234" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B234" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D234" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F234" s="56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G234" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H234" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I234" s="38">
         <v>298</v>
@@ -13819,10 +13853,10 @@
         <v>67</v>
       </c>
       <c r="M234" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N234" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O234" s="45"/>
       <c r="P234" s="45"/>
@@ -13833,28 +13867,28 @@
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
       <c r="A235" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B235" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D235" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F235" s="56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G235" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H235" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I235" s="38">
         <v>298</v>
@@ -13867,10 +13901,10 @@
         <v>67</v>
       </c>
       <c r="M235" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N235" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O235" s="45"/>
       <c r="P235" s="45"/>
@@ -13881,28 +13915,28 @@
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
       <c r="A236" s="40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B236" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D236" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F236" s="56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G236" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H236" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I236" s="38">
         <v>298</v>
@@ -13915,10 +13949,10 @@
         <v>67</v>
       </c>
       <c r="M236" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N236" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O236" s="45"/>
       <c r="P236" s="45"/>
@@ -13929,10 +13963,10 @@
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
       <c r="A237" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C237" s="30" t="s">
         <v>74</v>
@@ -13948,7 +13982,7 @@
         <v>29</v>
       </c>
       <c r="H237" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I237" s="38">
         <v>298</v>
@@ -13961,10 +13995,10 @@
         <v>67</v>
       </c>
       <c r="M237" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N237" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O237" s="45"/>
       <c r="P237" s="45"/>
@@ -13975,19 +14009,19 @@
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
       <c r="A238" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B238" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D238" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E238" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F238" s="56" t="s">
         <v>66</v>
@@ -13996,7 +14030,7 @@
         <v>29</v>
       </c>
       <c r="H238" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I238" s="38">
         <v>298</v>
@@ -14009,10 +14043,10 @@
         <v>67</v>
       </c>
       <c r="M238" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N238" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O238" s="45"/>
       <c r="P238" s="45"/>
@@ -14023,19 +14057,19 @@
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
       <c r="A239" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B239" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D239" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F239" s="56" t="s">
         <v>66</v>
@@ -14044,7 +14078,7 @@
         <v>29</v>
       </c>
       <c r="H239" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I239" s="38">
         <v>298</v>
@@ -14057,10 +14091,10 @@
         <v>67</v>
       </c>
       <c r="M239" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N239" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O239" s="45"/>
       <c r="P239" s="45"/>
@@ -14071,19 +14105,19 @@
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
       <c r="A240" s="40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B240" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D240" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F240" s="56" t="s">
         <v>66</v>
@@ -14092,7 +14126,7 @@
         <v>29</v>
       </c>
       <c r="H240" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I240" s="38">
         <v>298</v>
@@ -14105,10 +14139,10 @@
         <v>67</v>
       </c>
       <c r="M240" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N240" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O240" s="45"/>
       <c r="P240" s="45"/>
@@ -14119,19 +14153,19 @@
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
       <c r="A241" s="40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B241" s="41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D241" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F241" s="56" t="s">
         <v>66</v>
@@ -14140,7 +14174,7 @@
         <v>29</v>
       </c>
       <c r="H241" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I241" s="38">
         <v>298</v>
@@ -14153,10 +14187,10 @@
         <v>67</v>
       </c>
       <c r="M241" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N241" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O241" s="45"/>
       <c r="P241" s="45"/>
@@ -14167,19 +14201,19 @@
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
       <c r="A242" s="40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B242" s="41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D242" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F242" s="56" t="s">
         <v>66</v>
@@ -14188,7 +14222,7 @@
         <v>29</v>
       </c>
       <c r="H242" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I242" s="38">
         <v>298</v>
@@ -14201,10 +14235,10 @@
         <v>67</v>
       </c>
       <c r="M242" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N242" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O242" s="45"/>
       <c r="P242" s="45"/>
@@ -14214,20 +14248,46 @@
       <c r="T242" s="37"/>
     </row>
     <row r="243" spans="1:20" ht="18" customHeight="1">
-      <c r="A243" s="40"/>
-      <c r="B243" s="31"/>
-      <c r="C243" s="61"/>
-      <c r="D243" s="40"/>
-      <c r="E243" s="58"/>
-      <c r="F243" s="56"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="45"/>
-      <c r="I243" s="38"/>
-      <c r="J243" s="53"/>
+      <c r="A243" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C243" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E243" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F243" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G243" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H243" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I243" s="38">
+        <v>298</v>
+      </c>
+      <c r="J243" s="53">
+        <v>239300000</v>
+      </c>
       <c r="K243" s="38"/>
-      <c r="L243" s="61"/>
-      <c r="M243" s="40"/>
-      <c r="N243" s="40"/>
+      <c r="L243" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M243" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N243" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O243" s="45"/>
       <c r="P243" s="45"/>
       <c r="Q243" s="45"/>
@@ -14236,20 +14296,46 @@
       <c r="T243" s="37"/>
     </row>
     <row r="244" spans="1:20" ht="18" customHeight="1">
-      <c r="A244" s="40"/>
-      <c r="B244" s="31"/>
-      <c r="C244" s="61"/>
-      <c r="D244" s="40"/>
-      <c r="E244" s="58"/>
-      <c r="F244" s="56"/>
-      <c r="G244" s="32"/>
-      <c r="H244" s="45"/>
-      <c r="I244" s="38"/>
-      <c r="J244" s="53"/>
+      <c r="A244" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C244" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="D244" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E244" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F244" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G244" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I244" s="38">
+        <v>298</v>
+      </c>
+      <c r="J244" s="53">
+        <v>610800000</v>
+      </c>
       <c r="K244" s="38"/>
-      <c r="L244" s="61"/>
-      <c r="M244" s="40"/>
-      <c r="N244" s="40"/>
+      <c r="L244" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M244" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N244" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O244" s="45"/>
       <c r="P244" s="45"/>
       <c r="Q244" s="45"/>
@@ -14258,20 +14344,46 @@
       <c r="T244" s="37"/>
     </row>
     <row r="245" spans="1:20" ht="18" customHeight="1">
-      <c r="A245" s="40"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="61"/>
-      <c r="D245" s="40"/>
-      <c r="E245" s="58"/>
-      <c r="F245" s="56"/>
-      <c r="G245" s="32"/>
-      <c r="H245" s="45"/>
-      <c r="I245" s="38"/>
-      <c r="J245" s="53"/>
+      <c r="A245" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C245" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D245" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E245" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F245" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G245" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I245" s="38">
+        <v>298</v>
+      </c>
+      <c r="J245" s="53">
+        <v>1600000000</v>
+      </c>
       <c r="K245" s="38"/>
-      <c r="L245" s="61"/>
-      <c r="M245" s="40"/>
-      <c r="N245" s="40"/>
+      <c r="L245" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M245" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N245" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O245" s="45"/>
       <c r="P245" s="45"/>
       <c r="Q245" s="45"/>
@@ -14280,20 +14392,46 @@
       <c r="T245" s="37"/>
     </row>
     <row r="246" spans="1:20" ht="18" customHeight="1">
-      <c r="A246" s="40"/>
-      <c r="B246" s="31"/>
-      <c r="C246" s="61"/>
-      <c r="D246" s="57"/>
-      <c r="E246" s="58"/>
-      <c r="F246" s="56"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="45"/>
-      <c r="I246" s="38"/>
-      <c r="J246" s="53"/>
+      <c r="A246" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C246" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="D246" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E246" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F246" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G246" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H246" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I246" s="38">
+        <v>298</v>
+      </c>
+      <c r="J246" s="53">
+        <v>1880600000</v>
+      </c>
       <c r="K246" s="38"/>
-      <c r="L246" s="61"/>
-      <c r="M246" s="40"/>
-      <c r="N246" s="40"/>
+      <c r="L246" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M246" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N246" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O246" s="45"/>
       <c r="P246" s="45"/>
       <c r="Q246" s="45"/>
@@ -14302,20 +14440,46 @@
       <c r="T246" s="37"/>
     </row>
     <row r="247" spans="1:20" ht="18" customHeight="1">
-      <c r="A247" s="40"/>
-      <c r="B247" s="31"/>
-      <c r="C247" s="61"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="58"/>
-      <c r="F247" s="56"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="45"/>
-      <c r="I247" s="38"/>
-      <c r="J247" s="53"/>
+      <c r="A247" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C247" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D247" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E247" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F247" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G247" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H247" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I247" s="38">
+        <v>298</v>
+      </c>
+      <c r="J247" s="53">
+        <v>50</v>
+      </c>
       <c r="K247" s="38"/>
-      <c r="L247" s="61"/>
-      <c r="M247" s="40"/>
-      <c r="N247" s="40"/>
+      <c r="L247" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M247" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N247" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O247" s="45"/>
       <c r="P247" s="45"/>
       <c r="Q247" s="45"/>
@@ -14324,20 +14488,46 @@
       <c r="T247" s="45"/>
     </row>
     <row r="248" spans="1:20" ht="18" customHeight="1">
-      <c r="A248" s="61"/>
-      <c r="B248" s="61"/>
-      <c r="C248" s="61"/>
-      <c r="D248" s="61"/>
-      <c r="E248" s="58"/>
-      <c r="F248" s="61"/>
-      <c r="G248" s="32"/>
-      <c r="H248" s="45"/>
-      <c r="I248" s="38"/>
-      <c r="J248" s="53"/>
+      <c r="A248" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C248" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="D248" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E248" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F248" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G248" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H248" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I248" s="38">
+        <v>298</v>
+      </c>
+      <c r="J248" s="53">
+        <v>41.2</v>
+      </c>
       <c r="K248" s="38"/>
-      <c r="L248" s="61"/>
-      <c r="M248" s="61"/>
-      <c r="N248" s="40"/>
+      <c r="L248" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M248" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N248" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O248" s="45"/>
       <c r="P248" s="45"/>
       <c r="Q248" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93616AD-153E-0947-90D9-6DDBB64FADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06820254-3C3E-434F-AA81-B69BB62F3C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="259">
   <si>
     <r>
       <rPr>
@@ -875,6 +875,39 @@
   </si>
   <si>
     <t>10.1016/j.msea.2023.146002</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2019.04.003</t>
+  </si>
+  <si>
+    <t>NbHfZrTi</t>
+  </si>
+  <si>
+    <t>VAM+DC+H+CR+A</t>
+  </si>
+  <si>
+    <t>experimental elastic properties through ultrasound</t>
+  </si>
+  <si>
+    <t>SQS 64atom calls in VASP under PBE</t>
+  </si>
+  <si>
+    <t>youngs modulus</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>shear modulus</t>
+  </si>
+  <si>
+    <t>bulk modulus</t>
+  </si>
+  <si>
+    <t>poissons ratio</t>
+  </si>
+  <si>
+    <t>B/G ratio</t>
   </si>
 </sst>
 </file>
@@ -3360,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A204" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N252" sqref="N252"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A218" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L261" sqref="L261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -14537,19 +14570,41 @@
     </row>
     <row r="249" spans="1:20" ht="18" customHeight="1">
       <c r="A249" s="61"/>
-      <c r="B249" s="61"/>
-      <c r="C249" s="61"/>
-      <c r="D249" s="61"/>
-      <c r="E249" s="58"/>
-      <c r="F249" s="61"/>
-      <c r="G249" s="32"/>
+      <c r="B249" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D249" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E249" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F249" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G249" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H249" s="45"/>
-      <c r="I249" s="38"/>
-      <c r="J249" s="53"/>
+      <c r="I249" s="38">
+        <v>298</v>
+      </c>
+      <c r="J249" s="53">
+        <v>69700000000</v>
+      </c>
       <c r="K249" s="38"/>
-      <c r="L249" s="61"/>
-      <c r="M249" s="61"/>
-      <c r="N249" s="40"/>
+      <c r="L249" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M249" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N249" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O249" s="45"/>
       <c r="P249" s="45"/>
       <c r="Q249" s="45"/>
@@ -14559,19 +14614,37 @@
     </row>
     <row r="250" spans="1:20" ht="18" customHeight="1">
       <c r="A250" s="61"/>
-      <c r="B250" s="61"/>
-      <c r="C250" s="61"/>
+      <c r="B250" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C250" s="140" t="s">
+        <v>64</v>
+      </c>
       <c r="D250" s="61"/>
-      <c r="E250" s="58"/>
-      <c r="F250" s="61"/>
-      <c r="G250" s="32"/>
+      <c r="E250" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F250" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G250" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="H250" s="45"/>
       <c r="I250" s="38"/>
-      <c r="J250" s="53"/>
+      <c r="J250" s="53">
+        <v>67700000000</v>
+      </c>
       <c r="K250" s="38"/>
-      <c r="L250" s="61"/>
-      <c r="M250" s="61"/>
-      <c r="N250" s="40"/>
+      <c r="L250" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M250" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N250" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O250" s="45"/>
       <c r="P250" s="45"/>
       <c r="Q250" s="45"/>
@@ -14581,19 +14654,41 @@
     </row>
     <row r="251" spans="1:20" ht="18" customHeight="1">
       <c r="A251" s="61"/>
-      <c r="B251" s="61"/>
-      <c r="C251" s="61"/>
-      <c r="D251" s="61"/>
-      <c r="E251" s="58"/>
-      <c r="F251" s="61"/>
-      <c r="G251" s="32"/>
+      <c r="B251" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C251" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D251" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E251" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F251" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="G251" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H251" s="45"/>
-      <c r="I251" s="38"/>
-      <c r="J251" s="53"/>
+      <c r="I251" s="38">
+        <v>298</v>
+      </c>
+      <c r="J251" s="53">
+        <v>25100000000</v>
+      </c>
       <c r="K251" s="38"/>
-      <c r="L251" s="61"/>
-      <c r="M251" s="61"/>
-      <c r="N251" s="40"/>
+      <c r="L251" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M251" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N251" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O251" s="45"/>
       <c r="P251" s="45"/>
       <c r="Q251" s="45"/>
@@ -14603,19 +14698,37 @@
     </row>
     <row r="252" spans="1:20" ht="18" customHeight="1">
       <c r="A252" s="61"/>
-      <c r="B252" s="61"/>
-      <c r="C252" s="61"/>
+      <c r="B252" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C252" s="140" t="s">
+        <v>64</v>
+      </c>
       <c r="D252" s="61"/>
-      <c r="E252" s="58"/>
-      <c r="F252" s="61"/>
-      <c r="G252" s="32"/>
+      <c r="E252" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F252" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="G252" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="H252" s="45"/>
       <c r="I252" s="38"/>
-      <c r="J252" s="53"/>
+      <c r="J252" s="53">
+        <v>24200000000</v>
+      </c>
       <c r="K252" s="38"/>
-      <c r="L252" s="61"/>
-      <c r="M252" s="61"/>
-      <c r="N252" s="40"/>
+      <c r="L252" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M252" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N252" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O252" s="45"/>
       <c r="P252" s="45"/>
       <c r="Q252" s="45"/>
@@ -14625,19 +14738,41 @@
     </row>
     <row r="253" spans="1:20" ht="18" customHeight="1">
       <c r="A253" s="61"/>
-      <c r="B253" s="61"/>
-      <c r="C253" s="61"/>
-      <c r="D253" s="61"/>
-      <c r="E253" s="58"/>
-      <c r="F253" s="61"/>
-      <c r="G253" s="32"/>
+      <c r="B253" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C253" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D253" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E253" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F253" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="G253" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H253" s="45"/>
-      <c r="I253" s="38"/>
-      <c r="J253" s="53"/>
+      <c r="I253" s="38">
+        <v>298</v>
+      </c>
+      <c r="J253" s="53">
+        <v>105700000000</v>
+      </c>
       <c r="K253" s="38"/>
-      <c r="L253" s="61"/>
-      <c r="M253" s="61"/>
-      <c r="N253" s="40"/>
+      <c r="L253" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M253" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N253" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O253" s="45"/>
       <c r="P253" s="45"/>
       <c r="Q253" s="45"/>
@@ -14647,19 +14782,37 @@
     </row>
     <row r="254" spans="1:20" ht="18" customHeight="1">
       <c r="A254" s="61"/>
-      <c r="B254" s="61"/>
-      <c r="C254" s="61"/>
+      <c r="B254" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C254" s="140" t="s">
+        <v>64</v>
+      </c>
       <c r="D254" s="61"/>
-      <c r="E254" s="58"/>
-      <c r="F254" s="61"/>
-      <c r="G254" s="32"/>
+      <c r="E254" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F254" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="G254" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="H254" s="45"/>
       <c r="I254" s="38"/>
-      <c r="J254" s="53"/>
+      <c r="J254" s="53">
+        <v>112000000000</v>
+      </c>
       <c r="K254" s="38"/>
-      <c r="L254" s="61"/>
-      <c r="M254" s="61"/>
-      <c r="N254" s="40"/>
+      <c r="L254" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M254" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N254" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O254" s="45"/>
       <c r="P254" s="45"/>
       <c r="Q254" s="45"/>
@@ -14669,19 +14822,39 @@
     </row>
     <row r="255" spans="1:20" ht="18" customHeight="1">
       <c r="A255" s="61"/>
-      <c r="B255" s="61"/>
-      <c r="C255" s="61"/>
-      <c r="D255" s="61"/>
-      <c r="E255" s="58"/>
-      <c r="F255" s="61"/>
-      <c r="G255" s="32"/>
+      <c r="B255" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C255" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E255" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F255" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="G255" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H255" s="45"/>
-      <c r="I255" s="38"/>
-      <c r="J255" s="53"/>
+      <c r="I255" s="38">
+        <v>298</v>
+      </c>
+      <c r="J255" s="53">
+        <v>0.39</v>
+      </c>
       <c r="K255" s="38"/>
       <c r="L255" s="61"/>
-      <c r="M255" s="61"/>
-      <c r="N255" s="40"/>
+      <c r="M255" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N255" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O255" s="45"/>
       <c r="P255" s="45"/>
       <c r="Q255" s="45"/>
@@ -14691,19 +14864,35 @@
     </row>
     <row r="256" spans="1:20" ht="18" customHeight="1">
       <c r="A256" s="61"/>
-      <c r="B256" s="61"/>
-      <c r="C256" s="61"/>
+      <c r="B256" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C256" s="140" t="s">
+        <v>64</v>
+      </c>
       <c r="D256" s="61"/>
-      <c r="E256" s="58"/>
-      <c r="F256" s="61"/>
-      <c r="G256" s="32"/>
+      <c r="E256" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F256" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="G256" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="H256" s="45"/>
       <c r="I256" s="38"/>
-      <c r="J256" s="53"/>
+      <c r="J256" s="53">
+        <v>0.39900000000000002</v>
+      </c>
       <c r="K256" s="38"/>
       <c r="L256" s="61"/>
-      <c r="M256" s="61"/>
-      <c r="N256" s="40"/>
+      <c r="M256" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N256" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O256" s="45"/>
       <c r="P256" s="45"/>
       <c r="Q256" s="45"/>
@@ -14713,19 +14902,38 @@
     </row>
     <row r="257" spans="1:20" ht="18" customHeight="1">
       <c r="A257" s="61"/>
-      <c r="B257" s="61"/>
-      <c r="C257" s="61"/>
-      <c r="D257" s="61"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="61"/>
-      <c r="G257" s="32"/>
+      <c r="B257" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C257" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D257" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E257" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F257" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G257" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H257" s="45"/>
-      <c r="I257" s="38"/>
-      <c r="J257" s="53"/>
+      <c r="I257" s="38">
+        <v>298</v>
+      </c>
+      <c r="J257" s="53">
+        <f>J253/J251</f>
+        <v>4.2111553784860556</v>
+      </c>
       <c r="K257" s="38"/>
       <c r="L257" s="61"/>
       <c r="M257" s="61"/>
-      <c r="N257" s="40"/>
+      <c r="N257" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O257" s="45"/>
       <c r="P257" s="45"/>
       <c r="Q257" s="45"/>
@@ -14735,19 +14943,34 @@
     </row>
     <row r="258" spans="1:20" ht="18" customHeight="1">
       <c r="A258" s="61"/>
-      <c r="B258" s="61"/>
-      <c r="C258" s="61"/>
+      <c r="B258" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C258" s="140" t="s">
+        <v>64</v>
+      </c>
       <c r="D258" s="61"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="61"/>
-      <c r="G258" s="32"/>
+      <c r="E258" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F258" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G258" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="H258" s="45"/>
       <c r="I258" s="38"/>
-      <c r="J258" s="53"/>
+      <c r="J258" s="53">
+        <f>J254/J252</f>
+        <v>4.6280991735537187</v>
+      </c>
       <c r="K258" s="38"/>
       <c r="L258" s="61"/>
       <c r="M258" s="61"/>
-      <c r="N258" s="40"/>
+      <c r="N258" s="40" t="s">
+        <v>248</v>
+      </c>
       <c r="O258" s="45"/>
       <c r="P258" s="45"/>
       <c r="Q258" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06820254-3C3E-434F-AA81-B69BB62F3C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6853C7-7A27-DD42-8030-1EF42A48F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="277">
   <si>
     <r>
       <rPr>
@@ -763,9 +763,6 @@
     <t>VAM and leviatition melting followed by CR with thickness reduction of 83%</t>
   </si>
   <si>
-    <t>Ohm/m</t>
-  </si>
-  <si>
     <t>VAM and leviatition melting</t>
   </si>
   <si>
@@ -908,6 +905,63 @@
   </si>
   <si>
     <t>B/G ratio</t>
+  </si>
+  <si>
+    <t>SnTeSePb1</t>
+  </si>
+  <si>
+    <t>SnTeSePb0.98La0.02</t>
+  </si>
+  <si>
+    <t>SnTeSePb0.96La0.04</t>
+  </si>
+  <si>
+    <t>SnTeSePb0.94La0.06</t>
+  </si>
+  <si>
+    <t>SnTeSePb0.92La0.08</t>
+  </si>
+  <si>
+    <t>SnTeSePb0.9La0.1</t>
+  </si>
+  <si>
+    <t>VAC+HT+WQ+A+BM+HIP+SPS</t>
+  </si>
+  <si>
+    <t>sealed in evacuated ampules then heated to 1373K for 6h with rocking for homogenity then quenched and annealed at 873K for 120h then powdered and consolidated at 823K for 5min into 20mm discs finally SPS-ed at 50MPa</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>0.5La</t>
+  </si>
+  <si>
+    <t>1La</t>
+  </si>
+  <si>
+    <t>1.5La</t>
+  </si>
+  <si>
+    <t>2La</t>
+  </si>
+  <si>
+    <t>2.5La</t>
+  </si>
+  <si>
+    <t>Ohm*m</t>
+  </si>
+  <si>
+    <t>F3a</t>
+  </si>
+  <si>
+    <t>F3b</t>
+  </si>
+  <si>
+    <t>F4b</t>
+  </si>
+  <si>
+    <t>10.1080/21663831.2016.1244116</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,6 +2285,9 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3393,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A218" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L261" sqref="L261"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A246" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O314" sqref="O314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -7443,7 +7500,7 @@
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -7485,7 +7542,7 @@
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>29</v>
@@ -7527,7 +7584,7 @@
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>29</v>
@@ -8478,7 +8535,7 @@
         <v>86</v>
       </c>
       <c r="N117" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O117" s="46"/>
       <c r="P117" s="39"/>
@@ -8520,7 +8577,7 @@
         <v>86</v>
       </c>
       <c r="N118" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O118" s="46"/>
       <c r="P118" s="39"/>
@@ -8562,7 +8619,7 @@
         <v>86</v>
       </c>
       <c r="N119" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O119" s="46"/>
       <c r="P119" s="38"/>
@@ -8604,7 +8661,7 @@
         <v>86</v>
       </c>
       <c r="N120" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O120" s="46"/>
       <c r="P120" s="38"/>
@@ -8646,7 +8703,7 @@
         <v>86</v>
       </c>
       <c r="N121" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O121" s="46"/>
       <c r="P121" s="39"/>
@@ -8688,7 +8745,7 @@
         <v>86</v>
       </c>
       <c r="N122" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O122" s="46"/>
       <c r="P122" s="39"/>
@@ -8730,7 +8787,7 @@
         <v>86</v>
       </c>
       <c r="N123" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O123" s="46"/>
       <c r="P123" s="39"/>
@@ -8772,7 +8829,7 @@
         <v>86</v>
       </c>
       <c r="N124" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O124" s="37"/>
       <c r="P124" s="39"/>
@@ -8814,7 +8871,7 @@
         <v>86</v>
       </c>
       <c r="N125" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O125" s="37"/>
       <c r="P125" s="39"/>
@@ -8856,7 +8913,7 @@
         <v>86</v>
       </c>
       <c r="N126" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O126" s="37"/>
       <c r="P126" s="39"/>
@@ -8900,7 +8957,7 @@
         <v>86</v>
       </c>
       <c r="N127" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O127" s="37"/>
       <c r="P127" s="39"/>
@@ -8944,7 +9001,7 @@
         <v>86</v>
       </c>
       <c r="N128" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O128" s="37"/>
       <c r="P128" s="39"/>
@@ -8988,7 +9045,7 @@
         <v>86</v>
       </c>
       <c r="N129" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O129" s="37"/>
       <c r="P129" s="39"/>
@@ -9032,7 +9089,7 @@
         <v>86</v>
       </c>
       <c r="N130" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O130" s="37"/>
       <c r="P130" s="39"/>
@@ -9076,7 +9133,7 @@
         <v>86</v>
       </c>
       <c r="N131" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O131" s="37"/>
       <c r="P131" s="39"/>
@@ -9120,7 +9177,7 @@
         <v>86</v>
       </c>
       <c r="N132" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O132" s="37"/>
       <c r="P132" s="39"/>
@@ -9164,7 +9221,7 @@
         <v>86</v>
       </c>
       <c r="N133" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O133" s="37"/>
       <c r="P133" s="39"/>
@@ -9208,7 +9265,7 @@
         <v>86</v>
       </c>
       <c r="N134" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O134" s="37"/>
       <c r="P134" s="38"/>
@@ -9252,7 +9309,7 @@
         <v>86</v>
       </c>
       <c r="N135" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O135" s="37"/>
       <c r="P135" s="38"/>
@@ -9296,7 +9353,7 @@
         <v>86</v>
       </c>
       <c r="N136" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O136" s="37"/>
       <c r="P136" s="38"/>
@@ -9340,7 +9397,7 @@
         <v>86</v>
       </c>
       <c r="N137" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O137" s="37"/>
       <c r="P137" s="38"/>
@@ -9384,7 +9441,7 @@
         <v>86</v>
       </c>
       <c r="N138" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O138" s="37"/>
       <c r="P138" s="38"/>
@@ -9428,7 +9485,7 @@
         <v>86</v>
       </c>
       <c r="N139" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O139" s="37"/>
       <c r="P139" s="38"/>
@@ -9472,7 +9529,7 @@
         <v>86</v>
       </c>
       <c r="N140" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O140" s="37"/>
       <c r="P140" s="38"/>
@@ -9516,7 +9573,7 @@
         <v>86</v>
       </c>
       <c r="N141" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O141" s="37"/>
       <c r="P141" s="38"/>
@@ -9560,7 +9617,7 @@
         <v>86</v>
       </c>
       <c r="N142" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O142" s="37"/>
       <c r="P142" s="38"/>
@@ -9592,15 +9649,16 @@
         <v>298</v>
       </c>
       <c r="J143" s="49">
-        <v>6.0299999999999999E-7</v>
+        <f>60.3*0.00001</f>
+        <v>6.0300000000000002E-4</v>
       </c>
       <c r="K143" s="49"/>
       <c r="L143" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M143" s="50"/>
       <c r="N143" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O143" s="37"/>
       <c r="P143" s="38"/>
@@ -9621,7 +9679,7 @@
         <v>208</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F144" s="32" t="s">
         <v>90</v>
@@ -9644,7 +9702,7 @@
         <v>127</v>
       </c>
       <c r="N144" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O144" s="37"/>
       <c r="P144" s="38"/>
@@ -9662,7 +9720,7 @@
         <v>74</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>209</v>
@@ -9688,7 +9746,7 @@
         <v>127</v>
       </c>
       <c r="N145" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O145" s="37"/>
       <c r="P145" s="38"/>
@@ -9709,7 +9767,7 @@
         <v>206</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F146" s="32" t="s">
         <v>90</v>
@@ -9732,7 +9790,7 @@
         <v>127</v>
       </c>
       <c r="N146" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O146" s="37"/>
       <c r="P146" s="38"/>
@@ -9750,10 +9808,10 @@
         <v>74</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F147" s="32" t="s">
         <v>90</v>
@@ -9776,7 +9834,7 @@
         <v>127</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O147" s="37"/>
       <c r="P147" s="38"/>
@@ -9797,7 +9855,7 @@
         <v>208</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F148" s="54" t="s">
         <v>84</v>
@@ -9820,7 +9878,7 @@
         <v>95</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O148" s="37"/>
       <c r="P148" s="38"/>
@@ -9838,7 +9896,7 @@
         <v>74</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E149" s="31" t="s">
         <v>209</v>
@@ -9864,7 +9922,7 @@
         <v>95</v>
       </c>
       <c r="N149" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O149" s="37"/>
       <c r="P149" s="38"/>
@@ -9885,7 +9943,7 @@
         <v>206</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F150" s="54" t="s">
         <v>84</v>
@@ -9908,7 +9966,7 @@
         <v>95</v>
       </c>
       <c r="N150" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O150" s="37"/>
       <c r="P150" s="38"/>
@@ -9926,10 +9984,10 @@
         <v>74</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F151" s="54" t="s">
         <v>84</v>
@@ -9952,7 +10010,7 @@
         <v>95</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O151" s="37"/>
       <c r="P151" s="38"/>
@@ -9973,7 +10031,7 @@
         <v>208</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F152" s="54" t="s">
         <v>71</v>
@@ -9998,7 +10056,7 @@
         <v>127</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O152" s="37"/>
       <c r="P152" s="38"/>
@@ -10016,7 +10074,7 @@
         <v>74</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E153" s="31" t="s">
         <v>209</v>
@@ -10044,7 +10102,7 @@
         <v>127</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O153" s="37"/>
       <c r="P153" s="38"/>
@@ -10065,7 +10123,7 @@
         <v>206</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F154" s="54" t="s">
         <v>71</v>
@@ -10090,7 +10148,7 @@
         <v>127</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O154" s="37"/>
       <c r="P154" s="38"/>
@@ -10108,10 +10166,10 @@
         <v>74</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F155" s="54" t="s">
         <v>71</v>
@@ -10136,7 +10194,7 @@
         <v>127</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O155" s="37"/>
       <c r="P155" s="38"/>
@@ -10157,7 +10215,7 @@
         <v>208</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F156" s="54" t="s">
         <v>73</v>
@@ -10182,7 +10240,7 @@
         <v>127</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O156" s="37"/>
       <c r="P156" s="38"/>
@@ -10200,7 +10258,7 @@
         <v>74</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E157" s="31" t="s">
         <v>209</v>
@@ -10228,7 +10286,7 @@
         <v>127</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O157" s="37"/>
       <c r="P157" s="38"/>
@@ -10249,7 +10307,7 @@
         <v>206</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F158" s="54" t="s">
         <v>73</v>
@@ -10274,7 +10332,7 @@
         <v>127</v>
       </c>
       <c r="N158" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O158" s="37"/>
       <c r="P158" s="38"/>
@@ -10292,10 +10350,10 @@
         <v>74</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F159" s="54" t="s">
         <v>73</v>
@@ -10320,7 +10378,7 @@
         <v>127</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O159" s="37"/>
       <c r="P159" s="39"/>
@@ -10341,7 +10399,7 @@
         <v>208</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F160" s="54" t="s">
         <v>72</v>
@@ -10366,7 +10424,7 @@
         <v>127</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O160" s="37"/>
       <c r="P160" s="47"/>
@@ -10384,7 +10442,7 @@
         <v>74</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E161" s="31" t="s">
         <v>209</v>
@@ -10412,7 +10470,7 @@
         <v>127</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O161" s="37"/>
       <c r="P161" s="47"/>
@@ -10433,7 +10491,7 @@
         <v>206</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F162" s="54" t="s">
         <v>72</v>
@@ -10458,7 +10516,7 @@
         <v>127</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O162" s="37"/>
       <c r="P162" s="47"/>
@@ -10476,10 +10534,10 @@
         <v>74</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F163" s="54" t="s">
         <v>72</v>
@@ -10504,7 +10562,7 @@
         <v>127</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O163" s="37"/>
       <c r="P163" s="47"/>
@@ -10515,7 +10573,7 @@
     </row>
     <row r="164" spans="1:20" ht="18" customHeight="1">
       <c r="A164" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B164" s="31" t="s">
         <v>176</v>
@@ -10544,13 +10602,13 @@
       </c>
       <c r="K164" s="38"/>
       <c r="L164" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M164" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N164" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O164" s="37"/>
       <c r="P164" s="47">
@@ -10563,19 +10621,19 @@
     </row>
     <row r="165" spans="1:20" ht="18" customHeight="1">
       <c r="A165" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D165" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F165" s="54" t="s">
         <v>89</v>
@@ -10594,13 +10652,13 @@
       </c>
       <c r="K165" s="38"/>
       <c r="L165" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M165" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N165" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O165" s="37"/>
       <c r="P165" s="47">
@@ -10613,19 +10671,19 @@
     </row>
     <row r="166" spans="1:20" ht="18" customHeight="1">
       <c r="A166" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B166" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D166" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F166" s="54" t="s">
         <v>89</v>
@@ -10644,13 +10702,13 @@
       </c>
       <c r="K166" s="38"/>
       <c r="L166" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M166" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N166" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O166" s="37"/>
       <c r="P166" s="47">
@@ -10663,7 +10721,7 @@
     </row>
     <row r="167" spans="1:20" ht="18" customHeight="1">
       <c r="A167" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>176</v>
@@ -10691,13 +10749,13 @@
       </c>
       <c r="K167" s="38"/>
       <c r="L167" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M167" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N167" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O167" s="37"/>
       <c r="P167" s="47">
@@ -10710,19 +10768,19 @@
     </row>
     <row r="168" spans="1:20" ht="18" customHeight="1">
       <c r="A168" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B168" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F168" s="54" t="s">
         <v>89</v>
@@ -10740,13 +10798,13 @@
       </c>
       <c r="K168" s="38"/>
       <c r="L168" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M168" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N168" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O168" s="37"/>
       <c r="P168" s="47">
@@ -10759,19 +10817,19 @@
     </row>
     <row r="169" spans="1:20" ht="18" customHeight="1">
       <c r="A169" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C169" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B169" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D169" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F169" s="54" t="s">
         <v>89</v>
@@ -10789,13 +10847,13 @@
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M169" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N169" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O169" s="37"/>
       <c r="P169" s="38">
@@ -10808,7 +10866,7 @@
     </row>
     <row r="170" spans="1:20" ht="18" customHeight="1">
       <c r="A170" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B170" s="31" t="s">
         <v>176</v>
@@ -10836,13 +10894,13 @@
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M170" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N170" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O170" s="37"/>
       <c r="P170" s="38">
@@ -10855,19 +10913,19 @@
     </row>
     <row r="171" spans="1:20" ht="18" customHeight="1">
       <c r="A171" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B171" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D171" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F171" s="54" t="s">
         <v>89</v>
@@ -10885,13 +10943,13 @@
       </c>
       <c r="K171" s="38"/>
       <c r="L171" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M171" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N171" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O171" s="37"/>
       <c r="P171" s="38">
@@ -10904,19 +10962,19 @@
     </row>
     <row r="172" spans="1:20" ht="18" customHeight="1">
       <c r="A172" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B172" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B172" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D172" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F172" s="54" t="s">
         <v>89</v>
@@ -10934,13 +10992,13 @@
       </c>
       <c r="K172" s="38"/>
       <c r="L172" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M172" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N172" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O172" s="37"/>
       <c r="P172" s="38">
@@ -10953,7 +11011,7 @@
     </row>
     <row r="173" spans="1:20" ht="18" customHeight="1">
       <c r="A173" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>176</v>
@@ -10981,13 +11039,13 @@
       </c>
       <c r="K173" s="38"/>
       <c r="L173" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M173" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N173" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O173" s="37"/>
       <c r="P173" s="38">
@@ -11000,19 +11058,19 @@
     </row>
     <row r="174" spans="1:20" ht="18" customHeight="1">
       <c r="A174" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B174" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F174" s="54" t="s">
         <v>89</v>
@@ -11030,13 +11088,13 @@
       </c>
       <c r="K174" s="38"/>
       <c r="L174" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M174" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N174" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O174" s="37"/>
       <c r="P174" s="38">
@@ -11049,19 +11107,19 @@
     </row>
     <row r="175" spans="1:20" ht="18" customHeight="1">
       <c r="A175" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C175" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B175" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C175" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D175" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F175" s="54" t="s">
         <v>89</v>
@@ -11079,13 +11137,13 @@
       </c>
       <c r="K175" s="38"/>
       <c r="L175" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M175" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N175" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O175" s="37"/>
       <c r="P175" s="38">
@@ -11098,7 +11156,7 @@
     </row>
     <row r="176" spans="1:20" ht="18" customHeight="1">
       <c r="A176" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B176" s="31" t="s">
         <v>176</v>
@@ -11126,13 +11184,13 @@
       </c>
       <c r="K176" s="38"/>
       <c r="L176" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M176" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N176" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O176" s="37"/>
       <c r="P176" s="38">
@@ -11145,19 +11203,19 @@
     </row>
     <row r="177" spans="1:20" ht="18" customHeight="1">
       <c r="A177" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B177" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D177" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F177" s="54" t="s">
         <v>89</v>
@@ -11175,13 +11233,13 @@
       </c>
       <c r="K177" s="38"/>
       <c r="L177" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M177" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N177" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O177" s="37"/>
       <c r="P177" s="38">
@@ -11194,19 +11252,19 @@
     </row>
     <row r="178" spans="1:20" ht="18" customHeight="1">
       <c r="A178" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C178" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B178" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C178" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D178" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F178" s="54" t="s">
         <v>89</v>
@@ -11224,13 +11282,13 @@
       </c>
       <c r="K178" s="38"/>
       <c r="L178" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M178" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N178" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O178" s="37"/>
       <c r="P178" s="38">
@@ -11243,7 +11301,7 @@
     </row>
     <row r="179" spans="1:20" ht="18" customHeight="1">
       <c r="A179" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179" s="31" t="s">
         <v>176</v>
@@ -11271,13 +11329,13 @@
       </c>
       <c r="K179" s="38"/>
       <c r="L179" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M179" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N179" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O179" s="37"/>
       <c r="P179" s="38">
@@ -11290,19 +11348,19 @@
     </row>
     <row r="180" spans="1:20" ht="18" customHeight="1">
       <c r="A180" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B180" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D180" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F180" s="54" t="s">
         <v>89</v>
@@ -11320,13 +11378,13 @@
       </c>
       <c r="K180" s="38"/>
       <c r="L180" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M180" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N180" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O180" s="37"/>
       <c r="P180" s="38">
@@ -11339,19 +11397,19 @@
     </row>
     <row r="181" spans="1:20" ht="18" customHeight="1">
       <c r="A181" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B181" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C181" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B181" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C181" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D181" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F181" s="54" t="s">
         <v>89</v>
@@ -11369,13 +11427,13 @@
       </c>
       <c r="K181" s="38"/>
       <c r="L181" s="50" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M181" s="50" t="s">
         <v>86</v>
       </c>
       <c r="N181" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O181" s="37"/>
       <c r="P181" s="38">
@@ -11388,7 +11446,7 @@
     </row>
     <row r="182" spans="1:20" ht="18" customHeight="1">
       <c r="A182" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B182" s="31" t="s">
         <v>176</v>
@@ -11401,7 +11459,7 @@
       </c>
       <c r="E182" s="31"/>
       <c r="F182" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G182" s="32" t="s">
         <v>29</v>
@@ -11417,13 +11475,13 @@
       </c>
       <c r="K182" s="38"/>
       <c r="L182" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M182" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N182" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O182" s="37"/>
       <c r="P182" s="37">
@@ -11436,22 +11494,22 @@
     </row>
     <row r="183" spans="1:20" ht="18" customHeight="1">
       <c r="A183" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B183" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D183" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F183" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G183" s="32" t="s">
         <v>29</v>
@@ -11467,13 +11525,13 @@
       </c>
       <c r="K183" s="38"/>
       <c r="L183" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M183" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N183" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O183" s="37"/>
       <c r="P183" s="37">
@@ -11486,22 +11544,22 @@
     </row>
     <row r="184" spans="1:20" ht="18" customHeight="1">
       <c r="A184" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C184" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B184" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C184" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D184" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E184" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F184" s="54" t="s">
         <v>224</v>
-      </c>
-      <c r="F184" s="54" t="s">
-        <v>225</v>
       </c>
       <c r="G184" s="32" t="s">
         <v>29</v>
@@ -11517,13 +11575,13 @@
       </c>
       <c r="K184" s="38"/>
       <c r="L184" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M184" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N184" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O184" s="37"/>
       <c r="P184" s="37">
@@ -11536,7 +11594,7 @@
     </row>
     <row r="185" spans="1:20" ht="18" customHeight="1">
       <c r="A185" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B185" s="31" t="s">
         <v>176</v>
@@ -11549,7 +11607,7 @@
       </c>
       <c r="E185" s="31"/>
       <c r="F185" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G185" s="32" t="s">
         <v>29</v>
@@ -11564,13 +11622,13 @@
       </c>
       <c r="K185" s="38"/>
       <c r="L185" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M185" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N185" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O185" s="37"/>
       <c r="P185" s="37">
@@ -11583,22 +11641,22 @@
     </row>
     <row r="186" spans="1:20" ht="18" customHeight="1">
       <c r="A186" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B186" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D186" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F186" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G186" s="32" t="s">
         <v>29</v>
@@ -11613,13 +11671,13 @@
       </c>
       <c r="K186" s="38"/>
       <c r="L186" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M186" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N186" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O186" s="37"/>
       <c r="P186" s="37">
@@ -11632,22 +11690,22 @@
     </row>
     <row r="187" spans="1:20" ht="18" customHeight="1">
       <c r="A187" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C187" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B187" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C187" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D187" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E187" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F187" s="54" t="s">
         <v>224</v>
-      </c>
-      <c r="F187" s="54" t="s">
-        <v>225</v>
       </c>
       <c r="G187" s="32" t="s">
         <v>29</v>
@@ -11662,13 +11720,13 @@
       </c>
       <c r="K187" s="38"/>
       <c r="L187" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M187" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N187" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O187" s="37"/>
       <c r="P187" s="37">
@@ -11681,7 +11739,7 @@
     </row>
     <row r="188" spans="1:20" ht="18" customHeight="1">
       <c r="A188" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B188" s="31" t="s">
         <v>176</v>
@@ -11694,7 +11752,7 @@
       </c>
       <c r="E188" s="31"/>
       <c r="F188" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G188" s="32" t="s">
         <v>29</v>
@@ -11709,13 +11767,13 @@
       </c>
       <c r="K188" s="38"/>
       <c r="L188" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M188" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N188" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O188" s="37"/>
       <c r="P188" s="37">
@@ -11728,22 +11786,22 @@
     </row>
     <row r="189" spans="1:20" ht="18" customHeight="1">
       <c r="A189" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B189" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D189" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F189" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G189" s="32" t="s">
         <v>29</v>
@@ -11758,13 +11816,13 @@
       </c>
       <c r="K189" s="38"/>
       <c r="L189" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M189" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N189" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O189" s="37"/>
       <c r="P189" s="37">
@@ -11777,22 +11835,22 @@
     </row>
     <row r="190" spans="1:20" ht="18" customHeight="1">
       <c r="A190" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B190" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C190" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D190" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E190" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F190" s="54" t="s">
         <v>224</v>
-      </c>
-      <c r="F190" s="54" t="s">
-        <v>225</v>
       </c>
       <c r="G190" s="32" t="s">
         <v>29</v>
@@ -11807,13 +11865,13 @@
       </c>
       <c r="K190" s="38"/>
       <c r="L190" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M190" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N190" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O190" s="37"/>
       <c r="P190" s="37">
@@ -11826,7 +11884,7 @@
     </row>
     <row r="191" spans="1:20" ht="18" customHeight="1">
       <c r="A191" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B191" s="31" t="s">
         <v>176</v>
@@ -11839,7 +11897,7 @@
       </c>
       <c r="E191" s="31"/>
       <c r="F191" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G191" s="32" t="s">
         <v>29</v>
@@ -11854,13 +11912,13 @@
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M191" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N191" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O191" s="37"/>
       <c r="P191" s="37">
@@ -11873,22 +11931,22 @@
     </row>
     <row r="192" spans="1:20" ht="18" customHeight="1">
       <c r="A192" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B192" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D192" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F192" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G192" s="32" t="s">
         <v>29</v>
@@ -11903,13 +11961,13 @@
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M192" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N192" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O192" s="37"/>
       <c r="P192" s="37">
@@ -11922,22 +11980,22 @@
     </row>
     <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B193" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C193" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D193" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E193" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F193" s="54" t="s">
         <v>224</v>
-      </c>
-      <c r="F193" s="54" t="s">
-        <v>225</v>
       </c>
       <c r="G193" s="32" t="s">
         <v>29</v>
@@ -11952,13 +12010,13 @@
       </c>
       <c r="K193" s="38"/>
       <c r="L193" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M193" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N193" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O193" s="37"/>
       <c r="P193" s="37">
@@ -11971,7 +12029,7 @@
     </row>
     <row r="194" spans="1:20" ht="18" customHeight="1">
       <c r="A194" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B194" s="31" t="s">
         <v>176</v>
@@ -11984,7 +12042,7 @@
       </c>
       <c r="E194" s="31"/>
       <c r="F194" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G194" s="32" t="s">
         <v>29</v>
@@ -11999,13 +12057,13 @@
       </c>
       <c r="K194" s="38"/>
       <c r="L194" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M194" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N194" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O194" s="37"/>
       <c r="P194" s="37">
@@ -12018,22 +12076,22 @@
     </row>
     <row r="195" spans="1:20" ht="18" customHeight="1">
       <c r="A195" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B195" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D195" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F195" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G195" s="32" t="s">
         <v>29</v>
@@ -12048,13 +12106,13 @@
       </c>
       <c r="K195" s="38"/>
       <c r="L195" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M195" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N195" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O195" s="37"/>
       <c r="P195" s="37">
@@ -12067,22 +12125,22 @@
     </row>
     <row r="196" spans="1:20" ht="18" customHeight="1">
       <c r="A196" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C196" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B196" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C196" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E196" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F196" s="54" t="s">
         <v>224</v>
-      </c>
-      <c r="F196" s="54" t="s">
-        <v>225</v>
       </c>
       <c r="G196" s="32" t="s">
         <v>29</v>
@@ -12097,13 +12155,13 @@
       </c>
       <c r="K196" s="38"/>
       <c r="L196" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M196" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N196" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O196" s="37"/>
       <c r="P196" s="37">
@@ -12116,7 +12174,7 @@
     </row>
     <row r="197" spans="1:20" ht="18" customHeight="1">
       <c r="A197" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B197" s="31" t="s">
         <v>176</v>
@@ -12129,7 +12187,7 @@
       </c>
       <c r="E197" s="31"/>
       <c r="F197" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G197" s="32" t="s">
         <v>29</v>
@@ -12144,13 +12202,13 @@
       </c>
       <c r="K197" s="38"/>
       <c r="L197" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M197" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N197" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O197" s="37"/>
       <c r="P197" s="37">
@@ -12163,22 +12221,22 @@
     </row>
     <row r="198" spans="1:20" ht="18" customHeight="1">
       <c r="A198" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B198" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D198" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F198" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G198" s="32" t="s">
         <v>29</v>
@@ -12193,13 +12251,13 @@
       </c>
       <c r="K198" s="38"/>
       <c r="L198" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M198" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N198" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O198" s="37"/>
       <c r="P198" s="37">
@@ -12212,22 +12270,22 @@
     </row>
     <row r="199" spans="1:20" ht="18" customHeight="1">
       <c r="A199" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C199" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B199" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C199" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D199" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E199" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F199" s="54" t="s">
         <v>224</v>
-      </c>
-      <c r="F199" s="54" t="s">
-        <v>225</v>
       </c>
       <c r="G199" s="32" t="s">
         <v>29</v>
@@ -12242,13 +12300,13 @@
       </c>
       <c r="K199" s="38"/>
       <c r="L199" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M199" s="40" t="s">
         <v>79</v>
       </c>
       <c r="N199" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O199" s="37"/>
       <c r="P199" s="37">
@@ -12261,7 +12319,7 @@
     </row>
     <row r="200" spans="1:20" ht="18" customHeight="1">
       <c r="A200" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B200" s="31" t="s">
         <v>176</v>
@@ -12288,13 +12346,13 @@
       </c>
       <c r="K200" s="38"/>
       <c r="L200" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M200" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N200" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O200" s="37"/>
       <c r="P200" s="38"/>
@@ -12305,19 +12363,19 @@
     </row>
     <row r="201" spans="1:20" ht="18" customHeight="1">
       <c r="A201" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D201" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F201" s="60" t="s">
         <v>81</v>
@@ -12334,13 +12392,13 @@
       </c>
       <c r="K201" s="53"/>
       <c r="L201" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M201" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N201" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O201" s="37"/>
       <c r="P201" s="38"/>
@@ -12351,19 +12409,19 @@
     </row>
     <row r="202" spans="1:20" ht="18" customHeight="1">
       <c r="A202" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B202" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D202" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F202" s="60" t="s">
         <v>81</v>
@@ -12380,13 +12438,13 @@
       </c>
       <c r="K202" s="53"/>
       <c r="L202" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M202" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N202" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O202" s="37"/>
       <c r="P202" s="38"/>
@@ -12397,7 +12455,7 @@
     </row>
     <row r="203" spans="1:20" ht="18" customHeight="1">
       <c r="A203" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B203" s="31" t="s">
         <v>176</v>
@@ -12424,13 +12482,13 @@
       </c>
       <c r="K203" s="38"/>
       <c r="L203" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M203" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N203" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O203" s="37"/>
       <c r="P203" s="38"/>
@@ -12441,19 +12499,19 @@
     </row>
     <row r="204" spans="1:20" ht="18" customHeight="1">
       <c r="A204" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B204" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D204" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F204" s="60" t="s">
         <v>81</v>
@@ -12470,13 +12528,13 @@
       </c>
       <c r="K204" s="38"/>
       <c r="L204" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M204" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N204" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O204" s="37"/>
       <c r="P204" s="38"/>
@@ -12487,19 +12545,19 @@
     </row>
     <row r="205" spans="1:20" ht="18" customHeight="1">
       <c r="A205" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C205" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B205" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C205" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D205" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F205" s="60" t="s">
         <v>81</v>
@@ -12516,13 +12574,13 @@
       </c>
       <c r="K205" s="38"/>
       <c r="L205" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M205" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N205" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O205" s="37"/>
       <c r="P205" s="38"/>
@@ -12533,7 +12591,7 @@
     </row>
     <row r="206" spans="1:20" ht="18" customHeight="1">
       <c r="A206" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B206" s="31" t="s">
         <v>176</v>
@@ -12560,13 +12618,13 @@
       </c>
       <c r="K206" s="38"/>
       <c r="L206" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M206" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N206" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O206" s="37"/>
       <c r="P206" s="38"/>
@@ -12577,19 +12635,19 @@
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
       <c r="A207" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D207" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F207" s="60" t="s">
         <v>81</v>
@@ -12606,13 +12664,13 @@
       </c>
       <c r="K207" s="38"/>
       <c r="L207" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M207" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N207" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O207" s="37"/>
       <c r="P207" s="38"/>
@@ -12623,19 +12681,19 @@
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
       <c r="A208" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C208" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B208" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C208" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F208" s="60" t="s">
         <v>81</v>
@@ -12652,13 +12710,13 @@
       </c>
       <c r="K208" s="38"/>
       <c r="L208" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M208" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N208" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O208" s="37"/>
       <c r="P208" s="38"/>
@@ -12669,7 +12727,7 @@
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
       <c r="A209" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B209" s="31" t="s">
         <v>176</v>
@@ -12696,13 +12754,13 @@
       </c>
       <c r="K209" s="38"/>
       <c r="L209" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M209" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N209" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O209" s="37"/>
       <c r="P209" s="38"/>
@@ -12713,19 +12771,19 @@
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
       <c r="A210" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B210" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D210" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F210" s="60" t="s">
         <v>81</v>
@@ -12742,13 +12800,13 @@
       </c>
       <c r="K210" s="38"/>
       <c r="L210" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M210" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N210" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O210" s="37"/>
       <c r="P210" s="38"/>
@@ -12759,19 +12817,19 @@
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C211" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B211" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C211" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D211" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F211" s="60" t="s">
         <v>81</v>
@@ -12788,13 +12846,13 @@
       </c>
       <c r="K211" s="38"/>
       <c r="L211" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M211" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N211" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O211" s="37"/>
       <c r="P211" s="38"/>
@@ -12805,7 +12863,7 @@
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B212" s="31" t="s">
         <v>176</v>
@@ -12832,13 +12890,13 @@
       </c>
       <c r="K212" s="38"/>
       <c r="L212" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M212" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N212" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O212" s="37"/>
       <c r="P212" s="38"/>
@@ -12849,19 +12907,19 @@
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B213" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D213" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F213" s="60" t="s">
         <v>81</v>
@@ -12878,13 +12936,13 @@
       </c>
       <c r="K213" s="38"/>
       <c r="L213" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M213" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N213" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O213" s="37"/>
       <c r="P213" s="38"/>
@@ -12895,19 +12953,19 @@
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B214" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C214" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D214" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F214" s="60" t="s">
         <v>81</v>
@@ -12924,13 +12982,13 @@
       </c>
       <c r="K214" s="38"/>
       <c r="L214" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M214" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N214" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O214" s="37"/>
       <c r="P214" s="38"/>
@@ -12941,7 +12999,7 @@
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
       <c r="A215" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B215" s="31" t="s">
         <v>176</v>
@@ -12975,7 +13033,7 @@
         <v>87</v>
       </c>
       <c r="N215" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O215" s="37"/>
       <c r="P215" s="37">
@@ -12988,19 +13046,19 @@
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
       <c r="A216" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B216" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D216" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F216" s="56" t="s">
         <v>62</v>
@@ -13024,7 +13082,7 @@
         <v>87</v>
       </c>
       <c r="N216" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O216" s="45"/>
       <c r="P216" s="45">
@@ -13037,19 +13095,19 @@
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
       <c r="A217" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B217" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C217" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D217" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F217" s="56" t="s">
         <v>62</v>
@@ -13073,7 +13131,7 @@
         <v>87</v>
       </c>
       <c r="N217" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O217" s="45"/>
       <c r="P217" s="45">
@@ -13086,19 +13144,19 @@
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
       <c r="A218" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C218" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D218" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F218" s="56" t="s">
         <v>62</v>
@@ -13122,7 +13180,7 @@
         <v>87</v>
       </c>
       <c r="N218" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O218" s="45"/>
       <c r="P218" s="45">
@@ -13135,19 +13193,19 @@
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
       <c r="A219" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D219" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F219" s="56" t="s">
         <v>62</v>
@@ -13171,7 +13229,7 @@
         <v>87</v>
       </c>
       <c r="N219" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O219" s="45"/>
       <c r="P219" s="45">
@@ -13184,19 +13242,19 @@
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
       <c r="A220" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B220" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C220" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D220" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F220" s="56" t="s">
         <v>62</v>
@@ -13220,7 +13278,7 @@
         <v>87</v>
       </c>
       <c r="N220" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O220" s="45"/>
       <c r="P220" s="45">
@@ -13233,19 +13291,19 @@
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
       <c r="A221" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B221" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D221" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F221" s="56" t="s">
         <v>62</v>
@@ -13269,7 +13327,7 @@
         <v>87</v>
       </c>
       <c r="N221" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O221" s="45"/>
       <c r="P221" s="45">
@@ -13282,7 +13340,7 @@
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
       <c r="A222" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="31" t="s">
         <v>176</v>
@@ -13317,7 +13375,7 @@
         <v>144</v>
       </c>
       <c r="N222" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O222" s="45"/>
       <c r="P222" s="45"/>
@@ -13328,19 +13386,19 @@
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
       <c r="A223" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D223" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F223" s="56" t="s">
         <v>65</v>
@@ -13365,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="N223" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O223" s="45"/>
       <c r="P223" s="45"/>
@@ -13376,19 +13434,19 @@
     </row>
     <row r="224" spans="1:20" ht="18" customHeight="1">
       <c r="A224" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C224" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B224" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C224" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D224" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E224" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F224" s="56" t="s">
         <v>65</v>
@@ -13413,7 +13471,7 @@
         <v>144</v>
       </c>
       <c r="N224" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O224" s="45"/>
       <c r="P224" s="45"/>
@@ -13424,19 +13482,19 @@
     </row>
     <row r="225" spans="1:20" ht="18" customHeight="1">
       <c r="A225" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D225" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F225" s="56" t="s">
         <v>65</v>
@@ -13461,7 +13519,7 @@
         <v>144</v>
       </c>
       <c r="N225" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O225" s="45"/>
       <c r="P225" s="45"/>
@@ -13472,7 +13530,7 @@
     </row>
     <row r="226" spans="1:20" ht="18" customHeight="1">
       <c r="A226" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B226" s="31" t="s">
         <v>176</v>
@@ -13507,7 +13565,7 @@
         <v>144</v>
       </c>
       <c r="N226" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O226" s="45"/>
       <c r="P226" s="45"/>
@@ -13518,19 +13576,19 @@
     </row>
     <row r="227" spans="1:20" ht="18" customHeight="1">
       <c r="A227" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B227" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D227" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F227" s="56" t="s">
         <v>68</v>
@@ -13555,7 +13613,7 @@
         <v>144</v>
       </c>
       <c r="N227" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O227" s="45"/>
       <c r="P227" s="45"/>
@@ -13566,19 +13624,19 @@
     </row>
     <row r="228" spans="1:20" ht="18" customHeight="1">
       <c r="A228" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C228" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B228" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C228" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D228" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F228" s="56" t="s">
         <v>68</v>
@@ -13603,7 +13661,7 @@
         <v>144</v>
       </c>
       <c r="N228" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O228" s="45"/>
       <c r="P228" s="45"/>
@@ -13614,19 +13672,19 @@
     </row>
     <row r="229" spans="1:20" ht="18" customHeight="1">
       <c r="A229" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D229" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F229" s="56" t="s">
         <v>68</v>
@@ -13651,7 +13709,7 @@
         <v>144</v>
       </c>
       <c r="N229" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O229" s="45"/>
       <c r="P229" s="45"/>
@@ -13662,19 +13720,19 @@
     </row>
     <row r="230" spans="1:20" ht="18" customHeight="1">
       <c r="A230" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D230" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F230" s="56" t="s">
         <v>68</v>
@@ -13699,7 +13757,7 @@
         <v>144</v>
       </c>
       <c r="N230" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O230" s="45"/>
       <c r="P230" s="45"/>
@@ -13710,19 +13768,19 @@
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
       <c r="A231" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D231" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F231" s="56" t="s">
         <v>68</v>
@@ -13747,7 +13805,7 @@
         <v>144</v>
       </c>
       <c r="N231" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O231" s="45"/>
       <c r="P231" s="45"/>
@@ -13758,19 +13816,19 @@
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
       <c r="A232" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D232" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F232" s="56" t="s">
         <v>68</v>
@@ -13795,7 +13853,7 @@
         <v>144</v>
       </c>
       <c r="N232" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O232" s="45"/>
       <c r="P232" s="45"/>
@@ -13806,7 +13864,7 @@
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
       <c r="A233" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B233" s="31" t="s">
         <v>176</v>
@@ -13819,7 +13877,7 @@
       </c>
       <c r="E233" s="31"/>
       <c r="F233" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G233" s="32" t="s">
         <v>29</v>
@@ -13841,7 +13899,7 @@
         <v>144</v>
       </c>
       <c r="N233" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O233" s="45"/>
       <c r="P233" s="45"/>
@@ -13852,19 +13910,19 @@
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
       <c r="A234" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B234" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D234" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F234" s="56" t="s">
         <v>207</v>
@@ -13889,7 +13947,7 @@
         <v>144</v>
       </c>
       <c r="N234" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O234" s="45"/>
       <c r="P234" s="45"/>
@@ -13900,19 +13958,19 @@
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
       <c r="A235" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C235" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B235" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C235" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D235" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F235" s="56" t="s">
         <v>207</v>
@@ -13937,7 +13995,7 @@
         <v>144</v>
       </c>
       <c r="N235" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O235" s="45"/>
       <c r="P235" s="45"/>
@@ -13948,19 +14006,19 @@
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
       <c r="A236" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B236" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D236" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F236" s="56" t="s">
         <v>207</v>
@@ -13985,7 +14043,7 @@
         <v>144</v>
       </c>
       <c r="N236" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O236" s="45"/>
       <c r="P236" s="45"/>
@@ -13996,7 +14054,7 @@
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
       <c r="A237" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B237" s="31" t="s">
         <v>176</v>
@@ -14031,7 +14089,7 @@
         <v>144</v>
       </c>
       <c r="N237" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O237" s="45"/>
       <c r="P237" s="45"/>
@@ -14042,19 +14100,19 @@
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
       <c r="A238" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B238" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D238" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E238" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F238" s="56" t="s">
         <v>66</v>
@@ -14079,7 +14137,7 @@
         <v>144</v>
       </c>
       <c r="N238" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O238" s="45"/>
       <c r="P238" s="45"/>
@@ -14090,19 +14148,19 @@
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
       <c r="A239" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B239" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C239" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="B239" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C239" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D239" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F239" s="56" t="s">
         <v>66</v>
@@ -14127,7 +14185,7 @@
         <v>144</v>
       </c>
       <c r="N239" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O239" s="45"/>
       <c r="P239" s="45"/>
@@ -14138,19 +14196,19 @@
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
       <c r="A240" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B240" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D240" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F240" s="56" t="s">
         <v>66</v>
@@ -14175,7 +14233,7 @@
         <v>144</v>
       </c>
       <c r="N240" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O240" s="45"/>
       <c r="P240" s="45"/>
@@ -14186,19 +14244,19 @@
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
       <c r="A241" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B241" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D241" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F241" s="56" t="s">
         <v>66</v>
@@ -14223,7 +14281,7 @@
         <v>144</v>
       </c>
       <c r="N241" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O241" s="45"/>
       <c r="P241" s="45"/>
@@ -14234,19 +14292,19 @@
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
       <c r="A242" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B242" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D242" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F242" s="56" t="s">
         <v>66</v>
@@ -14271,7 +14329,7 @@
         <v>144</v>
       </c>
       <c r="N242" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O242" s="45"/>
       <c r="P242" s="45"/>
@@ -14282,19 +14340,19 @@
     </row>
     <row r="243" spans="1:20" ht="18" customHeight="1">
       <c r="A243" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" s="140" t="s">
         <v>92</v>
       </c>
       <c r="D243" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E243" s="58" t="s">
         <v>243</v>
-      </c>
-      <c r="E243" s="58" t="s">
-        <v>244</v>
       </c>
       <c r="F243" s="56" t="s">
         <v>65</v>
@@ -14319,7 +14377,7 @@
         <v>82</v>
       </c>
       <c r="N243" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O243" s="45"/>
       <c r="P243" s="45"/>
@@ -14330,19 +14388,19 @@
     </row>
     <row r="244" spans="1:20" ht="18" customHeight="1">
       <c r="A244" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C244" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B244" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C244" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D244" s="61" t="s">
-        <v>243</v>
-      </c>
       <c r="E244" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F244" s="56" t="s">
         <v>65</v>
@@ -14367,7 +14425,7 @@
         <v>82</v>
       </c>
       <c r="N244" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O244" s="45"/>
       <c r="P244" s="45"/>
@@ -14378,19 +14436,19 @@
     </row>
     <row r="245" spans="1:20" ht="18" customHeight="1">
       <c r="A245" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C245" s="140" t="s">
         <v>92</v>
       </c>
       <c r="D245" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E245" s="58" t="s">
         <v>243</v>
-      </c>
-      <c r="E245" s="58" t="s">
-        <v>244</v>
       </c>
       <c r="F245" s="56" t="s">
         <v>93</v>
@@ -14415,7 +14473,7 @@
         <v>78</v>
       </c>
       <c r="N245" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O245" s="45"/>
       <c r="P245" s="45"/>
@@ -14426,19 +14484,19 @@
     </row>
     <row r="246" spans="1:20" ht="18" customHeight="1">
       <c r="A246" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C246" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="D246" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B246" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C246" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D246" s="61" t="s">
-        <v>243</v>
-      </c>
       <c r="E246" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F246" s="56" t="s">
         <v>68</v>
@@ -14463,7 +14521,7 @@
         <v>82</v>
       </c>
       <c r="N246" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O246" s="45"/>
       <c r="P246" s="45"/>
@@ -14474,19 +14532,19 @@
     </row>
     <row r="247" spans="1:20" ht="18" customHeight="1">
       <c r="A247" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C247" s="140" t="s">
         <v>92</v>
       </c>
       <c r="D247" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E247" s="58" t="s">
         <v>243</v>
-      </c>
-      <c r="E247" s="58" t="s">
-        <v>244</v>
       </c>
       <c r="F247" s="56" t="s">
         <v>70</v>
@@ -14511,7 +14569,7 @@
         <v>78</v>
       </c>
       <c r="N247" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O247" s="45"/>
       <c r="P247" s="45"/>
@@ -14522,19 +14580,19 @@
     </row>
     <row r="248" spans="1:20" ht="18" customHeight="1">
       <c r="A248" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C248" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="D248" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B248" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C248" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D248" s="61" t="s">
-        <v>243</v>
-      </c>
       <c r="E248" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F248" s="61" t="s">
         <v>66</v>
@@ -14559,7 +14617,7 @@
         <v>82</v>
       </c>
       <c r="N248" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O248" s="45"/>
       <c r="P248" s="45"/>
@@ -14571,19 +14629,19 @@
     <row r="249" spans="1:20" ht="18" customHeight="1">
       <c r="A249" s="61"/>
       <c r="B249" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C249" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D249" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E249" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E249" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="F249" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G249" s="32" t="s">
         <v>29</v>
@@ -14603,7 +14661,7 @@
         <v>127</v>
       </c>
       <c r="N249" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O249" s="45"/>
       <c r="P249" s="45"/>
@@ -14615,20 +14673,20 @@
     <row r="250" spans="1:20" ht="18" customHeight="1">
       <c r="A250" s="61"/>
       <c r="B250" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D250" s="61"/>
       <c r="E250" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F250" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="F250" s="61" t="s">
+      <c r="G250" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="G250" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="H250" s="45"/>
       <c r="I250" s="38"/>
@@ -14643,7 +14701,7 @@
         <v>127</v>
       </c>
       <c r="N250" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O250" s="45"/>
       <c r="P250" s="45"/>
@@ -14655,19 +14713,19 @@
     <row r="251" spans="1:20" ht="18" customHeight="1">
       <c r="A251" s="61"/>
       <c r="B251" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C251" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D251" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E251" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E251" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="F251" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G251" s="32" t="s">
         <v>29</v>
@@ -14687,7 +14745,7 @@
         <v>127</v>
       </c>
       <c r="N251" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O251" s="45"/>
       <c r="P251" s="45"/>
@@ -14699,20 +14757,20 @@
     <row r="252" spans="1:20" ht="18" customHeight="1">
       <c r="A252" s="61"/>
       <c r="B252" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C252" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D252" s="61"/>
       <c r="E252" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F252" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G252" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H252" s="45"/>
       <c r="I252" s="38"/>
@@ -14727,7 +14785,7 @@
         <v>127</v>
       </c>
       <c r="N252" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O252" s="45"/>
       <c r="P252" s="45"/>
@@ -14739,19 +14797,19 @@
     <row r="253" spans="1:20" ht="18" customHeight="1">
       <c r="A253" s="61"/>
       <c r="B253" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C253" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D253" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E253" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E253" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="F253" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G253" s="32" t="s">
         <v>29</v>
@@ -14771,7 +14829,7 @@
         <v>127</v>
       </c>
       <c r="N253" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O253" s="45"/>
       <c r="P253" s="45"/>
@@ -14783,20 +14841,20 @@
     <row r="254" spans="1:20" ht="18" customHeight="1">
       <c r="A254" s="61"/>
       <c r="B254" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C254" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D254" s="61"/>
       <c r="E254" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F254" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G254" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H254" s="45"/>
       <c r="I254" s="38"/>
@@ -14811,7 +14869,7 @@
         <v>127</v>
       </c>
       <c r="N254" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O254" s="45"/>
       <c r="P254" s="45"/>
@@ -14823,19 +14881,19 @@
     <row r="255" spans="1:20" ht="18" customHeight="1">
       <c r="A255" s="61"/>
       <c r="B255" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C255" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D255" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E255" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E255" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="F255" s="61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G255" s="32" t="s">
         <v>29</v>
@@ -14853,7 +14911,7 @@
         <v>127</v>
       </c>
       <c r="N255" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O255" s="45"/>
       <c r="P255" s="45"/>
@@ -14865,20 +14923,20 @@
     <row r="256" spans="1:20" ht="18" customHeight="1">
       <c r="A256" s="61"/>
       <c r="B256" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D256" s="61"/>
       <c r="E256" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F256" s="61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G256" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H256" s="45"/>
       <c r="I256" s="38"/>
@@ -14891,7 +14949,7 @@
         <v>127</v>
       </c>
       <c r="N256" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O256" s="45"/>
       <c r="P256" s="45"/>
@@ -14903,19 +14961,19 @@
     <row r="257" spans="1:20" ht="18" customHeight="1">
       <c r="A257" s="61"/>
       <c r="B257" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D257" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E257" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E257" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="F257" s="61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G257" s="32" t="s">
         <v>29</v>
@@ -14932,7 +14990,7 @@
       <c r="L257" s="61"/>
       <c r="M257" s="61"/>
       <c r="N257" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O257" s="45"/>
       <c r="P257" s="45"/>
@@ -14944,20 +15002,20 @@
     <row r="258" spans="1:20" ht="18" customHeight="1">
       <c r="A258" s="61"/>
       <c r="B258" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C258" s="140" t="s">
         <v>64</v>
       </c>
       <c r="D258" s="61"/>
       <c r="E258" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F258" s="61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G258" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H258" s="45"/>
       <c r="I258" s="38"/>
@@ -14969,7 +15027,7 @@
       <c r="L258" s="61"/>
       <c r="M258" s="61"/>
       <c r="N258" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O258" s="45"/>
       <c r="P258" s="45"/>
@@ -14979,812 +15037,1808 @@
       <c r="T258" s="37"/>
     </row>
     <row r="259" spans="1:20" ht="18" customHeight="1">
-      <c r="A259" s="61"/>
-      <c r="B259" s="61"/>
-      <c r="C259" s="61"/>
-      <c r="D259" s="61"/>
-      <c r="E259" s="58"/>
-      <c r="F259" s="61"/>
-      <c r="G259" s="32"/>
+      <c r="A259" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C259" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D259" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E259" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F259" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G259" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H259" s="45"/>
-      <c r="I259" s="38"/>
-      <c r="J259" s="53"/>
+      <c r="I259" s="38">
+        <v>300</v>
+      </c>
+      <c r="J259" s="53">
+        <f>P259*0.000001</f>
+        <v>1.40498881869845E-5</v>
+      </c>
       <c r="K259" s="38"/>
-      <c r="L259" s="61"/>
-      <c r="M259" s="61"/>
-      <c r="N259" s="40"/>
+      <c r="L259" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M259" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N259" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O259" s="45"/>
-      <c r="P259" s="45"/>
+      <c r="P259" s="45">
+        <v>14.0498881869845</v>
+      </c>
       <c r="Q259" s="45"/>
       <c r="R259" s="45"/>
       <c r="S259" s="37"/>
       <c r="T259" s="37"/>
     </row>
     <row r="260" spans="1:20" ht="18" customHeight="1">
-      <c r="A260" s="61"/>
-      <c r="B260" s="61"/>
-      <c r="C260" s="61"/>
-      <c r="D260" s="61"/>
-      <c r="E260" s="58"/>
-      <c r="F260" s="61"/>
-      <c r="G260" s="32"/>
+      <c r="A260" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C260" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D260" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E260" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F260" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G260" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H260" s="45"/>
-      <c r="I260" s="38"/>
-      <c r="J260" s="53"/>
+      <c r="I260" s="38">
+        <v>300</v>
+      </c>
+      <c r="J260" s="53">
+        <f t="shared" ref="J260:J277" si="10">P260*0.000001</f>
+        <v>1.5438777075873399E-5</v>
+      </c>
       <c r="K260" s="38"/>
-      <c r="L260" s="61"/>
-      <c r="M260" s="61"/>
-      <c r="N260" s="40"/>
+      <c r="L260" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M260" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N260" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O260" s="45"/>
-      <c r="P260" s="45"/>
+      <c r="P260" s="45">
+        <v>15.4387770758734</v>
+      </c>
       <c r="Q260" s="45"/>
       <c r="R260" s="45"/>
       <c r="S260" s="37"/>
       <c r="T260" s="37"/>
     </row>
     <row r="261" spans="1:20" ht="18" customHeight="1">
-      <c r="A261" s="61"/>
-      <c r="B261" s="61"/>
-      <c r="C261" s="61"/>
-      <c r="D261" s="61"/>
-      <c r="E261" s="58"/>
-      <c r="F261" s="61"/>
-      <c r="G261" s="32"/>
+      <c r="A261" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C261" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D261" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E261" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F261" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G261" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H261" s="45"/>
-      <c r="I261" s="38"/>
-      <c r="J261" s="53"/>
+      <c r="I261" s="38">
+        <v>300</v>
+      </c>
+      <c r="J261" s="53">
+        <f t="shared" si="10"/>
+        <v>1.5438777075873399E-5</v>
+      </c>
       <c r="K261" s="38"/>
-      <c r="L261" s="61"/>
-      <c r="M261" s="61"/>
-      <c r="N261" s="40"/>
+      <c r="L261" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M261" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N261" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O261" s="45"/>
-      <c r="P261" s="45"/>
+      <c r="P261" s="45">
+        <v>15.4387770758734</v>
+      </c>
       <c r="Q261" s="45"/>
       <c r="R261" s="45"/>
       <c r="S261" s="37"/>
       <c r="T261" s="37"/>
     </row>
     <row r="262" spans="1:20" ht="18" customHeight="1">
-      <c r="A262" s="61"/>
-      <c r="B262" s="61"/>
-      <c r="C262" s="61"/>
-      <c r="D262" s="61"/>
-      <c r="E262" s="58"/>
-      <c r="F262" s="61"/>
-      <c r="G262" s="32"/>
+      <c r="A262" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C262" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D262" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E262" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F262" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G262" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H262" s="45"/>
-      <c r="I262" s="38"/>
-      <c r="J262" s="53"/>
+      <c r="I262" s="38">
+        <v>300</v>
+      </c>
+      <c r="J262" s="53">
+        <f t="shared" si="10"/>
+        <v>1.4605443742540098E-5</v>
+      </c>
       <c r="K262" s="38"/>
-      <c r="L262" s="61"/>
-      <c r="M262" s="61"/>
-      <c r="N262" s="40"/>
+      <c r="L262" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M262" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N262" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O262" s="45"/>
-      <c r="P262" s="45"/>
+      <c r="P262" s="45">
+        <v>14.6054437425401</v>
+      </c>
       <c r="Q262" s="45"/>
       <c r="R262" s="45"/>
       <c r="S262" s="37"/>
       <c r="T262" s="37"/>
     </row>
     <row r="263" spans="1:20" ht="18" customHeight="1">
-      <c r="A263" s="61"/>
-      <c r="B263" s="61"/>
-      <c r="C263" s="61"/>
-      <c r="D263" s="61"/>
-      <c r="E263" s="58"/>
-      <c r="F263" s="61"/>
-      <c r="G263" s="32"/>
+      <c r="A263" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C263" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D263" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E263" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F263" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G263" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H263" s="45"/>
-      <c r="I263" s="38"/>
-      <c r="J263" s="53"/>
+      <c r="I263" s="38">
+        <v>300</v>
+      </c>
+      <c r="J263" s="53">
+        <f t="shared" si="10"/>
+        <v>1.68276659647623E-5</v>
+      </c>
       <c r="K263" s="38"/>
-      <c r="L263" s="61"/>
-      <c r="M263" s="61"/>
-      <c r="N263" s="40"/>
+      <c r="L263" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M263" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N263" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O263" s="45"/>
-      <c r="P263" s="45"/>
+      <c r="P263" s="45">
+        <v>16.8276659647623</v>
+      </c>
       <c r="Q263" s="45"/>
       <c r="R263" s="45"/>
       <c r="S263" s="37"/>
       <c r="T263" s="37"/>
     </row>
     <row r="264" spans="1:20" ht="18" customHeight="1">
-      <c r="A264" s="61"/>
-      <c r="B264" s="61"/>
-      <c r="C264" s="61"/>
-      <c r="D264" s="61"/>
-      <c r="E264" s="58"/>
-      <c r="F264" s="61"/>
-      <c r="G264" s="32"/>
+      <c r="A264" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C264" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D264" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E264" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F264" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G264" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H264" s="45"/>
-      <c r="I264" s="38"/>
-      <c r="J264" s="53"/>
+      <c r="I264" s="38">
+        <v>300</v>
+      </c>
+      <c r="J264" s="53">
+        <f t="shared" si="10"/>
+        <v>1.68276659647623E-5</v>
+      </c>
       <c r="K264" s="38"/>
-      <c r="L264" s="61"/>
-      <c r="M264" s="61"/>
-      <c r="N264" s="40"/>
+      <c r="L264" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M264" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N264" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O264" s="45"/>
-      <c r="P264" s="45"/>
+      <c r="P264" s="45">
+        <v>16.8276659647623</v>
+      </c>
       <c r="Q264" s="45"/>
       <c r="R264" s="45"/>
       <c r="S264" s="37"/>
       <c r="T264" s="37"/>
     </row>
     <row r="265" spans="1:20" ht="18" customHeight="1">
-      <c r="A265" s="61"/>
-      <c r="B265" s="61"/>
-      <c r="C265" s="61"/>
-      <c r="D265" s="61"/>
-      <c r="E265" s="58"/>
-      <c r="F265" s="61"/>
-      <c r="G265" s="32"/>
+      <c r="A265" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C265" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D265" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E265" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F265" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G265" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H265" s="45"/>
-      <c r="I265" s="38"/>
-      <c r="J265" s="53"/>
+      <c r="I265" s="38">
+        <v>700</v>
+      </c>
+      <c r="J265" s="53">
+        <f t="shared" si="10"/>
+        <v>1.6333333333333298E-4</v>
+      </c>
       <c r="K265" s="38"/>
-      <c r="L265" s="61"/>
-      <c r="M265" s="61"/>
-      <c r="N265" s="40"/>
+      <c r="L265" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M265" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N265" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O265" s="45"/>
-      <c r="P265" s="45"/>
+      <c r="P265" s="45">
+        <v>163.333333333333</v>
+      </c>
       <c r="Q265" s="45"/>
       <c r="R265" s="45"/>
       <c r="S265" s="37"/>
       <c r="T265" s="37"/>
     </row>
     <row r="266" spans="1:20" ht="18" customHeight="1">
-      <c r="A266" s="61"/>
-      <c r="B266" s="61"/>
-      <c r="C266" s="61"/>
-      <c r="D266" s="61"/>
-      <c r="E266" s="45"/>
-      <c r="F266" s="61"/>
-      <c r="G266" s="32"/>
+      <c r="A266" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C266" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D266" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E266" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F266" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G266" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H266" s="45"/>
-      <c r="I266" s="38"/>
-      <c r="J266" s="53"/>
+      <c r="I266" s="38">
+        <v>700</v>
+      </c>
+      <c r="J266" s="53">
+        <f t="shared" si="10"/>
+        <v>1.4722222222222198E-4</v>
+      </c>
       <c r="K266" s="38"/>
-      <c r="L266" s="61"/>
-      <c r="M266" s="61"/>
-      <c r="N266" s="61"/>
+      <c r="L266" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M266" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N266" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O266" s="45"/>
-      <c r="P266" s="45"/>
+      <c r="P266" s="45">
+        <v>147.222222222222</v>
+      </c>
       <c r="Q266" s="45"/>
       <c r="R266" s="45"/>
       <c r="S266" s="37"/>
       <c r="T266" s="37"/>
     </row>
     <row r="267" spans="1:20" ht="18" customHeight="1">
-      <c r="A267" s="61"/>
-      <c r="B267" s="61"/>
-      <c r="C267" s="61"/>
-      <c r="D267" s="61"/>
-      <c r="E267" s="45"/>
-      <c r="F267" s="61"/>
-      <c r="G267" s="32"/>
+      <c r="A267" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C267" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D267" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E267" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F267" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G267" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H267" s="45"/>
-      <c r="I267" s="38"/>
-      <c r="J267" s="53"/>
+      <c r="I267" s="38">
+        <v>700</v>
+      </c>
+      <c r="J267" s="53">
+        <f t="shared" si="10"/>
+        <v>1.4055555555555501E-4</v>
+      </c>
       <c r="K267" s="38"/>
-      <c r="L267" s="61"/>
-      <c r="M267" s="61"/>
-      <c r="N267" s="61"/>
+      <c r="L267" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M267" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N267" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O267" s="45"/>
-      <c r="P267" s="45"/>
+      <c r="P267" s="45">
+        <v>140.555555555555</v>
+      </c>
       <c r="Q267" s="45"/>
       <c r="R267" s="45"/>
       <c r="S267" s="37"/>
       <c r="T267" s="37"/>
     </row>
     <row r="268" spans="1:20" ht="18" customHeight="1">
-      <c r="A268" s="61"/>
-      <c r="B268" s="61"/>
-      <c r="C268" s="61"/>
-      <c r="D268" s="61"/>
-      <c r="E268" s="45"/>
-      <c r="F268" s="61"/>
-      <c r="G268" s="32"/>
+      <c r="A268" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C268" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D268" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E268" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F268" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G268" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H268" s="45"/>
-      <c r="I268" s="38"/>
-      <c r="J268" s="53"/>
+      <c r="I268" s="38">
+        <v>700</v>
+      </c>
+      <c r="J268" s="53">
+        <f t="shared" si="10"/>
+        <v>1.38333333333333E-4</v>
+      </c>
       <c r="K268" s="38"/>
-      <c r="L268" s="61"/>
-      <c r="M268" s="61"/>
-      <c r="N268" s="61"/>
+      <c r="L268" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M268" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N268" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O268" s="45"/>
-      <c r="P268" s="45"/>
+      <c r="P268" s="45">
+        <v>138.333333333333</v>
+      </c>
       <c r="Q268" s="45"/>
       <c r="R268" s="45"/>
       <c r="S268" s="37"/>
       <c r="T268" s="37"/>
     </row>
     <row r="269" spans="1:20" ht="18" customHeight="1">
-      <c r="A269" s="61"/>
-      <c r="B269" s="61"/>
-      <c r="C269" s="61"/>
-      <c r="D269" s="61"/>
-      <c r="E269" s="45"/>
-      <c r="F269" s="61"/>
-      <c r="G269" s="32"/>
+      <c r="A269" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C269" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D269" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E269" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F269" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G269" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H269" s="45"/>
-      <c r="I269" s="38"/>
-      <c r="J269" s="53"/>
+      <c r="I269" s="38">
+        <v>700</v>
+      </c>
+      <c r="J269" s="53">
+        <f t="shared" si="10"/>
+        <v>1.3583333333333299E-4</v>
+      </c>
       <c r="K269" s="38"/>
-      <c r="L269" s="61"/>
-      <c r="M269" s="61"/>
-      <c r="N269" s="61"/>
+      <c r="L269" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M269" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N269" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O269" s="45"/>
-      <c r="P269" s="45"/>
+      <c r="P269" s="45">
+        <v>135.833333333333</v>
+      </c>
       <c r="Q269" s="45"/>
       <c r="R269" s="45"/>
       <c r="S269" s="37"/>
       <c r="T269" s="37"/>
     </row>
     <row r="270" spans="1:20" ht="18" customHeight="1">
-      <c r="A270" s="61"/>
-      <c r="B270" s="61"/>
-      <c r="C270" s="61"/>
-      <c r="D270" s="61"/>
-      <c r="E270" s="45"/>
-      <c r="F270" s="61"/>
-      <c r="G270" s="32"/>
+      <c r="A270" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C270" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D270" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E270" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F270" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G270" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H270" s="45"/>
-      <c r="I270" s="38"/>
-      <c r="J270" s="53"/>
+      <c r="I270" s="38">
+        <v>700</v>
+      </c>
+      <c r="J270" s="53">
+        <f t="shared" si="10"/>
+        <v>1.3361111111111099E-4</v>
+      </c>
       <c r="K270" s="38"/>
-      <c r="L270" s="61"/>
-      <c r="M270" s="61"/>
-      <c r="N270" s="61"/>
+      <c r="L270" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M270" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N270" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O270" s="45"/>
-      <c r="P270" s="45"/>
+      <c r="P270" s="45">
+        <v>133.611111111111</v>
+      </c>
       <c r="Q270" s="45"/>
       <c r="R270" s="45"/>
       <c r="S270" s="37"/>
       <c r="T270" s="37"/>
     </row>
     <row r="271" spans="1:20" ht="18" customHeight="1">
-      <c r="A271" s="61"/>
-      <c r="B271" s="61"/>
-      <c r="C271" s="61"/>
-      <c r="D271" s="61"/>
-      <c r="E271" s="45"/>
-      <c r="F271" s="61"/>
-      <c r="G271" s="32"/>
+      <c r="A271" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B271" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C271" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D271" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E271" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F271" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G271" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H271" s="45"/>
-      <c r="I271" s="38"/>
-      <c r="J271" s="53"/>
+      <c r="I271" s="38">
+        <v>873</v>
+      </c>
+      <c r="J271" s="53">
+        <f t="shared" si="10"/>
+        <v>1.4333333333333299E-4</v>
+      </c>
       <c r="K271" s="38"/>
-      <c r="L271" s="61"/>
-      <c r="M271" s="61"/>
-      <c r="N271" s="61"/>
+      <c r="L271" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M271" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N271" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O271" s="45"/>
-      <c r="P271" s="45"/>
+      <c r="P271" s="45">
+        <v>143.333333333333</v>
+      </c>
       <c r="Q271" s="45"/>
       <c r="R271" s="45"/>
       <c r="S271" s="37"/>
       <c r="T271" s="37"/>
     </row>
     <row r="272" spans="1:20" ht="18" customHeight="1">
-      <c r="A272" s="61"/>
-      <c r="B272" s="61"/>
-      <c r="C272" s="61"/>
-      <c r="D272" s="61"/>
-      <c r="E272" s="45"/>
-      <c r="F272" s="61"/>
-      <c r="G272" s="32"/>
+      <c r="A272" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B272" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C272" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D272" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E272" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F272" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G272" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H272" s="45"/>
-      <c r="I272" s="38"/>
-      <c r="J272" s="53"/>
+      <c r="I272" s="38">
+        <v>873</v>
+      </c>
+      <c r="J272" s="53">
+        <f t="shared" si="10"/>
+        <v>1.81666666666666E-4</v>
+      </c>
       <c r="K272" s="38"/>
-      <c r="L272" s="61"/>
-      <c r="M272" s="61"/>
-      <c r="N272" s="61"/>
+      <c r="L272" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M272" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N272" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O272" s="45"/>
-      <c r="P272" s="45"/>
+      <c r="P272" s="45">
+        <v>181.666666666666</v>
+      </c>
       <c r="Q272" s="45"/>
       <c r="R272" s="45"/>
       <c r="S272" s="37"/>
       <c r="T272" s="37"/>
     </row>
     <row r="273" spans="1:20" ht="18" customHeight="1">
-      <c r="A273" s="61"/>
-      <c r="B273" s="61"/>
-      <c r="C273" s="61"/>
-      <c r="D273" s="61"/>
-      <c r="E273" s="45"/>
-      <c r="F273" s="61"/>
-      <c r="G273" s="32"/>
+      <c r="A273" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B273" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C273" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D273" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E273" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F273" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G273" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H273" s="45"/>
-      <c r="I273" s="38"/>
-      <c r="J273" s="53"/>
+      <c r="I273" s="38">
+        <v>873</v>
+      </c>
+      <c r="J273" s="53">
+        <f t="shared" si="10"/>
+        <v>1.7583333333333299E-4</v>
+      </c>
       <c r="K273" s="38"/>
-      <c r="L273" s="45"/>
-      <c r="M273" s="61"/>
-      <c r="N273" s="61"/>
+      <c r="L273" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M273" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N273" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O273" s="45"/>
-      <c r="P273" s="45"/>
+      <c r="P273" s="45">
+        <v>175.833333333333</v>
+      </c>
       <c r="Q273" s="45"/>
       <c r="R273" s="45"/>
       <c r="S273" s="37"/>
       <c r="T273" s="37"/>
     </row>
     <row r="274" spans="1:20" ht="18" customHeight="1">
-      <c r="A274" s="61"/>
-      <c r="B274" s="61"/>
-      <c r="C274" s="61"/>
-      <c r="D274" s="61"/>
-      <c r="E274" s="45"/>
-      <c r="F274" s="61"/>
-      <c r="G274" s="32"/>
+      <c r="A274" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B274" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C274" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D274" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E274" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F274" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G274" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H274" s="45"/>
-      <c r="I274" s="38"/>
-      <c r="J274" s="53"/>
+      <c r="I274" s="38">
+        <v>873</v>
+      </c>
+      <c r="J274" s="53">
+        <f t="shared" si="10"/>
+        <v>1.7583333333333299E-4</v>
+      </c>
       <c r="K274" s="38"/>
-      <c r="L274" s="61"/>
-      <c r="M274" s="61"/>
-      <c r="N274" s="61"/>
+      <c r="L274" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M274" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N274" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O274" s="45"/>
-      <c r="P274" s="45"/>
+      <c r="P274" s="45">
+        <v>175.833333333333</v>
+      </c>
       <c r="Q274" s="45"/>
       <c r="R274" s="45"/>
       <c r="S274" s="37"/>
       <c r="T274" s="37"/>
     </row>
     <row r="275" spans="1:20" ht="18" customHeight="1">
-      <c r="A275" s="61"/>
-      <c r="B275" s="61"/>
-      <c r="C275" s="61"/>
-      <c r="D275" s="61"/>
-      <c r="E275" s="45"/>
-      <c r="F275" s="61"/>
-      <c r="G275" s="32"/>
+      <c r="A275" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B275" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C275" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D275" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E275" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F275" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G275" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H275" s="45"/>
-      <c r="I275" s="38"/>
-      <c r="J275" s="53"/>
+      <c r="I275" s="38">
+        <v>873</v>
+      </c>
+      <c r="J275" s="53">
+        <f t="shared" si="10"/>
+        <v>1.6722222222222198E-4</v>
+      </c>
       <c r="K275" s="38"/>
-      <c r="L275" s="61"/>
-      <c r="M275" s="61"/>
-      <c r="N275" s="61"/>
+      <c r="L275" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M275" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N275" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O275" s="45"/>
-      <c r="P275" s="45"/>
+      <c r="P275" s="45">
+        <v>167.222222222222</v>
+      </c>
       <c r="Q275" s="45"/>
       <c r="R275" s="45"/>
       <c r="S275" s="37"/>
       <c r="T275" s="37"/>
     </row>
     <row r="276" spans="1:20" ht="18" customHeight="1">
-      <c r="A276" s="45"/>
-      <c r="B276" s="61"/>
-      <c r="C276" s="61"/>
-      <c r="D276" s="61"/>
-      <c r="E276" s="45"/>
-      <c r="F276" s="61"/>
-      <c r="G276" s="61"/>
+      <c r="A276" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B276" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C276" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D276" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E276" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F276" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G276" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H276" s="45"/>
-      <c r="I276" s="45"/>
-      <c r="J276" s="62"/>
+      <c r="I276" s="38">
+        <v>873</v>
+      </c>
+      <c r="J276" s="53">
+        <f t="shared" si="10"/>
+        <v>1.64444444444444E-4</v>
+      </c>
       <c r="K276" s="45"/>
-      <c r="L276" s="61"/>
-      <c r="M276" s="61"/>
-      <c r="N276" s="61"/>
-      <c r="O276" s="45"/>
-      <c r="P276" s="45"/>
+      <c r="L276" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M276" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N276" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="O276" s="141"/>
+      <c r="P276" s="45">
+        <v>164.444444444444</v>
+      </c>
       <c r="Q276" s="45"/>
       <c r="R276" s="45"/>
       <c r="S276" s="37"/>
       <c r="T276" s="37"/>
     </row>
     <row r="277" spans="1:20" ht="18" customHeight="1">
-      <c r="A277" s="45"/>
-      <c r="B277" s="61"/>
-      <c r="C277" s="61"/>
-      <c r="D277" s="61"/>
-      <c r="E277" s="45"/>
-      <c r="F277" s="61"/>
-      <c r="G277" s="61"/>
+      <c r="A277" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B277" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C277" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D277" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E277" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F277" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G277" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H277" s="45"/>
-      <c r="I277" s="45"/>
-      <c r="J277" s="62"/>
+      <c r="I277" s="38">
+        <v>300</v>
+      </c>
+      <c r="J277" s="53">
+        <f>P277*0.001</f>
+        <v>6.4777327935222596E-4</v>
+      </c>
       <c r="K277" s="45"/>
-      <c r="L277" s="61"/>
-      <c r="M277" s="61"/>
-      <c r="N277" s="61"/>
+      <c r="L277" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M277" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N277" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O277" s="45"/>
-      <c r="P277" s="45"/>
+      <c r="P277" s="45">
+        <v>0.64777327935222595</v>
+      </c>
       <c r="Q277" s="45"/>
       <c r="R277" s="45"/>
       <c r="S277" s="37"/>
       <c r="T277" s="37"/>
     </row>
     <row r="278" spans="1:20" ht="18" customHeight="1">
-      <c r="A278" s="45"/>
-      <c r="B278" s="61"/>
-      <c r="C278" s="61"/>
-      <c r="D278" s="61"/>
-      <c r="E278" s="45"/>
-      <c r="F278" s="61"/>
-      <c r="G278" s="61"/>
+      <c r="A278" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B278" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C278" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D278" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E278" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F278" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G278" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H278" s="45"/>
-      <c r="I278" s="45"/>
-      <c r="J278" s="45"/>
+      <c r="I278" s="38">
+        <v>300</v>
+      </c>
+      <c r="J278" s="53">
+        <f>P278*0.00001</f>
+        <v>5.5060728744939203E-6</v>
+      </c>
       <c r="K278" s="45"/>
-      <c r="L278" s="61"/>
-      <c r="M278" s="61"/>
-      <c r="N278" s="61"/>
+      <c r="L278" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M278" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N278" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O278" s="45"/>
-      <c r="P278" s="45"/>
+      <c r="P278" s="45">
+        <v>0.55060728744939202</v>
+      </c>
       <c r="Q278" s="45"/>
       <c r="R278" s="45"/>
       <c r="S278" s="37"/>
       <c r="T278" s="37"/>
     </row>
     <row r="279" spans="1:20" ht="18" customHeight="1">
-      <c r="A279" s="45"/>
-      <c r="B279" s="61"/>
-      <c r="C279" s="61"/>
-      <c r="D279" s="61"/>
-      <c r="E279" s="45"/>
-      <c r="F279" s="61"/>
-      <c r="G279" s="61"/>
+      <c r="A279" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B279" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C279" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D279" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E279" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F279" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G279" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H279" s="45"/>
-      <c r="I279" s="45"/>
-      <c r="J279" s="62"/>
+      <c r="I279" s="38">
+        <v>300</v>
+      </c>
+      <c r="J279" s="53">
+        <f t="shared" ref="J279:J294" si="11">P279*0.00001</f>
+        <v>6.3157894736842103E-6</v>
+      </c>
       <c r="K279" s="45"/>
-      <c r="L279" s="61"/>
-      <c r="M279" s="61"/>
-      <c r="N279" s="61"/>
+      <c r="L279" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M279" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N279" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O279" s="45"/>
-      <c r="P279" s="45"/>
+      <c r="P279" s="45">
+        <v>0.63157894736842102</v>
+      </c>
       <c r="Q279" s="45"/>
       <c r="R279" s="45"/>
       <c r="S279" s="37"/>
       <c r="T279" s="37"/>
     </row>
     <row r="280" spans="1:20" ht="18" customHeight="1">
-      <c r="A280" s="45"/>
-      <c r="B280" s="61"/>
-      <c r="C280" s="61"/>
-      <c r="D280" s="45"/>
-      <c r="E280" s="45"/>
-      <c r="F280" s="61"/>
-      <c r="G280" s="61"/>
+      <c r="A280" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B280" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C280" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D280" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E280" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F280" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G280" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H280" s="45"/>
-      <c r="I280" s="45"/>
-      <c r="J280" s="62"/>
+      <c r="I280" s="38">
+        <v>300</v>
+      </c>
+      <c r="J280" s="53">
+        <f t="shared" si="11"/>
+        <v>5.5060728744939203E-6</v>
+      </c>
       <c r="K280" s="45"/>
-      <c r="L280" s="61"/>
-      <c r="M280" s="61"/>
-      <c r="N280" s="61"/>
+      <c r="L280" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M280" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N280" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O280" s="45"/>
-      <c r="P280" s="45"/>
+      <c r="P280" s="45">
+        <v>0.55060728744939202</v>
+      </c>
       <c r="Q280" s="45"/>
       <c r="R280" s="45"/>
       <c r="S280" s="37"/>
       <c r="T280" s="37"/>
     </row>
     <row r="281" spans="1:20" ht="18" customHeight="1">
-      <c r="A281" s="45"/>
-      <c r="B281" s="61"/>
-      <c r="C281" s="61"/>
-      <c r="D281" s="45"/>
-      <c r="E281" s="45"/>
-      <c r="F281" s="61"/>
-      <c r="G281" s="61"/>
+      <c r="A281" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B281" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C281" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D281" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E281" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F281" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G281" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H281" s="45"/>
-      <c r="I281" s="45"/>
-      <c r="J281" s="45"/>
+      <c r="I281" s="38">
+        <v>300</v>
+      </c>
+      <c r="J281" s="53">
+        <f t="shared" si="11"/>
+        <v>5.5870445344129506E-6</v>
+      </c>
       <c r="K281" s="45"/>
-      <c r="L281" s="61"/>
-      <c r="M281" s="61"/>
-      <c r="N281" s="61"/>
+      <c r="L281" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M281" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N281" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O281" s="45"/>
-      <c r="P281" s="45"/>
+      <c r="P281" s="45">
+        <v>0.55870445344129505</v>
+      </c>
       <c r="Q281" s="45"/>
       <c r="R281" s="45"/>
       <c r="S281" s="37"/>
       <c r="T281" s="37"/>
     </row>
     <row r="282" spans="1:20" ht="18" customHeight="1">
-      <c r="A282" s="61"/>
-      <c r="B282" s="61"/>
-      <c r="C282" s="61"/>
-      <c r="D282" s="61"/>
-      <c r="E282" s="61"/>
-      <c r="F282" s="61"/>
-      <c r="G282" s="61"/>
+      <c r="A282" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B282" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C282" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D282" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E282" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F282" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G282" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H282" s="45"/>
-      <c r="I282" s="45"/>
-      <c r="J282" s="62"/>
+      <c r="I282" s="38">
+        <v>300</v>
+      </c>
+      <c r="J282" s="53">
+        <f t="shared" si="11"/>
+        <v>6.1538461538461506E-6</v>
+      </c>
       <c r="K282" s="45"/>
-      <c r="L282" s="61"/>
-      <c r="M282" s="45"/>
-      <c r="N282" s="61"/>
+      <c r="L282" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M282" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N282" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O282" s="45"/>
-      <c r="P282" s="45"/>
+      <c r="P282" s="45">
+        <v>0.61538461538461497</v>
+      </c>
       <c r="Q282" s="45"/>
       <c r="R282" s="45"/>
       <c r="S282" s="37"/>
       <c r="T282" s="37"/>
     </row>
     <row r="283" spans="1:20" ht="18" customHeight="1">
-      <c r="A283" s="45"/>
-      <c r="B283" s="61"/>
-      <c r="C283" s="61"/>
-      <c r="D283" s="61"/>
-      <c r="E283" s="61"/>
-      <c r="F283" s="61"/>
-      <c r="G283" s="61"/>
+      <c r="A283" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B283" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C283" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D283" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E283" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F283" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G283" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H283" s="45"/>
-      <c r="I283" s="45"/>
-      <c r="J283" s="49"/>
+      <c r="I283" s="38">
+        <v>700</v>
+      </c>
+      <c r="J283" s="53">
+        <f t="shared" si="11"/>
+        <v>3.4655870445344105E-5</v>
+      </c>
       <c r="K283" s="49"/>
-      <c r="L283" s="61"/>
-      <c r="M283" s="45"/>
-      <c r="N283" s="61"/>
+      <c r="L283" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M283" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N283" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O283" s="45"/>
-      <c r="P283" s="45"/>
+      <c r="P283" s="45">
+        <v>3.4655870445344101</v>
+      </c>
       <c r="Q283" s="45"/>
       <c r="R283" s="45"/>
       <c r="S283" s="37"/>
       <c r="T283" s="37"/>
     </row>
     <row r="284" spans="1:20" ht="18" customHeight="1">
-      <c r="A284" s="45"/>
-      <c r="B284" s="61"/>
-      <c r="C284" s="61"/>
-      <c r="D284" s="61"/>
-      <c r="E284" s="61"/>
-      <c r="F284" s="61"/>
-      <c r="G284" s="61"/>
+      <c r="A284" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B284" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C284" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D284" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E284" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F284" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G284" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H284" s="45"/>
-      <c r="I284" s="45"/>
-      <c r="J284" s="62"/>
+      <c r="I284" s="38">
+        <v>700</v>
+      </c>
+      <c r="J284" s="53">
+        <f t="shared" si="11"/>
+        <v>2.2753036437246904E-5</v>
+      </c>
       <c r="K284" s="62"/>
-      <c r="L284" s="61"/>
-      <c r="M284" s="45"/>
-      <c r="N284" s="61"/>
+      <c r="L284" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M284" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N284" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O284" s="45"/>
-      <c r="P284" s="45"/>
+      <c r="P284" s="45">
+        <v>2.2753036437246901</v>
+      </c>
       <c r="Q284" s="45"/>
       <c r="R284" s="45"/>
       <c r="S284" s="37"/>
       <c r="T284" s="37"/>
     </row>
     <row r="285" spans="1:20" ht="18" customHeight="1">
-      <c r="A285" s="45"/>
-      <c r="B285" s="61"/>
-      <c r="C285" s="61"/>
-      <c r="D285" s="61"/>
-      <c r="E285" s="61"/>
-      <c r="F285" s="61"/>
-      <c r="G285" s="61"/>
-      <c r="H285" s="61"/>
-      <c r="I285" s="45"/>
-      <c r="J285" s="62"/>
+      <c r="A285" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B285" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C285" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D285" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E285" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F285" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G285" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H285" s="45"/>
+      <c r="I285" s="38">
+        <v>700</v>
+      </c>
+      <c r="J285" s="53">
+        <f t="shared" si="11"/>
+        <v>1.9838056680161902E-5</v>
+      </c>
       <c r="K285" s="62"/>
-      <c r="L285" s="61"/>
-      <c r="M285" s="45"/>
-      <c r="N285" s="61"/>
+      <c r="L285" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M285" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N285" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O285" s="45"/>
-      <c r="P285" s="45"/>
+      <c r="P285" s="45">
+        <v>1.98380566801619</v>
+      </c>
       <c r="Q285" s="45"/>
       <c r="R285" s="45"/>
       <c r="S285" s="37"/>
       <c r="T285" s="37"/>
     </row>
     <row r="286" spans="1:20" ht="18" customHeight="1">
-      <c r="A286" s="45"/>
-      <c r="B286" s="61"/>
-      <c r="C286" s="61"/>
-      <c r="D286" s="61"/>
-      <c r="E286" s="61"/>
-      <c r="F286" s="61"/>
-      <c r="G286" s="61"/>
-      <c r="H286" s="61"/>
-      <c r="I286" s="45"/>
-      <c r="J286" s="45"/>
+      <c r="A286" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B286" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C286" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D286" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E286" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F286" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G286" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H286" s="45"/>
+      <c r="I286" s="38">
+        <v>700</v>
+      </c>
+      <c r="J286" s="53">
+        <f t="shared" si="11"/>
+        <v>1.9190283400809701E-5</v>
+      </c>
       <c r="K286" s="45"/>
-      <c r="L286" s="61"/>
-      <c r="M286" s="45"/>
-      <c r="N286" s="61"/>
+      <c r="L286" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M286" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N286" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O286" s="45"/>
-      <c r="P286" s="45"/>
+      <c r="P286" s="45">
+        <v>1.91902834008097</v>
+      </c>
       <c r="Q286" s="45"/>
       <c r="R286" s="45"/>
       <c r="S286" s="37"/>
       <c r="T286" s="37"/>
     </row>
     <row r="287" spans="1:20" ht="18" customHeight="1">
-      <c r="A287" s="45"/>
-      <c r="B287" s="61"/>
-      <c r="C287" s="61"/>
-      <c r="D287" s="61"/>
-      <c r="E287" s="61"/>
-      <c r="F287" s="61"/>
-      <c r="G287" s="61"/>
-      <c r="H287" s="61"/>
-      <c r="I287" s="45"/>
-      <c r="J287" s="45"/>
+      <c r="A287" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B287" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C287" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D287" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E287" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F287" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G287" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H287" s="45"/>
+      <c r="I287" s="38">
+        <v>700</v>
+      </c>
+      <c r="J287" s="53">
+        <f t="shared" si="11"/>
+        <v>1.8542510121457401E-5</v>
+      </c>
       <c r="K287" s="45"/>
-      <c r="L287" s="61"/>
-      <c r="M287" s="45"/>
-      <c r="N287" s="61"/>
+      <c r="L287" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M287" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N287" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O287" s="45"/>
-      <c r="P287" s="45"/>
+      <c r="P287" s="45">
+        <v>1.8542510121457401</v>
+      </c>
       <c r="Q287" s="45"/>
       <c r="R287" s="45"/>
       <c r="S287" s="37"/>
       <c r="T287" s="37"/>
     </row>
     <row r="288" spans="1:20" ht="18" customHeight="1">
-      <c r="A288" s="45"/>
-      <c r="B288" s="61"/>
-      <c r="C288" s="61"/>
-      <c r="D288" s="61"/>
-      <c r="E288" s="61"/>
-      <c r="F288" s="61"/>
-      <c r="G288" s="61"/>
-      <c r="H288" s="61"/>
-      <c r="I288" s="45"/>
-      <c r="J288" s="45"/>
+      <c r="A288" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B288" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C288" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D288" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E288" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F288" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G288" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H288" s="45"/>
+      <c r="I288" s="38">
+        <v>700</v>
+      </c>
+      <c r="J288" s="53">
+        <f t="shared" si="11"/>
+        <v>1.8299595141700402E-5</v>
+      </c>
       <c r="K288" s="45"/>
-      <c r="L288" s="61"/>
-      <c r="M288" s="45"/>
-      <c r="N288" s="61"/>
+      <c r="L288" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M288" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N288" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O288" s="45"/>
-      <c r="P288" s="45"/>
+      <c r="P288" s="45">
+        <v>1.82995951417004</v>
+      </c>
       <c r="Q288" s="45"/>
       <c r="R288" s="45"/>
       <c r="S288" s="37"/>
       <c r="T288" s="37"/>
     </row>
     <row r="289" spans="1:20" ht="18" customHeight="1">
-      <c r="A289" s="45"/>
-      <c r="B289" s="61"/>
-      <c r="C289" s="61"/>
-      <c r="D289" s="61"/>
-      <c r="E289" s="61"/>
-      <c r="F289" s="61"/>
-      <c r="G289" s="61"/>
-      <c r="H289" s="61"/>
-      <c r="I289" s="45"/>
-      <c r="J289" s="45"/>
+      <c r="A289" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B289" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C289" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D289" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E289" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F289" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G289" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H289" s="45"/>
+      <c r="I289" s="38">
+        <v>873</v>
+      </c>
+      <c r="J289" s="53">
+        <f t="shared" si="11"/>
+        <v>5.4412955465587E-5</v>
+      </c>
       <c r="K289" s="45"/>
-      <c r="L289" s="61"/>
-      <c r="M289" s="45"/>
-      <c r="N289" s="61"/>
+      <c r="L289" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M289" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N289" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O289" s="45"/>
-      <c r="P289" s="45"/>
+      <c r="P289" s="45">
+        <v>5.4412955465586998</v>
+      </c>
       <c r="Q289" s="45"/>
       <c r="R289" s="45"/>
       <c r="S289" s="37"/>
       <c r="T289" s="37"/>
     </row>
     <row r="290" spans="1:20" ht="18" customHeight="1">
-      <c r="A290" s="45"/>
-      <c r="B290" s="61"/>
-      <c r="C290" s="61"/>
-      <c r="D290" s="61"/>
-      <c r="E290" s="61"/>
-      <c r="F290" s="61"/>
-      <c r="G290" s="61"/>
-      <c r="H290" s="61"/>
-      <c r="I290" s="45"/>
-      <c r="J290" s="45"/>
+      <c r="A290" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B290" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C290" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D290" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E290" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F290" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G290" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H290" s="45"/>
+      <c r="I290" s="38">
+        <v>873</v>
+      </c>
+      <c r="J290" s="53">
+        <f t="shared" si="11"/>
+        <v>3.6923076923076902E-5</v>
+      </c>
       <c r="K290" s="45"/>
-      <c r="L290" s="61"/>
-      <c r="M290" s="45"/>
-      <c r="N290" s="61"/>
+      <c r="L290" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M290" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N290" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O290" s="45"/>
-      <c r="P290" s="45"/>
+      <c r="P290" s="45">
+        <v>3.6923076923076898</v>
+      </c>
       <c r="Q290" s="45"/>
       <c r="R290" s="45"/>
       <c r="S290" s="37"/>
       <c r="T290" s="37"/>
     </row>
     <row r="291" spans="1:20" ht="18" customHeight="1">
-      <c r="A291" s="45"/>
-      <c r="B291" s="61"/>
-      <c r="C291" s="61"/>
-      <c r="D291" s="61"/>
-      <c r="E291" s="61"/>
-      <c r="F291" s="61"/>
-      <c r="G291" s="61"/>
-      <c r="H291" s="61"/>
-      <c r="I291" s="45"/>
-      <c r="J291" s="45"/>
+      <c r="A291" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B291" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C291" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D291" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E291" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F291" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G291" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H291" s="45"/>
+      <c r="I291" s="38">
+        <v>873</v>
+      </c>
+      <c r="J291" s="53">
+        <f t="shared" si="11"/>
+        <v>2.5748987854251004E-5</v>
+      </c>
       <c r="K291" s="45"/>
-      <c r="L291" s="61"/>
-      <c r="M291" s="45"/>
-      <c r="N291" s="61"/>
+      <c r="L291" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M291" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N291" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O291" s="45"/>
-      <c r="P291" s="45"/>
+      <c r="P291" s="45">
+        <v>2.5748987854251002</v>
+      </c>
       <c r="Q291" s="45"/>
       <c r="R291" s="45"/>
       <c r="S291" s="37"/>
       <c r="T291" s="37"/>
     </row>
     <row r="292" spans="1:20" ht="18" customHeight="1">
-      <c r="A292" s="45"/>
-      <c r="B292" s="61"/>
-      <c r="C292" s="61"/>
-      <c r="D292" s="61"/>
-      <c r="E292" s="61"/>
-      <c r="F292" s="61"/>
-      <c r="G292" s="61"/>
-      <c r="H292" s="61"/>
-      <c r="I292" s="45"/>
-      <c r="J292" s="45"/>
+      <c r="A292" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B292" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C292" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D292" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E292" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F292" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G292" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H292" s="45"/>
+      <c r="I292" s="38">
+        <v>873</v>
+      </c>
+      <c r="J292" s="53">
+        <f t="shared" si="11"/>
+        <v>2.46963562753036E-5</v>
+      </c>
       <c r="K292" s="45"/>
-      <c r="L292" s="61"/>
-      <c r="M292" s="45"/>
-      <c r="N292" s="61"/>
+      <c r="L292" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M292" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N292" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O292" s="45"/>
-      <c r="P292" s="45"/>
+      <c r="P292" s="45">
+        <v>2.4696356275303599</v>
+      </c>
       <c r="Q292" s="45"/>
       <c r="R292" s="45"/>
       <c r="S292" s="37"/>
       <c r="T292" s="37"/>
     </row>
     <row r="293" spans="1:20" ht="18" customHeight="1">
-      <c r="A293" s="45"/>
-      <c r="B293" s="61"/>
-      <c r="C293" s="61"/>
-      <c r="D293" s="61"/>
-      <c r="E293" s="61"/>
-      <c r="F293" s="61"/>
-      <c r="G293" s="61"/>
-      <c r="H293" s="61"/>
-      <c r="I293" s="45"/>
-      <c r="J293" s="45"/>
+      <c r="A293" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B293" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C293" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D293" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E293" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F293" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G293" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H293" s="45"/>
+      <c r="I293" s="38">
+        <v>873</v>
+      </c>
+      <c r="J293" s="53">
+        <f t="shared" si="11"/>
+        <v>2.3805668016194302E-5</v>
+      </c>
       <c r="K293" s="45"/>
-      <c r="L293" s="61"/>
-      <c r="M293" s="45"/>
-      <c r="N293" s="61"/>
+      <c r="L293" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M293" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N293" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O293" s="45"/>
-      <c r="P293" s="45"/>
+      <c r="P293" s="45">
+        <v>2.3805668016194299</v>
+      </c>
       <c r="Q293" s="45"/>
       <c r="R293" s="45"/>
       <c r="S293" s="37"/>
       <c r="T293" s="37"/>
     </row>
     <row r="294" spans="1:20" ht="18" customHeight="1">
-      <c r="A294" s="45"/>
-      <c r="B294" s="61"/>
-      <c r="C294" s="61"/>
-      <c r="D294" s="61"/>
-      <c r="E294" s="61"/>
-      <c r="F294" s="61"/>
-      <c r="G294" s="61"/>
-      <c r="H294" s="61"/>
-      <c r="I294" s="45"/>
-      <c r="J294" s="45"/>
+      <c r="A294" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B294" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C294" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D294" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E294" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F294" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G294" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H294" s="45"/>
+      <c r="I294" s="38">
+        <v>873</v>
+      </c>
+      <c r="J294" s="53">
+        <f t="shared" si="11"/>
+        <v>2.3319838056680101E-5</v>
+      </c>
       <c r="K294" s="45"/>
-      <c r="L294" s="61"/>
-      <c r="M294" s="45"/>
-      <c r="N294" s="61"/>
+      <c r="L294" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M294" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N294" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O294" s="45"/>
-      <c r="P294" s="45"/>
+      <c r="P294" s="45">
+        <v>2.3319838056680098</v>
+      </c>
       <c r="Q294" s="45"/>
       <c r="R294" s="45"/>
       <c r="S294" s="37"/>
       <c r="T294" s="37"/>
     </row>
     <row r="295" spans="1:20" ht="18" customHeight="1">
-      <c r="A295" s="45"/>
-      <c r="B295" s="61"/>
-      <c r="C295" s="61"/>
-      <c r="D295" s="61"/>
-      <c r="E295" s="61"/>
-      <c r="F295" s="61"/>
-      <c r="G295" s="61"/>
-      <c r="H295" s="61"/>
-      <c r="I295" s="45"/>
-      <c r="J295" s="45"/>
+      <c r="A295" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B295" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C295" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D295" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E295" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F295" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G295" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H295" s="45"/>
+      <c r="I295" s="38">
+        <v>300</v>
+      </c>
+      <c r="J295" s="45">
+        <v>1.7538028169013999</v>
+      </c>
       <c r="K295" s="45"/>
-      <c r="L295" s="61"/>
-      <c r="M295" s="45"/>
-      <c r="N295" s="61"/>
+      <c r="L295" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M295" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N295" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O295" s="45"/>
       <c r="P295" s="45"/>
       <c r="Q295" s="45"/>
@@ -15793,20 +16847,44 @@
       <c r="T295" s="37"/>
     </row>
     <row r="296" spans="1:20" ht="18" customHeight="1">
-      <c r="A296" s="45"/>
-      <c r="B296" s="61"/>
-      <c r="C296" s="61"/>
-      <c r="D296" s="61"/>
-      <c r="E296" s="61"/>
-      <c r="F296" s="61"/>
-      <c r="G296" s="61"/>
-      <c r="H296" s="61"/>
-      <c r="I296" s="45"/>
-      <c r="J296" s="45"/>
+      <c r="A296" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B296" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C296" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D296" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E296" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F296" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G296" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H296" s="45"/>
+      <c r="I296" s="38">
+        <v>300</v>
+      </c>
+      <c r="J296" s="45">
+        <v>1.9397183098591499</v>
+      </c>
       <c r="K296" s="45"/>
-      <c r="L296" s="61"/>
-      <c r="M296" s="45"/>
-      <c r="N296" s="61"/>
+      <c r="L296" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M296" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N296" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O296" s="45"/>
       <c r="P296" s="45"/>
       <c r="Q296" s="45"/>
@@ -15815,20 +16893,44 @@
       <c r="T296" s="37"/>
     </row>
     <row r="297" spans="1:20" ht="18" customHeight="1">
-      <c r="A297" s="45"/>
-      <c r="B297" s="61"/>
-      <c r="C297" s="61"/>
-      <c r="D297" s="61"/>
-      <c r="E297" s="61"/>
-      <c r="F297" s="61"/>
-      <c r="G297" s="61"/>
-      <c r="H297" s="61"/>
-      <c r="I297" s="45"/>
-      <c r="J297" s="45"/>
+      <c r="A297" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B297" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C297" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D297" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E297" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F297" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G297" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H297" s="45"/>
+      <c r="I297" s="38">
+        <v>300</v>
+      </c>
+      <c r="J297" s="45">
+        <v>1.98197183098591</v>
+      </c>
       <c r="K297" s="45"/>
-      <c r="L297" s="61"/>
-      <c r="M297" s="61"/>
-      <c r="N297" s="61"/>
+      <c r="L297" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M297" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N297" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O297" s="45"/>
       <c r="P297" s="45"/>
       <c r="Q297" s="45"/>
@@ -15837,20 +16939,44 @@
       <c r="T297" s="37"/>
     </row>
     <row r="298" spans="1:20" ht="18" customHeight="1">
-      <c r="A298" s="45"/>
-      <c r="B298" s="61"/>
-      <c r="C298" s="61"/>
-      <c r="D298" s="61"/>
-      <c r="E298" s="61"/>
-      <c r="F298" s="61"/>
-      <c r="G298" s="61"/>
-      <c r="H298" s="61"/>
-      <c r="I298" s="45"/>
-      <c r="J298" s="45"/>
+      <c r="A298" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B298" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C298" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D298" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E298" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F298" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G298" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H298" s="45"/>
+      <c r="I298" s="38">
+        <v>300</v>
+      </c>
+      <c r="J298" s="45">
+        <v>2.0276056338028101</v>
+      </c>
       <c r="K298" s="45"/>
-      <c r="L298" s="61"/>
-      <c r="M298" s="61"/>
-      <c r="N298" s="61"/>
+      <c r="L298" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M298" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N298" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O298" s="45"/>
       <c r="P298" s="45"/>
       <c r="Q298" s="45"/>
@@ -15859,20 +16985,44 @@
       <c r="T298" s="37"/>
     </row>
     <row r="299" spans="1:20" ht="18" customHeight="1">
-      <c r="A299" s="45"/>
-      <c r="B299" s="61"/>
-      <c r="C299" s="61"/>
-      <c r="D299" s="61"/>
-      <c r="E299" s="61"/>
-      <c r="F299" s="61"/>
-      <c r="G299" s="61"/>
-      <c r="H299" s="61"/>
-      <c r="I299" s="45"/>
-      <c r="J299" s="45"/>
+      <c r="A299" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B299" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C299" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D299" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E299" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F299" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G299" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H299" s="45"/>
+      <c r="I299" s="38">
+        <v>300</v>
+      </c>
+      <c r="J299" s="45">
+        <v>1.8991549295774599</v>
+      </c>
       <c r="K299" s="45"/>
-      <c r="L299" s="61"/>
-      <c r="M299" s="61"/>
-      <c r="N299" s="61"/>
+      <c r="L299" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M299" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N299" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O299" s="45"/>
       <c r="P299" s="45"/>
       <c r="Q299" s="45"/>
@@ -15881,20 +17031,44 @@
       <c r="T299" s="37"/>
     </row>
     <row r="300" spans="1:20" ht="18" customHeight="1">
-      <c r="A300" s="45"/>
-      <c r="B300" s="61"/>
-      <c r="C300" s="61"/>
-      <c r="D300" s="61"/>
-      <c r="E300" s="61"/>
-      <c r="F300" s="61"/>
-      <c r="G300" s="61"/>
-      <c r="H300" s="61"/>
-      <c r="I300" s="45"/>
-      <c r="J300" s="45"/>
+      <c r="A300" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B300" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C300" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D300" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E300" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F300" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G300" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H300" s="45"/>
+      <c r="I300" s="38">
+        <v>300</v>
+      </c>
+      <c r="J300" s="45">
+        <v>1.9887323943661901</v>
+      </c>
       <c r="K300" s="45"/>
-      <c r="L300" s="61"/>
-      <c r="M300" s="61"/>
-      <c r="N300" s="61"/>
+      <c r="L300" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M300" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N300" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O300" s="45"/>
       <c r="P300" s="45"/>
       <c r="Q300" s="45"/>
@@ -15903,20 +17077,44 @@
       <c r="T300" s="37"/>
     </row>
     <row r="301" spans="1:20" ht="18" customHeight="1">
-      <c r="A301" s="45"/>
-      <c r="B301" s="61"/>
-      <c r="C301" s="61"/>
-      <c r="D301" s="61"/>
-      <c r="E301" s="61"/>
-      <c r="F301" s="61"/>
-      <c r="G301" s="61"/>
-      <c r="H301" s="61"/>
-      <c r="I301" s="45"/>
-      <c r="J301" s="45"/>
+      <c r="A301" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B301" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C301" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D301" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E301" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F301" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G301" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H301" s="45"/>
+      <c r="I301" s="38">
+        <v>500</v>
+      </c>
+      <c r="J301" s="45">
+        <v>1.29408450704225</v>
+      </c>
       <c r="K301" s="45"/>
-      <c r="L301" s="61"/>
-      <c r="M301" s="61"/>
-      <c r="N301" s="61"/>
+      <c r="L301" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M301" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N301" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O301" s="45"/>
       <c r="P301" s="45"/>
       <c r="Q301" s="45"/>
@@ -15925,20 +17123,44 @@
       <c r="T301" s="37"/>
     </row>
     <row r="302" spans="1:20" ht="18" customHeight="1">
-      <c r="A302" s="45"/>
-      <c r="B302" s="61"/>
-      <c r="C302" s="61"/>
-      <c r="D302" s="61"/>
-      <c r="E302" s="61"/>
-      <c r="F302" s="61"/>
-      <c r="G302" s="61"/>
-      <c r="H302" s="61"/>
-      <c r="I302" s="45"/>
-      <c r="J302" s="45"/>
+      <c r="A302" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B302" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C302" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D302" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E302" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F302" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G302" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H302" s="45"/>
+      <c r="I302" s="38">
+        <v>500</v>
+      </c>
+      <c r="J302" s="45">
+        <v>1.53746478873239</v>
+      </c>
       <c r="K302" s="45"/>
-      <c r="L302" s="61"/>
-      <c r="M302" s="61"/>
-      <c r="N302" s="61"/>
+      <c r="L302" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M302" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N302" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O302" s="45"/>
       <c r="P302" s="45"/>
       <c r="Q302" s="45"/>
@@ -15947,20 +17169,44 @@
       <c r="T302" s="37"/>
     </row>
     <row r="303" spans="1:20" ht="18" customHeight="1">
-      <c r="A303" s="45"/>
-      <c r="B303" s="61"/>
-      <c r="C303" s="61"/>
-      <c r="D303" s="61"/>
-      <c r="E303" s="61"/>
-      <c r="F303" s="61"/>
-      <c r="G303" s="61"/>
-      <c r="H303" s="61"/>
-      <c r="I303" s="45"/>
-      <c r="J303" s="45"/>
+      <c r="A303" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B303" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C303" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D303" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E303" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F303" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G303" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H303" s="45"/>
+      <c r="I303" s="38">
+        <v>500</v>
+      </c>
+      <c r="J303" s="45">
+        <v>1.6794366197183099</v>
+      </c>
       <c r="K303" s="45"/>
-      <c r="L303" s="61"/>
-      <c r="M303" s="61"/>
-      <c r="N303" s="61"/>
+      <c r="L303" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M303" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N303" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O303" s="45"/>
       <c r="P303" s="45"/>
       <c r="Q303" s="45"/>
@@ -15969,20 +17215,44 @@
       <c r="T303" s="37"/>
     </row>
     <row r="304" spans="1:20" ht="18" customHeight="1">
-      <c r="A304" s="45"/>
-      <c r="B304" s="61"/>
-      <c r="C304" s="61"/>
-      <c r="D304" s="61"/>
-      <c r="E304" s="61"/>
-      <c r="F304" s="61"/>
-      <c r="G304" s="61"/>
-      <c r="H304" s="61"/>
-      <c r="I304" s="45"/>
-      <c r="J304" s="45"/>
+      <c r="A304" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B304" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C304" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D304" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E304" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F304" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G304" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H304" s="45"/>
+      <c r="I304" s="38">
+        <v>500</v>
+      </c>
+      <c r="J304" s="45">
+        <v>1.6591549295774599</v>
+      </c>
       <c r="K304" s="45"/>
-      <c r="L304" s="61"/>
-      <c r="M304" s="61"/>
-      <c r="N304" s="61"/>
+      <c r="L304" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M304" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N304" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O304" s="45"/>
       <c r="P304" s="45"/>
       <c r="Q304" s="45"/>
@@ -15991,20 +17261,44 @@
       <c r="T304" s="37"/>
     </row>
     <row r="305" spans="1:20" ht="18" customHeight="1">
-      <c r="A305" s="45"/>
-      <c r="B305" s="61"/>
-      <c r="C305" s="61"/>
-      <c r="D305" s="61"/>
-      <c r="E305" s="61"/>
-      <c r="F305" s="61"/>
-      <c r="G305" s="61"/>
-      <c r="H305" s="61"/>
-      <c r="I305" s="45"/>
-      <c r="J305" s="45"/>
+      <c r="A305" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B305" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C305" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D305" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E305" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F305" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G305" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H305" s="45"/>
+      <c r="I305" s="38">
+        <v>500</v>
+      </c>
+      <c r="J305" s="45">
+        <v>1.5645070422535201</v>
+      </c>
       <c r="K305" s="45"/>
-      <c r="L305" s="61"/>
-      <c r="M305" s="61"/>
-      <c r="N305" s="61"/>
+      <c r="L305" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M305" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N305" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O305" s="45"/>
       <c r="P305" s="45"/>
       <c r="Q305" s="45"/>
@@ -16013,20 +17307,44 @@
       <c r="T305" s="37"/>
     </row>
     <row r="306" spans="1:20" ht="18" customHeight="1">
-      <c r="A306" s="45"/>
-      <c r="B306" s="61"/>
-      <c r="C306" s="61"/>
-      <c r="D306" s="61"/>
-      <c r="E306" s="61"/>
-      <c r="F306" s="61"/>
-      <c r="G306" s="61"/>
-      <c r="H306" s="61"/>
-      <c r="I306" s="45"/>
-      <c r="J306" s="45"/>
+      <c r="A306" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B306" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C306" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D306" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E306" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F306" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G306" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H306" s="45"/>
+      <c r="I306" s="38">
+        <v>500</v>
+      </c>
+      <c r="J306" s="45">
+        <v>1.6354929577464701</v>
+      </c>
       <c r="K306" s="45"/>
-      <c r="L306" s="61"/>
-      <c r="M306" s="61"/>
-      <c r="N306" s="61"/>
+      <c r="L306" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M306" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N306" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O306" s="45"/>
       <c r="P306" s="45"/>
       <c r="Q306" s="45"/>
@@ -16035,20 +17353,44 @@
       <c r="T306" s="37"/>
     </row>
     <row r="307" spans="1:20" ht="18" customHeight="1">
-      <c r="A307" s="45"/>
-      <c r="B307" s="61"/>
-      <c r="C307" s="61"/>
-      <c r="D307" s="61"/>
-      <c r="E307" s="61"/>
-      <c r="F307" s="61"/>
-      <c r="G307" s="61"/>
-      <c r="H307" s="61"/>
-      <c r="I307" s="45"/>
-      <c r="J307" s="45"/>
+      <c r="A307" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B307" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C307" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D307" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E307" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F307" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G307" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H307" s="45"/>
+      <c r="I307" s="38">
+        <v>700</v>
+      </c>
+      <c r="J307" s="45">
+        <v>1.1926760563380201</v>
+      </c>
       <c r="K307" s="45"/>
-      <c r="L307" s="61"/>
-      <c r="M307" s="61"/>
-      <c r="N307" s="61"/>
+      <c r="L307" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M307" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N307" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O307" s="45"/>
       <c r="P307" s="45"/>
       <c r="Q307" s="45"/>
@@ -16057,20 +17399,44 @@
       <c r="T307" s="37"/>
     </row>
     <row r="308" spans="1:20" ht="18" customHeight="1">
-      <c r="A308" s="45"/>
-      <c r="B308" s="61"/>
-      <c r="C308" s="61"/>
-      <c r="D308" s="61"/>
-      <c r="E308" s="61"/>
-      <c r="F308" s="61"/>
-      <c r="G308" s="61"/>
-      <c r="H308" s="61"/>
-      <c r="I308" s="45"/>
-      <c r="J308" s="45"/>
+      <c r="A308" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B308" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C308" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D308" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E308" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F308" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G308" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H308" s="45"/>
+      <c r="I308" s="38">
+        <v>700</v>
+      </c>
+      <c r="J308" s="45">
+        <v>1.2738028169014</v>
+      </c>
       <c r="K308" s="45"/>
-      <c r="L308" s="61"/>
-      <c r="M308" s="61"/>
-      <c r="N308" s="61"/>
+      <c r="L308" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M308" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N308" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O308" s="45"/>
       <c r="P308" s="45"/>
       <c r="Q308" s="45"/>
@@ -16079,20 +17445,44 @@
       <c r="T308" s="37"/>
     </row>
     <row r="309" spans="1:20" ht="18" customHeight="1">
-      <c r="A309" s="61"/>
-      <c r="B309" s="61"/>
-      <c r="C309" s="61"/>
-      <c r="D309" s="61"/>
-      <c r="E309" s="61"/>
-      <c r="F309" s="61"/>
-      <c r="G309" s="61"/>
-      <c r="H309" s="61"/>
-      <c r="I309" s="45"/>
-      <c r="J309" s="45"/>
+      <c r="A309" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B309" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C309" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D309" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E309" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F309" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G309" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H309" s="45"/>
+      <c r="I309" s="38">
+        <v>700</v>
+      </c>
+      <c r="J309" s="45">
+        <v>1.46309859154929</v>
+      </c>
       <c r="K309" s="45"/>
-      <c r="L309" s="61"/>
-      <c r="M309" s="61"/>
-      <c r="N309" s="61"/>
+      <c r="L309" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M309" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N309" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O309" s="45"/>
       <c r="P309" s="45"/>
       <c r="Q309" s="45"/>
@@ -16101,20 +17491,44 @@
       <c r="T309" s="37"/>
     </row>
     <row r="310" spans="1:20" ht="18" customHeight="1">
-      <c r="A310" s="61"/>
-      <c r="B310" s="61"/>
-      <c r="C310" s="61"/>
-      <c r="D310" s="61"/>
-      <c r="E310" s="61"/>
-      <c r="F310" s="61"/>
-      <c r="G310" s="61"/>
-      <c r="H310" s="61"/>
-      <c r="I310" s="45"/>
-      <c r="J310" s="45"/>
+      <c r="A310" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B310" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C310" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D310" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E310" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F310" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G310" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H310" s="45"/>
+      <c r="I310" s="38">
+        <v>700</v>
+      </c>
+      <c r="J310" s="45">
+        <v>1.35492957746478</v>
+      </c>
       <c r="K310" s="45"/>
-      <c r="L310" s="61"/>
-      <c r="M310" s="61"/>
-      <c r="N310" s="61"/>
+      <c r="L310" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M310" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N310" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O310" s="45"/>
       <c r="P310" s="45"/>
       <c r="Q310" s="45"/>
@@ -16123,20 +17537,44 @@
       <c r="T310" s="37"/>
     </row>
     <row r="311" spans="1:20" ht="18" customHeight="1">
-      <c r="A311" s="61"/>
-      <c r="B311" s="61"/>
-      <c r="C311" s="61"/>
-      <c r="D311" s="61"/>
-      <c r="E311" s="61"/>
-      <c r="F311" s="61"/>
-      <c r="G311" s="61"/>
-      <c r="H311" s="61"/>
-      <c r="I311" s="45"/>
-      <c r="J311" s="45"/>
+      <c r="A311" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B311" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C311" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D311" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E311" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F311" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G311" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H311" s="45"/>
+      <c r="I311" s="38">
+        <v>700</v>
+      </c>
+      <c r="J311" s="45">
+        <v>1.2856338028169001</v>
+      </c>
       <c r="K311" s="45"/>
-      <c r="L311" s="61"/>
-      <c r="M311" s="61"/>
-      <c r="N311" s="61"/>
+      <c r="L311" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M311" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N311" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O311" s="45"/>
       <c r="P311" s="45"/>
       <c r="Q311" s="45"/>
@@ -16145,20 +17583,44 @@
       <c r="T311" s="37"/>
     </row>
     <row r="312" spans="1:20" ht="18" customHeight="1">
-      <c r="A312" s="61"/>
-      <c r="B312" s="61"/>
-      <c r="C312" s="61"/>
-      <c r="D312" s="61"/>
-      <c r="E312" s="61"/>
-      <c r="F312" s="61"/>
-      <c r="G312" s="61"/>
-      <c r="H312" s="61"/>
-      <c r="I312" s="45"/>
-      <c r="J312" s="45"/>
+      <c r="A312" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B312" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C312" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D312" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E312" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F312" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G312" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H312" s="45"/>
+      <c r="I312" s="38">
+        <v>700</v>
+      </c>
+      <c r="J312" s="45">
+        <v>1.3616901408450699</v>
+      </c>
       <c r="K312" s="45"/>
-      <c r="L312" s="61"/>
-      <c r="M312" s="61"/>
-      <c r="N312" s="61"/>
+      <c r="L312" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M312" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N312" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O312" s="45"/>
       <c r="P312" s="45"/>
       <c r="Q312" s="45"/>
@@ -16167,20 +17629,44 @@
       <c r="T312" s="37"/>
     </row>
     <row r="313" spans="1:20" ht="18" customHeight="1">
-      <c r="A313" s="61"/>
-      <c r="B313" s="61"/>
-      <c r="C313" s="61"/>
-      <c r="D313" s="61"/>
-      <c r="E313" s="61"/>
-      <c r="F313" s="61"/>
-      <c r="G313" s="61"/>
-      <c r="H313" s="61"/>
-      <c r="I313" s="45"/>
-      <c r="J313" s="45"/>
+      <c r="A313" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B313" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C313" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D313" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E313" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F313" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G313" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H313" s="45"/>
+      <c r="I313" s="38">
+        <v>873</v>
+      </c>
+      <c r="J313" s="45">
+        <v>1.5492957746478799</v>
+      </c>
       <c r="K313" s="45"/>
-      <c r="L313" s="61"/>
-      <c r="M313" s="61"/>
-      <c r="N313" s="61"/>
+      <c r="L313" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M313" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N313" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O313" s="45"/>
       <c r="P313" s="45"/>
       <c r="Q313" s="45"/>
@@ -16189,20 +17675,44 @@
       <c r="T313" s="37"/>
     </row>
     <row r="314" spans="1:20" ht="18" customHeight="1">
-      <c r="A314" s="61"/>
-      <c r="B314" s="61"/>
-      <c r="C314" s="61"/>
-      <c r="D314" s="61"/>
-      <c r="E314" s="61"/>
-      <c r="F314" s="61"/>
-      <c r="G314" s="61"/>
-      <c r="H314" s="61"/>
-      <c r="I314" s="45"/>
-      <c r="J314" s="45"/>
+      <c r="A314" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B314" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C314" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D314" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E314" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F314" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G314" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H314" s="45"/>
+      <c r="I314" s="38">
+        <v>873</v>
+      </c>
+      <c r="J314" s="45">
+        <v>1.4157746478873201</v>
+      </c>
       <c r="K314" s="45"/>
-      <c r="L314" s="61"/>
-      <c r="M314" s="61"/>
-      <c r="N314" s="61"/>
+      <c r="L314" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M314" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N314" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O314" s="45"/>
       <c r="P314" s="45"/>
       <c r="Q314" s="45"/>
@@ -16211,20 +17721,44 @@
       <c r="T314" s="37"/>
     </row>
     <row r="315" spans="1:20" ht="18" customHeight="1">
-      <c r="A315" s="61"/>
-      <c r="B315" s="61"/>
-      <c r="C315" s="61"/>
-      <c r="D315" s="61"/>
-      <c r="E315" s="61"/>
-      <c r="F315" s="61"/>
-      <c r="G315" s="61"/>
-      <c r="H315" s="61"/>
-      <c r="I315" s="45"/>
-      <c r="J315" s="45"/>
+      <c r="A315" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B315" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C315" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D315" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E315" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F315" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G315" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H315" s="45"/>
+      <c r="I315" s="38">
+        <v>873</v>
+      </c>
+      <c r="J315" s="45">
+        <v>1.5830985915492899</v>
+      </c>
       <c r="K315" s="45"/>
-      <c r="L315" s="61"/>
-      <c r="M315" s="61"/>
-      <c r="N315" s="61"/>
+      <c r="L315" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M315" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N315" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O315" s="45"/>
       <c r="P315" s="45"/>
       <c r="Q315" s="45"/>
@@ -16233,20 +17767,44 @@
       <c r="T315" s="37"/>
     </row>
     <row r="316" spans="1:20" ht="18" customHeight="1">
-      <c r="A316" s="61"/>
-      <c r="B316" s="61"/>
-      <c r="C316" s="61"/>
-      <c r="D316" s="61"/>
-      <c r="E316" s="61"/>
-      <c r="F316" s="61"/>
-      <c r="G316" s="61"/>
-      <c r="H316" s="61"/>
-      <c r="I316" s="45"/>
-      <c r="J316" s="45"/>
+      <c r="A316" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B316" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C316" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D316" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E316" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F316" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G316" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H316" s="45"/>
+      <c r="I316" s="38">
+        <v>873</v>
+      </c>
+      <c r="J316" s="45">
+        <v>1.4056338028169</v>
+      </c>
       <c r="K316" s="45"/>
-      <c r="L316" s="61"/>
-      <c r="M316" s="61"/>
-      <c r="N316" s="61"/>
+      <c r="L316" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M316" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N316" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O316" s="45"/>
       <c r="P316" s="45"/>
       <c r="Q316" s="45"/>
@@ -16255,20 +17813,44 @@
       <c r="T316" s="37"/>
     </row>
     <row r="317" spans="1:20" ht="18" customHeight="1">
-      <c r="A317" s="61"/>
-      <c r="B317" s="61"/>
-      <c r="C317" s="61"/>
-      <c r="D317" s="61"/>
-      <c r="E317" s="61"/>
-      <c r="F317" s="61"/>
-      <c r="G317" s="61"/>
-      <c r="H317" s="61"/>
-      <c r="I317" s="45"/>
-      <c r="J317" s="45"/>
+      <c r="A317" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B317" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C317" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D317" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E317" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F317" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G317" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H317" s="45"/>
+      <c r="I317" s="38">
+        <v>873</v>
+      </c>
+      <c r="J317" s="45">
+        <v>1.3616901408450699</v>
+      </c>
       <c r="K317" s="45"/>
-      <c r="L317" s="61"/>
-      <c r="M317" s="61"/>
-      <c r="N317" s="61"/>
+      <c r="L317" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M317" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N317" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O317" s="45"/>
       <c r="P317" s="45"/>
       <c r="Q317" s="45"/>
@@ -16277,20 +17859,44 @@
       <c r="T317" s="37"/>
     </row>
     <row r="318" spans="1:20" ht="18" customHeight="1">
-      <c r="A318" s="61"/>
-      <c r="B318" s="61"/>
-      <c r="C318" s="61"/>
-      <c r="D318" s="61"/>
-      <c r="E318" s="61"/>
-      <c r="F318" s="61"/>
-      <c r="G318" s="61"/>
+      <c r="A318" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B318" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C318" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D318" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E318" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F318" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G318" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H318" s="45"/>
-      <c r="I318" s="45"/>
-      <c r="J318" s="45"/>
+      <c r="I318" s="38">
+        <v>873</v>
+      </c>
+      <c r="J318" s="45">
+        <v>1.4208450704225299</v>
+      </c>
       <c r="K318" s="45"/>
-      <c r="L318" s="61"/>
-      <c r="M318" s="61"/>
-      <c r="N318" s="61"/>
+      <c r="L318" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M318" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="N318" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="O318" s="45"/>
       <c r="P318" s="45"/>
       <c r="Q318" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6174FB0-DEC2-4F4D-85BD-0DBB2D3A3EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32DC0A4-904C-CC42-9ED0-EC9A3BB087A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="308">
   <si>
     <r>
       <rPr>
@@ -1009,10 +1009,52 @@
     <t>SF2</t>
   </si>
   <si>
-    <t>magnetostriction</t>
+    <t>m/m</t>
   </si>
   <si>
-    <t>m/m</t>
+    <t>CoCrFe(GaNi)0.4</t>
+  </si>
+  <si>
+    <t>CoCrFe(GaNi)0.7</t>
+  </si>
+  <si>
+    <t>CoCrFe(GaNi)1.0</t>
+  </si>
+  <si>
+    <t>CoCrFe(GaNi)1.3</t>
+  </si>
+  <si>
+    <t>CoCrFe(GaNi)1.6</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>vacuum induction melting in argon-filled silica tube with alumina cruicible and slowly cooled</t>
+  </si>
+  <si>
+    <t>vacuum induction melting in argon-filled silica tube with alumina cruicible and slowly cooled; major FCC phase</t>
+  </si>
+  <si>
+    <t>vacuum induction melting in argon-filled silica tube with alumina cruicible and slowly cooled; major BCC phase</t>
+  </si>
+  <si>
+    <t>BCC+D03</t>
+  </si>
+  <si>
+    <t>vacuum induction melting in argon-filled silica tube with alumina cruicible and slowly cooled; minor D03 is Fe3Si-type ordered BCC 2x2x2 supercell</t>
+  </si>
+  <si>
+    <t>F13b</t>
+  </si>
+  <si>
+    <t>saturation magnetostriction</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>10.1016/j.matdes.2024.113396</t>
   </si>
 </sst>
 </file>
@@ -2216,56 +2258,17 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2327,17 +2330,56 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3501,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A318" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O332" sqref="O332"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A351" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N404" sqref="N404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3559,19 +3601,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="122"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3587,17 +3629,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="126"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="117"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3638,43 +3680,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="129" t="s">
+      <c r="L5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="129" t="s">
+      <c r="N5" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="O5" s="125" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3690,19 +3732,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="98"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3752,7 +3794,7 @@
       <c r="N7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="99"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="69" t="s">
         <v>77</v>
       </c>
@@ -3767,35 +3809,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108" t="s">
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="109"/>
+      <c r="N8" s="137"/>
       <c r="O8" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="110" t="s">
+      <c r="P8" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="141"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="65" t="s">
@@ -4542,10 +4584,10 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="98" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -4718,10 +4760,10 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="98" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="30" t="s">
@@ -5403,7 +5445,7 @@
         <v>125</v>
       </c>
       <c r="M44" s="40"/>
-      <c r="N44" s="136" t="s">
+      <c r="N44" s="99" t="s">
         <v>144</v>
       </c>
       <c r="O44" s="46"/>
@@ -5443,7 +5485,7 @@
         <v>125</v>
       </c>
       <c r="M45" s="40"/>
-      <c r="N45" s="136" t="s">
+      <c r="N45" s="99" t="s">
         <v>145</v>
       </c>
       <c r="O45" s="46"/>
@@ -5687,7 +5729,7 @@
         <v>128</v>
       </c>
       <c r="M51" s="40"/>
-      <c r="N51" s="136" t="s">
+      <c r="N51" s="99" t="s">
         <v>144</v>
       </c>
       <c r="O51" s="46"/>
@@ -5727,7 +5769,7 @@
         <v>128</v>
       </c>
       <c r="M52" s="40"/>
-      <c r="N52" s="136" t="s">
+      <c r="N52" s="99" t="s">
         <v>145</v>
       </c>
       <c r="O52" s="46"/>
@@ -6465,11 +6507,11 @@
       <c r="I69" s="34">
         <v>298</v>
       </c>
-      <c r="J69" s="137">
+      <c r="J69" s="100">
         <f t="shared" ref="J69:J76" si="0">P69*9807000</f>
         <v>5122230164.5338182</v>
       </c>
-      <c r="K69" s="137">
+      <c r="K69" s="100">
         <f>(Q69-P69)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6517,11 +6559,11 @@
       <c r="I70" s="34">
         <v>298</v>
       </c>
-      <c r="J70" s="137">
+      <c r="J70" s="100">
         <f t="shared" si="0"/>
         <v>6038386837.2943306</v>
       </c>
-      <c r="K70" s="137">
+      <c r="K70" s="100">
         <f t="shared" ref="K70:K76" si="1">(Q70-P70)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6569,11 +6611,11 @@
       <c r="I71" s="34">
         <v>298</v>
       </c>
-      <c r="J71" s="137">
+      <c r="J71" s="100">
         <f t="shared" si="0"/>
         <v>6690991590.4935989</v>
       </c>
-      <c r="K71" s="137">
+      <c r="K71" s="100">
         <f t="shared" si="1"/>
         <v>288652102.37659782</v>
       </c>
@@ -6621,11 +6663,11 @@
       <c r="I72" s="34">
         <v>298</v>
       </c>
-      <c r="J72" s="137">
+      <c r="J72" s="100">
         <f t="shared" si="0"/>
         <v>6929443327.2394876</v>
       </c>
-      <c r="K72" s="137">
+      <c r="K72" s="100">
         <f t="shared" si="1"/>
         <v>376502742.23034215</v>
       </c>
@@ -6673,11 +6715,11 @@
       <c r="I73" s="34">
         <v>298</v>
       </c>
-      <c r="J73" s="137">
+      <c r="J73" s="100">
         <f t="shared" si="0"/>
         <v>4370646088.794919</v>
       </c>
-      <c r="K73" s="137">
+      <c r="K73" s="100">
         <f t="shared" si="1"/>
         <v>362838266.38477683</v>
       </c>
@@ -6725,11 +6767,11 @@
       <c r="I74" s="34">
         <v>298</v>
       </c>
-      <c r="J74" s="137">
+      <c r="J74" s="100">
         <f t="shared" si="0"/>
         <v>5417693657.5052862</v>
       </c>
-      <c r="K74" s="137">
+      <c r="K74" s="100">
         <f t="shared" si="1"/>
         <v>269536997.88582945</v>
       </c>
@@ -6777,11 +6819,11 @@
       <c r="I75" s="34">
         <v>298</v>
       </c>
-      <c r="J75" s="137">
+      <c r="J75" s="100">
         <f t="shared" si="0"/>
         <v>5127423044.3974543</v>
       </c>
-      <c r="K75" s="137">
+      <c r="K75" s="100">
         <f t="shared" si="1"/>
         <v>342104651.16279542</v>
       </c>
@@ -6829,11 +6871,11 @@
       <c r="I76" s="34">
         <v>298</v>
       </c>
-      <c r="J76" s="137">
+      <c r="J76" s="100">
         <f t="shared" si="0"/>
         <v>5013388160.6765261</v>
       </c>
-      <c r="K76" s="137">
+      <c r="K76" s="100">
         <f t="shared" si="1"/>
         <v>238436575.05285701</v>
       </c>
@@ -7515,7 +7557,7 @@
       <c r="I92" s="34">
         <v>298</v>
       </c>
-      <c r="J92" s="137">
+      <c r="J92" s="100">
         <f t="shared" ref="J92" si="2">P92*9807000</f>
         <v>1765260000</v>
       </c>
@@ -8417,11 +8459,11 @@
       <c r="I114" s="38">
         <v>298</v>
       </c>
-      <c r="J114" s="137">
+      <c r="J114" s="100">
         <f t="shared" ref="J114:K116" si="4">P114*9807000</f>
         <v>4776009000</v>
       </c>
-      <c r="K114" s="137">
+      <c r="K114" s="100">
         <f t="shared" si="4"/>
         <v>176526000</v>
       </c>
@@ -8471,11 +8513,11 @@
       <c r="I115" s="38">
         <v>298</v>
       </c>
-      <c r="J115" s="137">
+      <c r="J115" s="100">
         <f t="shared" si="4"/>
         <v>5511534000</v>
       </c>
-      <c r="K115" s="137">
+      <c r="K115" s="100">
         <f t="shared" si="4"/>
         <v>196140000</v>
       </c>
@@ -8525,11 +8567,11 @@
       <c r="I116" s="38">
         <v>298</v>
       </c>
-      <c r="J116" s="137">
+      <c r="J116" s="100">
         <f t="shared" si="4"/>
         <v>6619725000</v>
       </c>
-      <c r="K116" s="137">
+      <c r="K116" s="100">
         <f t="shared" si="4"/>
         <v>460929000</v>
       </c>
@@ -8978,7 +9020,7 @@
       <c r="B127" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="C127" s="138" t="s">
+      <c r="C127" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="30" t="s">
@@ -9022,7 +9064,7 @@
       <c r="B128" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="C128" s="139" t="s">
+      <c r="C128" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D128" s="30" t="s">
@@ -9066,7 +9108,7 @@
       <c r="B129" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="C129" s="139" t="s">
+      <c r="C129" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D129" s="30" t="s">
@@ -9110,7 +9152,7 @@
       <c r="B130" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="139" t="s">
+      <c r="C130" s="102" t="s">
         <v>75</v>
       </c>
       <c r="D130" s="30" t="s">
@@ -9154,7 +9196,7 @@
       <c r="B131" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="139" t="s">
+      <c r="C131" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="30" t="s">
@@ -9198,7 +9240,7 @@
       <c r="B132" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="C132" s="138" t="s">
+      <c r="C132" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="30" t="s">
@@ -9242,7 +9284,7 @@
       <c r="B133" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="C133" s="139" t="s">
+      <c r="C133" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="30" t="s">
@@ -9286,7 +9328,7 @@
       <c r="B134" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="C134" s="139" t="s">
+      <c r="C134" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D134" s="30" t="s">
@@ -9330,7 +9372,7 @@
       <c r="B135" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="C135" s="139" t="s">
+      <c r="C135" s="102" t="s">
         <v>75</v>
       </c>
       <c r="D135" s="30" t="s">
@@ -9374,7 +9416,7 @@
       <c r="B136" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C136" s="139" t="s">
+      <c r="C136" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D136" s="30" t="s">
@@ -9418,7 +9460,7 @@
       <c r="B137" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="C137" s="138" t="s">
+      <c r="C137" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D137" s="30" t="s">
@@ -9462,7 +9504,7 @@
       <c r="B138" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="C138" s="139" t="s">
+      <c r="C138" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D138" s="30" t="s">
@@ -9506,7 +9548,7 @@
       <c r="B139" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="C139" s="139" t="s">
+      <c r="C139" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D139" s="30" t="s">
@@ -9550,7 +9592,7 @@
       <c r="B140" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="C140" s="139" t="s">
+      <c r="C140" s="102" t="s">
         <v>75</v>
       </c>
       <c r="D140" s="30" t="s">
@@ -9594,7 +9636,7 @@
       <c r="B141" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C141" s="139" t="s">
+      <c r="C141" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D141" s="30" t="s">
@@ -9638,7 +9680,7 @@
       <c r="B142" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C142" s="139" t="s">
+      <c r="C142" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D142" s="30" t="s">
@@ -13072,7 +13114,7 @@
       <c r="I215" s="38">
         <v>298</v>
       </c>
-      <c r="J215" s="137">
+      <c r="J215" s="100">
         <f t="shared" ref="J215:J221" si="9">P215*9807000</f>
         <v>1372652006.6889586</v>
       </c>
@@ -13121,7 +13163,7 @@
       <c r="I216" s="38">
         <v>298</v>
       </c>
-      <c r="J216" s="137">
+      <c r="J216" s="100">
         <f t="shared" si="9"/>
         <v>2986379096.9899654</v>
       </c>
@@ -13170,7 +13212,7 @@
       <c r="I217" s="38">
         <v>298</v>
       </c>
-      <c r="J217" s="137">
+      <c r="J217" s="100">
         <f t="shared" si="9"/>
         <v>5033057357.8595304</v>
       </c>
@@ -13219,7 +13261,7 @@
       <c r="I218" s="38">
         <v>298</v>
       </c>
-      <c r="J218" s="137">
+      <c r="J218" s="100">
         <f t="shared" si="9"/>
         <v>4993698160.5351105</v>
       </c>
@@ -13268,7 +13310,7 @@
       <c r="I219" s="38">
         <v>298</v>
       </c>
-      <c r="J219" s="137">
+      <c r="J219" s="100">
         <f t="shared" si="9"/>
         <v>5859600501.6722345</v>
       </c>
@@ -13317,7 +13359,7 @@
       <c r="I220" s="38">
         <v>298</v>
       </c>
-      <c r="J220" s="137">
+      <c r="J220" s="100">
         <f t="shared" si="9"/>
         <v>5879280100.334445</v>
       </c>
@@ -13366,7 +13408,7 @@
       <c r="I221" s="38">
         <v>298</v>
       </c>
-      <c r="J221" s="137">
+      <c r="J221" s="100">
         <f t="shared" si="9"/>
         <v>8024356354.5150414</v>
       </c>
@@ -14396,7 +14438,7 @@
       <c r="B243" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C243" s="140" t="s">
+      <c r="C243" s="103" t="s">
         <v>93</v>
       </c>
       <c r="D243" s="61" t="s">
@@ -14444,7 +14486,7 @@
       <c r="B244" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="140" t="s">
+      <c r="C244" s="103" t="s">
         <v>248</v>
       </c>
       <c r="D244" s="61" t="s">
@@ -14492,7 +14534,7 @@
       <c r="B245" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="140" t="s">
+      <c r="C245" s="103" t="s">
         <v>93</v>
       </c>
       <c r="D245" s="61" t="s">
@@ -14540,7 +14582,7 @@
       <c r="B246" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C246" s="140" t="s">
+      <c r="C246" s="103" t="s">
         <v>248</v>
       </c>
       <c r="D246" s="61" t="s">
@@ -14588,7 +14630,7 @@
       <c r="B247" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C247" s="140" t="s">
+      <c r="C247" s="103" t="s">
         <v>93</v>
       </c>
       <c r="D247" s="61" t="s">
@@ -14636,7 +14678,7 @@
       <c r="B248" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C248" s="140" t="s">
+      <c r="C248" s="103" t="s">
         <v>248</v>
       </c>
       <c r="D248" s="61" t="s">
@@ -14682,7 +14724,7 @@
       <c r="B249" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="140" t="s">
+      <c r="C249" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D249" s="61" t="s">
@@ -14726,7 +14768,7 @@
       <c r="B250" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C250" s="140" t="s">
+      <c r="C250" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D250" s="61"/>
@@ -14766,7 +14808,7 @@
       <c r="B251" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C251" s="140" t="s">
+      <c r="C251" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D251" s="61" t="s">
@@ -14810,7 +14852,7 @@
       <c r="B252" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="140" t="s">
+      <c r="C252" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D252" s="61"/>
@@ -14850,7 +14892,7 @@
       <c r="B253" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C253" s="140" t="s">
+      <c r="C253" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D253" s="61" t="s">
@@ -14894,7 +14936,7 @@
       <c r="B254" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C254" s="140" t="s">
+      <c r="C254" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D254" s="61"/>
@@ -14934,7 +14976,7 @@
       <c r="B255" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C255" s="140" t="s">
+      <c r="C255" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D255" s="61" t="s">
@@ -14976,7 +15018,7 @@
       <c r="B256" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C256" s="140" t="s">
+      <c r="C256" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D256" s="61"/>
@@ -15014,7 +15056,7 @@
       <c r="B257" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C257" s="140" t="s">
+      <c r="C257" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D257" s="61" t="s">
@@ -15055,7 +15097,7 @@
       <c r="B258" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="140" t="s">
+      <c r="C258" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D258" s="61"/>
@@ -15163,7 +15205,7 @@
         <v>300</v>
       </c>
       <c r="J260" s="53">
-        <f t="shared" ref="J260:J277" si="10">P260*0.000001</f>
+        <f t="shared" ref="J260:J276" si="10">P260*0.000001</f>
         <v>1.5438777075873399E-5</v>
       </c>
       <c r="K260" s="38"/>
@@ -15960,7 +16002,7 @@
       <c r="N276" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="O276" s="141"/>
+      <c r="O276" s="104"/>
       <c r="P276" s="45">
         <v>164.444444444444</v>
       </c>
@@ -19881,7 +19923,7 @@
         <v>288</v>
       </c>
       <c r="F361" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G361" s="32" t="s">
         <v>29</v>
@@ -19896,7 +19938,7 @@
       </c>
       <c r="K361" s="49"/>
       <c r="L361" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M361" s="61" t="s">
         <v>182</v>
@@ -19928,7 +19970,7 @@
         <v>288</v>
       </c>
       <c r="F362" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G362" s="32" t="s">
         <v>29</v>
@@ -19943,7 +19985,7 @@
       </c>
       <c r="K362" s="49"/>
       <c r="L362" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M362" s="61" t="s">
         <v>182</v>
@@ -19975,7 +20017,7 @@
         <v>288</v>
       </c>
       <c r="F363" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G363" s="32" t="s">
         <v>29</v>
@@ -19990,7 +20032,7 @@
       </c>
       <c r="K363" s="49"/>
       <c r="L363" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M363" s="61" t="s">
         <v>182</v>
@@ -20022,7 +20064,7 @@
         <v>288</v>
       </c>
       <c r="F364" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G364" s="32" t="s">
         <v>29</v>
@@ -20037,7 +20079,7 @@
       </c>
       <c r="K364" s="45"/>
       <c r="L364" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M364" s="61" t="s">
         <v>182</v>
@@ -20069,7 +20111,7 @@
         <v>288</v>
       </c>
       <c r="F365" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G365" s="32" t="s">
         <v>29</v>
@@ -20084,7 +20126,7 @@
       </c>
       <c r="K365" s="45"/>
       <c r="L365" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M365" s="61" t="s">
         <v>182</v>
@@ -20116,7 +20158,7 @@
         <v>288</v>
       </c>
       <c r="F366" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G366" s="32" t="s">
         <v>29</v>
@@ -20131,7 +20173,7 @@
       </c>
       <c r="K366" s="45"/>
       <c r="L366" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M366" s="61" t="s">
         <v>182</v>
@@ -20163,7 +20205,7 @@
         <v>288</v>
       </c>
       <c r="F367" s="61" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G367" s="32" t="s">
         <v>29</v>
@@ -20178,7 +20220,7 @@
       </c>
       <c r="K367" s="45"/>
       <c r="L367" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M367" s="61" t="s">
         <v>182</v>
@@ -20197,19 +20239,41 @@
     </row>
     <row r="368" spans="1:20" ht="18" customHeight="1">
       <c r="A368" s="45"/>
-      <c r="B368" s="61"/>
-      <c r="C368" s="61"/>
-      <c r="D368" s="61"/>
-      <c r="E368" s="61"/>
-      <c r="F368" s="45"/>
-      <c r="G368" s="45"/>
+      <c r="B368" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C368" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D368" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E368" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F368" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G368" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H368" s="45"/>
-      <c r="I368" s="45"/>
-      <c r="J368" s="45"/>
+      <c r="I368" s="45">
+        <v>300</v>
+      </c>
+      <c r="J368" s="45">
+        <v>0.101503759398496</v>
+      </c>
       <c r="K368" s="45"/>
-      <c r="L368" s="61"/>
-      <c r="M368" s="45"/>
-      <c r="N368" s="61"/>
+      <c r="L368" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M368" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N368" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O368" s="45"/>
       <c r="P368" s="45"/>
       <c r="Q368" s="45"/>
@@ -20219,19 +20283,41 @@
     </row>
     <row r="369" spans="1:20" ht="18" customHeight="1">
       <c r="A369" s="45"/>
-      <c r="B369" s="61"/>
-      <c r="C369" s="61"/>
-      <c r="D369" s="61"/>
-      <c r="E369" s="61"/>
-      <c r="F369" s="61"/>
-      <c r="G369" s="61"/>
+      <c r="B369" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C369" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D369" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E369" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F369" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G369" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H369" s="45"/>
-      <c r="I369" s="45"/>
-      <c r="J369" s="45"/>
+      <c r="I369" s="45">
+        <v>300</v>
+      </c>
+      <c r="J369" s="45">
+        <v>-0.29699248120300697</v>
+      </c>
       <c r="K369" s="45"/>
-      <c r="L369" s="61"/>
-      <c r="M369" s="61"/>
-      <c r="N369" s="61"/>
+      <c r="L369" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M369" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N369" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O369" s="45"/>
       <c r="P369" s="45"/>
       <c r="Q369" s="45"/>
@@ -20241,19 +20327,41 @@
     </row>
     <row r="370" spans="1:20" ht="18" customHeight="1">
       <c r="A370" s="45"/>
-      <c r="B370" s="61"/>
-      <c r="C370" s="61"/>
-      <c r="D370" s="61"/>
-      <c r="E370" s="61"/>
-      <c r="F370" s="61"/>
-      <c r="G370" s="61"/>
+      <c r="B370" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C370" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D370" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E370" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F370" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G370" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H370" s="45"/>
-      <c r="I370" s="45"/>
-      <c r="J370" s="45"/>
+      <c r="I370" s="45">
+        <v>300</v>
+      </c>
+      <c r="J370" s="45">
+        <v>-0.84962406015037595</v>
+      </c>
       <c r="K370" s="45"/>
-      <c r="L370" s="61"/>
-      <c r="M370" s="61"/>
-      <c r="N370" s="61"/>
+      <c r="L370" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M370" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N370" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O370" s="45"/>
       <c r="P370" s="45"/>
       <c r="Q370" s="45"/>
@@ -20263,19 +20371,41 @@
     </row>
     <row r="371" spans="1:20" ht="18" customHeight="1">
       <c r="A371" s="45"/>
-      <c r="B371" s="61"/>
-      <c r="C371" s="61"/>
-      <c r="D371" s="61"/>
-      <c r="E371" s="61"/>
-      <c r="F371" s="61"/>
-      <c r="G371" s="61"/>
+      <c r="B371" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C371" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D371" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E371" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F371" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G371" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H371" s="45"/>
-      <c r="I371" s="45"/>
-      <c r="J371" s="45"/>
+      <c r="I371" s="45">
+        <v>300</v>
+      </c>
+      <c r="J371" s="45">
+        <v>-1.4473684210526301</v>
+      </c>
       <c r="K371" s="45"/>
-      <c r="L371" s="61"/>
-      <c r="M371" s="61"/>
-      <c r="N371" s="61"/>
+      <c r="L371" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M371" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N371" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O371" s="45"/>
       <c r="P371" s="45"/>
       <c r="Q371" s="45"/>
@@ -20285,19 +20415,41 @@
     </row>
     <row r="372" spans="1:20" ht="18" customHeight="1">
       <c r="A372" s="45"/>
-      <c r="B372" s="61"/>
-      <c r="C372" s="61"/>
-      <c r="D372" s="61"/>
-      <c r="E372" s="61"/>
-      <c r="F372" s="61"/>
-      <c r="G372" s="61"/>
+      <c r="B372" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C372" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D372" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E372" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F372" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G372" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H372" s="45"/>
-      <c r="I372" s="45"/>
-      <c r="J372" s="45"/>
+      <c r="I372" s="45">
+        <v>300</v>
+      </c>
+      <c r="J372" s="45">
+        <v>-3.0263157894736801</v>
+      </c>
       <c r="K372" s="45"/>
-      <c r="L372" s="61"/>
-      <c r="M372" s="61"/>
-      <c r="N372" s="61"/>
+      <c r="L372" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M372" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N372" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O372" s="45"/>
       <c r="P372" s="45"/>
       <c r="Q372" s="45"/>
@@ -20307,19 +20459,39 @@
     </row>
     <row r="373" spans="1:20" ht="18" customHeight="1">
       <c r="A373" s="45"/>
-      <c r="B373" s="61"/>
-      <c r="C373" s="61"/>
-      <c r="D373" s="61"/>
-      <c r="E373" s="61"/>
-      <c r="F373" s="61"/>
-      <c r="G373" s="61"/>
+      <c r="B373" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C373" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D373" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E373" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F373" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G373" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H373" s="45"/>
       <c r="I373" s="45"/>
-      <c r="J373" s="45"/>
-      <c r="K373" s="45"/>
-      <c r="L373" s="61"/>
+      <c r="J373" s="45">
+        <v>750</v>
+      </c>
+      <c r="K373" s="45">
+        <v>10</v>
+      </c>
+      <c r="L373" s="61" t="s">
+        <v>125</v>
+      </c>
       <c r="M373" s="61"/>
-      <c r="N373" s="61"/>
+      <c r="N373" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O373" s="45"/>
       <c r="P373" s="45"/>
       <c r="Q373" s="45"/>
@@ -20329,19 +20501,39 @@
     </row>
     <row r="374" spans="1:20" ht="18" customHeight="1">
       <c r="A374" s="45"/>
-      <c r="B374" s="61"/>
-      <c r="C374" s="61"/>
-      <c r="D374" s="61"/>
-      <c r="E374" s="61"/>
-      <c r="F374" s="61"/>
-      <c r="G374" s="61"/>
+      <c r="B374" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C374" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D374" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E374" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F374" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G374" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H374" s="45"/>
       <c r="I374" s="45"/>
-      <c r="J374" s="45"/>
-      <c r="K374" s="45"/>
-      <c r="L374" s="61"/>
+      <c r="J374" s="45">
+        <v>725</v>
+      </c>
+      <c r="K374" s="45">
+        <v>10</v>
+      </c>
+      <c r="L374" s="61" t="s">
+        <v>125</v>
+      </c>
       <c r="M374" s="61"/>
-      <c r="N374" s="61"/>
+      <c r="N374" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O374" s="45"/>
       <c r="P374" s="45"/>
       <c r="Q374" s="45"/>
@@ -20351,19 +20543,39 @@
     </row>
     <row r="375" spans="1:20" ht="18" customHeight="1">
       <c r="A375" s="45"/>
-      <c r="B375" s="61"/>
-      <c r="C375" s="61"/>
-      <c r="D375" s="61"/>
-      <c r="E375" s="61"/>
-      <c r="F375" s="61"/>
-      <c r="G375" s="61"/>
+      <c r="B375" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C375" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D375" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E375" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F375" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G375" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H375" s="45"/>
       <c r="I375" s="45"/>
-      <c r="J375" s="45"/>
-      <c r="K375" s="45"/>
-      <c r="L375" s="61"/>
+      <c r="J375" s="45">
+        <v>715</v>
+      </c>
+      <c r="K375" s="45">
+        <v>10</v>
+      </c>
+      <c r="L375" s="61" t="s">
+        <v>125</v>
+      </c>
       <c r="M375" s="61"/>
-      <c r="N375" s="61"/>
+      <c r="N375" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O375" s="45"/>
       <c r="P375" s="45"/>
       <c r="Q375" s="45"/>
@@ -20373,19 +20585,39 @@
     </row>
     <row r="376" spans="1:20" ht="18" customHeight="1">
       <c r="A376" s="45"/>
-      <c r="B376" s="61"/>
-      <c r="C376" s="61"/>
-      <c r="D376" s="61"/>
-      <c r="E376" s="61"/>
-      <c r="F376" s="61"/>
-      <c r="G376" s="61"/>
+      <c r="B376" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C376" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D376" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E376" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F376" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G376" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H376" s="45"/>
       <c r="I376" s="45"/>
-      <c r="J376" s="45"/>
-      <c r="K376" s="45"/>
-      <c r="L376" s="61"/>
+      <c r="J376" s="45">
+        <v>700</v>
+      </c>
+      <c r="K376" s="45">
+        <v>10</v>
+      </c>
+      <c r="L376" s="61" t="s">
+        <v>125</v>
+      </c>
       <c r="M376" s="61"/>
-      <c r="N376" s="61"/>
+      <c r="N376" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O376" s="45"/>
       <c r="P376" s="45"/>
       <c r="Q376" s="45"/>
@@ -20395,19 +20627,41 @@
     </row>
     <row r="377" spans="1:20" ht="18" customHeight="1">
       <c r="A377" s="45"/>
-      <c r="B377" s="61"/>
-      <c r="C377" s="61"/>
-      <c r="D377" s="61"/>
-      <c r="E377" s="61"/>
-      <c r="F377" s="61"/>
-      <c r="G377" s="61"/>
+      <c r="B377" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C377" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D377" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E377" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F377" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G377" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H377" s="45"/>
-      <c r="I377" s="45"/>
-      <c r="J377" s="45"/>
+      <c r="I377" s="45">
+        <v>5</v>
+      </c>
+      <c r="J377" s="45">
+        <v>1163.2653061224401</v>
+      </c>
       <c r="K377" s="45"/>
-      <c r="L377" s="61"/>
-      <c r="M377" s="61"/>
-      <c r="N377" s="61"/>
+      <c r="L377" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M377" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N377" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O377" s="45"/>
       <c r="P377" s="45"/>
       <c r="Q377" s="45"/>
@@ -20417,19 +20671,41 @@
     </row>
     <row r="378" spans="1:20" ht="18" customHeight="1">
       <c r="A378" s="45"/>
-      <c r="B378" s="61"/>
-      <c r="C378" s="61"/>
-      <c r="D378" s="61"/>
-      <c r="E378" s="45"/>
-      <c r="F378" s="61"/>
-      <c r="G378" s="61"/>
+      <c r="B378" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C378" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D378" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E378" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F378" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G378" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H378" s="45"/>
-      <c r="I378" s="45"/>
-      <c r="J378" s="45"/>
+      <c r="I378" s="45">
+        <v>100</v>
+      </c>
+      <c r="J378" s="45">
+        <v>911.56462585034001</v>
+      </c>
       <c r="K378" s="45"/>
-      <c r="L378" s="61"/>
-      <c r="M378" s="61"/>
-      <c r="N378" s="61"/>
+      <c r="L378" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M378" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N378" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O378" s="45"/>
       <c r="P378" s="45"/>
       <c r="Q378" s="45"/>
@@ -20439,19 +20715,41 @@
     </row>
     <row r="379" spans="1:20" ht="18" customHeight="1">
       <c r="A379" s="45"/>
-      <c r="B379" s="61"/>
-      <c r="C379" s="61"/>
-      <c r="D379" s="61"/>
-      <c r="E379" s="45"/>
-      <c r="F379" s="61"/>
-      <c r="G379" s="61"/>
+      <c r="B379" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C379" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D379" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E379" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F379" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G379" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H379" s="45"/>
-      <c r="I379" s="45"/>
-      <c r="J379" s="45"/>
+      <c r="I379" s="45">
+        <v>200</v>
+      </c>
+      <c r="J379" s="45">
+        <v>687.07482993197198</v>
+      </c>
       <c r="K379" s="45"/>
-      <c r="L379" s="61"/>
-      <c r="M379" s="61"/>
-      <c r="N379" s="61"/>
+      <c r="L379" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M379" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N379" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O379" s="45"/>
       <c r="P379" s="45"/>
       <c r="Q379" s="45"/>
@@ -20461,19 +20759,41 @@
     </row>
     <row r="380" spans="1:20" ht="18" customHeight="1">
       <c r="A380" s="45"/>
-      <c r="B380" s="61"/>
-      <c r="C380" s="61"/>
-      <c r="D380" s="61"/>
-      <c r="E380" s="45"/>
-      <c r="F380" s="61"/>
-      <c r="G380" s="61"/>
+      <c r="B380" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C380" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D380" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E380" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F380" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G380" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H380" s="45"/>
-      <c r="I380" s="45"/>
-      <c r="J380" s="45"/>
+      <c r="I380" s="45">
+        <v>300</v>
+      </c>
+      <c r="J380" s="45">
+        <v>341.83673469387702</v>
+      </c>
       <c r="K380" s="45"/>
-      <c r="L380" s="61"/>
-      <c r="M380" s="61"/>
-      <c r="N380" s="61"/>
+      <c r="L380" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M380" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N380" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O380" s="45"/>
       <c r="P380" s="45"/>
       <c r="Q380" s="45"/>
@@ -20483,19 +20803,41 @@
     </row>
     <row r="381" spans="1:20" ht="18" customHeight="1">
       <c r="A381" s="45"/>
-      <c r="B381" s="61"/>
-      <c r="C381" s="61"/>
-      <c r="D381" s="61"/>
-      <c r="E381" s="45"/>
-      <c r="F381" s="61"/>
-      <c r="G381" s="61"/>
+      <c r="B381" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C381" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D381" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E381" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F381" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G381" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H381" s="45"/>
-      <c r="I381" s="45"/>
-      <c r="J381" s="45"/>
+      <c r="I381" s="45">
+        <v>400</v>
+      </c>
+      <c r="J381" s="45">
+        <v>176.87074829931899</v>
+      </c>
       <c r="K381" s="45"/>
-      <c r="L381" s="61"/>
-      <c r="M381" s="61"/>
-      <c r="N381" s="61"/>
+      <c r="L381" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M381" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N381" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O381" s="45"/>
       <c r="P381" s="45"/>
       <c r="Q381" s="45"/>
@@ -20505,21 +20847,46 @@
     </row>
     <row r="382" spans="1:20" ht="18" customHeight="1">
       <c r="A382" s="45"/>
-      <c r="B382" s="61"/>
-      <c r="C382" s="61"/>
-      <c r="D382" s="61"/>
-      <c r="E382" s="45"/>
-      <c r="F382" s="61"/>
-      <c r="G382" s="61"/>
+      <c r="B382" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C382" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D382" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E382" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F382" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G382" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H382" s="45"/>
-      <c r="I382" s="45"/>
-      <c r="J382" s="49"/>
+      <c r="I382" s="61">
+        <v>2</v>
+      </c>
+      <c r="J382" s="49">
+        <f>P382*0.00000001</f>
+        <v>1.0272829763246899E-6</v>
+      </c>
       <c r="K382" s="45"/>
-      <c r="L382" s="61"/>
-      <c r="M382" s="61"/>
-      <c r="N382" s="61"/>
+      <c r="L382" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M382" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N382" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O382" s="45"/>
-      <c r="P382" s="45"/>
+      <c r="P382" s="45">
+        <v>102.72829763246899</v>
+      </c>
       <c r="Q382" s="45"/>
       <c r="R382" s="45"/>
       <c r="S382" s="37"/>
@@ -20527,21 +20894,46 @@
     </row>
     <row r="383" spans="1:20" ht="18" customHeight="1">
       <c r="A383" s="45"/>
-      <c r="B383" s="61"/>
-      <c r="C383" s="61"/>
-      <c r="D383" s="61"/>
-      <c r="E383" s="45"/>
-      <c r="F383" s="61"/>
-      <c r="G383" s="61"/>
+      <c r="B383" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C383" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D383" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E383" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F383" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G383" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H383" s="45"/>
-      <c r="I383" s="45"/>
-      <c r="J383" s="49"/>
+      <c r="I383" s="61">
+        <v>2</v>
+      </c>
+      <c r="J383" s="49">
+        <f t="shared" ref="J383:J401" si="14">P383*0.00000001</f>
+        <v>1.2126268320180301E-6</v>
+      </c>
       <c r="K383" s="45"/>
-      <c r="L383" s="61"/>
-      <c r="M383" s="61"/>
-      <c r="N383" s="61"/>
+      <c r="L383" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M383" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N383" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O383" s="45"/>
-      <c r="P383" s="45"/>
+      <c r="P383" s="45">
+        <v>121.262683201803</v>
+      </c>
       <c r="Q383" s="45"/>
       <c r="R383" s="45"/>
       <c r="S383" s="37"/>
@@ -20549,21 +20941,46 @@
     </row>
     <row r="384" spans="1:20" ht="18" customHeight="1">
       <c r="A384" s="45"/>
-      <c r="B384" s="61"/>
-      <c r="C384" s="61"/>
-      <c r="D384" s="61"/>
-      <c r="E384" s="45"/>
-      <c r="F384" s="61"/>
-      <c r="G384" s="61"/>
+      <c r="B384" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C384" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D384" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E384" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F384" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G384" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H384" s="45"/>
-      <c r="I384" s="45"/>
-      <c r="J384" s="49"/>
+      <c r="I384" s="61">
+        <v>2</v>
+      </c>
+      <c r="J384" s="49">
+        <f t="shared" si="14"/>
+        <v>1.12468996617812E-6</v>
+      </c>
       <c r="K384" s="45"/>
-      <c r="L384" s="61"/>
-      <c r="M384" s="61"/>
-      <c r="N384" s="61"/>
+      <c r="L384" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M384" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N384" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O384" s="45"/>
-      <c r="P384" s="45"/>
+      <c r="P384" s="45">
+        <v>112.468996617812</v>
+      </c>
       <c r="Q384" s="45"/>
       <c r="R384" s="45"/>
       <c r="S384" s="37"/>
@@ -20571,21 +20988,46 @@
     </row>
     <row r="385" spans="1:20" ht="18" customHeight="1">
       <c r="A385" s="45"/>
-      <c r="B385" s="61"/>
-      <c r="C385" s="61"/>
-      <c r="D385" s="61"/>
-      <c r="E385" s="45"/>
-      <c r="F385" s="61"/>
-      <c r="G385" s="61"/>
+      <c r="B385" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C385" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D385" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E385" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F385" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G385" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H385" s="45"/>
-      <c r="I385" s="45"/>
-      <c r="J385" s="49"/>
+      <c r="I385" s="61">
+        <v>2</v>
+      </c>
+      <c r="J385" s="49">
+        <f t="shared" si="14"/>
+        <v>9.9210822998872598E-7</v>
+      </c>
       <c r="K385" s="45"/>
-      <c r="L385" s="61"/>
-      <c r="M385" s="61"/>
-      <c r="N385" s="61"/>
+      <c r="L385" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M385" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N385" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O385" s="45"/>
-      <c r="P385" s="45"/>
+      <c r="P385" s="45">
+        <v>99.210822998872601</v>
+      </c>
       <c r="Q385" s="45"/>
       <c r="R385" s="45"/>
       <c r="S385" s="37"/>
@@ -20593,21 +21035,46 @@
     </row>
     <row r="386" spans="1:20" ht="18" customHeight="1">
       <c r="A386" s="45"/>
-      <c r="B386" s="61"/>
-      <c r="C386" s="61"/>
-      <c r="D386" s="61"/>
-      <c r="E386" s="45"/>
-      <c r="F386" s="61"/>
-      <c r="G386" s="61"/>
+      <c r="B386" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C386" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D386" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E386" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F386" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G386" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H386" s="45"/>
-      <c r="I386" s="45"/>
-      <c r="J386" s="49"/>
+      <c r="I386" s="61">
+        <v>2</v>
+      </c>
+      <c r="J386" s="49">
+        <f t="shared" si="14"/>
+        <v>9.4475760992108206E-7</v>
+      </c>
       <c r="K386" s="45"/>
-      <c r="L386" s="61"/>
-      <c r="M386" s="61"/>
-      <c r="N386" s="61"/>
+      <c r="L386" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M386" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N386" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O386" s="45"/>
-      <c r="P386" s="45"/>
+      <c r="P386" s="45">
+        <v>94.475760992108206</v>
+      </c>
       <c r="Q386" s="45"/>
       <c r="R386" s="45"/>
       <c r="S386" s="37"/>
@@ -20615,21 +21082,46 @@
     </row>
     <row r="387" spans="1:20" ht="18" customHeight="1">
       <c r="A387" s="45"/>
-      <c r="B387" s="61"/>
-      <c r="C387" s="61"/>
-      <c r="D387" s="61"/>
-      <c r="E387" s="45"/>
-      <c r="F387" s="61"/>
-      <c r="G387" s="61"/>
+      <c r="B387" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C387" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D387" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E387" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F387" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G387" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H387" s="45"/>
-      <c r="I387" s="45"/>
-      <c r="J387" s="49"/>
+      <c r="I387" s="61">
+        <v>50</v>
+      </c>
+      <c r="J387" s="49">
+        <f t="shared" si="14"/>
+        <v>1.0381059751972901E-6</v>
+      </c>
       <c r="K387" s="45"/>
-      <c r="L387" s="61"/>
-      <c r="M387" s="61"/>
-      <c r="N387" s="61"/>
+      <c r="L387" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M387" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N387" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O387" s="45"/>
-      <c r="P387" s="45"/>
+      <c r="P387" s="45">
+        <v>103.810597519729</v>
+      </c>
       <c r="Q387" s="45"/>
       <c r="R387" s="45"/>
       <c r="S387" s="37"/>
@@ -20637,21 +21129,46 @@
     </row>
     <row r="388" spans="1:20" ht="18" customHeight="1">
       <c r="A388" s="45"/>
-      <c r="B388" s="61"/>
-      <c r="C388" s="61"/>
-      <c r="D388" s="61"/>
-      <c r="E388" s="45"/>
-      <c r="F388" s="61"/>
-      <c r="G388" s="61"/>
+      <c r="B388" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C388" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D388" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E388" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F388" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G388" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H388" s="45"/>
-      <c r="I388" s="45"/>
-      <c r="J388" s="45"/>
+      <c r="I388" s="61">
+        <v>50</v>
+      </c>
+      <c r="J388" s="49">
+        <f t="shared" si="14"/>
+        <v>1.2133032694475701E-6</v>
+      </c>
       <c r="K388" s="45"/>
-      <c r="L388" s="61"/>
-      <c r="M388" s="61"/>
-      <c r="N388" s="61"/>
+      <c r="L388" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M388" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N388" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O388" s="45"/>
-      <c r="P388" s="45"/>
+      <c r="P388" s="45">
+        <v>121.330326944757</v>
+      </c>
       <c r="Q388" s="45"/>
       <c r="R388" s="45"/>
       <c r="S388" s="37"/>
@@ -20659,21 +21176,46 @@
     </row>
     <row r="389" spans="1:20" ht="18" customHeight="1">
       <c r="A389" s="45"/>
-      <c r="B389" s="61"/>
-      <c r="C389" s="61"/>
-      <c r="D389" s="61"/>
-      <c r="E389" s="45"/>
-      <c r="F389" s="61"/>
-      <c r="G389" s="61"/>
+      <c r="B389" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C389" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D389" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E389" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F389" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G389" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H389" s="45"/>
-      <c r="I389" s="45"/>
-      <c r="J389" s="45"/>
+      <c r="I389" s="61">
+        <v>50</v>
+      </c>
+      <c r="J389" s="49">
+        <f t="shared" si="14"/>
+        <v>1.1287485907553501E-6</v>
+      </c>
       <c r="K389" s="45"/>
-      <c r="L389" s="61"/>
-      <c r="M389" s="61"/>
-      <c r="N389" s="61"/>
+      <c r="L389" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M389" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N389" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O389" s="45"/>
-      <c r="P389" s="45"/>
+      <c r="P389" s="45">
+        <v>112.874859075535</v>
+      </c>
       <c r="Q389" s="45"/>
       <c r="R389" s="45"/>
       <c r="S389" s="37"/>
@@ -20681,21 +21223,46 @@
     </row>
     <row r="390" spans="1:20" ht="18" customHeight="1">
       <c r="A390" s="45"/>
-      <c r="B390" s="61"/>
-      <c r="C390" s="61"/>
-      <c r="D390" s="61"/>
-      <c r="E390" s="45"/>
-      <c r="F390" s="61"/>
-      <c r="G390" s="61"/>
+      <c r="B390" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C390" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D390" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E390" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F390" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G390" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H390" s="45"/>
-      <c r="I390" s="45"/>
-      <c r="J390" s="45"/>
+      <c r="I390" s="61">
+        <v>50</v>
+      </c>
+      <c r="J390" s="49">
+        <f t="shared" si="14"/>
+        <v>1.0002254791431701E-6</v>
+      </c>
       <c r="K390" s="45"/>
-      <c r="L390" s="61"/>
-      <c r="M390" s="61"/>
-      <c r="N390" s="61"/>
+      <c r="L390" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M390" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N390" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O390" s="45"/>
-      <c r="P390" s="45"/>
+      <c r="P390" s="45">
+        <v>100.022547914317</v>
+      </c>
       <c r="Q390" s="45"/>
       <c r="R390" s="45"/>
       <c r="S390" s="37"/>
@@ -20703,21 +21270,46 @@
     </row>
     <row r="391" spans="1:20" ht="18" customHeight="1">
       <c r="A391" s="45"/>
-      <c r="B391" s="61"/>
-      <c r="C391" s="61"/>
-      <c r="D391" s="61"/>
-      <c r="E391" s="45"/>
-      <c r="F391" s="61"/>
-      <c r="G391" s="61"/>
+      <c r="B391" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C391" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D391" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E391" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F391" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G391" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H391" s="45"/>
-      <c r="I391" s="45"/>
-      <c r="J391" s="45"/>
+      <c r="I391" s="61">
+        <v>50</v>
+      </c>
+      <c r="J391" s="49">
+        <f t="shared" si="14"/>
+        <v>9.5625704622322398E-7</v>
+      </c>
       <c r="K391" s="45"/>
-      <c r="L391" s="61"/>
-      <c r="M391" s="61"/>
-      <c r="N391" s="61"/>
+      <c r="L391" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M391" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N391" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O391" s="45"/>
-      <c r="P391" s="45"/>
+      <c r="P391" s="45">
+        <v>95.625704622322402</v>
+      </c>
       <c r="Q391" s="45"/>
       <c r="R391" s="45"/>
       <c r="S391" s="37"/>
@@ -20725,21 +21317,46 @@
     </row>
     <row r="392" spans="1:20" ht="18" customHeight="1">
       <c r="A392" s="45"/>
-      <c r="B392" s="61"/>
-      <c r="C392" s="61"/>
-      <c r="D392" s="61"/>
-      <c r="E392" s="45"/>
-      <c r="F392" s="61"/>
-      <c r="G392" s="61"/>
+      <c r="B392" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C392" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D392" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E392" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F392" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G392" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H392" s="45"/>
-      <c r="I392" s="45"/>
-      <c r="J392" s="45"/>
+      <c r="I392" s="61">
+        <v>100</v>
+      </c>
+      <c r="J392" s="49">
+        <f t="shared" si="14"/>
+        <v>1.0617812852311101E-6</v>
+      </c>
       <c r="K392" s="45"/>
-      <c r="L392" s="61"/>
-      <c r="M392" s="61"/>
-      <c r="N392" s="61"/>
+      <c r="L392" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M392" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N392" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O392" s="45"/>
-      <c r="P392" s="45"/>
+      <c r="P392" s="45">
+        <v>106.178128523111</v>
+      </c>
       <c r="Q392" s="45"/>
       <c r="R392" s="45"/>
       <c r="S392" s="37"/>
@@ -20747,21 +21364,46 @@
     </row>
     <row r="393" spans="1:20" ht="18" customHeight="1">
       <c r="A393" s="45"/>
-      <c r="B393" s="61"/>
-      <c r="C393" s="61"/>
-      <c r="D393" s="61"/>
-      <c r="E393" s="45"/>
-      <c r="F393" s="61"/>
-      <c r="G393" s="61"/>
+      <c r="B393" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C393" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D393" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E393" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F393" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G393" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H393" s="45"/>
-      <c r="I393" s="45"/>
-      <c r="J393" s="45"/>
+      <c r="I393" s="61">
+        <v>100</v>
+      </c>
+      <c r="J393" s="49">
+        <f t="shared" si="14"/>
+        <v>1.2315670800450901E-6</v>
+      </c>
       <c r="K393" s="45"/>
-      <c r="L393" s="61"/>
-      <c r="M393" s="61"/>
-      <c r="N393" s="61"/>
+      <c r="L393" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M393" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N393" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O393" s="45"/>
-      <c r="P393" s="45"/>
+      <c r="P393" s="45">
+        <v>123.156708004509</v>
+      </c>
       <c r="Q393" s="45"/>
       <c r="R393" s="45"/>
       <c r="S393" s="37"/>
@@ -20769,21 +21411,46 @@
     </row>
     <row r="394" spans="1:20" ht="18" customHeight="1">
       <c r="A394" s="45"/>
-      <c r="B394" s="61"/>
-      <c r="C394" s="61"/>
-      <c r="D394" s="61"/>
-      <c r="E394" s="45"/>
-      <c r="F394" s="61"/>
-      <c r="G394" s="61"/>
+      <c r="B394" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C394" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D394" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E394" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F394" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G394" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H394" s="45"/>
-      <c r="I394" s="45"/>
-      <c r="J394" s="45"/>
+      <c r="I394" s="61">
+        <v>100</v>
+      </c>
+      <c r="J394" s="49">
+        <f t="shared" si="14"/>
+        <v>1.14904171364148E-6</v>
+      </c>
       <c r="K394" s="45"/>
-      <c r="L394" s="61"/>
-      <c r="M394" s="61"/>
-      <c r="N394" s="61"/>
+      <c r="L394" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M394" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N394" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O394" s="45"/>
-      <c r="P394" s="45"/>
+      <c r="P394" s="45">
+        <v>114.904171364148</v>
+      </c>
       <c r="Q394" s="45"/>
       <c r="R394" s="45"/>
       <c r="S394" s="37"/>
@@ -20791,21 +21458,46 @@
     </row>
     <row r="395" spans="1:20" ht="18" customHeight="1">
       <c r="A395" s="45"/>
-      <c r="B395" s="61"/>
-      <c r="C395" s="61"/>
-      <c r="D395" s="61"/>
-      <c r="E395" s="45"/>
-      <c r="F395" s="61"/>
-      <c r="G395" s="61"/>
+      <c r="B395" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C395" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D395" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E395" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F395" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G395" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H395" s="45"/>
-      <c r="I395" s="45"/>
-      <c r="J395" s="45"/>
+      <c r="I395" s="61">
+        <v>100</v>
+      </c>
+      <c r="J395" s="49">
+        <f t="shared" si="14"/>
+        <v>1.02660653889515E-6</v>
+      </c>
       <c r="K395" s="45"/>
-      <c r="L395" s="61"/>
-      <c r="M395" s="61"/>
-      <c r="N395" s="61"/>
+      <c r="L395" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M395" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N395" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O395" s="45"/>
-      <c r="P395" s="45"/>
+      <c r="P395" s="45">
+        <v>102.660653889515</v>
+      </c>
       <c r="Q395" s="45"/>
       <c r="R395" s="45"/>
       <c r="S395" s="37"/>
@@ -20813,21 +21505,46 @@
     </row>
     <row r="396" spans="1:20" ht="18" customHeight="1">
       <c r="A396" s="45"/>
-      <c r="B396" s="61"/>
-      <c r="C396" s="61"/>
-      <c r="D396" s="61"/>
-      <c r="E396" s="45"/>
-      <c r="F396" s="61"/>
-      <c r="G396" s="61"/>
+      <c r="B396" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C396" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D396" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E396" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F396" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G396" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H396" s="45"/>
-      <c r="I396" s="45"/>
-      <c r="J396" s="45"/>
+      <c r="I396" s="61">
+        <v>100</v>
+      </c>
+      <c r="J396" s="49">
+        <f t="shared" si="14"/>
+        <v>9.8872604284103699E-7</v>
+      </c>
       <c r="K396" s="45"/>
-      <c r="L396" s="61"/>
-      <c r="M396" s="61"/>
-      <c r="N396" s="61"/>
+      <c r="L396" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M396" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N396" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O396" s="45"/>
-      <c r="P396" s="45"/>
+      <c r="P396" s="45">
+        <v>98.872604284103701</v>
+      </c>
       <c r="Q396" s="45"/>
       <c r="R396" s="45"/>
       <c r="S396" s="37"/>
@@ -20835,21 +21552,46 @@
     </row>
     <row r="397" spans="1:20" ht="18" customHeight="1">
       <c r="A397" s="45"/>
-      <c r="B397" s="61"/>
-      <c r="C397" s="61"/>
-      <c r="D397" s="61"/>
-      <c r="E397" s="45"/>
-      <c r="F397" s="61"/>
-      <c r="G397" s="61"/>
+      <c r="B397" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C397" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D397" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E397" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F397" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G397" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H397" s="45"/>
-      <c r="I397" s="45"/>
-      <c r="J397" s="45"/>
+      <c r="I397" s="61">
+        <v>300</v>
+      </c>
+      <c r="J397" s="49">
+        <f t="shared" si="14"/>
+        <v>1.14768883878241E-6</v>
+      </c>
       <c r="K397" s="45"/>
-      <c r="L397" s="61"/>
-      <c r="M397" s="61"/>
-      <c r="N397" s="61"/>
+      <c r="L397" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M397" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N397" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O397" s="45"/>
-      <c r="P397" s="45"/>
+      <c r="P397" s="45">
+        <v>114.768883878241</v>
+      </c>
       <c r="Q397" s="45"/>
       <c r="R397" s="45"/>
       <c r="S397" s="37"/>
@@ -20857,21 +21599,46 @@
     </row>
     <row r="398" spans="1:20" ht="18" customHeight="1">
       <c r="A398" s="45"/>
-      <c r="B398" s="61"/>
-      <c r="C398" s="61"/>
-      <c r="D398" s="61"/>
-      <c r="E398" s="45"/>
-      <c r="F398" s="61"/>
-      <c r="G398" s="61"/>
+      <c r="B398" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C398" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D398" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E398" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F398" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G398" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H398" s="45"/>
-      <c r="I398" s="45"/>
-      <c r="J398" s="45"/>
+      <c r="I398" s="61">
+        <v>300</v>
+      </c>
+      <c r="J398" s="49">
+        <f t="shared" si="14"/>
+        <v>1.3032694475760901E-6</v>
+      </c>
       <c r="K398" s="45"/>
-      <c r="L398" s="61"/>
-      <c r="M398" s="61"/>
-      <c r="N398" s="61"/>
+      <c r="L398" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M398" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N398" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O398" s="45"/>
-      <c r="P398" s="45"/>
+      <c r="P398" s="45">
+        <v>130.326944757609</v>
+      </c>
       <c r="Q398" s="45"/>
       <c r="R398" s="45"/>
       <c r="S398" s="37"/>
@@ -20879,21 +21646,46 @@
     </row>
     <row r="399" spans="1:20" ht="18" customHeight="1">
       <c r="A399" s="45"/>
-      <c r="B399" s="61"/>
-      <c r="C399" s="61"/>
-      <c r="D399" s="61"/>
-      <c r="E399" s="45"/>
-      <c r="F399" s="61"/>
-      <c r="G399" s="61"/>
+      <c r="B399" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C399" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D399" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E399" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F399" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G399" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H399" s="45"/>
-      <c r="I399" s="45"/>
-      <c r="J399" s="45"/>
+      <c r="I399" s="61">
+        <v>300</v>
+      </c>
+      <c r="J399" s="49">
+        <f t="shared" si="14"/>
+        <v>1.2369785794813901E-6</v>
+      </c>
       <c r="K399" s="45"/>
-      <c r="L399" s="61"/>
-      <c r="M399" s="61"/>
-      <c r="N399" s="61"/>
+      <c r="L399" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M399" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N399" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O399" s="45"/>
-      <c r="P399" s="45"/>
+      <c r="P399" s="45">
+        <v>123.697857948139</v>
+      </c>
       <c r="Q399" s="45"/>
       <c r="R399" s="45"/>
       <c r="S399" s="37"/>
@@ -20901,21 +21693,46 @@
     </row>
     <row r="400" spans="1:20" ht="18" customHeight="1">
       <c r="A400" s="45"/>
-      <c r="B400" s="61"/>
-      <c r="C400" s="61"/>
-      <c r="D400" s="61"/>
-      <c r="E400" s="45"/>
-      <c r="F400" s="61"/>
-      <c r="G400" s="61"/>
+      <c r="B400" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C400" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D400" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E400" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F400" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G400" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H400" s="45"/>
-      <c r="I400" s="45"/>
-      <c r="J400" s="45"/>
+      <c r="I400" s="61">
+        <v>300</v>
+      </c>
+      <c r="J400" s="49">
+        <f t="shared" si="14"/>
+        <v>1.14024802705749E-6</v>
+      </c>
       <c r="K400" s="45"/>
-      <c r="L400" s="61"/>
-      <c r="M400" s="61"/>
-      <c r="N400" s="61"/>
+      <c r="L400" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M400" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N400" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O400" s="45"/>
-      <c r="P400" s="45"/>
+      <c r="P400" s="45">
+        <v>114.024802705749</v>
+      </c>
       <c r="Q400" s="45"/>
       <c r="R400" s="45"/>
       <c r="S400" s="37"/>
@@ -20923,21 +21740,46 @@
     </row>
     <row r="401" spans="1:20" ht="18" customHeight="1">
       <c r="A401" s="45"/>
-      <c r="B401" s="61"/>
-      <c r="C401" s="61"/>
-      <c r="D401" s="61"/>
-      <c r="E401" s="45"/>
-      <c r="F401" s="61"/>
-      <c r="G401" s="61"/>
+      <c r="B401" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C401" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D401" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E401" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F401" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G401" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H401" s="45"/>
-      <c r="I401" s="45"/>
-      <c r="J401" s="45"/>
+      <c r="I401" s="61">
+        <v>300</v>
+      </c>
+      <c r="J401" s="49">
+        <f t="shared" si="14"/>
+        <v>1.12130777903043E-6</v>
+      </c>
       <c r="K401" s="62"/>
-      <c r="L401" s="61"/>
-      <c r="M401" s="61"/>
-      <c r="N401" s="61"/>
+      <c r="L401" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="M401" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N401" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O401" s="45"/>
-      <c r="P401" s="45"/>
+      <c r="P401" s="45">
+        <v>112.130777903043</v>
+      </c>
       <c r="Q401" s="45"/>
       <c r="R401" s="45"/>
       <c r="S401" s="37"/>
@@ -33215,6 +34057,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -33229,11 +34076,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32DC0A4-904C-CC42-9ED0-EC9A3BB087A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C20162-90F7-9D4F-B3DE-FD959AF055C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="318">
   <si>
     <r>
       <rPr>
@@ -1055,6 +1055,36 @@
   </si>
   <si>
     <t>10.1016/j.matdes.2024.113396</t>
+  </si>
+  <si>
+    <t>Fe40Mn20Cr20Ni20</t>
+  </si>
+  <si>
+    <t>(Fe40Mn20Cr20Ni20)0.9995Ce0.05</t>
+  </si>
+  <si>
+    <t>(Fe40Mn20Cr20Ni20)0.999Ce0.1</t>
+  </si>
+  <si>
+    <t>(Fe40Mn20Cr20Ni20)0.9985Ce0.15</t>
+  </si>
+  <si>
+    <t>AAM+H+CR+A+WQ</t>
+  </si>
+  <si>
+    <t>homogenized in Ar at 1473K for 2h cold rolled to 70% reduction and annealed at 1273K for 1h followed by water quench</t>
+  </si>
+  <si>
+    <t>pit nucleation resistance</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2022.164641</t>
+  </si>
+  <si>
+    <t>3.5 wt% NaCl solution</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -3543,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A351" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N404" sqref="N404"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A388" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F411" sqref="F411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -21787,19 +21817,45 @@
     </row>
     <row r="402" spans="1:20" ht="18" customHeight="1">
       <c r="A402" s="45"/>
-      <c r="B402" s="61"/>
-      <c r="C402" s="61"/>
-      <c r="D402" s="61"/>
-      <c r="E402" s="45"/>
-      <c r="F402" s="61"/>
-      <c r="G402" s="61"/>
-      <c r="H402" s="45"/>
-      <c r="I402" s="45"/>
-      <c r="J402" s="45"/>
-      <c r="K402" s="62"/>
-      <c r="L402" s="61"/>
-      <c r="M402" s="61"/>
-      <c r="N402" s="61"/>
+      <c r="B402" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="C402" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D402" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E402" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F402" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="G402" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H402" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="I402" s="45">
+        <v>298</v>
+      </c>
+      <c r="J402" s="45">
+        <v>0.112</v>
+      </c>
+      <c r="K402" s="62">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L402" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="M402" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N402" s="61" t="s">
+        <v>315</v>
+      </c>
       <c r="O402" s="45"/>
       <c r="P402" s="45"/>
       <c r="Q402" s="45"/>
@@ -21809,19 +21865,45 @@
     </row>
     <row r="403" spans="1:20" ht="18" customHeight="1">
       <c r="A403" s="45"/>
-      <c r="B403" s="61"/>
-      <c r="C403" s="61"/>
-      <c r="D403" s="61"/>
-      <c r="E403" s="45"/>
-      <c r="F403" s="61"/>
-      <c r="G403" s="61"/>
-      <c r="H403" s="45"/>
-      <c r="I403" s="45"/>
-      <c r="J403" s="45"/>
-      <c r="K403" s="62"/>
-      <c r="L403" s="61"/>
-      <c r="M403" s="61"/>
-      <c r="N403" s="61"/>
+      <c r="B403" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C403" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D403" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E403" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F403" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="G403" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H403" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="I403" s="45">
+        <v>298</v>
+      </c>
+      <c r="J403" s="45">
+        <v>0.185</v>
+      </c>
+      <c r="K403" s="62">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L403" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="M403" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N403" s="61" t="s">
+        <v>315</v>
+      </c>
       <c r="O403" s="45"/>
       <c r="P403" s="45"/>
       <c r="Q403" s="45"/>
@@ -21831,19 +21913,45 @@
     </row>
     <row r="404" spans="1:20" ht="18" customHeight="1">
       <c r="A404" s="45"/>
-      <c r="B404" s="61"/>
-      <c r="C404" s="61"/>
-      <c r="D404" s="61"/>
-      <c r="E404" s="45"/>
-      <c r="F404" s="61"/>
-      <c r="G404" s="61"/>
-      <c r="H404" s="45"/>
-      <c r="I404" s="45"/>
-      <c r="J404" s="62"/>
-      <c r="K404" s="62"/>
-      <c r="L404" s="61"/>
-      <c r="M404" s="61"/>
-      <c r="N404" s="61"/>
+      <c r="B404" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C404" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D404" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E404" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F404" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="G404" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H404" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="I404" s="45">
+        <v>298</v>
+      </c>
+      <c r="J404" s="62">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="K404" s="62">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L404" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="M404" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N404" s="61" t="s">
+        <v>315</v>
+      </c>
       <c r="O404" s="45"/>
       <c r="P404" s="45"/>
       <c r="Q404" s="45"/>
@@ -21853,19 +21961,45 @@
     </row>
     <row r="405" spans="1:20" ht="18" customHeight="1">
       <c r="A405" s="45"/>
-      <c r="B405" s="61"/>
-      <c r="C405" s="61"/>
-      <c r="D405" s="61"/>
-      <c r="E405" s="45"/>
-      <c r="F405" s="61"/>
-      <c r="G405" s="61"/>
-      <c r="H405" s="45"/>
-      <c r="I405" s="45"/>
-      <c r="J405" s="62"/>
-      <c r="K405" s="62"/>
-      <c r="L405" s="61"/>
-      <c r="M405" s="61"/>
-      <c r="N405" s="61"/>
+      <c r="B405" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C405" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D405" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E405" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F405" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="G405" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H405" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="I405" s="45">
+        <v>298</v>
+      </c>
+      <c r="J405" s="62">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="K405" s="62">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L405" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="M405" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N405" s="61" t="s">
+        <v>315</v>
+      </c>
       <c r="O405" s="45"/>
       <c r="P405" s="45"/>
       <c r="Q405" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C20162-90F7-9D4F-B3DE-FD959AF055C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF19851-58DD-874B-AD5D-75D609785CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="327">
   <si>
     <r>
       <rPr>
@@ -1075,9 +1075,6 @@
     <t>homogenized in Ar at 1473K for 2h cold rolled to 70% reduction and annealed at 1273K for 1h followed by water quench</t>
   </si>
   <si>
-    <t>pit nucleation resistance</t>
-  </si>
-  <si>
     <t>10.1016/j.jallcom.2022.164641</t>
   </si>
   <si>
@@ -1085,6 +1082,36 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>FeCoNiCr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FeCoNiCrCu0.5 </t>
+  </si>
+  <si>
+    <t>FeCoNiCrCu1</t>
+  </si>
+  <si>
+    <t>passive current density</t>
+  </si>
+  <si>
+    <t>A/m^2</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>corrosion potential</t>
+  </si>
+  <si>
+    <t>pitting potential</t>
+  </si>
+  <si>
+    <t>corrosion current density</t>
+  </si>
+  <si>
+    <t>10.1016/j.matchemphys.2005.01.001</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,6 +2438,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3573,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A388" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F411" sqref="F411"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A394" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N431" sqref="N431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -21830,35 +21861,41 @@
         <v>313</v>
       </c>
       <c r="F402" s="61" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G402" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H402" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I402" s="45">
         <v>298</v>
       </c>
-      <c r="J402" s="45">
-        <v>0.112</v>
+      <c r="J402" s="62">
+        <f>P402*0.0001</f>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="K402" s="62">
-        <v>1.6E-2</v>
+        <f>Q402*0.0001</f>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="L402" s="61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M402" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N402" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O402" s="45"/>
-      <c r="P402" s="45"/>
-      <c r="Q402" s="45"/>
+      <c r="P402" s="45">
+        <v>44</v>
+      </c>
+      <c r="Q402" s="45">
+        <v>6</v>
+      </c>
       <c r="R402" s="45"/>
       <c r="S402" s="37"/>
       <c r="T402" s="37"/>
@@ -21878,35 +21915,41 @@
         <v>313</v>
       </c>
       <c r="F403" s="61" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G403" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H403" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I403" s="45">
         <v>298</v>
       </c>
-      <c r="J403" s="45">
-        <v>0.185</v>
+      <c r="J403" s="62">
+        <f t="shared" ref="J403:J406" si="15">P403*0.0001</f>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="K403" s="62">
-        <v>2.1000000000000001E-2</v>
+        <f>Q403*0.0001</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="L403" s="61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M403" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N403" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O403" s="45"/>
-      <c r="P403" s="45"/>
-      <c r="Q403" s="45"/>
+      <c r="P403" s="45">
+        <v>34</v>
+      </c>
+      <c r="Q403" s="45">
+        <v>4</v>
+      </c>
       <c r="R403" s="45"/>
       <c r="S403" s="37"/>
       <c r="T403" s="37"/>
@@ -21926,35 +21969,41 @@
         <v>313</v>
       </c>
       <c r="F404" s="61" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G404" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H404" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I404" s="45">
         <v>298</v>
       </c>
       <c r="J404" s="62">
-        <v>0.32400000000000001</v>
+        <f t="shared" si="15"/>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="K404" s="62">
-        <v>1.7999999999999999E-2</v>
+        <f>Q404*0.0001</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L404" s="61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M404" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N404" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O404" s="45"/>
-      <c r="P404" s="45"/>
-      <c r="Q404" s="45"/>
+      <c r="P404" s="45">
+        <v>47</v>
+      </c>
+      <c r="Q404" s="45">
+        <v>8</v>
+      </c>
       <c r="R404" s="45"/>
       <c r="S404" s="37"/>
       <c r="T404" s="37"/>
@@ -21974,230 +22023,514 @@
         <v>313</v>
       </c>
       <c r="F405" s="61" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G405" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H405" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I405" s="45">
         <v>298</v>
       </c>
       <c r="J405" s="62">
-        <v>0.56799999999999995</v>
+        <f t="shared" si="15"/>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="K405" s="62">
-        <v>3.3000000000000002E-2</v>
+        <f>Q405*0.0001</f>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="L405" s="61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M405" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N405" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O405" s="45"/>
-      <c r="P405" s="45"/>
-      <c r="Q405" s="45"/>
+      <c r="P405" s="45">
+        <v>56</v>
+      </c>
+      <c r="Q405" s="45">
+        <v>7</v>
+      </c>
       <c r="R405" s="45"/>
       <c r="S405" s="37"/>
       <c r="T405" s="37"/>
     </row>
     <row r="406" spans="1:20" ht="18" customHeight="1">
       <c r="A406" s="45"/>
-      <c r="B406" s="61"/>
-      <c r="C406" s="61"/>
-      <c r="D406" s="61"/>
-      <c r="E406" s="45"/>
-      <c r="F406" s="61"/>
-      <c r="G406" s="61"/>
-      <c r="H406" s="45"/>
-      <c r="I406" s="45"/>
-      <c r="J406" s="62"/>
-      <c r="K406" s="62"/>
-      <c r="L406" s="61"/>
-      <c r="M406" s="61"/>
-      <c r="N406" s="61"/>
+      <c r="B406" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="C406" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D406" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E406" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F406" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G406" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H406" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="I406" s="45">
+        <v>298</v>
+      </c>
+      <c r="J406" s="45">
+        <f>P406*0.001</f>
+        <v>-0.17</v>
+      </c>
+      <c r="K406" s="49">
+        <f>Q406*0.0001</f>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="L406" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M406" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N406" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O406" s="45"/>
-      <c r="P406" s="45"/>
-      <c r="Q406" s="45"/>
+      <c r="P406" s="45">
+        <v>-170</v>
+      </c>
+      <c r="Q406" s="45">
+        <v>18</v>
+      </c>
       <c r="R406" s="45"/>
       <c r="S406" s="37"/>
       <c r="T406" s="37"/>
     </row>
     <row r="407" spans="1:20" ht="18" customHeight="1">
       <c r="A407" s="45"/>
-      <c r="B407" s="61"/>
-      <c r="C407" s="61"/>
-      <c r="D407" s="61"/>
-      <c r="E407" s="45"/>
-      <c r="F407" s="61"/>
-      <c r="G407" s="61"/>
-      <c r="H407" s="45"/>
-      <c r="I407" s="45"/>
-      <c r="J407" s="62"/>
-      <c r="K407" s="45"/>
-      <c r="L407" s="61"/>
-      <c r="M407" s="61"/>
-      <c r="N407" s="61"/>
+      <c r="B407" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C407" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D407" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E407" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F407" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G407" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H407" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="I407" s="45">
+        <v>298</v>
+      </c>
+      <c r="J407" s="45">
+        <f>P407*0.001</f>
+        <v>-0.156</v>
+      </c>
+      <c r="K407" s="49">
+        <f>Q407*0.0001</f>
+        <v>2.6000000000000003E-3</v>
+      </c>
+      <c r="L407" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M407" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N407" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O407" s="45"/>
-      <c r="P407" s="45"/>
-      <c r="Q407" s="45"/>
+      <c r="P407" s="45">
+        <v>-156</v>
+      </c>
+      <c r="Q407" s="45">
+        <v>26</v>
+      </c>
       <c r="R407" s="45"/>
       <c r="S407" s="37"/>
       <c r="T407" s="37"/>
     </row>
     <row r="408" spans="1:20" ht="18" customHeight="1">
       <c r="A408" s="45"/>
-      <c r="B408" s="61"/>
-      <c r="C408" s="61"/>
-      <c r="D408" s="61"/>
-      <c r="E408" s="45"/>
-      <c r="F408" s="61"/>
-      <c r="G408" s="61"/>
-      <c r="H408" s="45"/>
-      <c r="I408" s="45"/>
-      <c r="J408" s="62"/>
-      <c r="K408" s="45"/>
-      <c r="L408" s="61"/>
-      <c r="M408" s="61"/>
-      <c r="N408" s="61"/>
+      <c r="B408" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C408" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D408" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E408" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F408" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G408" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H408" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="I408" s="45">
+        <v>298</v>
+      </c>
+      <c r="J408" s="45">
+        <f t="shared" ref="J408:J413" si="16">P408*0.001</f>
+        <v>-0.27</v>
+      </c>
+      <c r="K408" s="49">
+        <f>Q408*0.0001</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="L408" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M408" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N408" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O408" s="45"/>
-      <c r="P408" s="45"/>
-      <c r="Q408" s="45"/>
+      <c r="P408" s="45">
+        <v>-270</v>
+      </c>
+      <c r="Q408" s="45">
+        <v>17</v>
+      </c>
       <c r="R408" s="45"/>
       <c r="S408" s="37"/>
       <c r="T408" s="37"/>
     </row>
     <row r="409" spans="1:20" ht="18" customHeight="1">
       <c r="A409" s="45"/>
-      <c r="B409" s="61"/>
-      <c r="C409" s="61"/>
-      <c r="D409" s="61"/>
-      <c r="E409" s="45"/>
-      <c r="F409" s="61"/>
-      <c r="G409" s="61"/>
-      <c r="H409" s="45"/>
-      <c r="I409" s="45"/>
-      <c r="J409" s="62"/>
-      <c r="K409" s="45"/>
-      <c r="L409" s="61"/>
-      <c r="M409" s="61"/>
-      <c r="N409" s="61"/>
+      <c r="B409" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C409" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D409" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E409" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F409" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G409" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H409" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="I409" s="45">
+        <v>298</v>
+      </c>
+      <c r="J409" s="45">
+        <f t="shared" si="16"/>
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="K409" s="49">
+        <f>Q409*0.0001</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L409" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M409" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N409" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O409" s="45"/>
-      <c r="P409" s="45"/>
-      <c r="Q409" s="45"/>
+      <c r="P409" s="45">
+        <v>-303</v>
+      </c>
+      <c r="Q409" s="45">
+        <v>41</v>
+      </c>
       <c r="R409" s="45"/>
       <c r="S409" s="37"/>
       <c r="T409" s="37"/>
     </row>
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="45"/>
-      <c r="B410" s="61"/>
-      <c r="C410" s="61"/>
-      <c r="D410" s="61"/>
-      <c r="E410" s="45"/>
-      <c r="F410" s="61"/>
-      <c r="G410" s="61"/>
-      <c r="H410" s="45"/>
-      <c r="I410" s="45"/>
-      <c r="J410" s="45"/>
-      <c r="K410" s="49"/>
-      <c r="L410" s="61"/>
-      <c r="M410" s="61"/>
-      <c r="N410" s="61"/>
+      <c r="B410" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="C410" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D410" s="143" t="s">
+        <v>312</v>
+      </c>
+      <c r="E410" s="143" t="s">
+        <v>313</v>
+      </c>
+      <c r="F410" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G410" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H410" s="143" t="s">
+        <v>315</v>
+      </c>
+      <c r="I410" s="143">
+        <v>298</v>
+      </c>
+      <c r="J410" s="45">
+        <f t="shared" si="16"/>
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="K410" s="49">
+        <f>Q410*0.0001</f>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="L410" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M410" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N410" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O410" s="45"/>
-      <c r="P410" s="45"/>
-      <c r="Q410" s="45"/>
+      <c r="P410" s="45">
+        <v>-58</v>
+      </c>
+      <c r="Q410" s="45">
+        <v>21</v>
+      </c>
       <c r="R410" s="45"/>
       <c r="S410" s="37"/>
       <c r="T410" s="37"/>
     </row>
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="45"/>
-      <c r="B411" s="61"/>
-      <c r="C411" s="61"/>
-      <c r="D411" s="61"/>
-      <c r="E411" s="45"/>
-      <c r="F411" s="61"/>
-      <c r="G411" s="61"/>
-      <c r="H411" s="45"/>
-      <c r="I411" s="45"/>
-      <c r="J411" s="45"/>
-      <c r="K411" s="49"/>
-      <c r="L411" s="61"/>
-      <c r="M411" s="61"/>
-      <c r="N411" s="61"/>
+      <c r="B411" s="144" t="s">
+        <v>309</v>
+      </c>
+      <c r="C411" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="D411" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="E411" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="F411" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G411" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H411" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I411" s="145">
+        <v>298</v>
+      </c>
+      <c r="J411" s="45">
+        <f t="shared" si="16"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K411" s="45">
+        <f>Q411*0.0001</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L411" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M411" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N411" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O411" s="45"/>
-      <c r="P411" s="45"/>
-      <c r="Q411" s="45"/>
+      <c r="P411" s="45">
+        <v>29</v>
+      </c>
+      <c r="Q411" s="45">
+        <v>30</v>
+      </c>
       <c r="R411" s="45"/>
       <c r="S411" s="37"/>
       <c r="T411" s="37"/>
     </row>
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="45"/>
-      <c r="B412" s="61"/>
-      <c r="C412" s="63"/>
-      <c r="D412" s="61"/>
-      <c r="E412" s="45"/>
-      <c r="F412" s="61"/>
-      <c r="G412" s="61"/>
-      <c r="H412" s="45"/>
-      <c r="I412" s="45"/>
-      <c r="J412" s="45"/>
-      <c r="K412" s="49"/>
-      <c r="L412" s="61"/>
-      <c r="M412" s="61"/>
-      <c r="N412" s="61"/>
+      <c r="B412" s="144" t="s">
+        <v>310</v>
+      </c>
+      <c r="C412" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="D412" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="E412" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="F412" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G412" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H412" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I412" s="145">
+        <v>298</v>
+      </c>
+      <c r="J412" s="45">
+        <f t="shared" si="16"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K412" s="45">
+        <f>Q412*0.0001</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="L412" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M412" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N412" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O412" s="45"/>
-      <c r="P412" s="45"/>
-      <c r="Q412" s="45"/>
+      <c r="P412" s="45">
+        <v>54</v>
+      </c>
+      <c r="Q412" s="45">
+        <v>17</v>
+      </c>
       <c r="R412" s="45"/>
       <c r="S412" s="37"/>
       <c r="T412" s="37"/>
     </row>
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="45"/>
-      <c r="B413" s="61"/>
-      <c r="C413" s="61"/>
-      <c r="D413" s="61"/>
-      <c r="E413" s="45"/>
-      <c r="F413" s="61"/>
-      <c r="G413" s="61"/>
-      <c r="H413" s="45"/>
-      <c r="I413" s="45"/>
-      <c r="J413" s="49"/>
-      <c r="K413" s="49"/>
-      <c r="L413" s="61"/>
-      <c r="M413" s="61"/>
-      <c r="N413" s="61"/>
+      <c r="B413" s="144" t="s">
+        <v>311</v>
+      </c>
+      <c r="C413" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="D413" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="E413" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="F413" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G413" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H413" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I413" s="145">
+        <v>298</v>
+      </c>
+      <c r="J413" s="45">
+        <f t="shared" si="16"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K413" s="45">
+        <f>Q413*0.0001</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L413" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M413" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N413" s="61" t="s">
+        <v>314</v>
+      </c>
       <c r="O413" s="45"/>
-      <c r="P413" s="45"/>
-      <c r="Q413" s="45"/>
+      <c r="P413" s="45">
+        <v>265</v>
+      </c>
+      <c r="Q413" s="45">
+        <v>49</v>
+      </c>
       <c r="R413" s="45"/>
       <c r="S413" s="37"/>
       <c r="T413" s="37"/>
     </row>
     <row r="414" spans="1:20" ht="18" customHeight="1">
       <c r="A414" s="45"/>
-      <c r="B414" s="61"/>
-      <c r="C414" s="61"/>
-      <c r="D414" s="61"/>
-      <c r="E414" s="45"/>
-      <c r="F414" s="61"/>
-      <c r="G414" s="61"/>
-      <c r="H414" s="45"/>
-      <c r="I414" s="45"/>
-      <c r="J414" s="49"/>
-      <c r="K414" s="49"/>
-      <c r="L414" s="61"/>
-      <c r="M414" s="61"/>
-      <c r="N414" s="61"/>
+      <c r="B414" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C414" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D414" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E414" s="61"/>
+      <c r="F414" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G414" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H414" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I414" s="145">
+        <v>298</v>
+      </c>
+      <c r="J414" s="62">
+        <v>-0.26</v>
+      </c>
+      <c r="K414" s="45"/>
+      <c r="L414" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M414" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N414" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O414" s="45"/>
       <c r="P414" s="45"/>
       <c r="Q414" s="45"/>
@@ -22207,19 +22540,41 @@
     </row>
     <row r="415" spans="1:20" ht="18" customHeight="1">
       <c r="A415" s="45"/>
-      <c r="B415" s="61"/>
-      <c r="C415" s="61"/>
-      <c r="D415" s="61"/>
+      <c r="B415" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C415" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D415" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E415" s="61"/>
-      <c r="F415" s="61"/>
-      <c r="G415" s="61"/>
-      <c r="H415" s="45"/>
-      <c r="I415" s="45"/>
-      <c r="J415" s="49"/>
-      <c r="K415" s="45"/>
-      <c r="L415" s="61"/>
-      <c r="M415" s="61"/>
-      <c r="N415" s="61"/>
+      <c r="F415" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G415" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H415" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I415" s="145">
+        <v>298</v>
+      </c>
+      <c r="J415" s="62">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K415" s="62"/>
+      <c r="L415" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M415" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N415" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O415" s="45"/>
       <c r="P415" s="45"/>
       <c r="Q415" s="45"/>
@@ -22229,19 +22584,41 @@
     </row>
     <row r="416" spans="1:20" ht="18" customHeight="1">
       <c r="A416" s="45"/>
-      <c r="B416" s="61"/>
-      <c r="C416" s="61"/>
-      <c r="D416" s="61"/>
+      <c r="B416" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C416" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D416" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E416" s="61"/>
-      <c r="F416" s="61"/>
-      <c r="G416" s="61"/>
-      <c r="H416" s="45"/>
-      <c r="I416" s="45"/>
-      <c r="J416" s="49"/>
-      <c r="K416" s="45"/>
-      <c r="L416" s="61"/>
-      <c r="M416" s="61"/>
-      <c r="N416" s="61"/>
+      <c r="F416" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G416" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H416" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I416" s="145">
+        <v>298</v>
+      </c>
+      <c r="J416" s="62">
+        <v>-0.33</v>
+      </c>
+      <c r="K416" s="62"/>
+      <c r="L416" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M416" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N416" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O416" s="45"/>
       <c r="P416" s="45"/>
       <c r="Q416" s="45"/>
@@ -22251,19 +22628,41 @@
     </row>
     <row r="417" spans="1:20" ht="18" customHeight="1">
       <c r="A417" s="45"/>
-      <c r="B417" s="61"/>
-      <c r="C417" s="63"/>
-      <c r="D417" s="61"/>
+      <c r="B417" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C417" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D417" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E417" s="61"/>
-      <c r="F417" s="61"/>
-      <c r="G417" s="61"/>
-      <c r="H417" s="45"/>
-      <c r="I417" s="45"/>
-      <c r="J417" s="49"/>
-      <c r="K417" s="45"/>
-      <c r="L417" s="61"/>
-      <c r="M417" s="61"/>
-      <c r="N417" s="61"/>
+      <c r="F417" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G417" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H417" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I417" s="145">
+        <v>298</v>
+      </c>
+      <c r="J417" s="62">
+        <v>0.31</v>
+      </c>
+      <c r="K417" s="62"/>
+      <c r="L417" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M417" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N417" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O417" s="45"/>
       <c r="P417" s="45"/>
       <c r="Q417" s="45"/>
@@ -22273,19 +22672,41 @@
     </row>
     <row r="418" spans="1:20" ht="18" customHeight="1">
       <c r="A418" s="45"/>
-      <c r="B418" s="61"/>
-      <c r="C418" s="61"/>
-      <c r="D418" s="61"/>
+      <c r="B418" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C418" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D418" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E418" s="61"/>
-      <c r="F418" s="61"/>
-      <c r="G418" s="61"/>
-      <c r="H418" s="45"/>
-      <c r="I418" s="45"/>
-      <c r="J418" s="45"/>
-      <c r="K418" s="45"/>
-      <c r="L418" s="61"/>
-      <c r="M418" s="61"/>
-      <c r="N418" s="61"/>
+      <c r="F418" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G418" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H418" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I418" s="145">
+        <v>298</v>
+      </c>
+      <c r="J418" s="62">
+        <v>0.09</v>
+      </c>
+      <c r="K418" s="62"/>
+      <c r="L418" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M418" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N418" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O418" s="45"/>
       <c r="P418" s="45"/>
       <c r="Q418" s="45"/>
@@ -22295,19 +22716,41 @@
     </row>
     <row r="419" spans="1:20" ht="18" customHeight="1">
       <c r="A419" s="45"/>
-      <c r="B419" s="61"/>
-      <c r="C419" s="63"/>
-      <c r="D419" s="61"/>
+      <c r="B419" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C419" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D419" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E419" s="61"/>
-      <c r="F419" s="61"/>
-      <c r="G419" s="61"/>
-      <c r="H419" s="45"/>
-      <c r="I419" s="45"/>
-      <c r="J419" s="45"/>
+      <c r="F419" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G419" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H419" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I419" s="145">
+        <v>298</v>
+      </c>
+      <c r="J419" s="62">
+        <v>0.08</v>
+      </c>
       <c r="K419" s="62"/>
-      <c r="L419" s="61"/>
-      <c r="M419" s="61"/>
-      <c r="N419" s="61"/>
+      <c r="L419" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M419" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N419" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O419" s="45"/>
       <c r="P419" s="45"/>
       <c r="Q419" s="45"/>
@@ -22316,20 +22759,42 @@
       <c r="T419" s="37"/>
     </row>
     <row r="420" spans="1:20" ht="18" customHeight="1">
-      <c r="A420" s="45"/>
-      <c r="B420" s="61"/>
-      <c r="C420" s="61"/>
-      <c r="D420" s="61"/>
+      <c r="A420" s="61"/>
+      <c r="B420" s="142" t="s">
+        <v>317</v>
+      </c>
+      <c r="C420" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D420" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="E420" s="61"/>
-      <c r="F420" s="61"/>
-      <c r="G420" s="61"/>
-      <c r="H420" s="45"/>
-      <c r="I420" s="45"/>
-      <c r="J420" s="45"/>
+      <c r="F420" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G420" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H420" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I420" s="145">
+        <v>298</v>
+      </c>
+      <c r="J420" s="62">
+        <v>3.1500000000000001E-4</v>
+      </c>
       <c r="K420" s="62"/>
-      <c r="L420" s="61"/>
-      <c r="M420" s="61"/>
-      <c r="N420" s="61"/>
+      <c r="L420" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M420" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N420" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O420" s="45"/>
       <c r="P420" s="45"/>
       <c r="Q420" s="45"/>
@@ -22338,20 +22803,42 @@
       <c r="T420" s="37"/>
     </row>
     <row r="421" spans="1:20" ht="18" customHeight="1">
-      <c r="A421" s="45"/>
-      <c r="B421" s="61"/>
-      <c r="C421" s="63"/>
-      <c r="D421" s="61"/>
+      <c r="A421" s="61"/>
+      <c r="B421" s="144" t="s">
+        <v>318</v>
+      </c>
+      <c r="C421" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D421" s="145" t="s">
+        <v>63</v>
+      </c>
       <c r="E421" s="61"/>
-      <c r="F421" s="61"/>
-      <c r="G421" s="61"/>
-      <c r="H421" s="45"/>
-      <c r="I421" s="45"/>
-      <c r="J421" s="45"/>
+      <c r="F421" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G421" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H421" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I421" s="145">
+        <v>298</v>
+      </c>
+      <c r="J421" s="62">
+        <v>7.2300000000000003E-3</v>
+      </c>
       <c r="K421" s="62"/>
-      <c r="L421" s="61"/>
-      <c r="M421" s="61"/>
-      <c r="N421" s="61"/>
+      <c r="L421" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M421" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N421" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O421" s="45"/>
       <c r="P421" s="45"/>
       <c r="Q421" s="45"/>
@@ -22360,20 +22847,42 @@
       <c r="T421" s="37"/>
     </row>
     <row r="422" spans="1:20" ht="18" customHeight="1">
-      <c r="A422" s="45"/>
-      <c r="B422" s="61"/>
-      <c r="C422" s="61"/>
-      <c r="D422" s="61"/>
+      <c r="A422" s="61"/>
+      <c r="B422" s="144" t="s">
+        <v>319</v>
+      </c>
+      <c r="C422" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D422" s="145" t="s">
+        <v>63</v>
+      </c>
       <c r="E422" s="61"/>
-      <c r="F422" s="61"/>
-      <c r="G422" s="61"/>
-      <c r="H422" s="45"/>
-      <c r="I422" s="45"/>
-      <c r="J422" s="62"/>
+      <c r="F422" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G422" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H422" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="I422" s="145">
+        <v>298</v>
+      </c>
+      <c r="J422" s="62">
+        <v>1.32E-2</v>
+      </c>
       <c r="K422" s="62"/>
-      <c r="L422" s="61"/>
-      <c r="M422" s="61"/>
-      <c r="N422" s="61"/>
+      <c r="L422" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M422" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N422" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O422" s="45"/>
       <c r="P422" s="45"/>
       <c r="Q422" s="45"/>
@@ -22382,7 +22891,7 @@
       <c r="T422" s="37"/>
     </row>
     <row r="423" spans="1:20" ht="15" customHeight="1">
-      <c r="A423" s="45"/>
+      <c r="A423" s="61"/>
       <c r="B423" s="61"/>
       <c r="C423" s="61"/>
       <c r="D423" s="61"/>
@@ -22392,7 +22901,7 @@
       <c r="H423" s="45"/>
       <c r="I423" s="45"/>
       <c r="J423" s="62"/>
-      <c r="K423" s="62"/>
+      <c r="K423" s="45"/>
       <c r="L423" s="61"/>
       <c r="M423" s="61"/>
       <c r="N423" s="61"/>
@@ -22405,7 +22914,7 @@
     </row>
     <row r="424" spans="1:20" ht="15" customHeight="1">
       <c r="A424" s="61"/>
-      <c r="B424" s="61"/>
+      <c r="B424" s="45"/>
       <c r="C424" s="61"/>
       <c r="D424" s="61"/>
       <c r="E424" s="61"/>
@@ -22414,7 +22923,7 @@
       <c r="H424" s="45"/>
       <c r="I424" s="45"/>
       <c r="J424" s="62"/>
-      <c r="K424" s="62"/>
+      <c r="K424" s="45"/>
       <c r="L424" s="61"/>
       <c r="M424" s="61"/>
       <c r="N424" s="61"/>
@@ -22427,8 +22936,8 @@
     </row>
     <row r="425" spans="1:20" ht="15" customHeight="1">
       <c r="A425" s="61"/>
-      <c r="B425" s="61"/>
-      <c r="C425" s="61"/>
+      <c r="B425" s="45"/>
+      <c r="C425" s="63"/>
       <c r="D425" s="61"/>
       <c r="E425" s="61"/>
       <c r="F425" s="61"/>
@@ -22436,7 +22945,7 @@
       <c r="H425" s="45"/>
       <c r="I425" s="45"/>
       <c r="J425" s="62"/>
-      <c r="K425" s="62"/>
+      <c r="K425" s="45"/>
       <c r="L425" s="61"/>
       <c r="M425" s="61"/>
       <c r="N425" s="61"/>
@@ -22449,7 +22958,7 @@
     </row>
     <row r="426" spans="1:20" ht="15" customHeight="1">
       <c r="A426" s="61"/>
-      <c r="B426" s="61"/>
+      <c r="B426" s="45"/>
       <c r="C426" s="61"/>
       <c r="D426" s="61"/>
       <c r="E426" s="61"/>
@@ -22457,8 +22966,8 @@
       <c r="G426" s="61"/>
       <c r="H426" s="45"/>
       <c r="I426" s="45"/>
-      <c r="J426" s="62"/>
-      <c r="K426" s="62"/>
+      <c r="J426" s="45"/>
+      <c r="K426" s="45"/>
       <c r="L426" s="61"/>
       <c r="M426" s="61"/>
       <c r="N426" s="61"/>
@@ -22471,7 +22980,7 @@
     </row>
     <row r="427" spans="1:20" ht="15" customHeight="1">
       <c r="A427" s="61"/>
-      <c r="B427" s="61"/>
+      <c r="B427" s="45"/>
       <c r="C427" s="61"/>
       <c r="D427" s="61"/>
       <c r="E427" s="61"/>
@@ -22479,7 +22988,7 @@
       <c r="G427" s="61"/>
       <c r="H427" s="45"/>
       <c r="I427" s="45"/>
-      <c r="J427" s="62"/>
+      <c r="J427" s="45"/>
       <c r="K427" s="45"/>
       <c r="L427" s="61"/>
       <c r="M427" s="61"/>
@@ -22501,7 +23010,7 @@
       <c r="G428" s="61"/>
       <c r="H428" s="45"/>
       <c r="I428" s="45"/>
-      <c r="J428" s="62"/>
+      <c r="J428" s="45"/>
       <c r="K428" s="45"/>
       <c r="L428" s="61"/>
       <c r="M428" s="61"/>
@@ -22516,14 +23025,14 @@
     <row r="429" spans="1:20" ht="15" customHeight="1">
       <c r="A429" s="61"/>
       <c r="B429" s="45"/>
-      <c r="C429" s="63"/>
+      <c r="C429" s="61"/>
       <c r="D429" s="61"/>
       <c r="E429" s="61"/>
       <c r="F429" s="61"/>
       <c r="G429" s="61"/>
       <c r="H429" s="45"/>
       <c r="I429" s="45"/>
-      <c r="J429" s="62"/>
+      <c r="J429" s="45"/>
       <c r="K429" s="45"/>
       <c r="L429" s="61"/>
       <c r="M429" s="61"/>
@@ -22538,7 +23047,7 @@
     <row r="430" spans="1:20" ht="15" customHeight="1">
       <c r="A430" s="61"/>
       <c r="B430" s="45"/>
-      <c r="C430" s="61"/>
+      <c r="C430" s="45"/>
       <c r="D430" s="61"/>
       <c r="E430" s="61"/>
       <c r="F430" s="61"/>
@@ -22560,7 +23069,7 @@
     <row r="431" spans="1:20" ht="15" customHeight="1">
       <c r="A431" s="61"/>
       <c r="B431" s="45"/>
-      <c r="C431" s="61"/>
+      <c r="C431" s="45"/>
       <c r="D431" s="61"/>
       <c r="E431" s="61"/>
       <c r="F431" s="61"/>
@@ -22582,7 +23091,7 @@
     <row r="432" spans="1:20" ht="15" customHeight="1">
       <c r="A432" s="61"/>
       <c r="B432" s="45"/>
-      <c r="C432" s="61"/>
+      <c r="C432" s="45"/>
       <c r="D432" s="61"/>
       <c r="E432" s="61"/>
       <c r="F432" s="61"/>
@@ -22604,7 +23113,7 @@
     <row r="433" spans="1:20" ht="15" customHeight="1">
       <c r="A433" s="61"/>
       <c r="B433" s="45"/>
-      <c r="C433" s="61"/>
+      <c r="C433" s="45"/>
       <c r="D433" s="61"/>
       <c r="E433" s="61"/>
       <c r="F433" s="61"/>
@@ -22635,7 +23144,7 @@
       <c r="I434" s="45"/>
       <c r="J434" s="45"/>
       <c r="K434" s="45"/>
-      <c r="L434" s="61"/>
+      <c r="L434" s="45"/>
       <c r="M434" s="61"/>
       <c r="N434" s="61"/>
       <c r="O434" s="45"/>
@@ -22657,7 +23166,7 @@
       <c r="I435" s="45"/>
       <c r="J435" s="45"/>
       <c r="K435" s="45"/>
-      <c r="L435" s="61"/>
+      <c r="L435" s="45"/>
       <c r="M435" s="61"/>
       <c r="N435" s="61"/>
       <c r="O435" s="45"/>
@@ -22679,7 +23188,7 @@
       <c r="I436" s="45"/>
       <c r="J436" s="45"/>
       <c r="K436" s="45"/>
-      <c r="L436" s="61"/>
+      <c r="L436" s="45"/>
       <c r="M436" s="61"/>
       <c r="N436" s="61"/>
       <c r="O436" s="45"/>
@@ -22701,7 +23210,7 @@
       <c r="I437" s="45"/>
       <c r="J437" s="45"/>
       <c r="K437" s="45"/>
-      <c r="L437" s="61"/>
+      <c r="L437" s="45"/>
       <c r="M437" s="61"/>
       <c r="N437" s="61"/>
       <c r="O437" s="45"/>
@@ -22800,20 +23309,20 @@
       <c r="T441" s="37"/>
     </row>
     <row r="442" spans="1:20" ht="15" customHeight="1">
-      <c r="A442" s="61"/>
+      <c r="A442" s="45"/>
       <c r="B442" s="45"/>
       <c r="C442" s="45"/>
-      <c r="D442" s="61"/>
-      <c r="E442" s="61"/>
-      <c r="F442" s="61"/>
-      <c r="G442" s="61"/>
+      <c r="D442" s="45"/>
+      <c r="E442" s="45"/>
+      <c r="F442" s="45"/>
+      <c r="G442" s="45"/>
       <c r="H442" s="45"/>
       <c r="I442" s="45"/>
       <c r="J442" s="45"/>
       <c r="K442" s="45"/>
       <c r="L442" s="45"/>
-      <c r="M442" s="61"/>
-      <c r="N442" s="61"/>
+      <c r="M442" s="45"/>
+      <c r="N442" s="45"/>
       <c r="O442" s="45"/>
       <c r="P442" s="45"/>
       <c r="Q442" s="45"/>
@@ -22822,20 +23331,20 @@
       <c r="T442" s="37"/>
     </row>
     <row r="443" spans="1:20" ht="15" customHeight="1">
-      <c r="A443" s="61"/>
+      <c r="A443" s="45"/>
       <c r="B443" s="45"/>
       <c r="C443" s="45"/>
-      <c r="D443" s="61"/>
-      <c r="E443" s="61"/>
-      <c r="F443" s="61"/>
-      <c r="G443" s="61"/>
+      <c r="D443" s="45"/>
+      <c r="E443" s="45"/>
+      <c r="F443" s="45"/>
+      <c r="G443" s="45"/>
       <c r="H443" s="45"/>
       <c r="I443" s="45"/>
       <c r="J443" s="45"/>
       <c r="K443" s="45"/>
       <c r="L443" s="45"/>
-      <c r="M443" s="61"/>
-      <c r="N443" s="61"/>
+      <c r="M443" s="45"/>
+      <c r="N443" s="45"/>
       <c r="O443" s="45"/>
       <c r="P443" s="45"/>
       <c r="Q443" s="45"/>
@@ -22844,20 +23353,20 @@
       <c r="T443" s="37"/>
     </row>
     <row r="444" spans="1:20" ht="15" customHeight="1">
-      <c r="A444" s="61"/>
+      <c r="A444" s="45"/>
       <c r="B444" s="45"/>
       <c r="C444" s="45"/>
-      <c r="D444" s="61"/>
-      <c r="E444" s="61"/>
-      <c r="F444" s="61"/>
-      <c r="G444" s="61"/>
+      <c r="D444" s="45"/>
+      <c r="E444" s="45"/>
+      <c r="F444" s="45"/>
+      <c r="G444" s="45"/>
       <c r="H444" s="45"/>
       <c r="I444" s="45"/>
       <c r="J444" s="45"/>
       <c r="K444" s="45"/>
       <c r="L444" s="45"/>
-      <c r="M444" s="61"/>
-      <c r="N444" s="61"/>
+      <c r="M444" s="45"/>
+      <c r="N444" s="45"/>
       <c r="O444" s="45"/>
       <c r="P444" s="45"/>
       <c r="Q444" s="45"/>
@@ -22866,20 +23375,20 @@
       <c r="T444" s="37"/>
     </row>
     <row r="445" spans="1:20" ht="15" customHeight="1">
-      <c r="A445" s="61"/>
+      <c r="A445" s="45"/>
       <c r="B445" s="45"/>
       <c r="C445" s="45"/>
-      <c r="D445" s="61"/>
-      <c r="E445" s="61"/>
-      <c r="F445" s="61"/>
-      <c r="G445" s="61"/>
+      <c r="D445" s="45"/>
+      <c r="E445" s="45"/>
+      <c r="F445" s="45"/>
+      <c r="G445" s="45"/>
       <c r="H445" s="45"/>
       <c r="I445" s="45"/>
       <c r="J445" s="45"/>
       <c r="K445" s="45"/>
       <c r="L445" s="45"/>
-      <c r="M445" s="61"/>
-      <c r="N445" s="61"/>
+      <c r="M445" s="45"/>
+      <c r="N445" s="45"/>
       <c r="O445" s="45"/>
       <c r="P445" s="45"/>
       <c r="Q445" s="45"/>
@@ -33779,7 +34288,6 @@
     </row>
     <row r="941" spans="1:20" ht="15" customHeight="1">
       <c r="A941" s="45"/>
-      <c r="B941" s="45"/>
       <c r="C941" s="45"/>
       <c r="D941" s="45"/>
       <c r="E941" s="45"/>
@@ -33801,7 +34309,6 @@
     </row>
     <row r="942" spans="1:20" ht="15" customHeight="1">
       <c r="A942" s="45"/>
-      <c r="B942" s="45"/>
       <c r="C942" s="45"/>
       <c r="D942" s="45"/>
       <c r="E942" s="45"/>
@@ -33823,7 +34330,6 @@
     </row>
     <row r="943" spans="1:20" ht="15" customHeight="1">
       <c r="A943" s="45"/>
-      <c r="B943" s="45"/>
       <c r="C943" s="45"/>
       <c r="D943" s="45"/>
       <c r="E943" s="45"/>
@@ -33845,7 +34351,6 @@
     </row>
     <row r="944" spans="1:20" ht="15" customHeight="1">
       <c r="A944" s="45"/>
-      <c r="B944" s="45"/>
       <c r="C944" s="45"/>
       <c r="D944" s="45"/>
       <c r="E944" s="45"/>
@@ -33909,7 +34414,6 @@
     </row>
     <row r="947" spans="1:20" ht="15" customHeight="1">
       <c r="A947" s="45"/>
-      <c r="C947" s="45"/>
       <c r="D947" s="45"/>
       <c r="E947" s="45"/>
       <c r="F947" s="45"/>
@@ -33930,15 +34434,11 @@
     </row>
     <row r="948" spans="1:20" ht="15" customHeight="1">
       <c r="A948" s="45"/>
-      <c r="C948" s="45"/>
       <c r="D948" s="45"/>
       <c r="E948" s="45"/>
       <c r="F948" s="45"/>
       <c r="G948" s="45"/>
       <c r="H948" s="45"/>
-      <c r="I948" s="45"/>
-      <c r="J948" s="45"/>
-      <c r="K948" s="45"/>
       <c r="L948" s="45"/>
       <c r="M948" s="45"/>
       <c r="N948" s="45"/>
@@ -33951,15 +34451,11 @@
     </row>
     <row r="949" spans="1:20" ht="15" customHeight="1">
       <c r="A949" s="45"/>
-      <c r="C949" s="45"/>
       <c r="D949" s="45"/>
       <c r="E949" s="45"/>
       <c r="F949" s="45"/>
       <c r="G949" s="45"/>
       <c r="H949" s="45"/>
-      <c r="I949" s="45"/>
-      <c r="J949" s="45"/>
-      <c r="K949" s="45"/>
       <c r="L949" s="45"/>
       <c r="M949" s="45"/>
       <c r="N949" s="45"/>
@@ -33972,15 +34468,11 @@
     </row>
     <row r="950" spans="1:20" ht="15" customHeight="1">
       <c r="A950" s="45"/>
-      <c r="C950" s="45"/>
       <c r="D950" s="45"/>
       <c r="E950" s="45"/>
       <c r="F950" s="45"/>
       <c r="G950" s="45"/>
       <c r="H950" s="45"/>
-      <c r="I950" s="45"/>
-      <c r="J950" s="45"/>
-      <c r="K950" s="45"/>
       <c r="L950" s="45"/>
       <c r="M950" s="45"/>
       <c r="N950" s="45"/>
@@ -33998,10 +34490,6 @@
       <c r="F951" s="45"/>
       <c r="G951" s="45"/>
       <c r="H951" s="45"/>
-      <c r="I951" s="45"/>
-      <c r="J951" s="45"/>
-      <c r="K951" s="45"/>
-      <c r="L951" s="45"/>
       <c r="M951" s="45"/>
       <c r="N951" s="45"/>
       <c r="O951" s="45"/>
@@ -34018,7 +34506,6 @@
       <c r="F952" s="45"/>
       <c r="G952" s="45"/>
       <c r="H952" s="45"/>
-      <c r="L952" s="45"/>
       <c r="M952" s="45"/>
       <c r="N952" s="45"/>
       <c r="O952" s="45"/>
@@ -34035,7 +34522,6 @@
       <c r="F953" s="45"/>
       <c r="G953" s="45"/>
       <c r="H953" s="45"/>
-      <c r="L953" s="45"/>
       <c r="M953" s="45"/>
       <c r="N953" s="45"/>
       <c r="O953" s="45"/>
@@ -34052,7 +34538,6 @@
       <c r="F954" s="45"/>
       <c r="G954" s="45"/>
       <c r="H954" s="45"/>
-      <c r="L954" s="45"/>
       <c r="M954" s="45"/>
       <c r="N954" s="45"/>
       <c r="O954" s="45"/>
@@ -34120,71 +34605,27 @@
       <c r="M958" s="45"/>
       <c r="N958" s="45"/>
       <c r="O958" s="45"/>
-      <c r="P958" s="45"/>
       <c r="Q958" s="45"/>
       <c r="R958" s="45"/>
       <c r="S958" s="45"/>
       <c r="T958" s="45"/>
     </row>
     <row r="959" spans="1:20" ht="15" customHeight="1">
-      <c r="A959" s="45"/>
-      <c r="D959" s="45"/>
-      <c r="E959" s="45"/>
-      <c r="F959" s="45"/>
-      <c r="G959" s="45"/>
-      <c r="H959" s="45"/>
-      <c r="M959" s="45"/>
-      <c r="N959" s="45"/>
-      <c r="O959" s="45"/>
-      <c r="P959" s="45"/>
-      <c r="Q959" s="45"/>
       <c r="R959" s="45"/>
       <c r="S959" s="45"/>
       <c r="T959" s="45"/>
     </row>
     <row r="960" spans="1:20" ht="15" customHeight="1">
-      <c r="A960" s="45"/>
-      <c r="D960" s="45"/>
-      <c r="E960" s="45"/>
-      <c r="F960" s="45"/>
-      <c r="G960" s="45"/>
-      <c r="H960" s="45"/>
-      <c r="M960" s="45"/>
-      <c r="N960" s="45"/>
-      <c r="O960" s="45"/>
-      <c r="P960" s="45"/>
-      <c r="Q960" s="45"/>
       <c r="R960" s="45"/>
       <c r="S960" s="45"/>
       <c r="T960" s="45"/>
     </row>
-    <row r="961" spans="1:20" ht="15" customHeight="1">
-      <c r="A961" s="45"/>
-      <c r="D961" s="45"/>
-      <c r="E961" s="45"/>
-      <c r="F961" s="45"/>
-      <c r="G961" s="45"/>
-      <c r="H961" s="45"/>
-      <c r="M961" s="45"/>
-      <c r="N961" s="45"/>
-      <c r="O961" s="45"/>
-      <c r="P961" s="45"/>
-      <c r="Q961" s="45"/>
+    <row r="961" spans="18:20" ht="15" customHeight="1">
       <c r="R961" s="45"/>
       <c r="S961" s="45"/>
       <c r="T961" s="45"/>
     </row>
-    <row r="962" spans="1:20" ht="15" customHeight="1">
-      <c r="A962" s="45"/>
-      <c r="D962" s="45"/>
-      <c r="E962" s="45"/>
-      <c r="F962" s="45"/>
-      <c r="G962" s="45"/>
-      <c r="H962" s="45"/>
-      <c r="M962" s="45"/>
-      <c r="N962" s="45"/>
-      <c r="O962" s="45"/>
-      <c r="Q962" s="45"/>
+    <row r="962" spans="18:20" ht="15" customHeight="1">
       <c r="R962" s="45"/>
       <c r="S962" s="45"/>
       <c r="T962" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF19851-58DD-874B-AD5D-75D609785CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7E7C4-F5E6-9D4E-892E-C361AF999FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="330">
   <si>
     <r>
       <rPr>
@@ -1113,6 +1113,15 @@
   <si>
     <t>10.1016/j.matchemphys.2005.01.001</t>
   </si>
+  <si>
+    <t>FeCo Ni Al0.2 Si0.2</t>
+  </si>
+  <si>
+    <t>AAM+MS</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2020.106778</t>
+  </si>
 </sst>
 </file>
 
@@ -2133,7 +2142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2239,7 +2248,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3605,7 +3613,7 @@
   <dimension ref="A1:T962"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A394" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N431" sqref="N431"/>
+      <selection activeCell="N433" sqref="N433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3662,19 +3670,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="113"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="112"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3690,17 +3698,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="117"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="116"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3741,43 +3749,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="124" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3793,19 +3801,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="126"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="125"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3816,216 +3824,216 @@
       <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="67" t="s">
+      <c r="G7" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="67">
         <v>298</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="127"/>
-      <c r="P7" s="69" t="s">
+      <c r="O7" s="126"/>
+      <c r="P7" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="69" t="s">
+      <c r="Q7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="70" t="s">
+      <c r="R7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="71"/>
+      <c r="S7" s="70"/>
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="128" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131" t="s">
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="136" t="s">
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="137"/>
-      <c r="O8" s="81" t="s">
+      <c r="N8" s="136"/>
+      <c r="O8" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="138" t="s">
+      <c r="P8" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="141"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="140"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="89" t="s">
+      <c r="N9" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91" t="s">
+      <c r="O9" s="89"/>
+      <c r="P9" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="92" t="s">
+      <c r="Q9" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="92" t="s">
+      <c r="R9" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="92" t="s">
+      <c r="S9" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="93" t="s">
+      <c r="T9" s="92" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="74" t="s">
+      <c r="E10" s="71"/>
+      <c r="F10" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="75" t="s">
+      <c r="G10" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="75">
         <v>298</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="76">
         <v>571000000</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="76">
         <v>15000000</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="78" t="s">
+      <c r="M10" s="73"/>
+      <c r="N10" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="30"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="75" t="s">
+      <c r="G11" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="75">
         <v>298</v>
       </c>
       <c r="J11" s="35">
@@ -4034,11 +4042,11 @@
       <c r="K11" s="35">
         <v>5000000</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="77" t="s">
         <v>101</v>
       </c>
       <c r="O11" s="37"/>
@@ -4050,26 +4058,26 @@
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="75" t="s">
+      <c r="G12" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="75">
         <v>298</v>
       </c>
       <c r="J12" s="35">
@@ -4078,11 +4086,11 @@
       <c r="K12" s="35">
         <v>0.3</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="73" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="77" t="s">
         <v>101</v>
       </c>
       <c r="O12" s="37"/>
@@ -4094,13 +4102,13 @@
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -4109,26 +4117,26 @@
       <c r="F13" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="75">
         <v>298</v>
       </c>
       <c r="J13" s="35">
         <v>1678000000</v>
       </c>
       <c r="K13" s="35"/>
-      <c r="L13" s="74" t="s">
+      <c r="L13" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="78" t="s">
+      <c r="N13" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O13" s="37"/>
@@ -4140,13 +4148,13 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -4155,26 +4163,26 @@
       <c r="F14" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="75">
         <v>298</v>
       </c>
       <c r="J14" s="35">
         <v>1397000000</v>
       </c>
       <c r="K14" s="35"/>
-      <c r="L14" s="74" t="s">
+      <c r="L14" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O14" s="37"/>
@@ -4186,13 +4194,13 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="31" t="s">
@@ -4201,26 +4209,26 @@
       <c r="F15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="75">
         <v>298</v>
       </c>
       <c r="J15" s="62">
         <v>1248000000</v>
       </c>
       <c r="K15" s="35"/>
-      <c r="L15" s="74" t="s">
+      <c r="L15" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N15" s="78" t="s">
+      <c r="N15" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O15" s="37"/>
@@ -4232,13 +4240,13 @@
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="30"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -4247,26 +4255,26 @@
       <c r="F16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="75">
         <v>298</v>
       </c>
       <c r="J16" s="62">
         <v>1168000000</v>
       </c>
       <c r="K16" s="38"/>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O16" s="37"/>
@@ -4278,13 +4286,13 @@
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="38"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -4293,26 +4301,26 @@
       <c r="F17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="75">
         <v>298</v>
       </c>
       <c r="J17" s="62">
         <v>2963000000</v>
       </c>
       <c r="K17" s="38"/>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O17" s="37"/>
@@ -4324,13 +4332,13 @@
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="38"/>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -4339,26 +4347,26 @@
       <c r="F18" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="75">
         <v>298</v>
       </c>
       <c r="J18" s="62">
         <v>3281000000</v>
       </c>
       <c r="K18" s="38"/>
-      <c r="L18" s="74" t="s">
+      <c r="L18" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="78" t="s">
+      <c r="N18" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O18" s="37"/>
@@ -4370,13 +4378,13 @@
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="38"/>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4385,26 +4393,26 @@
       <c r="F19" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="75">
         <v>298</v>
       </c>
       <c r="J19" s="62">
         <v>3000000000</v>
       </c>
       <c r="K19" s="38"/>
-      <c r="L19" s="74" t="s">
+      <c r="L19" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M19" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="78" t="s">
+      <c r="N19" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O19" s="37"/>
@@ -4416,13 +4424,13 @@
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="38"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4431,26 +4439,26 @@
       <c r="F20" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="75">
         <v>298</v>
       </c>
       <c r="J20" s="62">
         <v>2846000000</v>
       </c>
       <c r="K20" s="38"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="73" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N20" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O20" s="37"/>
@@ -4462,13 +4470,13 @@
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="38"/>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -4477,26 +4485,26 @@
       <c r="F21" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="75">
         <v>298</v>
       </c>
       <c r="J21" s="62">
         <v>23.5</v>
       </c>
       <c r="K21" s="38"/>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="73" t="s">
         <v>67</v>
       </c>
       <c r="M21" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N21" s="78" t="s">
+      <c r="N21" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O21" s="37"/>
@@ -4508,13 +4516,13 @@
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="38"/>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -4523,26 +4531,26 @@
       <c r="F22" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="75">
         <v>298</v>
       </c>
       <c r="J22" s="37">
         <v>31</v>
       </c>
       <c r="K22" s="35"/>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="73" t="s">
         <v>67</v>
       </c>
       <c r="M22" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="78" t="s">
+      <c r="N22" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O22" s="37"/>
@@ -4554,13 +4562,13 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4569,26 +4577,26 @@
       <c r="F23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="75">
         <v>298</v>
       </c>
       <c r="J23" s="62">
         <v>32</v>
       </c>
       <c r="K23" s="62"/>
-      <c r="L23" s="74" t="s">
+      <c r="L23" s="73" t="s">
         <v>67</v>
       </c>
       <c r="M23" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="78" t="s">
+      <c r="N23" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O23" s="37"/>
@@ -4600,13 +4608,13 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="30"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -4615,26 +4623,26 @@
       <c r="F24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="74" t="s">
+      <c r="G24" s="73" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="75">
         <v>298</v>
       </c>
       <c r="J24" s="62">
         <v>34.5</v>
       </c>
       <c r="K24" s="62"/>
-      <c r="L24" s="74" t="s">
+      <c r="L24" s="73" t="s">
         <v>67</v>
       </c>
       <c r="M24" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="77" t="s">
         <v>112</v>
       </c>
       <c r="O24" s="37"/>
@@ -4645,10 +4653,10 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="97" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -4821,10 +4829,10 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="97" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="30" t="s">
@@ -5378,7 +5386,7 @@
         <v>131</v>
       </c>
       <c r="I41" s="34"/>
-      <c r="J41" s="94">
+      <c r="J41" s="93">
         <v>120</v>
       </c>
       <c r="K41" s="47"/>
@@ -5418,7 +5426,7 @@
         <v>131</v>
       </c>
       <c r="I42" s="34"/>
-      <c r="J42" s="94">
+      <c r="J42" s="93">
         <v>12</v>
       </c>
       <c r="K42" s="47"/>
@@ -5458,7 +5466,7 @@
         <v>131</v>
       </c>
       <c r="I43" s="34"/>
-      <c r="J43" s="94">
+      <c r="J43" s="93">
         <v>33.6</v>
       </c>
       <c r="K43" s="47"/>
@@ -5498,7 +5506,7 @@
         <v>131</v>
       </c>
       <c r="I44" s="34"/>
-      <c r="J44" s="94">
+      <c r="J44" s="93">
         <v>55</v>
       </c>
       <c r="K44" s="49"/>
@@ -5506,7 +5514,7 @@
         <v>125</v>
       </c>
       <c r="M44" s="40"/>
-      <c r="N44" s="99" t="s">
+      <c r="N44" s="98" t="s">
         <v>144</v>
       </c>
       <c r="O44" s="46"/>
@@ -5546,7 +5554,7 @@
         <v>125</v>
       </c>
       <c r="M45" s="40"/>
-      <c r="N45" s="99" t="s">
+      <c r="N45" s="98" t="s">
         <v>145</v>
       </c>
       <c r="O45" s="46"/>
@@ -5662,7 +5670,7 @@
         <v>131</v>
       </c>
       <c r="I48" s="34"/>
-      <c r="J48" s="94">
+      <c r="J48" s="93">
         <v>5.9</v>
       </c>
       <c r="K48" s="47"/>
@@ -5702,7 +5710,7 @@
         <v>131</v>
       </c>
       <c r="I49" s="34"/>
-      <c r="J49" s="94">
+      <c r="J49" s="93">
         <v>11.9</v>
       </c>
       <c r="K49" s="47"/>
@@ -5742,7 +5750,7 @@
         <v>131</v>
       </c>
       <c r="I50" s="34"/>
-      <c r="J50" s="94">
+      <c r="J50" s="93">
         <v>8.6999999999999993</v>
       </c>
       <c r="K50" s="47"/>
@@ -5782,7 +5790,7 @@
         <v>131</v>
       </c>
       <c r="I51" s="34"/>
-      <c r="J51" s="94">
+      <c r="J51" s="93">
         <v>5.0999999999999996</v>
       </c>
       <c r="K51" s="49"/>
@@ -5790,7 +5798,7 @@
         <v>128</v>
       </c>
       <c r="M51" s="40"/>
-      <c r="N51" s="99" t="s">
+      <c r="N51" s="98" t="s">
         <v>144</v>
       </c>
       <c r="O51" s="46"/>
@@ -5830,7 +5838,7 @@
         <v>128</v>
       </c>
       <c r="M52" s="40"/>
-      <c r="N52" s="99" t="s">
+      <c r="N52" s="98" t="s">
         <v>145</v>
       </c>
       <c r="O52" s="46"/>
@@ -6436,7 +6444,7 @@
         <v>131</v>
       </c>
       <c r="I66" s="34"/>
-      <c r="J66" s="94">
+      <c r="J66" s="93">
         <v>48.5</v>
       </c>
       <c r="K66" s="47"/>
@@ -6568,11 +6576,11 @@
       <c r="I69" s="34">
         <v>298</v>
       </c>
-      <c r="J69" s="100">
+      <c r="J69" s="99">
         <f t="shared" ref="J69:J76" si="0">P69*9807000</f>
         <v>5122230164.5338182</v>
       </c>
-      <c r="K69" s="100">
+      <c r="K69" s="99">
         <f>(Q69-P69)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6620,11 +6628,11 @@
       <c r="I70" s="34">
         <v>298</v>
       </c>
-      <c r="J70" s="100">
+      <c r="J70" s="99">
         <f t="shared" si="0"/>
         <v>6038386837.2943306</v>
       </c>
-      <c r="K70" s="100">
+      <c r="K70" s="99">
         <f t="shared" ref="K70:K76" si="1">(Q70-P70)*9807000</f>
         <v>338852468.0073154</v>
       </c>
@@ -6672,11 +6680,11 @@
       <c r="I71" s="34">
         <v>298</v>
       </c>
-      <c r="J71" s="100">
+      <c r="J71" s="99">
         <f t="shared" si="0"/>
         <v>6690991590.4935989</v>
       </c>
-      <c r="K71" s="100">
+      <c r="K71" s="99">
         <f t="shared" si="1"/>
         <v>288652102.37659782</v>
       </c>
@@ -6724,11 +6732,11 @@
       <c r="I72" s="34">
         <v>298</v>
       </c>
-      <c r="J72" s="100">
+      <c r="J72" s="99">
         <f t="shared" si="0"/>
         <v>6929443327.2394876</v>
       </c>
-      <c r="K72" s="100">
+      <c r="K72" s="99">
         <f t="shared" si="1"/>
         <v>376502742.23034215</v>
       </c>
@@ -6776,11 +6784,11 @@
       <c r="I73" s="34">
         <v>298</v>
       </c>
-      <c r="J73" s="100">
+      <c r="J73" s="99">
         <f t="shared" si="0"/>
         <v>4370646088.794919</v>
       </c>
-      <c r="K73" s="100">
+      <c r="K73" s="99">
         <f t="shared" si="1"/>
         <v>362838266.38477683</v>
       </c>
@@ -6828,11 +6836,11 @@
       <c r="I74" s="34">
         <v>298</v>
       </c>
-      <c r="J74" s="100">
+      <c r="J74" s="99">
         <f t="shared" si="0"/>
         <v>5417693657.5052862</v>
       </c>
-      <c r="K74" s="100">
+      <c r="K74" s="99">
         <f t="shared" si="1"/>
         <v>269536997.88582945</v>
       </c>
@@ -6880,11 +6888,11 @@
       <c r="I75" s="34">
         <v>298</v>
       </c>
-      <c r="J75" s="100">
+      <c r="J75" s="99">
         <f t="shared" si="0"/>
         <v>5127423044.3974543</v>
       </c>
-      <c r="K75" s="100">
+      <c r="K75" s="99">
         <f t="shared" si="1"/>
         <v>342104651.16279542</v>
       </c>
@@ -6932,11 +6940,11 @@
       <c r="I76" s="34">
         <v>298</v>
       </c>
-      <c r="J76" s="100">
+      <c r="J76" s="99">
         <f t="shared" si="0"/>
         <v>5013388160.6765261</v>
       </c>
-      <c r="K76" s="100">
+      <c r="K76" s="99">
         <f t="shared" si="1"/>
         <v>238436575.05285701</v>
       </c>
@@ -6984,7 +6992,7 @@
       <c r="I77" s="34">
         <v>298</v>
       </c>
-      <c r="J77" s="94">
+      <c r="J77" s="93">
         <v>383000000</v>
       </c>
       <c r="K77" s="47"/>
@@ -7028,7 +7036,7 @@
       <c r="I78" s="34">
         <v>298</v>
       </c>
-      <c r="J78" s="94">
+      <c r="J78" s="93">
         <v>321000000</v>
       </c>
       <c r="K78" s="47"/>
@@ -7498,7 +7506,7 @@
       <c r="I89" s="34">
         <v>298</v>
       </c>
-      <c r="J89" s="94">
+      <c r="J89" s="93">
         <v>356000000</v>
       </c>
       <c r="K89" s="49"/>
@@ -7538,7 +7546,7 @@
       <c r="I90" s="34">
         <v>298</v>
       </c>
-      <c r="J90" s="94">
+      <c r="J90" s="93">
         <v>536000000</v>
       </c>
       <c r="K90" s="49"/>
@@ -7578,7 +7586,7 @@
       <c r="I91" s="34">
         <v>298</v>
       </c>
-      <c r="J91" s="94">
+      <c r="J91" s="93">
         <v>29.1</v>
       </c>
       <c r="K91" s="49"/>
@@ -7618,7 +7626,7 @@
       <c r="I92" s="34">
         <v>298</v>
       </c>
-      <c r="J92" s="100">
+      <c r="J92" s="99">
         <f t="shared" ref="J92" si="2">P92*9807000</f>
         <v>1765260000</v>
       </c>
@@ -8520,11 +8528,11 @@
       <c r="I114" s="38">
         <v>298</v>
       </c>
-      <c r="J114" s="100">
+      <c r="J114" s="99">
         <f t="shared" ref="J114:K116" si="4">P114*9807000</f>
         <v>4776009000</v>
       </c>
-      <c r="K114" s="100">
+      <c r="K114" s="99">
         <f t="shared" si="4"/>
         <v>176526000</v>
       </c>
@@ -8574,11 +8582,11 @@
       <c r="I115" s="38">
         <v>298</v>
       </c>
-      <c r="J115" s="100">
+      <c r="J115" s="99">
         <f t="shared" si="4"/>
         <v>5511534000</v>
       </c>
-      <c r="K115" s="100">
+      <c r="K115" s="99">
         <f t="shared" si="4"/>
         <v>196140000</v>
       </c>
@@ -8628,11 +8636,11 @@
       <c r="I116" s="38">
         <v>298</v>
       </c>
-      <c r="J116" s="100">
+      <c r="J116" s="99">
         <f t="shared" si="4"/>
         <v>6619725000</v>
       </c>
-      <c r="K116" s="100">
+      <c r="K116" s="99">
         <f t="shared" si="4"/>
         <v>460929000</v>
       </c>
@@ -9078,10 +9086,10 @@
     </row>
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="51"/>
-      <c r="B127" s="95" t="s">
+      <c r="B127" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="C127" s="101" t="s">
+      <c r="C127" s="100" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="30" t="s">
@@ -9122,10 +9130,10 @@
     </row>
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="30"/>
-      <c r="B128" s="96" t="s">
+      <c r="B128" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="C128" s="102" t="s">
+      <c r="C128" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D128" s="30" t="s">
@@ -9166,10 +9174,10 @@
     </row>
     <row r="129" spans="1:20" ht="18" customHeight="1">
       <c r="A129" s="30"/>
-      <c r="B129" s="96" t="s">
+      <c r="B129" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="C129" s="102" t="s">
+      <c r="C129" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D129" s="30" t="s">
@@ -9210,10 +9218,10 @@
     </row>
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="30"/>
-      <c r="B130" s="96" t="s">
+      <c r="B130" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="102" t="s">
+      <c r="C130" s="101" t="s">
         <v>75</v>
       </c>
       <c r="D130" s="30" t="s">
@@ -9254,10 +9262,10 @@
     </row>
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30"/>
-      <c r="B131" s="96" t="s">
+      <c r="B131" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="102" t="s">
+      <c r="C131" s="101" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="30" t="s">
@@ -9298,10 +9306,10 @@
     </row>
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="51"/>
-      <c r="B132" s="95" t="s">
+      <c r="B132" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="C132" s="101" t="s">
+      <c r="C132" s="100" t="s">
         <v>74</v>
       </c>
       <c r="D132" s="30" t="s">
@@ -9342,10 +9350,10 @@
     </row>
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="30"/>
-      <c r="B133" s="96" t="s">
+      <c r="B133" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="C133" s="102" t="s">
+      <c r="C133" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="30" t="s">
@@ -9386,10 +9394,10 @@
     </row>
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="30"/>
-      <c r="B134" s="96" t="s">
+      <c r="B134" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="C134" s="102" t="s">
+      <c r="C134" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D134" s="30" t="s">
@@ -9430,10 +9438,10 @@
     </row>
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="30"/>
-      <c r="B135" s="96" t="s">
+      <c r="B135" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="C135" s="102" t="s">
+      <c r="C135" s="101" t="s">
         <v>75</v>
       </c>
       <c r="D135" s="30" t="s">
@@ -9474,10 +9482,10 @@
     </row>
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="30"/>
-      <c r="B136" s="96" t="s">
+      <c r="B136" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="C136" s="102" t="s">
+      <c r="C136" s="101" t="s">
         <v>64</v>
       </c>
       <c r="D136" s="30" t="s">
@@ -9518,10 +9526,10 @@
     </row>
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="55"/>
-      <c r="B137" s="95" t="s">
+      <c r="B137" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="C137" s="101" t="s">
+      <c r="C137" s="100" t="s">
         <v>74</v>
       </c>
       <c r="D137" s="30" t="s">
@@ -9562,10 +9570,10 @@
     </row>
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="42"/>
-      <c r="B138" s="96" t="s">
+      <c r="B138" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="C138" s="102" t="s">
+      <c r="C138" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D138" s="30" t="s">
@@ -9606,10 +9614,10 @@
     </row>
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="42"/>
-      <c r="B139" s="96" t="s">
+      <c r="B139" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="C139" s="102" t="s">
+      <c r="C139" s="101" t="s">
         <v>74</v>
       </c>
       <c r="D139" s="30" t="s">
@@ -9650,10 +9658,10 @@
     </row>
     <row r="140" spans="1:20" ht="18" customHeight="1">
       <c r="A140" s="42"/>
-      <c r="B140" s="96" t="s">
+      <c r="B140" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="C140" s="102" t="s">
+      <c r="C140" s="101" t="s">
         <v>75</v>
       </c>
       <c r="D140" s="30" t="s">
@@ -9694,10 +9702,10 @@
     </row>
     <row r="141" spans="1:20" ht="18" customHeight="1">
       <c r="A141" s="42"/>
-      <c r="B141" s="96" t="s">
+      <c r="B141" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="C141" s="102" t="s">
+      <c r="C141" s="101" t="s">
         <v>64</v>
       </c>
       <c r="D141" s="30" t="s">
@@ -9738,10 +9746,10 @@
     </row>
     <row r="142" spans="1:20" ht="18" customHeight="1">
       <c r="A142" s="55"/>
-      <c r="B142" s="96" t="s">
+      <c r="B142" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="C142" s="102" t="s">
+      <c r="C142" s="101" t="s">
         <v>64</v>
       </c>
       <c r="D142" s="30" t="s">
@@ -9782,7 +9790,7 @@
     </row>
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="42"/>
-      <c r="B143" s="96" t="s">
+      <c r="B143" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C143" s="30" t="s">
@@ -9823,7 +9831,7 @@
     </row>
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="42"/>
-      <c r="B144" s="96" t="s">
+      <c r="B144" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C144" s="30" t="s">
@@ -9867,7 +9875,7 @@
     </row>
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="42"/>
-      <c r="B145" s="96" t="s">
+      <c r="B145" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C145" s="30" t="s">
@@ -9911,7 +9919,7 @@
     </row>
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="42"/>
-      <c r="B146" s="96" t="s">
+      <c r="B146" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C146" s="30" t="s">
@@ -9955,7 +9963,7 @@
     </row>
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="55"/>
-      <c r="B147" s="96" t="s">
+      <c r="B147" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C147" s="30" t="s">
@@ -9999,7 +10007,7 @@
     </row>
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="42"/>
-      <c r="B148" s="96" t="s">
+      <c r="B148" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C148" s="30" t="s">
@@ -10043,7 +10051,7 @@
     </row>
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="42"/>
-      <c r="B149" s="96" t="s">
+      <c r="B149" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C149" s="30" t="s">
@@ -10087,7 +10095,7 @@
     </row>
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="42"/>
-      <c r="B150" s="96" t="s">
+      <c r="B150" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C150" s="30" t="s">
@@ -10131,7 +10139,7 @@
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="42"/>
-      <c r="B151" s="96" t="s">
+      <c r="B151" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C151" s="30" t="s">
@@ -10175,7 +10183,7 @@
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="55"/>
-      <c r="B152" s="96" t="s">
+      <c r="B152" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C152" s="30" t="s">
@@ -10221,7 +10229,7 @@
     </row>
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="42"/>
-      <c r="B153" s="96" t="s">
+      <c r="B153" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C153" s="30" t="s">
@@ -10267,7 +10275,7 @@
     </row>
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="42"/>
-      <c r="B154" s="96" t="s">
+      <c r="B154" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C154" s="30" t="s">
@@ -10313,7 +10321,7 @@
     </row>
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="42"/>
-      <c r="B155" s="96" t="s">
+      <c r="B155" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C155" s="30" t="s">
@@ -10359,7 +10367,7 @@
     </row>
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="42"/>
-      <c r="B156" s="96" t="s">
+      <c r="B156" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C156" s="30" t="s">
@@ -10405,7 +10413,7 @@
     </row>
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="30"/>
-      <c r="B157" s="96" t="s">
+      <c r="B157" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C157" s="30" t="s">
@@ -10451,7 +10459,7 @@
     </row>
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="38"/>
-      <c r="B158" s="96" t="s">
+      <c r="B158" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C158" s="30" t="s">
@@ -10497,7 +10505,7 @@
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="38"/>
-      <c r="B159" s="96" t="s">
+      <c r="B159" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C159" s="30" t="s">
@@ -10543,7 +10551,7 @@
     </row>
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="38"/>
-      <c r="B160" s="96" t="s">
+      <c r="B160" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C160" s="30" t="s">
@@ -10589,7 +10597,7 @@
     </row>
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="38"/>
-      <c r="B161" s="96" t="s">
+      <c r="B161" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C161" s="30" t="s">
@@ -10635,7 +10643,7 @@
     </row>
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="38"/>
-      <c r="B162" s="96" t="s">
+      <c r="B162" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C162" s="30" t="s">
@@ -10681,7 +10689,7 @@
     </row>
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="38"/>
-      <c r="B163" s="96" t="s">
+      <c r="B163" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C163" s="30" t="s">
@@ -13175,7 +13183,7 @@
       <c r="I215" s="38">
         <v>298</v>
       </c>
-      <c r="J215" s="100">
+      <c r="J215" s="99">
         <f t="shared" ref="J215:J221" si="9">P215*9807000</f>
         <v>1372652006.6889586</v>
       </c>
@@ -13224,7 +13232,7 @@
       <c r="I216" s="38">
         <v>298</v>
       </c>
-      <c r="J216" s="100">
+      <c r="J216" s="99">
         <f t="shared" si="9"/>
         <v>2986379096.9899654</v>
       </c>
@@ -13273,7 +13281,7 @@
       <c r="I217" s="38">
         <v>298</v>
       </c>
-      <c r="J217" s="100">
+      <c r="J217" s="99">
         <f t="shared" si="9"/>
         <v>5033057357.8595304</v>
       </c>
@@ -13322,7 +13330,7 @@
       <c r="I218" s="38">
         <v>298</v>
       </c>
-      <c r="J218" s="100">
+      <c r="J218" s="99">
         <f t="shared" si="9"/>
         <v>4993698160.5351105</v>
       </c>
@@ -13371,7 +13379,7 @@
       <c r="I219" s="38">
         <v>298</v>
       </c>
-      <c r="J219" s="100">
+      <c r="J219" s="99">
         <f t="shared" si="9"/>
         <v>5859600501.6722345</v>
       </c>
@@ -13420,7 +13428,7 @@
       <c r="I220" s="38">
         <v>298</v>
       </c>
-      <c r="J220" s="100">
+      <c r="J220" s="99">
         <f t="shared" si="9"/>
         <v>5879280100.334445</v>
       </c>
@@ -13469,7 +13477,7 @@
       <c r="I221" s="38">
         <v>298</v>
       </c>
-      <c r="J221" s="100">
+      <c r="J221" s="99">
         <f t="shared" si="9"/>
         <v>8024356354.5150414</v>
       </c>
@@ -14499,7 +14507,7 @@
       <c r="B243" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C243" s="103" t="s">
+      <c r="C243" s="102" t="s">
         <v>93</v>
       </c>
       <c r="D243" s="61" t="s">
@@ -14547,7 +14555,7 @@
       <c r="B244" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="103" t="s">
+      <c r="C244" s="102" t="s">
         <v>248</v>
       </c>
       <c r="D244" s="61" t="s">
@@ -14595,7 +14603,7 @@
       <c r="B245" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="103" t="s">
+      <c r="C245" s="102" t="s">
         <v>93</v>
       </c>
       <c r="D245" s="61" t="s">
@@ -14643,7 +14651,7 @@
       <c r="B246" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C246" s="103" t="s">
+      <c r="C246" s="102" t="s">
         <v>248</v>
       </c>
       <c r="D246" s="61" t="s">
@@ -14691,7 +14699,7 @@
       <c r="B247" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C247" s="103" t="s">
+      <c r="C247" s="102" t="s">
         <v>93</v>
       </c>
       <c r="D247" s="61" t="s">
@@ -14739,7 +14747,7 @@
       <c r="B248" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C248" s="103" t="s">
+      <c r="C248" s="102" t="s">
         <v>248</v>
       </c>
       <c r="D248" s="61" t="s">
@@ -14785,7 +14793,7 @@
       <c r="B249" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="103" t="s">
+      <c r="C249" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D249" s="61" t="s">
@@ -14829,7 +14837,7 @@
       <c r="B250" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C250" s="103" t="s">
+      <c r="C250" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D250" s="61"/>
@@ -14869,7 +14877,7 @@
       <c r="B251" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C251" s="103" t="s">
+      <c r="C251" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D251" s="61" t="s">
@@ -14913,7 +14921,7 @@
       <c r="B252" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="103" t="s">
+      <c r="C252" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D252" s="61"/>
@@ -14953,7 +14961,7 @@
       <c r="B253" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C253" s="103" t="s">
+      <c r="C253" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D253" s="61" t="s">
@@ -14997,7 +15005,7 @@
       <c r="B254" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C254" s="103" t="s">
+      <c r="C254" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D254" s="61"/>
@@ -15037,7 +15045,7 @@
       <c r="B255" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C255" s="103" t="s">
+      <c r="C255" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D255" s="61" t="s">
@@ -15079,7 +15087,7 @@
       <c r="B256" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C256" s="103" t="s">
+      <c r="C256" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D256" s="61"/>
@@ -15117,7 +15125,7 @@
       <c r="B257" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C257" s="103" t="s">
+      <c r="C257" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D257" s="61" t="s">
@@ -15158,7 +15166,7 @@
       <c r="B258" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="103" t="s">
+      <c r="C258" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D258" s="61"/>
@@ -16063,7 +16071,7 @@
       <c r="N276" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="O276" s="104"/>
+      <c r="O276" s="103"/>
       <c r="P276" s="45">
         <v>164.444444444444</v>
       </c>
@@ -22280,28 +22288,28 @@
     </row>
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="45"/>
-      <c r="B410" s="142" t="s">
+      <c r="B410" s="141" t="s">
         <v>308</v>
       </c>
-      <c r="C410" s="143" t="s">
+      <c r="C410" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="D410" s="143" t="s">
+      <c r="D410" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="E410" s="143" t="s">
+      <c r="E410" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="F410" s="143" t="s">
+      <c r="F410" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="G410" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H410" s="143" t="s">
+      <c r="G410" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="H410" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="I410" s="143">
+      <c r="I410" s="142">
         <v>298</v>
       </c>
       <c r="J410" s="45">
@@ -22334,28 +22342,28 @@
     </row>
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="45"/>
-      <c r="B411" s="144" t="s">
+      <c r="B411" s="143" t="s">
         <v>309</v>
       </c>
-      <c r="C411" s="145" t="s">
+      <c r="C411" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="D411" s="145" t="s">
+      <c r="D411" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="E411" s="145" t="s">
+      <c r="E411" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="F411" s="143" t="s">
+      <c r="F411" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="G411" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H411" s="145" t="s">
+      <c r="G411" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H411" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I411" s="145">
+      <c r="I411" s="144">
         <v>298</v>
       </c>
       <c r="J411" s="45">
@@ -22388,28 +22396,28 @@
     </row>
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="45"/>
-      <c r="B412" s="144" t="s">
+      <c r="B412" s="143" t="s">
         <v>310</v>
       </c>
-      <c r="C412" s="145" t="s">
+      <c r="C412" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="D412" s="145" t="s">
+      <c r="D412" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="E412" s="145" t="s">
+      <c r="E412" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="F412" s="143" t="s">
+      <c r="F412" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="G412" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H412" s="145" t="s">
+      <c r="G412" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H412" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I412" s="145">
+      <c r="I412" s="144">
         <v>298</v>
       </c>
       <c r="J412" s="45">
@@ -22442,28 +22450,28 @@
     </row>
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="45"/>
-      <c r="B413" s="144" t="s">
+      <c r="B413" s="143" t="s">
         <v>311</v>
       </c>
-      <c r="C413" s="145" t="s">
+      <c r="C413" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="D413" s="145" t="s">
+      <c r="D413" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="E413" s="145" t="s">
+      <c r="E413" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="F413" s="143" t="s">
+      <c r="F413" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="G413" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H413" s="145" t="s">
+      <c r="G413" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H413" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I413" s="145">
+      <c r="I413" s="144">
         <v>298</v>
       </c>
       <c r="J413" s="45">
@@ -22509,13 +22517,13 @@
       <c r="F414" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="G414" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H414" s="145" t="s">
+      <c r="G414" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H414" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I414" s="145">
+      <c r="I414" s="144">
         <v>298</v>
       </c>
       <c r="J414" s="62">
@@ -22553,13 +22561,13 @@
       <c r="F415" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="G415" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H415" s="145" t="s">
+      <c r="G415" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H415" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I415" s="145">
+      <c r="I415" s="144">
         <v>298</v>
       </c>
       <c r="J415" s="62">
@@ -22597,13 +22605,13 @@
       <c r="F416" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="G416" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H416" s="145" t="s">
+      <c r="G416" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H416" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I416" s="145">
+      <c r="I416" s="144">
         <v>298</v>
       </c>
       <c r="J416" s="62">
@@ -22641,13 +22649,13 @@
       <c r="F417" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="G417" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H417" s="145" t="s">
+      <c r="G417" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H417" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I417" s="145">
+      <c r="I417" s="144">
         <v>298</v>
       </c>
       <c r="J417" s="62">
@@ -22685,13 +22693,13 @@
       <c r="F418" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="G418" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H418" s="145" t="s">
+      <c r="G418" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H418" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I418" s="145">
+      <c r="I418" s="144">
         <v>298</v>
       </c>
       <c r="J418" s="62">
@@ -22729,13 +22737,13 @@
       <c r="F419" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="G419" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H419" s="145" t="s">
+      <c r="G419" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H419" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I419" s="145">
+      <c r="I419" s="144">
         <v>298</v>
       </c>
       <c r="J419" s="62">
@@ -22760,26 +22768,26 @@
     </row>
     <row r="420" spans="1:20" ht="18" customHeight="1">
       <c r="A420" s="61"/>
-      <c r="B420" s="142" t="s">
+      <c r="B420" s="141" t="s">
         <v>317</v>
       </c>
-      <c r="C420" s="143" t="s">
+      <c r="C420" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="D420" s="143" t="s">
+      <c r="D420" s="142" t="s">
         <v>63</v>
       </c>
       <c r="E420" s="61"/>
       <c r="F420" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="G420" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H420" s="145" t="s">
+      <c r="G420" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H420" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I420" s="145">
+      <c r="I420" s="144">
         <v>298</v>
       </c>
       <c r="J420" s="62">
@@ -22804,26 +22812,26 @@
     </row>
     <row r="421" spans="1:20" ht="18" customHeight="1">
       <c r="A421" s="61"/>
-      <c r="B421" s="144" t="s">
+      <c r="B421" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C421" s="145" t="s">
+      <c r="C421" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D421" s="145" t="s">
+      <c r="D421" s="144" t="s">
         <v>63</v>
       </c>
       <c r="E421" s="61"/>
       <c r="F421" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="G421" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H421" s="145" t="s">
+      <c r="G421" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H421" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I421" s="145">
+      <c r="I421" s="144">
         <v>298</v>
       </c>
       <c r="J421" s="62">
@@ -22848,26 +22856,26 @@
     </row>
     <row r="422" spans="1:20" ht="18" customHeight="1">
       <c r="A422" s="61"/>
-      <c r="B422" s="144" t="s">
+      <c r="B422" s="143" t="s">
         <v>319</v>
       </c>
-      <c r="C422" s="145" t="s">
+      <c r="C422" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D422" s="145" t="s">
+      <c r="D422" s="144" t="s">
         <v>63</v>
       </c>
       <c r="E422" s="61"/>
       <c r="F422" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="G422" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H422" s="145" t="s">
+      <c r="G422" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H422" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="I422" s="145">
+      <c r="I422" s="144">
         <v>298</v>
       </c>
       <c r="J422" s="62">
@@ -22892,19 +22900,41 @@
     </row>
     <row r="423" spans="1:20" ht="15" customHeight="1">
       <c r="A423" s="61"/>
-      <c r="B423" s="61"/>
-      <c r="C423" s="61"/>
-      <c r="D423" s="61"/>
+      <c r="B423" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C423" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D423" s="61" t="s">
+        <v>328</v>
+      </c>
       <c r="E423" s="61"/>
-      <c r="F423" s="61"/>
-      <c r="G423" s="61"/>
-      <c r="H423" s="45"/>
-      <c r="I423" s="45"/>
-      <c r="J423" s="62"/>
+      <c r="F423" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G423" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H423" s="144" t="s">
+        <v>315</v>
+      </c>
+      <c r="I423" s="144">
+        <v>298</v>
+      </c>
+      <c r="J423" s="62">
+        <v>-0.36</v>
+      </c>
       <c r="K423" s="45"/>
-      <c r="L423" s="61"/>
-      <c r="M423" s="61"/>
-      <c r="N423" s="61"/>
+      <c r="L423" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M423" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N423" s="61" t="s">
+        <v>329</v>
+      </c>
       <c r="O423" s="45"/>
       <c r="P423" s="45"/>
       <c r="Q423" s="45"/>
@@ -22914,19 +22944,41 @@
     </row>
     <row r="424" spans="1:20" ht="15" customHeight="1">
       <c r="A424" s="61"/>
-      <c r="B424" s="45"/>
-      <c r="C424" s="61"/>
-      <c r="D424" s="61"/>
+      <c r="B424" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C424" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D424" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E424" s="61"/>
-      <c r="F424" s="61"/>
-      <c r="G424" s="61"/>
-      <c r="H424" s="45"/>
-      <c r="I424" s="45"/>
-      <c r="J424" s="62"/>
+      <c r="F424" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G424" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H424" s="144" t="s">
+        <v>315</v>
+      </c>
+      <c r="I424" s="144">
+        <v>298</v>
+      </c>
+      <c r="J424" s="62">
+        <v>-0.44</v>
+      </c>
       <c r="K424" s="45"/>
-      <c r="L424" s="61"/>
-      <c r="M424" s="61"/>
-      <c r="N424" s="61"/>
+      <c r="L424" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M424" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N424" s="61" t="s">
+        <v>329</v>
+      </c>
       <c r="O424" s="45"/>
       <c r="P424" s="45"/>
       <c r="Q424" s="45"/>
@@ -22936,19 +22988,41 @@
     </row>
     <row r="425" spans="1:20" ht="15" customHeight="1">
       <c r="A425" s="61"/>
-      <c r="B425" s="45"/>
-      <c r="C425" s="63"/>
-      <c r="D425" s="61"/>
+      <c r="B425" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C425" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D425" s="61" t="s">
+        <v>328</v>
+      </c>
       <c r="E425" s="61"/>
-      <c r="F425" s="61"/>
-      <c r="G425" s="61"/>
-      <c r="H425" s="45"/>
-      <c r="I425" s="45"/>
-      <c r="J425" s="62"/>
+      <c r="F425" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G425" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H425" s="144" t="s">
+        <v>315</v>
+      </c>
+      <c r="I425" s="144">
+        <v>298</v>
+      </c>
+      <c r="J425" s="62">
+        <v>2.4099999999999998E-3</v>
+      </c>
       <c r="K425" s="45"/>
-      <c r="L425" s="61"/>
-      <c r="M425" s="61"/>
-      <c r="N425" s="61"/>
+      <c r="L425" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M425" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N425" s="61" t="s">
+        <v>329</v>
+      </c>
       <c r="O425" s="45"/>
       <c r="P425" s="45"/>
       <c r="Q425" s="45"/>
@@ -22958,19 +23032,41 @@
     </row>
     <row r="426" spans="1:20" ht="15" customHeight="1">
       <c r="A426" s="61"/>
-      <c r="B426" s="45"/>
-      <c r="C426" s="61"/>
-      <c r="D426" s="61"/>
+      <c r="B426" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C426" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D426" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E426" s="61"/>
-      <c r="F426" s="61"/>
-      <c r="G426" s="61"/>
-      <c r="H426" s="45"/>
-      <c r="I426" s="45"/>
-      <c r="J426" s="45"/>
+      <c r="F426" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G426" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H426" s="144" t="s">
+        <v>315</v>
+      </c>
+      <c r="I426" s="144">
+        <v>298</v>
+      </c>
+      <c r="J426" s="62">
+        <v>0.19500000000000001</v>
+      </c>
       <c r="K426" s="45"/>
-      <c r="L426" s="61"/>
-      <c r="M426" s="61"/>
-      <c r="N426" s="61"/>
+      <c r="L426" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M426" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N426" s="61" t="s">
+        <v>329</v>
+      </c>
       <c r="O426" s="45"/>
       <c r="P426" s="45"/>
       <c r="Q426" s="45"/>
@@ -22980,19 +23076,41 @@
     </row>
     <row r="427" spans="1:20" ht="15" customHeight="1">
       <c r="A427" s="61"/>
-      <c r="B427" s="45"/>
-      <c r="C427" s="61"/>
-      <c r="D427" s="61"/>
+      <c r="B427" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C427" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D427" s="61" t="s">
+        <v>328</v>
+      </c>
       <c r="E427" s="61"/>
-      <c r="F427" s="61"/>
-      <c r="G427" s="61"/>
-      <c r="H427" s="45"/>
-      <c r="I427" s="45"/>
-      <c r="J427" s="45"/>
+      <c r="F427" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G427" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H427" s="144" t="s">
+        <v>315</v>
+      </c>
+      <c r="I427" s="144">
+        <v>298</v>
+      </c>
+      <c r="J427" s="45">
+        <v>-0.01</v>
+      </c>
       <c r="K427" s="45"/>
-      <c r="L427" s="61"/>
-      <c r="M427" s="61"/>
-      <c r="N427" s="61"/>
+      <c r="L427" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M427" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N427" s="61" t="s">
+        <v>329</v>
+      </c>
       <c r="O427" s="45"/>
       <c r="P427" s="45"/>
       <c r="Q427" s="45"/>
@@ -23002,19 +23120,41 @@
     </row>
     <row r="428" spans="1:20" ht="15" customHeight="1">
       <c r="A428" s="61"/>
-      <c r="B428" s="45"/>
-      <c r="C428" s="61"/>
-      <c r="D428" s="61"/>
+      <c r="B428" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C428" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D428" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E428" s="61"/>
-      <c r="F428" s="61"/>
-      <c r="G428" s="61"/>
-      <c r="H428" s="45"/>
-      <c r="I428" s="45"/>
-      <c r="J428" s="45"/>
+      <c r="F428" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G428" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H428" s="144" t="s">
+        <v>315</v>
+      </c>
+      <c r="I428" s="144">
+        <v>298</v>
+      </c>
+      <c r="J428" s="45">
+        <v>-0.41</v>
+      </c>
       <c r="K428" s="45"/>
-      <c r="L428" s="61"/>
-      <c r="M428" s="61"/>
-      <c r="N428" s="61"/>
+      <c r="L428" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="M428" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N428" s="61" t="s">
+        <v>329</v>
+      </c>
       <c r="O428" s="45"/>
       <c r="P428" s="45"/>
       <c r="Q428" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7E7C4-F5E6-9D4E-892E-C361AF999FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DAEEA8-F4F3-2240-8200-C990ADEDB186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="334">
   <si>
     <r>
       <rPr>
@@ -1121,6 +1121,18 @@
   </si>
   <si>
     <t>10.1016/j.intermet.2020.106778</t>
+  </si>
+  <si>
+    <t>10.1016/j.physb.2024.416495</t>
+  </si>
+  <si>
+    <t>FeCoNi(GaCu)0.5</t>
+  </si>
+  <si>
+    <t>VAM+A+HR+A</t>
+  </si>
+  <si>
+    <t>annealed for 48h at 1200*C then hot rolled and annealed at 1200*C for another 1h</t>
   </si>
 </sst>
 </file>
@@ -3612,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A394" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N433" sqref="N433"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A390" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I439" sqref="I439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -23164,19 +23176,41 @@
     </row>
     <row r="429" spans="1:20" ht="15" customHeight="1">
       <c r="A429" s="61"/>
-      <c r="B429" s="45"/>
-      <c r="C429" s="61"/>
-      <c r="D429" s="61"/>
-      <c r="E429" s="61"/>
-      <c r="F429" s="61"/>
-      <c r="G429" s="61"/>
+      <c r="B429" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C429" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D429" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E429" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="F429" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G429" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H429" s="45"/>
-      <c r="I429" s="45"/>
-      <c r="J429" s="45"/>
+      <c r="I429" s="45">
+        <v>300</v>
+      </c>
+      <c r="J429" s="45">
+        <v>114</v>
+      </c>
       <c r="K429" s="45"/>
-      <c r="L429" s="61"/>
-      <c r="M429" s="61"/>
-      <c r="N429" s="61"/>
+      <c r="L429" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M429" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="N429" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="O429" s="45"/>
       <c r="P429" s="45"/>
       <c r="Q429" s="45"/>
@@ -23186,19 +23220,41 @@
     </row>
     <row r="430" spans="1:20" ht="15" customHeight="1">
       <c r="A430" s="61"/>
-      <c r="B430" s="45"/>
-      <c r="C430" s="45"/>
-      <c r="D430" s="61"/>
-      <c r="E430" s="61"/>
-      <c r="F430" s="61"/>
-      <c r="G430" s="61"/>
+      <c r="B430" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C430" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D430" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E430" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="F430" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G430" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H430" s="45"/>
-      <c r="I430" s="45"/>
-      <c r="J430" s="45"/>
+      <c r="I430" s="45">
+        <v>300</v>
+      </c>
+      <c r="J430" s="45">
+        <v>320</v>
+      </c>
       <c r="K430" s="45"/>
-      <c r="L430" s="61"/>
-      <c r="M430" s="61"/>
-      <c r="N430" s="61"/>
+      <c r="L430" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M430" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="N430" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="O430" s="45"/>
       <c r="P430" s="45"/>
       <c r="Q430" s="45"/>
@@ -23208,19 +23264,41 @@
     </row>
     <row r="431" spans="1:20" ht="15" customHeight="1">
       <c r="A431" s="61"/>
-      <c r="B431" s="45"/>
-      <c r="C431" s="45"/>
-      <c r="D431" s="61"/>
-      <c r="E431" s="61"/>
-      <c r="F431" s="61"/>
-      <c r="G431" s="61"/>
+      <c r="B431" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C431" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D431" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E431" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="F431" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G431" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H431" s="45"/>
-      <c r="I431" s="45"/>
-      <c r="J431" s="45"/>
+      <c r="I431" s="45">
+        <v>300</v>
+      </c>
+      <c r="J431" s="62">
+        <v>5.6999999999999996E-6</v>
+      </c>
       <c r="K431" s="45"/>
-      <c r="L431" s="61"/>
-      <c r="M431" s="61"/>
-      <c r="N431" s="61"/>
+      <c r="L431" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M431" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="N431" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="O431" s="45"/>
       <c r="P431" s="45"/>
       <c r="Q431" s="45"/>
@@ -23230,19 +23308,39 @@
     </row>
     <row r="432" spans="1:20" ht="15" customHeight="1">
       <c r="A432" s="61"/>
-      <c r="B432" s="45"/>
-      <c r="C432" s="45"/>
-      <c r="D432" s="61"/>
-      <c r="E432" s="61"/>
-      <c r="F432" s="61"/>
-      <c r="G432" s="61"/>
+      <c r="B432" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="C432" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D432" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E432" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="F432" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G432" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H432" s="45"/>
       <c r="I432" s="45"/>
-      <c r="J432" s="45"/>
+      <c r="J432" s="45">
+        <v>591</v>
+      </c>
       <c r="K432" s="45"/>
-      <c r="L432" s="61"/>
-      <c r="M432" s="61"/>
-      <c r="N432" s="61"/>
+      <c r="L432" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="M432" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="N432" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="O432" s="45"/>
       <c r="P432" s="45"/>
       <c r="Q432" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DAEEA8-F4F3-2240-8200-C990ADEDB186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6491649-20B0-E541-8008-C773742055AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="349">
   <si>
     <r>
       <rPr>
@@ -1133,6 +1133,51 @@
   </si>
   <si>
     <t>annealed for 48h at 1200*C then hot rolled and annealed at 1200*C for another 1h</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2024.108629</t>
+  </si>
+  <si>
+    <t>(Co0.4Fe0.3Ni0.3)100</t>
+  </si>
+  <si>
+    <t>(Co0.4Fe0.3Ni0.3)97.5 (Al0.4Mn0.6)2.5</t>
+  </si>
+  <si>
+    <t>(Co0.4Fe0.3Ni0.3)95 (Al0.4Mn0.6)5</t>
+  </si>
+  <si>
+    <t>(Co0.4Fe0.3Ni0.3)92.5 (Al0.4Mn0.6)7.5</t>
+  </si>
+  <si>
+    <t>(Co0.4Fe0.3Ni0.3)90 (Al0.4Mn0.6)10</t>
+  </si>
+  <si>
+    <t>AAM+A</t>
+  </si>
+  <si>
+    <t>annealed in Ar at 1173K for 2h and furnance cooled "to study phase stability"</t>
+  </si>
+  <si>
+    <t>annealed in Ar at 1273K for 2h and furnance cooled "to study phase stability"</t>
+  </si>
+  <si>
+    <t>annealed in Ar at 1373K for 2h and furnance cooled "to study phase stability"</t>
+  </si>
+  <si>
+    <t>annealed in Ar at 1473K for 2h and furnance cooled "to study phase stability"</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>saturation induction</t>
+  </si>
+  <si>
+    <t>5e-4 strain rate</t>
   </si>
 </sst>
 </file>
@@ -3624,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A390" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I439" sqref="I439"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A430" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H477" sqref="H477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -23350,19 +23395,39 @@
     </row>
     <row r="433" spans="1:20" ht="15" customHeight="1">
       <c r="A433" s="61"/>
-      <c r="B433" s="45"/>
-      <c r="C433" s="45"/>
-      <c r="D433" s="61"/>
+      <c r="B433" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C433" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D433" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E433" s="61"/>
-      <c r="F433" s="61"/>
-      <c r="G433" s="61"/>
+      <c r="F433" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G433" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H433" s="45"/>
-      <c r="I433" s="45"/>
-      <c r="J433" s="45"/>
+      <c r="I433" s="45">
+        <v>298</v>
+      </c>
+      <c r="J433" s="45">
+        <v>60.05859375</v>
+      </c>
       <c r="K433" s="45"/>
-      <c r="L433" s="61"/>
-      <c r="M433" s="61"/>
-      <c r="N433" s="61"/>
+      <c r="L433" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M433" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N433" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O433" s="45"/>
       <c r="P433" s="45"/>
       <c r="Q433" s="45"/>
@@ -23372,19 +23437,39 @@
     </row>
     <row r="434" spans="1:20" ht="15" customHeight="1">
       <c r="A434" s="61"/>
-      <c r="B434" s="45"/>
-      <c r="C434" s="45"/>
-      <c r="D434" s="61"/>
+      <c r="B434" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C434" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D434" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E434" s="61"/>
-      <c r="F434" s="61"/>
-      <c r="G434" s="61"/>
+      <c r="F434" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G434" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H434" s="45"/>
-      <c r="I434" s="45"/>
-      <c r="J434" s="45"/>
+      <c r="I434" s="45">
+        <v>298</v>
+      </c>
+      <c r="J434" s="45">
+        <v>56.279296875</v>
+      </c>
       <c r="K434" s="45"/>
-      <c r="L434" s="45"/>
-      <c r="M434" s="61"/>
-      <c r="N434" s="61"/>
+      <c r="L434" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M434" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N434" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O434" s="45"/>
       <c r="P434" s="45"/>
       <c r="Q434" s="45"/>
@@ -23394,19 +23479,39 @@
     </row>
     <row r="435" spans="1:20" ht="15" customHeight="1">
       <c r="A435" s="61"/>
-      <c r="B435" s="45"/>
-      <c r="C435" s="45"/>
-      <c r="D435" s="61"/>
+      <c r="B435" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C435" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D435" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E435" s="61"/>
-      <c r="F435" s="61"/>
-      <c r="G435" s="61"/>
+      <c r="F435" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G435" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H435" s="45"/>
-      <c r="I435" s="45"/>
-      <c r="J435" s="45"/>
+      <c r="I435" s="45">
+        <v>298</v>
+      </c>
+      <c r="J435" s="45">
+        <v>44.94140625</v>
+      </c>
       <c r="K435" s="45"/>
-      <c r="L435" s="45"/>
-      <c r="M435" s="61"/>
-      <c r="N435" s="61"/>
+      <c r="L435" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M435" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N435" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O435" s="45"/>
       <c r="P435" s="45"/>
       <c r="Q435" s="45"/>
@@ -23416,19 +23521,39 @@
     </row>
     <row r="436" spans="1:20" ht="15" customHeight="1">
       <c r="A436" s="61"/>
-      <c r="B436" s="45"/>
-      <c r="C436" s="45"/>
-      <c r="D436" s="61"/>
+      <c r="B436" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="C436" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D436" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E436" s="61"/>
-      <c r="F436" s="61"/>
-      <c r="G436" s="61"/>
+      <c r="F436" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G436" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H436" s="45"/>
-      <c r="I436" s="45"/>
-      <c r="J436" s="45"/>
+      <c r="I436" s="45">
+        <v>298</v>
+      </c>
+      <c r="J436" s="45">
+        <v>42.568359375</v>
+      </c>
       <c r="K436" s="45"/>
-      <c r="L436" s="45"/>
-      <c r="M436" s="61"/>
-      <c r="N436" s="61"/>
+      <c r="L436" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M436" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N436" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O436" s="45"/>
       <c r="P436" s="45"/>
       <c r="Q436" s="45"/>
@@ -23438,19 +23563,39 @@
     </row>
     <row r="437" spans="1:20" ht="15" customHeight="1">
       <c r="A437" s="61"/>
-      <c r="B437" s="45"/>
-      <c r="C437" s="45"/>
-      <c r="D437" s="61"/>
+      <c r="B437" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="C437" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D437" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="E437" s="61"/>
-      <c r="F437" s="61"/>
-      <c r="G437" s="61"/>
+      <c r="F437" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G437" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H437" s="45"/>
-      <c r="I437" s="45"/>
-      <c r="J437" s="45"/>
+      <c r="I437" s="45">
+        <v>298</v>
+      </c>
+      <c r="J437" s="45">
+        <v>36.240234375</v>
+      </c>
       <c r="K437" s="45"/>
-      <c r="L437" s="45"/>
-      <c r="M437" s="61"/>
-      <c r="N437" s="61"/>
+      <c r="L437" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M437" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N437" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O437" s="45"/>
       <c r="P437" s="45"/>
       <c r="Q437" s="45"/>
@@ -23460,19 +23605,41 @@
     </row>
     <row r="438" spans="1:20" ht="15" customHeight="1">
       <c r="A438" s="61"/>
-      <c r="B438" s="45"/>
-      <c r="C438" s="45"/>
-      <c r="D438" s="61"/>
-      <c r="E438" s="61"/>
-      <c r="F438" s="61"/>
-      <c r="G438" s="61"/>
+      <c r="B438" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C438" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D438" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E438" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="F438" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G438" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H438" s="45"/>
-      <c r="I438" s="45"/>
-      <c r="J438" s="45"/>
+      <c r="I438" s="45">
+        <v>298</v>
+      </c>
+      <c r="J438" s="45">
+        <v>70.163934426229503</v>
+      </c>
       <c r="K438" s="45"/>
-      <c r="L438" s="45"/>
-      <c r="M438" s="61"/>
-      <c r="N438" s="61"/>
+      <c r="L438" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M438" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N438" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O438" s="45"/>
       <c r="P438" s="45"/>
       <c r="Q438" s="45"/>
@@ -23482,19 +23649,41 @@
     </row>
     <row r="439" spans="1:20" ht="15" customHeight="1">
       <c r="A439" s="61"/>
-      <c r="B439" s="45"/>
-      <c r="C439" s="45"/>
-      <c r="D439" s="61"/>
-      <c r="E439" s="61"/>
-      <c r="F439" s="61"/>
-      <c r="G439" s="61"/>
+      <c r="B439" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C439" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D439" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E439" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="F439" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G439" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H439" s="45"/>
-      <c r="I439" s="45"/>
-      <c r="J439" s="45"/>
+      <c r="I439" s="45">
+        <v>298</v>
+      </c>
+      <c r="J439" s="45">
+        <v>106.098360655737</v>
+      </c>
       <c r="K439" s="45"/>
-      <c r="L439" s="45"/>
-      <c r="M439" s="61"/>
-      <c r="N439" s="61"/>
+      <c r="L439" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M439" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N439" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O439" s="45"/>
       <c r="P439" s="45"/>
       <c r="Q439" s="45"/>
@@ -23504,19 +23693,41 @@
     </row>
     <row r="440" spans="1:20" ht="15" customHeight="1">
       <c r="A440" s="61"/>
-      <c r="B440" s="45"/>
-      <c r="C440" s="45"/>
-      <c r="D440" s="61"/>
-      <c r="E440" s="61"/>
-      <c r="F440" s="61"/>
-      <c r="G440" s="61"/>
+      <c r="B440" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C440" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D440" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E440" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F440" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G440" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H440" s="45"/>
-      <c r="I440" s="45"/>
-      <c r="J440" s="45"/>
+      <c r="I440" s="45">
+        <v>298</v>
+      </c>
+      <c r="J440" s="45">
+        <v>60.065573770491802</v>
+      </c>
       <c r="K440" s="45"/>
-      <c r="L440" s="45"/>
-      <c r="M440" s="61"/>
-      <c r="N440" s="61"/>
+      <c r="L440" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M440" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N440" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O440" s="45"/>
       <c r="P440" s="45"/>
       <c r="Q440" s="45"/>
@@ -23526,19 +23737,41 @@
     </row>
     <row r="441" spans="1:20" ht="15" customHeight="1">
       <c r="A441" s="61"/>
-      <c r="B441" s="45"/>
-      <c r="C441" s="45"/>
-      <c r="D441" s="61"/>
-      <c r="E441" s="61"/>
-      <c r="F441" s="61"/>
-      <c r="G441" s="61"/>
+      <c r="B441" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C441" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D441" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E441" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F441" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G441" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H441" s="45"/>
-      <c r="I441" s="45"/>
-      <c r="J441" s="45"/>
+      <c r="I441" s="45">
+        <v>298</v>
+      </c>
+      <c r="J441" s="45">
+        <v>40.786885245901601</v>
+      </c>
       <c r="K441" s="45"/>
-      <c r="L441" s="45"/>
-      <c r="M441" s="61"/>
-      <c r="N441" s="61"/>
+      <c r="L441" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M441" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N441" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O441" s="45"/>
       <c r="P441" s="45"/>
       <c r="Q441" s="45"/>
@@ -23548,21 +23781,46 @@
     </row>
     <row r="442" spans="1:20" ht="15" customHeight="1">
       <c r="A442" s="45"/>
-      <c r="B442" s="45"/>
-      <c r="C442" s="45"/>
-      <c r="D442" s="45"/>
-      <c r="E442" s="45"/>
-      <c r="F442" s="45"/>
-      <c r="G442" s="45"/>
-      <c r="H442" s="45"/>
-      <c r="I442" s="45"/>
-      <c r="J442" s="45"/>
+      <c r="B442" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C442" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D442" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E442" s="61"/>
+      <c r="F442" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G442" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H442" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I442" s="45">
+        <v>298</v>
+      </c>
+      <c r="J442" s="45">
+        <f>P442*1000000</f>
+        <v>103703703.703703</v>
+      </c>
       <c r="K442" s="45"/>
-      <c r="L442" s="45"/>
-      <c r="M442" s="45"/>
-      <c r="N442" s="45"/>
+      <c r="L442" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M442" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N442" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O442" s="45"/>
-      <c r="P442" s="45"/>
+      <c r="P442" s="45">
+        <v>103.703703703703</v>
+      </c>
       <c r="Q442" s="45"/>
       <c r="R442" s="45"/>
       <c r="S442" s="37"/>
@@ -23570,21 +23828,46 @@
     </row>
     <row r="443" spans="1:20" ht="15" customHeight="1">
       <c r="A443" s="45"/>
-      <c r="B443" s="45"/>
-      <c r="C443" s="45"/>
-      <c r="D443" s="45"/>
-      <c r="E443" s="45"/>
-      <c r="F443" s="45"/>
-      <c r="G443" s="45"/>
-      <c r="H443" s="45"/>
-      <c r="I443" s="45"/>
-      <c r="J443" s="45"/>
+      <c r="B443" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C443" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D443" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E443" s="61"/>
+      <c r="F443" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G443" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H443" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I443" s="45">
+        <v>298</v>
+      </c>
+      <c r="J443" s="45">
+        <f t="shared" ref="J443:J459" si="17">P443*1000000</f>
+        <v>120833333.333333</v>
+      </c>
       <c r="K443" s="45"/>
-      <c r="L443" s="45"/>
-      <c r="M443" s="45"/>
-      <c r="N443" s="45"/>
+      <c r="L443" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M443" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N443" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O443" s="45"/>
-      <c r="P443" s="45"/>
+      <c r="P443" s="45">
+        <v>120.833333333333</v>
+      </c>
       <c r="Q443" s="45"/>
       <c r="R443" s="45"/>
       <c r="S443" s="37"/>
@@ -23592,21 +23875,46 @@
     </row>
     <row r="444" spans="1:20" ht="15" customHeight="1">
       <c r="A444" s="45"/>
-      <c r="B444" s="45"/>
-      <c r="C444" s="45"/>
-      <c r="D444" s="45"/>
-      <c r="E444" s="45"/>
-      <c r="F444" s="45"/>
-      <c r="G444" s="45"/>
-      <c r="H444" s="45"/>
-      <c r="I444" s="45"/>
-      <c r="J444" s="45"/>
+      <c r="B444" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C444" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D444" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E444" s="61"/>
+      <c r="F444" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G444" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H444" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I444" s="45">
+        <v>298</v>
+      </c>
+      <c r="J444" s="45">
+        <f t="shared" si="17"/>
+        <v>125925925.925925</v>
+      </c>
       <c r="K444" s="45"/>
-      <c r="L444" s="45"/>
-      <c r="M444" s="45"/>
-      <c r="N444" s="45"/>
+      <c r="L444" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M444" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N444" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O444" s="45"/>
-      <c r="P444" s="45"/>
+      <c r="P444" s="45">
+        <v>125.925925925925</v>
+      </c>
       <c r="Q444" s="45"/>
       <c r="R444" s="45"/>
       <c r="S444" s="37"/>
@@ -23614,21 +23922,46 @@
     </row>
     <row r="445" spans="1:20" ht="15" customHeight="1">
       <c r="A445" s="45"/>
-      <c r="B445" s="45"/>
-      <c r="C445" s="45"/>
-      <c r="D445" s="45"/>
-      <c r="E445" s="45"/>
-      <c r="F445" s="45"/>
-      <c r="G445" s="45"/>
-      <c r="H445" s="45"/>
-      <c r="I445" s="45"/>
-      <c r="J445" s="45"/>
+      <c r="B445" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="C445" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D445" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E445" s="61"/>
+      <c r="F445" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G445" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H445" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I445" s="45">
+        <v>298</v>
+      </c>
+      <c r="J445" s="45">
+        <f t="shared" si="17"/>
+        <v>142592592.592592</v>
+      </c>
       <c r="K445" s="45"/>
-      <c r="L445" s="45"/>
-      <c r="M445" s="45"/>
-      <c r="N445" s="45"/>
+      <c r="L445" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M445" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N445" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O445" s="45"/>
-      <c r="P445" s="45"/>
+      <c r="P445" s="45">
+        <v>142.59259259259201</v>
+      </c>
       <c r="Q445" s="45"/>
       <c r="R445" s="45"/>
       <c r="S445" s="37"/>
@@ -23636,21 +23969,46 @@
     </row>
     <row r="446" spans="1:20" ht="15" customHeight="1">
       <c r="A446" s="45"/>
-      <c r="B446" s="45"/>
-      <c r="C446" s="45"/>
-      <c r="D446" s="45"/>
-      <c r="E446" s="45"/>
-      <c r="F446" s="45"/>
-      <c r="G446" s="45"/>
-      <c r="H446" s="45"/>
-      <c r="I446" s="45"/>
-      <c r="J446" s="45"/>
+      <c r="B446" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="C446" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D446" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E446" s="61"/>
+      <c r="F446" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G446" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H446" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I446" s="45">
+        <v>298</v>
+      </c>
+      <c r="J446" s="45">
+        <f t="shared" si="17"/>
+        <v>143518518.518518</v>
+      </c>
       <c r="K446" s="45"/>
-      <c r="L446" s="45"/>
-      <c r="M446" s="45"/>
-      <c r="N446" s="45"/>
+      <c r="L446" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M446" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N446" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O446" s="45"/>
-      <c r="P446" s="45"/>
+      <c r="P446" s="45">
+        <v>143.51851851851799</v>
+      </c>
       <c r="Q446" s="45"/>
       <c r="R446" s="45"/>
       <c r="S446" s="37"/>
@@ -23658,21 +24016,48 @@
     </row>
     <row r="447" spans="1:20" ht="15" customHeight="1">
       <c r="A447" s="45"/>
-      <c r="B447" s="45"/>
-      <c r="C447" s="45"/>
-      <c r="D447" s="45"/>
-      <c r="E447" s="45"/>
-      <c r="F447" s="45"/>
-      <c r="G447" s="45"/>
-      <c r="H447" s="45"/>
-      <c r="I447" s="45"/>
-      <c r="J447" s="45"/>
+      <c r="B447" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C447" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D447" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E447" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="F447" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G447" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H447" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I447" s="45">
+        <v>298</v>
+      </c>
+      <c r="J447" s="45">
+        <f t="shared" si="17"/>
+        <v>165827338.12949601</v>
+      </c>
       <c r="K447" s="45"/>
-      <c r="L447" s="45"/>
-      <c r="M447" s="45"/>
-      <c r="N447" s="45"/>
+      <c r="L447" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M447" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N447" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O447" s="45"/>
-      <c r="P447" s="45"/>
+      <c r="P447" s="45">
+        <v>165.82733812949601</v>
+      </c>
       <c r="Q447" s="45"/>
       <c r="R447" s="45"/>
       <c r="S447" s="37"/>
@@ -23680,21 +24065,48 @@
     </row>
     <row r="448" spans="1:20" ht="15" customHeight="1">
       <c r="A448" s="45"/>
-      <c r="B448" s="45"/>
-      <c r="C448" s="45"/>
-      <c r="D448" s="45"/>
-      <c r="E448" s="45"/>
-      <c r="F448" s="45"/>
-      <c r="G448" s="45"/>
-      <c r="H448" s="45"/>
-      <c r="I448" s="45"/>
-      <c r="J448" s="45"/>
+      <c r="B448" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C448" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D448" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E448" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="F448" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G448" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H448" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I448" s="45">
+        <v>298</v>
+      </c>
+      <c r="J448" s="45">
+        <f t="shared" si="17"/>
+        <v>165827338.12949601</v>
+      </c>
       <c r="K448" s="45"/>
-      <c r="L448" s="45"/>
-      <c r="M448" s="45"/>
-      <c r="N448" s="45"/>
+      <c r="L448" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M448" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N448" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O448" s="45"/>
-      <c r="P448" s="45"/>
+      <c r="P448" s="45">
+        <v>165.82733812949601</v>
+      </c>
       <c r="Q448" s="45"/>
       <c r="R448" s="45"/>
       <c r="S448" s="37"/>
@@ -23702,21 +24114,48 @@
     </row>
     <row r="449" spans="1:20" ht="15" customHeight="1">
       <c r="A449" s="45"/>
-      <c r="B449" s="45"/>
-      <c r="C449" s="45"/>
-      <c r="D449" s="45"/>
-      <c r="E449" s="45"/>
-      <c r="F449" s="45"/>
-      <c r="G449" s="45"/>
-      <c r="H449" s="45"/>
-      <c r="I449" s="45"/>
-      <c r="J449" s="45"/>
+      <c r="B449" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C449" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D449" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E449" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F449" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G449" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H449" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I449" s="45">
+        <v>298</v>
+      </c>
+      <c r="J449" s="45">
+        <f t="shared" si="17"/>
+        <v>144964028.77697802</v>
+      </c>
       <c r="K449" s="45"/>
-      <c r="L449" s="45"/>
-      <c r="M449" s="45"/>
-      <c r="N449" s="45"/>
+      <c r="L449" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M449" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N449" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O449" s="45"/>
-      <c r="P449" s="45"/>
+      <c r="P449" s="45">
+        <v>144.96402877697801</v>
+      </c>
       <c r="Q449" s="45"/>
       <c r="R449" s="45"/>
       <c r="S449" s="37"/>
@@ -23724,21 +24163,48 @@
     </row>
     <row r="450" spans="1:20" ht="15" customHeight="1">
       <c r="A450" s="45"/>
-      <c r="B450" s="45"/>
-      <c r="C450" s="45"/>
-      <c r="D450" s="45"/>
-      <c r="E450" s="45"/>
-      <c r="F450" s="45"/>
-      <c r="G450" s="45"/>
-      <c r="H450" s="45"/>
-      <c r="I450" s="45"/>
-      <c r="J450" s="45"/>
+      <c r="B450" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C450" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D450" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E450" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F450" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G450" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H450" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I450" s="45">
+        <v>298</v>
+      </c>
+      <c r="J450" s="45">
+        <f t="shared" si="17"/>
+        <v>138489208.633093</v>
+      </c>
       <c r="K450" s="45"/>
-      <c r="L450" s="45"/>
-      <c r="M450" s="45"/>
-      <c r="N450" s="45"/>
+      <c r="L450" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M450" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N450" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O450" s="45"/>
-      <c r="P450" s="45"/>
+      <c r="P450" s="45">
+        <v>138.489208633093</v>
+      </c>
       <c r="Q450" s="45"/>
       <c r="R450" s="45"/>
       <c r="S450" s="37"/>
@@ -23746,21 +24212,46 @@
     </row>
     <row r="451" spans="1:20" ht="15" customHeight="1">
       <c r="A451" s="45"/>
-      <c r="B451" s="45"/>
-      <c r="C451" s="45"/>
-      <c r="D451" s="45"/>
-      <c r="E451" s="45"/>
-      <c r="F451" s="45"/>
-      <c r="G451" s="45"/>
-      <c r="H451" s="45"/>
-      <c r="I451" s="45"/>
-      <c r="J451" s="45"/>
+      <c r="B451" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C451" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D451" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E451" s="142"/>
+      <c r="F451" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G451" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H451" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I451" s="45">
+        <v>298</v>
+      </c>
+      <c r="J451" s="45">
+        <f t="shared" si="17"/>
+        <v>201851851.85185099</v>
+      </c>
       <c r="K451" s="45"/>
-      <c r="L451" s="45"/>
-      <c r="M451" s="45"/>
-      <c r="N451" s="45"/>
+      <c r="L451" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M451" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N451" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O451" s="45"/>
-      <c r="P451" s="45"/>
+      <c r="P451" s="45">
+        <v>201.85185185185099</v>
+      </c>
       <c r="Q451" s="45"/>
       <c r="R451" s="45"/>
       <c r="S451" s="37"/>
@@ -23768,21 +24259,46 @@
     </row>
     <row r="452" spans="1:20" ht="15" customHeight="1">
       <c r="A452" s="45"/>
-      <c r="B452" s="45"/>
-      <c r="C452" s="45"/>
-      <c r="D452" s="45"/>
-      <c r="E452" s="45"/>
-      <c r="F452" s="45"/>
-      <c r="G452" s="45"/>
-      <c r="H452" s="45"/>
-      <c r="I452" s="45"/>
-      <c r="J452" s="45"/>
+      <c r="B452" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="C452" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D452" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E452" s="144"/>
+      <c r="F452" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G452" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H452" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I452" s="45">
+        <v>298</v>
+      </c>
+      <c r="J452" s="45">
+        <f t="shared" si="17"/>
+        <v>304166666.66666603</v>
+      </c>
       <c r="K452" s="45"/>
-      <c r="L452" s="45"/>
-      <c r="M452" s="45"/>
-      <c r="N452" s="45"/>
+      <c r="L452" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M452" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N452" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O452" s="45"/>
-      <c r="P452" s="45"/>
+      <c r="P452" s="45">
+        <v>304.166666666666</v>
+      </c>
       <c r="Q452" s="45"/>
       <c r="R452" s="45"/>
       <c r="S452" s="37"/>
@@ -23790,21 +24306,46 @@
     </row>
     <row r="453" spans="1:20" ht="15" customHeight="1">
       <c r="A453" s="45"/>
-      <c r="B453" s="45"/>
-      <c r="C453" s="45"/>
-      <c r="D453" s="45"/>
-      <c r="E453" s="45"/>
-      <c r="F453" s="45"/>
-      <c r="G453" s="45"/>
-      <c r="H453" s="45"/>
-      <c r="I453" s="45"/>
-      <c r="J453" s="45"/>
+      <c r="B453" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C453" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D453" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E453" s="144"/>
+      <c r="F453" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G453" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H453" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I453" s="45">
+        <v>298</v>
+      </c>
+      <c r="J453" s="45">
+        <f t="shared" si="17"/>
+        <v>330092592.592592</v>
+      </c>
       <c r="K453" s="45"/>
-      <c r="L453" s="45"/>
-      <c r="M453" s="45"/>
-      <c r="N453" s="45"/>
+      <c r="L453" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M453" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N453" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O453" s="45"/>
-      <c r="P453" s="45"/>
+      <c r="P453" s="45">
+        <v>330.09259259259198</v>
+      </c>
       <c r="Q453" s="45"/>
       <c r="R453" s="45"/>
       <c r="S453" s="37"/>
@@ -23812,21 +24353,46 @@
     </row>
     <row r="454" spans="1:20" ht="15" customHeight="1">
       <c r="A454" s="45"/>
-      <c r="B454" s="45"/>
-      <c r="C454" s="45"/>
-      <c r="D454" s="45"/>
-      <c r="E454" s="45"/>
-      <c r="F454" s="45"/>
-      <c r="G454" s="45"/>
-      <c r="H454" s="45"/>
-      <c r="I454" s="45"/>
-      <c r="J454" s="45"/>
+      <c r="B454" s="143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C454" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D454" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E454" s="144"/>
+      <c r="F454" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G454" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H454" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I454" s="45">
+        <v>298</v>
+      </c>
+      <c r="J454" s="45">
+        <f t="shared" si="17"/>
+        <v>383333333.33333296</v>
+      </c>
       <c r="K454" s="45"/>
-      <c r="L454" s="45"/>
-      <c r="M454" s="45"/>
-      <c r="N454" s="45"/>
+      <c r="L454" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M454" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N454" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O454" s="45"/>
-      <c r="P454" s="45"/>
+      <c r="P454" s="45">
+        <v>383.33333333333297</v>
+      </c>
       <c r="Q454" s="45"/>
       <c r="R454" s="45"/>
       <c r="S454" s="37"/>
@@ -23834,21 +24400,46 @@
     </row>
     <row r="455" spans="1:20" ht="15" customHeight="1">
       <c r="A455" s="45"/>
-      <c r="B455" s="45"/>
-      <c r="C455" s="45"/>
-      <c r="D455" s="45"/>
-      <c r="E455" s="45"/>
-      <c r="F455" s="45"/>
-      <c r="G455" s="45"/>
-      <c r="H455" s="45"/>
-      <c r="I455" s="45"/>
-      <c r="J455" s="45"/>
+      <c r="B455" s="143" t="s">
+        <v>339</v>
+      </c>
+      <c r="C455" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D455" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E455" s="144"/>
+      <c r="F455" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G455" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H455" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I455" s="45">
+        <v>298</v>
+      </c>
+      <c r="J455" s="45">
+        <f t="shared" si="17"/>
+        <v>406481481.48148102</v>
+      </c>
       <c r="K455" s="45"/>
-      <c r="L455" s="45"/>
-      <c r="M455" s="45"/>
-      <c r="N455" s="45"/>
+      <c r="L455" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M455" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N455" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O455" s="45"/>
-      <c r="P455" s="45"/>
+      <c r="P455" s="45">
+        <v>406.48148148148101</v>
+      </c>
       <c r="Q455" s="45"/>
       <c r="R455" s="45"/>
       <c r="S455" s="37"/>
@@ -23856,21 +24447,48 @@
     </row>
     <row r="456" spans="1:20" ht="15" customHeight="1">
       <c r="A456" s="45"/>
-      <c r="B456" s="45"/>
-      <c r="C456" s="45"/>
-      <c r="D456" s="45"/>
-      <c r="E456" s="45"/>
-      <c r="F456" s="45"/>
-      <c r="G456" s="45"/>
-      <c r="H456" s="45"/>
-      <c r="I456" s="45"/>
-      <c r="J456" s="45"/>
+      <c r="B456" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C456" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D456" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E456" s="144" t="s">
+        <v>341</v>
+      </c>
+      <c r="F456" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G456" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H456" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I456" s="45">
+        <v>298</v>
+      </c>
+      <c r="J456" s="45">
+        <f t="shared" si="17"/>
+        <v>394964028.77697802</v>
+      </c>
       <c r="K456" s="45"/>
-      <c r="L456" s="45"/>
-      <c r="M456" s="45"/>
-      <c r="N456" s="45"/>
+      <c r="L456" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M456" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N456" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O456" s="45"/>
-      <c r="P456" s="45"/>
+      <c r="P456" s="45">
+        <v>394.96402877697801</v>
+      </c>
       <c r="Q456" s="45"/>
       <c r="R456" s="45"/>
       <c r="S456" s="37"/>
@@ -23878,21 +24496,48 @@
     </row>
     <row r="457" spans="1:20" ht="15" customHeight="1">
       <c r="A457" s="45"/>
-      <c r="B457" s="45"/>
-      <c r="C457" s="45"/>
-      <c r="D457" s="45"/>
-      <c r="E457" s="45"/>
-      <c r="F457" s="45"/>
-      <c r="G457" s="45"/>
-      <c r="H457" s="45"/>
-      <c r="I457" s="45"/>
-      <c r="J457" s="45"/>
+      <c r="B457" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C457" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D457" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E457" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="F457" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G457" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H457" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I457" s="45">
+        <v>298</v>
+      </c>
+      <c r="J457" s="45">
+        <f t="shared" si="17"/>
+        <v>422302158.27338099</v>
+      </c>
       <c r="K457" s="45"/>
-      <c r="L457" s="45"/>
-      <c r="M457" s="45"/>
-      <c r="N457" s="45"/>
+      <c r="L457" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M457" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N457" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O457" s="45"/>
-      <c r="P457" s="45"/>
+      <c r="P457" s="45">
+        <v>422.302158273381</v>
+      </c>
       <c r="Q457" s="45"/>
       <c r="R457" s="45"/>
       <c r="S457" s="37"/>
@@ -23900,21 +24545,48 @@
     </row>
     <row r="458" spans="1:20" ht="15" customHeight="1">
       <c r="A458" s="45"/>
-      <c r="B458" s="45"/>
-      <c r="C458" s="45"/>
-      <c r="D458" s="45"/>
-      <c r="E458" s="45"/>
-      <c r="F458" s="45"/>
-      <c r="G458" s="45"/>
-      <c r="H458" s="45"/>
-      <c r="I458" s="45"/>
-      <c r="J458" s="45"/>
+      <c r="B458" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C458" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D458" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E458" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="F458" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G458" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H458" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I458" s="45">
+        <v>298</v>
+      </c>
+      <c r="J458" s="45">
+        <f t="shared" si="17"/>
+        <v>378776978.41726595</v>
+      </c>
       <c r="K458" s="45"/>
-      <c r="L458" s="45"/>
-      <c r="M458" s="45"/>
-      <c r="N458" s="45"/>
+      <c r="L458" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M458" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N458" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O458" s="45"/>
-      <c r="P458" s="45"/>
+      <c r="P458" s="45">
+        <v>378.77697841726598</v>
+      </c>
       <c r="Q458" s="45"/>
       <c r="R458" s="45"/>
       <c r="S458" s="37"/>
@@ -23922,21 +24594,48 @@
     </row>
     <row r="459" spans="1:20" ht="15" customHeight="1">
       <c r="A459" s="45"/>
-      <c r="B459" s="45"/>
-      <c r="C459" s="45"/>
-      <c r="D459" s="45"/>
-      <c r="E459" s="45"/>
-      <c r="F459" s="45"/>
-      <c r="G459" s="45"/>
-      <c r="H459" s="45"/>
-      <c r="I459" s="45"/>
-      <c r="J459" s="45"/>
+      <c r="B459" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C459" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D459" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E459" s="144" t="s">
+        <v>344</v>
+      </c>
+      <c r="F459" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G459" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H459" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I459" s="45">
+        <v>298</v>
+      </c>
+      <c r="J459" s="45">
+        <f t="shared" si="17"/>
+        <v>369064748.20143801</v>
+      </c>
       <c r="K459" s="45"/>
-      <c r="L459" s="45"/>
-      <c r="M459" s="45"/>
-      <c r="N459" s="45"/>
+      <c r="L459" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M459" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N459" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O459" s="45"/>
-      <c r="P459" s="45"/>
+      <c r="P459" s="45">
+        <v>369.06474820143802</v>
+      </c>
       <c r="Q459" s="45"/>
       <c r="R459" s="45"/>
       <c r="S459" s="37"/>
@@ -23944,219 +24643,520 @@
     </row>
     <row r="460" spans="1:20" ht="15" customHeight="1">
       <c r="A460" s="45"/>
-      <c r="B460" s="45"/>
-      <c r="C460" s="45"/>
-      <c r="D460" s="45"/>
-      <c r="E460" s="45"/>
-      <c r="F460" s="45"/>
-      <c r="G460" s="45"/>
-      <c r="H460" s="45"/>
-      <c r="I460" s="45"/>
-      <c r="J460" s="45"/>
-      <c r="K460" s="45"/>
-      <c r="L460" s="45"/>
-      <c r="M460" s="45"/>
-      <c r="N460" s="45"/>
+      <c r="B460" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C460" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D460" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E460" s="142"/>
+      <c r="F460" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G460" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H460" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I460" s="45">
+        <v>298</v>
+      </c>
+      <c r="J460" s="45">
+        <f>P460</f>
+        <v>71.398104265402793</v>
+      </c>
+      <c r="K460" s="45">
+        <f>Q460-P460</f>
+        <v>3.672985781990505</v>
+      </c>
+      <c r="L460" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M460" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N460" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O460" s="45"/>
-      <c r="P460" s="45"/>
-      <c r="Q460" s="45"/>
+      <c r="P460" s="45">
+        <v>71.398104265402793</v>
+      </c>
+      <c r="Q460" s="45">
+        <v>75.071090047393298</v>
+      </c>
       <c r="R460" s="45"/>
       <c r="S460" s="37"/>
       <c r="T460" s="37"/>
     </row>
     <row r="461" spans="1:20" ht="15" customHeight="1">
       <c r="A461" s="45"/>
-      <c r="B461" s="45"/>
-      <c r="C461" s="45"/>
-      <c r="D461" s="45"/>
-      <c r="E461" s="45"/>
-      <c r="F461" s="45"/>
-      <c r="G461" s="45"/>
-      <c r="H461" s="45"/>
-      <c r="I461" s="45"/>
-      <c r="J461" s="45"/>
-      <c r="K461" s="45"/>
-      <c r="L461" s="45"/>
-      <c r="M461" s="45"/>
-      <c r="N461" s="45"/>
+      <c r="B461" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="C461" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D461" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E461" s="144"/>
+      <c r="F461" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G461" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H461" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I461" s="45">
+        <v>298</v>
+      </c>
+      <c r="J461" s="45">
+        <f t="shared" ref="J461:J468" si="18">P461</f>
+        <v>44.265402843601898</v>
+      </c>
+      <c r="K461" s="45">
+        <f t="shared" ref="K461:K468" si="19">Q461-P461</f>
+        <v>2.251184834123201</v>
+      </c>
+      <c r="L461" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M461" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N461" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O461" s="45"/>
-      <c r="P461" s="45"/>
-      <c r="Q461" s="45"/>
+      <c r="P461" s="45">
+        <v>44.265402843601898</v>
+      </c>
+      <c r="Q461" s="45">
+        <v>46.516587677725099</v>
+      </c>
       <c r="R461" s="45"/>
       <c r="S461" s="37"/>
       <c r="T461" s="37"/>
     </row>
     <row r="462" spans="1:20" ht="15" customHeight="1">
       <c r="A462" s="45"/>
-      <c r="B462" s="45"/>
-      <c r="C462" s="45"/>
-      <c r="D462" s="45"/>
-      <c r="E462" s="45"/>
-      <c r="F462" s="45"/>
-      <c r="G462" s="45"/>
-      <c r="H462" s="45"/>
-      <c r="I462" s="45"/>
-      <c r="J462" s="45"/>
-      <c r="K462" s="45"/>
-      <c r="L462" s="45"/>
-      <c r="M462" s="45"/>
-      <c r="N462" s="45"/>
+      <c r="B462" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C462" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D462" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E462" s="144"/>
+      <c r="F462" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G462" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H462" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I462" s="45">
+        <v>298</v>
+      </c>
+      <c r="J462" s="45">
+        <f t="shared" si="18"/>
+        <v>52.144549763033098</v>
+      </c>
+      <c r="K462" s="45">
+        <f t="shared" si="19"/>
+        <v>2.6658767772511993</v>
+      </c>
+      <c r="L462" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M462" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N462" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O462" s="45"/>
-      <c r="P462" s="45"/>
-      <c r="Q462" s="45"/>
+      <c r="P462" s="45">
+        <v>52.144549763033098</v>
+      </c>
+      <c r="Q462" s="45">
+        <v>54.810426540284297</v>
+      </c>
       <c r="R462" s="45"/>
       <c r="S462" s="37"/>
       <c r="T462" s="37"/>
     </row>
     <row r="463" spans="1:20" ht="15" customHeight="1">
       <c r="A463" s="45"/>
-      <c r="B463" s="45"/>
-      <c r="C463" s="45"/>
-      <c r="D463" s="45"/>
-      <c r="E463" s="45"/>
-      <c r="F463" s="45"/>
-      <c r="G463" s="45"/>
-      <c r="H463" s="45"/>
-      <c r="I463" s="45"/>
-      <c r="J463" s="45"/>
-      <c r="K463" s="45"/>
-      <c r="L463" s="45"/>
-      <c r="M463" s="45"/>
-      <c r="N463" s="45"/>
+      <c r="B463" s="143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C463" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D463" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E463" s="144"/>
+      <c r="F463" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G463" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H463" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I463" s="45">
+        <v>298</v>
+      </c>
+      <c r="J463" s="45">
+        <f t="shared" si="18"/>
+        <v>43.139810426540201</v>
+      </c>
+      <c r="K463" s="45">
+        <f t="shared" si="19"/>
+        <v>2.1327014218010021</v>
+      </c>
+      <c r="L463" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M463" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N463" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O463" s="45"/>
-      <c r="P463" s="45"/>
-      <c r="Q463" s="45"/>
+      <c r="P463" s="45">
+        <v>43.139810426540201</v>
+      </c>
+      <c r="Q463" s="45">
+        <v>45.272511848341203</v>
+      </c>
       <c r="R463" s="45"/>
       <c r="S463" s="37"/>
       <c r="T463" s="37"/>
     </row>
     <row r="464" spans="1:20" ht="15" customHeight="1">
       <c r="A464" s="45"/>
-      <c r="B464" s="45"/>
-      <c r="C464" s="45"/>
-      <c r="D464" s="45"/>
-      <c r="E464" s="45"/>
-      <c r="F464" s="45"/>
-      <c r="G464" s="45"/>
-      <c r="H464" s="45"/>
-      <c r="I464" s="45"/>
-      <c r="J464" s="45"/>
-      <c r="K464" s="45"/>
-      <c r="L464" s="45"/>
-      <c r="M464" s="45"/>
-      <c r="N464" s="45"/>
+      <c r="B464" s="143" t="s">
+        <v>339</v>
+      </c>
+      <c r="C464" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D464" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E464" s="144"/>
+      <c r="F464" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G464" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H464" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I464" s="45">
+        <v>298</v>
+      </c>
+      <c r="J464" s="45">
+        <f t="shared" si="18"/>
+        <v>45.272511848341203</v>
+      </c>
+      <c r="K464" s="45">
+        <f t="shared" si="19"/>
+        <v>2.1327014218008955</v>
+      </c>
+      <c r="L464" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M464" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N464" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O464" s="45"/>
-      <c r="P464" s="45"/>
-      <c r="Q464" s="45"/>
+      <c r="P464" s="45">
+        <v>45.272511848341203</v>
+      </c>
+      <c r="Q464" s="45">
+        <v>47.405213270142099</v>
+      </c>
       <c r="R464" s="45"/>
       <c r="S464" s="37"/>
       <c r="T464" s="37"/>
     </row>
     <row r="465" spans="1:20" ht="15" customHeight="1">
       <c r="A465" s="45"/>
-      <c r="B465" s="45"/>
-      <c r="C465" s="45"/>
-      <c r="D465" s="45"/>
-      <c r="E465" s="45"/>
-      <c r="F465" s="45"/>
-      <c r="G465" s="45"/>
-      <c r="H465" s="45"/>
-      <c r="I465" s="45"/>
-      <c r="J465" s="45"/>
-      <c r="K465" s="45"/>
-      <c r="L465" s="45"/>
-      <c r="M465" s="45"/>
-      <c r="N465" s="45"/>
+      <c r="B465" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C465" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D465" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E465" s="144" t="s">
+        <v>341</v>
+      </c>
+      <c r="F465" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G465" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H465" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I465" s="45">
+        <v>298</v>
+      </c>
+      <c r="J465" s="45">
+        <f t="shared" si="18"/>
+        <v>44.3207126948775</v>
+      </c>
+      <c r="K465" s="45">
+        <f t="shared" si="19"/>
+        <v>2.0044543429844026</v>
+      </c>
+      <c r="L465" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M465" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N465" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O465" s="45"/>
-      <c r="P465" s="45"/>
-      <c r="Q465" s="45"/>
+      <c r="P465" s="45">
+        <v>44.3207126948775</v>
+      </c>
+      <c r="Q465" s="45">
+        <v>46.325167037861902</v>
+      </c>
       <c r="R465" s="45"/>
       <c r="S465" s="37"/>
       <c r="T465" s="37"/>
     </row>
     <row r="466" spans="1:20" ht="15" customHeight="1">
       <c r="A466" s="45"/>
-      <c r="B466" s="45"/>
-      <c r="C466" s="45"/>
-      <c r="D466" s="45"/>
-      <c r="E466" s="45"/>
-      <c r="F466" s="45"/>
-      <c r="G466" s="45"/>
-      <c r="H466" s="45"/>
-      <c r="I466" s="45"/>
-      <c r="J466" s="45"/>
-      <c r="K466" s="45"/>
-      <c r="L466" s="45"/>
-      <c r="M466" s="45"/>
-      <c r="N466" s="45"/>
+      <c r="B466" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C466" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D466" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E466" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="F466" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G466" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H466" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I466" s="45">
+        <v>298</v>
+      </c>
+      <c r="J466" s="45">
+        <f t="shared" si="18"/>
+        <v>37.238307349665902</v>
+      </c>
+      <c r="K466" s="45">
+        <f t="shared" si="19"/>
+        <v>1.8708240534520968</v>
+      </c>
+      <c r="L466" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M466" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N466" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O466" s="45"/>
-      <c r="P466" s="45"/>
-      <c r="Q466" s="45"/>
+      <c r="P466" s="45">
+        <v>37.238307349665902</v>
+      </c>
+      <c r="Q466" s="45">
+        <v>39.109131403117999</v>
+      </c>
       <c r="R466" s="45"/>
       <c r="S466" s="37"/>
       <c r="T466" s="37"/>
     </row>
     <row r="467" spans="1:20" ht="15" customHeight="1">
       <c r="A467" s="45"/>
-      <c r="B467" s="45"/>
-      <c r="C467" s="45"/>
-      <c r="D467" s="45"/>
-      <c r="E467" s="45"/>
-      <c r="F467" s="45"/>
-      <c r="G467" s="45"/>
-      <c r="H467" s="45"/>
-      <c r="I467" s="45"/>
-      <c r="J467" s="45"/>
-      <c r="K467" s="45"/>
-      <c r="L467" s="45"/>
-      <c r="M467" s="45"/>
-      <c r="N467" s="45"/>
+      <c r="B467" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C467" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D467" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E467" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="F467" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G467" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H467" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I467" s="45">
+        <v>298</v>
+      </c>
+      <c r="J467" s="45">
+        <f t="shared" si="18"/>
+        <v>53.140311804008903</v>
+      </c>
+      <c r="K467" s="45">
+        <f t="shared" si="19"/>
+        <v>2.538975501113498</v>
+      </c>
+      <c r="L467" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M467" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N467" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O467" s="45"/>
-      <c r="P467" s="45"/>
-      <c r="Q467" s="45"/>
+      <c r="P467" s="45">
+        <v>53.140311804008903</v>
+      </c>
+      <c r="Q467" s="45">
+        <v>55.679287305122401</v>
+      </c>
       <c r="R467" s="45"/>
       <c r="S467" s="37"/>
       <c r="T467" s="37"/>
     </row>
     <row r="468" spans="1:20" ht="15" customHeight="1">
       <c r="A468" s="45"/>
-      <c r="B468" s="45"/>
-      <c r="C468" s="45"/>
-      <c r="D468" s="45"/>
-      <c r="E468" s="45"/>
-      <c r="F468" s="45"/>
-      <c r="G468" s="45"/>
-      <c r="H468" s="45"/>
-      <c r="I468" s="45"/>
-      <c r="J468" s="45"/>
-      <c r="K468" s="45"/>
-      <c r="L468" s="45"/>
-      <c r="M468" s="45"/>
-      <c r="N468" s="45"/>
+      <c r="B468" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C468" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D468" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E468" s="144" t="s">
+        <v>344</v>
+      </c>
+      <c r="F468" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G468" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H468" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I468" s="45">
+        <v>298</v>
+      </c>
+      <c r="J468" s="45">
+        <f t="shared" si="18"/>
+        <v>54.342984409799499</v>
+      </c>
+      <c r="K468" s="45">
+        <f t="shared" si="19"/>
+        <v>2.6057906458797007</v>
+      </c>
+      <c r="L468" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M468" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="N468" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O468" s="45"/>
-      <c r="P468" s="45"/>
-      <c r="Q468" s="45"/>
+      <c r="P468" s="45">
+        <v>54.342984409799499</v>
+      </c>
+      <c r="Q468" s="45">
+        <v>56.948775055679199</v>
+      </c>
       <c r="R468" s="45"/>
       <c r="S468" s="37"/>
       <c r="T468" s="37"/>
     </row>
     <row r="469" spans="1:20" ht="15" customHeight="1">
       <c r="A469" s="45"/>
-      <c r="B469" s="45"/>
-      <c r="C469" s="45"/>
-      <c r="D469" s="45"/>
-      <c r="E469" s="45"/>
-      <c r="F469" s="45"/>
-      <c r="G469" s="45"/>
+      <c r="B469" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C469" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D469" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E469" s="142"/>
+      <c r="F469" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G469" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H469" s="45"/>
-      <c r="I469" s="45"/>
-      <c r="J469" s="45"/>
+      <c r="I469" s="45">
+        <v>298</v>
+      </c>
+      <c r="J469" s="45">
+        <f>P469*0.000001</f>
+        <v>1.16958525345622E-5</v>
+      </c>
       <c r="K469" s="45"/>
-      <c r="L469" s="45"/>
-      <c r="M469" s="45"/>
-      <c r="N469" s="45"/>
+      <c r="L469" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M469" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N469" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O469" s="45"/>
-      <c r="P469" s="45"/>
+      <c r="P469" s="45">
+        <v>11.695852534562199</v>
+      </c>
       <c r="Q469" s="45"/>
       <c r="R469" s="45"/>
       <c r="S469" s="37"/>
@@ -24164,21 +25164,44 @@
     </row>
     <row r="470" spans="1:20" ht="15" customHeight="1">
       <c r="A470" s="45"/>
-      <c r="B470" s="45"/>
-      <c r="C470" s="45"/>
-      <c r="D470" s="45"/>
-      <c r="E470" s="45"/>
-      <c r="F470" s="45"/>
-      <c r="G470" s="45"/>
+      <c r="B470" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="C470" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D470" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E470" s="144"/>
+      <c r="F470" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G470" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H470" s="45"/>
-      <c r="I470" s="45"/>
-      <c r="J470" s="45"/>
+      <c r="I470" s="45">
+        <v>298</v>
+      </c>
+      <c r="J470" s="45">
+        <f t="shared" ref="J470:J473" si="20">P470*0.000001</f>
+        <v>1.10967741935483E-5</v>
+      </c>
       <c r="K470" s="45"/>
-      <c r="L470" s="45"/>
-      <c r="M470" s="45"/>
-      <c r="N470" s="45"/>
+      <c r="L470" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M470" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N470" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O470" s="45"/>
-      <c r="P470" s="45"/>
+      <c r="P470" s="45">
+        <v>11.096774193548301</v>
+      </c>
       <c r="Q470" s="45"/>
       <c r="R470" s="45"/>
       <c r="S470" s="37"/>
@@ -24186,21 +25209,44 @@
     </row>
     <row r="471" spans="1:20" ht="15" customHeight="1">
       <c r="A471" s="45"/>
-      <c r="B471" s="45"/>
-      <c r="C471" s="45"/>
-      <c r="D471" s="45"/>
-      <c r="E471" s="45"/>
-      <c r="F471" s="45"/>
-      <c r="G471" s="45"/>
+      <c r="B471" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C471" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D471" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E471" s="144"/>
+      <c r="F471" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G471" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H471" s="45"/>
-      <c r="I471" s="45"/>
-      <c r="J471" s="45"/>
+      <c r="I471" s="45">
+        <v>298</v>
+      </c>
+      <c r="J471" s="45">
+        <f t="shared" si="20"/>
+        <v>8.9032258064516104E-6</v>
+      </c>
       <c r="K471" s="45"/>
-      <c r="L471" s="45"/>
-      <c r="M471" s="45"/>
-      <c r="N471" s="45"/>
+      <c r="L471" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M471" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N471" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O471" s="45"/>
-      <c r="P471" s="45"/>
+      <c r="P471" s="45">
+        <v>8.9032258064516103</v>
+      </c>
       <c r="Q471" s="45"/>
       <c r="R471" s="45"/>
       <c r="S471" s="37"/>
@@ -24208,21 +25254,44 @@
     </row>
     <row r="472" spans="1:20" ht="15" customHeight="1">
       <c r="A472" s="45"/>
-      <c r="B472" s="45"/>
-      <c r="C472" s="45"/>
-      <c r="D472" s="45"/>
-      <c r="E472" s="45"/>
-      <c r="F472" s="45"/>
-      <c r="G472" s="45"/>
+      <c r="B472" s="143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C472" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D472" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E472" s="144"/>
+      <c r="F472" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G472" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H472" s="45"/>
-      <c r="I472" s="45"/>
-      <c r="J472" s="45"/>
+      <c r="I472" s="45">
+        <v>298</v>
+      </c>
+      <c r="J472" s="45">
+        <f t="shared" si="20"/>
+        <v>8.5069124423963088E-6</v>
+      </c>
       <c r="K472" s="45"/>
-      <c r="L472" s="45"/>
-      <c r="M472" s="45"/>
-      <c r="N472" s="45"/>
+      <c r="L472" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M472" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N472" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O472" s="45"/>
-      <c r="P472" s="45"/>
+      <c r="P472" s="45">
+        <v>8.5069124423963096</v>
+      </c>
       <c r="Q472" s="45"/>
       <c r="R472" s="45"/>
       <c r="S472" s="37"/>
@@ -24230,21 +25299,44 @@
     </row>
     <row r="473" spans="1:20" ht="15" customHeight="1">
       <c r="A473" s="45"/>
-      <c r="B473" s="45"/>
-      <c r="C473" s="45"/>
-      <c r="D473" s="45"/>
-      <c r="E473" s="45"/>
-      <c r="F473" s="45"/>
-      <c r="G473" s="45"/>
+      <c r="B473" s="143" t="s">
+        <v>339</v>
+      </c>
+      <c r="C473" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D473" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E473" s="144"/>
+      <c r="F473" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G473" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H473" s="45"/>
-      <c r="I473" s="45"/>
-      <c r="J473" s="45"/>
+      <c r="I473" s="45">
+        <v>298</v>
+      </c>
+      <c r="J473" s="45">
+        <f t="shared" si="20"/>
+        <v>8.2027649769585199E-6</v>
+      </c>
       <c r="K473" s="45"/>
-      <c r="L473" s="45"/>
-      <c r="M473" s="45"/>
-      <c r="N473" s="45"/>
+      <c r="L473" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M473" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N473" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O473" s="45"/>
-      <c r="P473" s="45"/>
+      <c r="P473" s="45">
+        <v>8.2027649769585196</v>
+      </c>
       <c r="Q473" s="45"/>
       <c r="R473" s="45"/>
       <c r="S473" s="37"/>
@@ -24252,21 +25344,44 @@
     </row>
     <row r="474" spans="1:20" ht="15" customHeight="1">
       <c r="A474" s="45"/>
-      <c r="B474" s="45"/>
-      <c r="C474" s="45"/>
-      <c r="D474" s="45"/>
-      <c r="E474" s="45"/>
-      <c r="F474" s="45"/>
-      <c r="G474" s="45"/>
+      <c r="B474" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C474" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D474" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E474" s="142"/>
+      <c r="F474" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G474" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H474" s="45"/>
-      <c r="I474" s="45"/>
-      <c r="J474" s="45"/>
+      <c r="I474" s="45">
+        <v>298</v>
+      </c>
+      <c r="J474" s="45">
+        <f>P474*0.00000001</f>
+        <v>1.45059717698154E-7</v>
+      </c>
       <c r="K474" s="45"/>
-      <c r="L474" s="45"/>
-      <c r="M474" s="45"/>
-      <c r="N474" s="45"/>
+      <c r="L474" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M474" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N474" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O474" s="45"/>
-      <c r="P474" s="45"/>
+      <c r="P474" s="45">
+        <v>14.5059717698154</v>
+      </c>
       <c r="Q474" s="45"/>
       <c r="R474" s="45"/>
       <c r="S474" s="37"/>
@@ -24274,21 +25389,44 @@
     </row>
     <row r="475" spans="1:20" ht="15" customHeight="1">
       <c r="A475" s="45"/>
-      <c r="B475" s="45"/>
-      <c r="C475" s="45"/>
-      <c r="D475" s="45"/>
-      <c r="E475" s="45"/>
-      <c r="F475" s="45"/>
-      <c r="G475" s="45"/>
+      <c r="B475" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="C475" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D475" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E475" s="144"/>
+      <c r="F475" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G475" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H475" s="45"/>
-      <c r="I475" s="45"/>
-      <c r="J475" s="45"/>
+      <c r="I475" s="45">
+        <v>298</v>
+      </c>
+      <c r="J475" s="45">
+        <f t="shared" ref="J475:J478" si="21">P475*0.00000001</f>
+        <v>2.8751357220412504E-7</v>
+      </c>
       <c r="K475" s="45"/>
-      <c r="L475" s="45"/>
-      <c r="M475" s="45"/>
-      <c r="N475" s="45"/>
+      <c r="L475" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M475" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N475" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O475" s="45"/>
-      <c r="P475" s="45"/>
+      <c r="P475" s="45">
+        <v>28.751357220412501</v>
+      </c>
       <c r="Q475" s="45"/>
       <c r="R475" s="45"/>
       <c r="S475" s="37"/>
@@ -24296,21 +25434,44 @@
     </row>
     <row r="476" spans="1:20" ht="15" customHeight="1">
       <c r="A476" s="45"/>
-      <c r="B476" s="45"/>
-      <c r="C476" s="45"/>
-      <c r="D476" s="45"/>
-      <c r="E476" s="45"/>
-      <c r="F476" s="45"/>
-      <c r="G476" s="45"/>
+      <c r="B476" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C476" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D476" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E476" s="144"/>
+      <c r="F476" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G476" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H476" s="45"/>
-      <c r="I476" s="45"/>
-      <c r="J476" s="45"/>
+      <c r="I476" s="45">
+        <v>298</v>
+      </c>
+      <c r="J476" s="45">
+        <f t="shared" si="21"/>
+        <v>4.6992399565689396E-7</v>
+      </c>
       <c r="K476" s="45"/>
-      <c r="L476" s="45"/>
-      <c r="M476" s="45"/>
-      <c r="N476" s="45"/>
+      <c r="L476" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M476" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N476" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O476" s="45"/>
-      <c r="P476" s="45"/>
+      <c r="P476" s="45">
+        <v>46.992399565689396</v>
+      </c>
       <c r="Q476" s="45"/>
       <c r="R476" s="45"/>
       <c r="S476" s="37"/>
@@ -24318,21 +25479,44 @@
     </row>
     <row r="477" spans="1:20" ht="15" customHeight="1">
       <c r="A477" s="45"/>
-      <c r="B477" s="45"/>
-      <c r="C477" s="45"/>
-      <c r="D477" s="45"/>
-      <c r="E477" s="45"/>
-      <c r="F477" s="45"/>
-      <c r="G477" s="45"/>
+      <c r="B477" s="143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C477" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D477" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E477" s="144"/>
+      <c r="F477" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G477" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H477" s="45"/>
-      <c r="I477" s="45"/>
-      <c r="J477" s="45"/>
+      <c r="I477" s="45">
+        <v>298</v>
+      </c>
+      <c r="J477" s="45">
+        <f t="shared" si="21"/>
+        <v>5.8371335504885895E-7</v>
+      </c>
       <c r="K477" s="45"/>
-      <c r="L477" s="45"/>
-      <c r="M477" s="45"/>
-      <c r="N477" s="45"/>
+      <c r="L477" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M477" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N477" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O477" s="45"/>
-      <c r="P477" s="45"/>
+      <c r="P477" s="45">
+        <v>58.371335504885899</v>
+      </c>
       <c r="Q477" s="45"/>
       <c r="R477" s="45"/>
       <c r="S477" s="37"/>
@@ -24340,21 +25524,44 @@
     </row>
     <row r="478" spans="1:20" ht="15" customHeight="1">
       <c r="A478" s="45"/>
-      <c r="B478" s="45"/>
-      <c r="C478" s="45"/>
-      <c r="D478" s="45"/>
-      <c r="E478" s="45"/>
-      <c r="F478" s="45"/>
-      <c r="G478" s="45"/>
+      <c r="B478" s="143" t="s">
+        <v>339</v>
+      </c>
+      <c r="C478" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D478" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E478" s="144"/>
+      <c r="F478" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G478" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H478" s="45"/>
-      <c r="I478" s="45"/>
-      <c r="J478" s="45"/>
+      <c r="I478" s="45">
+        <v>298</v>
+      </c>
+      <c r="J478" s="45">
+        <f t="shared" si="21"/>
+        <v>7.3051031487513503E-7</v>
+      </c>
       <c r="K478" s="45"/>
-      <c r="L478" s="45"/>
-      <c r="M478" s="45"/>
-      <c r="N478" s="45"/>
+      <c r="L478" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M478" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="N478" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O478" s="45"/>
-      <c r="P478" s="45"/>
+      <c r="P478" s="45">
+        <v>73.051031487513498</v>
+      </c>
       <c r="Q478" s="45"/>
       <c r="R478" s="45"/>
       <c r="S478" s="37"/>
@@ -24362,19 +25569,39 @@
     </row>
     <row r="479" spans="1:20" ht="15" customHeight="1">
       <c r="A479" s="45"/>
-      <c r="B479" s="45"/>
-      <c r="C479" s="45"/>
-      <c r="D479" s="45"/>
-      <c r="E479" s="45"/>
-      <c r="F479" s="45"/>
-      <c r="G479" s="45"/>
+      <c r="B479" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C479" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D479" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E479" s="142"/>
+      <c r="F479" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G479" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H479" s="45"/>
-      <c r="I479" s="45"/>
-      <c r="J479" s="45"/>
+      <c r="I479" s="45">
+        <v>298</v>
+      </c>
+      <c r="J479" s="45">
+        <v>1.61009708737864</v>
+      </c>
       <c r="K479" s="45"/>
-      <c r="L479" s="45"/>
-      <c r="M479" s="45"/>
-      <c r="N479" s="45"/>
+      <c r="L479" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M479" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N479" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O479" s="45"/>
       <c r="P479" s="45"/>
       <c r="Q479" s="45"/>
@@ -24384,19 +25611,39 @@
     </row>
     <row r="480" spans="1:20" ht="15" customHeight="1">
       <c r="A480" s="45"/>
-      <c r="B480" s="45"/>
-      <c r="C480" s="45"/>
-      <c r="D480" s="45"/>
-      <c r="E480" s="45"/>
-      <c r="F480" s="45"/>
-      <c r="G480" s="45"/>
+      <c r="B480" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="C480" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D480" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E480" s="144"/>
+      <c r="F480" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G480" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H480" s="45"/>
-      <c r="I480" s="45"/>
-      <c r="J480" s="45"/>
+      <c r="I480" s="45">
+        <v>298</v>
+      </c>
+      <c r="J480" s="45">
+        <v>1.53165048543689</v>
+      </c>
       <c r="K480" s="45"/>
-      <c r="L480" s="45"/>
-      <c r="M480" s="45"/>
-      <c r="N480" s="45"/>
+      <c r="L480" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M480" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N480" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O480" s="45"/>
       <c r="P480" s="45"/>
       <c r="Q480" s="45"/>
@@ -24406,19 +25653,39 @@
     </row>
     <row r="481" spans="1:20" ht="15" customHeight="1">
       <c r="A481" s="45"/>
-      <c r="B481" s="45"/>
-      <c r="C481" s="45"/>
-      <c r="D481" s="45"/>
-      <c r="E481" s="45"/>
-      <c r="F481" s="45"/>
-      <c r="G481" s="45"/>
+      <c r="B481" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C481" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D481" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E481" s="144"/>
+      <c r="F481" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G481" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H481" s="45"/>
-      <c r="I481" s="45"/>
-      <c r="J481" s="45"/>
+      <c r="I481" s="45">
+        <v>298</v>
+      </c>
+      <c r="J481" s="45">
+        <v>1.44</v>
+      </c>
       <c r="K481" s="45"/>
-      <c r="L481" s="45"/>
-      <c r="M481" s="45"/>
-      <c r="N481" s="45"/>
+      <c r="L481" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M481" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N481" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O481" s="45"/>
       <c r="P481" s="45"/>
       <c r="Q481" s="45"/>
@@ -24428,19 +25695,39 @@
     </row>
     <row r="482" spans="1:20" ht="15" customHeight="1">
       <c r="A482" s="45"/>
-      <c r="B482" s="45"/>
-      <c r="C482" s="45"/>
-      <c r="D482" s="45"/>
-      <c r="E482" s="45"/>
-      <c r="F482" s="45"/>
-      <c r="G482" s="45"/>
+      <c r="B482" s="143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C482" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D482" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E482" s="144"/>
+      <c r="F482" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G482" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H482" s="45"/>
-      <c r="I482" s="45"/>
-      <c r="J482" s="45"/>
+      <c r="I482" s="45">
+        <v>298</v>
+      </c>
+      <c r="J482" s="45">
+        <v>1.3398058252427101</v>
+      </c>
       <c r="K482" s="45"/>
-      <c r="L482" s="45"/>
-      <c r="M482" s="45"/>
-      <c r="N482" s="45"/>
+      <c r="L482" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M482" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N482" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O482" s="45"/>
       <c r="P482" s="45"/>
       <c r="Q482" s="45"/>
@@ -24450,19 +25737,39 @@
     </row>
     <row r="483" spans="1:20" ht="15" customHeight="1">
       <c r="A483" s="45"/>
-      <c r="B483" s="45"/>
-      <c r="C483" s="45"/>
-      <c r="D483" s="45"/>
-      <c r="E483" s="45"/>
-      <c r="F483" s="45"/>
-      <c r="G483" s="45"/>
+      <c r="B483" s="143" t="s">
+        <v>339</v>
+      </c>
+      <c r="C483" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D483" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E483" s="144"/>
+      <c r="F483" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G483" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H483" s="45"/>
-      <c r="I483" s="45"/>
-      <c r="J483" s="45"/>
+      <c r="I483" s="45">
+        <v>298</v>
+      </c>
+      <c r="J483" s="45">
+        <v>1.20077669902912</v>
+      </c>
       <c r="K483" s="45"/>
-      <c r="L483" s="45"/>
-      <c r="M483" s="45"/>
-      <c r="N483" s="45"/>
+      <c r="L483" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M483" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N483" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O483" s="45"/>
       <c r="P483" s="45"/>
       <c r="Q483" s="45"/>
@@ -24472,19 +25779,41 @@
     </row>
     <row r="484" spans="1:20" ht="15" customHeight="1">
       <c r="A484" s="45"/>
-      <c r="B484" s="45"/>
-      <c r="C484" s="45"/>
-      <c r="D484" s="45"/>
-      <c r="E484" s="45"/>
-      <c r="F484" s="45"/>
-      <c r="G484" s="45"/>
+      <c r="B484" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C484" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D484" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E484" s="144" t="s">
+        <v>341</v>
+      </c>
+      <c r="F484" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G484" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H484" s="45"/>
-      <c r="I484" s="45"/>
-      <c r="J484" s="45"/>
+      <c r="I484" s="45">
+        <v>298</v>
+      </c>
+      <c r="J484" s="45">
+        <v>1.47986577181208</v>
+      </c>
       <c r="K484" s="45"/>
-      <c r="L484" s="45"/>
-      <c r="M484" s="45"/>
-      <c r="N484" s="45"/>
+      <c r="L484" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M484" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N484" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O484" s="45"/>
       <c r="P484" s="45"/>
       <c r="Q484" s="45"/>
@@ -24494,19 +25823,41 @@
     </row>
     <row r="485" spans="1:20" ht="15" customHeight="1">
       <c r="A485" s="45"/>
-      <c r="B485" s="45"/>
-      <c r="C485" s="45"/>
-      <c r="D485" s="45"/>
-      <c r="E485" s="45"/>
-      <c r="F485" s="45"/>
-      <c r="G485" s="45"/>
+      <c r="B485" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C485" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D485" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E485" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="F485" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G485" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H485" s="45"/>
-      <c r="I485" s="45"/>
-      <c r="J485" s="45"/>
+      <c r="I485" s="45">
+        <v>298</v>
+      </c>
+      <c r="J485" s="45">
+        <v>1.4899328859060399</v>
+      </c>
       <c r="K485" s="45"/>
-      <c r="L485" s="45"/>
-      <c r="M485" s="45"/>
-      <c r="N485" s="45"/>
+      <c r="L485" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M485" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N485" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O485" s="45"/>
       <c r="P485" s="45"/>
       <c r="Q485" s="45"/>
@@ -24516,19 +25867,41 @@
     </row>
     <row r="486" spans="1:20" ht="15" customHeight="1">
       <c r="A486" s="45"/>
-      <c r="B486" s="45"/>
-      <c r="C486" s="45"/>
-      <c r="D486" s="45"/>
-      <c r="E486" s="45"/>
-      <c r="F486" s="45"/>
-      <c r="G486" s="45"/>
+      <c r="B486" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C486" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D486" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E486" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="F486" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G486" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H486" s="45"/>
-      <c r="I486" s="45"/>
-      <c r="J486" s="45"/>
+      <c r="I486" s="45">
+        <v>298</v>
+      </c>
+      <c r="J486" s="45">
+        <v>1.50013422818791</v>
+      </c>
       <c r="K486" s="45"/>
-      <c r="L486" s="45"/>
-      <c r="M486" s="45"/>
-      <c r="N486" s="45"/>
+      <c r="L486" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M486" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N486" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O486" s="45"/>
       <c r="P486" s="45"/>
       <c r="Q486" s="45"/>
@@ -24538,19 +25911,41 @@
     </row>
     <row r="487" spans="1:20" ht="15" customHeight="1">
       <c r="A487" s="45"/>
-      <c r="B487" s="45"/>
-      <c r="C487" s="45"/>
-      <c r="D487" s="45"/>
-      <c r="E487" s="45"/>
-      <c r="F487" s="45"/>
-      <c r="G487" s="45"/>
+      <c r="B487" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C487" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D487" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="E487" s="144" t="s">
+        <v>344</v>
+      </c>
+      <c r="F487" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G487" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="H487" s="45"/>
-      <c r="I487" s="45"/>
-      <c r="J487" s="45"/>
+      <c r="I487" s="45">
+        <v>298</v>
+      </c>
+      <c r="J487" s="45">
+        <v>1.5102013422818701</v>
+      </c>
       <c r="K487" s="45"/>
-      <c r="L487" s="45"/>
-      <c r="M487" s="45"/>
-      <c r="N487" s="45"/>
+      <c r="L487" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M487" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N487" s="61" t="s">
+        <v>334</v>
+      </c>
       <c r="O487" s="45"/>
       <c r="P487" s="45"/>
       <c r="Q487" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6491649-20B0-E541-8008-C773742055AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988B181-5DB3-E54C-80A5-3028F5F6B31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,10 +1174,10 @@
     <t>F8</t>
   </si>
   <si>
-    <t>saturation induction</t>
+    <t>5e-4 strain rate</t>
   </si>
   <si>
-    <t>5e-4 strain rate</t>
+    <t>saturation magnetic induction</t>
   </si>
 </sst>
 </file>
@@ -3669,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A430" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H477" sqref="H477"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A464" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J500" sqref="J500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -23798,7 +23798,7 @@
         <v>29</v>
       </c>
       <c r="H442" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I442" s="45">
         <v>298</v>
@@ -23845,7 +23845,7 @@
         <v>29</v>
       </c>
       <c r="H443" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I443" s="45">
         <v>298</v>
@@ -23892,7 +23892,7 @@
         <v>29</v>
       </c>
       <c r="H444" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I444" s="45">
         <v>298</v>
@@ -23939,7 +23939,7 @@
         <v>29</v>
       </c>
       <c r="H445" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I445" s="45">
         <v>298</v>
@@ -23986,7 +23986,7 @@
         <v>29</v>
       </c>
       <c r="H446" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I446" s="45">
         <v>298</v>
@@ -24035,7 +24035,7 @@
         <v>29</v>
       </c>
       <c r="H447" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I447" s="45">
         <v>298</v>
@@ -24084,7 +24084,7 @@
         <v>29</v>
       </c>
       <c r="H448" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I448" s="45">
         <v>298</v>
@@ -24133,7 +24133,7 @@
         <v>29</v>
       </c>
       <c r="H449" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I449" s="45">
         <v>298</v>
@@ -24182,7 +24182,7 @@
         <v>29</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I450" s="45">
         <v>298</v>
@@ -24229,7 +24229,7 @@
         <v>29</v>
       </c>
       <c r="H451" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I451" s="45">
         <v>298</v>
@@ -24276,7 +24276,7 @@
         <v>29</v>
       </c>
       <c r="H452" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I452" s="45">
         <v>298</v>
@@ -24323,7 +24323,7 @@
         <v>29</v>
       </c>
       <c r="H453" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I453" s="45">
         <v>298</v>
@@ -24370,7 +24370,7 @@
         <v>29</v>
       </c>
       <c r="H454" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I454" s="45">
         <v>298</v>
@@ -24417,7 +24417,7 @@
         <v>29</v>
       </c>
       <c r="H455" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I455" s="45">
         <v>298</v>
@@ -24466,7 +24466,7 @@
         <v>29</v>
       </c>
       <c r="H456" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I456" s="45">
         <v>298</v>
@@ -24515,7 +24515,7 @@
         <v>29</v>
       </c>
       <c r="H457" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I457" s="45">
         <v>298</v>
@@ -24564,7 +24564,7 @@
         <v>29</v>
       </c>
       <c r="H458" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I458" s="45">
         <v>298</v>
@@ -24613,7 +24613,7 @@
         <v>29</v>
       </c>
       <c r="H459" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I459" s="45">
         <v>298</v>
@@ -24660,7 +24660,7 @@
         <v>29</v>
       </c>
       <c r="H460" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I460" s="45">
         <v>298</v>
@@ -24712,7 +24712,7 @@
         <v>29</v>
       </c>
       <c r="H461" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I461" s="45">
         <v>298</v>
@@ -24764,7 +24764,7 @@
         <v>29</v>
       </c>
       <c r="H462" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I462" s="45">
         <v>298</v>
@@ -24816,7 +24816,7 @@
         <v>29</v>
       </c>
       <c r="H463" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I463" s="45">
         <v>298</v>
@@ -24868,7 +24868,7 @@
         <v>29</v>
       </c>
       <c r="H464" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I464" s="45">
         <v>298</v>
@@ -24922,7 +24922,7 @@
         <v>29</v>
       </c>
       <c r="H465" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I465" s="45">
         <v>298</v>
@@ -24976,7 +24976,7 @@
         <v>29</v>
       </c>
       <c r="H466" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I466" s="45">
         <v>298</v>
@@ -25030,7 +25030,7 @@
         <v>29</v>
       </c>
       <c r="H467" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I467" s="45">
         <v>298</v>
@@ -25084,7 +25084,7 @@
         <v>29</v>
       </c>
       <c r="H468" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I468" s="45">
         <v>298</v>
@@ -25580,7 +25580,7 @@
       </c>
       <c r="E479" s="142"/>
       <c r="F479" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G479" s="61" t="s">
         <v>29</v>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="E480" s="144"/>
       <c r="F480" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G480" s="61" t="s">
         <v>29</v>
@@ -25664,7 +25664,7 @@
       </c>
       <c r="E481" s="144"/>
       <c r="F481" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G481" s="61" t="s">
         <v>29</v>
@@ -25706,7 +25706,7 @@
       </c>
       <c r="E482" s="144"/>
       <c r="F482" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G482" s="61" t="s">
         <v>29</v>
@@ -25748,7 +25748,7 @@
       </c>
       <c r="E483" s="144"/>
       <c r="F483" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G483" s="61" t="s">
         <v>29</v>
@@ -25792,7 +25792,7 @@
         <v>341</v>
       </c>
       <c r="F484" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G484" s="61" t="s">
         <v>29</v>
@@ -25836,7 +25836,7 @@
         <v>342</v>
       </c>
       <c r="F485" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G485" s="61" t="s">
         <v>29</v>
@@ -25880,7 +25880,7 @@
         <v>343</v>
       </c>
       <c r="F486" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G486" s="61" t="s">
         <v>29</v>
@@ -25924,7 +25924,7 @@
         <v>344</v>
       </c>
       <c r="F487" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G487" s="61" t="s">
         <v>29</v>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988B181-5DB3-E54C-80A5-3028F5F6B31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C91EB-0A3C-334E-B2F5-635053051C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="351">
   <si>
     <r>
       <rPr>
@@ -1178,6 +1178,12 @@
   </si>
   <si>
     <t>saturation magnetic induction</t>
+  </si>
+  <si>
+    <t>F11a</t>
+  </si>
+  <si>
+    <t>F11b</t>
   </si>
 </sst>
 </file>
@@ -3667,10 +3673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T962"/>
+  <dimension ref="A1:T961"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A464" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J500" sqref="J500"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A457" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N504" sqref="N504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -25955,19 +25961,41 @@
     </row>
     <row r="488" spans="1:20" ht="15" customHeight="1">
       <c r="A488" s="45"/>
-      <c r="B488" s="45"/>
-      <c r="C488" s="45"/>
-      <c r="D488" s="45"/>
-      <c r="E488" s="45"/>
-      <c r="F488" s="45"/>
-      <c r="G488" s="45"/>
+      <c r="B488" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C488" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D488" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E488" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F488" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G488" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H488" s="45"/>
-      <c r="I488" s="45"/>
-      <c r="J488" s="45"/>
+      <c r="I488" s="45">
+        <v>300</v>
+      </c>
+      <c r="J488" s="45">
+        <v>2.9702970297029702E-2</v>
+      </c>
       <c r="K488" s="45"/>
-      <c r="L488" s="45"/>
-      <c r="M488" s="45"/>
-      <c r="N488" s="45"/>
+      <c r="L488" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M488" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="N488" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O488" s="45"/>
       <c r="P488" s="45"/>
       <c r="Q488" s="45"/>
@@ -25977,19 +26005,41 @@
     </row>
     <row r="489" spans="1:20" ht="15" customHeight="1">
       <c r="A489" s="45"/>
-      <c r="B489" s="45"/>
-      <c r="C489" s="45"/>
-      <c r="D489" s="45"/>
-      <c r="E489" s="45"/>
-      <c r="F489" s="45"/>
-      <c r="G489" s="45"/>
+      <c r="B489" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C489" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D489" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E489" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F489" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G489" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H489" s="45"/>
-      <c r="I489" s="45"/>
-      <c r="J489" s="45"/>
+      <c r="I489" s="45">
+        <v>300</v>
+      </c>
+      <c r="J489" s="45">
+        <v>0.14172560113154101</v>
+      </c>
       <c r="K489" s="45"/>
-      <c r="L489" s="45"/>
-      <c r="M489" s="45"/>
-      <c r="N489" s="45"/>
+      <c r="L489" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M489" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="N489" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O489" s="45"/>
       <c r="P489" s="45"/>
       <c r="Q489" s="45"/>
@@ -25999,19 +26049,41 @@
     </row>
     <row r="490" spans="1:20" ht="15" customHeight="1">
       <c r="A490" s="45"/>
-      <c r="B490" s="45"/>
-      <c r="C490" s="45"/>
-      <c r="D490" s="45"/>
-      <c r="E490" s="45"/>
-      <c r="F490" s="45"/>
-      <c r="G490" s="45"/>
+      <c r="B490" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C490" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D490" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E490" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F490" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G490" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H490" s="45"/>
-      <c r="I490" s="45"/>
-      <c r="J490" s="45"/>
+      <c r="I490" s="45">
+        <v>300</v>
+      </c>
+      <c r="J490" s="45">
+        <v>0.31485148514851402</v>
+      </c>
       <c r="K490" s="45"/>
-      <c r="L490" s="45"/>
-      <c r="M490" s="45"/>
-      <c r="N490" s="45"/>
+      <c r="L490" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M490" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="N490" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O490" s="45"/>
       <c r="P490" s="45"/>
       <c r="Q490" s="45"/>
@@ -26021,19 +26093,41 @@
     </row>
     <row r="491" spans="1:20" ht="15" customHeight="1">
       <c r="A491" s="45"/>
-      <c r="B491" s="45"/>
-      <c r="C491" s="45"/>
-      <c r="D491" s="45"/>
-      <c r="E491" s="45"/>
-      <c r="F491" s="45"/>
-      <c r="G491" s="45"/>
+      <c r="B491" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C491" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D491" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E491" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F491" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G491" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H491" s="45"/>
-      <c r="I491" s="45"/>
-      <c r="J491" s="45"/>
+      <c r="I491" s="45">
+        <v>300</v>
+      </c>
+      <c r="J491" s="45">
+        <v>0.481188118811881</v>
+      </c>
       <c r="K491" s="45"/>
-      <c r="L491" s="45"/>
-      <c r="M491" s="45"/>
-      <c r="N491" s="45"/>
+      <c r="L491" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M491" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="N491" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O491" s="45"/>
       <c r="P491" s="45"/>
       <c r="Q491" s="45"/>
@@ -26043,19 +26137,41 @@
     </row>
     <row r="492" spans="1:20" ht="15" customHeight="1">
       <c r="A492" s="45"/>
-      <c r="B492" s="45"/>
-      <c r="C492" s="45"/>
-      <c r="D492" s="45"/>
-      <c r="E492" s="45"/>
-      <c r="F492" s="45"/>
-      <c r="G492" s="45"/>
+      <c r="B492" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C492" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D492" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E492" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F492" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G492" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H492" s="45"/>
-      <c r="I492" s="45"/>
-      <c r="J492" s="45"/>
+      <c r="I492" s="45">
+        <v>300</v>
+      </c>
+      <c r="J492" s="45">
+        <v>0.53974540311173902</v>
+      </c>
       <c r="K492" s="45"/>
-      <c r="L492" s="45"/>
-      <c r="M492" s="45"/>
-      <c r="N492" s="45"/>
+      <c r="L492" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M492" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="N492" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O492" s="45"/>
       <c r="P492" s="45"/>
       <c r="Q492" s="45"/>
@@ -26065,19 +26181,41 @@
     </row>
     <row r="493" spans="1:20" ht="15" customHeight="1">
       <c r="A493" s="45"/>
-      <c r="B493" s="45"/>
-      <c r="C493" s="45"/>
-      <c r="D493" s="45"/>
-      <c r="E493" s="45"/>
-      <c r="F493" s="45"/>
-      <c r="G493" s="45"/>
+      <c r="B493" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C493" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D493" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E493" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F493" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G493" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H493" s="45"/>
-      <c r="I493" s="45"/>
-      <c r="J493" s="45"/>
+      <c r="I493" s="45">
+        <v>5</v>
+      </c>
+      <c r="J493" s="45">
+        <v>0.63878787878787802</v>
+      </c>
       <c r="K493" s="45"/>
-      <c r="L493" s="45"/>
-      <c r="M493" s="45"/>
-      <c r="N493" s="45"/>
+      <c r="L493" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M493" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N493" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O493" s="45"/>
       <c r="P493" s="45"/>
       <c r="Q493" s="45"/>
@@ -26087,19 +26225,41 @@
     </row>
     <row r="494" spans="1:20" ht="15" customHeight="1">
       <c r="A494" s="45"/>
-      <c r="B494" s="45"/>
-      <c r="C494" s="45"/>
-      <c r="D494" s="45"/>
-      <c r="E494" s="45"/>
-      <c r="F494" s="45"/>
-      <c r="G494" s="45"/>
+      <c r="B494" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C494" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D494" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E494" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F494" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G494" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H494" s="45"/>
-      <c r="I494" s="45"/>
-      <c r="J494" s="45"/>
+      <c r="I494" s="45">
+        <v>100</v>
+      </c>
+      <c r="J494" s="45">
+        <v>0.61939393939393905</v>
+      </c>
       <c r="K494" s="45"/>
-      <c r="L494" s="45"/>
-      <c r="M494" s="45"/>
-      <c r="N494" s="45"/>
+      <c r="L494" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M494" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N494" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O494" s="45"/>
       <c r="P494" s="45"/>
       <c r="Q494" s="45"/>
@@ -26109,19 +26269,41 @@
     </row>
     <row r="495" spans="1:20" ht="15" customHeight="1">
       <c r="A495" s="45"/>
-      <c r="B495" s="45"/>
-      <c r="C495" s="45"/>
-      <c r="D495" s="45"/>
-      <c r="E495" s="45"/>
-      <c r="F495" s="45"/>
-      <c r="G495" s="45"/>
+      <c r="B495" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C495" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D495" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E495" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F495" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G495" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H495" s="45"/>
-      <c r="I495" s="45"/>
-      <c r="J495" s="45"/>
+      <c r="I495" s="45">
+        <v>200</v>
+      </c>
+      <c r="J495" s="45">
+        <v>0.58545454545454501</v>
+      </c>
       <c r="K495" s="45"/>
-      <c r="L495" s="45"/>
-      <c r="M495" s="45"/>
-      <c r="N495" s="45"/>
+      <c r="L495" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M495" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N495" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O495" s="45"/>
       <c r="P495" s="45"/>
       <c r="Q495" s="45"/>
@@ -26131,19 +26313,41 @@
     </row>
     <row r="496" spans="1:20" ht="15" customHeight="1">
       <c r="A496" s="45"/>
-      <c r="B496" s="45"/>
-      <c r="C496" s="45"/>
-      <c r="D496" s="45"/>
-      <c r="E496" s="45"/>
-      <c r="F496" s="45"/>
-      <c r="G496" s="45"/>
+      <c r="B496" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C496" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D496" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E496" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F496" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G496" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H496" s="45"/>
-      <c r="I496" s="45"/>
-      <c r="J496" s="45"/>
+      <c r="I496" s="45">
+        <v>300</v>
+      </c>
+      <c r="J496" s="45">
+        <v>0.53939393939393898</v>
+      </c>
       <c r="K496" s="45"/>
-      <c r="L496" s="45"/>
-      <c r="M496" s="45"/>
-      <c r="N496" s="45"/>
+      <c r="L496" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M496" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N496" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O496" s="45"/>
       <c r="P496" s="45"/>
       <c r="Q496" s="45"/>
@@ -26153,19 +26357,41 @@
     </row>
     <row r="497" spans="1:20" ht="15" customHeight="1">
       <c r="A497" s="45"/>
-      <c r="B497" s="45"/>
-      <c r="C497" s="45"/>
-      <c r="D497" s="45"/>
-      <c r="E497" s="45"/>
-      <c r="F497" s="45"/>
-      <c r="G497" s="45"/>
+      <c r="B497" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C497" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D497" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E497" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F497" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G497" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H497" s="45"/>
-      <c r="I497" s="45"/>
-      <c r="J497" s="45"/>
+      <c r="I497" s="45">
+        <v>400</v>
+      </c>
+      <c r="J497" s="45">
+        <v>0.47636363636363599</v>
+      </c>
       <c r="K497" s="45"/>
-      <c r="L497" s="45"/>
-      <c r="M497" s="45"/>
-      <c r="N497" s="45"/>
+      <c r="L497" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M497" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="N497" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O497" s="45"/>
       <c r="P497" s="45"/>
       <c r="Q497" s="45"/>
@@ -26175,19 +26401,41 @@
     </row>
     <row r="498" spans="1:20" ht="15" customHeight="1">
       <c r="A498" s="45"/>
-      <c r="B498" s="45"/>
-      <c r="C498" s="45"/>
-      <c r="D498" s="45"/>
-      <c r="E498" s="45"/>
-      <c r="F498" s="45"/>
-      <c r="G498" s="45"/>
+      <c r="B498" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C498" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D498" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E498" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F498" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G498" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H498" s="45"/>
-      <c r="I498" s="45"/>
-      <c r="J498" s="45"/>
+      <c r="I498" s="45">
+        <v>300</v>
+      </c>
+      <c r="J498" s="45">
+        <v>489.093701996927</v>
+      </c>
       <c r="K498" s="45"/>
-      <c r="L498" s="45"/>
-      <c r="M498" s="45"/>
-      <c r="N498" s="45"/>
+      <c r="L498" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M498" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="N498" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O498" s="45"/>
       <c r="P498" s="45"/>
       <c r="Q498" s="45"/>
@@ -26197,19 +26445,41 @@
     </row>
     <row r="499" spans="1:20" ht="15" customHeight="1">
       <c r="A499" s="45"/>
-      <c r="B499" s="45"/>
-      <c r="C499" s="45"/>
-      <c r="D499" s="45"/>
-      <c r="E499" s="45"/>
-      <c r="F499" s="45"/>
-      <c r="G499" s="45"/>
+      <c r="B499" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C499" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D499" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E499" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F499" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G499" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H499" s="45"/>
-      <c r="I499" s="45"/>
-      <c r="J499" s="45"/>
+      <c r="I499" s="45">
+        <v>300</v>
+      </c>
+      <c r="J499" s="45">
+        <v>323.19508448540699</v>
+      </c>
       <c r="K499" s="45"/>
-      <c r="L499" s="45"/>
-      <c r="M499" s="45"/>
-      <c r="N499" s="45"/>
+      <c r="L499" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M499" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="N499" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O499" s="45"/>
       <c r="P499" s="45"/>
       <c r="Q499" s="45"/>
@@ -26219,19 +26489,41 @@
     </row>
     <row r="500" spans="1:20" ht="15" customHeight="1">
       <c r="A500" s="45"/>
-      <c r="B500" s="45"/>
-      <c r="C500" s="45"/>
-      <c r="D500" s="45"/>
-      <c r="E500" s="45"/>
-      <c r="F500" s="45"/>
-      <c r="G500" s="45"/>
+      <c r="B500" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C500" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D500" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E500" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F500" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G500" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H500" s="45"/>
-      <c r="I500" s="45"/>
-      <c r="J500" s="45"/>
+      <c r="I500" s="45">
+        <v>300</v>
+      </c>
+      <c r="J500" s="45">
+        <v>324.42396313363997</v>
+      </c>
       <c r="K500" s="45"/>
-      <c r="L500" s="45"/>
-      <c r="M500" s="45"/>
-      <c r="N500" s="45"/>
+      <c r="L500" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M500" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="N500" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O500" s="45"/>
       <c r="P500" s="45"/>
       <c r="Q500" s="45"/>
@@ -26241,19 +26533,41 @@
     </row>
     <row r="501" spans="1:20" ht="15" customHeight="1">
       <c r="A501" s="45"/>
-      <c r="B501" s="45"/>
-      <c r="C501" s="45"/>
-      <c r="D501" s="45"/>
-      <c r="E501" s="45"/>
-      <c r="F501" s="45"/>
-      <c r="G501" s="45"/>
+      <c r="B501" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C501" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D501" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E501" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F501" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G501" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H501" s="45"/>
-      <c r="I501" s="45"/>
-      <c r="J501" s="45"/>
+      <c r="I501" s="45">
+        <v>300</v>
+      </c>
+      <c r="J501" s="45">
+        <v>342.85714285714198</v>
+      </c>
       <c r="K501" s="45"/>
-      <c r="L501" s="45"/>
-      <c r="M501" s="45"/>
-      <c r="N501" s="45"/>
+      <c r="L501" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M501" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="N501" s="61" t="s">
+        <v>307</v>
+      </c>
       <c r="O501" s="45"/>
       <c r="P501" s="45"/>
       <c r="Q501" s="45"/>
@@ -28945,7 +29259,7 @@
       <c r="S623" s="37"/>
       <c r="T623" s="37"/>
     </row>
-    <row r="624" spans="1:20" ht="15" customHeight="1">
+    <row r="624" spans="1:20" ht="16" customHeight="1">
       <c r="A624" s="45"/>
       <c r="B624" s="45"/>
       <c r="C624" s="45"/>
@@ -29580,7 +29894,7 @@
       <c r="P652" s="45"/>
       <c r="Q652" s="45"/>
       <c r="R652" s="45"/>
-      <c r="S652" s="37"/>
+      <c r="S652" s="46"/>
       <c r="T652" s="37"/>
     </row>
     <row r="653" spans="1:20" ht="16" customHeight="1">
@@ -31428,7 +31742,7 @@
       <c r="P736" s="45"/>
       <c r="Q736" s="45"/>
       <c r="R736" s="45"/>
-      <c r="S736" s="46"/>
+      <c r="S736" s="37"/>
       <c r="T736" s="37"/>
     </row>
     <row r="737" spans="1:20" ht="16" customHeight="1">
@@ -31472,7 +31786,7 @@
       <c r="P738" s="45"/>
       <c r="Q738" s="45"/>
       <c r="R738" s="45"/>
-      <c r="S738" s="37"/>
+      <c r="S738" s="46"/>
       <c r="T738" s="37"/>
     </row>
     <row r="739" spans="1:20" ht="16" customHeight="1">
@@ -31758,7 +32072,7 @@
       <c r="P751" s="45"/>
       <c r="Q751" s="45"/>
       <c r="R751" s="45"/>
-      <c r="S751" s="46"/>
+      <c r="S751" s="37"/>
       <c r="T751" s="37"/>
     </row>
     <row r="752" spans="1:20" ht="16" customHeight="1">
@@ -34027,7 +34341,7 @@
       <c r="S854" s="37"/>
       <c r="T854" s="37"/>
     </row>
-    <row r="855" spans="1:20" ht="16" customHeight="1">
+    <row r="855" spans="1:20" ht="15" customHeight="1">
       <c r="A855" s="45"/>
       <c r="B855" s="45"/>
       <c r="C855" s="45"/>
@@ -34046,8 +34360,8 @@
       <c r="P855" s="45"/>
       <c r="Q855" s="45"/>
       <c r="R855" s="45"/>
-      <c r="S855" s="37"/>
-      <c r="T855" s="37"/>
+      <c r="S855" s="45"/>
+      <c r="T855" s="45"/>
     </row>
     <row r="856" spans="1:20" ht="15" customHeight="1">
       <c r="A856" s="45"/>
@@ -35899,7 +36213,6 @@
     </row>
     <row r="940" spans="1:20" ht="15" customHeight="1">
       <c r="A940" s="45"/>
-      <c r="B940" s="45"/>
       <c r="C940" s="45"/>
       <c r="D940" s="45"/>
       <c r="E940" s="45"/>
@@ -36026,7 +36339,6 @@
     </row>
     <row r="946" spans="1:20" ht="15" customHeight="1">
       <c r="A946" s="45"/>
-      <c r="C946" s="45"/>
       <c r="D946" s="45"/>
       <c r="E946" s="45"/>
       <c r="F946" s="45"/>
@@ -36052,9 +36364,6 @@
       <c r="F947" s="45"/>
       <c r="G947" s="45"/>
       <c r="H947" s="45"/>
-      <c r="I947" s="45"/>
-      <c r="J947" s="45"/>
-      <c r="K947" s="45"/>
       <c r="L947" s="45"/>
       <c r="M947" s="45"/>
       <c r="N947" s="45"/>
@@ -36106,7 +36415,6 @@
       <c r="F950" s="45"/>
       <c r="G950" s="45"/>
       <c r="H950" s="45"/>
-      <c r="L950" s="45"/>
       <c r="M950" s="45"/>
       <c r="N950" s="45"/>
       <c r="O950" s="45"/>
@@ -36222,23 +36530,12 @@
       <c r="M957" s="45"/>
       <c r="N957" s="45"/>
       <c r="O957" s="45"/>
-      <c r="P957" s="45"/>
       <c r="Q957" s="45"/>
       <c r="R957" s="45"/>
       <c r="S957" s="45"/>
       <c r="T957" s="45"/>
     </row>
     <row r="958" spans="1:20" ht="15" customHeight="1">
-      <c r="A958" s="45"/>
-      <c r="D958" s="45"/>
-      <c r="E958" s="45"/>
-      <c r="F958" s="45"/>
-      <c r="G958" s="45"/>
-      <c r="H958" s="45"/>
-      <c r="M958" s="45"/>
-      <c r="N958" s="45"/>
-      <c r="O958" s="45"/>
-      <c r="Q958" s="45"/>
       <c r="R958" s="45"/>
       <c r="S958" s="45"/>
       <c r="T958" s="45"/>
@@ -36257,11 +36554,6 @@
       <c r="R961" s="45"/>
       <c r="S961" s="45"/>
       <c r="T961" s="45"/>
-    </row>
-    <row r="962" spans="18:20" ht="15" customHeight="1">
-      <c r="R962" s="45"/>
-      <c r="S962" s="45"/>
-      <c r="T962" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C91EB-0A3C-334E-B2F5-635053051C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856B5F9-70C3-DF4A-904E-2F1717F7D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="353">
   <si>
     <r>
       <rPr>
@@ -1045,6 +1045,9 @@
     <t>vacuum induction melting in argon-filled silica tube with alumina cruicible and slowly cooled; minor D03 is Fe3Si-type ordered BCC 2x2x2 supercell</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>F13b</t>
   </si>
   <si>
@@ -1184,6 +1187,9 @@
   </si>
   <si>
     <t>F11b</t>
+  </si>
+  <si>
+    <t>F9b</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2513,6 +2519,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3675,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T961"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A457" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N504" sqref="N504"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A482" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I538" sqref="I538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -20055,7 +20066,7 @@
         <v>288</v>
       </c>
       <c r="F361" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G361" s="32" t="s">
         <v>29</v>
@@ -20102,7 +20113,7 @@
         <v>288</v>
       </c>
       <c r="F362" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G362" s="32" t="s">
         <v>29</v>
@@ -20149,7 +20160,7 @@
         <v>288</v>
       </c>
       <c r="F363" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G363" s="32" t="s">
         <v>29</v>
@@ -20196,7 +20207,7 @@
         <v>288</v>
       </c>
       <c r="F364" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G364" s="32" t="s">
         <v>29</v>
@@ -20243,7 +20254,7 @@
         <v>288</v>
       </c>
       <c r="F365" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G365" s="32" t="s">
         <v>29</v>
@@ -20290,7 +20301,7 @@
         <v>288</v>
       </c>
       <c r="F366" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G366" s="32" t="s">
         <v>29</v>
@@ -20337,7 +20348,7 @@
         <v>288</v>
       </c>
       <c r="F367" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G367" s="32" t="s">
         <v>29</v>
@@ -20384,7 +20395,7 @@
         <v>299</v>
       </c>
       <c r="F368" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G368" s="32" t="s">
         <v>29</v>
@@ -20404,7 +20415,7 @@
         <v>164</v>
       </c>
       <c r="N368" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O368" s="45"/>
       <c r="P368" s="45"/>
@@ -20428,7 +20439,7 @@
         <v>300</v>
       </c>
       <c r="F369" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G369" s="32" t="s">
         <v>29</v>
@@ -20448,7 +20459,7 @@
         <v>164</v>
       </c>
       <c r="N369" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O369" s="45"/>
       <c r="P369" s="45"/>
@@ -20472,7 +20483,7 @@
         <v>300</v>
       </c>
       <c r="F370" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G370" s="32" t="s">
         <v>29</v>
@@ -20492,7 +20503,7 @@
         <v>164</v>
       </c>
       <c r="N370" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O370" s="45"/>
       <c r="P370" s="45"/>
@@ -20516,7 +20527,7 @@
         <v>301</v>
       </c>
       <c r="F371" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G371" s="32" t="s">
         <v>29</v>
@@ -20536,7 +20547,7 @@
         <v>164</v>
       </c>
       <c r="N371" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O371" s="45"/>
       <c r="P371" s="45"/>
@@ -20560,7 +20571,7 @@
         <v>303</v>
       </c>
       <c r="F372" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G372" s="32" t="s">
         <v>29</v>
@@ -20580,7 +20591,7 @@
         <v>164</v>
       </c>
       <c r="N372" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O372" s="45"/>
       <c r="P372" s="45"/>
@@ -20622,7 +20633,7 @@
       </c>
       <c r="M373" s="61"/>
       <c r="N373" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O373" s="45"/>
       <c r="P373" s="45"/>
@@ -20664,7 +20675,7 @@
       </c>
       <c r="M374" s="61"/>
       <c r="N374" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O374" s="45"/>
       <c r="P374" s="45"/>
@@ -20706,7 +20717,7 @@
       </c>
       <c r="M375" s="61"/>
       <c r="N375" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O375" s="45"/>
       <c r="P375" s="45"/>
@@ -20748,7 +20759,7 @@
       </c>
       <c r="M376" s="61"/>
       <c r="N376" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O376" s="45"/>
       <c r="P376" s="45"/>
@@ -20789,10 +20800,10 @@
         <v>89</v>
       </c>
       <c r="M377" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N377" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O377" s="45"/>
       <c r="P377" s="45"/>
@@ -20833,10 +20844,10 @@
         <v>89</v>
       </c>
       <c r="M378" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N378" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O378" s="45"/>
       <c r="P378" s="45"/>
@@ -20877,10 +20888,10 @@
         <v>89</v>
       </c>
       <c r="M379" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N379" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O379" s="45"/>
       <c r="P379" s="45"/>
@@ -20921,10 +20932,10 @@
         <v>89</v>
       </c>
       <c r="M380" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N380" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O380" s="45"/>
       <c r="P380" s="45"/>
@@ -20965,10 +20976,10 @@
         <v>89</v>
       </c>
       <c r="M381" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N381" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O381" s="45"/>
       <c r="P381" s="45"/>
@@ -20992,7 +21003,7 @@
         <v>299</v>
       </c>
       <c r="F382" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G382" s="32" t="s">
         <v>29</v>
@@ -21010,10 +21021,10 @@
         <v>275</v>
       </c>
       <c r="M382" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N382" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O382" s="45"/>
       <c r="P382" s="45">
@@ -21039,7 +21050,7 @@
         <v>300</v>
       </c>
       <c r="F383" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G383" s="32" t="s">
         <v>29</v>
@@ -21057,10 +21068,10 @@
         <v>275</v>
       </c>
       <c r="M383" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N383" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O383" s="45"/>
       <c r="P383" s="45">
@@ -21086,7 +21097,7 @@
         <v>300</v>
       </c>
       <c r="F384" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G384" s="32" t="s">
         <v>29</v>
@@ -21104,10 +21115,10 @@
         <v>275</v>
       </c>
       <c r="M384" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N384" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O384" s="45"/>
       <c r="P384" s="45">
@@ -21133,7 +21144,7 @@
         <v>301</v>
       </c>
       <c r="F385" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G385" s="32" t="s">
         <v>29</v>
@@ -21151,10 +21162,10 @@
         <v>275</v>
       </c>
       <c r="M385" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N385" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O385" s="45"/>
       <c r="P385" s="45">
@@ -21180,7 +21191,7 @@
         <v>303</v>
       </c>
       <c r="F386" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G386" s="32" t="s">
         <v>29</v>
@@ -21198,10 +21209,10 @@
         <v>275</v>
       </c>
       <c r="M386" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N386" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O386" s="45"/>
       <c r="P386" s="45">
@@ -21227,7 +21238,7 @@
         <v>299</v>
       </c>
       <c r="F387" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G387" s="32" t="s">
         <v>29</v>
@@ -21245,10 +21256,10 @@
         <v>275</v>
       </c>
       <c r="M387" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N387" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O387" s="45"/>
       <c r="P387" s="45">
@@ -21274,7 +21285,7 @@
         <v>300</v>
       </c>
       <c r="F388" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G388" s="32" t="s">
         <v>29</v>
@@ -21292,10 +21303,10 @@
         <v>275</v>
       </c>
       <c r="M388" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N388" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O388" s="45"/>
       <c r="P388" s="45">
@@ -21321,7 +21332,7 @@
         <v>300</v>
       </c>
       <c r="F389" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G389" s="32" t="s">
         <v>29</v>
@@ -21339,10 +21350,10 @@
         <v>275</v>
       </c>
       <c r="M389" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N389" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O389" s="45"/>
       <c r="P389" s="45">
@@ -21368,7 +21379,7 @@
         <v>301</v>
       </c>
       <c r="F390" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G390" s="32" t="s">
         <v>29</v>
@@ -21386,10 +21397,10 @@
         <v>275</v>
       </c>
       <c r="M390" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N390" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O390" s="45"/>
       <c r="P390" s="45">
@@ -21415,7 +21426,7 @@
         <v>303</v>
       </c>
       <c r="F391" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G391" s="32" t="s">
         <v>29</v>
@@ -21433,10 +21444,10 @@
         <v>275</v>
       </c>
       <c r="M391" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N391" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O391" s="45"/>
       <c r="P391" s="45">
@@ -21462,7 +21473,7 @@
         <v>299</v>
       </c>
       <c r="F392" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G392" s="32" t="s">
         <v>29</v>
@@ -21480,10 +21491,10 @@
         <v>275</v>
       </c>
       <c r="M392" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N392" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O392" s="45"/>
       <c r="P392" s="45">
@@ -21509,7 +21520,7 @@
         <v>300</v>
       </c>
       <c r="F393" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G393" s="32" t="s">
         <v>29</v>
@@ -21527,10 +21538,10 @@
         <v>275</v>
       </c>
       <c r="M393" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N393" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O393" s="45"/>
       <c r="P393" s="45">
@@ -21556,7 +21567,7 @@
         <v>300</v>
       </c>
       <c r="F394" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G394" s="32" t="s">
         <v>29</v>
@@ -21574,10 +21585,10 @@
         <v>275</v>
       </c>
       <c r="M394" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N394" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O394" s="45"/>
       <c r="P394" s="45">
@@ -21603,7 +21614,7 @@
         <v>301</v>
       </c>
       <c r="F395" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G395" s="32" t="s">
         <v>29</v>
@@ -21621,10 +21632,10 @@
         <v>275</v>
       </c>
       <c r="M395" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N395" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O395" s="45"/>
       <c r="P395" s="45">
@@ -21650,7 +21661,7 @@
         <v>303</v>
       </c>
       <c r="F396" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G396" s="32" t="s">
         <v>29</v>
@@ -21668,10 +21679,10 @@
         <v>275</v>
       </c>
       <c r="M396" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N396" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O396" s="45"/>
       <c r="P396" s="45">
@@ -21697,7 +21708,7 @@
         <v>299</v>
       </c>
       <c r="F397" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G397" s="32" t="s">
         <v>29</v>
@@ -21715,10 +21726,10 @@
         <v>275</v>
       </c>
       <c r="M397" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N397" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O397" s="45"/>
       <c r="P397" s="45">
@@ -21744,7 +21755,7 @@
         <v>300</v>
       </c>
       <c r="F398" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G398" s="32" t="s">
         <v>29</v>
@@ -21762,10 +21773,10 @@
         <v>275</v>
       </c>
       <c r="M398" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N398" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O398" s="45"/>
       <c r="P398" s="45">
@@ -21791,7 +21802,7 @@
         <v>300</v>
       </c>
       <c r="F399" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G399" s="32" t="s">
         <v>29</v>
@@ -21809,10 +21820,10 @@
         <v>275</v>
       </c>
       <c r="M399" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N399" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O399" s="45"/>
       <c r="P399" s="45">
@@ -21838,7 +21849,7 @@
         <v>301</v>
       </c>
       <c r="F400" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G400" s="32" t="s">
         <v>29</v>
@@ -21856,10 +21867,10 @@
         <v>275</v>
       </c>
       <c r="M400" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N400" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O400" s="45"/>
       <c r="P400" s="45">
@@ -21885,7 +21896,7 @@
         <v>303</v>
       </c>
       <c r="F401" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G401" s="32" t="s">
         <v>29</v>
@@ -21903,10 +21914,10 @@
         <v>275</v>
       </c>
       <c r="M401" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N401" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O401" s="45"/>
       <c r="P401" s="45">
@@ -21920,25 +21931,25 @@
     <row r="402" spans="1:20" ht="18" customHeight="1">
       <c r="A402" s="45"/>
       <c r="B402" s="61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C402" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D402" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E402" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F402" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G402" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H402" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I402" s="45">
         <v>298</v>
@@ -21952,13 +21963,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="L402" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M402" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N402" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O402" s="45"/>
       <c r="P402" s="45">
@@ -21974,25 +21985,25 @@
     <row r="403" spans="1:20" ht="18" customHeight="1">
       <c r="A403" s="45"/>
       <c r="B403" s="61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C403" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D403" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E403" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F403" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G403" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H403" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I403" s="45">
         <v>298</v>
@@ -22006,13 +22017,13 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="L403" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M403" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N403" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O403" s="45"/>
       <c r="P403" s="45">
@@ -22028,25 +22039,25 @@
     <row r="404" spans="1:20" ht="18" customHeight="1">
       <c r="A404" s="45"/>
       <c r="B404" s="61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C404" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D404" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E404" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F404" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G404" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H404" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I404" s="45">
         <v>298</v>
@@ -22060,13 +22071,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="L404" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M404" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N404" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O404" s="45"/>
       <c r="P404" s="45">
@@ -22082,25 +22093,25 @@
     <row r="405" spans="1:20" ht="18" customHeight="1">
       <c r="A405" s="45"/>
       <c r="B405" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C405" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D405" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E405" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F405" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G405" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H405" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I405" s="45">
         <v>298</v>
@@ -22114,13 +22125,13 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="L405" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M405" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N405" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O405" s="45"/>
       <c r="P405" s="45">
@@ -22136,25 +22147,25 @@
     <row r="406" spans="1:20" ht="18" customHeight="1">
       <c r="A406" s="45"/>
       <c r="B406" s="61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C406" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D406" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E406" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F406" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G406" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H406" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I406" s="45">
         <v>298</v>
@@ -22168,13 +22179,13 @@
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="L406" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M406" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N406" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O406" s="45"/>
       <c r="P406" s="45">
@@ -22190,25 +22201,25 @@
     <row r="407" spans="1:20" ht="18" customHeight="1">
       <c r="A407" s="45"/>
       <c r="B407" s="61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C407" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D407" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E407" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F407" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G407" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H407" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I407" s="45">
         <v>298</v>
@@ -22222,13 +22233,13 @@
         <v>2.6000000000000003E-3</v>
       </c>
       <c r="L407" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M407" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N407" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O407" s="45"/>
       <c r="P407" s="45">
@@ -22244,25 +22255,25 @@
     <row r="408" spans="1:20" ht="18" customHeight="1">
       <c r="A408" s="45"/>
       <c r="B408" s="61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C408" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D408" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E408" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F408" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G408" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H408" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I408" s="45">
         <v>298</v>
@@ -22276,13 +22287,13 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="L408" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M408" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N408" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O408" s="45"/>
       <c r="P408" s="45">
@@ -22298,25 +22309,25 @@
     <row r="409" spans="1:20" ht="18" customHeight="1">
       <c r="A409" s="45"/>
       <c r="B409" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C409" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D409" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E409" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F409" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G409" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H409" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I409" s="45">
         <v>298</v>
@@ -22330,13 +22341,13 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="L409" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M409" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N409" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O409" s="45"/>
       <c r="P409" s="45">
@@ -22352,25 +22363,25 @@
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="45"/>
       <c r="B410" s="141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C410" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D410" s="142" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E410" s="142" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F410" s="142" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G410" s="142" t="s">
         <v>29</v>
       </c>
       <c r="H410" s="142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I410" s="142">
         <v>298</v>
@@ -22384,13 +22395,13 @@
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="L410" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M410" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N410" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O410" s="45"/>
       <c r="P410" s="45">
@@ -22406,25 +22417,25 @@
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="45"/>
       <c r="B411" s="143" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C411" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D411" s="144" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E411" s="144" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F411" s="142" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G411" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H411" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I411" s="144">
         <v>298</v>
@@ -22438,13 +22449,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L411" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M411" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N411" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O411" s="45"/>
       <c r="P411" s="45">
@@ -22460,25 +22471,25 @@
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="45"/>
       <c r="B412" s="143" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C412" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D412" s="144" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E412" s="144" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F412" s="142" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G412" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H412" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I412" s="144">
         <v>298</v>
@@ -22492,13 +22503,13 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="L412" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M412" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N412" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O412" s="45"/>
       <c r="P412" s="45">
@@ -22514,25 +22525,25 @@
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="45"/>
       <c r="B413" s="143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C413" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D413" s="144" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E413" s="144" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F413" s="142" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G413" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H413" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I413" s="144">
         <v>298</v>
@@ -22546,13 +22557,13 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="L413" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M413" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N413" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O413" s="45"/>
       <c r="P413" s="45">
@@ -22568,7 +22579,7 @@
     <row r="414" spans="1:20" ht="18" customHeight="1">
       <c r="A414" s="45"/>
       <c r="B414" s="61" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C414" s="61" t="s">
         <v>74</v>
@@ -22578,13 +22589,13 @@
       </c>
       <c r="E414" s="61"/>
       <c r="F414" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G414" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H414" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I414" s="144">
         <v>298</v>
@@ -22594,13 +22605,13 @@
       </c>
       <c r="K414" s="45"/>
       <c r="L414" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M414" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N414" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O414" s="45"/>
       <c r="P414" s="45"/>
@@ -22612,7 +22623,7 @@
     <row r="415" spans="1:20" ht="18" customHeight="1">
       <c r="A415" s="45"/>
       <c r="B415" s="61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C415" s="61" t="s">
         <v>93</v>
@@ -22622,13 +22633,13 @@
       </c>
       <c r="E415" s="61"/>
       <c r="F415" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G415" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H415" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I415" s="144">
         <v>298</v>
@@ -22638,13 +22649,13 @@
       </c>
       <c r="K415" s="62"/>
       <c r="L415" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M415" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N415" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O415" s="45"/>
       <c r="P415" s="45"/>
@@ -22656,7 +22667,7 @@
     <row r="416" spans="1:20" ht="18" customHeight="1">
       <c r="A416" s="45"/>
       <c r="B416" s="61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C416" s="61" t="s">
         <v>93</v>
@@ -22666,13 +22677,13 @@
       </c>
       <c r="E416" s="61"/>
       <c r="F416" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G416" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H416" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I416" s="144">
         <v>298</v>
@@ -22682,13 +22693,13 @@
       </c>
       <c r="K416" s="62"/>
       <c r="L416" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M416" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N416" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O416" s="45"/>
       <c r="P416" s="45"/>
@@ -22700,7 +22711,7 @@
     <row r="417" spans="1:20" ht="18" customHeight="1">
       <c r="A417" s="45"/>
       <c r="B417" s="61" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C417" s="61" t="s">
         <v>74</v>
@@ -22710,13 +22721,13 @@
       </c>
       <c r="E417" s="61"/>
       <c r="F417" s="61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G417" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H417" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I417" s="144">
         <v>298</v>
@@ -22726,13 +22737,13 @@
       </c>
       <c r="K417" s="62"/>
       <c r="L417" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M417" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N417" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O417" s="45"/>
       <c r="P417" s="45"/>
@@ -22744,7 +22755,7 @@
     <row r="418" spans="1:20" ht="18" customHeight="1">
       <c r="A418" s="45"/>
       <c r="B418" s="61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C418" s="61" t="s">
         <v>93</v>
@@ -22754,13 +22765,13 @@
       </c>
       <c r="E418" s="61"/>
       <c r="F418" s="61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G418" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H418" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I418" s="144">
         <v>298</v>
@@ -22770,13 +22781,13 @@
       </c>
       <c r="K418" s="62"/>
       <c r="L418" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M418" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N418" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O418" s="45"/>
       <c r="P418" s="45"/>
@@ -22788,7 +22799,7 @@
     <row r="419" spans="1:20" ht="18" customHeight="1">
       <c r="A419" s="45"/>
       <c r="B419" s="61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C419" s="61" t="s">
         <v>93</v>
@@ -22798,13 +22809,13 @@
       </c>
       <c r="E419" s="61"/>
       <c r="F419" s="61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G419" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H419" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I419" s="144">
         <v>298</v>
@@ -22814,13 +22825,13 @@
       </c>
       <c r="K419" s="62"/>
       <c r="L419" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M419" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N419" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O419" s="45"/>
       <c r="P419" s="45"/>
@@ -22832,7 +22843,7 @@
     <row r="420" spans="1:20" ht="18" customHeight="1">
       <c r="A420" s="61"/>
       <c r="B420" s="141" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C420" s="142" t="s">
         <v>74</v>
@@ -22842,13 +22853,13 @@
       </c>
       <c r="E420" s="61"/>
       <c r="F420" s="61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G420" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H420" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I420" s="144">
         <v>298</v>
@@ -22858,13 +22869,13 @@
       </c>
       <c r="K420" s="62"/>
       <c r="L420" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M420" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N420" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O420" s="45"/>
       <c r="P420" s="45"/>
@@ -22876,7 +22887,7 @@
     <row r="421" spans="1:20" ht="18" customHeight="1">
       <c r="A421" s="61"/>
       <c r="B421" s="143" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C421" s="144" t="s">
         <v>93</v>
@@ -22886,13 +22897,13 @@
       </c>
       <c r="E421" s="61"/>
       <c r="F421" s="61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G421" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H421" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I421" s="144">
         <v>298</v>
@@ -22902,13 +22913,13 @@
       </c>
       <c r="K421" s="62"/>
       <c r="L421" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M421" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N421" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O421" s="45"/>
       <c r="P421" s="45"/>
@@ -22920,7 +22931,7 @@
     <row r="422" spans="1:20" ht="18" customHeight="1">
       <c r="A422" s="61"/>
       <c r="B422" s="143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C422" s="144" t="s">
         <v>93</v>
@@ -22930,13 +22941,13 @@
       </c>
       <c r="E422" s="61"/>
       <c r="F422" s="61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G422" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H422" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I422" s="144">
         <v>298</v>
@@ -22946,13 +22957,13 @@
       </c>
       <c r="K422" s="62"/>
       <c r="L422" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M422" s="61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N422" s="61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O422" s="45"/>
       <c r="P422" s="45"/>
@@ -22964,23 +22975,23 @@
     <row r="423" spans="1:20" ht="15" customHeight="1">
       <c r="A423" s="61"/>
       <c r="B423" s="61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C423" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D423" s="61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E423" s="61"/>
       <c r="F423" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G423" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H423" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I423" s="144">
         <v>298</v>
@@ -22990,13 +23001,13 @@
       </c>
       <c r="K423" s="45"/>
       <c r="L423" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M423" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N423" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O423" s="45"/>
       <c r="P423" s="45"/>
@@ -23008,7 +23019,7 @@
     <row r="424" spans="1:20" ht="15" customHeight="1">
       <c r="A424" s="61"/>
       <c r="B424" s="61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C424" s="61" t="s">
         <v>75</v>
@@ -23018,13 +23029,13 @@
       </c>
       <c r="E424" s="61"/>
       <c r="F424" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G424" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H424" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I424" s="144">
         <v>298</v>
@@ -23034,13 +23045,13 @@
       </c>
       <c r="K424" s="45"/>
       <c r="L424" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M424" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N424" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O424" s="45"/>
       <c r="P424" s="45"/>
@@ -23052,23 +23063,23 @@
     <row r="425" spans="1:20" ht="15" customHeight="1">
       <c r="A425" s="61"/>
       <c r="B425" s="61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C425" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D425" s="61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E425" s="61"/>
       <c r="F425" s="61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G425" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H425" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I425" s="144">
         <v>298</v>
@@ -23078,13 +23089,13 @@
       </c>
       <c r="K425" s="45"/>
       <c r="L425" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M425" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N425" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O425" s="45"/>
       <c r="P425" s="45"/>
@@ -23096,7 +23107,7 @@
     <row r="426" spans="1:20" ht="15" customHeight="1">
       <c r="A426" s="61"/>
       <c r="B426" s="61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C426" s="61" t="s">
         <v>75</v>
@@ -23106,13 +23117,13 @@
       </c>
       <c r="E426" s="61"/>
       <c r="F426" s="61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G426" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H426" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I426" s="144">
         <v>298</v>
@@ -23122,13 +23133,13 @@
       </c>
       <c r="K426" s="45"/>
       <c r="L426" s="61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M426" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N426" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O426" s="45"/>
       <c r="P426" s="45"/>
@@ -23140,23 +23151,23 @@
     <row r="427" spans="1:20" ht="15" customHeight="1">
       <c r="A427" s="61"/>
       <c r="B427" s="61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C427" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D427" s="61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E427" s="61"/>
       <c r="F427" s="61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G427" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H427" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I427" s="144">
         <v>298</v>
@@ -23166,13 +23177,13 @@
       </c>
       <c r="K427" s="45"/>
       <c r="L427" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M427" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N427" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O427" s="45"/>
       <c r="P427" s="45"/>
@@ -23184,7 +23195,7 @@
     <row r="428" spans="1:20" ht="15" customHeight="1">
       <c r="A428" s="61"/>
       <c r="B428" s="61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C428" s="61" t="s">
         <v>75</v>
@@ -23194,13 +23205,13 @@
       </c>
       <c r="E428" s="61"/>
       <c r="F428" s="61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G428" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H428" s="144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I428" s="144">
         <v>298</v>
@@ -23210,13 +23221,13 @@
       </c>
       <c r="K428" s="45"/>
       <c r="L428" s="61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M428" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N428" s="61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O428" s="45"/>
       <c r="P428" s="45"/>
@@ -23228,16 +23239,16 @@
     <row r="429" spans="1:20" ht="15" customHeight="1">
       <c r="A429" s="61"/>
       <c r="B429" s="61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C429" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E429" s="61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>84</v>
@@ -23260,7 +23271,7 @@
         <v>146</v>
       </c>
       <c r="N429" s="61" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O429" s="45"/>
       <c r="P429" s="45"/>
@@ -23272,16 +23283,16 @@
     <row r="430" spans="1:20" ht="15" customHeight="1">
       <c r="A430" s="61"/>
       <c r="B430" s="61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C430" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D430" s="61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E430" s="61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F430" s="61" t="s">
         <v>91</v>
@@ -23304,7 +23315,7 @@
         <v>146</v>
       </c>
       <c r="N430" s="61" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O430" s="45"/>
       <c r="P430" s="45"/>
@@ -23316,19 +23327,19 @@
     <row r="431" spans="1:20" ht="15" customHeight="1">
       <c r="A431" s="61"/>
       <c r="B431" s="61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C431" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D431" s="61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E431" s="61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F431" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G431" s="61" t="s">
         <v>29</v>
@@ -23348,7 +23359,7 @@
         <v>146</v>
       </c>
       <c r="N431" s="61" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O431" s="45"/>
       <c r="P431" s="45"/>
@@ -23360,16 +23371,16 @@
     <row r="432" spans="1:20" ht="15" customHeight="1">
       <c r="A432" s="61"/>
       <c r="B432" s="61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C432" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D432" s="61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E432" s="61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F432" s="61" t="s">
         <v>127</v>
@@ -23390,7 +23401,7 @@
         <v>146</v>
       </c>
       <c r="N432" s="61" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O432" s="45"/>
       <c r="P432" s="45"/>
@@ -23402,7 +23413,7 @@
     <row r="433" spans="1:20" ht="15" customHeight="1">
       <c r="A433" s="61"/>
       <c r="B433" s="61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C433" s="61" t="s">
         <v>74</v>
@@ -23432,7 +23443,7 @@
         <v>95</v>
       </c>
       <c r="N433" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O433" s="45"/>
       <c r="P433" s="45"/>
@@ -23444,7 +23455,7 @@
     <row r="434" spans="1:20" ht="15" customHeight="1">
       <c r="A434" s="61"/>
       <c r="B434" s="61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C434" s="61" t="s">
         <v>74</v>
@@ -23474,7 +23485,7 @@
         <v>95</v>
       </c>
       <c r="N434" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O434" s="45"/>
       <c r="P434" s="45"/>
@@ -23486,7 +23497,7 @@
     <row r="435" spans="1:20" ht="15" customHeight="1">
       <c r="A435" s="61"/>
       <c r="B435" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C435" s="61" t="s">
         <v>74</v>
@@ -23516,7 +23527,7 @@
         <v>95</v>
       </c>
       <c r="N435" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O435" s="45"/>
       <c r="P435" s="45"/>
@@ -23528,7 +23539,7 @@
     <row r="436" spans="1:20" ht="15" customHeight="1">
       <c r="A436" s="61"/>
       <c r="B436" s="61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C436" s="61" t="s">
         <v>74</v>
@@ -23558,7 +23569,7 @@
         <v>95</v>
       </c>
       <c r="N436" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O436" s="45"/>
       <c r="P436" s="45"/>
@@ -23570,7 +23581,7 @@
     <row r="437" spans="1:20" ht="15" customHeight="1">
       <c r="A437" s="61"/>
       <c r="B437" s="61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C437" s="61" t="s">
         <v>74</v>
@@ -23600,7 +23611,7 @@
         <v>95</v>
       </c>
       <c r="N437" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O437" s="45"/>
       <c r="P437" s="45"/>
@@ -23612,16 +23623,16 @@
     <row r="438" spans="1:20" ht="15" customHeight="1">
       <c r="A438" s="61"/>
       <c r="B438" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C438" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D438" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E438" s="61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F438" s="61" t="s">
         <v>91</v>
@@ -23644,7 +23655,7 @@
         <v>95</v>
       </c>
       <c r="N438" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O438" s="45"/>
       <c r="P438" s="45"/>
@@ -23656,16 +23667,16 @@
     <row r="439" spans="1:20" ht="15" customHeight="1">
       <c r="A439" s="61"/>
       <c r="B439" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C439" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D439" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E439" s="61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F439" s="61" t="s">
         <v>91</v>
@@ -23688,7 +23699,7 @@
         <v>95</v>
       </c>
       <c r="N439" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O439" s="45"/>
       <c r="P439" s="45"/>
@@ -23700,16 +23711,16 @@
     <row r="440" spans="1:20" ht="15" customHeight="1">
       <c r="A440" s="61"/>
       <c r="B440" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C440" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D440" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E440" s="61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F440" s="61" t="s">
         <v>91</v>
@@ -23732,7 +23743,7 @@
         <v>95</v>
       </c>
       <c r="N440" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O440" s="45"/>
       <c r="P440" s="45"/>
@@ -23744,16 +23755,16 @@
     <row r="441" spans="1:20" ht="15" customHeight="1">
       <c r="A441" s="61"/>
       <c r="B441" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C441" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D441" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E441" s="61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F441" s="61" t="s">
         <v>91</v>
@@ -23776,7 +23787,7 @@
         <v>95</v>
       </c>
       <c r="N441" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O441" s="45"/>
       <c r="P441" s="45"/>
@@ -23788,7 +23799,7 @@
     <row r="442" spans="1:20" ht="15" customHeight="1">
       <c r="A442" s="45"/>
       <c r="B442" s="61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C442" s="61" t="s">
         <v>74</v>
@@ -23804,7 +23815,7 @@
         <v>29</v>
       </c>
       <c r="H442" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I442" s="45">
         <v>298</v>
@@ -23818,10 +23829,10 @@
         <v>33</v>
       </c>
       <c r="M442" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N442" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O442" s="45"/>
       <c r="P442" s="45">
@@ -23835,7 +23846,7 @@
     <row r="443" spans="1:20" ht="15" customHeight="1">
       <c r="A443" s="45"/>
       <c r="B443" s="61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C443" s="61" t="s">
         <v>74</v>
@@ -23851,7 +23862,7 @@
         <v>29</v>
       </c>
       <c r="H443" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I443" s="45">
         <v>298</v>
@@ -23865,10 +23876,10 @@
         <v>33</v>
       </c>
       <c r="M443" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N443" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O443" s="45"/>
       <c r="P443" s="45">
@@ -23882,7 +23893,7 @@
     <row r="444" spans="1:20" ht="15" customHeight="1">
       <c r="A444" s="45"/>
       <c r="B444" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C444" s="61" t="s">
         <v>74</v>
@@ -23898,7 +23909,7 @@
         <v>29</v>
       </c>
       <c r="H444" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I444" s="45">
         <v>298</v>
@@ -23912,10 +23923,10 @@
         <v>33</v>
       </c>
       <c r="M444" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N444" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O444" s="45"/>
       <c r="P444" s="45">
@@ -23929,7 +23940,7 @@
     <row r="445" spans="1:20" ht="15" customHeight="1">
       <c r="A445" s="45"/>
       <c r="B445" s="61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C445" s="61" t="s">
         <v>74</v>
@@ -23945,7 +23956,7 @@
         <v>29</v>
       </c>
       <c r="H445" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I445" s="45">
         <v>298</v>
@@ -23959,10 +23970,10 @@
         <v>33</v>
       </c>
       <c r="M445" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N445" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O445" s="45"/>
       <c r="P445" s="45">
@@ -23976,7 +23987,7 @@
     <row r="446" spans="1:20" ht="15" customHeight="1">
       <c r="A446" s="45"/>
       <c r="B446" s="61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C446" s="61" t="s">
         <v>74</v>
@@ -23992,7 +24003,7 @@
         <v>29</v>
       </c>
       <c r="H446" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I446" s="45">
         <v>298</v>
@@ -24006,10 +24017,10 @@
         <v>33</v>
       </c>
       <c r="M446" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N446" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O446" s="45"/>
       <c r="P446" s="45">
@@ -24023,16 +24034,16 @@
     <row r="447" spans="1:20" ht="15" customHeight="1">
       <c r="A447" s="45"/>
       <c r="B447" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C447" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D447" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E447" s="61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F447" s="61" t="s">
         <v>71</v>
@@ -24041,7 +24052,7 @@
         <v>29</v>
       </c>
       <c r="H447" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I447" s="45">
         <v>298</v>
@@ -24055,10 +24066,10 @@
         <v>33</v>
       </c>
       <c r="M447" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N447" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O447" s="45"/>
       <c r="P447" s="45">
@@ -24072,16 +24083,16 @@
     <row r="448" spans="1:20" ht="15" customHeight="1">
       <c r="A448" s="45"/>
       <c r="B448" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C448" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D448" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E448" s="61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F448" s="61" t="s">
         <v>71</v>
@@ -24090,7 +24101,7 @@
         <v>29</v>
       </c>
       <c r="H448" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I448" s="45">
         <v>298</v>
@@ -24104,10 +24115,10 @@
         <v>33</v>
       </c>
       <c r="M448" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N448" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O448" s="45"/>
       <c r="P448" s="45">
@@ -24121,16 +24132,16 @@
     <row r="449" spans="1:20" ht="15" customHeight="1">
       <c r="A449" s="45"/>
       <c r="B449" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C449" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D449" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E449" s="61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F449" s="61" t="s">
         <v>71</v>
@@ -24139,7 +24150,7 @@
         <v>29</v>
       </c>
       <c r="H449" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I449" s="45">
         <v>298</v>
@@ -24153,10 +24164,10 @@
         <v>33</v>
       </c>
       <c r="M449" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N449" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O449" s="45"/>
       <c r="P449" s="45">
@@ -24170,16 +24181,16 @@
     <row r="450" spans="1:20" ht="15" customHeight="1">
       <c r="A450" s="45"/>
       <c r="B450" s="61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C450" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D450" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E450" s="61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F450" s="61" t="s">
         <v>71</v>
@@ -24188,7 +24199,7 @@
         <v>29</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I450" s="45">
         <v>298</v>
@@ -24202,10 +24213,10 @@
         <v>33</v>
       </c>
       <c r="M450" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N450" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O450" s="45"/>
       <c r="P450" s="45">
@@ -24219,7 +24230,7 @@
     <row r="451" spans="1:20" ht="15" customHeight="1">
       <c r="A451" s="45"/>
       <c r="B451" s="141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C451" s="142" t="s">
         <v>74</v>
@@ -24235,7 +24246,7 @@
         <v>29</v>
       </c>
       <c r="H451" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I451" s="45">
         <v>298</v>
@@ -24249,10 +24260,10 @@
         <v>33</v>
       </c>
       <c r="M451" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N451" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O451" s="45"/>
       <c r="P451" s="45">
@@ -24266,7 +24277,7 @@
     <row r="452" spans="1:20" ht="15" customHeight="1">
       <c r="A452" s="45"/>
       <c r="B452" s="143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C452" s="144" t="s">
         <v>74</v>
@@ -24282,7 +24293,7 @@
         <v>29</v>
       </c>
       <c r="H452" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I452" s="45">
         <v>298</v>
@@ -24296,10 +24307,10 @@
         <v>33</v>
       </c>
       <c r="M452" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N452" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O452" s="45"/>
       <c r="P452" s="45">
@@ -24313,7 +24324,7 @@
     <row r="453" spans="1:20" ht="15" customHeight="1">
       <c r="A453" s="45"/>
       <c r="B453" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C453" s="144" t="s">
         <v>74</v>
@@ -24329,7 +24340,7 @@
         <v>29</v>
       </c>
       <c r="H453" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I453" s="45">
         <v>298</v>
@@ -24343,10 +24354,10 @@
         <v>33</v>
       </c>
       <c r="M453" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N453" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O453" s="45"/>
       <c r="P453" s="45">
@@ -24360,7 +24371,7 @@
     <row r="454" spans="1:20" ht="15" customHeight="1">
       <c r="A454" s="45"/>
       <c r="B454" s="143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C454" s="144" t="s">
         <v>74</v>
@@ -24376,7 +24387,7 @@
         <v>29</v>
       </c>
       <c r="H454" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I454" s="45">
         <v>298</v>
@@ -24390,10 +24401,10 @@
         <v>33</v>
       </c>
       <c r="M454" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N454" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O454" s="45"/>
       <c r="P454" s="45">
@@ -24407,7 +24418,7 @@
     <row r="455" spans="1:20" ht="15" customHeight="1">
       <c r="A455" s="45"/>
       <c r="B455" s="143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C455" s="144" t="s">
         <v>74</v>
@@ -24423,7 +24434,7 @@
         <v>29</v>
       </c>
       <c r="H455" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I455" s="45">
         <v>298</v>
@@ -24437,10 +24448,10 @@
         <v>33</v>
       </c>
       <c r="M455" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N455" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O455" s="45"/>
       <c r="P455" s="45">
@@ -24454,16 +24465,16 @@
     <row r="456" spans="1:20" ht="15" customHeight="1">
       <c r="A456" s="45"/>
       <c r="B456" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C456" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E456" s="144" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F456" s="61" t="s">
         <v>73</v>
@@ -24472,7 +24483,7 @@
         <v>29</v>
       </c>
       <c r="H456" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I456" s="45">
         <v>298</v>
@@ -24486,10 +24497,10 @@
         <v>33</v>
       </c>
       <c r="M456" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N456" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O456" s="45"/>
       <c r="P456" s="45">
@@ -24503,16 +24514,16 @@
     <row r="457" spans="1:20" ht="15" customHeight="1">
       <c r="A457" s="45"/>
       <c r="B457" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C457" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D457" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E457" s="144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F457" s="61" t="s">
         <v>73</v>
@@ -24521,7 +24532,7 @@
         <v>29</v>
       </c>
       <c r="H457" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I457" s="45">
         <v>298</v>
@@ -24535,10 +24546,10 @@
         <v>33</v>
       </c>
       <c r="M457" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N457" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O457" s="45"/>
       <c r="P457" s="45">
@@ -24552,16 +24563,16 @@
     <row r="458" spans="1:20" ht="15" customHeight="1">
       <c r="A458" s="45"/>
       <c r="B458" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C458" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E458" s="144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F458" s="61" t="s">
         <v>73</v>
@@ -24570,7 +24581,7 @@
         <v>29</v>
       </c>
       <c r="H458" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I458" s="45">
         <v>298</v>
@@ -24584,10 +24595,10 @@
         <v>33</v>
       </c>
       <c r="M458" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N458" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O458" s="45"/>
       <c r="P458" s="45">
@@ -24601,16 +24612,16 @@
     <row r="459" spans="1:20" ht="15" customHeight="1">
       <c r="A459" s="45"/>
       <c r="B459" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C459" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D459" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E459" s="144" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F459" s="61" t="s">
         <v>73</v>
@@ -24619,7 +24630,7 @@
         <v>29</v>
       </c>
       <c r="H459" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I459" s="45">
         <v>298</v>
@@ -24633,10 +24644,10 @@
         <v>33</v>
       </c>
       <c r="M459" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N459" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O459" s="45"/>
       <c r="P459" s="45">
@@ -24650,7 +24661,7 @@
     <row r="460" spans="1:20" ht="15" customHeight="1">
       <c r="A460" s="45"/>
       <c r="B460" s="141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C460" s="142" t="s">
         <v>74</v>
@@ -24666,7 +24677,7 @@
         <v>29</v>
       </c>
       <c r="H460" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I460" s="45">
         <v>298</v>
@@ -24683,10 +24694,10 @@
         <v>67</v>
       </c>
       <c r="M460" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N460" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O460" s="45"/>
       <c r="P460" s="45">
@@ -24702,7 +24713,7 @@
     <row r="461" spans="1:20" ht="15" customHeight="1">
       <c r="A461" s="45"/>
       <c r="B461" s="143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C461" s="144" t="s">
         <v>74</v>
@@ -24718,7 +24729,7 @@
         <v>29</v>
       </c>
       <c r="H461" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I461" s="45">
         <v>298</v>
@@ -24735,10 +24746,10 @@
         <v>67</v>
       </c>
       <c r="M461" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N461" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O461" s="45"/>
       <c r="P461" s="45">
@@ -24754,7 +24765,7 @@
     <row r="462" spans="1:20" ht="15" customHeight="1">
       <c r="A462" s="45"/>
       <c r="B462" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C462" s="144" t="s">
         <v>74</v>
@@ -24770,7 +24781,7 @@
         <v>29</v>
       </c>
       <c r="H462" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I462" s="45">
         <v>298</v>
@@ -24787,10 +24798,10 @@
         <v>67</v>
       </c>
       <c r="M462" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N462" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O462" s="45"/>
       <c r="P462" s="45">
@@ -24806,7 +24817,7 @@
     <row r="463" spans="1:20" ht="15" customHeight="1">
       <c r="A463" s="45"/>
       <c r="B463" s="143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C463" s="144" t="s">
         <v>74</v>
@@ -24822,7 +24833,7 @@
         <v>29</v>
       </c>
       <c r="H463" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I463" s="45">
         <v>298</v>
@@ -24839,10 +24850,10 @@
         <v>67</v>
       </c>
       <c r="M463" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N463" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O463" s="45"/>
       <c r="P463" s="45">
@@ -24858,7 +24869,7 @@
     <row r="464" spans="1:20" ht="15" customHeight="1">
       <c r="A464" s="45"/>
       <c r="B464" s="143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C464" s="144" t="s">
         <v>74</v>
@@ -24874,7 +24885,7 @@
         <v>29</v>
       </c>
       <c r="H464" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I464" s="45">
         <v>298</v>
@@ -24891,10 +24902,10 @@
         <v>67</v>
       </c>
       <c r="M464" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N464" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O464" s="45"/>
       <c r="P464" s="45">
@@ -24910,16 +24921,16 @@
     <row r="465" spans="1:20" ht="15" customHeight="1">
       <c r="A465" s="45"/>
       <c r="B465" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C465" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D465" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E465" s="144" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F465" s="61" t="s">
         <v>72</v>
@@ -24928,7 +24939,7 @@
         <v>29</v>
       </c>
       <c r="H465" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I465" s="45">
         <v>298</v>
@@ -24945,10 +24956,10 @@
         <v>67</v>
       </c>
       <c r="M465" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N465" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O465" s="45"/>
       <c r="P465" s="45">
@@ -24964,16 +24975,16 @@
     <row r="466" spans="1:20" ht="15" customHeight="1">
       <c r="A466" s="45"/>
       <c r="B466" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C466" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D466" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E466" s="144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F466" s="61" t="s">
         <v>72</v>
@@ -24982,7 +24993,7 @@
         <v>29</v>
       </c>
       <c r="H466" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I466" s="45">
         <v>298</v>
@@ -24999,10 +25010,10 @@
         <v>67</v>
       </c>
       <c r="M466" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N466" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O466" s="45"/>
       <c r="P466" s="45">
@@ -25018,16 +25029,16 @@
     <row r="467" spans="1:20" ht="15" customHeight="1">
       <c r="A467" s="45"/>
       <c r="B467" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C467" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D467" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E467" s="144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F467" s="61" t="s">
         <v>72</v>
@@ -25036,7 +25047,7 @@
         <v>29</v>
       </c>
       <c r="H467" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I467" s="45">
         <v>298</v>
@@ -25053,10 +25064,10 @@
         <v>67</v>
       </c>
       <c r="M467" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N467" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O467" s="45"/>
       <c r="P467" s="45">
@@ -25072,16 +25083,16 @@
     <row r="468" spans="1:20" ht="15" customHeight="1">
       <c r="A468" s="45"/>
       <c r="B468" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C468" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D468" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E468" s="144" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F468" s="61" t="s">
         <v>72</v>
@@ -25090,7 +25101,7 @@
         <v>29</v>
       </c>
       <c r="H468" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I468" s="45">
         <v>298</v>
@@ -25107,10 +25118,10 @@
         <v>67</v>
       </c>
       <c r="M468" s="61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N468" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O468" s="45"/>
       <c r="P468" s="45">
@@ -25126,7 +25137,7 @@
     <row r="469" spans="1:20" ht="15" customHeight="1">
       <c r="A469" s="45"/>
       <c r="B469" s="141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C469" s="142" t="s">
         <v>74</v>
@@ -25136,7 +25147,7 @@
       </c>
       <c r="E469" s="142"/>
       <c r="F469" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G469" s="61" t="s">
         <v>29</v>
@@ -25154,10 +25165,10 @@
         <v>292</v>
       </c>
       <c r="M469" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N469" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O469" s="45"/>
       <c r="P469" s="45">
@@ -25171,7 +25182,7 @@
     <row r="470" spans="1:20" ht="15" customHeight="1">
       <c r="A470" s="45"/>
       <c r="B470" s="143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C470" s="144" t="s">
         <v>74</v>
@@ -25181,7 +25192,7 @@
       </c>
       <c r="E470" s="144"/>
       <c r="F470" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G470" s="61" t="s">
         <v>29</v>
@@ -25199,10 +25210,10 @@
         <v>292</v>
       </c>
       <c r="M470" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N470" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O470" s="45"/>
       <c r="P470" s="45">
@@ -25216,7 +25227,7 @@
     <row r="471" spans="1:20" ht="15" customHeight="1">
       <c r="A471" s="45"/>
       <c r="B471" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C471" s="144" t="s">
         <v>74</v>
@@ -25226,7 +25237,7 @@
       </c>
       <c r="E471" s="144"/>
       <c r="F471" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G471" s="61" t="s">
         <v>29</v>
@@ -25244,10 +25255,10 @@
         <v>292</v>
       </c>
       <c r="M471" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N471" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O471" s="45"/>
       <c r="P471" s="45">
@@ -25261,7 +25272,7 @@
     <row r="472" spans="1:20" ht="15" customHeight="1">
       <c r="A472" s="45"/>
       <c r="B472" s="143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C472" s="144" t="s">
         <v>74</v>
@@ -25271,7 +25282,7 @@
       </c>
       <c r="E472" s="144"/>
       <c r="F472" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G472" s="61" t="s">
         <v>29</v>
@@ -25289,10 +25300,10 @@
         <v>292</v>
       </c>
       <c r="M472" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N472" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O472" s="45"/>
       <c r="P472" s="45">
@@ -25306,7 +25317,7 @@
     <row r="473" spans="1:20" ht="15" customHeight="1">
       <c r="A473" s="45"/>
       <c r="B473" s="143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C473" s="144" t="s">
         <v>74</v>
@@ -25316,7 +25327,7 @@
       </c>
       <c r="E473" s="144"/>
       <c r="F473" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G473" s="61" t="s">
         <v>29</v>
@@ -25334,10 +25345,10 @@
         <v>292</v>
       </c>
       <c r="M473" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N473" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O473" s="45"/>
       <c r="P473" s="45">
@@ -25351,7 +25362,7 @@
     <row r="474" spans="1:20" ht="15" customHeight="1">
       <c r="A474" s="45"/>
       <c r="B474" s="141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C474" s="142" t="s">
         <v>74</v>
@@ -25379,10 +25390,10 @@
         <v>87</v>
       </c>
       <c r="M474" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N474" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O474" s="45"/>
       <c r="P474" s="45">
@@ -25396,7 +25407,7 @@
     <row r="475" spans="1:20" ht="15" customHeight="1">
       <c r="A475" s="45"/>
       <c r="B475" s="143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C475" s="144" t="s">
         <v>74</v>
@@ -25424,10 +25435,10 @@
         <v>87</v>
       </c>
       <c r="M475" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N475" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O475" s="45"/>
       <c r="P475" s="45">
@@ -25441,7 +25452,7 @@
     <row r="476" spans="1:20" ht="15" customHeight="1">
       <c r="A476" s="45"/>
       <c r="B476" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C476" s="144" t="s">
         <v>74</v>
@@ -25469,10 +25480,10 @@
         <v>87</v>
       </c>
       <c r="M476" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N476" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O476" s="45"/>
       <c r="P476" s="45">
@@ -25486,7 +25497,7 @@
     <row r="477" spans="1:20" ht="15" customHeight="1">
       <c r="A477" s="45"/>
       <c r="B477" s="143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C477" s="144" t="s">
         <v>74</v>
@@ -25514,10 +25525,10 @@
         <v>87</v>
       </c>
       <c r="M477" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N477" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O477" s="45"/>
       <c r="P477" s="45">
@@ -25531,7 +25542,7 @@
     <row r="478" spans="1:20" ht="15" customHeight="1">
       <c r="A478" s="45"/>
       <c r="B478" s="143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C478" s="144" t="s">
         <v>74</v>
@@ -25559,10 +25570,10 @@
         <v>87</v>
       </c>
       <c r="M478" s="61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N478" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O478" s="45"/>
       <c r="P478" s="45">
@@ -25576,7 +25587,7 @@
     <row r="479" spans="1:20" ht="15" customHeight="1">
       <c r="A479" s="45"/>
       <c r="B479" s="141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C479" s="142" t="s">
         <v>74</v>
@@ -25586,7 +25597,7 @@
       </c>
       <c r="E479" s="142"/>
       <c r="F479" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G479" s="61" t="s">
         <v>29</v>
@@ -25606,7 +25617,7 @@
         <v>95</v>
       </c>
       <c r="N479" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O479" s="45"/>
       <c r="P479" s="45"/>
@@ -25618,7 +25629,7 @@
     <row r="480" spans="1:20" ht="15" customHeight="1">
       <c r="A480" s="45"/>
       <c r="B480" s="143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C480" s="144" t="s">
         <v>74</v>
@@ -25628,7 +25639,7 @@
       </c>
       <c r="E480" s="144"/>
       <c r="F480" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G480" s="61" t="s">
         <v>29</v>
@@ -25648,7 +25659,7 @@
         <v>95</v>
       </c>
       <c r="N480" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O480" s="45"/>
       <c r="P480" s="45"/>
@@ -25660,7 +25671,7 @@
     <row r="481" spans="1:20" ht="15" customHeight="1">
       <c r="A481" s="45"/>
       <c r="B481" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C481" s="144" t="s">
         <v>74</v>
@@ -25670,7 +25681,7 @@
       </c>
       <c r="E481" s="144"/>
       <c r="F481" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G481" s="61" t="s">
         <v>29</v>
@@ -25690,7 +25701,7 @@
         <v>95</v>
       </c>
       <c r="N481" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O481" s="45"/>
       <c r="P481" s="45"/>
@@ -25702,7 +25713,7 @@
     <row r="482" spans="1:20" ht="15" customHeight="1">
       <c r="A482" s="45"/>
       <c r="B482" s="143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C482" s="144" t="s">
         <v>74</v>
@@ -25712,7 +25723,7 @@
       </c>
       <c r="E482" s="144"/>
       <c r="F482" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G482" s="61" t="s">
         <v>29</v>
@@ -25732,7 +25743,7 @@
         <v>95</v>
       </c>
       <c r="N482" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O482" s="45"/>
       <c r="P482" s="45"/>
@@ -25744,7 +25755,7 @@
     <row r="483" spans="1:20" ht="15" customHeight="1">
       <c r="A483" s="45"/>
       <c r="B483" s="143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C483" s="144" t="s">
         <v>74</v>
@@ -25754,7 +25765,7 @@
       </c>
       <c r="E483" s="144"/>
       <c r="F483" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G483" s="61" t="s">
         <v>29</v>
@@ -25774,7 +25785,7 @@
         <v>95</v>
       </c>
       <c r="N483" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O483" s="45"/>
       <c r="P483" s="45"/>
@@ -25786,19 +25797,19 @@
     <row r="484" spans="1:20" ht="15" customHeight="1">
       <c r="A484" s="45"/>
       <c r="B484" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C484" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D484" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E484" s="144" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F484" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G484" s="61" t="s">
         <v>29</v>
@@ -25818,7 +25829,7 @@
         <v>95</v>
       </c>
       <c r="N484" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O484" s="45"/>
       <c r="P484" s="45"/>
@@ -25830,19 +25841,19 @@
     <row r="485" spans="1:20" ht="15" customHeight="1">
       <c r="A485" s="45"/>
       <c r="B485" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C485" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D485" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E485" s="144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F485" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G485" s="61" t="s">
         <v>29</v>
@@ -25862,7 +25873,7 @@
         <v>95</v>
       </c>
       <c r="N485" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O485" s="45"/>
       <c r="P485" s="45"/>
@@ -25874,19 +25885,19 @@
     <row r="486" spans="1:20" ht="15" customHeight="1">
       <c r="A486" s="45"/>
       <c r="B486" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C486" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D486" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E486" s="144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F486" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G486" s="61" t="s">
         <v>29</v>
@@ -25906,7 +25917,7 @@
         <v>95</v>
       </c>
       <c r="N486" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O486" s="45"/>
       <c r="P486" s="45"/>
@@ -25918,19 +25929,19 @@
     <row r="487" spans="1:20" ht="15" customHeight="1">
       <c r="A487" s="45"/>
       <c r="B487" s="143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C487" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D487" s="144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E487" s="144" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F487" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G487" s="61" t="s">
         <v>29</v>
@@ -25950,7 +25961,7 @@
         <v>95</v>
       </c>
       <c r="N487" s="61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O487" s="45"/>
       <c r="P487" s="45"/>
@@ -25974,7 +25985,7 @@
         <v>299</v>
       </c>
       <c r="F488" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G488" s="32" t="s">
         <v>29</v>
@@ -25991,10 +26002,10 @@
         <v>7</v>
       </c>
       <c r="M488" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N488" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O488" s="45"/>
       <c r="P488" s="45"/>
@@ -26018,7 +26029,7 @@
         <v>300</v>
       </c>
       <c r="F489" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G489" s="32" t="s">
         <v>29</v>
@@ -26035,10 +26046,10 @@
         <v>7</v>
       </c>
       <c r="M489" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N489" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O489" s="45"/>
       <c r="P489" s="45"/>
@@ -26062,7 +26073,7 @@
         <v>300</v>
       </c>
       <c r="F490" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G490" s="32" t="s">
         <v>29</v>
@@ -26079,10 +26090,10 @@
         <v>7</v>
       </c>
       <c r="M490" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N490" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O490" s="45"/>
       <c r="P490" s="45"/>
@@ -26106,7 +26117,7 @@
         <v>301</v>
       </c>
       <c r="F491" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G491" s="32" t="s">
         <v>29</v>
@@ -26123,10 +26134,10 @@
         <v>7</v>
       </c>
       <c r="M491" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N491" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O491" s="45"/>
       <c r="P491" s="45"/>
@@ -26150,7 +26161,7 @@
         <v>303</v>
       </c>
       <c r="F492" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G492" s="32" t="s">
         <v>29</v>
@@ -26167,10 +26178,10 @@
         <v>7</v>
       </c>
       <c r="M492" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N492" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O492" s="45"/>
       <c r="P492" s="45"/>
@@ -26194,7 +26205,7 @@
         <v>303</v>
       </c>
       <c r="F493" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G493" s="32" t="s">
         <v>29</v>
@@ -26211,10 +26222,10 @@
         <v>7</v>
       </c>
       <c r="M493" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N493" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O493" s="45"/>
       <c r="P493" s="45"/>
@@ -26238,7 +26249,7 @@
         <v>303</v>
       </c>
       <c r="F494" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G494" s="32" t="s">
         <v>29</v>
@@ -26255,10 +26266,10 @@
         <v>7</v>
       </c>
       <c r="M494" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N494" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O494" s="45"/>
       <c r="P494" s="45"/>
@@ -26282,7 +26293,7 @@
         <v>303</v>
       </c>
       <c r="F495" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G495" s="32" t="s">
         <v>29</v>
@@ -26299,10 +26310,10 @@
         <v>7</v>
       </c>
       <c r="M495" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N495" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O495" s="45"/>
       <c r="P495" s="45"/>
@@ -26326,7 +26337,7 @@
         <v>303</v>
       </c>
       <c r="F496" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G496" s="32" t="s">
         <v>29</v>
@@ -26343,10 +26354,10 @@
         <v>7</v>
       </c>
       <c r="M496" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N496" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O496" s="45"/>
       <c r="P496" s="45"/>
@@ -26370,7 +26381,7 @@
         <v>303</v>
       </c>
       <c r="F497" s="61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G497" s="32" t="s">
         <v>29</v>
@@ -26387,10 +26398,10 @@
         <v>7</v>
       </c>
       <c r="M497" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N497" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O497" s="45"/>
       <c r="P497" s="45"/>
@@ -26431,10 +26442,10 @@
         <v>89</v>
       </c>
       <c r="M498" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N498" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O498" s="45"/>
       <c r="P498" s="45"/>
@@ -26475,10 +26486,10 @@
         <v>89</v>
       </c>
       <c r="M499" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N499" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O499" s="45"/>
       <c r="P499" s="45"/>
@@ -26519,10 +26530,10 @@
         <v>89</v>
       </c>
       <c r="M500" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N500" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O500" s="45"/>
       <c r="P500" s="45"/>
@@ -26563,10 +26574,10 @@
         <v>89</v>
       </c>
       <c r="M501" s="61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N501" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O501" s="45"/>
       <c r="P501" s="45"/>
@@ -26576,20 +26587,42 @@
       <c r="T501" s="37"/>
     </row>
     <row r="502" spans="1:20" ht="15" customHeight="1">
-      <c r="A502" s="45"/>
-      <c r="B502" s="45"/>
-      <c r="C502" s="45"/>
-      <c r="D502" s="45"/>
-      <c r="E502" s="45"/>
-      <c r="F502" s="45"/>
-      <c r="G502" s="45"/>
-      <c r="H502" s="45"/>
-      <c r="I502" s="45"/>
-      <c r="J502" s="45"/>
-      <c r="K502" s="45"/>
-      <c r="L502" s="45"/>
-      <c r="M502" s="45"/>
-      <c r="N502" s="45"/>
+      <c r="A502" s="141"/>
+      <c r="B502" s="142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C502" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="D502" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="E502" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="F502" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G502" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H502" s="142"/>
+      <c r="I502" s="142">
+        <v>300</v>
+      </c>
+      <c r="J502" s="45">
+        <v>0.86044444444444401</v>
+      </c>
+      <c r="K502" s="142"/>
+      <c r="L502" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M502" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N502" s="142" t="s">
+        <v>290</v>
+      </c>
       <c r="O502" s="45"/>
       <c r="P502" s="45"/>
       <c r="Q502" s="45"/>
@@ -26598,20 +26631,42 @@
       <c r="T502" s="37"/>
     </row>
     <row r="503" spans="1:20" ht="15" customHeight="1">
-      <c r="A503" s="45"/>
-      <c r="B503" s="45"/>
-      <c r="C503" s="45"/>
-      <c r="D503" s="45"/>
-      <c r="E503" s="45"/>
-      <c r="F503" s="45"/>
-      <c r="G503" s="45"/>
-      <c r="H503" s="45"/>
-      <c r="I503" s="45"/>
-      <c r="J503" s="45"/>
-      <c r="K503" s="45"/>
-      <c r="L503" s="45"/>
-      <c r="M503" s="45"/>
-      <c r="N503" s="45"/>
+      <c r="A503" s="143"/>
+      <c r="B503" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="C503" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D503" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E503" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F503" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G503" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H503" s="144"/>
+      <c r="I503" s="144">
+        <v>300</v>
+      </c>
+      <c r="J503" s="45">
+        <v>0.78577777777777702</v>
+      </c>
+      <c r="K503" s="144"/>
+      <c r="L503" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M503" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N503" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O503" s="45"/>
       <c r="P503" s="45"/>
       <c r="Q503" s="45"/>
@@ -26620,20 +26675,42 @@
       <c r="T503" s="37"/>
     </row>
     <row r="504" spans="1:20" ht="15" customHeight="1">
-      <c r="A504" s="45"/>
-      <c r="B504" s="45"/>
-      <c r="C504" s="45"/>
-      <c r="D504" s="45"/>
-      <c r="E504" s="45"/>
-      <c r="F504" s="45"/>
-      <c r="G504" s="45"/>
-      <c r="H504" s="45"/>
-      <c r="I504" s="45"/>
-      <c r="J504" s="45"/>
-      <c r="K504" s="45"/>
-      <c r="L504" s="45"/>
-      <c r="M504" s="45"/>
-      <c r="N504" s="45"/>
+      <c r="A504" s="143"/>
+      <c r="B504" s="144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C504" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D504" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E504" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F504" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G504" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H504" s="144"/>
+      <c r="I504" s="144">
+        <v>300</v>
+      </c>
+      <c r="J504" s="45">
+        <v>0.77155555555555499</v>
+      </c>
+      <c r="K504" s="147"/>
+      <c r="L504" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M504" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N504" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O504" s="45"/>
       <c r="P504" s="45"/>
       <c r="Q504" s="45"/>
@@ -26642,20 +26719,42 @@
       <c r="T504" s="37"/>
     </row>
     <row r="505" spans="1:20" ht="15" customHeight="1">
-      <c r="A505" s="45"/>
-      <c r="B505" s="45"/>
-      <c r="C505" s="45"/>
-      <c r="D505" s="45"/>
-      <c r="E505" s="45"/>
-      <c r="F505" s="45"/>
-      <c r="G505" s="45"/>
-      <c r="H505" s="45"/>
-      <c r="I505" s="45"/>
-      <c r="J505" s="45"/>
-      <c r="K505" s="45"/>
-      <c r="L505" s="45"/>
-      <c r="M505" s="45"/>
-      <c r="N505" s="45"/>
+      <c r="A505" s="143"/>
+      <c r="B505" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C505" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D505" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E505" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F505" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G505" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H505" s="144"/>
+      <c r="I505" s="144">
+        <v>300</v>
+      </c>
+      <c r="J505" s="45">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K505" s="147"/>
+      <c r="L505" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M505" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N505" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O505" s="45"/>
       <c r="P505" s="45"/>
       <c r="Q505" s="45"/>
@@ -26664,20 +26763,42 @@
       <c r="T505" s="37"/>
     </row>
     <row r="506" spans="1:20" ht="15" customHeight="1">
-      <c r="A506" s="45"/>
-      <c r="B506" s="45"/>
-      <c r="C506" s="45"/>
-      <c r="D506" s="45"/>
-      <c r="E506" s="45"/>
-      <c r="F506" s="45"/>
-      <c r="G506" s="45"/>
-      <c r="H506" s="45"/>
-      <c r="I506" s="45"/>
-      <c r="J506" s="45"/>
-      <c r="K506" s="45"/>
-      <c r="L506" s="45"/>
-      <c r="M506" s="45"/>
-      <c r="N506" s="45"/>
+      <c r="A506" s="143"/>
+      <c r="B506" s="144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C506" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D506" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E506" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F506" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G506" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H506" s="144"/>
+      <c r="I506" s="144">
+        <v>300</v>
+      </c>
+      <c r="J506" s="45">
+        <v>0.531555555555555</v>
+      </c>
+      <c r="K506" s="147"/>
+      <c r="L506" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M506" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N506" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O506" s="45"/>
       <c r="P506" s="45"/>
       <c r="Q506" s="45"/>
@@ -26686,20 +26807,42 @@
       <c r="T506" s="37"/>
     </row>
     <row r="507" spans="1:20" ht="15" customHeight="1">
-      <c r="A507" s="45"/>
-      <c r="B507" s="45"/>
-      <c r="C507" s="45"/>
-      <c r="D507" s="45"/>
-      <c r="E507" s="45"/>
-      <c r="F507" s="45"/>
-      <c r="G507" s="45"/>
-      <c r="H507" s="45"/>
-      <c r="I507" s="45"/>
-      <c r="J507" s="45"/>
-      <c r="K507" s="45"/>
-      <c r="L507" s="45"/>
-      <c r="M507" s="45"/>
-      <c r="N507" s="45"/>
+      <c r="A507" s="143"/>
+      <c r="B507" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C507" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D507" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E507" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F507" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G507" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H507" s="144"/>
+      <c r="I507" s="144">
+        <v>300</v>
+      </c>
+      <c r="J507" s="45">
+        <v>0.43911111111111101</v>
+      </c>
+      <c r="K507" s="147"/>
+      <c r="L507" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M507" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N507" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O507" s="45"/>
       <c r="P507" s="45"/>
       <c r="Q507" s="45"/>
@@ -26708,20 +26851,42 @@
       <c r="T507" s="37"/>
     </row>
     <row r="508" spans="1:20" ht="15" customHeight="1">
-      <c r="A508" s="45"/>
-      <c r="B508" s="45"/>
-      <c r="C508" s="45"/>
-      <c r="D508" s="45"/>
-      <c r="E508" s="45"/>
-      <c r="F508" s="45"/>
-      <c r="G508" s="45"/>
-      <c r="H508" s="45"/>
-      <c r="I508" s="45"/>
-      <c r="J508" s="45"/>
-      <c r="K508" s="45"/>
-      <c r="L508" s="45"/>
-      <c r="M508" s="45"/>
-      <c r="N508" s="45"/>
+      <c r="A508" s="143"/>
+      <c r="B508" s="144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C508" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D508" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E508" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F508" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G508" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H508" s="144"/>
+      <c r="I508" s="144">
+        <v>300</v>
+      </c>
+      <c r="J508" s="45">
+        <v>0.41955555555555502</v>
+      </c>
+      <c r="K508" s="147"/>
+      <c r="L508" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M508" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N508" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O508" s="45"/>
       <c r="P508" s="45"/>
       <c r="Q508" s="45"/>
@@ -26730,20 +26895,42 @@
       <c r="T508" s="37"/>
     </row>
     <row r="509" spans="1:20" ht="15" customHeight="1">
-      <c r="A509" s="45"/>
-      <c r="B509" s="45"/>
-      <c r="C509" s="45"/>
-      <c r="D509" s="45"/>
-      <c r="E509" s="45"/>
-      <c r="F509" s="45"/>
-      <c r="G509" s="45"/>
-      <c r="H509" s="45"/>
-      <c r="I509" s="45"/>
-      <c r="J509" s="45"/>
-      <c r="K509" s="45"/>
-      <c r="L509" s="45"/>
-      <c r="M509" s="45"/>
-      <c r="N509" s="45"/>
+      <c r="A509" s="143"/>
+      <c r="B509" s="144" t="s">
+        <v>280</v>
+      </c>
+      <c r="C509" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D509" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E509" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F509" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G509" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H509" s="144"/>
+      <c r="I509" s="144">
+        <v>400</v>
+      </c>
+      <c r="J509" s="45">
+        <v>0.82133333333333303</v>
+      </c>
+      <c r="K509" s="147"/>
+      <c r="L509" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M509" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N509" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O509" s="45"/>
       <c r="P509" s="45"/>
       <c r="Q509" s="45"/>
@@ -26752,20 +26939,42 @@
       <c r="T509" s="37"/>
     </row>
     <row r="510" spans="1:20" ht="15" customHeight="1">
-      <c r="A510" s="45"/>
-      <c r="B510" s="45"/>
-      <c r="C510" s="45"/>
-      <c r="D510" s="45"/>
-      <c r="E510" s="45"/>
-      <c r="F510" s="45"/>
-      <c r="G510" s="45"/>
-      <c r="H510" s="45"/>
-      <c r="I510" s="45"/>
-      <c r="J510" s="45"/>
-      <c r="K510" s="45"/>
-      <c r="L510" s="45"/>
-      <c r="M510" s="45"/>
-      <c r="N510" s="45"/>
+      <c r="A510" s="143"/>
+      <c r="B510" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="C510" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D510" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E510" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F510" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G510" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H510" s="144"/>
+      <c r="I510" s="144">
+        <v>400</v>
+      </c>
+      <c r="J510" s="45">
+        <v>0.75022222222222201</v>
+      </c>
+      <c r="K510" s="147"/>
+      <c r="L510" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M510" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N510" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O510" s="45"/>
       <c r="P510" s="45"/>
       <c r="Q510" s="45"/>
@@ -26774,20 +26983,42 @@
       <c r="T510" s="37"/>
     </row>
     <row r="511" spans="1:20" ht="15" customHeight="1">
-      <c r="A511" s="45"/>
-      <c r="B511" s="45"/>
-      <c r="C511" s="45"/>
-      <c r="D511" s="45"/>
-      <c r="E511" s="45"/>
-      <c r="F511" s="45"/>
-      <c r="G511" s="45"/>
-      <c r="H511" s="45"/>
-      <c r="I511" s="45"/>
-      <c r="J511" s="45"/>
-      <c r="K511" s="45"/>
-      <c r="L511" s="45"/>
-      <c r="M511" s="45"/>
-      <c r="N511" s="45"/>
+      <c r="A511" s="143"/>
+      <c r="B511" s="144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C511" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D511" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E511" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F511" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G511" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H511" s="144"/>
+      <c r="I511" s="144">
+        <v>400</v>
+      </c>
+      <c r="J511" s="45">
+        <v>0.73777777777777698</v>
+      </c>
+      <c r="K511" s="147"/>
+      <c r="L511" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M511" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N511" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O511" s="45"/>
       <c r="P511" s="45"/>
       <c r="Q511" s="45"/>
@@ -26796,20 +27027,42 @@
       <c r="T511" s="37"/>
     </row>
     <row r="512" spans="1:20" ht="15" customHeight="1">
-      <c r="A512" s="45"/>
-      <c r="B512" s="45"/>
-      <c r="C512" s="45"/>
-      <c r="D512" s="45"/>
-      <c r="E512" s="45"/>
-      <c r="F512" s="45"/>
-      <c r="G512" s="45"/>
-      <c r="H512" s="45"/>
-      <c r="I512" s="45"/>
-      <c r="J512" s="45"/>
-      <c r="K512" s="45"/>
-      <c r="L512" s="45"/>
-      <c r="M512" s="45"/>
-      <c r="N512" s="45"/>
+      <c r="A512" s="143"/>
+      <c r="B512" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C512" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D512" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E512" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F512" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G512" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H512" s="144"/>
+      <c r="I512" s="144">
+        <v>400</v>
+      </c>
+      <c r="J512" s="45">
+        <v>0.54577777777777703</v>
+      </c>
+      <c r="K512" s="147"/>
+      <c r="L512" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M512" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N512" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O512" s="45"/>
       <c r="P512" s="45"/>
       <c r="Q512" s="45"/>
@@ -26818,20 +27071,42 @@
       <c r="T512" s="37"/>
     </row>
     <row r="513" spans="1:20" ht="15" customHeight="1">
-      <c r="A513" s="45"/>
-      <c r="B513" s="45"/>
-      <c r="C513" s="45"/>
-      <c r="D513" s="45"/>
-      <c r="E513" s="45"/>
-      <c r="F513" s="45"/>
-      <c r="G513" s="45"/>
-      <c r="H513" s="45"/>
-      <c r="I513" s="45"/>
-      <c r="J513" s="45"/>
-      <c r="K513" s="45"/>
-      <c r="L513" s="45"/>
-      <c r="M513" s="45"/>
-      <c r="N513" s="45"/>
+      <c r="A513" s="143"/>
+      <c r="B513" s="144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C513" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D513" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E513" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F513" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G513" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H513" s="144"/>
+      <c r="I513" s="144">
+        <v>400</v>
+      </c>
+      <c r="J513" s="45">
+        <v>0.46933333333333299</v>
+      </c>
+      <c r="K513" s="147"/>
+      <c r="L513" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M513" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N513" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O513" s="45"/>
       <c r="P513" s="45"/>
       <c r="Q513" s="45"/>
@@ -26840,20 +27115,42 @@
       <c r="T513" s="37"/>
     </row>
     <row r="514" spans="1:20" ht="15" customHeight="1">
-      <c r="A514" s="45"/>
-      <c r="B514" s="45"/>
-      <c r="C514" s="45"/>
-      <c r="D514" s="45"/>
-      <c r="E514" s="45"/>
-      <c r="F514" s="45"/>
-      <c r="G514" s="45"/>
-      <c r="H514" s="45"/>
-      <c r="I514" s="45"/>
-      <c r="J514" s="45"/>
-      <c r="K514" s="45"/>
-      <c r="L514" s="45"/>
-      <c r="M514" s="45"/>
-      <c r="N514" s="45"/>
+      <c r="A514" s="143"/>
+      <c r="B514" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C514" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D514" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E514" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F514" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G514" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H514" s="144"/>
+      <c r="I514" s="144">
+        <v>400</v>
+      </c>
+      <c r="J514" s="45">
+        <v>0.376888888888888</v>
+      </c>
+      <c r="K514" s="147"/>
+      <c r="L514" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M514" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N514" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O514" s="45"/>
       <c r="P514" s="45"/>
       <c r="Q514" s="45"/>
@@ -26862,20 +27159,42 @@
       <c r="T514" s="37"/>
     </row>
     <row r="515" spans="1:20" ht="15" customHeight="1">
-      <c r="A515" s="45"/>
-      <c r="B515" s="45"/>
-      <c r="C515" s="45"/>
-      <c r="D515" s="45"/>
-      <c r="E515" s="45"/>
-      <c r="F515" s="45"/>
-      <c r="G515" s="45"/>
-      <c r="H515" s="45"/>
-      <c r="I515" s="45"/>
-      <c r="J515" s="45"/>
-      <c r="K515" s="45"/>
-      <c r="L515" s="45"/>
-      <c r="M515" s="45"/>
-      <c r="N515" s="45"/>
+      <c r="A515" s="143"/>
+      <c r="B515" s="144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C515" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D515" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E515" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F515" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G515" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H515" s="144"/>
+      <c r="I515" s="144">
+        <v>400</v>
+      </c>
+      <c r="J515" s="45">
+        <v>0.36266666666666603</v>
+      </c>
+      <c r="K515" s="147"/>
+      <c r="L515" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M515" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N515" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O515" s="45"/>
       <c r="P515" s="45"/>
       <c r="Q515" s="45"/>
@@ -26884,20 +27203,42 @@
       <c r="T515" s="37"/>
     </row>
     <row r="516" spans="1:20" ht="15" customHeight="1">
-      <c r="A516" s="45"/>
-      <c r="B516" s="45"/>
-      <c r="C516" s="45"/>
-      <c r="D516" s="45"/>
-      <c r="E516" s="45"/>
-      <c r="F516" s="45"/>
-      <c r="G516" s="45"/>
-      <c r="H516" s="45"/>
-      <c r="I516" s="45"/>
-      <c r="J516" s="45"/>
-      <c r="K516" s="45"/>
-      <c r="L516" s="45"/>
-      <c r="M516" s="45"/>
-      <c r="N516" s="45"/>
+      <c r="A516" s="143"/>
+      <c r="B516" s="144" t="s">
+        <v>280</v>
+      </c>
+      <c r="C516" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D516" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E516" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F516" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G516" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H516" s="144"/>
+      <c r="I516" s="144">
+        <v>500</v>
+      </c>
+      <c r="J516" s="45">
+        <v>0.77511111111111097</v>
+      </c>
+      <c r="K516" s="147"/>
+      <c r="L516" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M516" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N516" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O516" s="45"/>
       <c r="P516" s="45"/>
       <c r="Q516" s="45"/>
@@ -26906,20 +27247,42 @@
       <c r="T516" s="37"/>
     </row>
     <row r="517" spans="1:20" ht="15" customHeight="1">
-      <c r="A517" s="45"/>
-      <c r="B517" s="45"/>
-      <c r="C517" s="45"/>
-      <c r="D517" s="45"/>
-      <c r="E517" s="45"/>
-      <c r="F517" s="45"/>
-      <c r="G517" s="45"/>
-      <c r="H517" s="45"/>
-      <c r="I517" s="45"/>
-      <c r="J517" s="45"/>
-      <c r="K517" s="45"/>
-      <c r="L517" s="45"/>
-      <c r="M517" s="45"/>
-      <c r="N517" s="45"/>
+      <c r="A517" s="143"/>
+      <c r="B517" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="C517" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D517" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E517" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F517" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G517" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H517" s="144"/>
+      <c r="I517" s="144">
+        <v>500</v>
+      </c>
+      <c r="J517" s="45">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="K517" s="147"/>
+      <c r="L517" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M517" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N517" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O517" s="45"/>
       <c r="P517" s="45"/>
       <c r="Q517" s="45"/>
@@ -26928,20 +27291,42 @@
       <c r="T517" s="37"/>
     </row>
     <row r="518" spans="1:20" ht="15" customHeight="1">
-      <c r="A518" s="45"/>
-      <c r="B518" s="45"/>
-      <c r="C518" s="45"/>
-      <c r="D518" s="45"/>
-      <c r="E518" s="45"/>
-      <c r="F518" s="45"/>
-      <c r="G518" s="45"/>
-      <c r="H518" s="45"/>
-      <c r="I518" s="45"/>
-      <c r="J518" s="45"/>
-      <c r="K518" s="45"/>
-      <c r="L518" s="45"/>
-      <c r="M518" s="45"/>
-      <c r="N518" s="45"/>
+      <c r="A518" s="143"/>
+      <c r="B518" s="144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C518" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D518" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E518" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F518" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G518" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H518" s="144"/>
+      <c r="I518" s="144">
+        <v>500</v>
+      </c>
+      <c r="J518" s="45">
+        <v>0.68977777777777705</v>
+      </c>
+      <c r="K518" s="147"/>
+      <c r="L518" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M518" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N518" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O518" s="45"/>
       <c r="P518" s="45"/>
       <c r="Q518" s="45"/>
@@ -26950,20 +27335,42 @@
       <c r="T518" s="37"/>
     </row>
     <row r="519" spans="1:20" ht="15" customHeight="1">
-      <c r="A519" s="45"/>
-      <c r="B519" s="45"/>
-      <c r="C519" s="45"/>
-      <c r="D519" s="45"/>
-      <c r="E519" s="45"/>
-      <c r="F519" s="45"/>
-      <c r="G519" s="45"/>
-      <c r="H519" s="45"/>
-      <c r="I519" s="45"/>
-      <c r="J519" s="45"/>
-      <c r="K519" s="45"/>
-      <c r="L519" s="45"/>
-      <c r="M519" s="45"/>
-      <c r="N519" s="45"/>
+      <c r="A519" s="143"/>
+      <c r="B519" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C519" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D519" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E519" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F519" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G519" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H519" s="144"/>
+      <c r="I519" s="144">
+        <v>500</v>
+      </c>
+      <c r="J519" s="45">
+        <v>0.46577777777777701</v>
+      </c>
+      <c r="K519" s="147"/>
+      <c r="L519" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M519" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N519" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O519" s="45"/>
       <c r="P519" s="45"/>
       <c r="Q519" s="45"/>
@@ -26972,20 +27379,42 @@
       <c r="T519" s="37"/>
     </row>
     <row r="520" spans="1:20" ht="15" customHeight="1">
-      <c r="A520" s="45"/>
-      <c r="B520" s="45"/>
-      <c r="C520" s="45"/>
-      <c r="D520" s="45"/>
-      <c r="E520" s="45"/>
-      <c r="F520" s="45"/>
-      <c r="G520" s="45"/>
-      <c r="H520" s="45"/>
-      <c r="I520" s="45"/>
-      <c r="J520" s="45"/>
-      <c r="K520" s="45"/>
-      <c r="L520" s="45"/>
-      <c r="M520" s="45"/>
-      <c r="N520" s="45"/>
+      <c r="A520" s="143"/>
+      <c r="B520" s="144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C520" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D520" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E520" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F520" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G520" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H520" s="144"/>
+      <c r="I520" s="144">
+        <v>500</v>
+      </c>
+      <c r="J520" s="45">
+        <v>0.38755555555555499</v>
+      </c>
+      <c r="K520" s="147"/>
+      <c r="L520" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M520" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N520" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O520" s="45"/>
       <c r="P520" s="45"/>
       <c r="Q520" s="45"/>
@@ -26994,20 +27423,42 @@
       <c r="T520" s="37"/>
     </row>
     <row r="521" spans="1:20" ht="15" customHeight="1">
-      <c r="A521" s="45"/>
-      <c r="B521" s="45"/>
-      <c r="C521" s="45"/>
-      <c r="D521" s="45"/>
-      <c r="E521" s="45"/>
-      <c r="F521" s="45"/>
-      <c r="G521" s="45"/>
-      <c r="H521" s="45"/>
-      <c r="I521" s="45"/>
-      <c r="J521" s="45"/>
-      <c r="K521" s="45"/>
-      <c r="L521" s="45"/>
-      <c r="M521" s="45"/>
-      <c r="N521" s="45"/>
+      <c r="A521" s="143"/>
+      <c r="B521" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C521" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D521" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E521" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F521" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G521" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H521" s="144"/>
+      <c r="I521" s="144">
+        <v>500</v>
+      </c>
+      <c r="J521" s="45">
+        <v>0.284444444444444</v>
+      </c>
+      <c r="K521" s="147"/>
+      <c r="L521" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M521" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N521" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O521" s="45"/>
       <c r="P521" s="45"/>
       <c r="Q521" s="45"/>
@@ -27016,20 +27467,42 @@
       <c r="T521" s="37"/>
     </row>
     <row r="522" spans="1:20" ht="15" customHeight="1">
-      <c r="A522" s="45"/>
-      <c r="B522" s="45"/>
-      <c r="C522" s="45"/>
-      <c r="D522" s="45"/>
-      <c r="E522" s="45"/>
-      <c r="F522" s="45"/>
-      <c r="G522" s="45"/>
-      <c r="H522" s="45"/>
-      <c r="I522" s="45"/>
-      <c r="J522" s="45"/>
-      <c r="K522" s="45"/>
-      <c r="L522" s="45"/>
-      <c r="M522" s="45"/>
-      <c r="N522" s="45"/>
+      <c r="A522" s="143"/>
+      <c r="B522" s="144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C522" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D522" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E522" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F522" s="142" t="s">
+        <v>349</v>
+      </c>
+      <c r="G522" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H522" s="144"/>
+      <c r="I522" s="144">
+        <v>500</v>
+      </c>
+      <c r="J522" s="45">
+        <v>0.28088888888888802</v>
+      </c>
+      <c r="K522" s="147"/>
+      <c r="L522" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M522" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N522" s="144" t="s">
+        <v>290</v>
+      </c>
       <c r="O522" s="45"/>
       <c r="P522" s="45"/>
       <c r="Q522" s="45"/>
@@ -27118,7 +27591,9 @@
       <c r="L526" s="45"/>
       <c r="M526" s="45"/>
       <c r="N526" s="45"/>
-      <c r="O526" s="45"/>
+      <c r="O526" s="45" t="s">
+        <v>304</v>
+      </c>
       <c r="P526" s="45"/>
       <c r="Q526" s="45"/>
       <c r="R526" s="45"/>
@@ -27140,7 +27615,9 @@
       <c r="L527" s="45"/>
       <c r="M527" s="45"/>
       <c r="N527" s="45"/>
-      <c r="O527" s="45"/>
+      <c r="O527" s="45">
+        <v>0.86044444444444401</v>
+      </c>
       <c r="P527" s="45"/>
       <c r="Q527" s="45"/>
       <c r="R527" s="45"/>
@@ -27162,7 +27639,9 @@
       <c r="L528" s="45"/>
       <c r="M528" s="45"/>
       <c r="N528" s="45"/>
-      <c r="O528" s="45"/>
+      <c r="O528" s="45">
+        <v>0.78577777777777702</v>
+      </c>
       <c r="P528" s="45"/>
       <c r="Q528" s="45"/>
       <c r="R528" s="45"/>
@@ -27184,7 +27663,9 @@
       <c r="L529" s="45"/>
       <c r="M529" s="45"/>
       <c r="N529" s="45"/>
-      <c r="O529" s="45"/>
+      <c r="O529" s="45">
+        <v>0.77155555555555499</v>
+      </c>
       <c r="P529" s="45"/>
       <c r="Q529" s="45"/>
       <c r="R529" s="45"/>
@@ -27206,7 +27687,9 @@
       <c r="L530" s="45"/>
       <c r="M530" s="45"/>
       <c r="N530" s="45"/>
-      <c r="O530" s="45"/>
+      <c r="O530" s="45">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="P530" s="45"/>
       <c r="Q530" s="45"/>
       <c r="R530" s="45"/>
@@ -27228,7 +27711,9 @@
       <c r="L531" s="45"/>
       <c r="M531" s="45"/>
       <c r="N531" s="45"/>
-      <c r="O531" s="45"/>
+      <c r="O531" s="45">
+        <v>0.531555555555555</v>
+      </c>
       <c r="P531" s="45"/>
       <c r="Q531" s="45"/>
       <c r="R531" s="45"/>
@@ -27250,7 +27735,9 @@
       <c r="L532" s="45"/>
       <c r="M532" s="45"/>
       <c r="N532" s="45"/>
-      <c r="O532" s="45"/>
+      <c r="O532" s="45">
+        <v>0.43911111111111101</v>
+      </c>
       <c r="P532" s="45"/>
       <c r="Q532" s="45"/>
       <c r="R532" s="45"/>
@@ -27272,7 +27759,9 @@
       <c r="L533" s="45"/>
       <c r="M533" s="45"/>
       <c r="N533" s="45"/>
-      <c r="O533" s="45"/>
+      <c r="O533" s="45">
+        <v>0.41955555555555502</v>
+      </c>
       <c r="P533" s="45"/>
       <c r="Q533" s="45"/>
       <c r="R533" s="45"/>
@@ -27294,7 +27783,9 @@
       <c r="L534" s="45"/>
       <c r="M534" s="45"/>
       <c r="N534" s="45"/>
-      <c r="O534" s="45"/>
+      <c r="O534" s="45">
+        <v>0.82133333333333303</v>
+      </c>
       <c r="P534" s="45"/>
       <c r="Q534" s="45"/>
       <c r="R534" s="45"/>
@@ -27316,7 +27807,9 @@
       <c r="L535" s="45"/>
       <c r="M535" s="45"/>
       <c r="N535" s="45"/>
-      <c r="O535" s="45"/>
+      <c r="O535" s="45">
+        <v>0.75022222222222201</v>
+      </c>
       <c r="P535" s="45"/>
       <c r="Q535" s="45"/>
       <c r="R535" s="45"/>
@@ -27338,7 +27831,9 @@
       <c r="L536" s="45"/>
       <c r="M536" s="45"/>
       <c r="N536" s="45"/>
-      <c r="O536" s="45"/>
+      <c r="O536" s="45">
+        <v>0.73777777777777698</v>
+      </c>
       <c r="P536" s="45"/>
       <c r="Q536" s="45"/>
       <c r="R536" s="45"/>
@@ -27360,7 +27855,9 @@
       <c r="L537" s="45"/>
       <c r="M537" s="45"/>
       <c r="N537" s="45"/>
-      <c r="O537" s="45"/>
+      <c r="O537" s="45">
+        <v>0.54577777777777703</v>
+      </c>
       <c r="P537" s="45"/>
       <c r="Q537" s="45"/>
       <c r="R537" s="45"/>
@@ -27382,7 +27879,9 @@
       <c r="L538" s="45"/>
       <c r="M538" s="45"/>
       <c r="N538" s="45"/>
-      <c r="O538" s="45"/>
+      <c r="O538" s="45">
+        <v>0.46933333333333299</v>
+      </c>
       <c r="P538" s="45"/>
       <c r="Q538" s="45"/>
       <c r="R538" s="45"/>
@@ -27404,7 +27903,9 @@
       <c r="L539" s="45"/>
       <c r="M539" s="45"/>
       <c r="N539" s="45"/>
-      <c r="O539" s="45"/>
+      <c r="O539" s="45">
+        <v>0.376888888888888</v>
+      </c>
       <c r="P539" s="45"/>
       <c r="Q539" s="45"/>
       <c r="R539" s="45"/>
@@ -27426,7 +27927,9 @@
       <c r="L540" s="45"/>
       <c r="M540" s="45"/>
       <c r="N540" s="45"/>
-      <c r="O540" s="45"/>
+      <c r="O540" s="45">
+        <v>0.36266666666666603</v>
+      </c>
       <c r="P540" s="45"/>
       <c r="Q540" s="45"/>
       <c r="R540" s="45"/>
@@ -27448,7 +27951,9 @@
       <c r="L541" s="45"/>
       <c r="M541" s="45"/>
       <c r="N541" s="45"/>
-      <c r="O541" s="45"/>
+      <c r="O541" s="45">
+        <v>0.77511111111111097</v>
+      </c>
       <c r="P541" s="45"/>
       <c r="Q541" s="45"/>
       <c r="R541" s="45"/>
@@ -27470,7 +27975,9 @@
       <c r="L542" s="45"/>
       <c r="M542" s="45"/>
       <c r="N542" s="45"/>
-      <c r="O542" s="45"/>
+      <c r="O542" s="45">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="P542" s="45"/>
       <c r="Q542" s="45"/>
       <c r="R542" s="45"/>
@@ -27492,7 +27999,9 @@
       <c r="L543" s="45"/>
       <c r="M543" s="45"/>
       <c r="N543" s="45"/>
-      <c r="O543" s="45"/>
+      <c r="O543" s="45">
+        <v>0.68977777777777705</v>
+      </c>
       <c r="P543" s="45"/>
       <c r="Q543" s="45"/>
       <c r="R543" s="45"/>
@@ -27514,7 +28023,9 @@
       <c r="L544" s="45"/>
       <c r="M544" s="45"/>
       <c r="N544" s="45"/>
-      <c r="O544" s="45"/>
+      <c r="O544" s="45">
+        <v>0.46577777777777701</v>
+      </c>
       <c r="P544" s="45"/>
       <c r="Q544" s="45"/>
       <c r="R544" s="45"/>
@@ -27536,7 +28047,9 @@
       <c r="L545" s="45"/>
       <c r="M545" s="45"/>
       <c r="N545" s="45"/>
-      <c r="O545" s="45"/>
+      <c r="O545" s="45">
+        <v>0.38755555555555499</v>
+      </c>
       <c r="P545" s="45"/>
       <c r="Q545" s="45"/>
       <c r="R545" s="45"/>
@@ -27558,7 +28071,9 @@
       <c r="L546" s="45"/>
       <c r="M546" s="45"/>
       <c r="N546" s="45"/>
-      <c r="O546" s="45"/>
+      <c r="O546" s="45">
+        <v>0.284444444444444</v>
+      </c>
       <c r="P546" s="45"/>
       <c r="Q546" s="45"/>
       <c r="R546" s="45"/>
@@ -27580,7 +28095,9 @@
       <c r="L547" s="45"/>
       <c r="M547" s="45"/>
       <c r="N547" s="45"/>
-      <c r="O547" s="45"/>
+      <c r="O547" s="45">
+        <v>0.28088888888888802</v>
+      </c>
       <c r="P547" s="45"/>
       <c r="Q547" s="45"/>
       <c r="R547" s="45"/>

--- a/MiscSmallUploads_Jun2025.xlsx
+++ b/MiscSmallUploads_Jun2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856B5F9-70C3-DF4A-904E-2F1717F7D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F77BDD-6948-5540-A484-9A7334012D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="1280" windowWidth="22280" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="359">
   <si>
     <r>
       <rPr>
@@ -1045,9 +1045,6 @@
     <t>vacuum induction melting in argon-filled silica tube with alumina cruicible and slowly cooled; minor D03 is Fe3Si-type ordered BCC 2x2x2 supercell</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>F13b</t>
   </si>
   <si>
@@ -1190,6 +1187,27 @@
   </si>
   <si>
     <t>F9b</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNiNb0.1</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNi</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNiNb0.25</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNiNb0.5</t>
+  </si>
+  <si>
+    <t>BCC+C14</t>
+  </si>
+  <si>
+    <t>AlCoCrFeNiNb0.75</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2011.10.110</t>
   </si>
 </sst>
 </file>
@@ -3686,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T961"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A482" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I538" sqref="I538"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F500" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N548" sqref="N548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -20066,7 +20084,7 @@
         <v>288</v>
       </c>
       <c r="F361" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G361" s="32" t="s">
         <v>29</v>
@@ -20113,7 +20131,7 @@
         <v>288</v>
       </c>
       <c r="F362" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G362" s="32" t="s">
         <v>29</v>
@@ -20160,7 +20178,7 @@
         <v>288</v>
       </c>
       <c r="F363" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G363" s="32" t="s">
         <v>29</v>
@@ -20207,7 +20225,7 @@
         <v>288</v>
       </c>
       <c r="F364" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G364" s="32" t="s">
         <v>29</v>
@@ -20254,7 +20272,7 @@
         <v>288</v>
       </c>
       <c r="F365" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G365" s="32" t="s">
         <v>29</v>
@@ -20301,7 +20319,7 @@
         <v>288</v>
       </c>
       <c r="F366" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G366" s="32" t="s">
         <v>29</v>
@@ -20348,7 +20366,7 @@
         <v>288</v>
       </c>
       <c r="F367" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G367" s="32" t="s">
         <v>29</v>
@@ -20395,7 +20413,7 @@
         <v>299</v>
       </c>
       <c r="F368" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G368" s="32" t="s">
         <v>29</v>
@@ -20415,7 +20433,7 @@
         <v>164</v>
       </c>
       <c r="N368" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O368" s="45"/>
       <c r="P368" s="45"/>
@@ -20439,7 +20457,7 @@
         <v>300</v>
       </c>
       <c r="F369" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G369" s="32" t="s">
         <v>29</v>
@@ -20459,7 +20477,7 @@
         <v>164</v>
       </c>
       <c r="N369" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O369" s="45"/>
       <c r="P369" s="45"/>
@@ -20483,7 +20501,7 @@
         <v>300</v>
       </c>
       <c r="F370" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G370" s="32" t="s">
         <v>29</v>
@@ -20503,7 +20521,7 @@
         <v>164</v>
       </c>
       <c r="N370" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O370" s="45"/>
       <c r="P370" s="45"/>
@@ -20527,7 +20545,7 @@
         <v>301</v>
       </c>
       <c r="F371" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G371" s="32" t="s">
         <v>29</v>
@@ -20547,7 +20565,7 @@
         <v>164</v>
       </c>
       <c r="N371" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O371" s="45"/>
       <c r="P371" s="45"/>
@@ -20571,7 +20589,7 @@
         <v>303</v>
       </c>
       <c r="F372" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G372" s="32" t="s">
         <v>29</v>
@@ -20591,7 +20609,7 @@
         <v>164</v>
       </c>
       <c r="N372" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O372" s="45"/>
       <c r="P372" s="45"/>
@@ -20633,7 +20651,7 @@
       </c>
       <c r="M373" s="61"/>
       <c r="N373" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O373" s="45"/>
       <c r="P373" s="45"/>
@@ -20675,7 +20693,7 @@
       </c>
       <c r="M374" s="61"/>
       <c r="N374" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O374" s="45"/>
       <c r="P374" s="45"/>
@@ -20717,7 +20735,7 @@
       </c>
       <c r="M375" s="61"/>
       <c r="N375" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O375" s="45"/>
       <c r="P375" s="45"/>
@@ -20759,7 +20777,7 @@
       </c>
       <c r="M376" s="61"/>
       <c r="N376" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O376" s="45"/>
       <c r="P376" s="45"/>
@@ -20800,10 +20818,10 @@
         <v>89</v>
       </c>
       <c r="M377" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N377" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O377" s="45"/>
       <c r="P377" s="45"/>
@@ -20844,10 +20862,10 @@
         <v>89</v>
       </c>
       <c r="M378" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N378" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O378" s="45"/>
       <c r="P378" s="45"/>
@@ -20888,10 +20906,10 @@
         <v>89</v>
       </c>
       <c r="M379" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N379" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O379" s="45"/>
       <c r="P379" s="45"/>
@@ -20932,10 +20950,10 @@
         <v>89</v>
       </c>
       <c r="M380" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N380" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O380" s="45"/>
       <c r="P380" s="45"/>
@@ -20976,10 +20994,10 @@
         <v>89</v>
       </c>
       <c r="M381" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N381" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O381" s="45"/>
       <c r="P381" s="45"/>
@@ -21003,7 +21021,7 @@
         <v>299</v>
       </c>
       <c r="F382" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G382" s="32" t="s">
         <v>29</v>
@@ -21021,10 +21039,10 @@
         <v>275</v>
       </c>
       <c r="M382" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N382" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N382" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O382" s="45"/>
       <c r="P382" s="45">
@@ -21050,7 +21068,7 @@
         <v>300</v>
       </c>
       <c r="F383" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G383" s="32" t="s">
         <v>29</v>
@@ -21068,10 +21086,10 @@
         <v>275</v>
       </c>
       <c r="M383" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N383" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N383" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O383" s="45"/>
       <c r="P383" s="45">
@@ -21097,7 +21115,7 @@
         <v>300</v>
       </c>
       <c r="F384" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G384" s="32" t="s">
         <v>29</v>
@@ -21115,10 +21133,10 @@
         <v>275</v>
       </c>
       <c r="M384" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N384" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N384" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O384" s="45"/>
       <c r="P384" s="45">
@@ -21144,7 +21162,7 @@
         <v>301</v>
       </c>
       <c r="F385" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G385" s="32" t="s">
         <v>29</v>
@@ -21162,10 +21180,10 @@
         <v>275</v>
       </c>
       <c r="M385" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N385" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N385" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O385" s="45"/>
       <c r="P385" s="45">
@@ -21191,7 +21209,7 @@
         <v>303</v>
       </c>
       <c r="F386" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G386" s="32" t="s">
         <v>29</v>
@@ -21209,10 +21227,10 @@
         <v>275</v>
       </c>
       <c r="M386" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N386" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N386" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O386" s="45"/>
       <c r="P386" s="45">
@@ -21238,7 +21256,7 @@
         <v>299</v>
       </c>
       <c r="F387" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G387" s="32" t="s">
         <v>29</v>
@@ -21256,10 +21274,10 @@
         <v>275</v>
       </c>
       <c r="M387" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N387" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N387" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O387" s="45"/>
       <c r="P387" s="45">
@@ -21285,7 +21303,7 @@
         <v>300</v>
       </c>
       <c r="F388" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G388" s="32" t="s">
         <v>29</v>
@@ -21303,10 +21321,10 @@
         <v>275</v>
       </c>
       <c r="M388" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N388" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N388" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O388" s="45"/>
       <c r="P388" s="45">
@@ -21332,7 +21350,7 @@
         <v>300</v>
       </c>
       <c r="F389" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G389" s="32" t="s">
         <v>29</v>
@@ -21350,10 +21368,10 @@
         <v>275</v>
       </c>
       <c r="M389" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N389" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N389" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O389" s="45"/>
       <c r="P389" s="45">
@@ -21379,7 +21397,7 @@
         <v>301</v>
       </c>
       <c r="F390" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G390" s="32" t="s">
         <v>29</v>
@@ -21397,10 +21415,10 @@
         <v>275</v>
       </c>
       <c r="M390" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N390" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N390" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O390" s="45"/>
       <c r="P390" s="45">
@@ -21426,7 +21444,7 @@
         <v>303</v>
       </c>
       <c r="F391" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G391" s="32" t="s">
         <v>29</v>
@@ -21444,10 +21462,10 @@
         <v>275</v>
       </c>
       <c r="M391" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N391" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N391" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O391" s="45"/>
       <c r="P391" s="45">
@@ -21473,7 +21491,7 @@
         <v>299</v>
       </c>
       <c r="F392" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G392" s="32" t="s">
         <v>29</v>
@@ -21491,10 +21509,10 @@
         <v>275</v>
       </c>
       <c r="M392" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N392" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N392" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O392" s="45"/>
       <c r="P392" s="45">
@@ -21520,7 +21538,7 @@
         <v>300</v>
       </c>
       <c r="F393" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G393" s="32" t="s">
         <v>29</v>
@@ -21538,10 +21556,10 @@
         <v>275</v>
       </c>
       <c r="M393" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N393" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N393" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O393" s="45"/>
       <c r="P393" s="45">
@@ -21567,7 +21585,7 @@
         <v>300</v>
       </c>
       <c r="F394" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G394" s="32" t="s">
         <v>29</v>
@@ -21585,10 +21603,10 @@
         <v>275</v>
       </c>
       <c r="M394" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N394" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N394" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O394" s="45"/>
       <c r="P394" s="45">
@@ -21614,7 +21632,7 @@
         <v>301</v>
       </c>
       <c r="F395" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G395" s="32" t="s">
         <v>29</v>
@@ -21632,10 +21650,10 @@
         <v>275</v>
       </c>
       <c r="M395" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N395" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N395" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O395" s="45"/>
       <c r="P395" s="45">
@@ -21661,7 +21679,7 @@
         <v>303</v>
       </c>
       <c r="F396" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G396" s="32" t="s">
         <v>29</v>
@@ -21679,10 +21697,10 @@
         <v>275</v>
       </c>
       <c r="M396" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N396" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N396" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O396" s="45"/>
       <c r="P396" s="45">
@@ -21708,7 +21726,7 @@
         <v>299</v>
       </c>
       <c r="F397" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G397" s="32" t="s">
         <v>29</v>
@@ -21726,10 +21744,10 @@
         <v>275</v>
       </c>
       <c r="M397" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N397" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N397" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O397" s="45"/>
       <c r="P397" s="45">
@@ -21755,7 +21773,7 @@
         <v>300</v>
       </c>
       <c r="F398" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G398" s="32" t="s">
         <v>29</v>
@@ -21773,10 +21791,10 @@
         <v>275</v>
       </c>
       <c r="M398" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N398" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N398" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O398" s="45"/>
       <c r="P398" s="45">
@@ -21802,7 +21820,7 @@
         <v>300</v>
       </c>
       <c r="F399" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G399" s="32" t="s">
         <v>29</v>
@@ -21820,10 +21838,10 @@
         <v>275</v>
       </c>
       <c r="M399" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N399" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N399" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O399" s="45"/>
       <c r="P399" s="45">
@@ -21849,7 +21867,7 @@
         <v>301</v>
       </c>
       <c r="F400" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G400" s="32" t="s">
         <v>29</v>
@@ -21867,10 +21885,10 @@
         <v>275</v>
       </c>
       <c r="M400" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N400" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N400" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O400" s="45"/>
       <c r="P400" s="45">
@@ -21896,7 +21914,7 @@
         <v>303</v>
       </c>
       <c r="F401" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G401" s="32" t="s">
         <v>29</v>
@@ -21914,10 +21932,10 @@
         <v>275</v>
       </c>
       <c r="M401" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="N401" s="61" t="s">
         <v>307</v>
-      </c>
-      <c r="N401" s="61" t="s">
-        <v>308</v>
       </c>
       <c r="O401" s="45"/>
       <c r="P401" s="45">
@@ -21931,25 +21949,25 @@
     <row r="402" spans="1:20" ht="18" customHeight="1">
       <c r="A402" s="45"/>
       <c r="B402" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C402" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D402" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E402" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E402" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F402" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G402" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H402" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I402" s="45">
         <v>298</v>
@@ -21963,13 +21981,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="L402" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M402" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N402" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O402" s="45"/>
       <c r="P402" s="45">
@@ -21985,25 +22003,25 @@
     <row r="403" spans="1:20" ht="18" customHeight="1">
       <c r="A403" s="45"/>
       <c r="B403" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C403" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D403" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E403" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E403" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F403" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G403" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H403" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I403" s="45">
         <v>298</v>
@@ -22017,13 +22035,13 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="L403" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M403" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N403" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O403" s="45"/>
       <c r="P403" s="45">
@@ -22039,25 +22057,25 @@
     <row r="404" spans="1:20" ht="18" customHeight="1">
       <c r="A404" s="45"/>
       <c r="B404" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C404" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D404" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E404" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E404" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F404" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G404" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H404" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I404" s="45">
         <v>298</v>
@@ -22071,13 +22089,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="L404" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M404" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N404" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O404" s="45"/>
       <c r="P404" s="45">
@@ -22093,25 +22111,25 @@
     <row r="405" spans="1:20" ht="18" customHeight="1">
       <c r="A405" s="45"/>
       <c r="B405" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C405" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D405" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E405" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E405" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F405" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G405" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H405" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I405" s="45">
         <v>298</v>
@@ -22125,13 +22143,13 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="L405" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M405" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N405" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O405" s="45"/>
       <c r="P405" s="45">
@@ -22147,25 +22165,25 @@
     <row r="406" spans="1:20" ht="18" customHeight="1">
       <c r="A406" s="45"/>
       <c r="B406" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C406" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D406" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E406" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E406" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F406" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G406" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H406" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I406" s="45">
         <v>298</v>
@@ -22179,13 +22197,13 @@
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="L406" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M406" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N406" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O406" s="45"/>
       <c r="P406" s="45">
@@ -22201,25 +22219,25 @@
     <row r="407" spans="1:20" ht="18" customHeight="1">
       <c r="A407" s="45"/>
       <c r="B407" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C407" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D407" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E407" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E407" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F407" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G407" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H407" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I407" s="45">
         <v>298</v>
@@ -22233,13 +22251,13 @@
         <v>2.6000000000000003E-3</v>
       </c>
       <c r="L407" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M407" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N407" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O407" s="45"/>
       <c r="P407" s="45">
@@ -22255,25 +22273,25 @@
     <row r="408" spans="1:20" ht="18" customHeight="1">
       <c r="A408" s="45"/>
       <c r="B408" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C408" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D408" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E408" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E408" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F408" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G408" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H408" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I408" s="45">
         <v>298</v>
@@ -22287,13 +22305,13 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="L408" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M408" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N408" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O408" s="45"/>
       <c r="P408" s="45">
@@ -22309,25 +22327,25 @@
     <row r="409" spans="1:20" ht="18" customHeight="1">
       <c r="A409" s="45"/>
       <c r="B409" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C409" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D409" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E409" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="E409" s="61" t="s">
-        <v>314</v>
-      </c>
       <c r="F409" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G409" s="61" t="s">
         <v>29</v>
       </c>
       <c r="H409" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I409" s="45">
         <v>298</v>
@@ -22341,13 +22359,13 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="L409" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M409" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N409" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O409" s="45"/>
       <c r="P409" s="45">
@@ -22363,25 +22381,25 @@
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="45"/>
       <c r="B410" s="141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C410" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D410" s="142" t="s">
+        <v>312</v>
+      </c>
+      <c r="E410" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="E410" s="142" t="s">
-        <v>314</v>
-      </c>
       <c r="F410" s="142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G410" s="142" t="s">
         <v>29</v>
       </c>
       <c r="H410" s="142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I410" s="142">
         <v>298</v>
@@ -22395,13 +22413,13 @@
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="L410" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M410" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N410" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O410" s="45"/>
       <c r="P410" s="45">
@@ -22417,25 +22435,25 @@
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="45"/>
       <c r="B411" s="143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C411" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D411" s="144" t="s">
+        <v>312</v>
+      </c>
+      <c r="E411" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="E411" s="144" t="s">
-        <v>314</v>
-      </c>
       <c r="F411" s="142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G411" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H411" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I411" s="144">
         <v>298</v>
@@ -22449,13 +22467,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L411" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M411" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N411" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O411" s="45"/>
       <c r="P411" s="45">
@@ -22471,25 +22489,25 @@
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="45"/>
       <c r="B412" s="143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C412" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D412" s="144" t="s">
+        <v>312</v>
+      </c>
+      <c r="E412" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="E412" s="144" t="s">
-        <v>314</v>
-      </c>
       <c r="F412" s="142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G412" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H412" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I412" s="144">
         <v>298</v>
@@ -22503,13 +22521,13 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="L412" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M412" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N412" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O412" s="45"/>
       <c r="P412" s="45">
@@ -22525,25 +22543,25 @@
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="45"/>
       <c r="B413" s="143" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C413" s="144" t="s">
         <v>74</v>
       </c>
       <c r="D413" s="144" t="s">
+        <v>312</v>
+      </c>
+      <c r="E413" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="E413" s="144" t="s">
-        <v>314</v>
-      </c>
       <c r="F413" s="142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G413" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H413" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I413" s="144">
         <v>298</v>
@@ -22557,13 +22575,13 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="L413" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M413" s="61" t="s">
         <v>86</v>
       </c>
       <c r="N413" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O413" s="45"/>
       <c r="P413" s="45">
@@ -22579,7 +22597,7 @@
     <row r="414" spans="1:20" ht="18" customHeight="1">
       <c r="A414" s="45"/>
       <c r="B414" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C414" s="61" t="s">
         <v>74</v>
@@ -22589,13 +22607,13 @@
       </c>
       <c r="E414" s="61"/>
       <c r="F414" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G414" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H414" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I414" s="144">
         <v>298</v>
@@ -22605,13 +22623,13 @@
       </c>
       <c r="K414" s="45"/>
       <c r="L414" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M414" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N414" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O414" s="45"/>
       <c r="P414" s="45"/>
@@ -22623,7 +22641,7 @@
     <row r="415" spans="1:20" ht="18" customHeight="1">
       <c r="A415" s="45"/>
       <c r="B415" s="61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C415" s="61" t="s">
         <v>93</v>
@@ -22633,13 +22651,13 @@
       </c>
       <c r="E415" s="61"/>
       <c r="F415" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G415" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H415" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I415" s="144">
         <v>298</v>
@@ -22649,13 +22667,13 @@
       </c>
       <c r="K415" s="62"/>
       <c r="L415" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M415" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N415" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O415" s="45"/>
       <c r="P415" s="45"/>
@@ -22667,7 +22685,7 @@
     <row r="416" spans="1:20" ht="18" customHeight="1">
       <c r="A416" s="45"/>
       <c r="B416" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C416" s="61" t="s">
         <v>93</v>
@@ -22677,13 +22695,13 @@
       </c>
       <c r="E416" s="61"/>
       <c r="F416" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G416" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H416" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I416" s="144">
         <v>298</v>
@@ -22693,13 +22711,13 @@
       </c>
       <c r="K416" s="62"/>
       <c r="L416" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M416" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N416" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O416" s="45"/>
       <c r="P416" s="45"/>
@@ -22711,7 +22729,7 @@
     <row r="417" spans="1:20" ht="18" customHeight="1">
       <c r="A417" s="45"/>
       <c r="B417" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C417" s="61" t="s">
         <v>74</v>
@@ -22721,13 +22739,13 @@
       </c>
       <c r="E417" s="61"/>
       <c r="F417" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G417" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H417" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I417" s="144">
         <v>298</v>
@@ -22737,13 +22755,13 @@
       </c>
       <c r="K417" s="62"/>
       <c r="L417" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M417" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N417" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O417" s="45"/>
       <c r="P417" s="45"/>
@@ -22755,7 +22773,7 @@
     <row r="418" spans="1:20" ht="18" customHeight="1">
       <c r="A418" s="45"/>
       <c r="B418" s="61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C418" s="61" t="s">
         <v>93</v>
@@ -22765,13 +22783,13 @@
       </c>
       <c r="E418" s="61"/>
       <c r="F418" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G418" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H418" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I418" s="144">
         <v>298</v>
@@ -22781,13 +22799,13 @@
       </c>
       <c r="K418" s="62"/>
       <c r="L418" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M418" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N418" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O418" s="45"/>
       <c r="P418" s="45"/>
@@ -22799,7 +22817,7 @@
     <row r="419" spans="1:20" ht="18" customHeight="1">
       <c r="A419" s="45"/>
       <c r="B419" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C419" s="61" t="s">
         <v>93</v>
@@ -22809,13 +22827,13 @@
       </c>
       <c r="E419" s="61"/>
       <c r="F419" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G419" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H419" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I419" s="144">
         <v>298</v>
@@ -22825,13 +22843,13 @@
       </c>
       <c r="K419" s="62"/>
       <c r="L419" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M419" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N419" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O419" s="45"/>
       <c r="P419" s="45"/>
@@ -22843,7 +22861,7 @@
     <row r="420" spans="1:20" ht="18" customHeight="1">
       <c r="A420" s="61"/>
       <c r="B420" s="141" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C420" s="142" t="s">
         <v>74</v>
@@ -22853,13 +22871,13 @@
       </c>
       <c r="E420" s="61"/>
       <c r="F420" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G420" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H420" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I420" s="144">
         <v>298</v>
@@ -22869,13 +22887,13 @@
       </c>
       <c r="K420" s="62"/>
       <c r="L420" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M420" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="M420" s="61" t="s">
-        <v>323</v>
-      </c>
       <c r="N420" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O420" s="45"/>
       <c r="P420" s="45"/>
@@ -22887,7 +22905,7 @@
     <row r="421" spans="1:20" ht="18" customHeight="1">
       <c r="A421" s="61"/>
       <c r="B421" s="143" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C421" s="144" t="s">
         <v>93</v>
@@ -22897,13 +22915,13 @@
       </c>
       <c r="E421" s="61"/>
       <c r="F421" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G421" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H421" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I421" s="144">
         <v>298</v>
@@ -22913,13 +22931,13 @@
       </c>
       <c r="K421" s="62"/>
       <c r="L421" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M421" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="M421" s="61" t="s">
-        <v>323</v>
-      </c>
       <c r="N421" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O421" s="45"/>
       <c r="P421" s="45"/>
@@ -22931,7 +22949,7 @@
     <row r="422" spans="1:20" ht="18" customHeight="1">
       <c r="A422" s="61"/>
       <c r="B422" s="143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C422" s="144" t="s">
         <v>93</v>
@@ -22941,13 +22959,13 @@
       </c>
       <c r="E422" s="61"/>
       <c r="F422" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G422" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H422" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I422" s="144">
         <v>298</v>
@@ -22957,13 +22975,13 @@
       </c>
       <c r="K422" s="62"/>
       <c r="L422" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M422" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="M422" s="61" t="s">
-        <v>323</v>
-      </c>
       <c r="N422" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O422" s="45"/>
       <c r="P422" s="45"/>
@@ -22975,23 +22993,23 @@
     <row r="423" spans="1:20" ht="15" customHeight="1">
       <c r="A423" s="61"/>
       <c r="B423" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C423" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D423" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E423" s="61"/>
       <c r="F423" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G423" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H423" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I423" s="144">
         <v>298</v>
@@ -23001,13 +23019,13 @@
       </c>
       <c r="K423" s="45"/>
       <c r="L423" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M423" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N423" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O423" s="45"/>
       <c r="P423" s="45"/>
@@ -23019,7 +23037,7 @@
     <row r="424" spans="1:20" ht="15" customHeight="1">
       <c r="A424" s="61"/>
       <c r="B424" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C424" s="61" t="s">
         <v>75</v>
@@ -23029,13 +23047,13 @@
       </c>
       <c r="E424" s="61"/>
       <c r="F424" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G424" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H424" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I424" s="144">
         <v>298</v>
@@ -23045,13 +23063,13 @@
       </c>
       <c r="K424" s="45"/>
       <c r="L424" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M424" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N424" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O424" s="45"/>
       <c r="P424" s="45"/>
@@ -23063,23 +23081,23 @@
     <row r="425" spans="1:20" ht="15" customHeight="1">
       <c r="A425" s="61"/>
       <c r="B425" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C425" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D425" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E425" s="61"/>
       <c r="F425" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G425" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H425" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I425" s="144">
         <v>298</v>
@@ -23089,13 +23107,13 @@
       </c>
       <c r="K425" s="45"/>
       <c r="L425" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M425" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N425" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O425" s="45"/>
       <c r="P425" s="45"/>
@@ -23107,7 +23125,7 @@
     <row r="426" spans="1:20" ht="15" customHeight="1">
       <c r="A426" s="61"/>
       <c r="B426" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C426" s="61" t="s">
         <v>75</v>
@@ -23117,13 +23135,13 @@
       </c>
       <c r="E426" s="61"/>
       <c r="F426" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G426" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H426" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I426" s="144">
         <v>298</v>
@@ -23133,13 +23151,13 @@
       </c>
       <c r="K426" s="45"/>
       <c r="L426" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M426" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N426" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O426" s="45"/>
       <c r="P426" s="45"/>
@@ -23151,23 +23169,23 @@
     <row r="427" spans="1:20" ht="15" customHeight="1">
       <c r="A427" s="61"/>
       <c r="B427" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C427" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D427" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E427" s="61"/>
       <c r="F427" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G427" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H427" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I427" s="144">
         <v>298</v>
@@ -23177,13 +23195,13 @@
       </c>
       <c r="K427" s="45"/>
       <c r="L427" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M427" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N427" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O427" s="45"/>
       <c r="P427" s="45"/>
@@ -23195,7 +23213,7 @@
     <row r="428" spans="1:20" ht="15" customHeight="1">
       <c r="A428" s="61"/>
       <c r="B428" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C428" s="61" t="s">
         <v>75</v>
@@ -23205,13 +23223,13 @@
       </c>
       <c r="E428" s="61"/>
       <c r="F428" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G428" s="144" t="s">
         <v>29</v>
       </c>
       <c r="H428" s="144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I428" s="144">
         <v>298</v>
@@ -23221,13 +23239,13 @@
       </c>
       <c r="K428" s="45"/>
       <c r="L428" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M428" s="61" t="s">
         <v>129</v>
       </c>
       <c r="N428" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O428" s="45"/>
       <c r="P428" s="45"/>
@@ -23239,16 +23257,16 @@
     <row r="429" spans="1:20" ht="15" customHeight="1">
       <c r="A429" s="61"/>
       <c r="B429" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C429" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D429" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E429" s="61" t="s">
         <v>333</v>
-      </c>
-      <c r="E429" s="61" t="s">
-        <v>334</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>84</v>
@@ -23271,7 +23289,7 @@
         <v>146</v>
       </c>
       <c r="N429" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O429" s="45"/>
       <c r="P429" s="45"/>
@@ -23283,16 +23301,16 @@
     <row r="430" spans="1:20" ht="15" customHeight="1">
       <c r="A430" s="61"/>
       <c r="B430" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C430" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D430" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E430" s="61" t="s">
         <v>333</v>
-      </c>
-      <c r="E430" s="61" t="s">
-        <v>334</v>
       </c>
       <c r="F430" s="61" t="s">
         <v>91</v>
@@ -23315,7 +23333,7 @@
         <v>146</v>
       </c>
       <c r="N430" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O430" s="45"/>
       <c r="P430" s="45"/>
@@ -23327,19 +23345,19 @@
     <row r="431" spans="1:20" ht="15" customHeight="1">
       <c r="A431" s="61"/>
       <c r="B431" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C431" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D431" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E431" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="E431" s="61" t="s">
-        <v>334</v>
-      </c>
       <c r="F431" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G431" s="61" t="s">
         <v>29</v>
@@ -23359,7 +23377,7 @@
         <v>146</v>
       </c>
       <c r="N431" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O431" s="45"/>
       <c r="P431" s="45"/>
@@ -23371,16 +23389,16 @@
     <row r="432" spans="1:20" ht="15" customHeight="1">
       <c r="A432" s="61"/>
       <c r="B432" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C432" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D432" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E432" s="61" t="s">
         <v>333</v>
-      </c>
-      <c r="E432" s="61" t="s">
-        <v>334</v>
       </c>
       <c r="F432" s="61" t="s">
         <v>127</v>
@@ -23401,7 +23419,7 @@
         <v>146</v>
       </c>
       <c r="N432" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O432" s="45"/>
       <c r="P432" s="45"/>
@@ -23413,7 +23431,7 @@
     <row r="433" spans="1:20" ht="15" customHeight="1">
       <c r="A433" s="61"/>
       <c r="B433" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C433" s="61" t="s">
         <v>74</v>
@@ -23443,7 +23461,7 @@
         <v>95</v>
       </c>
       <c r="N433" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O433" s="45"/>
       <c r="P433" s="45"/>
@@ -23455,7 +23473,7 @@
     <row r="434" spans="1:20" ht="15" customHeight="1">
       <c r="A434" s="61"/>
       <c r="B434" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C434" s="61" t="s">
         <v>74</v>
@@ -23485,7 +23503,7 @@
         <v>95</v>
       </c>
       <c r="N434" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O434" s="45"/>
       <c r="P434" s="45"/>
@@ -23497,7 +23515,7 @@
     <row r="435" spans="1:20" ht="15" customHeight="1">
       <c r="A435" s="61"/>
       <c r="B435" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C435" s="61" t="s">
         <v>74</v>
@@ -23527,7 +23545,7 @@
         <v>95</v>
       </c>
       <c r="N435" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O435" s="45"/>
       <c r="P435" s="45"/>
@@ -23539,7 +23557,7 @@
     <row r="436" spans="1:20" ht="15" customHeight="1">
       <c r="A436" s="61"/>
       <c r="B436" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C436" s="61" t="s">
         <v>74</v>
@@ -23569,7 +23587,7 @@
         <v>95</v>
       </c>
       <c r="N436" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O436" s="45"/>
       <c r="P436" s="45"/>
@@ -23581,7 +23599,7 @@
     <row r="437" spans="1:20" ht="15" customHeight="1">
       <c r="A437" s="61"/>
       <c r="B437" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C437" s="61" t="s">
         <v>74</v>
@@ -23611,7 +23629,7 @@
         <v>95</v>
       </c>
       <c r="N437" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O437" s="45"/>
       <c r="P437" s="45"/>
@@ -23623,16 +23641,16 @@
     <row r="438" spans="1:20" ht="15" customHeight="1">
       <c r="A438" s="61"/>
       <c r="B438" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C438" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D438" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E438" s="61" t="s">
         <v>341</v>
-      </c>
-      <c r="E438" s="61" t="s">
-        <v>342</v>
       </c>
       <c r="F438" s="61" t="s">
         <v>91</v>
@@ -23655,7 +23673,7 @@
         <v>95</v>
       </c>
       <c r="N438" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O438" s="45"/>
       <c r="P438" s="45"/>
@@ -23667,16 +23685,16 @@
     <row r="439" spans="1:20" ht="15" customHeight="1">
       <c r="A439" s="61"/>
       <c r="B439" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C439" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D439" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E439" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
 